--- a/trunk/biz/MC-MSC-Web/qxy接口定义文档2016-8-8/【千校云】bug列表.xlsx
+++ b/trunk/biz/MC-MSC-Web/qxy接口定义文档2016-8-8/【千校云】bug列表.xlsx
@@ -107,7 +107,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="453">
   <si>
     <t>/qxy/trip</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1603,16 +1603,6 @@
   </si>
   <si>
     <t>404错误</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回正确</t>
-    <rPh sb="0" eb="1">
-      <t>fan h</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>zheng q</t>
-    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1647,13 +1637,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>404错误</t>
-    <rPh sb="3" eb="4">
-      <t>cuo wu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>有返回，creator不正确，SID不正确</t>
     <rPh sb="0" eb="1">
       <t>you</t>
@@ -1720,7 +1703,437 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>OK，插入后数据读不出？</t>
+    <t>无法测试</t>
+    <rPh sb="0" eb="1">
+      <t>wu f</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ce s</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://139.196.101.78:8668/column?type=1&amp;token=910820738640559462371283192</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://139.196.101.78:8668/term?type=1&amp;token=910820738640559462371283192</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"data": "",
+"info": "新增失败，时间入参格式错误",
+"status": 3,
+"token": ""
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引用工作管理-值日值周中值日值周信息日历表状态查询接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/qxy/class/parent?term=[term]&amp;class=[cid]&amp;student=[studentId]&amp;page=[page]&amp;size=[size]&amp;token=[token]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"data": "",
+"info": "修改失败，时间入参格式错误",
+"status": 3,
+"token": ""
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "token":"910820738640559462371283192",
+    "termId": "1",
+    "termName": "2016-2017-1",
+    "startTime": "2016-8-9",
+    "endTime": "2016-12-9",
+    "isUse": "1",
+    "isDefaule":"1"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "token":"910820738640559462371283192",
+    "termId": "1"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常返回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://139.196.101.78:8668/label?token=910820738640559462371283192</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://139.196.101.78:8668/teacher/list?label=0&amp;type=1&amp;page=1&amp;size=1&amp;token=910820738640559462371283192</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://139.196.101.78:8668/course?type=1&amp;token=910820738640559462371283192</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://139.196.101.78:8668/class?class=1&amp;page=1&amp;size=1&amp;token=910820738640559462371283192</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://139.196.101.78:8668/class/worktime?class=1&amp;page=1&amp;size=1&amp;token=910820738640559462371283192</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回正常</t>
+    <rPh sb="3" eb="4">
+      <t>cuo wu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回正常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"data": "",
+"info": "访问失败",
+"status": 1,
+"token": ""
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "token":"910820738640559462371283192",
+    "cid":"1",
+    "workId": "3"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "token":"910820738640559462371283192",
+    "cid":"1",
+    "workId": "3"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回访问失败，需要调整为传班级id和token即可删除，文档已更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://139.196.101.78:8668/gradelabel?type=1&amp;token=910820738640559462371283192</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "token":"910820738640559462371283192"，
+    "workName":"高中毕业班作息"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "token":"910820738640559462371283192"，
+"gradeName":"高一年级"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "token":"910820738640559462371283192"，    
+"gradeId":"1",
+    "gradeName":"高三年级"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "token":"910820738640559462371283192"，    
+"gradeId":"1"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增接口，文档已更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增接口，文档已更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文档已更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文档已更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文档已更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文档已更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文档已更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文档已更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文档已更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文档已更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法获取班级列表,文档已更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文档已更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://139.196.101.78:8668/devicealarm?device=1page=1&amp;size=1&amp;token=910820738640559462371283192</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/qxy/column</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "token":"910820738640559462371283192",
+    "title": "学校新闻",
+    "auth": "1"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "token":"910820738640559462371283192",
+    "title": "学校新闻test",
+    "auth": "1",
+    "columnId": "1",
+    "isUse": "1"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>栏目新增isUse缺省为1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "token":"910820738640559462371283192",
+    "columnId": "3"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">{ 
+ token:"910820738640559462371283192",
+ courseName:"数学"
+} </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "token":"910820738640559462371283192",
+ "courseId":"8",
+    "courseName":"科学",
+    "isUse":"1"  
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "token":"910820738640559462371283192",
+ "courseId":"1"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "token":"910820738640559462371283192"，
+    "termName": "2016-2017-1",
+    "startTime": "2016-09-01 00:00",
+    "endTime": "2017-02-01 00:00"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法新增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "token":"910820738640559462371283192",
+ "termId":"1",
+    "year":"2016",
+    "count": "3",
+    "gradeId": "1"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回正常</t>
+    <rPh sb="0" eb="1">
+      <t>fan h</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zheng q</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "token":"910820738640559462371283192",
+    "cid":"1",
+    "gradeId":"1",   
+    "className": "三班",   
+    "year": "2016"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "token":"910820738640559462371283192",
+    "cid":"1"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回正常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文档已更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "token":"910820738640559462371283192",
+    "workId": "1",
+    "cid":[1]
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/qxy/class/worktime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://139.196.101.78:8668/worktime?token=910820738640559462371283192</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/qxy/worktime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "token":"910820738640559462371283192",
+    "workId":"1",
+    "workName":"高中毕业班作息2"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "token":"910820738640559462371283192",
+ "workId":"1",
+    "wruleName":"早自习二",
+    "wruleStage":"0",   
+    "startTime":"08:00",
+    "endTime":"09:00"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "token":"910820738640559462371283192",
+ "wruleId":"1",
+    "wruleName":"早自习三",
+    "wruleStage":"0",   
+    "startTime":"08:00",
+    "endTime":"09:00"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示访问失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "token":"910820738640559462371283192",
+ "wruleId":"1"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示成功，但是数据库中信息还存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://139.196.101.78:8668/deviceinfo?sid=1&amp;token=910820738640559462371283192</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "token":"910820738640559462371283192"，
+    "deviceId":"12",
+    "sid":"1",
+    "deviceName":"学校校门",
+    "username":"test1",
+    "password":"123456"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/qxy/deviceinfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>404错误，无法新增</t>
     <rPh sb="3" eb="4">
       <t>cha ru</t>
     </rPh>
@@ -1736,17 +2149,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>无法测试</t>
-    <rPh sb="0" eb="1">
-      <t>wu f</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ce s</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回空白（404 not found）</t>
+    <t>需要处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发反馈结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要调整</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无数据</t>
     <rPh sb="0" eb="1">
       <t>fan h</t>
     </rPh>
@@ -1756,307 +2191,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>测试数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://139.196.101.78:8668/column?type=1&amp;token=910820738640559462371283192</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://139.196.101.78:8668/term?type=1&amp;token=910820738640559462371283192</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "token":"910820738640559462371283192"，
-    "termName": "2016-2017-1",
-    "startTime": "2016-09-01 00:00",
-    "endTime": "2017-02-01 00:00"
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"data": "",
-"info": "新增失败，时间入参格式错误",
-"status": 3,
-"token": ""
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>引用工作管理-值日值周中值日值周信息日历表状态查询接口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/qxy/class/parent?term=[term]&amp;class=[cid]&amp;student=[studentId]&amp;page=[page]&amp;size=[size]&amp;token=[token]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"data": "",
-"info": "修改失败，时间入参格式错误",
-"status": 3,
-"token": ""
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- "token":"910820738640559462371283192",
-    "termId": "1",
-    "termName": "2016-2017-1",
-    "startTime": "2016-8-9",
-    "endTime": "2016-12-9",
-    "isUse": "1",
-    "isDefaule":"1"
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- "token":"910820738640559462371283192",
-    "termId": "1"
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>正常返回</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://139.196.101.78:8668/label?token=910820738640559462371283192</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://139.196.101.78:8668/teacher/list?label=0&amp;type=1&amp;page=1&amp;size=1&amp;token=910820738640559462371283192</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无法新增</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无法修改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://139.196.101.78:8668/course?type=1&amp;token=910820738640559462371283192</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">{ 
- token:"910820738640559462371283192",
- courseName:"数学"
-} </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- "token":"910820738640559462371283192",
- "termId":"1",
-    "year":"2016",
-    "count": "3",
-    "gradeId": "1"
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://139.196.101.78:8668/class?class=1&amp;page=1&amp;size=1&amp;token=910820738640559462371283192</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://139.196.101.78:8668/class/worktime?class=1&amp;page=1&amp;size=1&amp;token=910820738640559462371283192</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/qxy/class/worktime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回正常</t>
-    <rPh sb="3" eb="4">
-      <t>cuo wu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回正常</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"data": "",
-"info": "访问失败",
-"status": 1,
-"token": ""
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- "token":"910820738640559462371283192",
-    "workId": "1",
-    "cid":[1]
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- "token":"910820738640559462371283192",
-    "cid":"1",
-    "workId": "3"
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- "token":"910820738640559462371283192",
-    "cid":"1",
-    "workId": "3"
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://139.196.101.78:8668/worktime?token=910820738640559462371283192</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回访问失败，需要调整为传班级id和token即可删除，文档已更新</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/qxy/worktime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://139.196.101.78:8668/gradelabel?type=1&amp;token=910820738640559462371283192</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "token":"910820738640559462371283192"，
-    "workName":"高中毕业班作息"
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "token":"910820738640559462371283192"，
-"gradeName":"高一年级"
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "token":"910820738640559462371283192"，    
-"gradeId":"1",
-    "gradeName":"高三年级"
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "token":"910820738640559462371283192"，    
-"gradeId":"1"
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://139.196.101.78:8668/deviceinfo?sid=1&amp;token=910820738640559462371283192</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "token":"910820738640559462371283192"，
-"deviceId":12,
-"sid":1,
-"deviceName":"学校校门",
-"username":"test1",
-"password":"123456",
-"token":"1"
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增接口，文档已更新</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增接口，文档已更新</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>文档已更新</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>文档已更新</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>文档已更新</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>文档已更新</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>文档已更新</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>文档已更新</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>文档已更新</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>文档已更新</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无法获取班级列表,文档已更新</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>文档已更新</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://139.196.101.78:8668/devicealarm?device=1page=1&amp;size=1&amp;token=910820738640559462371283192</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>问题描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开发反馈是否修复完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/qxy/column</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- "token":"910820738640559462371283192",
-    "title": "学校新闻",
-    "auth": "1"
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型</t>
+    <t>需要处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要处理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2064,7 +2203,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2105,14 +2244,6 @@
     <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="3"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -2275,7 +2406,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2335,10 +2466,10 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2350,23 +2481,23 @@
     <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2962,10 +3093,10 @@
   <dimension ref="A1:AJ168"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="G107" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I6" sqref="I6"/>
+      <selection pane="bottomRight" activeCell="I120" sqref="I120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2978,10 +3109,10 @@
     <col min="6" max="6" width="43.5" style="3" customWidth="1"/>
     <col min="7" max="7" width="8.625" style="18" customWidth="1"/>
     <col min="8" max="8" width="8.375" style="18" customWidth="1"/>
-    <col min="9" max="9" width="17.375" style="18" customWidth="1"/>
+    <col min="9" max="9" width="17.125" style="18" customWidth="1"/>
     <col min="10" max="10" width="31.625" style="15" customWidth="1"/>
     <col min="11" max="11" width="11.75" style="15" customWidth="1"/>
-    <col min="12" max="12" width="20.375" style="27" customWidth="1"/>
+    <col min="12" max="12" width="20.375" style="26" customWidth="1"/>
     <col min="13" max="13" width="12.5" style="19" customWidth="1"/>
     <col min="14" max="14" width="23.625" style="2" customWidth="1"/>
     <col min="15" max="16384" width="9" style="1"/>
@@ -3010,19 +3141,19 @@
         <v>346</v>
       </c>
       <c r="H1" s="18" t="s">
-        <v>428</v>
+        <v>412</v>
       </c>
       <c r="I1" s="18" t="s">
-        <v>425</v>
+        <v>443</v>
       </c>
       <c r="J1" s="15" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="K1" s="15" t="s">
-        <v>423</v>
-      </c>
-      <c r="L1" s="27" t="s">
-        <v>424</v>
+        <v>409</v>
+      </c>
+      <c r="L1" s="26" t="s">
+        <v>410</v>
       </c>
       <c r="M1" s="19" t="s">
         <v>347</v>
@@ -3144,7 +3275,7 @@
         <v>201</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
     </row>
     <row r="9" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -3166,7 +3297,7 @@
         <v>201</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="N10" s="2" t="s">
         <v>318</v>
@@ -3185,8 +3316,8 @@
       <c r="H11" s="18" t="s">
         <v>352</v>
       </c>
-      <c r="L11" s="27" t="s">
-        <v>410</v>
+      <c r="L11" s="26" t="s">
+        <v>396</v>
       </c>
       <c r="N11" s="2" t="s">
         <v>192</v>
@@ -3205,8 +3336,8 @@
       <c r="H12" s="18" t="s">
         <v>352</v>
       </c>
-      <c r="L12" s="27" t="s">
-        <v>411</v>
+      <c r="L12" s="26" t="s">
+        <v>397</v>
       </c>
       <c r="N12" s="2" t="s">
         <v>192</v>
@@ -3312,8 +3443,8 @@
       <c r="F19" s="20" t="s">
         <v>298</v>
       </c>
-      <c r="J19" s="24" t="s">
-        <v>374</v>
+      <c r="J19" s="23" t="s">
+        <v>370</v>
       </c>
       <c r="K19" s="16" t="s">
         <v>359</v>
@@ -3327,13 +3458,22 @@
         <v>198</v>
       </c>
       <c r="F20" s="21" t="s">
-        <v>426</v>
+        <v>411</v>
       </c>
       <c r="G20" s="18" t="s">
         <v>348</v>
       </c>
+      <c r="I20" s="18" t="s">
+        <v>444</v>
+      </c>
       <c r="J20" s="15" t="s">
-        <v>427</v>
+        <v>413</v>
+      </c>
+      <c r="K20" s="15" t="s">
+        <v>378</v>
+      </c>
+      <c r="L20" s="26" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -3349,6 +3489,12 @@
       <c r="G21" s="18" t="s">
         <v>348</v>
       </c>
+      <c r="J21" s="15" t="s">
+        <v>414</v>
+      </c>
+      <c r="K21" s="15" t="s">
+        <v>378</v>
+      </c>
     </row>
     <row r="22" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D22" s="5" t="s">
@@ -3363,6 +3509,12 @@
       <c r="G22" s="18" t="s">
         <v>348</v>
       </c>
+      <c r="J22" s="15" t="s">
+        <v>416</v>
+      </c>
+      <c r="K22" s="15" t="s">
+        <v>378</v>
+      </c>
     </row>
     <row r="23" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="6">
@@ -3744,8 +3896,8 @@
       <c r="H49" s="18" t="s">
         <v>357</v>
       </c>
-      <c r="L49" s="27" t="s">
-        <v>412</v>
+      <c r="L49" s="26" t="s">
+        <v>398</v>
       </c>
       <c r="N49" s="2" t="s">
         <v>203</v>
@@ -3839,7 +3991,7 @@
       <c r="I55" s="18"/>
       <c r="J55" s="15"/>
       <c r="K55" s="15"/>
-      <c r="L55" s="27"/>
+      <c r="L55" s="26"/>
       <c r="M55" s="19"/>
       <c r="N55" s="2"/>
     </row>
@@ -3863,8 +4015,8 @@
       <c r="I56" s="18"/>
       <c r="J56" s="15"/>
       <c r="K56" s="15"/>
-      <c r="L56" s="27" t="s">
-        <v>413</v>
+      <c r="L56" s="26" t="s">
+        <v>399</v>
       </c>
       <c r="M56" s="19"/>
       <c r="N56" s="2" t="s">
@@ -3887,7 +4039,7 @@
       <c r="I57" s="18"/>
       <c r="J57" s="15"/>
       <c r="K57" s="15"/>
-      <c r="L57" s="27"/>
+      <c r="L57" s="26"/>
       <c r="M57" s="19"/>
       <c r="N57" s="2"/>
     </row>
@@ -3915,8 +4067,8 @@
       <c r="I58" s="18"/>
       <c r="J58" s="15"/>
       <c r="K58" s="15"/>
-      <c r="L58" s="27" t="s">
-        <v>412</v>
+      <c r="L58" s="26" t="s">
+        <v>398</v>
       </c>
       <c r="M58" s="19"/>
       <c r="N58" s="2" t="s">
@@ -3941,7 +4093,7 @@
       <c r="I59" s="18"/>
       <c r="J59" s="15"/>
       <c r="K59" s="15"/>
-      <c r="L59" s="27"/>
+      <c r="L59" s="26"/>
       <c r="M59" s="19"/>
       <c r="N59" s="2"/>
     </row>
@@ -3965,7 +4117,7 @@
       <c r="I60" s="18"/>
       <c r="J60" s="15"/>
       <c r="K60" s="15"/>
-      <c r="L60" s="27"/>
+      <c r="L60" s="26"/>
       <c r="M60" s="19"/>
       <c r="N60" s="2"/>
     </row>
@@ -3991,8 +4143,8 @@
       <c r="I61" s="18"/>
       <c r="J61" s="15"/>
       <c r="K61" s="15"/>
-      <c r="L61" s="27" t="s">
-        <v>414</v>
+      <c r="L61" s="26" t="s">
+        <v>400</v>
       </c>
       <c r="M61" s="19"/>
       <c r="N61" s="2" t="s">
@@ -4021,8 +4173,8 @@
       <c r="I62" s="18"/>
       <c r="J62" s="15"/>
       <c r="K62" s="15"/>
-      <c r="L62" s="27" t="s">
-        <v>415</v>
+      <c r="L62" s="26" t="s">
+        <v>401</v>
       </c>
       <c r="M62" s="19"/>
       <c r="N62" s="2" t="s">
@@ -4051,8 +4203,8 @@
       <c r="I63" s="18"/>
       <c r="J63" s="15"/>
       <c r="K63" s="15"/>
-      <c r="L63" s="27" t="s">
-        <v>414</v>
+      <c r="L63" s="26" t="s">
+        <v>400</v>
       </c>
       <c r="M63" s="19"/>
       <c r="N63" s="2" t="s">
@@ -4077,7 +4229,7 @@
       <c r="I64" s="18"/>
       <c r="J64" s="15"/>
       <c r="K64" s="15"/>
-      <c r="L64" s="27"/>
+      <c r="L64" s="26"/>
       <c r="M64" s="19"/>
       <c r="N64" s="2"/>
     </row>
@@ -4099,7 +4251,7 @@
       <c r="I65" s="18"/>
       <c r="J65" s="15"/>
       <c r="K65" s="15"/>
-      <c r="L65" s="27"/>
+      <c r="L65" s="26"/>
       <c r="M65" s="19"/>
       <c r="N65" s="2"/>
     </row>
@@ -4123,7 +4275,7 @@
       <c r="I66" s="18"/>
       <c r="J66" s="15"/>
       <c r="K66" s="15"/>
-      <c r="L66" s="27"/>
+      <c r="L66" s="26"/>
       <c r="M66" s="19"/>
       <c r="N66" s="2" t="s">
         <v>214</v>
@@ -4147,7 +4299,7 @@
       <c r="I67" s="18"/>
       <c r="J67" s="15"/>
       <c r="K67" s="15"/>
-      <c r="L67" s="27"/>
+      <c r="L67" s="26"/>
       <c r="M67" s="19"/>
       <c r="N67" s="2" t="s">
         <v>211</v>
@@ -4173,8 +4325,8 @@
       <c r="I68" s="18"/>
       <c r="J68" s="15"/>
       <c r="K68" s="15"/>
-      <c r="L68" s="27" t="s">
-        <v>412</v>
+      <c r="L68" s="26" t="s">
+        <v>398</v>
       </c>
       <c r="M68" s="19"/>
       <c r="N68" s="2" t="s">
@@ -4201,8 +4353,8 @@
       <c r="I69" s="18"/>
       <c r="J69" s="15"/>
       <c r="K69" s="15"/>
-      <c r="L69" s="27" t="s">
-        <v>412</v>
+      <c r="L69" s="26" t="s">
+        <v>398</v>
       </c>
       <c r="M69" s="19"/>
       <c r="N69" s="2" t="s">
@@ -4227,7 +4379,7 @@
       <c r="I70" s="18"/>
       <c r="J70" s="15"/>
       <c r="K70" s="15"/>
-      <c r="L70" s="27"/>
+      <c r="L70" s="26"/>
       <c r="M70" s="19"/>
       <c r="N70" s="2" t="s">
         <v>206</v>
@@ -4253,8 +4405,8 @@
       <c r="I71" s="18"/>
       <c r="J71" s="15"/>
       <c r="K71" s="15"/>
-      <c r="L71" s="27" t="s">
-        <v>416</v>
+      <c r="L71" s="26" t="s">
+        <v>402</v>
       </c>
       <c r="M71" s="19"/>
       <c r="N71" s="2" t="s">
@@ -4281,8 +4433,8 @@
       <c r="I72" s="18"/>
       <c r="J72" s="15"/>
       <c r="K72" s="15"/>
-      <c r="L72" s="27" t="s">
-        <v>412</v>
+      <c r="L72" s="26" t="s">
+        <v>398</v>
       </c>
       <c r="M72" s="19"/>
       <c r="N72" s="2" t="s">
@@ -4309,8 +4461,8 @@
       <c r="I73" s="18"/>
       <c r="J73" s="15"/>
       <c r="K73" s="15"/>
-      <c r="L73" s="27" t="s">
-        <v>414</v>
+      <c r="L73" s="26" t="s">
+        <v>400</v>
       </c>
       <c r="M73" s="19"/>
       <c r="N73" s="2" t="s">
@@ -4337,8 +4489,8 @@
       <c r="I74" s="18"/>
       <c r="J74" s="15"/>
       <c r="K74" s="15"/>
-      <c r="L74" s="27" t="s">
-        <v>412</v>
+      <c r="L74" s="26" t="s">
+        <v>398</v>
       </c>
       <c r="M74" s="19"/>
       <c r="N74" s="2" t="s">
@@ -4365,8 +4517,8 @@
       <c r="I75" s="18"/>
       <c r="J75" s="15"/>
       <c r="K75" s="15"/>
-      <c r="L75" s="27" t="s">
-        <v>414</v>
+      <c r="L75" s="26" t="s">
+        <v>400</v>
       </c>
       <c r="M75" s="19"/>
       <c r="N75" s="2" t="s">
@@ -4393,7 +4545,7 @@
       <c r="I76" s="18"/>
       <c r="J76" s="15"/>
       <c r="K76" s="15"/>
-      <c r="L76" s="27"/>
+      <c r="L76" s="26"/>
       <c r="M76" s="19"/>
       <c r="N76" s="2"/>
     </row>
@@ -4417,8 +4569,8 @@
       <c r="I77" s="18"/>
       <c r="J77" s="15"/>
       <c r="K77" s="15"/>
-      <c r="L77" s="27" t="s">
-        <v>412</v>
+      <c r="L77" s="26" t="s">
+        <v>398</v>
       </c>
       <c r="M77" s="19"/>
       <c r="N77" s="2" t="s">
@@ -4445,8 +4597,8 @@
       <c r="I78" s="18"/>
       <c r="J78" s="15"/>
       <c r="K78" s="15"/>
-      <c r="L78" s="27" t="s">
-        <v>412</v>
+      <c r="L78" s="26" t="s">
+        <v>398</v>
       </c>
       <c r="M78" s="19"/>
       <c r="N78" s="2" t="s">
@@ -4473,8 +4625,8 @@
       <c r="I79" s="18"/>
       <c r="J79" s="15"/>
       <c r="K79" s="15"/>
-      <c r="L79" s="27" t="s">
-        <v>412</v>
+      <c r="L79" s="26" t="s">
+        <v>398</v>
       </c>
       <c r="M79" s="19"/>
       <c r="N79" s="2" t="s">
@@ -4499,7 +4651,7 @@
       <c r="I80" s="18"/>
       <c r="J80" s="15"/>
       <c r="K80" s="15"/>
-      <c r="L80" s="27"/>
+      <c r="L80" s="26"/>
       <c r="M80" s="19"/>
       <c r="N80" s="2"/>
     </row>
@@ -4521,7 +4673,7 @@
       <c r="I81" s="18"/>
       <c r="J81" s="15"/>
       <c r="K81" s="15"/>
-      <c r="L81" s="27"/>
+      <c r="L81" s="26"/>
       <c r="M81" s="19"/>
       <c r="N81" s="2" t="s">
         <v>180</v>
@@ -4545,7 +4697,7 @@
       <c r="I82" s="18"/>
       <c r="J82" s="15"/>
       <c r="K82" s="15"/>
-      <c r="L82" s="27"/>
+      <c r="L82" s="26"/>
       <c r="M82" s="19"/>
       <c r="N82" s="2"/>
     </row>
@@ -4567,7 +4719,7 @@
       <c r="I83" s="18"/>
       <c r="J83" s="15"/>
       <c r="K83" s="15"/>
-      <c r="L83" s="27"/>
+      <c r="L83" s="26"/>
       <c r="M83" s="19"/>
       <c r="N83" s="2"/>
     </row>
@@ -4597,7 +4749,7 @@
       <c r="I84" s="18"/>
       <c r="J84" s="15"/>
       <c r="K84" s="15"/>
-      <c r="L84" s="27"/>
+      <c r="L84" s="26"/>
       <c r="M84" s="19"/>
       <c r="N84" s="2"/>
     </row>
@@ -4623,8 +4775,8 @@
       <c r="I85" s="18"/>
       <c r="J85" s="15"/>
       <c r="K85" s="15"/>
-      <c r="L85" s="27" t="s">
-        <v>412</v>
+      <c r="L85" s="26" t="s">
+        <v>398</v>
       </c>
       <c r="M85" s="19"/>
       <c r="N85" s="2" t="s">
@@ -4651,7 +4803,7 @@
       <c r="I86" s="18"/>
       <c r="J86" s="15"/>
       <c r="K86" s="15"/>
-      <c r="L86" s="27"/>
+      <c r="L86" s="26"/>
       <c r="M86" s="19"/>
       <c r="N86" s="2"/>
     </row>
@@ -4677,7 +4829,7 @@
       <c r="I87" s="18"/>
       <c r="J87" s="15"/>
       <c r="K87" s="15"/>
-      <c r="L87" s="27"/>
+      <c r="L87" s="26"/>
       <c r="M87" s="19"/>
       <c r="N87" s="2"/>
     </row>
@@ -4701,7 +4853,7 @@
       <c r="I88" s="18"/>
       <c r="J88" s="15"/>
       <c r="K88" s="15"/>
-      <c r="L88" s="27"/>
+      <c r="L88" s="26"/>
       <c r="M88" s="19"/>
       <c r="N88" s="2"/>
     </row>
@@ -4725,7 +4877,7 @@
       <c r="I89" s="18"/>
       <c r="J89" s="15"/>
       <c r="K89" s="15"/>
-      <c r="L89" s="27"/>
+      <c r="L89" s="26"/>
       <c r="M89" s="19"/>
       <c r="N89" s="2"/>
     </row>
@@ -4749,7 +4901,7 @@
       <c r="I90" s="18"/>
       <c r="J90" s="15"/>
       <c r="K90" s="15"/>
-      <c r="L90" s="27"/>
+      <c r="L90" s="26"/>
       <c r="M90" s="19"/>
       <c r="N90" s="2"/>
     </row>
@@ -4777,8 +4929,8 @@
       <c r="I91" s="18"/>
       <c r="J91" s="15"/>
       <c r="K91" s="15"/>
-      <c r="L91" s="27" t="s">
-        <v>417</v>
+      <c r="L91" s="26" t="s">
+        <v>403</v>
       </c>
       <c r="M91" s="19"/>
       <c r="N91" s="2" t="s">
@@ -4807,8 +4959,8 @@
       <c r="I92" s="18"/>
       <c r="J92" s="15"/>
       <c r="K92" s="15"/>
-      <c r="L92" s="27" t="s">
-        <v>412</v>
+      <c r="L92" s="26" t="s">
+        <v>398</v>
       </c>
       <c r="M92" s="19"/>
       <c r="N92" s="2" t="s">
@@ -4835,8 +4987,8 @@
       <c r="I93" s="18"/>
       <c r="J93" s="15"/>
       <c r="K93" s="15"/>
-      <c r="L93" s="27" t="s">
-        <v>412</v>
+      <c r="L93" s="26" t="s">
+        <v>398</v>
       </c>
       <c r="M93" s="19"/>
       <c r="N93" s="2" t="s">
@@ -4864,7 +5016,7 @@
       <c r="I94" s="18"/>
       <c r="J94" s="15"/>
       <c r="K94" s="15"/>
-      <c r="L94" s="27"/>
+      <c r="L94" s="26"/>
       <c r="M94" s="19"/>
       <c r="N94" s="2"/>
     </row>
@@ -4886,7 +5038,7 @@
       <c r="I95" s="18"/>
       <c r="J95" s="15"/>
       <c r="K95" s="15"/>
-      <c r="L95" s="27"/>
+      <c r="L95" s="26"/>
       <c r="M95" s="19"/>
       <c r="N95" s="2"/>
     </row>
@@ -4916,7 +5068,7 @@
       <c r="I96" s="18"/>
       <c r="J96" s="15"/>
       <c r="K96" s="15"/>
-      <c r="L96" s="27"/>
+      <c r="L96" s="26"/>
       <c r="M96" s="19"/>
       <c r="N96" s="2"/>
     </row>
@@ -4938,7 +5090,7 @@
       <c r="I97" s="18"/>
       <c r="J97" s="15"/>
       <c r="K97" s="15"/>
-      <c r="L97" s="27"/>
+      <c r="L97" s="26"/>
       <c r="M97" s="19"/>
       <c r="N97" s="2"/>
     </row>
@@ -4960,7 +5112,7 @@
       <c r="I98" s="18"/>
       <c r="J98" s="15"/>
       <c r="K98" s="15"/>
-      <c r="L98" s="27"/>
+      <c r="L98" s="26"/>
       <c r="M98" s="19"/>
       <c r="N98" s="2"/>
     </row>
@@ -4982,7 +5134,7 @@
       <c r="I99" s="18"/>
       <c r="J99" s="15"/>
       <c r="K99" s="15"/>
-      <c r="L99" s="27"/>
+      <c r="L99" s="26"/>
       <c r="M99" s="19"/>
       <c r="N99" s="2"/>
     </row>
@@ -5004,7 +5156,7 @@
       <c r="I100" s="18"/>
       <c r="J100" s="15"/>
       <c r="K100" s="15"/>
-      <c r="L100" s="27"/>
+      <c r="L100" s="26"/>
       <c r="M100" s="19"/>
       <c r="N100" s="2"/>
     </row>
@@ -5027,13 +5179,13 @@
       </c>
       <c r="H101" s="18"/>
       <c r="I101" s="18"/>
-      <c r="J101" s="24" t="s">
-        <v>375</v>
+      <c r="J101" s="23" t="s">
+        <v>371</v>
       </c>
       <c r="K101" s="16" t="s">
         <v>359</v>
       </c>
-      <c r="L101" s="27"/>
+      <c r="L101" s="26"/>
       <c r="M101" s="19"/>
       <c r="N101" s="2"/>
     </row>
@@ -5052,15 +5204,17 @@
         <v>348</v>
       </c>
       <c r="H102" s="18"/>
-      <c r="I102" s="18"/>
+      <c r="I102" s="18" t="s">
+        <v>446</v>
+      </c>
       <c r="J102" s="17" t="s">
-        <v>376</v>
+        <v>420</v>
       </c>
       <c r="K102" s="17" t="s">
-        <v>377</v>
-      </c>
-      <c r="L102" s="27" t="s">
-        <v>386</v>
+        <v>372</v>
+      </c>
+      <c r="L102" s="26" t="s">
+        <v>421</v>
       </c>
       <c r="M102" s="19"/>
       <c r="N102" s="2"/>
@@ -5080,15 +5234,17 @@
         <v>348</v>
       </c>
       <c r="H103" s="18"/>
-      <c r="I103" s="18"/>
+      <c r="I103" s="18" t="s">
+        <v>447</v>
+      </c>
       <c r="J103" s="15" t="s">
+        <v>376</v>
+      </c>
+      <c r="K103" s="15" t="s">
+        <v>375</v>
+      </c>
+      <c r="L103" s="26" t="s">
         <v>381</v>
-      </c>
-      <c r="K103" s="15" t="s">
-        <v>380</v>
-      </c>
-      <c r="L103" s="27" t="s">
-        <v>387</v>
       </c>
       <c r="M103" s="19"/>
       <c r="N103" s="2"/>
@@ -5110,12 +5266,12 @@
       <c r="H104" s="18"/>
       <c r="I104" s="18"/>
       <c r="J104" s="15" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="K104" s="15" t="s">
-        <v>383</v>
-      </c>
-      <c r="L104" s="27"/>
+        <v>378</v>
+      </c>
+      <c r="L104" s="26"/>
       <c r="M104" s="19"/>
       <c r="N104" s="2"/>
     </row>
@@ -5143,13 +5299,13 @@
       </c>
       <c r="H105" s="18"/>
       <c r="I105" s="18"/>
-      <c r="J105" s="24" t="s">
-        <v>384</v>
+      <c r="J105" s="23" t="s">
+        <v>379</v>
       </c>
       <c r="K105" s="16" t="s">
         <v>359</v>
       </c>
-      <c r="L105" s="27"/>
+      <c r="L105" s="26"/>
       <c r="M105" s="19"/>
       <c r="N105" s="2"/>
     </row>
@@ -5169,13 +5325,13 @@
       </c>
       <c r="H106" s="18"/>
       <c r="I106" s="18"/>
-      <c r="J106" s="24" t="s">
-        <v>385</v>
+      <c r="J106" s="23" t="s">
+        <v>380</v>
       </c>
       <c r="K106" s="16" t="s">
         <v>360</v>
       </c>
-      <c r="L106" s="27"/>
+      <c r="L106" s="26"/>
       <c r="M106" s="19"/>
       <c r="N106" s="2"/>
     </row>
@@ -5199,7 +5355,7 @@
       <c r="I107" s="18"/>
       <c r="J107" s="15"/>
       <c r="K107" s="15"/>
-      <c r="L107" s="27"/>
+      <c r="L107" s="26"/>
       <c r="M107" s="19"/>
       <c r="N107" s="2"/>
     </row>
@@ -5223,7 +5379,7 @@
       <c r="I108" s="18"/>
       <c r="J108" s="15"/>
       <c r="K108" s="15"/>
-      <c r="L108" s="27"/>
+      <c r="L108" s="26"/>
       <c r="M108" s="19"/>
       <c r="N108" s="2"/>
     </row>
@@ -5247,7 +5403,7 @@
       <c r="I109" s="18"/>
       <c r="J109" s="15"/>
       <c r="K109" s="15"/>
-      <c r="L109" s="27"/>
+      <c r="L109" s="26"/>
       <c r="M109" s="19"/>
       <c r="N109" s="2"/>
     </row>
@@ -5273,7 +5429,7 @@
       <c r="I110" s="18"/>
       <c r="J110" s="15"/>
       <c r="K110" s="15"/>
-      <c r="L110" s="27"/>
+      <c r="L110" s="26"/>
       <c r="M110" s="19"/>
       <c r="N110" s="2"/>
     </row>
@@ -5297,7 +5453,7 @@
       <c r="I111" s="18"/>
       <c r="J111" s="15"/>
       <c r="K111" s="15"/>
-      <c r="L111" s="27"/>
+      <c r="L111" s="26"/>
       <c r="M111" s="19"/>
       <c r="N111" s="2" t="s">
         <v>113</v>
@@ -5323,7 +5479,7 @@
       <c r="I112" s="18"/>
       <c r="J112" s="15"/>
       <c r="K112" s="15"/>
-      <c r="L112" s="27"/>
+      <c r="L112" s="26"/>
       <c r="M112" s="19"/>
       <c r="N112" s="2" t="s">
         <v>113</v>
@@ -5349,7 +5505,7 @@
       <c r="I113" s="18"/>
       <c r="J113" s="15"/>
       <c r="K113" s="15"/>
-      <c r="L113" s="27"/>
+      <c r="L113" s="26"/>
       <c r="M113" s="19"/>
       <c r="N113" s="2"/>
     </row>
@@ -5375,7 +5531,7 @@
       <c r="I114" s="18"/>
       <c r="J114" s="15"/>
       <c r="K114" s="15"/>
-      <c r="L114" s="27"/>
+      <c r="L114" s="26"/>
       <c r="M114" s="19"/>
       <c r="N114" s="2"/>
     </row>
@@ -5399,7 +5555,7 @@
       <c r="I115" s="18"/>
       <c r="J115" s="15"/>
       <c r="K115" s="15"/>
-      <c r="L115" s="27"/>
+      <c r="L115" s="26"/>
       <c r="M115" s="19"/>
       <c r="N115" s="2"/>
     </row>
@@ -5423,7 +5579,7 @@
       <c r="I116" s="18"/>
       <c r="J116" s="15"/>
       <c r="K116" s="15"/>
-      <c r="L116" s="27"/>
+      <c r="L116" s="26"/>
       <c r="M116" s="19"/>
       <c r="N116" s="2"/>
     </row>
@@ -5453,7 +5609,7 @@
       <c r="I117" s="18"/>
       <c r="J117" s="15"/>
       <c r="K117" s="15"/>
-      <c r="L117" s="27"/>
+      <c r="L117" s="26"/>
       <c r="M117" s="19"/>
       <c r="N117" s="2"/>
     </row>
@@ -5477,7 +5633,7 @@
       <c r="I118" s="18"/>
       <c r="J118" s="15"/>
       <c r="K118" s="15"/>
-      <c r="L118" s="27"/>
+      <c r="L118" s="26"/>
       <c r="M118" s="19"/>
       <c r="N118" s="2" t="s">
         <v>100</v>
@@ -5502,11 +5658,13 @@
       <c r="H119" s="18" t="s">
         <v>357</v>
       </c>
-      <c r="I119" s="18"/>
+      <c r="I119" s="18" t="s">
+        <v>442</v>
+      </c>
       <c r="J119" s="15"/>
       <c r="K119" s="15"/>
-      <c r="L119" s="27" t="s">
-        <v>418</v>
+      <c r="L119" s="26" t="s">
+        <v>427</v>
       </c>
       <c r="M119" s="19"/>
       <c r="N119" s="2" t="s">
@@ -5535,7 +5693,7 @@
       <c r="I120" s="18"/>
       <c r="J120" s="15"/>
       <c r="K120" s="15"/>
-      <c r="L120" s="27"/>
+      <c r="L120" s="26"/>
       <c r="M120" s="19"/>
       <c r="N120" s="2"/>
     </row>
@@ -5558,11 +5716,13 @@
       <c r="H121" s="18" t="s">
         <v>357</v>
       </c>
-      <c r="I121" s="18"/>
+      <c r="I121" s="18" t="s">
+        <v>447</v>
+      </c>
       <c r="J121" s="15"/>
       <c r="K121" s="15"/>
-      <c r="L121" s="27" t="s">
-        <v>412</v>
+      <c r="L121" s="26" t="s">
+        <v>398</v>
       </c>
       <c r="M121" s="19"/>
       <c r="N121" s="2" t="s">
@@ -5589,7 +5749,7 @@
       <c r="I122" s="18"/>
       <c r="J122" s="15"/>
       <c r="K122" s="15"/>
-      <c r="L122" s="27"/>
+      <c r="L122" s="26"/>
       <c r="M122" s="19"/>
       <c r="N122" s="2"/>
     </row>
@@ -5613,7 +5773,7 @@
       <c r="I123" s="18"/>
       <c r="J123" s="15"/>
       <c r="K123" s="15"/>
-      <c r="L123" s="27"/>
+      <c r="L123" s="26"/>
       <c r="M123" s="19"/>
       <c r="N123" s="2"/>
     </row>
@@ -5637,7 +5797,7 @@
       <c r="I124" s="18"/>
       <c r="J124" s="15"/>
       <c r="K124" s="15"/>
-      <c r="L124" s="27"/>
+      <c r="L124" s="26"/>
       <c r="M124" s="19"/>
       <c r="N124" s="2"/>
     </row>
@@ -5661,7 +5821,7 @@
       <c r="I125" s="18"/>
       <c r="J125" s="15"/>
       <c r="K125" s="15"/>
-      <c r="L125" s="27"/>
+      <c r="L125" s="26"/>
       <c r="M125" s="19"/>
       <c r="N125" s="2"/>
     </row>
@@ -5685,7 +5845,7 @@
       <c r="I126" s="18"/>
       <c r="J126" s="15"/>
       <c r="K126" s="15"/>
-      <c r="L126" s="27"/>
+      <c r="L126" s="26"/>
       <c r="M126" s="19"/>
       <c r="N126" s="2"/>
     </row>
@@ -5711,7 +5871,7 @@
       <c r="I127" s="18"/>
       <c r="J127" s="15"/>
       <c r="K127" s="15"/>
-      <c r="L127" s="27"/>
+      <c r="L127" s="26"/>
       <c r="M127" s="19"/>
       <c r="N127" s="2"/>
     </row>
@@ -5734,11 +5894,13 @@
       <c r="H128" s="18" t="s">
         <v>357</v>
       </c>
-      <c r="I128" s="18"/>
+      <c r="I128" s="18" t="s">
+        <v>447</v>
+      </c>
       <c r="J128" s="15"/>
       <c r="K128" s="15"/>
-      <c r="L128" s="27" t="s">
-        <v>419</v>
+      <c r="L128" s="26" t="s">
+        <v>405</v>
       </c>
       <c r="M128" s="19"/>
       <c r="N128" s="2" t="s">
@@ -5765,7 +5927,7 @@
       <c r="I129" s="18"/>
       <c r="J129" s="15"/>
       <c r="K129" s="15"/>
-      <c r="L129" s="27"/>
+      <c r="L129" s="26"/>
       <c r="M129" s="19"/>
       <c r="N129" s="2"/>
     </row>
@@ -5789,7 +5951,7 @@
       <c r="I130" s="18"/>
       <c r="J130" s="15"/>
       <c r="K130" s="15"/>
-      <c r="L130" s="27"/>
+      <c r="L130" s="26"/>
       <c r="M130" s="19"/>
       <c r="N130" s="2"/>
     </row>
@@ -5813,7 +5975,7 @@
       <c r="I131" s="18"/>
       <c r="J131" s="15"/>
       <c r="K131" s="15"/>
-      <c r="L131" s="27"/>
+      <c r="L131" s="26"/>
       <c r="M131" s="19"/>
       <c r="N131" s="2"/>
     </row>
@@ -5837,7 +5999,7 @@
       <c r="I132" s="18"/>
       <c r="J132" s="15"/>
       <c r="K132" s="15"/>
-      <c r="L132" s="27"/>
+      <c r="L132" s="26"/>
       <c r="M132" s="19"/>
       <c r="N132" s="2"/>
     </row>
@@ -5867,7 +6029,7 @@
       <c r="I133" s="18"/>
       <c r="J133" s="15"/>
       <c r="K133" s="15"/>
-      <c r="L133" s="27"/>
+      <c r="L133" s="26"/>
       <c r="M133" s="19"/>
       <c r="N133" s="2"/>
     </row>
@@ -5891,13 +6053,13 @@
       </c>
       <c r="H134" s="18"/>
       <c r="I134" s="18"/>
-      <c r="J134" s="24" t="s">
-        <v>388</v>
+      <c r="J134" s="23" t="s">
+        <v>382</v>
       </c>
       <c r="K134" s="16" t="s">
         <v>361</v>
       </c>
-      <c r="L134" s="27"/>
+      <c r="L134" s="26"/>
       <c r="M134" s="19"/>
       <c r="N134" s="2" t="s">
         <v>67</v>
@@ -5922,12 +6084,12 @@
       <c r="H135" s="18"/>
       <c r="I135" s="18"/>
       <c r="J135" s="16" t="s">
-        <v>389</v>
+        <v>417</v>
       </c>
       <c r="K135" s="16" t="s">
         <v>362</v>
       </c>
-      <c r="L135" s="27"/>
+      <c r="L135" s="26"/>
       <c r="M135" s="19"/>
       <c r="N135" s="2"/>
     </row>
@@ -5949,11 +6111,13 @@
       </c>
       <c r="H136" s="18"/>
       <c r="I136" s="18"/>
-      <c r="J136" s="15"/>
+      <c r="J136" s="15" t="s">
+        <v>418</v>
+      </c>
       <c r="K136" s="16" t="s">
         <v>359</v>
       </c>
-      <c r="L136" s="27"/>
+      <c r="L136" s="26"/>
       <c r="M136" s="19"/>
       <c r="N136" s="2"/>
     </row>
@@ -5975,11 +6139,13 @@
       </c>
       <c r="H137" s="18"/>
       <c r="I137" s="18"/>
-      <c r="J137" s="15"/>
+      <c r="J137" s="15" t="s">
+        <v>419</v>
+      </c>
       <c r="K137" s="16" t="s">
         <v>359</v>
       </c>
-      <c r="L137" s="27"/>
+      <c r="L137" s="26"/>
       <c r="M137" s="19"/>
       <c r="N137" s="2"/>
     </row>
@@ -6003,9 +6169,9 @@
       </c>
       <c r="H138" s="18"/>
       <c r="I138" s="18"/>
-      <c r="J138" s="24"/>
+      <c r="J138" s="23"/>
       <c r="K138" s="16"/>
-      <c r="L138" s="27"/>
+      <c r="L138" s="26"/>
       <c r="M138" s="19"/>
       <c r="N138" s="2"/>
     </row>
@@ -6028,15 +6194,17 @@
       <c r="H139" s="18" t="s">
         <v>357</v>
       </c>
-      <c r="I139" s="18"/>
-      <c r="J139" s="24" t="s">
-        <v>391</v>
+      <c r="I139" s="18" t="s">
+        <v>445</v>
+      </c>
+      <c r="J139" s="23" t="s">
+        <v>383</v>
       </c>
       <c r="K139" s="17" t="s">
         <v>363</v>
       </c>
-      <c r="L139" s="27" t="s">
-        <v>420</v>
+      <c r="L139" s="26" t="s">
+        <v>406</v>
       </c>
       <c r="M139" s="19"/>
       <c r="N139" s="2" t="s">
@@ -6061,13 +6229,13 @@
       </c>
       <c r="H140" s="18"/>
       <c r="I140" s="18"/>
-      <c r="J140" s="27" t="s">
-        <v>390</v>
-      </c>
-      <c r="K140" s="27" t="s">
-        <v>364</v>
-      </c>
-      <c r="L140" s="27"/>
+      <c r="J140" s="26" t="s">
+        <v>422</v>
+      </c>
+      <c r="K140" s="26" t="s">
+        <v>423</v>
+      </c>
+      <c r="L140" s="26"/>
       <c r="M140" s="19"/>
       <c r="N140" s="2"/>
     </row>
@@ -6089,9 +6257,13 @@
       </c>
       <c r="H141" s="18"/>
       <c r="I141" s="18"/>
-      <c r="J141" s="15"/>
-      <c r="K141" s="15"/>
-      <c r="L141" s="27"/>
+      <c r="J141" s="15" t="s">
+        <v>424</v>
+      </c>
+      <c r="K141" s="15" t="s">
+        <v>386</v>
+      </c>
+      <c r="L141" s="26"/>
       <c r="M141" s="19"/>
       <c r="N141" s="2"/>
     </row>
@@ -6113,9 +6285,13 @@
       </c>
       <c r="H142" s="18"/>
       <c r="I142" s="18"/>
-      <c r="J142" s="15"/>
-      <c r="K142" s="15"/>
-      <c r="L142" s="27"/>
+      <c r="J142" s="15" t="s">
+        <v>425</v>
+      </c>
+      <c r="K142" s="15" t="s">
+        <v>426</v>
+      </c>
+      <c r="L142" s="26"/>
       <c r="M142" s="19"/>
       <c r="N142" s="2"/>
     </row>
@@ -6139,7 +6315,7 @@
       <c r="I143" s="18"/>
       <c r="J143" s="15"/>
       <c r="K143" s="15"/>
-      <c r="L143" s="27"/>
+      <c r="L143" s="26"/>
       <c r="M143" s="19"/>
       <c r="N143" s="2" t="s">
         <v>51</v>
@@ -6166,15 +6342,17 @@
       <c r="H144" s="18" t="s">
         <v>357</v>
       </c>
-      <c r="I144" s="18"/>
-      <c r="J144" s="24" t="s">
-        <v>392</v>
+      <c r="I144" s="18" t="s">
+        <v>447</v>
+      </c>
+      <c r="J144" s="23" t="s">
+        <v>384</v>
       </c>
       <c r="K144" s="16" t="s">
-        <v>365</v>
-      </c>
-      <c r="L144" s="27" t="s">
-        <v>421</v>
+        <v>364</v>
+      </c>
+      <c r="L144" s="26" t="s">
+        <v>407</v>
       </c>
       <c r="M144" s="19"/>
       <c r="N144" s="2" t="s">
@@ -6192,20 +6370,20 @@
         <v>3</v>
       </c>
       <c r="F145" s="10" t="s">
-        <v>393</v>
+        <v>429</v>
       </c>
       <c r="G145" s="18" t="s">
         <v>348</v>
       </c>
       <c r="H145" s="18"/>
       <c r="I145" s="18"/>
-      <c r="J145" s="27" t="s">
-        <v>397</v>
-      </c>
-      <c r="K145" s="27" t="s">
-        <v>394</v>
-      </c>
-      <c r="L145" s="27"/>
+      <c r="J145" s="26" t="s">
+        <v>428</v>
+      </c>
+      <c r="K145" s="26" t="s">
+        <v>385</v>
+      </c>
+      <c r="L145" s="26"/>
       <c r="M145" s="19"/>
       <c r="N145" s="2"/>
     </row>
@@ -6228,12 +6406,12 @@
       <c r="H146" s="18"/>
       <c r="I146" s="18"/>
       <c r="J146" s="15" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="K146" s="15" t="s">
-        <v>395</v>
-      </c>
-      <c r="L146" s="27"/>
+        <v>386</v>
+      </c>
+      <c r="L146" s="26"/>
       <c r="M146" s="19"/>
       <c r="N146" s="2"/>
     </row>
@@ -6254,15 +6432,17 @@
         <v>348</v>
       </c>
       <c r="H147" s="18"/>
-      <c r="I147" s="18"/>
+      <c r="I147" s="18" t="s">
+        <v>445</v>
+      </c>
       <c r="J147" s="15" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="K147" s="15" t="s">
-        <v>396</v>
-      </c>
-      <c r="L147" s="27" t="s">
-        <v>401</v>
+        <v>387</v>
+      </c>
+      <c r="L147" s="26" t="s">
+        <v>390</v>
       </c>
       <c r="M147" s="19"/>
       <c r="N147" s="2"/>
@@ -6285,13 +6465,13 @@
       </c>
       <c r="H148" s="18"/>
       <c r="I148" s="18"/>
-      <c r="J148" s="24" t="s">
-        <v>400</v>
+      <c r="J148" s="23" t="s">
+        <v>430</v>
       </c>
       <c r="K148" s="16" t="s">
         <v>359</v>
       </c>
-      <c r="L148" s="27"/>
+      <c r="L148" s="26"/>
       <c r="M148" s="19"/>
       <c r="N148" s="2" t="s">
         <v>40</v>
@@ -6308,7 +6488,7 @@
         <v>5</v>
       </c>
       <c r="F149" s="22" t="s">
-        <v>402</v>
+        <v>431</v>
       </c>
       <c r="G149" s="18" t="s">
         <v>348</v>
@@ -6316,12 +6496,12 @@
       <c r="H149" s="18"/>
       <c r="I149" s="18"/>
       <c r="J149" s="17" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="K149" s="17" t="s">
-        <v>366</v>
-      </c>
-      <c r="L149" s="27"/>
+        <v>359</v>
+      </c>
+      <c r="L149" s="26"/>
       <c r="M149" s="19"/>
       <c r="N149" s="2"/>
     </row>
@@ -6343,9 +6523,13 @@
       </c>
       <c r="H150" s="18"/>
       <c r="I150" s="18"/>
-      <c r="J150" s="15"/>
-      <c r="K150" s="15"/>
-      <c r="L150" s="27"/>
+      <c r="J150" s="15" t="s">
+        <v>432</v>
+      </c>
+      <c r="K150" s="15" t="s">
+        <v>359</v>
+      </c>
+      <c r="L150" s="26"/>
       <c r="M150" s="19"/>
       <c r="N150" s="2"/>
     </row>
@@ -6368,8 +6552,10 @@
       <c r="H151" s="18"/>
       <c r="I151" s="18"/>
       <c r="J151" s="15"/>
-      <c r="K151" s="15"/>
-      <c r="L151" s="27"/>
+      <c r="K151" s="15" t="s">
+        <v>378</v>
+      </c>
+      <c r="L151" s="26"/>
       <c r="M151" s="19"/>
       <c r="N151" s="2"/>
     </row>
@@ -6391,9 +6577,13 @@
       </c>
       <c r="H152" s="18"/>
       <c r="I152" s="18"/>
-      <c r="J152" s="15"/>
-      <c r="K152" s="15"/>
-      <c r="L152" s="27"/>
+      <c r="J152" s="15" t="s">
+        <v>433</v>
+      </c>
+      <c r="K152" s="15" t="s">
+        <v>378</v>
+      </c>
+      <c r="L152" s="26"/>
       <c r="M152" s="19"/>
       <c r="N152" s="2"/>
     </row>
@@ -6414,10 +6604,16 @@
         <v>348</v>
       </c>
       <c r="H153" s="18"/>
-      <c r="I153" s="18"/>
-      <c r="J153" s="15"/>
-      <c r="K153" s="15"/>
-      <c r="L153" s="27"/>
+      <c r="I153" s="18" t="s">
+        <v>447</v>
+      </c>
+      <c r="J153" s="15" t="s">
+        <v>434</v>
+      </c>
+      <c r="K153" s="15" t="s">
+        <v>435</v>
+      </c>
+      <c r="L153" s="26"/>
       <c r="M153" s="19"/>
       <c r="N153" s="2"/>
     </row>
@@ -6438,10 +6634,16 @@
         <v>348</v>
       </c>
       <c r="H154" s="18"/>
-      <c r="I154" s="18"/>
-      <c r="J154" s="15"/>
-      <c r="K154" s="15"/>
-      <c r="L154" s="27"/>
+      <c r="I154" s="18" t="s">
+        <v>448</v>
+      </c>
+      <c r="J154" s="15" t="s">
+        <v>436</v>
+      </c>
+      <c r="K154" s="15" t="s">
+        <v>437</v>
+      </c>
+      <c r="L154" s="26"/>
       <c r="M154" s="19"/>
       <c r="N154" s="2"/>
     </row>
@@ -6465,13 +6667,13 @@
       </c>
       <c r="H155" s="18"/>
       <c r="I155" s="18"/>
-      <c r="J155" s="24" t="s">
-        <v>403</v>
+      <c r="J155" s="23" t="s">
+        <v>391</v>
       </c>
       <c r="K155" s="16" t="s">
-        <v>367</v>
-      </c>
-      <c r="L155" s="27"/>
+        <v>365</v>
+      </c>
+      <c r="L155" s="26"/>
       <c r="M155" s="19"/>
       <c r="N155" s="2" t="s">
         <v>28</v>
@@ -6487,7 +6689,7 @@
       <c r="E156" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F156" s="23" t="s">
+      <c r="F156" s="28" t="s">
         <v>24</v>
       </c>
       <c r="G156" s="18" t="s">
@@ -6496,12 +6698,12 @@
       <c r="H156" s="18"/>
       <c r="I156" s="18"/>
       <c r="J156" s="16" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="K156" s="16" t="s">
         <v>359</v>
       </c>
-      <c r="L156" s="27"/>
+      <c r="L156" s="26"/>
       <c r="M156" s="19"/>
       <c r="N156" s="2"/>
     </row>
@@ -6524,12 +6726,12 @@
       <c r="H157" s="18"/>
       <c r="I157" s="18"/>
       <c r="J157" s="16" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="K157" s="16" t="s">
         <v>359</v>
       </c>
-      <c r="L157" s="27"/>
+      <c r="L157" s="26"/>
       <c r="M157" s="19"/>
       <c r="N157" s="2"/>
     </row>
@@ -6550,14 +6752,16 @@
         <v>348</v>
       </c>
       <c r="H158" s="18"/>
-      <c r="I158" s="18"/>
+      <c r="I158" s="18" t="s">
+        <v>447</v>
+      </c>
       <c r="J158" s="16" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="K158" s="16" t="s">
-        <v>368</v>
-      </c>
-      <c r="L158" s="27"/>
+        <v>366</v>
+      </c>
+      <c r="L158" s="26"/>
       <c r="M158" s="19"/>
       <c r="N158" s="2"/>
     </row>
@@ -6581,13 +6785,13 @@
       </c>
       <c r="H159" s="18"/>
       <c r="I159" s="18"/>
-      <c r="J159" s="24" t="s">
-        <v>408</v>
+      <c r="J159" s="23" t="s">
+        <v>438</v>
       </c>
       <c r="K159" s="16" t="s">
-        <v>369</v>
-      </c>
-      <c r="L159" s="27"/>
+        <v>367</v>
+      </c>
+      <c r="L159" s="26"/>
       <c r="M159" s="19"/>
       <c r="N159" s="2"/>
     </row>
@@ -6602,20 +6806,22 @@
         <v>5</v>
       </c>
       <c r="F160" s="22" t="s">
-        <v>17</v>
+        <v>440</v>
       </c>
       <c r="G160" s="18" t="s">
         <v>348</v>
       </c>
       <c r="H160" s="18"/>
-      <c r="I160" s="18"/>
+      <c r="I160" s="18" t="s">
+        <v>449</v>
+      </c>
       <c r="J160" s="17" t="s">
-        <v>409</v>
+        <v>439</v>
       </c>
       <c r="K160" s="17" t="s">
-        <v>370</v>
-      </c>
-      <c r="L160" s="27"/>
+        <v>441</v>
+      </c>
+      <c r="L160" s="26"/>
       <c r="M160" s="19"/>
       <c r="N160" s="2"/>
     </row>
@@ -6636,12 +6842,14 @@
         <v>348</v>
       </c>
       <c r="H161" s="18"/>
-      <c r="I161" s="18"/>
+      <c r="I161" s="18" t="s">
+        <v>446</v>
+      </c>
       <c r="J161" s="17"/>
       <c r="K161" s="16" t="s">
-        <v>371</v>
-      </c>
-      <c r="L161" s="27"/>
+        <v>368</v>
+      </c>
+      <c r="L161" s="26"/>
       <c r="M161" s="19"/>
       <c r="N161" s="2"/>
     </row>
@@ -6662,12 +6870,14 @@
         <v>348</v>
       </c>
       <c r="H162" s="18"/>
-      <c r="I162" s="18"/>
+      <c r="I162" s="18" t="s">
+        <v>451</v>
+      </c>
       <c r="J162" s="17"/>
       <c r="K162" s="16" t="s">
-        <v>371</v>
-      </c>
-      <c r="L162" s="27"/>
+        <v>368</v>
+      </c>
+      <c r="L162" s="26"/>
       <c r="M162" s="19"/>
       <c r="N162" s="2"/>
     </row>
@@ -6690,15 +6900,17 @@
       <c r="H163" s="18" t="s">
         <v>357</v>
       </c>
-      <c r="I163" s="18"/>
-      <c r="J163" s="28" t="s">
-        <v>422</v>
-      </c>
-      <c r="K163" s="25" t="s">
-        <v>372</v>
-      </c>
-      <c r="L163" s="27" t="s">
-        <v>412</v>
+      <c r="I163" s="18" t="s">
+        <v>447</v>
+      </c>
+      <c r="J163" s="27" t="s">
+        <v>408</v>
+      </c>
+      <c r="K163" s="24" t="s">
+        <v>450</v>
+      </c>
+      <c r="L163" s="26" t="s">
+        <v>398</v>
       </c>
       <c r="M163" s="19"/>
       <c r="N163" s="2" t="s">
@@ -6719,7 +6931,7 @@
       <c r="I164" s="18"/>
       <c r="J164" s="15"/>
       <c r="K164" s="15"/>
-      <c r="L164" s="27"/>
+      <c r="L164" s="26"/>
       <c r="M164" s="19"/>
       <c r="N164" s="2"/>
     </row>
@@ -6748,11 +6960,13 @@
       <c r="H165" s="18" t="s">
         <v>352</v>
       </c>
-      <c r="I165" s="18"/>
-      <c r="J165" s="24"/>
+      <c r="I165" s="18" t="s">
+        <v>452</v>
+      </c>
+      <c r="J165" s="23"/>
       <c r="K165" s="16"/>
-      <c r="L165" s="27" t="s">
-        <v>412</v>
+      <c r="L165" s="26" t="s">
+        <v>398</v>
       </c>
       <c r="M165" s="19"/>
       <c r="N165" s="2"/>
@@ -6773,10 +6987,13 @@
       <c r="H166" s="18" t="s">
         <v>352</v>
       </c>
-      <c r="J166" s="26"/>
+      <c r="I166" s="18" t="s">
+        <v>447</v>
+      </c>
+      <c r="J166" s="25"/>
       <c r="K166" s="16"/>
-      <c r="L166" s="27" t="s">
-        <v>418</v>
+      <c r="L166" s="26" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="167" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -6795,10 +7012,13 @@
       <c r="H167" s="18" t="s">
         <v>352</v>
       </c>
+      <c r="I167" s="18" t="s">
+        <v>447</v>
+      </c>
       <c r="J167" s="16"/>
       <c r="K167" s="16"/>
-      <c r="L167" s="27" t="s">
-        <v>418</v>
+      <c r="L167" s="26" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="168" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -6817,10 +7037,13 @@
       <c r="H168" s="18" t="s">
         <v>352</v>
       </c>
+      <c r="I168" s="18" t="s">
+        <v>447</v>
+      </c>
       <c r="J168" s="16"/>
       <c r="K168" s="16"/>
-      <c r="L168" s="27" t="s">
-        <v>412</v>
+      <c r="L168" s="26" t="s">
+        <v>398</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/biz/MC-MSC-Web/qxy接口定义文档2016-8-8/【千校云】bug列表.xlsx
+++ b/trunk/biz/MC-MSC-Web/qxy接口定义文档2016-8-8/【千校云】bug列表.xlsx
@@ -107,7 +107,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1062" uniqueCount="536">
   <si>
     <t>/qxy/trip</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -137,10 +137,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/qxy/trip?teacher=[tid]&amp;day=[date]&amp;page=[page]&amp;size=[size]&amp;token=[token]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>GET</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -317,10 +313,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/qxy/class/leader</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>班级班主任指定接口</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -349,10 +341,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/qxy/termgradeclass?type=[type]&amp;token=[token]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>学校学期年级班级查询接口（通用）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -409,10 +397,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/qxy/rfidstudent?rfid=[rfid]&amp;page=[page]&amp;size=[size]&amp;token=[token]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>rfid卡对应学生列表查询搜索接口</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -433,10 +417,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/qxy/studentrfidlist?student=[studetId]&amp;page=[page]&amp;size=[size]&amp;token=[token]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>学生rfid卡列表查询接口</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -449,10 +429,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/qxy/class/alarmrule/copy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>班级报警规则应用至其他班接口</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -497,10 +473,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/qxy/securitylog?student=[studentId]&amp;device=[deviceId]&amp;time=[startTime|endTime]&amp;page=[page]&amp;size=[size]&amp;token=[token]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>GET</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -577,10 +549,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/qxy/teacher/info?tid=[tid]&amp;token=[token]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>教工信息查询接口</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -605,10 +573,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/qxy/teacher/search?phone=[phone]&amp;email=[email]&amp;type=[type]&amp;token=[token]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>教工搜索接口</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -701,10 +665,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/qxy/termcalendarstatus?token=[token]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>学校学期及校历日历状态查询接口</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1046,10 +1006,6 @@
   </si>
   <si>
     <t>学期查询接口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/qxy/classlist?class=[cid]&amp;page=[page]&amp;size=[size]&amp;token=[token]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1743,15 +1699,6 @@
   </si>
   <si>
     <t>{
-"data": "",
-"info": "修改失败，时间入参格式错误",
-"status": 3,
-"token": ""
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
  "token":"910820738640559462371283192",
     "termId": "1",
     "termName": "2016-2017-1",
@@ -1778,19 +1725,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://139.196.101.78:8668/teacher/list?label=0&amp;type=1&amp;page=1&amp;size=1&amp;token=910820738640559462371283192</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>无法修改</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>http://139.196.101.78:8668/course?type=1&amp;token=910820738640559462371283192</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://139.196.101.78:8668/class?class=1&amp;page=1&amp;size=1&amp;token=910820738640559462371283192</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1954,10 +1893,6 @@
     "columnId": "1",
     "isUse": "1"
 }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>栏目新增isUse缺省为1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2157,10 +2092,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>需要调整</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>需要处理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2196,6 +2127,582 @@
   </si>
   <si>
     <t>需要处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "token":"910820738640559462371283192",
+ "rfid":"012525236",
+ "studentId":"12"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回正常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/qxy/rfidstudent?rfid=[rfid]&amp;page=[page]&amp;size=[size]&amp;token=[token]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/qxy/termgradeclass?type=[type]&amp;token=[token]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://139.196.101.78:8668/class?class=1&amp;page=1&amp;size=1&amp;token=910820738640559462371283192</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/qxy/class/leader</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要判断教师是否存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://139.196.101.78:8668/teacher/list?label=0&amp;type=1&amp;page=1&amp;size=1&amp;token=910820738640559462371283192</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "token":"910820738640559462371283192",
+    "teacherName":"张三",
+    "gender":"1",             
+    "dateOfBirth":"2011/7/8 00:00:00",
+    "startWorkT":"2011/7/8 00:00:00",
+    "jobNumber":"0189302",
+    "cardType":"1",
+    "cardNumber":"425222522223252112",
+    "homeAddress":"斯里兰卡",
+    "phone":"155232523512",
+    "email":"ee2@ww.com"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常返回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "token":"910820738640559462371283192",
+    "teacherinfo":[
+     {
+      "tid":"14",
+      "teacherName":"test",                     
+      "gender":"1",                    
+      "dateOfBirth":"2011/7/8 00:00:00",       
+      "startWorkT":"2011/7/8 00:00:00",     
+      "jobNumber":"0189302",            
+      "cardType":"1",                   
+      "cardNumber":"425222522223252112", 
+      "homeAddress":"斯里兰卡",             
+      "phone":"155232545544",
+      "email":"ee@ww.com",
+      "isUse":"1",   
+     }
+    ]
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示成功，数据未修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常返回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常返回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "token":"910820738640559462371283192",
+      "labelId":"1",
+    "labelName":"教研二组"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/qxy/teacher/search?phone=[phone]&amp;email=[email]&amp;type=[type]&amp;token=[token]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>139.196.101.78:8668/teacher/search?phone=1552512258&amp;token=910820738640559462371283192</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回200，但无教师数据返回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有教工新增后会建立和默认标签的关联labelId=0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "token":"910820738640559462371283192",
+    "teacher":[
+     {
+         "tid":"1",
+         "labelId":"0",       
+         "target":"2"         
+     },
+     {
+         "tid":"2",
+         "labelId":"0",
+         "target":"3"
+     }
+    ]
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回正常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "token":"910820738640559462371283192",
+    "teacher":[
+     {
+         "tid":"1",
+         "labelId":"2"       
+     }
+    ]
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/qxy/teacher/info?tid=[tid]&amp;token=[token]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>139.196.101.78:8668/teacher/info?tid=1&amp;token=910820738640559462371283192</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回正常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"data": "",
+"info": "修改失败，时间入参格式错误",
+"status": 3,
+"token": ""
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/qxy/classlist?class=[cid]&amp;page=[page]&amp;size=[size]&amp;token=[token]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>139.196.101.78:8668/classlist?token=910820738640559462371283192</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回查询失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>139.196.101.78:8668/class/course?class=2&amp;token=910820738640559462371283192</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>info": "查询失败，cid不能为空"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/qxy/class/course</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "token":"910820738640559462371283192",
+    "cid":"2",
+    "courseId":"3"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">info": "新增失败，\r\n### Error updating database. Cause: java.sql.BatchUpdateException: Column 'term' cannot be null\r\n### The error may involve com.mcookies.qxy.common.ClassCourse.ClassCourseDao.doInsert-Inline\r\n### The error occurred while setting parameters\r\n### SQL: INSERT INTO class_course ( id,sid,cid,term,class_time,week_day,use_day,course_id,course_name,tid,teacher_name,is_use,create_time,creator,update_time,updator ) VALUES ( ?,?,?,?,?,?,?,?,?,?,?,?,?,?,?,? )\r\n### Cause: java.sql.BatchUpdateException: Column 'term' cannot be null\n; SQL []; Column 'term' cannot be null; nested exception is java.sql.BatchUpdateException: Column 'term' cannot be null",
+"status": 1,
+"token": ""
+}
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/qxy/class/student/info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "token":"910820738640559462371283192",
+    "cid": "34",                     
+    "photo": "url",                  
+    "studentName": "张高丽",          
+    "email": "张高丽",                
+    "number": "1465228800",          
+    "phone": "张高丽",               
+    "dateOfSchool": "234324242",     
+    "studentType": "分配",           
+    "nation": "汉",                  
+    "nativePlace": "湖北武汉",         
+    "cardType": "分配",                   
+    "cardNumber": "142523521652",      
+    "political": "中共党员",          
+    "isOverseas": "0",               
+    "dateOfBirth": "1465228800",       
+    "residenceType": "13987723451",   
+    "residenceAddress": "新春一街12号",  
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>404错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "token":"910820738640559462371283192",
+    "isUse": "1",   
+    "dutyName": "日常考核岗2"               
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "token":"910820738640559462371283192",
+    "dutylist":[
+     {
+      "dutyId":"3",
+      "dutyName":"ddsdsd",
+      "isUse":"1"
+     }
+    ]
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示岗位id不能为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "token":"910820738640559462371283192",
+    "dutyId":"1"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/qxy/duty/content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常返回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "token":"910820738640559462371283192",
+    "id":"1",
+    "content":"ddddddd",
+    "startTime":"07:00",
+ "endTime":"08:00"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "token":"910820738640559462371283192",
+    "id":"1"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "token":"910820738640559462371283192",
+     "oatagsId":"1",
+    "oatagsName":"test",
+    "type":"0",          
+    "cycle":"23"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "token":"910820738640559462371283192",
+     "oatagsId":"1" 
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>139.196.101.78:8668/oatags?token=910820738640559462371283192</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "token":"910820738640559462371283192",
+    "oatagsId":"1",   
+    "oaruleName":"副校长审批",
+    "serialNumber":"3",  
+    "adoptType":"1"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "token":"910820738640559462371283192",
+    "oaruleId":"3",
+    "oaruleName":"副校长审批",
+    "serialNumber":"3",  
+    "adoptType":"1",
+    "tids":[1,2,3]
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "token":"910820738640559462371283192",
+    "oaruleId":"2"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>139.196.101.78:8668/oarule?oatags=1&amp;token=910820738640559462371283192</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>栏目新增isUse缺省为1，默认前端传1即可</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/qxy/calendar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "token":"910820738640559462371283192",
+    "termId": "1",
+    "startTime": "2016-8-9",  
+    "endTime": "2016-9-9",
+    "content": "学校安全检查", 
+    "department":"校办公室",  
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示错误，新增失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/qxy/termcalendarstatus?token=[token]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>139.196.101.78:8668/termcalendarstatus?token=910820738640559462371283192</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无数据，返回正常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>139.196.101.78:8668/stundent/namelist?class=1&amp;token=910820738640559462371283192</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无数据，返回正常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无数据，返回正常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/qxy/securitylog?student=[studentId]&amp;device=[deviceId]&amp;time=[startTime|endTime]&amp;page=[page]&amp;size=[size]&amp;token=[token]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>139.196.101.78:8668/securitylog?token=910820738640559462371283192</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "token":"910820738640559462371283192",
+    "cid": "6",
+    "alarmrule":{
+     "alarmruleName":"早自习按时到校规则",
+     "deviceId":"11",          
+        "startTime":"07:00",     
+        "endTime":"08:00",        
+        "flag":"0",       
+        "timeType":"0",  
+        "timeRepeat":"1111100",  
+        "timeDate":"2016-8-9 00:00:00"  
+ }
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "token":"910820738640559462371283192",
+    "alarmruleId":"3",
+    "alarmruleName":"早自习按时到校规则",
+    "deviceId":"11",         
+    "startTime":"07:00",      
+    "endTime":"08:00",        
+    "flag":"0",      
+    "timeType":"0",  
+    "timeRepeat":"1111100",   
+    "timeDate":"2016-8-9 00:00:00"   
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>访问失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "token":"910820738640559462371283192",
+    "cid": "2",
+    "alarmruleIds":"1" 
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>访问失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/qxy/class/alarmrule/copy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "token":"910820738640559462371283192",
+    "cids":[3,4,5,6],                        
+    "alarmruleIds":[1,2,3,3]              
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/qxy/trip?teacher=[tid]&amp;day=[date]&amp;page=[page]&amp;size=[size]&amp;token=[token]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/qxy/trip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未测试</t>
+  </si>
+  <si>
+    <t>未测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/qxy/studentrfidlist?student=[studetId]&amp;page=[page]&amp;size=[size]&amp;token=[token]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>139.196.101.78:8668/studentrfidlist?student=1&amp;token=910820738640559462371283192</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要处理，返回信息有误</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2282,7 +2789,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2328,6 +2835,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2410,7 +2923,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2499,6 +3012,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3093,10 +3609,10 @@
   <dimension ref="A1:AJ168"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="G107" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="G86" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I120" sqref="I120"/>
+      <selection pane="bottomRight" activeCell="H103" sqref="H103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3120,46 +3636,46 @@
   <sheetData>
     <row r="1" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="H1" s="18" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="I1" s="18" t="s">
-        <v>443</v>
+        <v>428</v>
       </c>
       <c r="J1" s="15" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="K1" s="15" t="s">
-        <v>409</v>
+        <v>395</v>
       </c>
       <c r="L1" s="26" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="M1" s="19" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
     </row>
     <row r="2" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -3167,180 +3683,219 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>335</v>
+        <v>324</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>528</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
     </row>
     <row r="3" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D3" s="5" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>332</v>
+        <v>321</v>
+      </c>
+      <c r="K3" s="15" t="s">
+        <v>528</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
     </row>
     <row r="4" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D4" s="5" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>329</v>
+        <v>318</v>
+      </c>
+      <c r="K4" s="15" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="5" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D5" s="5" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>327</v>
+        <v>316</v>
+      </c>
+      <c r="K5" s="15" t="s">
+        <v>528</v>
       </c>
       <c r="AH5" s="1" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="AI5" s="1" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="AJ5" s="1" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
     </row>
     <row r="6" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C6" s="5" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>324</v>
+        <v>313</v>
+      </c>
+      <c r="K6" s="15" t="s">
+        <v>528</v>
       </c>
       <c r="AH6" s="1" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="AI6" s="1" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="AJ6" s="1" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
     </row>
     <row r="7" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D7" s="5" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>322</v>
+        <v>311</v>
+      </c>
+      <c r="K7" s="15" t="s">
+        <v>528</v>
       </c>
       <c r="AI7" s="1" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
     </row>
     <row r="8" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D8" s="5" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>374</v>
+        <v>363</v>
+      </c>
+      <c r="K8" s="15" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="9" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D9" s="5" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>319</v>
+        <v>308</v>
+      </c>
+      <c r="K9" s="15" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="10" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D10" s="5" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>373</v>
+        <v>362</v>
+      </c>
+      <c r="K10" s="15" t="s">
+        <v>528</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
     </row>
     <row r="11" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D11" s="5" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="H11" s="18" t="s">
-        <v>352</v>
+        <v>341</v>
+      </c>
+      <c r="I11" s="18" t="s">
+        <v>427</v>
+      </c>
+      <c r="K11" s="15" t="s">
+        <v>528</v>
       </c>
       <c r="L11" s="26" t="s">
-        <v>396</v>
+        <v>382</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
     </row>
     <row r="12" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D12" s="5" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="H12" s="18" t="s">
-        <v>352</v>
+        <v>341</v>
+      </c>
+      <c r="I12" s="18" t="s">
+        <v>437</v>
+      </c>
+      <c r="K12" s="15" t="s">
+        <v>528</v>
       </c>
       <c r="L12" s="26" t="s">
-        <v>397</v>
+        <v>383</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
     </row>
     <row r="13" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -3348,172 +3903,190 @@
         <v>2</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>311</v>
+        <v>301</v>
+      </c>
+      <c r="D13" s="29" t="s">
+        <v>300</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>310</v>
+        <v>299</v>
+      </c>
+      <c r="K13" s="15" t="s">
+        <v>528</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
     </row>
     <row r="14" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D14" s="5" t="s">
-        <v>308</v>
+      <c r="D14" s="29" t="s">
+        <v>297</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>307</v>
+        <v>296</v>
+      </c>
+      <c r="K14" s="15" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="15" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D15" s="5" t="s">
-        <v>306</v>
+      <c r="D15" s="29" t="s">
+        <v>295</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="G15" s="18" t="s">
-        <v>348</v>
+        <v>337</v>
+      </c>
+      <c r="K15" s="15" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="16" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D16" s="5" t="s">
-        <v>305</v>
+      <c r="D16" s="29" t="s">
+        <v>294</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="G16" s="18" t="s">
-        <v>348</v>
+        <v>337</v>
+      </c>
+      <c r="K16" s="15" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D17" s="5" t="s">
-        <v>304</v>
+      <c r="D17" s="29" t="s">
+        <v>293</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="G17" s="18" t="s">
-        <v>348</v>
+        <v>337</v>
+      </c>
+      <c r="K17" s="15" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D18" s="5" t="s">
-        <v>302</v>
+      <c r="D18" s="29" t="s">
+        <v>291</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>301</v>
+        <v>290</v>
+      </c>
+      <c r="K18" s="15" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C19" s="5" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="F19" s="20" t="s">
-        <v>298</v>
+        <v>287</v>
+      </c>
+      <c r="G19" s="18" t="s">
+        <v>337</v>
       </c>
       <c r="J19" s="23" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="K19" s="16" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D20" s="5" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="F20" s="21" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="G20" s="18" t="s">
-        <v>348</v>
-      </c>
-      <c r="I20" s="18" t="s">
-        <v>444</v>
+        <v>337</v>
       </c>
       <c r="J20" s="15" t="s">
-        <v>413</v>
+        <v>399</v>
       </c>
       <c r="K20" s="15" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="L20" s="26" t="s">
-        <v>415</v>
+        <v>506</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D21" s="5" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="F21" s="21" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="G21" s="18" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="J21" s="15" t="s">
-        <v>414</v>
+        <v>400</v>
       </c>
       <c r="K21" s="15" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D22" s="5" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="F22" s="21" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="G22" s="18" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="J22" s="15" t="s">
-        <v>416</v>
+        <v>401</v>
       </c>
       <c r="K22" s="15" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -3521,450 +4094,591 @@
         <v>3</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>291</v>
+        <v>281</v>
+      </c>
+      <c r="D23" s="29" t="s">
+        <v>280</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>290</v>
+        <v>279</v>
+      </c>
+      <c r="K23" s="15" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D24" s="5" t="s">
-        <v>289</v>
+      <c r="D24" s="29" t="s">
+        <v>278</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>288</v>
+        <v>277</v>
+      </c>
+      <c r="K24" s="15" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D25" s="5" t="s">
-        <v>287</v>
+      <c r="D25" s="29" t="s">
+        <v>276</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>286</v>
+        <v>275</v>
+      </c>
+      <c r="K25" s="15" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D26" s="5" t="s">
-        <v>285</v>
+      <c r="D26" s="29" t="s">
+        <v>274</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>284</v>
+        <v>273</v>
+      </c>
+      <c r="K26" s="15" t="s">
+        <v>532</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D27" s="5" t="s">
-        <v>282</v>
+      <c r="D27" s="29" t="s">
+        <v>271</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>281</v>
+        <v>270</v>
+      </c>
+      <c r="K27" s="15" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D28" s="5" t="s">
-        <v>280</v>
+      <c r="D28" s="29" t="s">
+        <v>269</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="G28" s="18" t="s">
-        <v>348</v>
+        <v>337</v>
+      </c>
+      <c r="K28" s="15" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D29" s="5" t="s">
-        <v>279</v>
+      <c r="D29" s="29" t="s">
+        <v>268</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="G29" s="18" t="s">
-        <v>348</v>
+        <v>337</v>
+      </c>
+      <c r="K29" s="15" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D30" s="5" t="s">
-        <v>278</v>
+      <c r="D30" s="29" t="s">
+        <v>267</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="G30" s="18" t="s">
-        <v>348</v>
+        <v>337</v>
+      </c>
+      <c r="K30" s="15" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D31" s="5" t="s">
-        <v>221</v>
+      <c r="D31" s="29" t="s">
+        <v>211</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>220</v>
+        <v>210</v>
+      </c>
+      <c r="K31" s="15" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D32" s="5" t="s">
-        <v>219</v>
+      <c r="D32" s="29" t="s">
+        <v>209</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>218</v>
+        <v>208</v>
+      </c>
+      <c r="K32" s="15" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="33" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D33" s="5" t="s">
-        <v>276</v>
+      <c r="D33" s="29" t="s">
+        <v>265</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="G33" s="18" t="s">
-        <v>348</v>
+        <v>337</v>
+      </c>
+      <c r="K33" s="15" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="34" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C34" s="5" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="F34" s="21" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="G34" s="18" t="s">
-        <v>348</v>
+        <v>337</v>
+      </c>
+      <c r="J34" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="K34" s="15" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="35" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D35" s="5" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="F35" s="21" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="G35" s="18" t="s">
-        <v>348</v>
+        <v>337</v>
+      </c>
+      <c r="I35" s="18" t="s">
+        <v>461</v>
+      </c>
+      <c r="J35" s="15" t="s">
+        <v>488</v>
+      </c>
+      <c r="K35" s="15" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="36" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D36" s="5" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="F36" s="21" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="G36" s="18" t="s">
-        <v>348</v>
+        <v>337</v>
+      </c>
+      <c r="I36" s="18" t="s">
+        <v>462</v>
+      </c>
+      <c r="J36" s="15" t="s">
+        <v>490</v>
+      </c>
+      <c r="K36" s="15" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="37" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C37" s="5" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="F37" s="21" t="s">
-        <v>265</v>
+        <v>492</v>
       </c>
       <c r="G37" s="18" t="s">
-        <v>348</v>
+        <v>337</v>
+      </c>
+      <c r="K37" s="15" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="38" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D38" s="5" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="F38" s="21" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="G38" s="18" t="s">
-        <v>348</v>
+        <v>337</v>
+      </c>
+      <c r="J38" s="15" t="s">
+        <v>494</v>
+      </c>
+      <c r="K38" s="15" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="39" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D39" s="5" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="F39" s="21" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="G39" s="18" t="s">
-        <v>348</v>
+        <v>337</v>
+      </c>
+      <c r="I39" s="18" t="s">
+        <v>427</v>
+      </c>
+      <c r="J39" s="15" t="s">
+        <v>495</v>
+      </c>
+      <c r="K39" s="15" t="s">
+        <v>496</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
     </row>
     <row r="40" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C40" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>262</v>
+        <v>252</v>
+      </c>
+      <c r="D40" s="29" t="s">
+        <v>251</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>261</v>
+        <v>250</v>
+      </c>
+      <c r="K40" s="15" t="s">
+        <v>531</v>
       </c>
     </row>
     <row r="41" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D41" s="5" t="s">
-        <v>260</v>
+      <c r="D41" s="29" t="s">
+        <v>249</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="G41" s="18" t="s">
-        <v>348</v>
+        <v>337</v>
+      </c>
+      <c r="K41" s="15" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="42" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D42" s="5" t="s">
-        <v>259</v>
+      <c r="D42" s="29" t="s">
+        <v>248</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="G42" s="18" t="s">
-        <v>348</v>
+        <v>337</v>
+      </c>
+      <c r="K42" s="15" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="43" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D43" s="5" t="s">
-        <v>257</v>
+      <c r="D43" s="29" t="s">
+        <v>246</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="G43" s="18" t="s">
-        <v>348</v>
+        <v>337</v>
+      </c>
+      <c r="K43" s="15" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="44" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D44" s="5" t="s">
-        <v>255</v>
+      <c r="D44" s="29" t="s">
+        <v>244</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="G44" s="18" t="s">
-        <v>348</v>
+        <v>337</v>
+      </c>
+      <c r="K44" s="15" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="45" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C45" s="5" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="F45" s="21" t="s">
-        <v>251</v>
+        <v>240</v>
+      </c>
+      <c r="J45" s="15" t="s">
+        <v>501</v>
+      </c>
+      <c r="K45" s="15" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="46" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D46" s="5" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="F46" s="21" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="G46" s="18" t="s">
-        <v>348</v>
+        <v>337</v>
+      </c>
+      <c r="K46" s="15" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="47" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D47" s="5" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="F47" s="21" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="G47" s="18" t="s">
-        <v>348</v>
+        <v>337</v>
+      </c>
+      <c r="J47" s="15" t="s">
+        <v>497</v>
+      </c>
+      <c r="K47" s="15" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="48" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D48" s="5" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="F48" s="21" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="G48" s="18" t="s">
-        <v>348</v>
+        <v>337</v>
+      </c>
+      <c r="I48" s="18" t="s">
+        <v>500</v>
+      </c>
+      <c r="J48" s="15" t="s">
+        <v>498</v>
+      </c>
+      <c r="K48" s="15" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="49" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C49" s="5" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="F49" s="21" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="H49" s="18" t="s">
-        <v>357</v>
+        <v>346</v>
+      </c>
+      <c r="J49" s="15" t="s">
+        <v>505</v>
+      </c>
+      <c r="K49" s="15" t="s">
+        <v>455</v>
       </c>
       <c r="L49" s="26" t="s">
-        <v>398</v>
+        <v>384</v>
       </c>
       <c r="N49" s="2" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
     </row>
     <row r="50" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D50" s="5" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="F50" s="21" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="G50" s="18" t="s">
-        <v>348</v>
+        <v>337</v>
+      </c>
+      <c r="J50" s="15" t="s">
+        <v>502</v>
+      </c>
+      <c r="K50" s="15" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="51" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D51" s="5" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="F51" s="21" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="G51" s="18" t="s">
-        <v>348</v>
+        <v>337</v>
+      </c>
+      <c r="J51" s="15" t="s">
+        <v>503</v>
+      </c>
+      <c r="K51" s="15" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="52" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D52" s="5" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="F52" s="21" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="G52" s="18" t="s">
-        <v>348</v>
+        <v>337</v>
+      </c>
+      <c r="I52" s="18" t="s">
+        <v>462</v>
+      </c>
+      <c r="J52" s="15" t="s">
+        <v>504</v>
+      </c>
+      <c r="K52" s="15" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="53" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D53" s="5" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
     </row>
     <row r="54" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D54" s="5" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
     </row>
     <row r="55" spans="1:14" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -3972,19 +4686,19 @@
         <v>4</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="G55" s="18"/>
       <c r="H55" s="18"/>
@@ -3998,41 +4712,47 @@
     <row r="56" spans="1:14" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="6"/>
       <c r="D56" s="5" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="F56" s="12" t="s">
-        <v>235</v>
+        <v>471</v>
       </c>
       <c r="G56" s="18" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="H56" s="18" t="s">
-        <v>357</v>
-      </c>
-      <c r="I56" s="18"/>
-      <c r="J56" s="15"/>
-      <c r="K56" s="15"/>
+        <v>346</v>
+      </c>
+      <c r="I56" s="18" t="s">
+        <v>437</v>
+      </c>
+      <c r="J56" s="15" t="s">
+        <v>472</v>
+      </c>
+      <c r="K56" s="15" t="s">
+        <v>473</v>
+      </c>
       <c r="L56" s="26" t="s">
-        <v>399</v>
+        <v>385</v>
       </c>
       <c r="M56" s="19"/>
       <c r="N56" s="2" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
     </row>
     <row r="57" spans="1:14" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="6"/>
       <c r="D57" s="5" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="G57" s="18"/>
       <c r="H57" s="18"/>
@@ -4047,32 +4767,38 @@
       <c r="A58" s="6"/>
       <c r="B58" s="5"/>
       <c r="C58" s="5" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="F58" s="12" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="G58" s="18" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="H58" s="18" t="s">
-        <v>357</v>
-      </c>
-      <c r="I58" s="18"/>
-      <c r="J58" s="15"/>
-      <c r="K58" s="15"/>
+        <v>346</v>
+      </c>
+      <c r="I58" s="18" t="s">
+        <v>437</v>
+      </c>
+      <c r="J58" s="15" t="s">
+        <v>474</v>
+      </c>
+      <c r="K58" s="15" t="s">
+        <v>475</v>
+      </c>
       <c r="L58" s="26" t="s">
-        <v>398</v>
+        <v>384</v>
       </c>
       <c r="M58" s="19"/>
       <c r="N58" s="2" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
     </row>
     <row r="59" spans="1:14" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4080,13 +4806,13 @@
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
       <c r="D59" s="5" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="G59" s="18"/>
       <c r="H59" s="18"/>
@@ -4102,21 +4828,27 @@
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
       <c r="D60" s="5" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>222</v>
+        <v>476</v>
       </c>
       <c r="G60" s="18" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="H60" s="18"/>
-      <c r="I60" s="18"/>
-      <c r="J60" s="15"/>
-      <c r="K60" s="15"/>
+      <c r="I60" s="18" t="s">
+        <v>427</v>
+      </c>
+      <c r="J60" s="15" t="s">
+        <v>477</v>
+      </c>
+      <c r="K60" s="15" t="s">
+        <v>478</v>
+      </c>
       <c r="L60" s="26"/>
       <c r="M60" s="19"/>
       <c r="N60" s="2"/>
@@ -4126,29 +4858,33 @@
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
       <c r="D61" s="5" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="F61" s="12" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="G61" s="18" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="H61" s="18" t="s">
-        <v>357</v>
-      </c>
-      <c r="I61" s="18"/>
+        <v>346</v>
+      </c>
+      <c r="I61" s="18" t="s">
+        <v>427</v>
+      </c>
       <c r="J61" s="15"/>
-      <c r="K61" s="15"/>
+      <c r="K61" s="15" t="s">
+        <v>479</v>
+      </c>
       <c r="L61" s="26" t="s">
-        <v>400</v>
+        <v>386</v>
       </c>
       <c r="M61" s="19"/>
       <c r="N61" s="2" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
     </row>
     <row r="62" spans="1:14" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4156,29 +4892,33 @@
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
       <c r="D62" s="5" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="F62" s="12" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="G62" s="18" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="H62" s="18" t="s">
-        <v>357</v>
-      </c>
-      <c r="I62" s="18"/>
+        <v>346</v>
+      </c>
+      <c r="I62" s="18" t="s">
+        <v>427</v>
+      </c>
       <c r="J62" s="15"/>
-      <c r="K62" s="15"/>
+      <c r="K62" s="15" t="s">
+        <v>480</v>
+      </c>
       <c r="L62" s="26" t="s">
-        <v>401</v>
+        <v>387</v>
       </c>
       <c r="M62" s="19"/>
       <c r="N62" s="2" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
     </row>
     <row r="63" spans="1:14" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4186,29 +4926,33 @@
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
       <c r="D63" s="5" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="F63" s="12" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="G63" s="18" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="H63" s="18" t="s">
-        <v>357</v>
-      </c>
-      <c r="I63" s="18"/>
+        <v>346</v>
+      </c>
+      <c r="I63" s="18" t="s">
+        <v>437</v>
+      </c>
       <c r="J63" s="15"/>
-      <c r="K63" s="15"/>
+      <c r="K63" s="15" t="s">
+        <v>481</v>
+      </c>
       <c r="L63" s="26" t="s">
-        <v>400</v>
+        <v>386</v>
       </c>
       <c r="M63" s="19"/>
       <c r="N63" s="2" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
     </row>
     <row r="64" spans="1:14" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4216,13 +4960,13 @@
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
       <c r="D64" s="5" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="G64" s="18"/>
       <c r="H64" s="18"/>
@@ -4238,13 +4982,13 @@
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
       <c r="D65" s="5" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="G65" s="18"/>
       <c r="H65" s="18"/>
@@ -4259,26 +5003,28 @@
       <c r="A66" s="6"/>
       <c r="B66" s="5"/>
       <c r="C66" s="5" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="F66" s="13" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="G66" s="18"/>
       <c r="H66" s="18"/>
       <c r="I66" s="18"/>
       <c r="J66" s="15"/>
-      <c r="K66" s="15"/>
+      <c r="K66" s="15" t="s">
+        <v>530</v>
+      </c>
       <c r="L66" s="26"/>
       <c r="M66" s="19"/>
       <c r="N66" s="2" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
     </row>
     <row r="67" spans="1:14" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4286,23 +5032,25 @@
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
       <c r="D67" s="5" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="F67" s="12" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="G67" s="18"/>
       <c r="H67" s="18"/>
       <c r="I67" s="18"/>
       <c r="J67" s="15"/>
-      <c r="K67" s="15"/>
+      <c r="K67" s="15" t="s">
+        <v>530</v>
+      </c>
       <c r="L67" s="26"/>
       <c r="M67" s="19"/>
       <c r="N67" s="2" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
     </row>
     <row r="68" spans="1:14" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4310,27 +5058,31 @@
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
       <c r="D68" s="5" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="F68" s="21" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="G68" s="18"/>
       <c r="H68" s="18" t="s">
-        <v>357</v>
-      </c>
-      <c r="I68" s="18"/>
+        <v>346</v>
+      </c>
+      <c r="I68" s="18" t="s">
+        <v>437</v>
+      </c>
       <c r="J68" s="15"/>
-      <c r="K68" s="15"/>
+      <c r="K68" s="15" t="s">
+        <v>530</v>
+      </c>
       <c r="L68" s="26" t="s">
-        <v>398</v>
+        <v>384</v>
       </c>
       <c r="M68" s="19"/>
       <c r="N68" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="69" spans="1:14" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4338,27 +5090,33 @@
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
       <c r="D69" s="5" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="F69" s="21" t="s">
-        <v>204</v>
+        <v>482</v>
       </c>
       <c r="G69" s="18"/>
       <c r="H69" s="18" t="s">
-        <v>357</v>
-      </c>
-      <c r="I69" s="18"/>
-      <c r="J69" s="15"/>
-      <c r="K69" s="15"/>
+        <v>346</v>
+      </c>
+      <c r="I69" s="18" t="s">
+        <v>427</v>
+      </c>
+      <c r="J69" s="15" t="s">
+        <v>483</v>
+      </c>
+      <c r="K69" s="15" t="s">
+        <v>484</v>
+      </c>
       <c r="L69" s="26" t="s">
-        <v>398</v>
+        <v>384</v>
       </c>
       <c r="M69" s="19"/>
       <c r="N69" s="2" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
     </row>
     <row r="70" spans="1:14" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4366,23 +5124,25 @@
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
       <c r="D70" s="5" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="F70" s="21" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="G70" s="18"/>
       <c r="H70" s="18"/>
       <c r="I70" s="18"/>
       <c r="J70" s="15"/>
-      <c r="K70" s="15"/>
+      <c r="K70" s="15" t="s">
+        <v>485</v>
+      </c>
       <c r="L70" s="26"/>
       <c r="M70" s="19"/>
       <c r="N70" s="2" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
     </row>
     <row r="71" spans="1:14" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4390,27 +5150,31 @@
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
       <c r="D71" s="5" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="E71" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="F71" s="21" t="s">
         <v>194</v>
-      </c>
-      <c r="F71" s="21" t="s">
-        <v>204</v>
       </c>
       <c r="G71" s="18"/>
       <c r="H71" s="18" t="s">
-        <v>357</v>
-      </c>
-      <c r="I71" s="18"/>
+        <v>346</v>
+      </c>
+      <c r="I71" s="18" t="s">
+        <v>427</v>
+      </c>
       <c r="J71" s="15"/>
-      <c r="K71" s="15"/>
+      <c r="K71" s="15" t="s">
+        <v>479</v>
+      </c>
       <c r="L71" s="26" t="s">
-        <v>402</v>
+        <v>388</v>
       </c>
       <c r="M71" s="19"/>
       <c r="N71" s="2" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
     </row>
     <row r="72" spans="1:14" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4418,27 +5182,31 @@
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
       <c r="D72" s="5" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="F72" s="13" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="G72" s="18"/>
       <c r="H72" s="18" t="s">
-        <v>352</v>
-      </c>
-      <c r="I72" s="18"/>
+        <v>341</v>
+      </c>
+      <c r="I72" s="18" t="s">
+        <v>440</v>
+      </c>
       <c r="J72" s="15"/>
-      <c r="K72" s="15"/>
+      <c r="K72" s="15" t="s">
+        <v>485</v>
+      </c>
       <c r="L72" s="26" t="s">
-        <v>398</v>
+        <v>384</v>
       </c>
       <c r="M72" s="19"/>
       <c r="N72" s="2" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
     </row>
     <row r="73" spans="1:14" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4446,27 +5214,31 @@
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
       <c r="D73" s="5" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="F73" s="13" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="G73" s="18"/>
       <c r="H73" s="18" t="s">
-        <v>352</v>
-      </c>
-      <c r="I73" s="18"/>
+        <v>341</v>
+      </c>
+      <c r="I73" s="18" t="s">
+        <v>437</v>
+      </c>
       <c r="J73" s="15"/>
-      <c r="K73" s="15"/>
+      <c r="K73" s="15" t="s">
+        <v>485</v>
+      </c>
       <c r="L73" s="26" t="s">
-        <v>400</v>
+        <v>386</v>
       </c>
       <c r="M73" s="19"/>
       <c r="N73" s="2" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
     </row>
     <row r="74" spans="1:14" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4474,27 +5246,31 @@
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
       <c r="D74" s="5" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="F74" s="13" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="G74" s="18"/>
       <c r="H74" s="18" t="s">
-        <v>352</v>
-      </c>
-      <c r="I74" s="18"/>
+        <v>341</v>
+      </c>
+      <c r="I74" s="18" t="s">
+        <v>437</v>
+      </c>
       <c r="J74" s="15"/>
-      <c r="K74" s="15"/>
+      <c r="K74" s="15" t="s">
+        <v>485</v>
+      </c>
       <c r="L74" s="26" t="s">
-        <v>398</v>
+        <v>384</v>
       </c>
       <c r="M74" s="19"/>
       <c r="N74" s="2" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
     </row>
     <row r="75" spans="1:14" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4502,43 +5278,47 @@
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
       <c r="D75" s="5" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="F75" s="13" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="G75" s="18"/>
       <c r="H75" s="18" t="s">
-        <v>352</v>
-      </c>
-      <c r="I75" s="18"/>
+        <v>341</v>
+      </c>
+      <c r="I75" s="18" t="s">
+        <v>427</v>
+      </c>
       <c r="J75" s="15"/>
-      <c r="K75" s="15"/>
+      <c r="K75" s="15" t="s">
+        <v>486</v>
+      </c>
       <c r="L75" s="26" t="s">
-        <v>400</v>
+        <v>386</v>
       </c>
       <c r="M75" s="19"/>
       <c r="N75" s="2" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
     </row>
     <row r="76" spans="1:14" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="6"/>
       <c r="B76" s="5"/>
       <c r="C76" s="5" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="G76" s="18"/>
       <c r="H76" s="18"/>
@@ -4554,27 +5334,31 @@
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
       <c r="D77" s="5" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F77" s="21" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="G77" s="18"/>
       <c r="H77" s="18" t="s">
-        <v>357</v>
-      </c>
-      <c r="I77" s="18"/>
+        <v>346</v>
+      </c>
+      <c r="I77" s="18" t="s">
+        <v>439</v>
+      </c>
       <c r="J77" s="15"/>
-      <c r="K77" s="15"/>
+      <c r="K77" s="15" t="s">
+        <v>485</v>
+      </c>
       <c r="L77" s="26" t="s">
-        <v>398</v>
+        <v>384</v>
       </c>
       <c r="M77" s="19"/>
       <c r="N77" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="78" spans="1:14" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4582,27 +5366,31 @@
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
       <c r="D78" s="5" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F78" s="21" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="G78" s="18"/>
       <c r="H78" s="18" t="s">
-        <v>357</v>
-      </c>
-      <c r="I78" s="18"/>
+        <v>346</v>
+      </c>
+      <c r="I78" s="18" t="s">
+        <v>439</v>
+      </c>
       <c r="J78" s="15"/>
-      <c r="K78" s="15"/>
+      <c r="K78" s="15" t="s">
+        <v>479</v>
+      </c>
       <c r="L78" s="26" t="s">
-        <v>398</v>
+        <v>384</v>
       </c>
       <c r="M78" s="19"/>
       <c r="N78" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="79" spans="1:14" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4610,27 +5398,31 @@
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
       <c r="D79" s="5" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F79" s="21" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="G79" s="18"/>
       <c r="H79" s="18" t="s">
-        <v>357</v>
-      </c>
-      <c r="I79" s="18"/>
+        <v>346</v>
+      </c>
+      <c r="I79" s="18" t="s">
+        <v>438</v>
+      </c>
       <c r="J79" s="15"/>
-      <c r="K79" s="15"/>
+      <c r="K79" s="15" t="s">
+        <v>485</v>
+      </c>
       <c r="L79" s="26" t="s">
-        <v>398</v>
+        <v>384</v>
       </c>
       <c r="M79" s="19"/>
       <c r="N79" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="80" spans="1:14" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4638,13 +5430,13 @@
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
       <c r="D80" s="5" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="F80" s="21" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="G80" s="18"/>
       <c r="H80" s="18"/>
@@ -4660,13 +5452,13 @@
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
       <c r="D81" s="5" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="E81" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F81" s="21" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="G81" s="18"/>
       <c r="H81" s="18"/>
@@ -4676,7 +5468,7 @@
       <c r="L81" s="26"/>
       <c r="M81" s="19"/>
       <c r="N81" s="2" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
     </row>
     <row r="82" spans="1:14" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4684,13 +5476,13 @@
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
       <c r="D82" s="5" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="E82" s="4" t="s">
         <v>1</v>
       </c>
       <c r="F82" s="21" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="G82" s="18"/>
       <c r="H82" s="18"/>
@@ -4706,19 +5498,23 @@
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
       <c r="D83" s="5" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="E83" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="G83" s="18"/>
       <c r="H83" s="18"/>
-      <c r="I83" s="18"/>
+      <c r="I83" s="18" t="s">
+        <v>462</v>
+      </c>
       <c r="J83" s="15"/>
-      <c r="K83" s="15"/>
+      <c r="K83" s="15" t="s">
+        <v>486</v>
+      </c>
       <c r="L83" s="26"/>
       <c r="M83" s="19"/>
       <c r="N83" s="2"/>
@@ -4728,27 +5524,29 @@
         <v>5</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="D84" s="5" t="s">
-        <v>61</v>
+        <v>164</v>
+      </c>
+      <c r="D84" s="29" t="s">
+        <v>58</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="G84" s="18" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="H84" s="18"/>
       <c r="I84" s="18"/>
       <c r="J84" s="15"/>
-      <c r="K84" s="15"/>
+      <c r="K84" s="15" t="s">
+        <v>530</v>
+      </c>
       <c r="L84" s="26"/>
       <c r="M84" s="19"/>
       <c r="N84" s="2"/>
@@ -4757,52 +5555,58 @@
       <c r="A85" s="6"/>
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
-      <c r="D85" s="5" t="s">
-        <v>173</v>
+      <c r="D85" s="29" t="s">
+        <v>163</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="F85" s="12" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="G85" s="18" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="H85" s="18" t="s">
-        <v>357</v>
-      </c>
-      <c r="I85" s="18"/>
+        <v>346</v>
+      </c>
+      <c r="I85" s="18" t="s">
+        <v>437</v>
+      </c>
       <c r="J85" s="15"/>
-      <c r="K85" s="15"/>
+      <c r="K85" s="15" t="s">
+        <v>530</v>
+      </c>
       <c r="L85" s="26" t="s">
-        <v>398</v>
+        <v>384</v>
       </c>
       <c r="M85" s="19"/>
       <c r="N85" s="2" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
     </row>
     <row r="86" spans="1:14" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="6"/>
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
-      <c r="D86" s="5" t="s">
-        <v>170</v>
+      <c r="D86" s="29" t="s">
+        <v>160</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="G86" s="18" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="H86" s="18"/>
       <c r="I86" s="18"/>
       <c r="J86" s="15"/>
-      <c r="K86" s="15"/>
+      <c r="K86" s="15" t="s">
+        <v>529</v>
+      </c>
       <c r="L86" s="26"/>
       <c r="M86" s="19"/>
       <c r="N86" s="2"/>
@@ -4811,24 +5615,26 @@
       <c r="A87" s="6"/>
       <c r="B87" s="5"/>
       <c r="C87" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="D87" s="5" t="s">
-        <v>129</v>
+        <v>158</v>
+      </c>
+      <c r="D87" s="29" t="s">
+        <v>120</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="G87" s="18" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="H87" s="18"/>
       <c r="I87" s="18"/>
       <c r="J87" s="15"/>
-      <c r="K87" s="15"/>
+      <c r="K87" s="15" t="s">
+        <v>530</v>
+      </c>
       <c r="L87" s="26"/>
       <c r="M87" s="19"/>
       <c r="N87" s="2"/>
@@ -4837,22 +5643,24 @@
       <c r="A88" s="6"/>
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
-      <c r="D88" s="5" t="s">
-        <v>127</v>
+      <c r="D88" s="29" t="s">
+        <v>118</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="G88" s="18" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="H88" s="18"/>
       <c r="I88" s="18"/>
       <c r="J88" s="15"/>
-      <c r="K88" s="15"/>
+      <c r="K88" s="15" t="s">
+        <v>529</v>
+      </c>
       <c r="L88" s="26"/>
       <c r="M88" s="19"/>
       <c r="N88" s="2"/>
@@ -4861,22 +5669,24 @@
       <c r="A89" s="6"/>
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
-      <c r="D89" s="5" t="s">
-        <v>165</v>
+      <c r="D89" s="29" t="s">
+        <v>155</v>
       </c>
       <c r="E89" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="G89" s="18" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="H89" s="18"/>
       <c r="I89" s="18"/>
       <c r="J89" s="15"/>
-      <c r="K89" s="15"/>
+      <c r="K89" s="15" t="s">
+        <v>530</v>
+      </c>
       <c r="L89" s="26"/>
       <c r="M89" s="19"/>
       <c r="N89" s="2"/>
@@ -4885,22 +5695,24 @@
       <c r="A90" s="6"/>
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
-      <c r="D90" s="5" t="s">
-        <v>163</v>
+      <c r="D90" s="29" t="s">
+        <v>153</v>
       </c>
       <c r="E90" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="G90" s="18" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="H90" s="18"/>
       <c r="I90" s="18"/>
       <c r="J90" s="15"/>
-      <c r="K90" s="15"/>
+      <c r="K90" s="15" t="s">
+        <v>529</v>
+      </c>
       <c r="L90" s="26"/>
       <c r="M90" s="19"/>
       <c r="N90" s="2"/>
@@ -4909,135 +5721,151 @@
       <c r="A91" s="6"/>
       <c r="B91" s="5"/>
       <c r="C91" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="D91" s="5" t="s">
-        <v>160</v>
+        <v>151</v>
+      </c>
+      <c r="D91" s="29" t="s">
+        <v>150</v>
       </c>
       <c r="E91" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F91" s="12" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="G91" s="18" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="H91" s="18" t="s">
-        <v>357</v>
-      </c>
-      <c r="I91" s="18"/>
+        <v>346</v>
+      </c>
+      <c r="I91" s="18" t="s">
+        <v>437</v>
+      </c>
       <c r="J91" s="15"/>
-      <c r="K91" s="15"/>
+      <c r="K91" s="15" t="s">
+        <v>530</v>
+      </c>
       <c r="L91" s="26" t="s">
-        <v>403</v>
+        <v>389</v>
       </c>
       <c r="M91" s="19"/>
       <c r="N91" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="92" spans="1:14" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="6"/>
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
-      <c r="D92" s="5" t="s">
-        <v>159</v>
+      <c r="D92" s="29" t="s">
+        <v>149</v>
       </c>
       <c r="E92" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F92" s="12" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="G92" s="18" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="H92" s="18" t="s">
-        <v>357</v>
-      </c>
-      <c r="I92" s="18"/>
+        <v>346</v>
+      </c>
+      <c r="I92" s="18" t="s">
+        <v>427</v>
+      </c>
       <c r="J92" s="15"/>
-      <c r="K92" s="15"/>
+      <c r="K92" s="15" t="s">
+        <v>529</v>
+      </c>
       <c r="L92" s="26" t="s">
-        <v>398</v>
+        <v>384</v>
       </c>
       <c r="M92" s="19"/>
       <c r="N92" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="93" spans="1:14" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="6"/>
-      <c r="D93" s="5" t="s">
-        <v>157</v>
+      <c r="D93" s="29" t="s">
+        <v>147</v>
       </c>
       <c r="E93" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F93" s="12" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="G93" s="18" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="H93" s="18" t="s">
-        <v>357</v>
-      </c>
-      <c r="I93" s="18"/>
+        <v>346</v>
+      </c>
+      <c r="I93" s="18" t="s">
+        <v>437</v>
+      </c>
       <c r="J93" s="15"/>
-      <c r="K93" s="15"/>
+      <c r="K93" s="15" t="s">
+        <v>530</v>
+      </c>
       <c r="L93" s="26" t="s">
-        <v>398</v>
+        <v>384</v>
       </c>
       <c r="M93" s="19"/>
       <c r="N93" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="94" spans="1:14" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="6"/>
       <c r="C94" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="D94" s="5" t="s">
-        <v>154</v>
+        <v>145</v>
+      </c>
+      <c r="D94" s="29" t="s">
+        <v>144</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="G94" s="18" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="H94" s="18"/>
       <c r="I94" s="18"/>
       <c r="J94" s="15"/>
-      <c r="K94" s="15"/>
+      <c r="K94" s="15" t="s">
+        <v>529</v>
+      </c>
       <c r="L94" s="26"/>
       <c r="M94" s="19"/>
       <c r="N94" s="2"/>
     </row>
     <row r="95" spans="1:14" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="6"/>
-      <c r="D95" s="5" t="s">
-        <v>153</v>
+      <c r="D95" s="29" t="s">
+        <v>143</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="G95" s="18" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="H95" s="18"/>
       <c r="I95" s="18"/>
       <c r="J95" s="15"/>
-      <c r="K95" s="15"/>
+      <c r="K95" s="15" t="s">
+        <v>530</v>
+      </c>
       <c r="L95" s="26"/>
       <c r="M95" s="19"/>
       <c r="N95" s="2"/>
@@ -5047,27 +5875,31 @@
         <v>6</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>148</v>
+        <v>510</v>
       </c>
       <c r="G96" s="18" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="H96" s="18"/>
       <c r="I96" s="18"/>
-      <c r="J96" s="15"/>
-      <c r="K96" s="15"/>
+      <c r="J96" s="15" t="s">
+        <v>511</v>
+      </c>
+      <c r="K96" s="15" t="s">
+        <v>512</v>
+      </c>
       <c r="L96" s="26"/>
       <c r="M96" s="19"/>
       <c r="N96" s="2"/>
@@ -5075,16 +5907,16 @@
     <row r="97" spans="1:14" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="6"/>
       <c r="D97" s="5" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="G97" s="18" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="H97" s="18"/>
       <c r="I97" s="18"/>
@@ -5097,21 +5929,27 @@
     <row r="98" spans="1:14" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="6"/>
       <c r="D98" s="5" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="E98" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>142</v>
+        <v>507</v>
       </c>
       <c r="G98" s="18" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="H98" s="18"/>
-      <c r="I98" s="18"/>
-      <c r="J98" s="15"/>
-      <c r="K98" s="15"/>
+      <c r="I98" s="18" t="s">
+        <v>427</v>
+      </c>
+      <c r="J98" s="15" t="s">
+        <v>508</v>
+      </c>
+      <c r="K98" s="15" t="s">
+        <v>509</v>
+      </c>
       <c r="L98" s="26"/>
       <c r="M98" s="19"/>
       <c r="N98" s="2"/>
@@ -5119,21 +5957,23 @@
     <row r="99" spans="1:14" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="6"/>
       <c r="D99" s="5" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="E99" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="G99" s="18" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="H99" s="18"/>
       <c r="I99" s="18"/>
       <c r="J99" s="15"/>
-      <c r="K99" s="15"/>
+      <c r="K99" s="15" t="s">
+        <v>485</v>
+      </c>
       <c r="L99" s="26"/>
       <c r="M99" s="19"/>
       <c r="N99" s="2"/>
@@ -5141,21 +5981,23 @@
     <row r="100" spans="1:14" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="6"/>
       <c r="D100" s="5" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="E100" s="4" t="s">
         <v>1</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="G100" s="18" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="H100" s="18"/>
       <c r="I100" s="18"/>
       <c r="J100" s="15"/>
-      <c r="K100" s="15"/>
+      <c r="K100" s="15" t="s">
+        <v>479</v>
+      </c>
       <c r="L100" s="26"/>
       <c r="M100" s="19"/>
       <c r="N100" s="2"/>
@@ -5163,27 +6005,27 @@
     <row r="101" spans="1:14" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="6"/>
       <c r="C101" s="5" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F101" s="21" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="G101" s="18" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="H101" s="18"/>
       <c r="I101" s="18"/>
       <c r="J101" s="23" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="K101" s="16" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
       <c r="L101" s="26"/>
       <c r="M101" s="19"/>
@@ -5192,29 +6034,29 @@
     <row r="102" spans="1:14" s="5" customFormat="1" ht="80.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="6"/>
       <c r="D102" s="5" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="F102" s="22" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="G102" s="18" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="H102" s="18"/>
       <c r="I102" s="18" t="s">
-        <v>446</v>
+        <v>427</v>
       </c>
       <c r="J102" s="17" t="s">
-        <v>420</v>
+        <v>405</v>
       </c>
       <c r="K102" s="17" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="L102" s="26" t="s">
-        <v>421</v>
+        <v>406</v>
       </c>
       <c r="M102" s="19"/>
       <c r="N102" s="2"/>
@@ -5222,29 +6064,29 @@
     <row r="103" spans="1:14" s="5" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="6"/>
       <c r="D103" s="5" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="F103" s="21" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="G103" s="18" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="H103" s="18"/>
       <c r="I103" s="18" t="s">
-        <v>447</v>
+        <v>431</v>
       </c>
       <c r="J103" s="15" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="K103" s="15" t="s">
-        <v>375</v>
+        <v>470</v>
       </c>
       <c r="L103" s="26" t="s">
-        <v>381</v>
+        <v>368</v>
       </c>
       <c r="M103" s="19"/>
       <c r="N103" s="2"/>
@@ -5252,24 +6094,24 @@
     <row r="104" spans="1:14" s="5" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="6"/>
       <c r="D104" s="5" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="F104" s="21" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="G104" s="18" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="H104" s="18"/>
       <c r="I104" s="18"/>
       <c r="J104" s="15" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="K104" s="15" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="L104" s="26"/>
       <c r="M104" s="19"/>
@@ -5280,30 +6122,30 @@
         <v>7</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="G105" s="18" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="H105" s="18"/>
       <c r="I105" s="18"/>
       <c r="J105" s="23" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="K105" s="16" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
       <c r="L105" s="26"/>
       <c r="M105" s="19"/>
@@ -5312,24 +6154,24 @@
     <row r="106" spans="1:14" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="6"/>
       <c r="D106" s="5" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="F106" s="4" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="G106" s="18" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="H106" s="18"/>
       <c r="I106" s="18"/>
       <c r="J106" s="23" t="s">
-        <v>380</v>
+        <v>449</v>
       </c>
       <c r="K106" s="16" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="L106" s="26"/>
       <c r="M106" s="19"/>
@@ -5340,21 +6182,27 @@
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
       <c r="D107" s="5" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>124</v>
+        <v>458</v>
       </c>
       <c r="G107" s="18" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="H107" s="18"/>
-      <c r="I107" s="18"/>
-      <c r="J107" s="15"/>
-      <c r="K107" s="15"/>
+      <c r="I107" s="18" t="s">
+        <v>461</v>
+      </c>
+      <c r="J107" s="15" t="s">
+        <v>459</v>
+      </c>
+      <c r="K107" s="15" t="s">
+        <v>460</v>
+      </c>
       <c r="L107" s="26"/>
       <c r="M107" s="19"/>
       <c r="N107" s="2"/>
@@ -5364,21 +6212,25 @@
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
       <c r="D108" s="5" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="E108" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="G108" s="18" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="H108" s="18"/>
       <c r="I108" s="18"/>
-      <c r="J108" s="15"/>
-      <c r="K108" s="15"/>
+      <c r="J108" s="15" t="s">
+        <v>464</v>
+      </c>
+      <c r="K108" s="15" t="s">
+        <v>465</v>
+      </c>
       <c r="L108" s="26"/>
       <c r="M108" s="19"/>
       <c r="N108" s="2"/>
@@ -5388,21 +6240,25 @@
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
       <c r="D109" s="5" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="E109" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="G109" s="18" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="H109" s="18"/>
       <c r="I109" s="18"/>
-      <c r="J109" s="15"/>
-      <c r="K109" s="15"/>
+      <c r="J109" s="15" t="s">
+        <v>466</v>
+      </c>
+      <c r="K109" s="15" t="s">
+        <v>372</v>
+      </c>
       <c r="L109" s="26"/>
       <c r="M109" s="19"/>
       <c r="N109" s="2"/>
@@ -5411,24 +6267,28 @@
       <c r="A110" s="6"/>
       <c r="B110" s="5"/>
       <c r="C110" s="5" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="D110" s="5" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F110" s="21" t="s">
-        <v>117</v>
+        <v>467</v>
       </c>
       <c r="G110" s="18" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="H110" s="18"/>
       <c r="I110" s="18"/>
-      <c r="J110" s="15"/>
-      <c r="K110" s="15"/>
+      <c r="J110" s="15" t="s">
+        <v>468</v>
+      </c>
+      <c r="K110" s="15" t="s">
+        <v>469</v>
+      </c>
       <c r="L110" s="26"/>
       <c r="M110" s="19"/>
       <c r="N110" s="2"/>
@@ -5438,25 +6298,33 @@
       <c r="B111" s="5"/>
       <c r="C111" s="5"/>
       <c r="D111" s="5" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="E111" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F111" s="21" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="G111" s="18" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="H111" s="18"/>
-      <c r="I111" s="18"/>
-      <c r="J111" s="15"/>
-      <c r="K111" s="15"/>
-      <c r="L111" s="26"/>
+      <c r="I111" s="18" t="s">
+        <v>462</v>
+      </c>
+      <c r="J111" s="15" t="s">
+        <v>450</v>
+      </c>
+      <c r="K111" s="15" t="s">
+        <v>451</v>
+      </c>
+      <c r="L111" s="26" t="s">
+        <v>463</v>
+      </c>
       <c r="M111" s="19"/>
       <c r="N111" s="2" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="112" spans="1:14" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5464,25 +6332,31 @@
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
       <c r="D112" s="5" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="E112" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F112" s="21" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="G112" s="18" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="H112" s="18"/>
-      <c r="I112" s="18"/>
-      <c r="J112" s="15"/>
-      <c r="K112" s="15"/>
+      <c r="I112" s="18" t="s">
+        <v>454</v>
+      </c>
+      <c r="J112" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="K112" s="15" t="s">
+        <v>453</v>
+      </c>
       <c r="L112" s="26"/>
       <c r="M112" s="19"/>
       <c r="N112" s="2" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="113" spans="1:14" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5490,21 +6364,23 @@
       <c r="B113" s="5"/>
       <c r="C113" s="5"/>
       <c r="D113" s="5" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="E113" s="4" t="s">
         <v>1</v>
       </c>
       <c r="F113" s="21" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="G113" s="18" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="H113" s="18"/>
       <c r="I113" s="18"/>
       <c r="J113" s="15"/>
-      <c r="K113" s="15"/>
+      <c r="K113" s="15" t="s">
+        <v>455</v>
+      </c>
       <c r="L113" s="26"/>
       <c r="M113" s="19"/>
       <c r="N113" s="2"/>
@@ -5513,24 +6389,26 @@
       <c r="A114" s="6"/>
       <c r="B114" s="5"/>
       <c r="C114" s="5" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="D114" s="5" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="E114" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F114" s="21" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="G114" s="18" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="H114" s="18"/>
       <c r="I114" s="18"/>
       <c r="J114" s="15"/>
-      <c r="K114" s="15"/>
+      <c r="K114" s="15" t="s">
+        <v>455</v>
+      </c>
       <c r="L114" s="26"/>
       <c r="M114" s="19"/>
       <c r="N114" s="2"/>
@@ -5540,21 +6418,25 @@
       <c r="B115" s="5"/>
       <c r="C115" s="5"/>
       <c r="D115" s="5" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="E115" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F115" s="21" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="G115" s="18" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="H115" s="18"/>
       <c r="I115" s="18"/>
-      <c r="J115" s="15"/>
-      <c r="K115" s="15"/>
+      <c r="J115" s="15" t="s">
+        <v>457</v>
+      </c>
+      <c r="K115" s="15" t="s">
+        <v>456</v>
+      </c>
       <c r="L115" s="26"/>
       <c r="M115" s="19"/>
       <c r="N115" s="2"/>
@@ -5564,21 +6446,23 @@
       <c r="B116" s="5"/>
       <c r="C116" s="5"/>
       <c r="D116" s="5" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="E116" s="4" t="s">
         <v>1</v>
       </c>
       <c r="F116" s="21" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="G116" s="18" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="H116" s="18"/>
       <c r="I116" s="18"/>
       <c r="J116" s="15"/>
-      <c r="K116" s="15"/>
+      <c r="K116" s="15" t="s">
+        <v>366</v>
+      </c>
       <c r="L116" s="26"/>
       <c r="M116" s="19"/>
       <c r="N116" s="2"/>
@@ -5588,22 +6472,22 @@
         <v>8</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D117" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="G117" s="18" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="H117" s="18"/>
       <c r="I117" s="18"/>
@@ -5618,25 +6502,29 @@
       <c r="B118" s="5"/>
       <c r="C118" s="5"/>
       <c r="D118" s="5" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="E118" s="4" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="F118" s="12" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="G118" s="18" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="H118" s="18"/>
       <c r="I118" s="18"/>
-      <c r="J118" s="15"/>
-      <c r="K118" s="15"/>
+      <c r="J118" s="15" t="s">
+        <v>513</v>
+      </c>
+      <c r="K118" s="15" t="s">
+        <v>514</v>
+      </c>
       <c r="L118" s="26"/>
       <c r="M118" s="19"/>
       <c r="N118" s="2" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="119" spans="1:14" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5644,50 +6532,52 @@
       <c r="B119" s="5"/>
       <c r="C119" s="5"/>
       <c r="D119" s="5" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="E119" s="4" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="F119" s="12" t="s">
-        <v>97</v>
+        <v>516</v>
       </c>
       <c r="G119" s="18" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="H119" s="18" t="s">
-        <v>357</v>
-      </c>
-      <c r="I119" s="18" t="s">
-        <v>442</v>
-      </c>
-      <c r="J119" s="15"/>
-      <c r="K119" s="15"/>
+        <v>346</v>
+      </c>
+      <c r="I119" s="18"/>
+      <c r="J119" s="15" t="s">
+        <v>517</v>
+      </c>
+      <c r="K119" s="15" t="s">
+        <v>515</v>
+      </c>
       <c r="L119" s="26" t="s">
-        <v>427</v>
+        <v>412</v>
       </c>
       <c r="M119" s="19"/>
       <c r="N119" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="120" spans="1:14" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" s="6"/>
       <c r="B120" s="5"/>
       <c r="C120" s="5" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D120" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="G120" s="18" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="H120" s="18"/>
       <c r="I120" s="18"/>
@@ -5702,31 +6592,31 @@
       <c r="B121" s="5"/>
       <c r="C121" s="5"/>
       <c r="D121" s="5" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E121" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F121" s="12" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="G121" s="18" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="H121" s="18" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="I121" s="18" t="s">
-        <v>447</v>
+        <v>431</v>
       </c>
       <c r="J121" s="15"/>
       <c r="K121" s="15"/>
       <c r="L121" s="26" t="s">
-        <v>398</v>
+        <v>384</v>
       </c>
       <c r="M121" s="19"/>
       <c r="N121" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="122" spans="1:14" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5734,16 +6624,16 @@
       <c r="B122" s="5"/>
       <c r="C122" s="5"/>
       <c r="D122" s="5" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E122" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="G122" s="18" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="H122" s="18"/>
       <c r="I122" s="18"/>
@@ -5758,21 +6648,25 @@
       <c r="B123" s="5"/>
       <c r="C123" s="5"/>
       <c r="D123" s="5" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="E123" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="G123" s="18" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="H123" s="18"/>
       <c r="I123" s="18"/>
-      <c r="J123" s="15"/>
-      <c r="K123" s="15"/>
+      <c r="J123" s="15" t="s">
+        <v>518</v>
+      </c>
+      <c r="K123" s="15" t="s">
+        <v>455</v>
+      </c>
       <c r="L123" s="26"/>
       <c r="M123" s="19"/>
       <c r="N123" s="2"/>
@@ -5782,21 +6676,27 @@
       <c r="B124" s="5"/>
       <c r="C124" s="5"/>
       <c r="D124" s="5" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E124" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="G124" s="18" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="H124" s="18"/>
-      <c r="I124" s="18"/>
-      <c r="J124" s="15"/>
-      <c r="K124" s="15"/>
+      <c r="I124" s="18" t="s">
+        <v>462</v>
+      </c>
+      <c r="J124" s="15" t="s">
+        <v>519</v>
+      </c>
+      <c r="K124" s="15" t="s">
+        <v>520</v>
+      </c>
       <c r="L124" s="26"/>
       <c r="M124" s="19"/>
       <c r="N124" s="2"/>
@@ -5806,21 +6706,27 @@
       <c r="B125" s="5"/>
       <c r="C125" s="5"/>
       <c r="D125" s="5" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="E125" s="4" t="s">
         <v>1</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="G125" s="18" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="H125" s="18"/>
-      <c r="I125" s="18"/>
-      <c r="J125" s="15"/>
-      <c r="K125" s="15"/>
+      <c r="I125" s="18" t="s">
+        <v>523</v>
+      </c>
+      <c r="J125" s="15" t="s">
+        <v>521</v>
+      </c>
+      <c r="K125" s="15" t="s">
+        <v>522</v>
+      </c>
       <c r="L125" s="26"/>
       <c r="M125" s="19"/>
       <c r="N125" s="2"/>
@@ -5830,21 +6736,27 @@
       <c r="B126" s="5"/>
       <c r="C126" s="5"/>
       <c r="D126" s="5" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E126" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>85</v>
+        <v>524</v>
       </c>
       <c r="G126" s="18" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="H126" s="18"/>
-      <c r="I126" s="18"/>
-      <c r="J126" s="15"/>
-      <c r="K126" s="15"/>
+      <c r="I126" s="18" t="s">
+        <v>462</v>
+      </c>
+      <c r="J126" s="15" t="s">
+        <v>525</v>
+      </c>
+      <c r="K126" s="15" t="s">
+        <v>520</v>
+      </c>
       <c r="L126" s="26"/>
       <c r="M126" s="19"/>
       <c r="N126" s="2"/>
@@ -5853,19 +6765,19 @@
       <c r="A127" s="6"/>
       <c r="B127" s="5"/>
       <c r="C127" s="5" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D127" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E127" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F127" s="3" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="G127" s="18" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="H127" s="18"/>
       <c r="I127" s="18"/>
@@ -5880,31 +6792,35 @@
       <c r="B128" s="5"/>
       <c r="C128" s="5"/>
       <c r="D128" s="5" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E128" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F128" s="21" t="s">
-        <v>81</v>
+        <v>533</v>
       </c>
       <c r="G128" s="18" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="H128" s="18" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="I128" s="18" t="s">
-        <v>447</v>
-      </c>
-      <c r="J128" s="15"/>
-      <c r="K128" s="15"/>
+        <v>535</v>
+      </c>
+      <c r="J128" s="15" t="s">
+        <v>534</v>
+      </c>
+      <c r="K128" s="15" t="s">
+        <v>469</v>
+      </c>
       <c r="L128" s="26" t="s">
-        <v>405</v>
+        <v>391</v>
       </c>
       <c r="M128" s="19"/>
       <c r="N128" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="129" spans="1:14" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5912,21 +6828,25 @@
       <c r="B129" s="5"/>
       <c r="C129" s="5"/>
       <c r="D129" s="5" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E129" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F129" s="21" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G129" s="18" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="H129" s="18"/>
       <c r="I129" s="18"/>
-      <c r="J129" s="15"/>
-      <c r="K129" s="15"/>
+      <c r="J129" s="15" t="s">
+        <v>441</v>
+      </c>
+      <c r="K129" s="15" t="s">
+        <v>442</v>
+      </c>
       <c r="L129" s="26"/>
       <c r="M129" s="19"/>
       <c r="N129" s="2"/>
@@ -5936,21 +6856,23 @@
       <c r="B130" s="5"/>
       <c r="C130" s="5"/>
       <c r="D130" s="5" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E130" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F130" s="21" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G130" s="18" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="H130" s="18"/>
       <c r="I130" s="18"/>
       <c r="J130" s="15"/>
-      <c r="K130" s="15"/>
+      <c r="K130" s="15" t="s">
+        <v>442</v>
+      </c>
       <c r="L130" s="26"/>
       <c r="M130" s="19"/>
       <c r="N130" s="2"/>
@@ -5960,21 +6882,23 @@
       <c r="B131" s="5"/>
       <c r="C131" s="5"/>
       <c r="D131" s="5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E131" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F131" s="21" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G131" s="18" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="H131" s="18"/>
       <c r="I131" s="18"/>
       <c r="J131" s="15"/>
-      <c r="K131" s="15"/>
+      <c r="K131" s="15" t="s">
+        <v>442</v>
+      </c>
       <c r="L131" s="26"/>
       <c r="M131" s="19"/>
       <c r="N131" s="2"/>
@@ -5984,21 +6908,23 @@
       <c r="B132" s="5"/>
       <c r="C132" s="5"/>
       <c r="D132" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E132" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F132" s="3" t="s">
-        <v>75</v>
+        <v>443</v>
       </c>
       <c r="G132" s="18" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="H132" s="18"/>
       <c r="I132" s="18"/>
       <c r="J132" s="15"/>
-      <c r="K132" s="15"/>
+      <c r="K132" s="15" t="s">
+        <v>442</v>
+      </c>
       <c r="L132" s="26"/>
       <c r="M132" s="19"/>
       <c r="N132" s="2"/>
@@ -6008,22 +6934,22 @@
         <v>9</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D133" s="5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E133" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F133" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G133" s="18" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="H133" s="18"/>
       <c r="I133" s="18"/>
@@ -6037,32 +6963,32 @@
       <c r="A134" s="6"/>
       <c r="B134" s="5"/>
       <c r="C134" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D134" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E134" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F134" s="20" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G134" s="18" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="H134" s="18"/>
       <c r="I134" s="18"/>
       <c r="J134" s="23" t="s">
-        <v>382</v>
+        <v>369</v>
       </c>
       <c r="K134" s="16" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="L134" s="26"/>
       <c r="M134" s="19"/>
       <c r="N134" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="135" spans="1:14" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -6070,24 +6996,24 @@
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
       <c r="D135" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E135" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F135" s="21" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G135" s="18" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="H135" s="18"/>
       <c r="I135" s="18"/>
       <c r="J135" s="16" t="s">
-        <v>417</v>
+        <v>402</v>
       </c>
       <c r="K135" s="16" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="L135" s="26"/>
       <c r="M135" s="19"/>
@@ -6098,24 +7024,24 @@
       <c r="B136" s="5"/>
       <c r="C136" s="5"/>
       <c r="D136" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E136" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F136" s="21" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G136" s="18" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="H136" s="18"/>
       <c r="I136" s="18"/>
       <c r="J136" s="15" t="s">
-        <v>418</v>
+        <v>403</v>
       </c>
       <c r="K136" s="16" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
       <c r="L136" s="26"/>
       <c r="M136" s="19"/>
@@ -6126,24 +7052,24 @@
       <c r="B137" s="5"/>
       <c r="C137" s="5"/>
       <c r="D137" s="5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E137" s="4" t="s">
         <v>1</v>
       </c>
       <c r="F137" s="21" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G137" s="18" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="H137" s="18"/>
       <c r="I137" s="18"/>
       <c r="J137" s="15" t="s">
-        <v>419</v>
+        <v>404</v>
       </c>
       <c r="K137" s="16" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
       <c r="L137" s="26"/>
       <c r="M137" s="19"/>
@@ -6153,24 +7079,26 @@
       <c r="A138" s="6"/>
       <c r="B138" s="5"/>
       <c r="C138" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D138" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E138" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F138" s="4" t="s">
-        <v>60</v>
+        <v>444</v>
       </c>
       <c r="G138" s="18" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="H138" s="18"/>
       <c r="I138" s="18"/>
       <c r="J138" s="23"/>
-      <c r="K138" s="16"/>
+      <c r="K138" s="16" t="s">
+        <v>366</v>
+      </c>
       <c r="L138" s="26"/>
       <c r="M138" s="19"/>
       <c r="N138" s="2"/>
@@ -6180,35 +7108,35 @@
       <c r="B139" s="5"/>
       <c r="C139" s="5"/>
       <c r="D139" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E139" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F139" s="22" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G139" s="18" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="H139" s="18" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="I139" s="18" t="s">
+        <v>429</v>
+      </c>
+      <c r="J139" s="23" t="s">
         <v>445</v>
       </c>
-      <c r="J139" s="23" t="s">
-        <v>383</v>
-      </c>
       <c r="K139" s="17" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="L139" s="26" t="s">
-        <v>406</v>
+        <v>392</v>
       </c>
       <c r="M139" s="19"/>
       <c r="N139" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="140" spans="1:14" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -6216,24 +7144,24 @@
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
       <c r="D140" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E140" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F140" s="22" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G140" s="18" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="H140" s="18"/>
       <c r="I140" s="18"/>
       <c r="J140" s="26" t="s">
-        <v>422</v>
+        <v>407</v>
       </c>
       <c r="K140" s="26" t="s">
-        <v>423</v>
+        <v>408</v>
       </c>
       <c r="L140" s="26"/>
       <c r="M140" s="19"/>
@@ -6244,24 +7172,24 @@
       <c r="B141" s="5"/>
       <c r="C141" s="5"/>
       <c r="D141" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E141" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F141" s="21" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G141" s="18" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="H141" s="18"/>
       <c r="I141" s="18"/>
       <c r="J141" s="15" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
       <c r="K141" s="15" t="s">
-        <v>386</v>
+        <v>372</v>
       </c>
       <c r="L141" s="26"/>
       <c r="M141" s="19"/>
@@ -6272,24 +7200,24 @@
       <c r="B142" s="5"/>
       <c r="C142" s="5"/>
       <c r="D142" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E142" s="4" t="s">
         <v>1</v>
       </c>
       <c r="F142" s="21" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G142" s="18" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="H142" s="18"/>
       <c r="I142" s="18"/>
       <c r="J142" s="15" t="s">
-        <v>425</v>
+        <v>410</v>
       </c>
       <c r="K142" s="15" t="s">
-        <v>426</v>
+        <v>411</v>
       </c>
       <c r="L142" s="26"/>
       <c r="M142" s="19"/>
@@ -6300,63 +7228,69 @@
       <c r="B143" s="5"/>
       <c r="C143" s="5"/>
       <c r="D143" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E143" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F143" s="3" t="s">
-        <v>52</v>
+        <v>446</v>
       </c>
       <c r="G143" s="18" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="H143" s="18"/>
-      <c r="I143" s="18"/>
+      <c r="I143" s="18" t="s">
+        <v>448</v>
+      </c>
       <c r="J143" s="15"/>
-      <c r="K143" s="15"/>
-      <c r="L143" s="26"/>
+      <c r="K143" s="15" t="s">
+        <v>442</v>
+      </c>
+      <c r="L143" s="26" t="s">
+        <v>447</v>
+      </c>
       <c r="M143" s="19"/>
       <c r="N143" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="144" spans="1:14" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A144" s="6"/>
       <c r="B144" s="5"/>
       <c r="C144" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D144" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E144" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F144" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G144" s="18" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="H144" s="18" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="I144" s="18" t="s">
-        <v>447</v>
+        <v>431</v>
       </c>
       <c r="J144" s="23" t="s">
-        <v>384</v>
+        <v>370</v>
       </c>
       <c r="K144" s="16" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="L144" s="26" t="s">
-        <v>407</v>
+        <v>393</v>
       </c>
       <c r="M144" s="19"/>
       <c r="N144" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="145" spans="1:14" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -6364,24 +7298,24 @@
       <c r="B145" s="5"/>
       <c r="C145" s="5"/>
       <c r="D145" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E145" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F145" s="10" t="s">
-        <v>429</v>
+        <v>414</v>
       </c>
       <c r="G145" s="18" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="H145" s="18"/>
       <c r="I145" s="18"/>
       <c r="J145" s="26" t="s">
-        <v>428</v>
+        <v>413</v>
       </c>
       <c r="K145" s="26" t="s">
-        <v>385</v>
+        <v>371</v>
       </c>
       <c r="L145" s="26"/>
       <c r="M145" s="19"/>
@@ -6392,24 +7326,24 @@
       <c r="B146" s="5"/>
       <c r="C146" s="5"/>
       <c r="D146" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E146" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F146" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G146" s="18" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="H146" s="18"/>
       <c r="I146" s="18"/>
       <c r="J146" s="15" t="s">
-        <v>388</v>
+        <v>374</v>
       </c>
       <c r="K146" s="15" t="s">
-        <v>386</v>
+        <v>372</v>
       </c>
       <c r="L146" s="26"/>
       <c r="M146" s="19"/>
@@ -6420,29 +7354,29 @@
       <c r="B147" s="5"/>
       <c r="C147" s="5"/>
       <c r="D147" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E147" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F147" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G147" s="18" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="H147" s="18"/>
       <c r="I147" s="18" t="s">
-        <v>445</v>
+        <v>429</v>
       </c>
       <c r="J147" s="15" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="K147" s="15" t="s">
-        <v>387</v>
+        <v>373</v>
       </c>
       <c r="L147" s="26" t="s">
-        <v>390</v>
+        <v>376</v>
       </c>
       <c r="M147" s="19"/>
       <c r="N147" s="2"/>
@@ -6452,29 +7386,29 @@
       <c r="B148" s="5"/>
       <c r="C148" s="5"/>
       <c r="D148" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E148" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F148" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G148" s="18" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="H148" s="18"/>
       <c r="I148" s="18"/>
       <c r="J148" s="23" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
       <c r="K148" s="16" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
       <c r="L148" s="26"/>
       <c r="M148" s="19"/>
       <c r="N148" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="149" spans="1:14" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -6482,24 +7416,24 @@
       <c r="B149" s="5"/>
       <c r="C149" s="5"/>
       <c r="D149" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E149" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F149" s="22" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="G149" s="18" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="H149" s="18"/>
       <c r="I149" s="18"/>
       <c r="J149" s="17" t="s">
-        <v>392</v>
+        <v>378</v>
       </c>
       <c r="K149" s="17" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
       <c r="L149" s="26"/>
       <c r="M149" s="19"/>
@@ -6510,24 +7444,24 @@
       <c r="B150" s="5"/>
       <c r="C150" s="5"/>
       <c r="D150" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E150" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F150" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G150" s="18" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="H150" s="18"/>
       <c r="I150" s="18"/>
       <c r="J150" s="15" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
       <c r="K150" s="15" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
       <c r="L150" s="26"/>
       <c r="M150" s="19"/>
@@ -6538,22 +7472,22 @@
       <c r="B151" s="5"/>
       <c r="C151" s="5"/>
       <c r="D151" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E151" s="4" t="s">
         <v>1</v>
       </c>
       <c r="F151" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G151" s="18" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="H151" s="18"/>
       <c r="I151" s="18"/>
       <c r="J151" s="15"/>
       <c r="K151" s="15" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="L151" s="26"/>
       <c r="M151" s="19"/>
@@ -6564,24 +7498,24 @@
       <c r="B152" s="5"/>
       <c r="C152" s="5"/>
       <c r="D152" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E152" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F152" s="20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G152" s="18" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="H152" s="18"/>
       <c r="I152" s="18"/>
       <c r="J152" s="15" t="s">
-        <v>433</v>
+        <v>418</v>
       </c>
       <c r="K152" s="15" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="L152" s="26"/>
       <c r="M152" s="19"/>
@@ -6592,26 +7526,26 @@
       <c r="B153" s="5"/>
       <c r="C153" s="5"/>
       <c r="D153" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E153" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F153" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G153" s="18" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="H153" s="18"/>
       <c r="I153" s="18" t="s">
-        <v>447</v>
+        <v>431</v>
       </c>
       <c r="J153" s="15" t="s">
-        <v>434</v>
+        <v>419</v>
       </c>
       <c r="K153" s="15" t="s">
-        <v>435</v>
+        <v>420</v>
       </c>
       <c r="L153" s="26"/>
       <c r="M153" s="19"/>
@@ -6622,26 +7556,26 @@
       <c r="B154" s="5"/>
       <c r="C154" s="5"/>
       <c r="D154" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E154" s="4" t="s">
         <v>1</v>
       </c>
       <c r="F154" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G154" s="18" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="H154" s="18"/>
       <c r="I154" s="18" t="s">
-        <v>448</v>
+        <v>432</v>
       </c>
       <c r="J154" s="15" t="s">
-        <v>436</v>
+        <v>421</v>
       </c>
       <c r="K154" s="15" t="s">
-        <v>437</v>
+        <v>422</v>
       </c>
       <c r="L154" s="26"/>
       <c r="M154" s="19"/>
@@ -6651,32 +7585,32 @@
       <c r="A155" s="6"/>
       <c r="B155" s="5"/>
       <c r="C155" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D155" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E155" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F155" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G155" s="18" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="H155" s="18"/>
       <c r="I155" s="18"/>
       <c r="J155" s="23" t="s">
-        <v>391</v>
+        <v>377</v>
       </c>
       <c r="K155" s="16" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="L155" s="26"/>
       <c r="M155" s="19"/>
       <c r="N155" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="156" spans="1:14" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -6684,24 +7618,24 @@
       <c r="B156" s="5"/>
       <c r="C156" s="5"/>
       <c r="D156" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E156" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F156" s="28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G156" s="18" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="H156" s="18"/>
       <c r="I156" s="18"/>
       <c r="J156" s="16" t="s">
-        <v>393</v>
+        <v>379</v>
       </c>
       <c r="K156" s="16" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
       <c r="L156" s="26"/>
       <c r="M156" s="19"/>
@@ -6712,24 +7646,24 @@
       <c r="B157" s="5"/>
       <c r="C157" s="5"/>
       <c r="D157" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E157" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F157" s="20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G157" s="18" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="H157" s="18"/>
       <c r="I157" s="18"/>
       <c r="J157" s="16" t="s">
-        <v>394</v>
+        <v>380</v>
       </c>
       <c r="K157" s="16" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
       <c r="L157" s="26"/>
       <c r="M157" s="19"/>
@@ -6740,26 +7674,26 @@
       <c r="B158" s="5"/>
       <c r="C158" s="5"/>
       <c r="D158" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E158" s="4" t="s">
         <v>1</v>
       </c>
       <c r="F158" s="21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G158" s="18" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="H158" s="18"/>
       <c r="I158" s="18" t="s">
-        <v>447</v>
+        <v>431</v>
       </c>
       <c r="J158" s="16" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
       <c r="K158" s="16" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="L158" s="26"/>
       <c r="M158" s="19"/>
@@ -6769,27 +7703,27 @@
       <c r="A159" s="6"/>
       <c r="B159" s="5"/>
       <c r="C159" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D159" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E159" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F159" s="20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G159" s="18" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="H159" s="18"/>
       <c r="I159" s="18"/>
       <c r="J159" s="23" t="s">
-        <v>438</v>
+        <v>423</v>
       </c>
       <c r="K159" s="16" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="L159" s="26"/>
       <c r="M159" s="19"/>
@@ -6800,26 +7734,26 @@
       <c r="B160" s="5"/>
       <c r="C160" s="5"/>
       <c r="D160" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E160" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F160" s="22" t="s">
-        <v>440</v>
+        <v>425</v>
       </c>
       <c r="G160" s="18" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="H160" s="18"/>
       <c r="I160" s="18" t="s">
-        <v>449</v>
+        <v>433</v>
       </c>
       <c r="J160" s="17" t="s">
-        <v>439</v>
+        <v>424</v>
       </c>
       <c r="K160" s="17" t="s">
-        <v>441</v>
+        <v>426</v>
       </c>
       <c r="L160" s="26"/>
       <c r="M160" s="19"/>
@@ -6830,24 +7764,24 @@
       <c r="B161" s="5"/>
       <c r="C161" s="5"/>
       <c r="D161" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E161" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F161" s="22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G161" s="18" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="H161" s="18"/>
       <c r="I161" s="18" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="J161" s="17"/>
       <c r="K161" s="16" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="L161" s="26"/>
       <c r="M161" s="19"/>
@@ -6858,24 +7792,24 @@
       <c r="B162" s="5"/>
       <c r="C162" s="5"/>
       <c r="D162" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E162" s="4" t="s">
         <v>1</v>
       </c>
       <c r="F162" s="22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G162" s="18" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="H162" s="18"/>
       <c r="I162" s="18" t="s">
-        <v>451</v>
+        <v>435</v>
       </c>
       <c r="J162" s="17"/>
       <c r="K162" s="16" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="L162" s="26"/>
       <c r="M162" s="19"/>
@@ -6886,42 +7820,42 @@
       <c r="B163" s="5"/>
       <c r="C163" s="5"/>
       <c r="D163" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E163" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F163" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G163" s="18" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="H163" s="18" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="I163" s="18" t="s">
-        <v>447</v>
+        <v>431</v>
       </c>
       <c r="J163" s="27" t="s">
-        <v>408</v>
+        <v>394</v>
       </c>
       <c r="K163" s="24" t="s">
-        <v>450</v>
+        <v>434</v>
       </c>
       <c r="L163" s="26" t="s">
-        <v>398</v>
+        <v>384</v>
       </c>
       <c r="M163" s="19"/>
       <c r="N163" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="164" spans="1:14" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A164" s="6"/>
       <c r="B164" s="5"/>
       <c r="C164" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D164" s="5"/>
       <c r="E164" s="4"/>
@@ -6937,67 +7871,67 @@
     </row>
     <row r="165" spans="1:14" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A165" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D165" s="5" t="s">
         <v>9</v>
       </c>
+      <c r="D165" s="29" t="s">
+        <v>8</v>
+      </c>
       <c r="E165" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F165" s="7" t="s">
-        <v>7</v>
+        <v>526</v>
       </c>
       <c r="G165" s="18" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="H165" s="18" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="I165" s="18" t="s">
-        <v>452</v>
+        <v>436</v>
       </c>
       <c r="J165" s="23"/>
       <c r="K165" s="16"/>
       <c r="L165" s="26" t="s">
-        <v>398</v>
+        <v>384</v>
       </c>
       <c r="M165" s="19"/>
       <c r="N165" s="2"/>
     </row>
     <row r="166" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D166" s="5" t="s">
+      <c r="D166" s="29" t="s">
         <v>6</v>
       </c>
       <c r="E166" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F166" s="7" t="s">
-        <v>0</v>
+        <v>527</v>
       </c>
       <c r="G166" s="18" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="H166" s="18" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="I166" s="18" t="s">
-        <v>447</v>
+        <v>431</v>
       </c>
       <c r="J166" s="25"/>
       <c r="K166" s="16"/>
       <c r="L166" s="26" t="s">
-        <v>404</v>
+        <v>390</v>
       </c>
     </row>
     <row r="167" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D167" s="5" t="s">
+      <c r="D167" s="29" t="s">
         <v>4</v>
       </c>
       <c r="E167" s="4" t="s">
@@ -7007,22 +7941,22 @@
         <v>0</v>
       </c>
       <c r="G167" s="18" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="H167" s="18" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="I167" s="18" t="s">
-        <v>447</v>
+        <v>431</v>
       </c>
       <c r="J167" s="16"/>
       <c r="K167" s="16"/>
       <c r="L167" s="26" t="s">
-        <v>404</v>
+        <v>390</v>
       </c>
     </row>
     <row r="168" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D168" s="5" t="s">
+      <c r="D168" s="29" t="s">
         <v>2</v>
       </c>
       <c r="E168" s="4" t="s">
@@ -7032,18 +7966,18 @@
         <v>0</v>
       </c>
       <c r="G168" s="18" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="H168" s="18" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="I168" s="18" t="s">
-        <v>447</v>
+        <v>431</v>
       </c>
       <c r="J168" s="16"/>
       <c r="K168" s="16"/>
       <c r="L168" s="26" t="s">
-        <v>398</v>
+        <v>384</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/biz/MC-MSC-Web/qxy接口定义文档2016-8-8/【千校云】bug列表.xlsx
+++ b/trunk/biz/MC-MSC-Web/qxy接口定义文档2016-8-8/【千校云】bug列表.xlsx
@@ -107,7 +107,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1062" uniqueCount="536">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1081" uniqueCount="568">
   <si>
     <t>/qxy/trip</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1189,10 +1189,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/qxy/duty/content?duty=[dutyId]&amp;token=[token]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>值周(值日)工作岗位详情查询接口</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1201,18 +1197,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/qxy/duty/list?type=[type]&amp;token=[token]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>值周(值日)工作岗位列表查询接口</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/qxy/schedule/day?term=[term]&amp;date=[date]&amp;token=[token]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>值日工作安排查询接口</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1225,10 +1213,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/qxy/schedule/status?term=[term_id]&amp;teacher=[tid]&amp;token=[token]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>值日值周信息日历表状态查询接口</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1293,10 +1277,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/qxy/news/detaile?news=[newId]&amp;token=[token]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>新闻详情查看接口</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1390,10 +1370,6 @@
   </si>
   <si>
     <t>只返回和token相关的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/qxy/newlist?column=[colId]&amp;page=[page]&amp;size=[size]&amp;token=[token]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2676,24 +2652,13 @@
   </si>
   <si>
     <t>未测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>未测试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>未测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/qxy/studentrfidlist?student=[studetId]&amp;page=[page]&amp;size=[size]&amp;token=[token]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2703,6 +2668,203 @@
   </si>
   <si>
     <t>需要处理，返回信息有误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示新闻id不能为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "token":"910820738640559462371283192",
+    "newslist":[
+     {
+      "newsId":"1",
+      "title":"爆咋",  
+      "content":"6L+Z5piv5LiA5p2h5paw6Ze75YaF5a65",
+      "columnId":"1",
+      "newsType":"2",
+      "newsReader":"222;211;233;",       
+      "newsClasser":"222;211;233;",      
+      "publishTime":"2016-8-9 00:00:00",
+      "isPic":"0",
+      "pic":"url",
+            "isAudit":"1",         
+            "isHomenews":"1",      
+         "isTop": "1",          
+     }
+    ]     
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/qxy/news/detaile?news=[newId]&amp;token=[token]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>139.196.101.78:8668/news/detaile?news=1&amp;token=910820738640559462371283192</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询失败，newsId不能为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>139.196.101.78:8668/news?token=910820738640559462371283192</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回404错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>139.196.101.78:8668/homenews/list?token=910820738640559462371283192</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/qxy/newlist?column=[colId]&amp;page=[page]&amp;size=[size]&amp;token=[token]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "token":"910820738640559462371283192",
+    "termId":"1",
+    "type":"1",       
+    "date":"2016-8-9",
+    "leaderTids":"212;221;",             
+    "tids":"211;234;213;215;",           
+    "dutyId":"1"                       
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/qxy/duty/content?duty=[dutyId]&amp;token=[token]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>139.196.101.78:8668/duty/content?duty=1&amp;token=910820738640559462371283192</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>info": "查询失败，dutyId不能为空",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/qxy/duty/list?type=[type]&amp;token=[token]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>139.196.101.78:8668/duty/list?token=910820738640559462371283192</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常返回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/qxy/schedule/day?term=[term]&amp;date=[date]&amp;token=[token]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>139.196.101.78:8668/schedule/day?term=1&amp;date=2016/8/9&amp;token=910820738640559462371283192</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date日期格式需要通用的格式或者需转换成查询格式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>139.196.101.78:8668/schedule/week?term=1&amp;week=1&amp;token=910820738640559462371283192</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学期无数据，该接口无法全测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学期无数据，该接口无法全测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等待学期接口完善后再测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/qxy/schedule/status?term=[term_id]&amp;teacher=[tid]&amp;token=[token]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>139.196.101.78:8668/schedule/status?term=1&amp;token=910820738640559462371283192</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/qxy/myapplication</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>139.196.101.78:8668/myaudit?teacher=4&amp;token=910820738640559462371283192</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常返回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常返回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "token":"910820738640559462371283192",
+    "tid": "4",            
+    "type":"0",              
+    "oatagsId":"1",  
+    "content":"我生病了，需要治疗",      
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单表新增没问题，需要同时维护oa_examine_result表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当新增事项时会根据事项模板规则中的审批人生成每个审批人的审批信息，这个时候我的审批事项就可以获取到相应教师的待审核信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要有我的审批事项</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3609,10 +3771,10 @@
   <dimension ref="A1:AJ168"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="G86" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="G155" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H103" sqref="H103"/>
+      <selection pane="bottomRight" activeCell="J94" sqref="J94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3636,46 +3798,46 @@
   <sheetData>
     <row r="1" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>329</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>392</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>352</v>
+      </c>
+      <c r="K1" s="15" t="s">
+        <v>389</v>
+      </c>
+      <c r="L1" s="26" t="s">
+        <v>390</v>
+      </c>
+      <c r="M1" s="19" t="s">
         <v>330</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>335</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>398</v>
-      </c>
-      <c r="I1" s="18" t="s">
-        <v>428</v>
-      </c>
-      <c r="J1" s="15" t="s">
-        <v>358</v>
-      </c>
-      <c r="K1" s="15" t="s">
-        <v>395</v>
-      </c>
-      <c r="L1" s="26" t="s">
-        <v>396</v>
-      </c>
-      <c r="M1" s="19" t="s">
-        <v>336</v>
-      </c>
       <c r="N1" s="2" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="2" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -3683,190 +3845,199 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>191</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="K2" s="15" t="s">
-        <v>528</v>
+        <v>318</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
     </row>
     <row r="3" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D3" s="5" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>191</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="K3" s="15" t="s">
-        <v>528</v>
+        <v>539</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>542</v>
+      </c>
+      <c r="K3" s="15">
+        <v>404</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
     </row>
     <row r="4" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D4" s="5" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>191</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="K4" s="15" t="s">
-        <v>528</v>
+        <v>313</v>
       </c>
     </row>
     <row r="5" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D5" s="5" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>191</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="K5" s="15" t="s">
-        <v>528</v>
+        <v>311</v>
+      </c>
+      <c r="I5" s="18" t="s">
+        <v>542</v>
+      </c>
+      <c r="J5" s="15" t="s">
+        <v>538</v>
+      </c>
+      <c r="K5" s="15">
+        <v>404</v>
       </c>
       <c r="AH5" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="AI5" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="AJ5" s="1" t="s">
         <v>338</v>
-      </c>
-      <c r="AI5" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="AJ5" s="1" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="6" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C6" s="5" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>191</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>313</v>
+        <v>308</v>
+      </c>
+      <c r="I6" s="18" t="s">
+        <v>542</v>
       </c>
       <c r="K6" s="15" t="s">
-        <v>528</v>
+        <v>537</v>
       </c>
       <c r="AH6" s="1" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="AI6" s="1" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="AJ6" s="1" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
     </row>
     <row r="7" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D7" s="5" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>191</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>311</v>
+        <v>306</v>
+      </c>
+      <c r="I7" s="18" t="s">
+        <v>542</v>
       </c>
       <c r="K7" s="15" t="s">
-        <v>528</v>
+        <v>537</v>
       </c>
       <c r="AI7" s="1" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
     </row>
     <row r="8" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D8" s="5" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>191</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>363</v>
+        <v>357</v>
+      </c>
+      <c r="I8" s="18" t="s">
+        <v>542</v>
       </c>
       <c r="K8" s="15" t="s">
-        <v>528</v>
+        <v>537</v>
       </c>
     </row>
     <row r="9" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D9" s="5" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>191</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>308</v>
+        <v>303</v>
+      </c>
+      <c r="I9" s="18" t="s">
+        <v>542</v>
       </c>
       <c r="K9" s="15" t="s">
-        <v>528</v>
+        <v>536</v>
       </c>
     </row>
     <row r="10" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D10" s="5" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>191</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="K10" s="15" t="s">
-        <v>528</v>
+        <v>356</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="11" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D11" s="5" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>191</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="H11" s="18" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="I11" s="18" t="s">
-        <v>427</v>
-      </c>
-      <c r="K11" s="15" t="s">
-        <v>528</v>
+        <v>421</v>
       </c>
       <c r="L11" s="26" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="N11" s="2" t="s">
         <v>182</v>
@@ -3874,25 +4045,22 @@
     </row>
     <row r="12" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D12" s="5" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>191</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="H12" s="18" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="I12" s="18" t="s">
-        <v>437</v>
-      </c>
-      <c r="K12" s="15" t="s">
-        <v>528</v>
+        <v>431</v>
       </c>
       <c r="L12" s="26" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="N12" s="2" t="s">
         <v>182</v>
@@ -3903,190 +4071,208 @@
         <v>2</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="D13" s="29" t="s">
-        <v>300</v>
+        <v>296</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>295</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>191</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>299</v>
+        <v>294</v>
+      </c>
+      <c r="I13" s="18" t="s">
+        <v>535</v>
+      </c>
+      <c r="J13" s="15" t="s">
+        <v>533</v>
       </c>
       <c r="K13" s="15" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
     </row>
     <row r="14" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D14" s="29" t="s">
-        <v>297</v>
+      <c r="D14" s="5" t="s">
+        <v>292</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>191</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>296</v>
+        <v>529</v>
+      </c>
+      <c r="G14" s="18" t="s">
+        <v>331</v>
+      </c>
+      <c r="I14" s="18" t="s">
+        <v>532</v>
+      </c>
+      <c r="J14" s="15" t="s">
+        <v>530</v>
       </c>
       <c r="K14" s="15" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
     </row>
     <row r="15" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D15" s="29" t="s">
-        <v>295</v>
+      <c r="D15" s="5" t="s">
+        <v>291</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>188</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="G15" s="18" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="K15" s="15" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
     </row>
     <row r="16" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D16" s="29" t="s">
-        <v>294</v>
+      <c r="D16" s="5" t="s">
+        <v>290</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>186</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="G16" s="18" t="s">
-        <v>337</v>
+        <v>331</v>
+      </c>
+      <c r="I16" s="18" t="s">
+        <v>421</v>
+      </c>
+      <c r="J16" s="15" t="s">
+        <v>528</v>
       </c>
       <c r="K16" s="15" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D17" s="29" t="s">
-        <v>293</v>
+      <c r="D17" s="5" t="s">
+        <v>289</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>184</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="G17" s="18" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="K17" s="15" t="s">
-        <v>528</v>
+        <v>360</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D18" s="29" t="s">
-        <v>291</v>
+      <c r="D18" s="5" t="s">
+        <v>287</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>186</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="K18" s="15" t="s">
-        <v>528</v>
+        <v>286</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C19" s="5" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>191</v>
       </c>
       <c r="F19" s="20" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="G19" s="18" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="J19" s="23" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="K19" s="16" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D20" s="5" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>188</v>
       </c>
       <c r="F20" s="21" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="G20" s="18" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="J20" s="15" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="K20" s="15" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="L20" s="26" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D21" s="5" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>186</v>
       </c>
       <c r="F21" s="21" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="G21" s="18" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="J21" s="15" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="K21" s="15" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D22" s="5" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>184</v>
       </c>
       <c r="F22" s="21" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="G22" s="18" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="J22" s="15" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="K22" s="15" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4094,85 +4280,124 @@
         <v>3</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="D23" s="29" t="s">
-        <v>280</v>
+        <v>277</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>276</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>191</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>279</v>
+        <v>557</v>
+      </c>
+      <c r="J23" s="15" t="s">
+        <v>558</v>
       </c>
       <c r="K23" s="15" t="s">
-        <v>532</v>
+        <v>555</v>
+      </c>
+      <c r="L23" s="26" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D24" s="29" t="s">
-        <v>278</v>
+      <c r="D24" s="5" t="s">
+        <v>275</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>191</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>277</v>
+        <v>274</v>
+      </c>
+      <c r="J24" s="15" t="s">
+        <v>553</v>
       </c>
       <c r="K24" s="15" t="s">
-        <v>532</v>
+        <v>555</v>
+      </c>
+      <c r="L24" s="26" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D25" s="29" t="s">
-        <v>276</v>
+      <c r="D25" s="5" t="s">
+        <v>273</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>191</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>275</v>
+        <v>550</v>
+      </c>
+      <c r="G25" s="18" t="s">
+        <v>331</v>
+      </c>
+      <c r="I25" s="18" t="s">
+        <v>421</v>
+      </c>
+      <c r="J25" s="15" t="s">
+        <v>551</v>
       </c>
       <c r="K25" s="15" t="s">
-        <v>532</v>
+        <v>554</v>
+      </c>
+      <c r="L25" s="26" t="s">
+        <v>552</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D26" s="29" t="s">
-        <v>274</v>
+      <c r="D26" s="5" t="s">
+        <v>272</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>273</v>
+        <v>547</v>
+      </c>
+      <c r="G26" s="18" t="s">
+        <v>331</v>
+      </c>
+      <c r="J26" s="15" t="s">
+        <v>548</v>
       </c>
       <c r="K26" s="15" t="s">
-        <v>532</v>
+        <v>549</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D27" s="29" t="s">
-        <v>271</v>
+      <c r="D27" s="5" t="s">
+        <v>270</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>191</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>270</v>
+        <v>544</v>
+      </c>
+      <c r="G27" s="18" t="s">
+        <v>331</v>
+      </c>
+      <c r="I27" s="18" t="s">
+        <v>532</v>
+      </c>
+      <c r="J27" s="15" t="s">
+        <v>545</v>
       </c>
       <c r="K27" s="15" t="s">
-        <v>532</v>
+        <v>546</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D28" s="29" t="s">
+      <c r="D28" s="5" t="s">
         <v>269</v>
       </c>
       <c r="E28" s="4" t="s">
@@ -4182,14 +4407,20 @@
         <v>266</v>
       </c>
       <c r="G28" s="18" t="s">
-        <v>337</v>
-      </c>
-      <c r="K28" s="15" t="s">
-        <v>532</v>
+        <v>331</v>
+      </c>
+      <c r="I28" s="18" t="s">
+        <v>541</v>
+      </c>
+      <c r="J28" s="15" t="s">
+        <v>540</v>
+      </c>
+      <c r="K28" s="15">
+        <v>404</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D29" s="29" t="s">
+      <c r="D29" s="5" t="s">
         <v>268</v>
       </c>
       <c r="E29" s="4" t="s">
@@ -4199,14 +4430,17 @@
         <v>266</v>
       </c>
       <c r="G29" s="18" t="s">
-        <v>337</v>
+        <v>331</v>
+      </c>
+      <c r="I29" s="18" t="s">
+        <v>541</v>
       </c>
       <c r="K29" s="15" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D30" s="29" t="s">
+      <c r="D30" s="5" t="s">
         <v>267</v>
       </c>
       <c r="E30" s="4" t="s">
@@ -4216,14 +4450,17 @@
         <v>266</v>
       </c>
       <c r="G30" s="18" t="s">
-        <v>337</v>
+        <v>331</v>
+      </c>
+      <c r="I30" s="18" t="s">
+        <v>541</v>
       </c>
       <c r="K30" s="15" t="s">
-        <v>532</v>
+        <v>543</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D31" s="29" t="s">
+      <c r="D31" s="5" t="s">
         <v>211</v>
       </c>
       <c r="E31" s="4" t="s">
@@ -4232,12 +4469,9 @@
       <c r="F31" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="K31" s="15" t="s">
-        <v>532</v>
-      </c>
     </row>
     <row r="32" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D32" s="29" t="s">
+      <c r="D32" s="5" t="s">
         <v>209</v>
       </c>
       <c r="E32" s="4" t="s">
@@ -4246,12 +4480,9 @@
       <c r="F32" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="K32" s="15" t="s">
-        <v>532</v>
-      </c>
     </row>
     <row r="33" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D33" s="29" t="s">
+      <c r="D33" s="5" t="s">
         <v>265</v>
       </c>
       <c r="E33" s="4" t="s">
@@ -4261,10 +4492,13 @@
         <v>264</v>
       </c>
       <c r="G33" s="18" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="K33" s="15" t="s">
-        <v>532</v>
+        <v>555</v>
+      </c>
+      <c r="L33" s="26" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="34" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4281,13 +4515,13 @@
         <v>259</v>
       </c>
       <c r="G34" s="18" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="J34" s="15" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="K34" s="15" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
     </row>
     <row r="35" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4301,16 +4535,16 @@
         <v>259</v>
       </c>
       <c r="G35" s="18" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="I35" s="18" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="J35" s="15" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="K35" s="15" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
     </row>
     <row r="36" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4324,16 +4558,16 @@
         <v>259</v>
       </c>
       <c r="G36" s="18" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="I36" s="18" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="J36" s="15" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="K36" s="15" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
     </row>
     <row r="37" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4347,13 +4581,13 @@
         <v>188</v>
       </c>
       <c r="F37" s="21" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="G37" s="18" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="K37" s="15" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
     </row>
     <row r="38" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4367,13 +4601,13 @@
         <v>254</v>
       </c>
       <c r="G38" s="18" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="J38" s="15" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="K38" s="15" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
     </row>
     <row r="39" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4387,16 +4621,16 @@
         <v>254</v>
       </c>
       <c r="G39" s="18" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="I39" s="18" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="J39" s="15" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="K39" s="15" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="N39" s="2" t="s">
         <v>253</v>
@@ -4406,7 +4640,7 @@
       <c r="C40" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="D40" s="29" t="s">
+      <c r="D40" s="5" t="s">
         <v>251</v>
       </c>
       <c r="E40" s="4" t="s">
@@ -4416,28 +4650,37 @@
         <v>250</v>
       </c>
       <c r="K40" s="15" t="s">
-        <v>531</v>
+        <v>562</v>
       </c>
     </row>
     <row r="41" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D41" s="29" t="s">
+      <c r="D41" s="5" t="s">
         <v>249</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>188</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>247</v>
+        <v>559</v>
       </c>
       <c r="G41" s="18" t="s">
-        <v>337</v>
+        <v>331</v>
+      </c>
+      <c r="I41" s="18" t="s">
+        <v>421</v>
+      </c>
+      <c r="J41" s="15" t="s">
+        <v>563</v>
       </c>
       <c r="K41" s="15" t="s">
-        <v>528</v>
+        <v>564</v>
+      </c>
+      <c r="L41" s="26" t="s">
+        <v>565</v>
       </c>
     </row>
     <row r="42" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D42" s="29" t="s">
+      <c r="D42" s="5" t="s">
         <v>248</v>
       </c>
       <c r="E42" s="4" t="s">
@@ -4447,14 +4690,14 @@
         <v>247</v>
       </c>
       <c r="G42" s="18" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="K42" s="15" t="s">
-        <v>528</v>
+        <v>561</v>
       </c>
     </row>
     <row r="43" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D43" s="29" t="s">
+      <c r="D43" s="5" t="s">
         <v>246</v>
       </c>
       <c r="E43" s="4" t="s">
@@ -4464,14 +4707,17 @@
         <v>245</v>
       </c>
       <c r="G43" s="18" t="s">
-        <v>337</v>
+        <v>331</v>
+      </c>
+      <c r="J43" s="15" t="s">
+        <v>560</v>
       </c>
       <c r="K43" s="15" t="s">
-        <v>528</v>
+        <v>360</v>
       </c>
     </row>
     <row r="44" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D44" s="29" t="s">
+      <c r="D44" s="5" t="s">
         <v>244</v>
       </c>
       <c r="E44" s="4" t="s">
@@ -4481,10 +4727,13 @@
         <v>243</v>
       </c>
       <c r="G44" s="18" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="K44" s="15" t="s">
-        <v>528</v>
+        <v>566</v>
+      </c>
+      <c r="L44" s="26" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="45" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4501,10 +4750,10 @@
         <v>240</v>
       </c>
       <c r="J45" s="15" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="K45" s="15" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
     </row>
     <row r="46" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4518,10 +4767,10 @@
         <v>236</v>
       </c>
       <c r="G46" s="18" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="K46" s="15" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
     </row>
     <row r="47" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4535,13 +4784,13 @@
         <v>236</v>
       </c>
       <c r="G47" s="18" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="J47" s="15" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="K47" s="15" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
     </row>
     <row r="48" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4555,16 +4804,16 @@
         <v>236</v>
       </c>
       <c r="G48" s="18" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="I48" s="18" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="J48" s="15" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="K48" s="15" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
     </row>
     <row r="49" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4581,16 +4830,16 @@
         <v>233</v>
       </c>
       <c r="H49" s="18" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="J49" s="15" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="K49" s="15" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="L49" s="26" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="N49" s="2" t="s">
         <v>193</v>
@@ -4607,13 +4856,13 @@
         <v>229</v>
       </c>
       <c r="G50" s="18" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="J50" s="15" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="K50" s="15" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
     </row>
     <row r="51" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4627,13 +4876,13 @@
         <v>229</v>
       </c>
       <c r="G51" s="18" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="J51" s="15" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="K51" s="15" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
     </row>
     <row r="52" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4647,16 +4896,16 @@
         <v>229</v>
       </c>
       <c r="G52" s="18" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="I52" s="18" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="J52" s="15" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="K52" s="15" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
     </row>
     <row r="53" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4718,25 +4967,25 @@
         <v>191</v>
       </c>
       <c r="F56" s="12" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="G56" s="18" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="H56" s="18" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="I56" s="18" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="J56" s="15" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="K56" s="15" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="L56" s="26" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="M56" s="19"/>
       <c r="N56" s="2" t="s">
@@ -4779,22 +5028,22 @@
         <v>220</v>
       </c>
       <c r="G58" s="18" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="H58" s="18" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="I58" s="18" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="J58" s="15" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="K58" s="15" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="L58" s="26" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="M58" s="19"/>
       <c r="N58" s="2" t="s">
@@ -4834,20 +5083,20 @@
         <v>188</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="G60" s="18" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="H60" s="18"/>
       <c r="I60" s="18" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="J60" s="15" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="K60" s="15" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="L60" s="26"/>
       <c r="M60" s="19"/>
@@ -4867,20 +5116,20 @@
         <v>212</v>
       </c>
       <c r="G61" s="18" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="H61" s="18" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="I61" s="18" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="J61" s="15"/>
       <c r="K61" s="15" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="L61" s="26" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="M61" s="19"/>
       <c r="N61" s="2" t="s">
@@ -4901,20 +5150,20 @@
         <v>214</v>
       </c>
       <c r="G62" s="18" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="H62" s="18" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="I62" s="18" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="J62" s="15"/>
       <c r="K62" s="15" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="L62" s="26" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="M62" s="19"/>
       <c r="N62" s="2" t="s">
@@ -4935,20 +5184,20 @@
         <v>212</v>
       </c>
       <c r="G63" s="18" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="H63" s="18" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="I63" s="18" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="J63" s="15"/>
       <c r="K63" s="15" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="L63" s="26" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="M63" s="19"/>
       <c r="N63" s="2" t="s">
@@ -5019,7 +5268,7 @@
       <c r="I66" s="18"/>
       <c r="J66" s="15"/>
       <c r="K66" s="15" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="L66" s="26"/>
       <c r="M66" s="19"/>
@@ -5045,7 +5294,7 @@
       <c r="I67" s="18"/>
       <c r="J67" s="15"/>
       <c r="K67" s="15" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="L67" s="26"/>
       <c r="M67" s="19"/>
@@ -5068,17 +5317,17 @@
       </c>
       <c r="G68" s="18"/>
       <c r="H68" s="18" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="I68" s="18" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="J68" s="15"/>
       <c r="K68" s="15" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="L68" s="26" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="M68" s="19"/>
       <c r="N68" s="2" t="s">
@@ -5096,23 +5345,23 @@
         <v>188</v>
       </c>
       <c r="F69" s="21" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="G69" s="18"/>
       <c r="H69" s="18" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="I69" s="18" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="J69" s="15" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="K69" s="15" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="L69" s="26" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="M69" s="19"/>
       <c r="N69" s="2" t="s">
@@ -5137,7 +5386,7 @@
       <c r="I70" s="18"/>
       <c r="J70" s="15"/>
       <c r="K70" s="15" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="L70" s="26"/>
       <c r="M70" s="19"/>
@@ -5160,17 +5409,17 @@
       </c>
       <c r="G71" s="18"/>
       <c r="H71" s="18" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="I71" s="18" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="J71" s="15"/>
       <c r="K71" s="15" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="L71" s="26" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="M71" s="19"/>
       <c r="N71" s="2" t="s">
@@ -5192,17 +5441,17 @@
       </c>
       <c r="G72" s="18"/>
       <c r="H72" s="18" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="I72" s="18" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="J72" s="15"/>
       <c r="K72" s="15" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="L72" s="26" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="M72" s="19"/>
       <c r="N72" s="2" t="s">
@@ -5224,17 +5473,17 @@
       </c>
       <c r="G73" s="18"/>
       <c r="H73" s="18" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="I73" s="18" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="J73" s="15"/>
       <c r="K73" s="15" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="L73" s="26" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="M73" s="19"/>
       <c r="N73" s="2" t="s">
@@ -5256,17 +5505,17 @@
       </c>
       <c r="G74" s="18"/>
       <c r="H74" s="18" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="I74" s="18" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="J74" s="15"/>
       <c r="K74" s="15" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="L74" s="26" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="M74" s="19"/>
       <c r="N74" s="2" t="s">
@@ -5288,17 +5537,17 @@
       </c>
       <c r="G75" s="18"/>
       <c r="H75" s="18" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="I75" s="18" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="J75" s="15"/>
       <c r="K75" s="15" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="L75" s="26" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="M75" s="19"/>
       <c r="N75" s="2" t="s">
@@ -5344,17 +5593,17 @@
       </c>
       <c r="G77" s="18"/>
       <c r="H77" s="18" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="I77" s="18" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="J77" s="15"/>
       <c r="K77" s="15" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="L77" s="26" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="M77" s="19"/>
       <c r="N77" s="2" t="s">
@@ -5376,17 +5625,17 @@
       </c>
       <c r="G78" s="18"/>
       <c r="H78" s="18" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="I78" s="18" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="J78" s="15"/>
       <c r="K78" s="15" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="L78" s="26" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="M78" s="19"/>
       <c r="N78" s="2" t="s">
@@ -5408,17 +5657,17 @@
       </c>
       <c r="G79" s="18"/>
       <c r="H79" s="18" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="I79" s="18" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="J79" s="15"/>
       <c r="K79" s="15" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="L79" s="26" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="M79" s="19"/>
       <c r="N79" s="2" t="s">
@@ -5509,11 +5758,11 @@
       <c r="G83" s="18"/>
       <c r="H83" s="18"/>
       <c r="I83" s="18" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="J83" s="15"/>
       <c r="K83" s="15" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="L83" s="26"/>
       <c r="M83" s="19"/>
@@ -5529,7 +5778,7 @@
       <c r="C84" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="D84" s="29" t="s">
+      <c r="D84" s="5" t="s">
         <v>58</v>
       </c>
       <c r="E84" s="4" t="s">
@@ -5539,13 +5788,13 @@
         <v>78</v>
       </c>
       <c r="G84" s="18" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="H84" s="18"/>
       <c r="I84" s="18"/>
       <c r="J84" s="15"/>
       <c r="K84" s="15" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="L84" s="26"/>
       <c r="M84" s="19"/>
@@ -5565,20 +5814,20 @@
         <v>162</v>
       </c>
       <c r="G85" s="18" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="H85" s="18" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="I85" s="18" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="J85" s="15"/>
       <c r="K85" s="15" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="L85" s="26" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="M85" s="19"/>
       <c r="N85" s="2" t="s">
@@ -5589,7 +5838,7 @@
       <c r="A86" s="6"/>
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
-      <c r="D86" s="29" t="s">
+      <c r="D86" s="5" t="s">
         <v>160</v>
       </c>
       <c r="E86" s="4" t="s">
@@ -5599,14 +5848,12 @@
         <v>159</v>
       </c>
       <c r="G86" s="18" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="H86" s="18"/>
       <c r="I86" s="18"/>
       <c r="J86" s="15"/>
-      <c r="K86" s="15" t="s">
-        <v>529</v>
-      </c>
+      <c r="K86" s="15"/>
       <c r="L86" s="26"/>
       <c r="M86" s="19"/>
       <c r="N86" s="2"/>
@@ -5617,7 +5864,7 @@
       <c r="C87" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="D87" s="29" t="s">
+      <c r="D87" s="5" t="s">
         <v>120</v>
       </c>
       <c r="E87" s="4" t="s">
@@ -5627,14 +5874,12 @@
         <v>157</v>
       </c>
       <c r="G87" s="18" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="H87" s="18"/>
       <c r="I87" s="18"/>
       <c r="J87" s="15"/>
-      <c r="K87" s="15" t="s">
-        <v>530</v>
-      </c>
+      <c r="K87" s="15"/>
       <c r="L87" s="26"/>
       <c r="M87" s="19"/>
       <c r="N87" s="2"/>
@@ -5643,7 +5888,7 @@
       <c r="A88" s="6"/>
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
-      <c r="D88" s="29" t="s">
+      <c r="D88" s="5" t="s">
         <v>118</v>
       </c>
       <c r="E88" s="4" t="s">
@@ -5653,14 +5898,12 @@
         <v>156</v>
       </c>
       <c r="G88" s="18" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="H88" s="18"/>
       <c r="I88" s="18"/>
       <c r="J88" s="15"/>
-      <c r="K88" s="15" t="s">
-        <v>529</v>
-      </c>
+      <c r="K88" s="15"/>
       <c r="L88" s="26"/>
       <c r="M88" s="19"/>
       <c r="N88" s="2"/>
@@ -5669,7 +5912,7 @@
       <c r="A89" s="6"/>
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
-      <c r="D89" s="29" t="s">
+      <c r="D89" s="5" t="s">
         <v>155</v>
       </c>
       <c r="E89" s="4" t="s">
@@ -5679,14 +5922,12 @@
         <v>154</v>
       </c>
       <c r="G89" s="18" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="H89" s="18"/>
       <c r="I89" s="18"/>
       <c r="J89" s="15"/>
-      <c r="K89" s="15" t="s">
-        <v>530</v>
-      </c>
+      <c r="K89" s="15"/>
       <c r="L89" s="26"/>
       <c r="M89" s="19"/>
       <c r="N89" s="2"/>
@@ -5695,7 +5936,7 @@
       <c r="A90" s="6"/>
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
-      <c r="D90" s="29" t="s">
+      <c r="D90" s="5" t="s">
         <v>153</v>
       </c>
       <c r="E90" s="4" t="s">
@@ -5705,14 +5946,12 @@
         <v>152</v>
       </c>
       <c r="G90" s="18" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="H90" s="18"/>
       <c r="I90" s="18"/>
       <c r="J90" s="15"/>
-      <c r="K90" s="15" t="s">
-        <v>529</v>
-      </c>
+      <c r="K90" s="15"/>
       <c r="L90" s="26"/>
       <c r="M90" s="19"/>
       <c r="N90" s="2"/>
@@ -5733,20 +5972,20 @@
         <v>148</v>
       </c>
       <c r="G91" s="18" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="H91" s="18" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="I91" s="18" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="J91" s="15"/>
       <c r="K91" s="15" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="L91" s="26" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="M91" s="19"/>
       <c r="N91" s="2" t="s">
@@ -5767,20 +6006,20 @@
         <v>148</v>
       </c>
       <c r="G92" s="18" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="H92" s="18" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="I92" s="18" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="J92" s="15"/>
       <c r="K92" s="15" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="L92" s="26" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="M92" s="19"/>
       <c r="N92" s="2" t="s">
@@ -5799,20 +6038,20 @@
         <v>146</v>
       </c>
       <c r="G93" s="18" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="H93" s="18" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="I93" s="18" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="J93" s="15"/>
       <c r="K93" s="15" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="L93" s="26" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="M93" s="19"/>
       <c r="N93" s="2" t="s">
@@ -5824,7 +6063,7 @@
       <c r="C94" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="D94" s="29" t="s">
+      <c r="D94" s="5" t="s">
         <v>144</v>
       </c>
       <c r="E94" s="4" t="s">
@@ -5834,21 +6073,19 @@
         <v>78</v>
       </c>
       <c r="G94" s="18" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="H94" s="18"/>
       <c r="I94" s="18"/>
       <c r="J94" s="15"/>
-      <c r="K94" s="15" t="s">
-        <v>529</v>
-      </c>
+      <c r="K94" s="15"/>
       <c r="L94" s="26"/>
       <c r="M94" s="19"/>
       <c r="N94" s="2"/>
     </row>
     <row r="95" spans="1:14" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="6"/>
-      <c r="D95" s="29" t="s">
+      <c r="D95" s="5" t="s">
         <v>143</v>
       </c>
       <c r="E95" s="4" t="s">
@@ -5858,14 +6095,12 @@
         <v>142</v>
       </c>
       <c r="G95" s="18" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="H95" s="18"/>
       <c r="I95" s="18"/>
       <c r="J95" s="15"/>
-      <c r="K95" s="15" t="s">
-        <v>530</v>
-      </c>
+      <c r="K95" s="15"/>
       <c r="L95" s="26"/>
       <c r="M95" s="19"/>
       <c r="N95" s="2"/>
@@ -5887,18 +6122,18 @@
         <v>7</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="G96" s="18" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="H96" s="18"/>
       <c r="I96" s="18"/>
       <c r="J96" s="15" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="K96" s="15" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="L96" s="26"/>
       <c r="M96" s="19"/>
@@ -5916,7 +6151,7 @@
         <v>137</v>
       </c>
       <c r="G97" s="18" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="H97" s="18"/>
       <c r="I97" s="18"/>
@@ -5935,20 +6170,20 @@
         <v>5</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="G98" s="18" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="H98" s="18"/>
       <c r="I98" s="18" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="J98" s="15" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="K98" s="15" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="L98" s="26"/>
       <c r="M98" s="19"/>
@@ -5966,13 +6201,13 @@
         <v>133</v>
       </c>
       <c r="G99" s="18" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="H99" s="18"/>
       <c r="I99" s="18"/>
       <c r="J99" s="15"/>
       <c r="K99" s="15" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="L99" s="26"/>
       <c r="M99" s="19"/>
@@ -5990,13 +6225,13 @@
         <v>133</v>
       </c>
       <c r="G100" s="18" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="H100" s="18"/>
       <c r="I100" s="18"/>
       <c r="J100" s="15"/>
       <c r="K100" s="15" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="L100" s="26"/>
       <c r="M100" s="19"/>
@@ -6017,15 +6252,15 @@
         <v>130</v>
       </c>
       <c r="G101" s="18" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="H101" s="18"/>
       <c r="I101" s="18"/>
       <c r="J101" s="23" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="K101" s="16" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="L101" s="26"/>
       <c r="M101" s="19"/>
@@ -6043,20 +6278,20 @@
         <v>123</v>
       </c>
       <c r="G102" s="18" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="H102" s="18"/>
       <c r="I102" s="18" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="J102" s="17" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="K102" s="17" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="L102" s="26" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="M102" s="19"/>
       <c r="N102" s="2"/>
@@ -6073,20 +6308,20 @@
         <v>123</v>
       </c>
       <c r="G103" s="18" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="H103" s="18"/>
       <c r="I103" s="18" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="J103" s="15" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="K103" s="15" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="L103" s="26" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="M103" s="19"/>
       <c r="N103" s="2"/>
@@ -6103,15 +6338,15 @@
         <v>123</v>
       </c>
       <c r="G104" s="18" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="H104" s="18"/>
       <c r="I104" s="18"/>
       <c r="J104" s="15" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="K104" s="15" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="L104" s="26"/>
       <c r="M104" s="19"/>
@@ -6137,15 +6372,15 @@
         <v>119</v>
       </c>
       <c r="G105" s="18" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="H105" s="18"/>
       <c r="I105" s="18"/>
       <c r="J105" s="23" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="K105" s="16" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="L105" s="26"/>
       <c r="M105" s="19"/>
@@ -6163,15 +6398,15 @@
         <v>117</v>
       </c>
       <c r="G106" s="18" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="H106" s="18"/>
       <c r="I106" s="18"/>
       <c r="J106" s="23" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="K106" s="16" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="L106" s="26"/>
       <c r="M106" s="19"/>
@@ -6188,20 +6423,20 @@
         <v>7</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="G107" s="18" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="H107" s="18"/>
       <c r="I107" s="18" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="J107" s="15" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="K107" s="15" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="L107" s="26"/>
       <c r="M107" s="19"/>
@@ -6221,15 +6456,15 @@
         <v>114</v>
       </c>
       <c r="G108" s="18" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="H108" s="18"/>
       <c r="I108" s="18"/>
       <c r="J108" s="15" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="K108" s="15" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="L108" s="26"/>
       <c r="M108" s="19"/>
@@ -6249,15 +6484,15 @@
         <v>112</v>
       </c>
       <c r="G109" s="18" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="H109" s="18"/>
       <c r="I109" s="18"/>
       <c r="J109" s="15" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="K109" s="15" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="L109" s="26"/>
       <c r="M109" s="19"/>
@@ -6276,18 +6511,18 @@
         <v>7</v>
       </c>
       <c r="F110" s="21" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="G110" s="18" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="H110" s="18"/>
       <c r="I110" s="18"/>
       <c r="J110" s="15" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="K110" s="15" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="L110" s="26"/>
       <c r="M110" s="19"/>
@@ -6307,20 +6542,20 @@
         <v>107</v>
       </c>
       <c r="G111" s="18" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="H111" s="18"/>
       <c r="I111" s="18" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="J111" s="15" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="K111" s="15" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="L111" s="26" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="M111" s="19"/>
       <c r="N111" s="2" t="s">
@@ -6341,17 +6576,17 @@
         <v>107</v>
       </c>
       <c r="G112" s="18" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="H112" s="18"/>
       <c r="I112" s="18" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="J112" s="15" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="K112" s="15" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="L112" s="26"/>
       <c r="M112" s="19"/>
@@ -6373,13 +6608,13 @@
         <v>104</v>
       </c>
       <c r="G113" s="18" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="H113" s="18"/>
       <c r="I113" s="18"/>
       <c r="J113" s="15"/>
       <c r="K113" s="15" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="L113" s="26"/>
       <c r="M113" s="19"/>
@@ -6401,13 +6636,13 @@
         <v>100</v>
       </c>
       <c r="G114" s="18" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="H114" s="18"/>
       <c r="I114" s="18"/>
       <c r="J114" s="15"/>
       <c r="K114" s="15" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="L114" s="26"/>
       <c r="M114" s="19"/>
@@ -6427,15 +6662,15 @@
         <v>100</v>
       </c>
       <c r="G115" s="18" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="H115" s="18"/>
       <c r="I115" s="18"/>
       <c r="J115" s="15" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="K115" s="15" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="L115" s="26"/>
       <c r="M115" s="19"/>
@@ -6455,13 +6690,13 @@
         <v>98</v>
       </c>
       <c r="G116" s="18" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="H116" s="18"/>
       <c r="I116" s="18"/>
       <c r="J116" s="15"/>
       <c r="K116" s="15" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="L116" s="26"/>
       <c r="M116" s="19"/>
@@ -6487,7 +6722,7 @@
         <v>78</v>
       </c>
       <c r="G117" s="18" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="H117" s="18"/>
       <c r="I117" s="18"/>
@@ -6511,15 +6746,15 @@
         <v>94</v>
       </c>
       <c r="G118" s="18" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="H118" s="18"/>
       <c r="I118" s="18"/>
       <c r="J118" s="15" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="K118" s="15" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="L118" s="26"/>
       <c r="M118" s="19"/>
@@ -6538,23 +6773,23 @@
         <v>91</v>
       </c>
       <c r="F119" s="12" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="G119" s="18" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="H119" s="18" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="I119" s="18"/>
       <c r="J119" s="15" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="K119" s="15" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="L119" s="26" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="M119" s="19"/>
       <c r="N119" s="2" t="s">
@@ -6577,7 +6812,7 @@
         <v>78</v>
       </c>
       <c r="G120" s="18" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="H120" s="18"/>
       <c r="I120" s="18"/>
@@ -6601,18 +6836,18 @@
         <v>88</v>
       </c>
       <c r="G121" s="18" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="H121" s="18" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="I121" s="18" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="J121" s="15"/>
       <c r="K121" s="15"/>
       <c r="L121" s="26" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="M121" s="19"/>
       <c r="N121" s="2" t="s">
@@ -6633,7 +6868,7 @@
         <v>85</v>
       </c>
       <c r="G122" s="18" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="H122" s="18"/>
       <c r="I122" s="18"/>
@@ -6657,15 +6892,15 @@
         <v>81</v>
       </c>
       <c r="G123" s="18" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="H123" s="18"/>
       <c r="I123" s="18"/>
       <c r="J123" s="15" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="K123" s="15" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="L123" s="26"/>
       <c r="M123" s="19"/>
@@ -6685,17 +6920,17 @@
         <v>81</v>
       </c>
       <c r="G124" s="18" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="H124" s="18"/>
       <c r="I124" s="18" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="J124" s="15" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="K124" s="15" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="L124" s="26"/>
       <c r="M124" s="19"/>
@@ -6715,17 +6950,17 @@
         <v>81</v>
       </c>
       <c r="G125" s="18" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="H125" s="18"/>
       <c r="I125" s="18" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="J125" s="15" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="K125" s="15" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="L125" s="26"/>
       <c r="M125" s="19"/>
@@ -6742,20 +6977,20 @@
         <v>3</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="G126" s="18" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="H126" s="18"/>
       <c r="I126" s="18" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="J126" s="15" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="K126" s="15" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="L126" s="26"/>
       <c r="M126" s="19"/>
@@ -6777,7 +7012,7 @@
         <v>78</v>
       </c>
       <c r="G127" s="18" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="H127" s="18"/>
       <c r="I127" s="18"/>
@@ -6798,25 +7033,25 @@
         <v>7</v>
       </c>
       <c r="F128" s="21" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="G128" s="18" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="H128" s="18" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="I128" s="18" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
       <c r="J128" s="15" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="K128" s="15" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="L128" s="26" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="M128" s="19"/>
       <c r="N128" s="2" t="s">
@@ -6837,15 +7072,15 @@
         <v>73</v>
       </c>
       <c r="G129" s="18" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="H129" s="18"/>
       <c r="I129" s="18"/>
       <c r="J129" s="15" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="K129" s="15" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="L129" s="26"/>
       <c r="M129" s="19"/>
@@ -6865,13 +7100,13 @@
         <v>73</v>
       </c>
       <c r="G130" s="18" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="H130" s="18"/>
       <c r="I130" s="18"/>
       <c r="J130" s="15"/>
       <c r="K130" s="15" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="L130" s="26"/>
       <c r="M130" s="19"/>
@@ -6891,13 +7126,13 @@
         <v>73</v>
       </c>
       <c r="G131" s="18" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="H131" s="18"/>
       <c r="I131" s="18"/>
       <c r="J131" s="15"/>
       <c r="K131" s="15" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="L131" s="26"/>
       <c r="M131" s="19"/>
@@ -6914,16 +7149,16 @@
         <v>7</v>
       </c>
       <c r="F132" s="3" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="G132" s="18" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="H132" s="18"/>
       <c r="I132" s="18"/>
       <c r="J132" s="15"/>
       <c r="K132" s="15" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="L132" s="26"/>
       <c r="M132" s="19"/>
@@ -6949,7 +7184,7 @@
         <v>68</v>
       </c>
       <c r="G133" s="18" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="H133" s="18"/>
       <c r="I133" s="18"/>
@@ -6975,15 +7210,15 @@
         <v>65</v>
       </c>
       <c r="G134" s="18" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="H134" s="18"/>
       <c r="I134" s="18"/>
       <c r="J134" s="23" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="K134" s="16" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="L134" s="26"/>
       <c r="M134" s="19"/>
@@ -7005,15 +7240,15 @@
         <v>60</v>
       </c>
       <c r="G135" s="18" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="H135" s="18"/>
       <c r="I135" s="18"/>
       <c r="J135" s="16" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="K135" s="16" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="L135" s="26"/>
       <c r="M135" s="19"/>
@@ -7033,15 +7268,15 @@
         <v>60</v>
       </c>
       <c r="G136" s="18" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="H136" s="18"/>
       <c r="I136" s="18"/>
       <c r="J136" s="15" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="K136" s="16" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="L136" s="26"/>
       <c r="M136" s="19"/>
@@ -7061,15 +7296,15 @@
         <v>60</v>
       </c>
       <c r="G137" s="18" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="H137" s="18"/>
       <c r="I137" s="18"/>
       <c r="J137" s="15" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="K137" s="16" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="L137" s="26"/>
       <c r="M137" s="19"/>
@@ -7088,16 +7323,16 @@
         <v>7</v>
       </c>
       <c r="F138" s="4" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="G138" s="18" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="H138" s="18"/>
       <c r="I138" s="18"/>
       <c r="J138" s="23"/>
       <c r="K138" s="16" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="L138" s="26"/>
       <c r="M138" s="19"/>
@@ -7117,22 +7352,22 @@
         <v>56</v>
       </c>
       <c r="G139" s="18" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="H139" s="18" t="s">
+        <v>340</v>
+      </c>
+      <c r="I139" s="18" t="s">
+        <v>423</v>
+      </c>
+      <c r="J139" s="23" t="s">
+        <v>439</v>
+      </c>
+      <c r="K139" s="17" t="s">
         <v>346</v>
       </c>
-      <c r="I139" s="18" t="s">
-        <v>429</v>
-      </c>
-      <c r="J139" s="23" t="s">
-        <v>445</v>
-      </c>
-      <c r="K139" s="17" t="s">
-        <v>352</v>
-      </c>
       <c r="L139" s="26" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="M139" s="19"/>
       <c r="N139" s="2" t="s">
@@ -7153,15 +7388,15 @@
         <v>52</v>
       </c>
       <c r="G140" s="18" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="H140" s="18"/>
       <c r="I140" s="18"/>
       <c r="J140" s="26" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="K140" s="26" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="L140" s="26"/>
       <c r="M140" s="19"/>
@@ -7181,15 +7416,15 @@
         <v>52</v>
       </c>
       <c r="G141" s="18" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="H141" s="18"/>
       <c r="I141" s="18"/>
       <c r="J141" s="15" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="K141" s="15" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="L141" s="26"/>
       <c r="M141" s="19"/>
@@ -7209,15 +7444,15 @@
         <v>52</v>
       </c>
       <c r="G142" s="18" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="H142" s="18"/>
       <c r="I142" s="18"/>
       <c r="J142" s="15" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="K142" s="15" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="L142" s="26"/>
       <c r="M142" s="19"/>
@@ -7234,21 +7469,21 @@
         <v>3</v>
       </c>
       <c r="F143" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="G143" s="18" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="H143" s="18"/>
       <c r="I143" s="18" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="J143" s="15"/>
       <c r="K143" s="15" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="L143" s="26" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="M143" s="19"/>
       <c r="N143" s="2" t="s">
@@ -7271,22 +7506,22 @@
         <v>47</v>
       </c>
       <c r="G144" s="18" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="H144" s="18" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="I144" s="18" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="J144" s="23" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="K144" s="16" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="L144" s="26" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="M144" s="19"/>
       <c r="N144" s="2" t="s">
@@ -7304,18 +7539,18 @@
         <v>3</v>
       </c>
       <c r="F145" s="10" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="G145" s="18" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="H145" s="18"/>
       <c r="I145" s="18"/>
       <c r="J145" s="26" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="K145" s="26" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="L145" s="26"/>
       <c r="M145" s="19"/>
@@ -7335,15 +7570,15 @@
         <v>44</v>
       </c>
       <c r="G146" s="18" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="H146" s="18"/>
       <c r="I146" s="18"/>
       <c r="J146" s="15" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="K146" s="15" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="L146" s="26"/>
       <c r="M146" s="19"/>
@@ -7363,20 +7598,20 @@
         <v>42</v>
       </c>
       <c r="G147" s="18" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="H147" s="18"/>
       <c r="I147" s="18" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="J147" s="15" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="K147" s="15" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="L147" s="26" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="M147" s="19"/>
       <c r="N147" s="2"/>
@@ -7395,15 +7630,15 @@
         <v>40</v>
       </c>
       <c r="G148" s="18" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="H148" s="18"/>
       <c r="I148" s="18"/>
       <c r="J148" s="23" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="K148" s="16" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="L148" s="26"/>
       <c r="M148" s="19"/>
@@ -7422,18 +7657,18 @@
         <v>5</v>
       </c>
       <c r="F149" s="22" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="G149" s="18" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="H149" s="18"/>
       <c r="I149" s="18"/>
       <c r="J149" s="17" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="K149" s="17" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="L149" s="26"/>
       <c r="M149" s="19"/>
@@ -7453,15 +7688,15 @@
         <v>35</v>
       </c>
       <c r="G150" s="18" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="H150" s="18"/>
       <c r="I150" s="18"/>
       <c r="J150" s="15" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="K150" s="15" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="L150" s="26"/>
       <c r="M150" s="19"/>
@@ -7481,13 +7716,13 @@
         <v>35</v>
       </c>
       <c r="G151" s="18" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="H151" s="18"/>
       <c r="I151" s="18"/>
       <c r="J151" s="15"/>
       <c r="K151" s="15" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="L151" s="26"/>
       <c r="M151" s="19"/>
@@ -7507,15 +7742,15 @@
         <v>31</v>
       </c>
       <c r="G152" s="18" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="H152" s="18"/>
       <c r="I152" s="18"/>
       <c r="J152" s="15" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="K152" s="15" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="L152" s="26"/>
       <c r="M152" s="19"/>
@@ -7535,17 +7770,17 @@
         <v>31</v>
       </c>
       <c r="G153" s="18" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="H153" s="18"/>
       <c r="I153" s="18" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="J153" s="15" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="K153" s="15" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="L153" s="26"/>
       <c r="M153" s="19"/>
@@ -7565,17 +7800,17 @@
         <v>31</v>
       </c>
       <c r="G154" s="18" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="H154" s="18"/>
       <c r="I154" s="18" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="J154" s="15" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="K154" s="15" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="L154" s="26"/>
       <c r="M154" s="19"/>
@@ -7597,15 +7832,15 @@
         <v>28</v>
       </c>
       <c r="G155" s="18" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="H155" s="18"/>
       <c r="I155" s="18"/>
       <c r="J155" s="23" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="K155" s="16" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="L155" s="26"/>
       <c r="M155" s="19"/>
@@ -7627,15 +7862,15 @@
         <v>23</v>
       </c>
       <c r="G156" s="18" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="H156" s="18"/>
       <c r="I156" s="18"/>
       <c r="J156" s="16" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="K156" s="16" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="L156" s="26"/>
       <c r="M156" s="19"/>
@@ -7655,15 +7890,15 @@
         <v>23</v>
       </c>
       <c r="G157" s="18" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="H157" s="18"/>
       <c r="I157" s="18"/>
       <c r="J157" s="16" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="K157" s="16" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="L157" s="26"/>
       <c r="M157" s="19"/>
@@ -7683,17 +7918,17 @@
         <v>23</v>
       </c>
       <c r="G158" s="18" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="H158" s="18"/>
       <c r="I158" s="18" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="J158" s="16" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="K158" s="16" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="L158" s="26"/>
       <c r="M158" s="19"/>
@@ -7715,15 +7950,15 @@
         <v>20</v>
       </c>
       <c r="G159" s="18" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="H159" s="18"/>
       <c r="I159" s="18"/>
       <c r="J159" s="23" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="K159" s="16" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="L159" s="26"/>
       <c r="M159" s="19"/>
@@ -7740,20 +7975,20 @@
         <v>5</v>
       </c>
       <c r="F160" s="22" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="G160" s="18" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="H160" s="18"/>
       <c r="I160" s="18" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="J160" s="17" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="K160" s="17" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="L160" s="26"/>
       <c r="M160" s="19"/>
@@ -7773,15 +8008,15 @@
         <v>16</v>
       </c>
       <c r="G161" s="18" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="H161" s="18"/>
       <c r="I161" s="18" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="J161" s="17"/>
       <c r="K161" s="16" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="L161" s="26"/>
       <c r="M161" s="19"/>
@@ -7801,15 +8036,15 @@
         <v>16</v>
       </c>
       <c r="G162" s="18" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="H162" s="18"/>
       <c r="I162" s="18" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="J162" s="17"/>
       <c r="K162" s="16" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="L162" s="26"/>
       <c r="M162" s="19"/>
@@ -7829,22 +8064,22 @@
         <v>14</v>
       </c>
       <c r="G163" s="18" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="H163" s="18" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="I163" s="18" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="J163" s="27" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="K163" s="24" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="L163" s="26" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="M163" s="19"/>
       <c r="N163" s="2" t="s">
@@ -7886,21 +8121,21 @@
         <v>7</v>
       </c>
       <c r="F165" s="7" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="G165" s="18" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="H165" s="18" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="I165" s="18" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="J165" s="23"/>
       <c r="K165" s="16"/>
       <c r="L165" s="26" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="M165" s="19"/>
       <c r="N165" s="2"/>
@@ -7913,21 +8148,21 @@
         <v>5</v>
       </c>
       <c r="F166" s="7" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="G166" s="18" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="H166" s="18" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="I166" s="18" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="J166" s="25"/>
       <c r="K166" s="16"/>
       <c r="L166" s="26" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
     </row>
     <row r="167" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -7941,18 +8176,18 @@
         <v>0</v>
       </c>
       <c r="G167" s="18" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="H167" s="18" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="I167" s="18" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="J167" s="16"/>
       <c r="K167" s="16"/>
       <c r="L167" s="26" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
     </row>
     <row r="168" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -7966,18 +8201,18 @@
         <v>0</v>
       </c>
       <c r="G168" s="18" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="H168" s="18" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="I168" s="18" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="J168" s="16"/>
       <c r="K168" s="16"/>
       <c r="L168" s="26" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/biz/MC-MSC-Web/qxy接口定义文档2016-8-8/【千校云】bug列表.xlsx
+++ b/trunk/biz/MC-MSC-Web/qxy接口定义文档2016-8-8/【千校云】bug列表.xlsx
@@ -2248,10 +2248,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>所有教工新增后会建立和默认标签的关联labelId=0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{
  "token":"910820738640559462371283192",
     "teacher":[
@@ -2865,6 +2861,10 @@
   </si>
   <si>
     <t>需要有我的审批事项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有教工新增后会建立和默认标签的关联labelId=0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3771,10 +3771,10 @@
   <dimension ref="A1:AJ168"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="G155" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="G23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J94" sqref="J94"/>
+      <selection pane="bottomRight" activeCell="L43" sqref="L43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3871,10 +3871,10 @@
         <v>191</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="I3" s="18" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="K3" s="15">
         <v>404</v>
@@ -3905,10 +3905,10 @@
         <v>311</v>
       </c>
       <c r="I5" s="18" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="J5" s="15" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="K5" s="15">
         <v>404</v>
@@ -3937,10 +3937,10 @@
         <v>308</v>
       </c>
       <c r="I6" s="18" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="K6" s="15" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="AH6" s="1" t="s">
         <v>334</v>
@@ -3963,10 +3963,10 @@
         <v>306</v>
       </c>
       <c r="I7" s="18" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="K7" s="15" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="AI7" s="1" t="s">
         <v>337</v>
@@ -3983,10 +3983,10 @@
         <v>357</v>
       </c>
       <c r="I8" s="18" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="K8" s="15" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="9" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4000,10 +4000,10 @@
         <v>303</v>
       </c>
       <c r="I9" s="18" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="K9" s="15" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="10" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4086,13 +4086,13 @@
         <v>294</v>
       </c>
       <c r="I13" s="18" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="J13" s="15" t="s">
+        <v>532</v>
+      </c>
+      <c r="K13" s="15" t="s">
         <v>533</v>
-      </c>
-      <c r="K13" s="15" t="s">
-        <v>534</v>
       </c>
       <c r="N13" s="2" t="s">
         <v>293</v>
@@ -4106,19 +4106,19 @@
         <v>191</v>
       </c>
       <c r="F14" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="G14" s="18" t="s">
+        <v>331</v>
+      </c>
+      <c r="I14" s="18" t="s">
+        <v>531</v>
+      </c>
+      <c r="J14" s="15" t="s">
         <v>529</v>
       </c>
-      <c r="G14" s="18" t="s">
-        <v>331</v>
-      </c>
-      <c r="I14" s="18" t="s">
-        <v>532</v>
-      </c>
-      <c r="J14" s="15" t="s">
+      <c r="K14" s="15" t="s">
         <v>530</v>
-      </c>
-      <c r="K14" s="15" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="15" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4155,10 +4155,10 @@
         <v>421</v>
       </c>
       <c r="J16" s="15" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="K16" s="15" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4232,7 +4232,7 @@
         <v>360</v>
       </c>
       <c r="L20" s="26" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4292,16 +4292,16 @@
         <v>191</v>
       </c>
       <c r="F23" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="J23" s="15" t="s">
         <v>557</v>
       </c>
-      <c r="J23" s="15" t="s">
-        <v>558</v>
-      </c>
       <c r="K23" s="15" t="s">
+        <v>554</v>
+      </c>
+      <c r="L23" s="26" t="s">
         <v>555</v>
-      </c>
-      <c r="L23" s="26" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4315,13 +4315,13 @@
         <v>274</v>
       </c>
       <c r="J24" s="15" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="K24" s="15" t="s">
+        <v>554</v>
+      </c>
+      <c r="L24" s="26" t="s">
         <v>555</v>
-      </c>
-      <c r="L24" s="26" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4332,7 +4332,7 @@
         <v>191</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="G25" s="18" t="s">
         <v>331</v>
@@ -4341,13 +4341,13 @@
         <v>421</v>
       </c>
       <c r="J25" s="15" t="s">
+        <v>550</v>
+      </c>
+      <c r="K25" s="15" t="s">
+        <v>553</v>
+      </c>
+      <c r="L25" s="26" t="s">
         <v>551</v>
-      </c>
-      <c r="K25" s="15" t="s">
-        <v>554</v>
-      </c>
-      <c r="L25" s="26" t="s">
-        <v>552</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4358,16 +4358,16 @@
         <v>7</v>
       </c>
       <c r="F26" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="G26" s="18" t="s">
+        <v>331</v>
+      </c>
+      <c r="J26" s="15" t="s">
         <v>547</v>
       </c>
-      <c r="G26" s="18" t="s">
-        <v>331</v>
-      </c>
-      <c r="J26" s="15" t="s">
+      <c r="K26" s="15" t="s">
         <v>548</v>
-      </c>
-      <c r="K26" s="15" t="s">
-        <v>549</v>
       </c>
       <c r="N26" s="2" t="s">
         <v>271</v>
@@ -4381,19 +4381,19 @@
         <v>191</v>
       </c>
       <c r="F27" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="G27" s="18" t="s">
+        <v>331</v>
+      </c>
+      <c r="I27" s="18" t="s">
+        <v>531</v>
+      </c>
+      <c r="J27" s="15" t="s">
         <v>544</v>
       </c>
-      <c r="G27" s="18" t="s">
-        <v>331</v>
-      </c>
-      <c r="I27" s="18" t="s">
-        <v>532</v>
-      </c>
-      <c r="J27" s="15" t="s">
+      <c r="K27" s="15" t="s">
         <v>545</v>
-      </c>
-      <c r="K27" s="15" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4410,10 +4410,10 @@
         <v>331</v>
       </c>
       <c r="I28" s="18" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="J28" s="15" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="K28" s="15">
         <v>404</v>
@@ -4433,10 +4433,10 @@
         <v>331</v>
       </c>
       <c r="I29" s="18" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="K29" s="15" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4453,10 +4453,10 @@
         <v>331</v>
       </c>
       <c r="I30" s="18" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="K30" s="15" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4495,10 +4495,10 @@
         <v>331</v>
       </c>
       <c r="K33" s="15" t="s">
+        <v>554</v>
+      </c>
+      <c r="L33" s="26" t="s">
         <v>555</v>
-      </c>
-      <c r="L33" s="26" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="34" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4518,7 +4518,7 @@
         <v>331</v>
       </c>
       <c r="J34" s="15" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="K34" s="15" t="s">
         <v>360</v>
@@ -4541,10 +4541,10 @@
         <v>455</v>
       </c>
       <c r="J35" s="15" t="s">
+        <v>481</v>
+      </c>
+      <c r="K35" s="15" t="s">
         <v>482</v>
-      </c>
-      <c r="K35" s="15" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="36" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4564,10 +4564,10 @@
         <v>456</v>
       </c>
       <c r="J36" s="15" t="s">
+        <v>483</v>
+      </c>
+      <c r="K36" s="15" t="s">
         <v>484</v>
-      </c>
-      <c r="K36" s="15" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="37" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4581,13 +4581,13 @@
         <v>188</v>
       </c>
       <c r="F37" s="21" t="s">
+        <v>485</v>
+      </c>
+      <c r="G37" s="18" t="s">
+        <v>331</v>
+      </c>
+      <c r="K37" s="15" t="s">
         <v>486</v>
-      </c>
-      <c r="G37" s="18" t="s">
-        <v>331</v>
-      </c>
-      <c r="K37" s="15" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="38" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4604,10 +4604,10 @@
         <v>331</v>
       </c>
       <c r="J38" s="15" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="K38" s="15" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="39" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4627,10 +4627,10 @@
         <v>421</v>
       </c>
       <c r="J39" s="15" t="s">
+        <v>488</v>
+      </c>
+      <c r="K39" s="15" t="s">
         <v>489</v>
-      </c>
-      <c r="K39" s="15" t="s">
-        <v>490</v>
       </c>
       <c r="N39" s="2" t="s">
         <v>253</v>
@@ -4650,7 +4650,7 @@
         <v>250</v>
       </c>
       <c r="K40" s="15" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="41" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4661,7 +4661,7 @@
         <v>188</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="G41" s="18" t="s">
         <v>331</v>
@@ -4670,13 +4670,13 @@
         <v>421</v>
       </c>
       <c r="J41" s="15" t="s">
+        <v>562</v>
+      </c>
+      <c r="K41" s="15" t="s">
         <v>563</v>
       </c>
-      <c r="K41" s="15" t="s">
+      <c r="L41" s="26" t="s">
         <v>564</v>
-      </c>
-      <c r="L41" s="26" t="s">
-        <v>565</v>
       </c>
     </row>
     <row r="42" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4693,7 +4693,7 @@
         <v>331</v>
       </c>
       <c r="K42" s="15" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="43" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4710,7 +4710,7 @@
         <v>331</v>
       </c>
       <c r="J43" s="15" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="K43" s="15" t="s">
         <v>360</v>
@@ -4730,10 +4730,10 @@
         <v>331</v>
       </c>
       <c r="K44" s="15" t="s">
+        <v>565</v>
+      </c>
+      <c r="L44" s="26" t="s">
         <v>566</v>
-      </c>
-      <c r="L44" s="26" t="s">
-        <v>567</v>
       </c>
     </row>
     <row r="45" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4750,7 +4750,7 @@
         <v>240</v>
       </c>
       <c r="J45" s="15" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="K45" s="15" t="s">
         <v>366</v>
@@ -4787,7 +4787,7 @@
         <v>331</v>
       </c>
       <c r="J47" s="15" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="K47" s="15" t="s">
         <v>450</v>
@@ -4807,13 +4807,13 @@
         <v>331</v>
       </c>
       <c r="I48" s="18" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J48" s="15" t="s">
+        <v>491</v>
+      </c>
+      <c r="K48" s="15" t="s">
         <v>492</v>
-      </c>
-      <c r="K48" s="15" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="49" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4833,7 +4833,7 @@
         <v>340</v>
       </c>
       <c r="J49" s="15" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="K49" s="15" t="s">
         <v>449</v>
@@ -4859,7 +4859,7 @@
         <v>331</v>
       </c>
       <c r="J50" s="15" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="K50" s="15" t="s">
         <v>360</v>
@@ -4879,7 +4879,7 @@
         <v>331</v>
       </c>
       <c r="J51" s="15" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="K51" s="15" t="s">
         <v>360</v>
@@ -4902,10 +4902,10 @@
         <v>456</v>
       </c>
       <c r="J52" s="15" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="K52" s="15" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="53" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4967,7 +4967,7 @@
         <v>191</v>
       </c>
       <c r="F56" s="12" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="G56" s="18" t="s">
         <v>331</v>
@@ -4979,10 +4979,10 @@
         <v>431</v>
       </c>
       <c r="J56" s="15" t="s">
+        <v>465</v>
+      </c>
+      <c r="K56" s="15" t="s">
         <v>466</v>
-      </c>
-      <c r="K56" s="15" t="s">
-        <v>467</v>
       </c>
       <c r="L56" s="26" t="s">
         <v>379</v>
@@ -5037,10 +5037,10 @@
         <v>431</v>
       </c>
       <c r="J58" s="15" t="s">
+        <v>467</v>
+      </c>
+      <c r="K58" s="15" t="s">
         <v>468</v>
-      </c>
-      <c r="K58" s="15" t="s">
-        <v>469</v>
       </c>
       <c r="L58" s="26" t="s">
         <v>378</v>
@@ -5083,7 +5083,7 @@
         <v>188</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="G60" s="18" t="s">
         <v>331</v>
@@ -5093,10 +5093,10 @@
         <v>421</v>
       </c>
       <c r="J60" s="15" t="s">
+        <v>470</v>
+      </c>
+      <c r="K60" s="15" t="s">
         <v>471</v>
-      </c>
-      <c r="K60" s="15" t="s">
-        <v>472</v>
       </c>
       <c r="L60" s="26"/>
       <c r="M60" s="19"/>
@@ -5126,7 +5126,7 @@
       </c>
       <c r="J61" s="15"/>
       <c r="K61" s="15" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="L61" s="26" t="s">
         <v>380</v>
@@ -5160,7 +5160,7 @@
       </c>
       <c r="J62" s="15"/>
       <c r="K62" s="15" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="L62" s="26" t="s">
         <v>381</v>
@@ -5194,7 +5194,7 @@
       </c>
       <c r="J63" s="15"/>
       <c r="K63" s="15" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="L63" s="26" t="s">
         <v>380</v>
@@ -5268,7 +5268,7 @@
       <c r="I66" s="18"/>
       <c r="J66" s="15"/>
       <c r="K66" s="15" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="L66" s="26"/>
       <c r="M66" s="19"/>
@@ -5294,7 +5294,7 @@
       <c r="I67" s="18"/>
       <c r="J67" s="15"/>
       <c r="K67" s="15" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="L67" s="26"/>
       <c r="M67" s="19"/>
@@ -5324,7 +5324,7 @@
       </c>
       <c r="J68" s="15"/>
       <c r="K68" s="15" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="L68" s="26" t="s">
         <v>378</v>
@@ -5345,7 +5345,7 @@
         <v>188</v>
       </c>
       <c r="F69" s="21" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="G69" s="18"/>
       <c r="H69" s="18" t="s">
@@ -5355,10 +5355,10 @@
         <v>421</v>
       </c>
       <c r="J69" s="15" t="s">
+        <v>476</v>
+      </c>
+      <c r="K69" s="15" t="s">
         <v>477</v>
-      </c>
-      <c r="K69" s="15" t="s">
-        <v>478</v>
       </c>
       <c r="L69" s="26" t="s">
         <v>378</v>
@@ -5386,7 +5386,7 @@
       <c r="I70" s="18"/>
       <c r="J70" s="15"/>
       <c r="K70" s="15" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="L70" s="26"/>
       <c r="M70" s="19"/>
@@ -5416,7 +5416,7 @@
       </c>
       <c r="J71" s="15"/>
       <c r="K71" s="15" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="L71" s="26" t="s">
         <v>382</v>
@@ -5448,7 +5448,7 @@
       </c>
       <c r="J72" s="15"/>
       <c r="K72" s="15" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="L72" s="26" t="s">
         <v>378</v>
@@ -5480,7 +5480,7 @@
       </c>
       <c r="J73" s="15"/>
       <c r="K73" s="15" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="L73" s="26" t="s">
         <v>380</v>
@@ -5512,7 +5512,7 @@
       </c>
       <c r="J74" s="15"/>
       <c r="K74" s="15" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="L74" s="26" t="s">
         <v>378</v>
@@ -5544,7 +5544,7 @@
       </c>
       <c r="J75" s="15"/>
       <c r="K75" s="15" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="L75" s="26" t="s">
         <v>380</v>
@@ -5600,7 +5600,7 @@
       </c>
       <c r="J77" s="15"/>
       <c r="K77" s="15" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="L77" s="26" t="s">
         <v>378</v>
@@ -5632,7 +5632,7 @@
       </c>
       <c r="J78" s="15"/>
       <c r="K78" s="15" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="L78" s="26" t="s">
         <v>378</v>
@@ -5664,7 +5664,7 @@
       </c>
       <c r="J79" s="15"/>
       <c r="K79" s="15" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="L79" s="26" t="s">
         <v>378</v>
@@ -5762,7 +5762,7 @@
       </c>
       <c r="J83" s="15"/>
       <c r="K83" s="15" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="L83" s="26"/>
       <c r="M83" s="19"/>
@@ -5794,7 +5794,7 @@
       <c r="I84" s="18"/>
       <c r="J84" s="15"/>
       <c r="K84" s="15" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="L84" s="26"/>
       <c r="M84" s="19"/>
@@ -5824,7 +5824,7 @@
       </c>
       <c r="J85" s="15"/>
       <c r="K85" s="15" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="L85" s="26" t="s">
         <v>378</v>
@@ -5982,7 +5982,7 @@
       </c>
       <c r="J91" s="15"/>
       <c r="K91" s="15" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="L91" s="26" t="s">
         <v>383</v>
@@ -6016,7 +6016,7 @@
       </c>
       <c r="J92" s="15"/>
       <c r="K92" s="15" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="L92" s="26" t="s">
         <v>378</v>
@@ -6048,7 +6048,7 @@
       </c>
       <c r="J93" s="15"/>
       <c r="K93" s="15" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="L93" s="26" t="s">
         <v>378</v>
@@ -6122,7 +6122,7 @@
         <v>7</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="G96" s="18" t="s">
         <v>331</v>
@@ -6130,10 +6130,10 @@
       <c r="H96" s="18"/>
       <c r="I96" s="18"/>
       <c r="J96" s="15" t="s">
+        <v>504</v>
+      </c>
+      <c r="K96" s="15" t="s">
         <v>505</v>
-      </c>
-      <c r="K96" s="15" t="s">
-        <v>506</v>
       </c>
       <c r="L96" s="26"/>
       <c r="M96" s="19"/>
@@ -6170,7 +6170,7 @@
         <v>5</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G98" s="18" t="s">
         <v>331</v>
@@ -6180,10 +6180,10 @@
         <v>421</v>
       </c>
       <c r="J98" s="15" t="s">
+        <v>501</v>
+      </c>
+      <c r="K98" s="15" t="s">
         <v>502</v>
-      </c>
-      <c r="K98" s="15" t="s">
-        <v>503</v>
       </c>
       <c r="L98" s="26"/>
       <c r="M98" s="19"/>
@@ -6207,7 +6207,7 @@
       <c r="I99" s="18"/>
       <c r="J99" s="15"/>
       <c r="K99" s="15" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="L99" s="26"/>
       <c r="M99" s="19"/>
@@ -6231,7 +6231,7 @@
       <c r="I100" s="18"/>
       <c r="J100" s="15"/>
       <c r="K100" s="15" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="L100" s="26"/>
       <c r="M100" s="19"/>
@@ -6318,7 +6318,7 @@
         <v>358</v>
       </c>
       <c r="K103" s="15" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="L103" s="26" t="s">
         <v>362</v>
@@ -6461,10 +6461,10 @@
       <c r="H108" s="18"/>
       <c r="I108" s="18"/>
       <c r="J108" s="15" t="s">
+        <v>457</v>
+      </c>
+      <c r="K108" s="15" t="s">
         <v>458</v>
-      </c>
-      <c r="K108" s="15" t="s">
-        <v>459</v>
       </c>
       <c r="L108" s="26"/>
       <c r="M108" s="19"/>
@@ -6489,7 +6489,7 @@
       <c r="H109" s="18"/>
       <c r="I109" s="18"/>
       <c r="J109" s="15" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="K109" s="15" t="s">
         <v>366</v>
@@ -6511,7 +6511,7 @@
         <v>7</v>
       </c>
       <c r="F110" s="21" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G110" s="18" t="s">
         <v>331</v>
@@ -6519,10 +6519,10 @@
       <c r="H110" s="18"/>
       <c r="I110" s="18"/>
       <c r="J110" s="15" t="s">
+        <v>461</v>
+      </c>
+      <c r="K110" s="15" t="s">
         <v>462</v>
-      </c>
-      <c r="K110" s="15" t="s">
-        <v>463</v>
       </c>
       <c r="L110" s="26"/>
       <c r="M110" s="19"/>
@@ -6555,7 +6555,7 @@
         <v>445</v>
       </c>
       <c r="L111" s="26" t="s">
-        <v>457</v>
+        <v>567</v>
       </c>
       <c r="M111" s="19"/>
       <c r="N111" s="2" t="s">
@@ -6751,10 +6751,10 @@
       <c r="H118" s="18"/>
       <c r="I118" s="18"/>
       <c r="J118" s="15" t="s">
+        <v>506</v>
+      </c>
+      <c r="K118" s="15" t="s">
         <v>507</v>
-      </c>
-      <c r="K118" s="15" t="s">
-        <v>508</v>
       </c>
       <c r="L118" s="26"/>
       <c r="M118" s="19"/>
@@ -6773,7 +6773,7 @@
         <v>91</v>
       </c>
       <c r="F119" s="12" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="G119" s="18" t="s">
         <v>331</v>
@@ -6783,10 +6783,10 @@
       </c>
       <c r="I119" s="18"/>
       <c r="J119" s="15" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="K119" s="15" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="L119" s="26" t="s">
         <v>406</v>
@@ -6897,7 +6897,7 @@
       <c r="H123" s="18"/>
       <c r="I123" s="18"/>
       <c r="J123" s="15" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="K123" s="15" t="s">
         <v>449</v>
@@ -6927,10 +6927,10 @@
         <v>456</v>
       </c>
       <c r="J124" s="15" t="s">
+        <v>512</v>
+      </c>
+      <c r="K124" s="15" t="s">
         <v>513</v>
-      </c>
-      <c r="K124" s="15" t="s">
-        <v>514</v>
       </c>
       <c r="L124" s="26"/>
       <c r="M124" s="19"/>
@@ -6954,13 +6954,13 @@
       </c>
       <c r="H125" s="18"/>
       <c r="I125" s="18" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="J125" s="15" t="s">
+        <v>514</v>
+      </c>
+      <c r="K125" s="15" t="s">
         <v>515</v>
-      </c>
-      <c r="K125" s="15" t="s">
-        <v>516</v>
       </c>
       <c r="L125" s="26"/>
       <c r="M125" s="19"/>
@@ -6977,7 +6977,7 @@
         <v>3</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="G126" s="18" t="s">
         <v>331</v>
@@ -6987,10 +6987,10 @@
         <v>456</v>
       </c>
       <c r="J126" s="15" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="K126" s="15" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="L126" s="26"/>
       <c r="M126" s="19"/>
@@ -7033,7 +7033,7 @@
         <v>7</v>
       </c>
       <c r="F128" s="21" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="G128" s="18" t="s">
         <v>331</v>
@@ -7042,13 +7042,13 @@
         <v>340</v>
       </c>
       <c r="I128" s="18" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="J128" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="K128" s="15" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="L128" s="26" t="s">
         <v>385</v>
@@ -8121,7 +8121,7 @@
         <v>7</v>
       </c>
       <c r="F165" s="7" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="G165" s="18" t="s">
         <v>333</v>
@@ -8148,7 +8148,7 @@
         <v>5</v>
       </c>
       <c r="F166" s="7" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="G166" s="18" t="s">
         <v>333</v>

--- a/trunk/biz/MC-MSC-Web/qxy接口定义文档2016-8-8/【千校云】bug列表.xlsx
+++ b/trunk/biz/MC-MSC-Web/qxy接口定义文档2016-8-8/【千校云】bug列表.xlsx
@@ -107,7 +107,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1081" uniqueCount="568">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1084" uniqueCount="578">
   <si>
     <t>/qxy/trip</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -165,10 +165,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/qxy/devicealarm?device=[deviceId]page=[page]&amp;size=[size]&amp;token=[token]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>设备报警查询接口</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1274,10 +1270,6 @@
   </si>
   <si>
     <t>新闻新增接口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新闻详情查看接口</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1531,10 +1523,6 @@
     <rPh sb="0" eb="1">
       <t>zheng c</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>404错误</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1635,25 +1623,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>无法测试</t>
-    <rPh sb="0" eb="1">
-      <t>wu f</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ce s</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>测试数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://139.196.101.78:8668/column?type=1&amp;token=910820738640559462371283192</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://139.196.101.78:8668/term?type=1&amp;token=910820738640559462371283192</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1697,19 +1667,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://139.196.101.78:8668/label?token=910820738640559462371283192</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>无法修改</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>http://139.196.101.78:8668/course?type=1&amp;token=910820738640559462371283192</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://139.196.101.78:8668/class/worktime?class=1&amp;page=1&amp;size=1&amp;token=910820738640559462371283192</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2025,54 +1987,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://139.196.101.78:8668/deviceinfo?sid=1&amp;token=910820738640559462371283192</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "token":"910820738640559462371283192"，
-    "deviceId":"12",
-    "sid":"1",
-    "deviceName":"学校校门",
-    "username":"test1",
-    "password":"123456"
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/qxy/deviceinfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>404错误，无法新增</t>
-    <rPh sb="3" eb="4">
-      <t>cha ru</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>hou</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>shu j</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>du bu c</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>需要处理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>开发反馈结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要处理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要处理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2139,10 +2058,6 @@
   </si>
   <si>
     <t>/qxy/termgradeclass?type=[type]&amp;token=[token]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://139.196.101.78:8668/class?class=1&amp;page=1&amp;size=1&amp;token=910820738640559462371283192</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2402,30 +2317,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{
- "token":"910820738640559462371283192",
-    "dutylist":[
-     {
-      "dutyId":"3",
-      "dutyName":"ddsdsd",
-      "isUse":"1"
-     }
-    ]
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提示岗位id不能为空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- "token":"910820738640559462371283192",
-    "dutyId":"1"
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>删除失败</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2450,37 +2341,11 @@
   <si>
     <t>{
  "token":"910820738640559462371283192",
-    "id":"1"
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- "token":"910820738640559462371283192",
      "oatagsId":"1",
     "oatagsName":"test",
     "type":"0",          
     "cycle":"23"
 }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- "token":"910820738640559462371283192",
-     "oatagsId":"1" 
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要处理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2505,13 +2370,6 @@
     "serialNumber":"3",  
     "adoptType":"1",
     "tids":[1,2,3]
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- "token":"910820738640559462371283192",
-    "oaruleId":"2"
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2663,19 +2521,357 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>需要处理，返回信息有误</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>提示新闻id不能为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>139.196.101.78:8668/news?token=910820738640559462371283192</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回404错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>139.196.101.78:8668/homenews/list?token=910820738640559462371283192</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/qxy/newlist?column=[colId]&amp;page=[page]&amp;size=[size]&amp;token=[token]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/qxy/duty/list?type=[type]&amp;token=[token]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>139.196.101.78:8668/duty/list?token=910820738640559462371283192</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常返回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/qxy/schedule/day?term=[term]&amp;date=[date]&amp;token=[token]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>139.196.101.78:8668/schedule/day?term=1&amp;date=2016/8/9&amp;token=910820738640559462371283192</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date日期格式需要通用的格式或者需转换成查询格式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>139.196.101.78:8668/schedule/week?term=1&amp;week=1&amp;token=910820738640559462371283192</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学期无数据，该接口无法全测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学期无数据，该接口无法全测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等待学期接口完善后再测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/qxy/schedule/status?term=[term_id]&amp;teacher=[tid]&amp;token=[token]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>139.196.101.78:8668/schedule/status?term=1&amp;token=910820738640559462371283192</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/qxy/myapplication</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>139.196.101.78:8668/myaudit?teacher=4&amp;token=910820738640559462371283192</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常返回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常返回</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>{
  "token":"910820738640559462371283192",
-    "newslist":[
-     {
-      "newsId":"1",
+    "tid": "4",            
+    "type":"0",              
+    "oatagsId":"1",  
+    "content":"我生病了，需要治疗",      
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单表新增没问题，需要同时维护oa_examine_result表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当新增事项时会根据事项模板规则中的审批人生成每个审批人的审批信息，这个时候我的审批事项就可以获取到相应教师的待审核信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要有我的审批事项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有教工新增后会建立和默认标签的关联labelId=0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要处理，返回信息有误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/qxy/devicealarm?device=[deviceId]page=[page]&amp;size=[size]&amp;token=[token]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/qxy/deviceinfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "token":"910820738640559462371283192",
+    "deviceId":"122342",
+    "sid":"1",
+    "deviceName":"学校校门",
+    "username":"test1",
+    "password":"123456"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常返回</t>
+    <rPh sb="3" eb="4">
+      <t>cha ru</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>hou</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>shu j</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>du bu c</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "token":"910820738640559462371283192",
+    "id":"1"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示访问失败</t>
+    <rPh sb="0" eb="1">
+      <t>wu f</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ce s</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "token":"910820738640559462371283192",
+    "id":"1",
+    "deviceId":"1223411112",
+    "sid":"1",
+    "deviceName":"学校校dd门",
+    "username":"test1",
+    "password":"123456"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常返回</t>
+    <rPh sb="0" eb="1">
+      <t>wu f</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ce s</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>139.196.101.78:8668/column?type=1&amp;token=910820738640559462371283192</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://139.196.101.78:8668/term?type=1&amp;token=910820738640559462371283192</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://139.196.101.78:8668/label?token=910820738640559462371283192</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://139.196.101.78:8668/class?class=1&amp;page=1&amp;size=1&amp;token=910820738640559462371283192</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://139.196.101.78:8668/class/worktime?class=1&amp;page=1&amp;size=1&amp;token=910820738640559462371283192</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://139.196.101.78:8668/deviceinfo?sid=1&amp;token=910820738640559462371283192</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>404错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新闻详情查看接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>139.196.101.78:8668/news/detaile?newsId=1&amp;token=910820738640559462371283192</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询失败，newsId不能为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变更了地址后会提示报错</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示修改失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>info": "查询失败，dutyId不能为空",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已正常，需要修改接口定义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已正常，需要修改接口定义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "token":"910820738640559462371283192",
+    "termId":"1",
+    "type":"1",       
+    "date":"2016/08/10 00:00:00",
+    "leaderTids":"212;221;",             
+    "tids":"211;234;213;215;",           
+    "dutyId":"1"                       
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>还是404报错</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "token":"910820738640559462371283192",
+    "dutyId":"3",
+ "dutyName":"日常e考核岗",
+ "isUse":"1"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "token":"910820738640559462371283192",
+    "dutyIds":[5,6]
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已正常，需要修改接口定义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示岗位id不能为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已正常，需要修改接口定义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/qxy/duty/content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/qxy/oarule</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/qxy/news/detaile?newsId=[newId]&amp;token=[token]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "token":"910820738640559462371283192",
+    "newsId":"1",
       "title":"爆咋",  
       "content":"6L+Z5piv5LiA5p2h5paw6Ze75YaF5a65",
       "columnId":"1",
@@ -2687,184 +2883,37 @@
       "pic":"url",
             "isAudit":"1",         
             "isHomenews":"1",      
-         "isTop": "1",          
-     }
-    ]     
+         "isTop": "1"   
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/qxy/news/detaile?news=[newId]&amp;token=[token]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>139.196.101.78:8668/news/detaile?news=1&amp;token=910820738640559462371283192</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询失败，newsId不能为空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要处理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>139.196.101.78:8668/news?token=910820738640559462371283192</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回404错误</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要处理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无法测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无法测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>139.196.101.78:8668/homenews/list?token=910820738640559462371283192</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/qxy/newlist?column=[colId]&amp;page=[page]&amp;size=[size]&amp;token=[token]</t>
+    <t>139.196.101.78:8668/duty/content?dutyId=1&amp;token=910820738640559462371283192</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/qxy/duty/content?dutyId=[dutyId]&amp;token=[token]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>{
  "token":"910820738640559462371283192",
-    "termId":"1",
-    "type":"1",       
-    "date":"2016-8-9",
-    "leaderTids":"212;221;",             
-    "tids":"211;234;213;215;",           
-    "dutyId":"1"                       
+    "dutycontentlist":[1,2,3,4]
 }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要处理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要处理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无法测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/qxy/duty/content?duty=[dutyId]&amp;token=[token]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>139.196.101.78:8668/duty/content?duty=1&amp;token=910820738640559462371283192</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>info": "查询失败，dutyId不能为空",</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/qxy/duty/list?type=[type]&amp;token=[token]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>139.196.101.78:8668/duty/list?token=910820738640559462371283192</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>正常返回</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/qxy/schedule/day?term=[term]&amp;date=[date]&amp;token=[token]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>139.196.101.78:8668/schedule/day?term=1&amp;date=2016/8/9&amp;token=910820738640559462371283192</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>date日期格式需要通用的格式或者需转换成查询格式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>139.196.101.78:8668/schedule/week?term=1&amp;week=1&amp;token=910820738640559462371283192</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学期无数据，该接口无法全测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学期无数据，该接口无法全测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等待学期接口完善后再测</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/qxy/schedule/status?term=[term_id]&amp;teacher=[tid]&amp;token=[token]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>139.196.101.78:8668/schedule/status?term=1&amp;token=910820738640559462371283192</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/qxy/myapplication</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>139.196.101.78:8668/myaudit?teacher=4&amp;token=910820738640559462371283192</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>正常返回</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>正常返回</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>{
  "token":"910820738640559462371283192",
-    "tid": "4",            
-    "type":"0",              
-    "oatagsId":"1",  
-    "content":"我生病了，需要治疗",      
+    "oatagsIds":[1,2]
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>单表新增没问题，需要同时维护oa_examine_result表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当新增事项时会根据事项模板规则中的审批人生成每个审批人的审批信息，这个时候我的审批事项就可以获取到相应教师的待审核信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>待测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要有我的审批事项</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所有教工新增后会建立和默认标签的关联labelId=0</t>
+    <t>{
+ "token":"910820738640559462371283192",
+    "oaruleIdS":[1,2,3]
+}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2872,7 +2921,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2935,13 +2984,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
@@ -2951,7 +2993,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3003,6 +3045,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3159,17 +3207,10 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3177,6 +3218,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3771,10 +3818,10 @@
   <dimension ref="A1:AJ168"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="G23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L43" sqref="L43"/>
+      <selection pane="bottomRight" activeCell="I52" sqref="I52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3790,7 +3837,7 @@
     <col min="9" max="9" width="17.125" style="18" customWidth="1"/>
     <col min="10" max="10" width="31.625" style="15" customWidth="1"/>
     <col min="11" max="11" width="11.75" style="15" customWidth="1"/>
-    <col min="12" max="12" width="20.375" style="26" customWidth="1"/>
+    <col min="12" max="12" width="20.375" style="25" customWidth="1"/>
     <col min="13" max="13" width="12.5" style="19" customWidth="1"/>
     <col min="14" max="14" width="23.625" style="2" customWidth="1"/>
     <col min="15" max="16384" width="9" style="1"/>
@@ -3798,46 +3845,46 @@
   <sheetData>
     <row r="1" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>327</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>384</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>410</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>348</v>
+      </c>
+      <c r="K1" s="15" t="s">
+        <v>381</v>
+      </c>
+      <c r="L1" s="25" t="s">
+        <v>382</v>
+      </c>
+      <c r="M1" s="19" t="s">
         <v>328</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>327</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>326</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>329</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>392</v>
-      </c>
-      <c r="I1" s="18" t="s">
-        <v>422</v>
-      </c>
-      <c r="J1" s="15" t="s">
-        <v>352</v>
-      </c>
-      <c r="K1" s="15" t="s">
-        <v>389</v>
-      </c>
-      <c r="L1" s="26" t="s">
-        <v>390</v>
-      </c>
-      <c r="M1" s="19" t="s">
-        <v>330</v>
-      </c>
       <c r="N1" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="2" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -3845,225 +3892,225 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="3" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D3" s="5" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>538</v>
+        <v>508</v>
       </c>
       <c r="I3" s="18" t="s">
-        <v>541</v>
+        <v>510</v>
       </c>
       <c r="K3" s="15">
         <v>404</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="4" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D4" s="5" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="5" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D5" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="I5" s="18" t="s">
-        <v>541</v>
+        <v>510</v>
       </c>
       <c r="J5" s="15" t="s">
-        <v>537</v>
+        <v>507</v>
       </c>
       <c r="K5" s="15">
         <v>404</v>
       </c>
       <c r="AH5" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="AI5" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="AJ5" s="1" t="s">
         <v>336</v>
-      </c>
-      <c r="AJ5" s="1" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="6" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C6" s="5" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="I6" s="18" t="s">
-        <v>541</v>
+        <v>510</v>
       </c>
       <c r="K6" s="15" t="s">
-        <v>536</v>
+        <v>506</v>
       </c>
       <c r="AH6" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="AI6" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AJ6" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="7" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D7" s="5" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="I7" s="18" t="s">
-        <v>541</v>
+        <v>510</v>
       </c>
       <c r="K7" s="15" t="s">
-        <v>536</v>
+        <v>506</v>
       </c>
       <c r="AI7" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="8" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D8" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="I8" s="18" t="s">
-        <v>541</v>
+        <v>510</v>
       </c>
       <c r="K8" s="15" t="s">
-        <v>536</v>
+        <v>506</v>
       </c>
     </row>
     <row r="9" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D9" s="5" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="I9" s="18" t="s">
-        <v>541</v>
+        <v>510</v>
       </c>
       <c r="K9" s="15" t="s">
-        <v>535</v>
+        <v>505</v>
       </c>
     </row>
     <row r="10" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D10" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="11" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D11" s="5" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="H11" s="18" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="I11" s="18" t="s">
-        <v>421</v>
-      </c>
-      <c r="L11" s="26" t="s">
-        <v>376</v>
+        <v>409</v>
+      </c>
+      <c r="L11" s="25" t="s">
+        <v>368</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="12" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D12" s="5" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="H12" s="18" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="I12" s="18" t="s">
-        <v>431</v>
-      </c>
-      <c r="L12" s="26" t="s">
-        <v>377</v>
+        <v>417</v>
+      </c>
+      <c r="L12" s="25" t="s">
+        <v>369</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="13" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4071,208 +4118,214 @@
         <v>2</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="I13" s="18" t="s">
-        <v>534</v>
+        <v>504</v>
       </c>
       <c r="J13" s="15" t="s">
-        <v>532</v>
+        <v>502</v>
       </c>
       <c r="K13" s="15" t="s">
-        <v>533</v>
+        <v>503</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="14" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D14" s="5" t="s">
-        <v>292</v>
+        <v>550</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>191</v>
+        <v>551</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>528</v>
+        <v>571</v>
       </c>
       <c r="G14" s="18" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="I14" s="18" t="s">
-        <v>531</v>
+        <v>552</v>
       </c>
       <c r="J14" s="15" t="s">
-        <v>529</v>
+        <v>553</v>
       </c>
       <c r="K14" s="15" t="s">
-        <v>530</v>
+        <v>554</v>
+      </c>
+      <c r="L14" s="28" t="s">
+        <v>555</v>
       </c>
     </row>
     <row r="15" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D15" s="5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G15" s="18" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="K15" s="15" t="s">
-        <v>449</v>
+        <v>434</v>
       </c>
     </row>
     <row r="16" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D16" s="5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G16" s="18" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="I16" s="18" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="J16" s="15" t="s">
-        <v>527</v>
+        <v>572</v>
       </c>
       <c r="K16" s="15" t="s">
-        <v>526</v>
+        <v>501</v>
+      </c>
+      <c r="L16" s="29" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D17" s="5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G17" s="18" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="K17" s="15" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D18" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C19" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F19" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G19" s="18" t="s">
-        <v>331</v>
-      </c>
-      <c r="J19" s="23" t="s">
-        <v>353</v>
+        <v>329</v>
+      </c>
+      <c r="J19" s="15" t="s">
+        <v>543</v>
       </c>
       <c r="K19" s="16" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D20" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F20" s="21" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="G20" s="18" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="J20" s="15" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="K20" s="15" t="s">
-        <v>360</v>
-      </c>
-      <c r="L20" s="26" t="s">
-        <v>499</v>
+        <v>354</v>
+      </c>
+      <c r="L20" s="25" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D21" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F21" s="21" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G21" s="18" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="J21" s="15" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="K21" s="15" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D22" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F22" s="21" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G22" s="18" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="J22" s="15" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="K22" s="15" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4280,654 +4333,657 @@
         <v>3</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>556</v>
+        <v>522</v>
       </c>
       <c r="J23" s="15" t="s">
-        <v>557</v>
+        <v>523</v>
       </c>
       <c r="K23" s="15" t="s">
-        <v>554</v>
-      </c>
-      <c r="L23" s="26" t="s">
-        <v>555</v>
+        <v>520</v>
+      </c>
+      <c r="L23" s="25" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D24" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J24" s="15" t="s">
-        <v>552</v>
+        <v>518</v>
       </c>
       <c r="K24" s="15" t="s">
-        <v>554</v>
-      </c>
-      <c r="L24" s="26" t="s">
-        <v>555</v>
+        <v>520</v>
+      </c>
+      <c r="L24" s="25" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D25" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>549</v>
+        <v>515</v>
       </c>
       <c r="G25" s="18" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="I25" s="18" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="J25" s="15" t="s">
-        <v>550</v>
+        <v>516</v>
       </c>
       <c r="K25" s="15" t="s">
-        <v>553</v>
-      </c>
-      <c r="L25" s="26" t="s">
-        <v>551</v>
+        <v>519</v>
+      </c>
+      <c r="L25" s="25" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D26" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>546</v>
+        <v>512</v>
       </c>
       <c r="G26" s="18" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="J26" s="15" t="s">
-        <v>547</v>
+        <v>513</v>
       </c>
       <c r="K26" s="15" t="s">
-        <v>548</v>
+        <v>514</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D27" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>543</v>
+        <v>574</v>
       </c>
       <c r="G27" s="18" t="s">
-        <v>331</v>
-      </c>
-      <c r="I27" s="18" t="s">
-        <v>531</v>
+        <v>329</v>
       </c>
       <c r="J27" s="15" t="s">
-        <v>544</v>
+        <v>573</v>
       </c>
       <c r="K27" s="15" t="s">
-        <v>545</v>
+        <v>557</v>
+      </c>
+      <c r="L27" s="29" t="s">
+        <v>559</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D28" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G28" s="18" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="I28" s="18" t="s">
-        <v>540</v>
+        <v>560</v>
       </c>
       <c r="J28" s="15" t="s">
-        <v>539</v>
+        <v>561</v>
       </c>
       <c r="K28" s="15">
         <v>404</v>
       </c>
+      <c r="L28" s="29" t="s">
+        <v>562</v>
+      </c>
     </row>
     <row r="29" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D29" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G29" s="18" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="I29" s="18" t="s">
-        <v>540</v>
+        <v>509</v>
       </c>
       <c r="K29" s="15" t="s">
-        <v>536</v>
+        <v>506</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D30" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G30" s="18" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="I30" s="18" t="s">
-        <v>540</v>
+        <v>509</v>
       </c>
       <c r="K30" s="15" t="s">
-        <v>542</v>
+        <v>511</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D31" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D32" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="33" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D33" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G33" s="18" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="K33" s="15" t="s">
-        <v>554</v>
-      </c>
-      <c r="L33" s="26" t="s">
-        <v>555</v>
+        <v>520</v>
+      </c>
+      <c r="L33" s="25" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="34" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C34" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F34" s="21" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G34" s="18" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="J34" s="15" t="s">
-        <v>480</v>
+        <v>465</v>
       </c>
       <c r="K34" s="15" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
     </row>
     <row r="35" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D35" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F35" s="21" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G35" s="18" t="s">
-        <v>331</v>
-      </c>
-      <c r="I35" s="18" t="s">
-        <v>455</v>
+        <v>329</v>
       </c>
       <c r="J35" s="15" t="s">
-        <v>481</v>
+        <v>563</v>
       </c>
       <c r="K35" s="15" t="s">
-        <v>482</v>
+        <v>566</v>
+      </c>
+      <c r="L35" s="29" t="s">
+        <v>565</v>
       </c>
     </row>
     <row r="36" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D36" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F36" s="21" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G36" s="18" t="s">
-        <v>331</v>
-      </c>
-      <c r="I36" s="18" t="s">
-        <v>456</v>
+        <v>329</v>
       </c>
       <c r="J36" s="15" t="s">
-        <v>483</v>
+        <v>564</v>
       </c>
       <c r="K36" s="15" t="s">
-        <v>484</v>
+        <v>466</v>
+      </c>
+      <c r="L36" s="29" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="37" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C37" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F37" s="21" t="s">
-        <v>485</v>
+        <v>467</v>
       </c>
       <c r="G37" s="18" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="K37" s="15" t="s">
-        <v>486</v>
+        <v>468</v>
       </c>
     </row>
     <row r="38" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D38" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F38" s="21" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G38" s="18" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="J38" s="15" t="s">
-        <v>487</v>
+        <v>469</v>
       </c>
       <c r="K38" s="15" t="s">
-        <v>486</v>
+        <v>468</v>
       </c>
     </row>
     <row r="39" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D39" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F39" s="21" t="s">
-        <v>254</v>
+        <v>568</v>
       </c>
       <c r="G39" s="18" t="s">
-        <v>331</v>
-      </c>
-      <c r="I39" s="18" t="s">
-        <v>421</v>
+        <v>329</v>
       </c>
       <c r="J39" s="15" t="s">
-        <v>488</v>
+        <v>575</v>
       </c>
       <c r="K39" s="15" t="s">
-        <v>489</v>
+        <v>569</v>
+      </c>
+      <c r="L39" s="29" t="s">
+        <v>558</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="40" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C40" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="K40" s="15" t="s">
-        <v>561</v>
+        <v>527</v>
       </c>
     </row>
     <row r="41" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D41" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>558</v>
+        <v>524</v>
       </c>
       <c r="G41" s="18" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="I41" s="18" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="J41" s="15" t="s">
-        <v>562</v>
+        <v>528</v>
       </c>
       <c r="K41" s="15" t="s">
-        <v>563</v>
-      </c>
-      <c r="L41" s="26" t="s">
-        <v>564</v>
+        <v>529</v>
+      </c>
+      <c r="L41" s="25" t="s">
+        <v>530</v>
       </c>
     </row>
     <row r="42" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D42" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G42" s="18" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="K42" s="15" t="s">
-        <v>560</v>
+        <v>526</v>
       </c>
     </row>
     <row r="43" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D43" s="5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G43" s="18" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="J43" s="15" t="s">
-        <v>559</v>
+        <v>525</v>
       </c>
       <c r="K43" s="15" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
     </row>
     <row r="44" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D44" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G44" s="18" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="K44" s="15" t="s">
-        <v>565</v>
-      </c>
-      <c r="L44" s="26" t="s">
-        <v>566</v>
+        <v>531</v>
+      </c>
+      <c r="L44" s="25" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="45" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C45" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F45" s="21" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J45" s="15" t="s">
-        <v>494</v>
+        <v>471</v>
       </c>
       <c r="K45" s="15" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
     </row>
     <row r="46" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D46" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F46" s="21" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G46" s="18" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="K46" s="15" t="s">
-        <v>449</v>
+        <v>434</v>
       </c>
     </row>
     <row r="47" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D47" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F47" s="21" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G47" s="18" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="J47" s="15" t="s">
-        <v>490</v>
+        <v>470</v>
       </c>
       <c r="K47" s="15" t="s">
-        <v>450</v>
+        <v>435</v>
       </c>
     </row>
     <row r="48" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D48" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F48" s="21" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G48" s="18" t="s">
-        <v>331</v>
-      </c>
-      <c r="I48" s="18" t="s">
-        <v>493</v>
+        <v>329</v>
       </c>
       <c r="J48" s="15" t="s">
-        <v>491</v>
+        <v>576</v>
       </c>
       <c r="K48" s="15" t="s">
-        <v>492</v>
+        <v>569</v>
+      </c>
+      <c r="L48" s="29" t="s">
+        <v>558</v>
       </c>
     </row>
     <row r="49" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C49" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F49" s="21" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H49" s="18" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="J49" s="15" t="s">
-        <v>498</v>
+        <v>474</v>
       </c>
       <c r="K49" s="15" t="s">
-        <v>449</v>
-      </c>
-      <c r="L49" s="26" t="s">
-        <v>378</v>
+        <v>434</v>
+      </c>
+      <c r="L49" s="25" t="s">
+        <v>370</v>
       </c>
       <c r="N49" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="50" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D50" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F50" s="21" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G50" s="18" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="J50" s="15" t="s">
-        <v>495</v>
+        <v>472</v>
       </c>
       <c r="K50" s="15" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
     </row>
     <row r="51" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D51" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F51" s="21" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G51" s="18" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="J51" s="15" t="s">
-        <v>496</v>
+        <v>473</v>
       </c>
       <c r="K51" s="15" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
     </row>
     <row r="52" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D52" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F52" s="21" t="s">
-        <v>229</v>
+        <v>570</v>
       </c>
       <c r="G52" s="18" t="s">
-        <v>331</v>
-      </c>
-      <c r="I52" s="18" t="s">
-        <v>456</v>
+        <v>329</v>
       </c>
       <c r="J52" s="15" t="s">
-        <v>497</v>
+        <v>577</v>
       </c>
       <c r="K52" s="15" t="s">
-        <v>492</v>
+        <v>569</v>
+      </c>
+      <c r="L52" s="29" t="s">
+        <v>558</v>
       </c>
     </row>
     <row r="53" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D53" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="54" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D54" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="55" spans="1:14" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4935,80 +4991,80 @@
         <v>4</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G55" s="18"/>
       <c r="H55" s="18"/>
       <c r="I55" s="18"/>
       <c r="J55" s="15"/>
       <c r="K55" s="15"/>
-      <c r="L55" s="26"/>
+      <c r="L55" s="25"/>
       <c r="M55" s="19"/>
       <c r="N55" s="2"/>
     </row>
     <row r="56" spans="1:14" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="6"/>
       <c r="D56" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F56" s="12" t="s">
-        <v>464</v>
+        <v>449</v>
       </c>
       <c r="G56" s="18" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H56" s="18" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I56" s="18" t="s">
-        <v>431</v>
+        <v>417</v>
       </c>
       <c r="J56" s="15" t="s">
-        <v>465</v>
+        <v>450</v>
       </c>
       <c r="K56" s="15" t="s">
-        <v>466</v>
-      </c>
-      <c r="L56" s="26" t="s">
-        <v>379</v>
+        <v>451</v>
+      </c>
+      <c r="L56" s="25" t="s">
+        <v>371</v>
       </c>
       <c r="M56" s="19"/>
       <c r="N56" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="57" spans="1:14" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="6"/>
       <c r="D57" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G57" s="18"/>
       <c r="H57" s="18"/>
       <c r="I57" s="18"/>
       <c r="J57" s="15"/>
       <c r="K57" s="15"/>
-      <c r="L57" s="26"/>
+      <c r="L57" s="25"/>
       <c r="M57" s="19"/>
       <c r="N57" s="2"/>
     </row>
@@ -5016,38 +5072,38 @@
       <c r="A58" s="6"/>
       <c r="B58" s="5"/>
       <c r="C58" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F58" s="12" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G58" s="18" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H58" s="18" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I58" s="18" t="s">
-        <v>431</v>
+        <v>417</v>
       </c>
       <c r="J58" s="15" t="s">
-        <v>467</v>
+        <v>452</v>
       </c>
       <c r="K58" s="15" t="s">
-        <v>468</v>
-      </c>
-      <c r="L58" s="26" t="s">
-        <v>378</v>
+        <v>453</v>
+      </c>
+      <c r="L58" s="25" t="s">
+        <v>370</v>
       </c>
       <c r="M58" s="19"/>
       <c r="N58" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="59" spans="1:14" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5055,20 +5111,20 @@
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
       <c r="D59" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G59" s="18"/>
       <c r="H59" s="18"/>
       <c r="I59" s="18"/>
       <c r="J59" s="15"/>
       <c r="K59" s="15"/>
-      <c r="L59" s="26"/>
+      <c r="L59" s="25"/>
       <c r="M59" s="19"/>
       <c r="N59" s="2"/>
     </row>
@@ -5077,28 +5133,28 @@
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
       <c r="D60" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>469</v>
+        <v>454</v>
       </c>
       <c r="G60" s="18" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H60" s="18"/>
       <c r="I60" s="18" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="J60" s="15" t="s">
-        <v>470</v>
+        <v>455</v>
       </c>
       <c r="K60" s="15" t="s">
-        <v>471</v>
-      </c>
-      <c r="L60" s="26"/>
+        <v>456</v>
+      </c>
+      <c r="L60" s="25"/>
       <c r="M60" s="19"/>
       <c r="N60" s="2"/>
     </row>
@@ -5107,33 +5163,33 @@
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
       <c r="D61" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F61" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G61" s="18" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H61" s="18" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I61" s="18" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="J61" s="15"/>
       <c r="K61" s="15" t="s">
-        <v>472</v>
-      </c>
-      <c r="L61" s="26" t="s">
-        <v>380</v>
+        <v>457</v>
+      </c>
+      <c r="L61" s="25" t="s">
+        <v>372</v>
       </c>
       <c r="M61" s="19"/>
       <c r="N61" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="62" spans="1:14" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5141,33 +5197,33 @@
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
       <c r="D62" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F62" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G62" s="18" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H62" s="18" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I62" s="18" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="J62" s="15"/>
       <c r="K62" s="15" t="s">
-        <v>473</v>
-      </c>
-      <c r="L62" s="26" t="s">
-        <v>381</v>
+        <v>458</v>
+      </c>
+      <c r="L62" s="25" t="s">
+        <v>373</v>
       </c>
       <c r="M62" s="19"/>
       <c r="N62" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="63" spans="1:14" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5175,33 +5231,33 @@
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
       <c r="D63" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F63" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G63" s="18" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H63" s="18" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I63" s="18" t="s">
-        <v>431</v>
+        <v>417</v>
       </c>
       <c r="J63" s="15"/>
       <c r="K63" s="15" t="s">
-        <v>474</v>
-      </c>
-      <c r="L63" s="26" t="s">
-        <v>380</v>
+        <v>459</v>
+      </c>
+      <c r="L63" s="25" t="s">
+        <v>372</v>
       </c>
       <c r="M63" s="19"/>
       <c r="N63" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="64" spans="1:14" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5209,20 +5265,20 @@
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
       <c r="D64" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G64" s="18"/>
       <c r="H64" s="18"/>
       <c r="I64" s="18"/>
       <c r="J64" s="15"/>
       <c r="K64" s="15"/>
-      <c r="L64" s="26"/>
+      <c r="L64" s="25"/>
       <c r="M64" s="19"/>
       <c r="N64" s="2"/>
     </row>
@@ -5231,20 +5287,20 @@
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
       <c r="D65" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G65" s="18"/>
       <c r="H65" s="18"/>
       <c r="I65" s="18"/>
       <c r="J65" s="15"/>
       <c r="K65" s="15"/>
-      <c r="L65" s="26"/>
+      <c r="L65" s="25"/>
       <c r="M65" s="19"/>
       <c r="N65" s="2"/>
     </row>
@@ -5252,28 +5308,28 @@
       <c r="A66" s="6"/>
       <c r="B66" s="5"/>
       <c r="C66" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F66" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G66" s="18"/>
       <c r="H66" s="18"/>
       <c r="I66" s="18"/>
       <c r="J66" s="15"/>
       <c r="K66" s="15" t="s">
-        <v>522</v>
-      </c>
-      <c r="L66" s="26"/>
+        <v>498</v>
+      </c>
+      <c r="L66" s="25"/>
       <c r="M66" s="19"/>
       <c r="N66" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="67" spans="1:14" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5281,25 +5337,25 @@
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
       <c r="D67" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F67" s="12" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G67" s="18"/>
       <c r="H67" s="18"/>
       <c r="I67" s="18"/>
       <c r="J67" s="15"/>
       <c r="K67" s="15" t="s">
-        <v>522</v>
-      </c>
-      <c r="L67" s="26"/>
+        <v>498</v>
+      </c>
+      <c r="L67" s="25"/>
       <c r="M67" s="19"/>
       <c r="N67" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="68" spans="1:14" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5307,27 +5363,27 @@
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
       <c r="D68" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F68" s="21" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G68" s="18"/>
       <c r="H68" s="18" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I68" s="18" t="s">
-        <v>431</v>
+        <v>417</v>
       </c>
       <c r="J68" s="15"/>
       <c r="K68" s="15" t="s">
-        <v>522</v>
-      </c>
-      <c r="L68" s="26" t="s">
-        <v>378</v>
+        <v>498</v>
+      </c>
+      <c r="L68" s="25" t="s">
+        <v>370</v>
       </c>
       <c r="M68" s="19"/>
       <c r="N68" s="2" t="s">
@@ -5339,33 +5395,33 @@
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
       <c r="D69" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F69" s="21" t="s">
-        <v>475</v>
+        <v>460</v>
       </c>
       <c r="G69" s="18"/>
       <c r="H69" s="18" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I69" s="18" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="J69" s="15" t="s">
-        <v>476</v>
+        <v>461</v>
       </c>
       <c r="K69" s="15" t="s">
-        <v>477</v>
-      </c>
-      <c r="L69" s="26" t="s">
-        <v>378</v>
+        <v>462</v>
+      </c>
+      <c r="L69" s="25" t="s">
+        <v>370</v>
       </c>
       <c r="M69" s="19"/>
       <c r="N69" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="70" spans="1:14" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5373,25 +5429,25 @@
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
       <c r="D70" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F70" s="21" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G70" s="18"/>
       <c r="H70" s="18"/>
       <c r="I70" s="18"/>
       <c r="J70" s="15"/>
       <c r="K70" s="15" t="s">
-        <v>478</v>
-      </c>
-      <c r="L70" s="26"/>
+        <v>463</v>
+      </c>
+      <c r="L70" s="25"/>
       <c r="M70" s="19"/>
       <c r="N70" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="71" spans="1:14" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5399,31 +5455,31 @@
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
       <c r="D71" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F71" s="21" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G71" s="18"/>
       <c r="H71" s="18" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I71" s="18" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="J71" s="15"/>
       <c r="K71" s="15" t="s">
-        <v>472</v>
-      </c>
-      <c r="L71" s="26" t="s">
-        <v>382</v>
+        <v>457</v>
+      </c>
+      <c r="L71" s="25" t="s">
+        <v>374</v>
       </c>
       <c r="M71" s="19"/>
       <c r="N71" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="72" spans="1:14" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5431,31 +5487,31 @@
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
       <c r="D72" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F72" s="13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G72" s="18"/>
       <c r="H72" s="18" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="I72" s="18" t="s">
-        <v>434</v>
+        <v>420</v>
       </c>
       <c r="J72" s="15"/>
       <c r="K72" s="15" t="s">
-        <v>478</v>
-      </c>
-      <c r="L72" s="26" t="s">
-        <v>378</v>
+        <v>463</v>
+      </c>
+      <c r="L72" s="25" t="s">
+        <v>370</v>
       </c>
       <c r="M72" s="19"/>
       <c r="N72" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="73" spans="1:14" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5463,31 +5519,31 @@
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
       <c r="D73" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F73" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G73" s="18"/>
       <c r="H73" s="18" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="I73" s="18" t="s">
-        <v>431</v>
+        <v>417</v>
       </c>
       <c r="J73" s="15"/>
       <c r="K73" s="15" t="s">
-        <v>478</v>
-      </c>
-      <c r="L73" s="26" t="s">
-        <v>380</v>
+        <v>463</v>
+      </c>
+      <c r="L73" s="25" t="s">
+        <v>372</v>
       </c>
       <c r="M73" s="19"/>
       <c r="N73" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="74" spans="1:14" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5495,31 +5551,31 @@
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
       <c r="D74" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F74" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G74" s="18"/>
       <c r="H74" s="18" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="I74" s="18" t="s">
-        <v>431</v>
+        <v>417</v>
       </c>
       <c r="J74" s="15"/>
       <c r="K74" s="15" t="s">
-        <v>478</v>
-      </c>
-      <c r="L74" s="26" t="s">
-        <v>378</v>
+        <v>463</v>
+      </c>
+      <c r="L74" s="25" t="s">
+        <v>370</v>
       </c>
       <c r="M74" s="19"/>
       <c r="N74" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="75" spans="1:14" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5527,54 +5583,54 @@
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
       <c r="D75" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F75" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G75" s="18"/>
       <c r="H75" s="18" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="I75" s="18" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="J75" s="15"/>
       <c r="K75" s="15" t="s">
-        <v>479</v>
-      </c>
-      <c r="L75" s="26" t="s">
-        <v>380</v>
+        <v>464</v>
+      </c>
+      <c r="L75" s="25" t="s">
+        <v>372</v>
       </c>
       <c r="M75" s="19"/>
       <c r="N75" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="76" spans="1:14" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="6"/>
       <c r="B76" s="5"/>
       <c r="C76" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E76" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G76" s="18"/>
       <c r="H76" s="18"/>
       <c r="I76" s="18"/>
       <c r="J76" s="15"/>
       <c r="K76" s="15"/>
-      <c r="L76" s="26"/>
+      <c r="L76" s="25"/>
       <c r="M76" s="19"/>
       <c r="N76" s="2"/>
     </row>
@@ -5583,27 +5639,27 @@
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
       <c r="D77" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E77" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F77" s="21" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G77" s="18"/>
       <c r="H77" s="18" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I77" s="18" t="s">
-        <v>433</v>
+        <v>419</v>
       </c>
       <c r="J77" s="15"/>
       <c r="K77" s="15" t="s">
-        <v>478</v>
-      </c>
-      <c r="L77" s="26" t="s">
-        <v>378</v>
+        <v>463</v>
+      </c>
+      <c r="L77" s="25" t="s">
+        <v>370</v>
       </c>
       <c r="M77" s="19"/>
       <c r="N77" s="2" t="s">
@@ -5615,27 +5671,27 @@
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
       <c r="D78" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E78" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F78" s="21" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G78" s="18"/>
       <c r="H78" s="18" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I78" s="18" t="s">
-        <v>433</v>
+        <v>419</v>
       </c>
       <c r="J78" s="15"/>
       <c r="K78" s="15" t="s">
-        <v>472</v>
-      </c>
-      <c r="L78" s="26" t="s">
-        <v>378</v>
+        <v>457</v>
+      </c>
+      <c r="L78" s="25" t="s">
+        <v>370</v>
       </c>
       <c r="M78" s="19"/>
       <c r="N78" s="2" t="s">
@@ -5647,27 +5703,27 @@
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
       <c r="D79" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E79" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F79" s="21" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G79" s="18"/>
       <c r="H79" s="18" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I79" s="18" t="s">
-        <v>432</v>
+        <v>418</v>
       </c>
       <c r="J79" s="15"/>
       <c r="K79" s="15" t="s">
-        <v>478</v>
-      </c>
-      <c r="L79" s="26" t="s">
-        <v>378</v>
+        <v>463</v>
+      </c>
+      <c r="L79" s="25" t="s">
+        <v>370</v>
       </c>
       <c r="M79" s="19"/>
       <c r="N79" s="2" t="s">
@@ -5679,20 +5735,20 @@
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
       <c r="D80" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F80" s="21" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G80" s="18"/>
       <c r="H80" s="18"/>
       <c r="I80" s="18"/>
       <c r="J80" s="15"/>
       <c r="K80" s="15"/>
-      <c r="L80" s="26"/>
+      <c r="L80" s="25"/>
       <c r="M80" s="19"/>
       <c r="N80" s="2"/>
     </row>
@@ -5701,23 +5757,23 @@
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
       <c r="D81" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E81" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F81" s="21" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G81" s="18"/>
       <c r="H81" s="18"/>
       <c r="I81" s="18"/>
       <c r="J81" s="15"/>
       <c r="K81" s="15"/>
-      <c r="L81" s="26"/>
+      <c r="L81" s="25"/>
       <c r="M81" s="19"/>
       <c r="N81" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="82" spans="1:14" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5725,20 +5781,20 @@
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
       <c r="D82" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E82" s="4" t="s">
         <v>1</v>
       </c>
       <c r="F82" s="21" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G82" s="18"/>
       <c r="H82" s="18"/>
       <c r="I82" s="18"/>
       <c r="J82" s="15"/>
       <c r="K82" s="15"/>
-      <c r="L82" s="26"/>
+      <c r="L82" s="25"/>
       <c r="M82" s="19"/>
       <c r="N82" s="2"/>
     </row>
@@ -5747,24 +5803,24 @@
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
       <c r="D83" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E83" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G83" s="18"/>
       <c r="H83" s="18"/>
       <c r="I83" s="18" t="s">
-        <v>456</v>
+        <v>441</v>
       </c>
       <c r="J83" s="15"/>
       <c r="K83" s="15" t="s">
-        <v>479</v>
-      </c>
-      <c r="L83" s="26"/>
+        <v>464</v>
+      </c>
+      <c r="L83" s="25"/>
       <c r="M83" s="19"/>
       <c r="N83" s="2"/>
     </row>
@@ -5773,30 +5829,30 @@
         <v>5</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E84" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G84" s="18" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="H84" s="18"/>
       <c r="I84" s="18"/>
       <c r="J84" s="15"/>
       <c r="K84" s="15" t="s">
-        <v>522</v>
-      </c>
-      <c r="L84" s="26"/>
+        <v>498</v>
+      </c>
+      <c r="L84" s="25"/>
       <c r="M84" s="19"/>
       <c r="N84" s="2"/>
     </row>
@@ -5804,34 +5860,34 @@
       <c r="A85" s="6"/>
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
-      <c r="D85" s="29" t="s">
-        <v>163</v>
+      <c r="D85" s="27" t="s">
+        <v>162</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F85" s="12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G85" s="18" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="H85" s="18" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I85" s="18" t="s">
-        <v>431</v>
+        <v>417</v>
       </c>
       <c r="J85" s="15"/>
       <c r="K85" s="15" t="s">
-        <v>522</v>
-      </c>
-      <c r="L85" s="26" t="s">
-        <v>378</v>
+        <v>498</v>
+      </c>
+      <c r="L85" s="25" t="s">
+        <v>370</v>
       </c>
       <c r="M85" s="19"/>
       <c r="N85" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="86" spans="1:14" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5839,22 +5895,22 @@
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
       <c r="D86" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E86" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G86" s="18" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H86" s="18"/>
       <c r="I86" s="18"/>
       <c r="J86" s="15"/>
       <c r="K86" s="15"/>
-      <c r="L86" s="26"/>
+      <c r="L86" s="25"/>
       <c r="M86" s="19"/>
       <c r="N86" s="2"/>
     </row>
@@ -5862,25 +5918,25 @@
       <c r="A87" s="6"/>
       <c r="B87" s="5"/>
       <c r="C87" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E87" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G87" s="18" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H87" s="18"/>
       <c r="I87" s="18"/>
       <c r="J87" s="15"/>
       <c r="K87" s="15"/>
-      <c r="L87" s="26"/>
+      <c r="L87" s="25"/>
       <c r="M87" s="19"/>
       <c r="N87" s="2"/>
     </row>
@@ -5889,22 +5945,22 @@
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
       <c r="D88" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G88" s="18" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H88" s="18"/>
       <c r="I88" s="18"/>
       <c r="J88" s="15"/>
       <c r="K88" s="15"/>
-      <c r="L88" s="26"/>
+      <c r="L88" s="25"/>
       <c r="M88" s="19"/>
       <c r="N88" s="2"/>
     </row>
@@ -5913,22 +5969,22 @@
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
       <c r="D89" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E89" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G89" s="18" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H89" s="18"/>
       <c r="I89" s="18"/>
       <c r="J89" s="15"/>
       <c r="K89" s="15"/>
-      <c r="L89" s="26"/>
+      <c r="L89" s="25"/>
       <c r="M89" s="19"/>
       <c r="N89" s="2"/>
     </row>
@@ -5937,22 +5993,22 @@
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
       <c r="D90" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E90" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G90" s="18" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H90" s="18"/>
       <c r="I90" s="18"/>
       <c r="J90" s="15"/>
       <c r="K90" s="15"/>
-      <c r="L90" s="26"/>
+      <c r="L90" s="25"/>
       <c r="M90" s="19"/>
       <c r="N90" s="2"/>
     </row>
@@ -5960,32 +6016,32 @@
       <c r="A91" s="6"/>
       <c r="B91" s="5"/>
       <c r="C91" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="D91" s="29" t="s">
         <v>150</v>
+      </c>
+      <c r="D91" s="27" t="s">
+        <v>149</v>
       </c>
       <c r="E91" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F91" s="12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G91" s="18" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="H91" s="18" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I91" s="18" t="s">
-        <v>431</v>
+        <v>417</v>
       </c>
       <c r="J91" s="15"/>
       <c r="K91" s="15" t="s">
-        <v>522</v>
-      </c>
-      <c r="L91" s="26" t="s">
-        <v>383</v>
+        <v>498</v>
+      </c>
+      <c r="L91" s="25" t="s">
+        <v>375</v>
       </c>
       <c r="M91" s="19"/>
       <c r="N91" s="2" t="s">
@@ -5996,30 +6052,30 @@
       <c r="A92" s="6"/>
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
-      <c r="D92" s="29" t="s">
-        <v>149</v>
+      <c r="D92" s="27" t="s">
+        <v>148</v>
       </c>
       <c r="E92" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F92" s="12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G92" s="18" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="H92" s="18" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I92" s="18" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="J92" s="15"/>
       <c r="K92" s="15" t="s">
-        <v>521</v>
-      </c>
-      <c r="L92" s="26" t="s">
-        <v>378</v>
+        <v>497</v>
+      </c>
+      <c r="L92" s="25" t="s">
+        <v>370</v>
       </c>
       <c r="M92" s="19"/>
       <c r="N92" s="2" t="s">
@@ -6028,30 +6084,30 @@
     </row>
     <row r="93" spans="1:14" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="6"/>
-      <c r="D93" s="29" t="s">
-        <v>147</v>
+      <c r="D93" s="27" t="s">
+        <v>146</v>
       </c>
       <c r="E93" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F93" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G93" s="18" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="H93" s="18" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I93" s="18" t="s">
-        <v>431</v>
+        <v>417</v>
       </c>
       <c r="J93" s="15"/>
       <c r="K93" s="15" t="s">
-        <v>522</v>
-      </c>
-      <c r="L93" s="26" t="s">
-        <v>378</v>
+        <v>498</v>
+      </c>
+      <c r="L93" s="25" t="s">
+        <v>370</v>
       </c>
       <c r="M93" s="19"/>
       <c r="N93" s="2" t="s">
@@ -6061,47 +6117,47 @@
     <row r="94" spans="1:14" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="6"/>
       <c r="C94" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E94" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G94" s="18" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H94" s="18"/>
       <c r="I94" s="18"/>
       <c r="J94" s="15"/>
       <c r="K94" s="15"/>
-      <c r="L94" s="26"/>
+      <c r="L94" s="25"/>
       <c r="M94" s="19"/>
       <c r="N94" s="2"/>
     </row>
     <row r="95" spans="1:14" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="6"/>
       <c r="D95" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E95" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G95" s="18" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H95" s="18"/>
       <c r="I95" s="18"/>
       <c r="J95" s="15"/>
       <c r="K95" s="15"/>
-      <c r="L95" s="26"/>
+      <c r="L95" s="25"/>
       <c r="M95" s="19"/>
       <c r="N95" s="2"/>
     </row>
@@ -6110,188 +6166,188 @@
         <v>6</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E96" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>503</v>
+        <v>479</v>
       </c>
       <c r="G96" s="18" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H96" s="18"/>
       <c r="I96" s="18"/>
       <c r="J96" s="15" t="s">
-        <v>504</v>
+        <v>480</v>
       </c>
       <c r="K96" s="15" t="s">
-        <v>505</v>
-      </c>
-      <c r="L96" s="26"/>
+        <v>481</v>
+      </c>
+      <c r="L96" s="25"/>
       <c r="M96" s="19"/>
       <c r="N96" s="2"/>
     </row>
     <row r="97" spans="1:14" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="6"/>
       <c r="D97" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G97" s="18" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H97" s="18"/>
       <c r="I97" s="18"/>
       <c r="J97" s="15"/>
       <c r="K97" s="15"/>
-      <c r="L97" s="26"/>
+      <c r="L97" s="25"/>
       <c r="M97" s="19"/>
       <c r="N97" s="2"/>
     </row>
     <row r="98" spans="1:14" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="6"/>
       <c r="D98" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E98" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>500</v>
+        <v>476</v>
       </c>
       <c r="G98" s="18" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H98" s="18"/>
       <c r="I98" s="18" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="J98" s="15" t="s">
-        <v>501</v>
+        <v>477</v>
       </c>
       <c r="K98" s="15" t="s">
-        <v>502</v>
-      </c>
-      <c r="L98" s="26"/>
+        <v>478</v>
+      </c>
+      <c r="L98" s="25"/>
       <c r="M98" s="19"/>
       <c r="N98" s="2"/>
     </row>
     <row r="99" spans="1:14" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="6"/>
       <c r="D99" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E99" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G99" s="18" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H99" s="18"/>
       <c r="I99" s="18"/>
       <c r="J99" s="15"/>
       <c r="K99" s="15" t="s">
-        <v>478</v>
-      </c>
-      <c r="L99" s="26"/>
+        <v>463</v>
+      </c>
+      <c r="L99" s="25"/>
       <c r="M99" s="19"/>
       <c r="N99" s="2"/>
     </row>
     <row r="100" spans="1:14" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="6"/>
       <c r="D100" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E100" s="4" t="s">
         <v>1</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G100" s="18" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H100" s="18"/>
       <c r="I100" s="18"/>
       <c r="J100" s="15"/>
       <c r="K100" s="15" t="s">
-        <v>472</v>
-      </c>
-      <c r="L100" s="26"/>
+        <v>457</v>
+      </c>
+      <c r="L100" s="25"/>
       <c r="M100" s="19"/>
       <c r="N100" s="2"/>
     </row>
     <row r="101" spans="1:14" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="6"/>
       <c r="C101" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E101" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F101" s="21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G101" s="18" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H101" s="18"/>
       <c r="I101" s="18"/>
-      <c r="J101" s="23" t="s">
-        <v>354</v>
+      <c r="J101" s="15" t="s">
+        <v>544</v>
       </c>
       <c r="K101" s="16" t="s">
-        <v>342</v>
-      </c>
-      <c r="L101" s="26"/>
+        <v>340</v>
+      </c>
+      <c r="L101" s="25"/>
       <c r="M101" s="19"/>
       <c r="N101" s="2"/>
     </row>
     <row r="102" spans="1:14" s="5" customFormat="1" ht="80.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="6"/>
       <c r="D102" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F102" s="22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G102" s="18" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H102" s="18"/>
       <c r="I102" s="18" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="J102" s="17" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="K102" s="17" t="s">
-        <v>355</v>
-      </c>
-      <c r="L102" s="26" t="s">
-        <v>400</v>
+        <v>349</v>
+      </c>
+      <c r="L102" s="25" t="s">
+        <v>392</v>
       </c>
       <c r="M102" s="19"/>
       <c r="N102" s="2"/>
@@ -6299,29 +6355,29 @@
     <row r="103" spans="1:14" s="5" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="6"/>
       <c r="D103" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F103" s="21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G103" s="18" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H103" s="18"/>
       <c r="I103" s="18" t="s">
-        <v>425</v>
+        <v>412</v>
       </c>
       <c r="J103" s="15" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="K103" s="15" t="s">
-        <v>463</v>
-      </c>
-      <c r="L103" s="26" t="s">
-        <v>362</v>
+        <v>448</v>
+      </c>
+      <c r="L103" s="25" t="s">
+        <v>355</v>
       </c>
       <c r="M103" s="19"/>
       <c r="N103" s="2"/>
@@ -6329,26 +6385,26 @@
     <row r="104" spans="1:14" s="5" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="6"/>
       <c r="D104" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F104" s="21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G104" s="18" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H104" s="18"/>
       <c r="I104" s="18"/>
       <c r="J104" s="15" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="K104" s="15" t="s">
-        <v>360</v>
-      </c>
-      <c r="L104" s="26"/>
+        <v>354</v>
+      </c>
+      <c r="L104" s="25"/>
       <c r="M104" s="19"/>
       <c r="N104" s="2"/>
     </row>
@@ -6357,58 +6413,58 @@
         <v>7</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E105" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G105" s="18" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H105" s="18"/>
       <c r="I105" s="18"/>
-      <c r="J105" s="23" t="s">
-        <v>361</v>
+      <c r="J105" s="15" t="s">
+        <v>545</v>
       </c>
       <c r="K105" s="16" t="s">
-        <v>342</v>
-      </c>
-      <c r="L105" s="26"/>
+        <v>340</v>
+      </c>
+      <c r="L105" s="25"/>
       <c r="M105" s="19"/>
       <c r="N105" s="2"/>
     </row>
     <row r="106" spans="1:14" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="6"/>
       <c r="D106" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F106" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G106" s="18" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H106" s="18"/>
       <c r="I106" s="18"/>
-      <c r="J106" s="23" t="s">
-        <v>443</v>
+      <c r="J106" s="15" t="s">
+        <v>428</v>
       </c>
       <c r="K106" s="16" t="s">
-        <v>343</v>
-      </c>
-      <c r="L106" s="26"/>
+        <v>341</v>
+      </c>
+      <c r="L106" s="25"/>
       <c r="M106" s="19"/>
       <c r="N106" s="2"/>
     </row>
@@ -6417,28 +6473,28 @@
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
       <c r="D107" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E107" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>452</v>
+        <v>437</v>
       </c>
       <c r="G107" s="18" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H107" s="18"/>
       <c r="I107" s="18" t="s">
-        <v>455</v>
+        <v>440</v>
       </c>
       <c r="J107" s="15" t="s">
-        <v>453</v>
+        <v>438</v>
       </c>
       <c r="K107" s="15" t="s">
-        <v>454</v>
-      </c>
-      <c r="L107" s="26"/>
+        <v>439</v>
+      </c>
+      <c r="L107" s="25"/>
       <c r="M107" s="19"/>
       <c r="N107" s="2"/>
     </row>
@@ -6447,26 +6503,26 @@
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
       <c r="D108" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E108" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G108" s="18" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H108" s="18"/>
       <c r="I108" s="18"/>
       <c r="J108" s="15" t="s">
-        <v>457</v>
+        <v>442</v>
       </c>
       <c r="K108" s="15" t="s">
-        <v>458</v>
-      </c>
-      <c r="L108" s="26"/>
+        <v>443</v>
+      </c>
+      <c r="L108" s="25"/>
       <c r="M108" s="19"/>
       <c r="N108" s="2"/>
     </row>
@@ -6475,26 +6531,26 @@
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
       <c r="D109" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E109" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G109" s="18" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H109" s="18"/>
       <c r="I109" s="18"/>
       <c r="J109" s="15" t="s">
-        <v>459</v>
+        <v>444</v>
       </c>
       <c r="K109" s="15" t="s">
-        <v>366</v>
-      </c>
-      <c r="L109" s="26"/>
+        <v>358</v>
+      </c>
+      <c r="L109" s="25"/>
       <c r="M109" s="19"/>
       <c r="N109" s="2"/>
     </row>
@@ -6502,29 +6558,29 @@
       <c r="A110" s="6"/>
       <c r="B110" s="5"/>
       <c r="C110" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D110" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E110" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F110" s="21" t="s">
-        <v>460</v>
+        <v>445</v>
       </c>
       <c r="G110" s="18" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H110" s="18"/>
       <c r="I110" s="18"/>
       <c r="J110" s="15" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="K110" s="15" t="s">
-        <v>462</v>
-      </c>
-      <c r="L110" s="26"/>
+        <v>447</v>
+      </c>
+      <c r="L110" s="25"/>
       <c r="M110" s="19"/>
       <c r="N110" s="2"/>
     </row>
@@ -6533,33 +6589,33 @@
       <c r="B111" s="5"/>
       <c r="C111" s="5"/>
       <c r="D111" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E111" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F111" s="21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G111" s="18" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H111" s="18"/>
       <c r="I111" s="18" t="s">
-        <v>456</v>
+        <v>441</v>
       </c>
       <c r="J111" s="15" t="s">
-        <v>444</v>
+        <v>429</v>
       </c>
       <c r="K111" s="15" t="s">
-        <v>445</v>
-      </c>
-      <c r="L111" s="26" t="s">
-        <v>567</v>
+        <v>430</v>
+      </c>
+      <c r="L111" s="25" t="s">
+        <v>533</v>
       </c>
       <c r="M111" s="19"/>
       <c r="N111" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="112" spans="1:14" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -6567,31 +6623,31 @@
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
       <c r="D112" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E112" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F112" s="21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G112" s="18" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H112" s="18"/>
       <c r="I112" s="18" t="s">
-        <v>448</v>
+        <v>433</v>
       </c>
       <c r="J112" s="15" t="s">
-        <v>446</v>
+        <v>431</v>
       </c>
       <c r="K112" s="15" t="s">
-        <v>447</v>
-      </c>
-      <c r="L112" s="26"/>
+        <v>432</v>
+      </c>
+      <c r="L112" s="25"/>
       <c r="M112" s="19"/>
       <c r="N112" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="113" spans="1:14" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -6599,24 +6655,24 @@
       <c r="B113" s="5"/>
       <c r="C113" s="5"/>
       <c r="D113" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E113" s="4" t="s">
         <v>1</v>
       </c>
       <c r="F113" s="21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G113" s="18" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H113" s="18"/>
       <c r="I113" s="18"/>
       <c r="J113" s="15"/>
       <c r="K113" s="15" t="s">
-        <v>449</v>
-      </c>
-      <c r="L113" s="26"/>
+        <v>434</v>
+      </c>
+      <c r="L113" s="25"/>
       <c r="M113" s="19"/>
       <c r="N113" s="2"/>
     </row>
@@ -6624,27 +6680,27 @@
       <c r="A114" s="6"/>
       <c r="B114" s="5"/>
       <c r="C114" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D114" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E114" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F114" s="21" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G114" s="18" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H114" s="18"/>
       <c r="I114" s="18"/>
       <c r="J114" s="15"/>
       <c r="K114" s="15" t="s">
-        <v>449</v>
-      </c>
-      <c r="L114" s="26"/>
+        <v>434</v>
+      </c>
+      <c r="L114" s="25"/>
       <c r="M114" s="19"/>
       <c r="N114" s="2"/>
     </row>
@@ -6653,26 +6709,26 @@
       <c r="B115" s="5"/>
       <c r="C115" s="5"/>
       <c r="D115" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E115" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F115" s="21" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G115" s="18" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H115" s="18"/>
       <c r="I115" s="18"/>
       <c r="J115" s="15" t="s">
-        <v>451</v>
+        <v>436</v>
       </c>
       <c r="K115" s="15" t="s">
-        <v>450</v>
-      </c>
-      <c r="L115" s="26"/>
+        <v>435</v>
+      </c>
+      <c r="L115" s="25"/>
       <c r="M115" s="19"/>
       <c r="N115" s="2"/>
     </row>
@@ -6681,24 +6737,24 @@
       <c r="B116" s="5"/>
       <c r="C116" s="5"/>
       <c r="D116" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E116" s="4" t="s">
         <v>1</v>
       </c>
       <c r="F116" s="21" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G116" s="18" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H116" s="18"/>
       <c r="I116" s="18"/>
       <c r="J116" s="15"/>
       <c r="K116" s="15" t="s">
-        <v>360</v>
-      </c>
-      <c r="L116" s="26"/>
+        <v>354</v>
+      </c>
+      <c r="L116" s="25"/>
       <c r="M116" s="19"/>
       <c r="N116" s="2"/>
     </row>
@@ -6707,28 +6763,28 @@
         <v>8</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D117" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E117" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G117" s="18" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H117" s="18"/>
       <c r="I117" s="18"/>
       <c r="J117" s="15"/>
       <c r="K117" s="15"/>
-      <c r="L117" s="26"/>
+      <c r="L117" s="25"/>
       <c r="M117" s="19"/>
       <c r="N117" s="2"/>
     </row>
@@ -6737,29 +6793,29 @@
       <c r="B118" s="5"/>
       <c r="C118" s="5"/>
       <c r="D118" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E118" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F118" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G118" s="18" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H118" s="18"/>
       <c r="I118" s="18"/>
       <c r="J118" s="15" t="s">
-        <v>506</v>
+        <v>482</v>
       </c>
       <c r="K118" s="15" t="s">
-        <v>507</v>
-      </c>
-      <c r="L118" s="26"/>
+        <v>483</v>
+      </c>
+      <c r="L118" s="25"/>
       <c r="M118" s="19"/>
       <c r="N118" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="119" spans="1:14" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -6767,29 +6823,29 @@
       <c r="B119" s="5"/>
       <c r="C119" s="5"/>
       <c r="D119" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E119" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F119" s="12" t="s">
-        <v>509</v>
+        <v>485</v>
       </c>
       <c r="G119" s="18" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H119" s="18" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I119" s="18"/>
       <c r="J119" s="15" t="s">
-        <v>510</v>
+        <v>486</v>
       </c>
       <c r="K119" s="15" t="s">
-        <v>508</v>
-      </c>
-      <c r="L119" s="26" t="s">
-        <v>406</v>
+        <v>484</v>
+      </c>
+      <c r="L119" s="25" t="s">
+        <v>398</v>
       </c>
       <c r="M119" s="19"/>
       <c r="N119" s="2" t="s">
@@ -6800,25 +6856,25 @@
       <c r="A120" s="6"/>
       <c r="B120" s="5"/>
       <c r="C120" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D120" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E120" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G120" s="18" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H120" s="18"/>
       <c r="I120" s="18"/>
       <c r="J120" s="15"/>
       <c r="K120" s="15"/>
-      <c r="L120" s="26"/>
+      <c r="L120" s="25"/>
       <c r="M120" s="19"/>
       <c r="N120" s="2"/>
     </row>
@@ -6827,31 +6883,31 @@
       <c r="B121" s="5"/>
       <c r="C121" s="5"/>
       <c r="D121" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E121" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F121" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G121" s="18" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H121" s="18" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I121" s="18" t="s">
-        <v>425</v>
+        <v>412</v>
       </c>
       <c r="J121" s="15"/>
       <c r="K121" s="15"/>
-      <c r="L121" s="26" t="s">
-        <v>378</v>
+      <c r="L121" s="25" t="s">
+        <v>370</v>
       </c>
       <c r="M121" s="19"/>
       <c r="N121" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="122" spans="1:14" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -6859,22 +6915,22 @@
       <c r="B122" s="5"/>
       <c r="C122" s="5"/>
       <c r="D122" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E122" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G122" s="18" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H122" s="18"/>
       <c r="I122" s="18"/>
       <c r="J122" s="15"/>
       <c r="K122" s="15"/>
-      <c r="L122" s="26"/>
+      <c r="L122" s="25"/>
       <c r="M122" s="19"/>
       <c r="N122" s="2"/>
     </row>
@@ -6883,26 +6939,26 @@
       <c r="B123" s="5"/>
       <c r="C123" s="5"/>
       <c r="D123" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E123" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G123" s="18" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H123" s="18"/>
       <c r="I123" s="18"/>
       <c r="J123" s="15" t="s">
-        <v>511</v>
+        <v>487</v>
       </c>
       <c r="K123" s="15" t="s">
-        <v>449</v>
-      </c>
-      <c r="L123" s="26"/>
+        <v>434</v>
+      </c>
+      <c r="L123" s="25"/>
       <c r="M123" s="19"/>
       <c r="N123" s="2"/>
     </row>
@@ -6911,28 +6967,28 @@
       <c r="B124" s="5"/>
       <c r="C124" s="5"/>
       <c r="D124" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E124" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G124" s="18" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H124" s="18"/>
       <c r="I124" s="18" t="s">
-        <v>456</v>
+        <v>441</v>
       </c>
       <c r="J124" s="15" t="s">
-        <v>512</v>
+        <v>488</v>
       </c>
       <c r="K124" s="15" t="s">
-        <v>513</v>
-      </c>
-      <c r="L124" s="26"/>
+        <v>489</v>
+      </c>
+      <c r="L124" s="25"/>
       <c r="M124" s="19"/>
       <c r="N124" s="2"/>
     </row>
@@ -6941,28 +6997,28 @@
       <c r="B125" s="5"/>
       <c r="C125" s="5"/>
       <c r="D125" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E125" s="4" t="s">
         <v>1</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G125" s="18" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H125" s="18"/>
       <c r="I125" s="18" t="s">
-        <v>516</v>
+        <v>492</v>
       </c>
       <c r="J125" s="15" t="s">
-        <v>514</v>
+        <v>490</v>
       </c>
       <c r="K125" s="15" t="s">
-        <v>515</v>
-      </c>
-      <c r="L125" s="26"/>
+        <v>491</v>
+      </c>
+      <c r="L125" s="25"/>
       <c r="M125" s="19"/>
       <c r="N125" s="2"/>
     </row>
@@ -6971,28 +7027,28 @@
       <c r="B126" s="5"/>
       <c r="C126" s="5"/>
       <c r="D126" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E126" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>517</v>
+        <v>493</v>
       </c>
       <c r="G126" s="18" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H126" s="18"/>
       <c r="I126" s="18" t="s">
-        <v>456</v>
+        <v>441</v>
       </c>
       <c r="J126" s="15" t="s">
-        <v>518</v>
+        <v>494</v>
       </c>
       <c r="K126" s="15" t="s">
-        <v>513</v>
-      </c>
-      <c r="L126" s="26"/>
+        <v>489</v>
+      </c>
+      <c r="L126" s="25"/>
       <c r="M126" s="19"/>
       <c r="N126" s="2"/>
     </row>
@@ -7000,25 +7056,25 @@
       <c r="A127" s="6"/>
       <c r="B127" s="5"/>
       <c r="C127" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D127" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E127" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F127" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G127" s="18" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H127" s="18"/>
       <c r="I127" s="18"/>
       <c r="J127" s="15"/>
       <c r="K127" s="15"/>
-      <c r="L127" s="26"/>
+      <c r="L127" s="25"/>
       <c r="M127" s="19"/>
       <c r="N127" s="2"/>
     </row>
@@ -7027,31 +7083,31 @@
       <c r="B128" s="5"/>
       <c r="C128" s="5"/>
       <c r="D128" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E128" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F128" s="21" t="s">
-        <v>523</v>
+        <v>499</v>
       </c>
       <c r="G128" s="18" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H128" s="18" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I128" s="18" t="s">
-        <v>525</v>
+        <v>534</v>
       </c>
       <c r="J128" s="15" t="s">
-        <v>524</v>
+        <v>500</v>
       </c>
       <c r="K128" s="15" t="s">
-        <v>462</v>
-      </c>
-      <c r="L128" s="26" t="s">
-        <v>385</v>
+        <v>447</v>
+      </c>
+      <c r="L128" s="25" t="s">
+        <v>377</v>
       </c>
       <c r="M128" s="19"/>
       <c r="N128" s="2" t="s">
@@ -7063,26 +7119,26 @@
       <c r="B129" s="5"/>
       <c r="C129" s="5"/>
       <c r="D129" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E129" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F129" s="21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G129" s="18" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H129" s="18"/>
       <c r="I129" s="18"/>
       <c r="J129" s="15" t="s">
-        <v>435</v>
+        <v>421</v>
       </c>
       <c r="K129" s="15" t="s">
-        <v>436</v>
-      </c>
-      <c r="L129" s="26"/>
+        <v>422</v>
+      </c>
+      <c r="L129" s="25"/>
       <c r="M129" s="19"/>
       <c r="N129" s="2"/>
     </row>
@@ -7091,24 +7147,24 @@
       <c r="B130" s="5"/>
       <c r="C130" s="5"/>
       <c r="D130" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E130" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F130" s="21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G130" s="18" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H130" s="18"/>
       <c r="I130" s="18"/>
       <c r="J130" s="15"/>
       <c r="K130" s="15" t="s">
-        <v>436</v>
-      </c>
-      <c r="L130" s="26"/>
+        <v>422</v>
+      </c>
+      <c r="L130" s="25"/>
       <c r="M130" s="19"/>
       <c r="N130" s="2"/>
     </row>
@@ -7117,24 +7173,24 @@
       <c r="B131" s="5"/>
       <c r="C131" s="5"/>
       <c r="D131" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E131" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F131" s="21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G131" s="18" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H131" s="18"/>
       <c r="I131" s="18"/>
       <c r="J131" s="15"/>
       <c r="K131" s="15" t="s">
-        <v>436</v>
-      </c>
-      <c r="L131" s="26"/>
+        <v>422</v>
+      </c>
+      <c r="L131" s="25"/>
       <c r="M131" s="19"/>
       <c r="N131" s="2"/>
     </row>
@@ -7143,24 +7199,24 @@
       <c r="B132" s="5"/>
       <c r="C132" s="5"/>
       <c r="D132" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E132" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F132" s="3" t="s">
-        <v>437</v>
+        <v>423</v>
       </c>
       <c r="G132" s="18" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H132" s="18"/>
       <c r="I132" s="18"/>
       <c r="J132" s="15"/>
       <c r="K132" s="15" t="s">
-        <v>436</v>
-      </c>
-      <c r="L132" s="26"/>
+        <v>422</v>
+      </c>
+      <c r="L132" s="25"/>
       <c r="M132" s="19"/>
       <c r="N132" s="2"/>
     </row>
@@ -7169,28 +7225,28 @@
         <v>9</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D133" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E133" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F133" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G133" s="18" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H133" s="18"/>
       <c r="I133" s="18"/>
       <c r="J133" s="15"/>
       <c r="K133" s="15"/>
-      <c r="L133" s="26"/>
+      <c r="L133" s="25"/>
       <c r="M133" s="19"/>
       <c r="N133" s="2"/>
     </row>
@@ -7198,32 +7254,32 @@
       <c r="A134" s="6"/>
       <c r="B134" s="5"/>
       <c r="C134" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D134" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E134" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F134" s="20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G134" s="18" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H134" s="18"/>
       <c r="I134" s="18"/>
-      <c r="J134" s="23" t="s">
-        <v>363</v>
+      <c r="J134" s="15" t="s">
+        <v>356</v>
       </c>
       <c r="K134" s="16" t="s">
-        <v>344</v>
-      </c>
-      <c r="L134" s="26"/>
+        <v>342</v>
+      </c>
+      <c r="L134" s="25"/>
       <c r="M134" s="19"/>
       <c r="N134" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="135" spans="1:14" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -7231,26 +7287,26 @@
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
       <c r="D135" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E135" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F135" s="21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G135" s="18" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H135" s="18"/>
       <c r="I135" s="18"/>
       <c r="J135" s="16" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="K135" s="16" t="s">
-        <v>345</v>
-      </c>
-      <c r="L135" s="26"/>
+        <v>343</v>
+      </c>
+      <c r="L135" s="25"/>
       <c r="M135" s="19"/>
       <c r="N135" s="2"/>
     </row>
@@ -7259,26 +7315,26 @@
       <c r="B136" s="5"/>
       <c r="C136" s="5"/>
       <c r="D136" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E136" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F136" s="21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G136" s="18" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H136" s="18"/>
       <c r="I136" s="18"/>
       <c r="J136" s="15" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="K136" s="16" t="s">
-        <v>342</v>
-      </c>
-      <c r="L136" s="26"/>
+        <v>340</v>
+      </c>
+      <c r="L136" s="25"/>
       <c r="M136" s="19"/>
       <c r="N136" s="2"/>
     </row>
@@ -7287,26 +7343,26 @@
       <c r="B137" s="5"/>
       <c r="C137" s="5"/>
       <c r="D137" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E137" s="4" t="s">
         <v>1</v>
       </c>
       <c r="F137" s="21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G137" s="18" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H137" s="18"/>
       <c r="I137" s="18"/>
       <c r="J137" s="15" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="K137" s="16" t="s">
-        <v>342</v>
-      </c>
-      <c r="L137" s="26"/>
+        <v>340</v>
+      </c>
+      <c r="L137" s="25"/>
       <c r="M137" s="19"/>
       <c r="N137" s="2"/>
     </row>
@@ -7314,27 +7370,27 @@
       <c r="A138" s="6"/>
       <c r="B138" s="5"/>
       <c r="C138" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D138" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E138" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F138" s="4" t="s">
-        <v>438</v>
+        <v>424</v>
       </c>
       <c r="G138" s="18" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H138" s="18"/>
       <c r="I138" s="18"/>
       <c r="J138" s="23"/>
       <c r="K138" s="16" t="s">
-        <v>360</v>
-      </c>
-      <c r="L138" s="26"/>
+        <v>354</v>
+      </c>
+      <c r="L138" s="25"/>
       <c r="M138" s="19"/>
       <c r="N138" s="2"/>
     </row>
@@ -7343,31 +7399,31 @@
       <c r="B139" s="5"/>
       <c r="C139" s="5"/>
       <c r="D139" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E139" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F139" s="22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G139" s="18" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H139" s="18" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I139" s="18" t="s">
-        <v>423</v>
-      </c>
-      <c r="J139" s="23" t="s">
-        <v>439</v>
-      </c>
-      <c r="K139" s="17" t="s">
-        <v>346</v>
-      </c>
-      <c r="L139" s="26" t="s">
-        <v>386</v>
+        <v>411</v>
+      </c>
+      <c r="J139" s="15" t="s">
+        <v>546</v>
+      </c>
+      <c r="K139" s="25" t="s">
+        <v>549</v>
+      </c>
+      <c r="L139" s="25" t="s">
+        <v>378</v>
       </c>
       <c r="M139" s="19"/>
       <c r="N139" s="2" t="s">
@@ -7379,26 +7435,26 @@
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
       <c r="D140" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E140" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F140" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G140" s="18" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H140" s="18"/>
       <c r="I140" s="18"/>
-      <c r="J140" s="26" t="s">
-        <v>401</v>
-      </c>
-      <c r="K140" s="26" t="s">
-        <v>402</v>
-      </c>
-      <c r="L140" s="26"/>
+      <c r="J140" s="25" t="s">
+        <v>393</v>
+      </c>
+      <c r="K140" s="25" t="s">
+        <v>394</v>
+      </c>
+      <c r="L140" s="25"/>
       <c r="M140" s="19"/>
       <c r="N140" s="2"/>
     </row>
@@ -7407,26 +7463,26 @@
       <c r="B141" s="5"/>
       <c r="C141" s="5"/>
       <c r="D141" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E141" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F141" s="21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G141" s="18" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H141" s="18"/>
       <c r="I141" s="18"/>
       <c r="J141" s="15" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="K141" s="15" t="s">
-        <v>366</v>
-      </c>
-      <c r="L141" s="26"/>
+        <v>358</v>
+      </c>
+      <c r="L141" s="25"/>
       <c r="M141" s="19"/>
       <c r="N141" s="2"/>
     </row>
@@ -7435,26 +7491,26 @@
       <c r="B142" s="5"/>
       <c r="C142" s="5"/>
       <c r="D142" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E142" s="4" t="s">
         <v>1</v>
       </c>
       <c r="F142" s="21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G142" s="18" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H142" s="18"/>
       <c r="I142" s="18"/>
       <c r="J142" s="15" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="K142" s="15" t="s">
-        <v>405</v>
-      </c>
-      <c r="L142" s="26"/>
+        <v>397</v>
+      </c>
+      <c r="L142" s="25"/>
       <c r="M142" s="19"/>
       <c r="N142" s="2"/>
     </row>
@@ -7463,65 +7519,65 @@
       <c r="B143" s="5"/>
       <c r="C143" s="5"/>
       <c r="D143" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E143" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F143" s="3" t="s">
-        <v>440</v>
+        <v>425</v>
       </c>
       <c r="G143" s="18" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H143" s="18"/>
       <c r="I143" s="18" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="J143" s="15"/>
       <c r="K143" s="15" t="s">
-        <v>436</v>
-      </c>
-      <c r="L143" s="26" t="s">
-        <v>441</v>
+        <v>422</v>
+      </c>
+      <c r="L143" s="25" t="s">
+        <v>426</v>
       </c>
       <c r="M143" s="19"/>
       <c r="N143" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="144" spans="1:14" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A144" s="6"/>
       <c r="B144" s="5"/>
       <c r="C144" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D144" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E144" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F144" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G144" s="18" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H144" s="18" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I144" s="18" t="s">
-        <v>425</v>
-      </c>
-      <c r="J144" s="23" t="s">
-        <v>364</v>
+        <v>412</v>
+      </c>
+      <c r="J144" s="15" t="s">
+        <v>547</v>
       </c>
       <c r="K144" s="16" t="s">
-        <v>347</v>
-      </c>
-      <c r="L144" s="26" t="s">
-        <v>387</v>
+        <v>344</v>
+      </c>
+      <c r="L144" s="25" t="s">
+        <v>379</v>
       </c>
       <c r="M144" s="19"/>
       <c r="N144" s="2" t="s">
@@ -7533,26 +7589,26 @@
       <c r="B145" s="5"/>
       <c r="C145" s="5"/>
       <c r="D145" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E145" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F145" s="10" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="G145" s="18" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H145" s="18"/>
       <c r="I145" s="18"/>
-      <c r="J145" s="26" t="s">
-        <v>407</v>
-      </c>
-      <c r="K145" s="26" t="s">
-        <v>365</v>
-      </c>
-      <c r="L145" s="26"/>
+      <c r="J145" s="25" t="s">
+        <v>399</v>
+      </c>
+      <c r="K145" s="25" t="s">
+        <v>357</v>
+      </c>
+      <c r="L145" s="25"/>
       <c r="M145" s="19"/>
       <c r="N145" s="2"/>
     </row>
@@ -7561,26 +7617,26 @@
       <c r="B146" s="5"/>
       <c r="C146" s="5"/>
       <c r="D146" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E146" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F146" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G146" s="18" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H146" s="18"/>
       <c r="I146" s="18"/>
       <c r="J146" s="15" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="K146" s="15" t="s">
-        <v>366</v>
-      </c>
-      <c r="L146" s="26"/>
+        <v>358</v>
+      </c>
+      <c r="L146" s="25"/>
       <c r="M146" s="19"/>
       <c r="N146" s="2"/>
     </row>
@@ -7589,29 +7645,29 @@
       <c r="B147" s="5"/>
       <c r="C147" s="5"/>
       <c r="D147" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E147" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F147" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G147" s="18" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H147" s="18"/>
       <c r="I147" s="18" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
       <c r="J147" s="15" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="K147" s="15" t="s">
-        <v>367</v>
-      </c>
-      <c r="L147" s="26" t="s">
-        <v>370</v>
+        <v>359</v>
+      </c>
+      <c r="L147" s="25" t="s">
+        <v>362</v>
       </c>
       <c r="M147" s="19"/>
       <c r="N147" s="2"/>
@@ -7621,29 +7677,29 @@
       <c r="B148" s="5"/>
       <c r="C148" s="5"/>
       <c r="D148" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E148" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F148" s="20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G148" s="18" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H148" s="18"/>
       <c r="I148" s="18"/>
-      <c r="J148" s="23" t="s">
-        <v>409</v>
+      <c r="J148" s="15" t="s">
+        <v>401</v>
       </c>
       <c r="K148" s="16" t="s">
-        <v>342</v>
-      </c>
-      <c r="L148" s="26"/>
+        <v>340</v>
+      </c>
+      <c r="L148" s="25"/>
       <c r="M148" s="19"/>
       <c r="N148" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="149" spans="1:14" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -7651,26 +7707,26 @@
       <c r="B149" s="5"/>
       <c r="C149" s="5"/>
       <c r="D149" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E149" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F149" s="22" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="G149" s="18" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H149" s="18"/>
       <c r="I149" s="18"/>
       <c r="J149" s="17" t="s">
-        <v>372</v>
-      </c>
-      <c r="K149" s="17" t="s">
-        <v>342</v>
-      </c>
-      <c r="L149" s="26"/>
+        <v>364</v>
+      </c>
+      <c r="K149" s="16" t="s">
+        <v>340</v>
+      </c>
+      <c r="L149" s="25"/>
       <c r="M149" s="19"/>
       <c r="N149" s="2"/>
     </row>
@@ -7679,26 +7735,26 @@
       <c r="B150" s="5"/>
       <c r="C150" s="5"/>
       <c r="D150" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E150" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F150" s="21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G150" s="18" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H150" s="18"/>
       <c r="I150" s="18"/>
       <c r="J150" s="15" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="K150" s="15" t="s">
-        <v>342</v>
-      </c>
-      <c r="L150" s="26"/>
+        <v>340</v>
+      </c>
+      <c r="L150" s="25"/>
       <c r="M150" s="19"/>
       <c r="N150" s="2"/>
     </row>
@@ -7707,24 +7763,24 @@
       <c r="B151" s="5"/>
       <c r="C151" s="5"/>
       <c r="D151" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E151" s="4" t="s">
         <v>1</v>
       </c>
       <c r="F151" s="21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G151" s="18" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H151" s="18"/>
       <c r="I151" s="18"/>
       <c r="J151" s="15"/>
       <c r="K151" s="15" t="s">
-        <v>360</v>
-      </c>
-      <c r="L151" s="26"/>
+        <v>354</v>
+      </c>
+      <c r="L151" s="25"/>
       <c r="M151" s="19"/>
       <c r="N151" s="2"/>
     </row>
@@ -7733,26 +7789,26 @@
       <c r="B152" s="5"/>
       <c r="C152" s="5"/>
       <c r="D152" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E152" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F152" s="20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G152" s="18" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H152" s="18"/>
       <c r="I152" s="18"/>
       <c r="J152" s="15" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="K152" s="15" t="s">
-        <v>360</v>
-      </c>
-      <c r="L152" s="26"/>
+        <v>354</v>
+      </c>
+      <c r="L152" s="25"/>
       <c r="M152" s="19"/>
       <c r="N152" s="2"/>
     </row>
@@ -7761,28 +7817,28 @@
       <c r="B153" s="5"/>
       <c r="C153" s="5"/>
       <c r="D153" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E153" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F153" s="21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G153" s="18" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H153" s="18"/>
       <c r="I153" s="18" t="s">
-        <v>425</v>
+        <v>412</v>
       </c>
       <c r="J153" s="15" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="K153" s="15" t="s">
-        <v>414</v>
-      </c>
-      <c r="L153" s="26"/>
+        <v>406</v>
+      </c>
+      <c r="L153" s="25"/>
       <c r="M153" s="19"/>
       <c r="N153" s="2"/>
     </row>
@@ -7791,28 +7847,28 @@
       <c r="B154" s="5"/>
       <c r="C154" s="5"/>
       <c r="D154" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E154" s="4" t="s">
         <v>1</v>
       </c>
       <c r="F154" s="21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G154" s="18" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H154" s="18"/>
       <c r="I154" s="18" t="s">
-        <v>426</v>
+        <v>413</v>
       </c>
       <c r="J154" s="15" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="K154" s="15" t="s">
-        <v>416</v>
-      </c>
-      <c r="L154" s="26"/>
+        <v>408</v>
+      </c>
+      <c r="L154" s="25"/>
       <c r="M154" s="19"/>
       <c r="N154" s="2"/>
     </row>
@@ -7820,32 +7876,32 @@
       <c r="A155" s="6"/>
       <c r="B155" s="5"/>
       <c r="C155" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D155" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E155" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F155" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G155" s="18" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H155" s="18"/>
       <c r="I155" s="18"/>
-      <c r="J155" s="23" t="s">
-        <v>371</v>
+      <c r="J155" s="15" t="s">
+        <v>363</v>
       </c>
       <c r="K155" s="16" t="s">
-        <v>348</v>
-      </c>
-      <c r="L155" s="26"/>
+        <v>345</v>
+      </c>
+      <c r="L155" s="25"/>
       <c r="M155" s="19"/>
       <c r="N155" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="156" spans="1:14" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -7853,26 +7909,26 @@
       <c r="B156" s="5"/>
       <c r="C156" s="5"/>
       <c r="D156" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E156" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F156" s="28" t="s">
-        <v>23</v>
+      <c r="F156" s="26" t="s">
+        <v>22</v>
       </c>
       <c r="G156" s="18" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H156" s="18"/>
       <c r="I156" s="18"/>
       <c r="J156" s="16" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="K156" s="16" t="s">
-        <v>342</v>
-      </c>
-      <c r="L156" s="26"/>
+        <v>340</v>
+      </c>
+      <c r="L156" s="25"/>
       <c r="M156" s="19"/>
       <c r="N156" s="2"/>
     </row>
@@ -7881,26 +7937,26 @@
       <c r="B157" s="5"/>
       <c r="C157" s="5"/>
       <c r="D157" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E157" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F157" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G157" s="18" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H157" s="18"/>
       <c r="I157" s="18"/>
       <c r="J157" s="16" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="K157" s="16" t="s">
-        <v>342</v>
-      </c>
-      <c r="L157" s="26"/>
+        <v>340</v>
+      </c>
+      <c r="L157" s="25"/>
       <c r="M157" s="19"/>
       <c r="N157" s="2"/>
     </row>
@@ -7909,28 +7965,28 @@
       <c r="B158" s="5"/>
       <c r="C158" s="5"/>
       <c r="D158" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E158" s="4" t="s">
         <v>1</v>
       </c>
       <c r="F158" s="21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G158" s="18" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H158" s="18"/>
       <c r="I158" s="18" t="s">
-        <v>425</v>
+        <v>412</v>
       </c>
       <c r="J158" s="16" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="K158" s="16" t="s">
-        <v>349</v>
-      </c>
-      <c r="L158" s="26"/>
+        <v>346</v>
+      </c>
+      <c r="L158" s="25"/>
       <c r="M158" s="19"/>
       <c r="N158" s="2"/>
     </row>
@@ -7938,29 +7994,29 @@
       <c r="A159" s="6"/>
       <c r="B159" s="5"/>
       <c r="C159" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D159" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E159" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F159" s="20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G159" s="18" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H159" s="18"/>
       <c r="I159" s="18"/>
-      <c r="J159" s="23" t="s">
-        <v>417</v>
+      <c r="J159" s="15" t="s">
+        <v>548</v>
       </c>
       <c r="K159" s="16" t="s">
-        <v>350</v>
-      </c>
-      <c r="L159" s="26"/>
+        <v>347</v>
+      </c>
+      <c r="L159" s="25"/>
       <c r="M159" s="19"/>
       <c r="N159" s="2"/>
     </row>
@@ -7969,28 +8025,26 @@
       <c r="B160" s="5"/>
       <c r="C160" s="5"/>
       <c r="D160" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E160" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F160" s="22" t="s">
-        <v>419</v>
+        <v>536</v>
       </c>
       <c r="G160" s="18" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H160" s="18"/>
-      <c r="I160" s="18" t="s">
-        <v>427</v>
-      </c>
-      <c r="J160" s="17" t="s">
-        <v>418</v>
-      </c>
-      <c r="K160" s="17" t="s">
-        <v>420</v>
-      </c>
-      <c r="L160" s="26"/>
+      <c r="I160" s="18"/>
+      <c r="J160" s="25" t="s">
+        <v>537</v>
+      </c>
+      <c r="K160" s="25" t="s">
+        <v>538</v>
+      </c>
+      <c r="L160" s="25"/>
       <c r="M160" s="19"/>
       <c r="N160" s="2"/>
     </row>
@@ -7999,26 +8053,26 @@
       <c r="B161" s="5"/>
       <c r="C161" s="5"/>
       <c r="D161" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E161" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F161" s="22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G161" s="18" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H161" s="18"/>
-      <c r="I161" s="18" t="s">
-        <v>424</v>
-      </c>
-      <c r="J161" s="17"/>
+      <c r="I161" s="18"/>
+      <c r="J161" s="17" t="s">
+        <v>541</v>
+      </c>
       <c r="K161" s="16" t="s">
-        <v>351</v>
-      </c>
-      <c r="L161" s="26"/>
+        <v>542</v>
+      </c>
+      <c r="L161" s="25"/>
       <c r="M161" s="19"/>
       <c r="N161" s="2"/>
     </row>
@@ -8027,26 +8081,28 @@
       <c r="B162" s="5"/>
       <c r="C162" s="5"/>
       <c r="D162" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E162" s="4" t="s">
         <v>1</v>
       </c>
       <c r="F162" s="22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G162" s="18" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H162" s="18"/>
       <c r="I162" s="18" t="s">
-        <v>429</v>
-      </c>
-      <c r="J162" s="17"/>
+        <v>415</v>
+      </c>
+      <c r="J162" s="17" t="s">
+        <v>539</v>
+      </c>
       <c r="K162" s="16" t="s">
-        <v>351</v>
-      </c>
-      <c r="L162" s="26"/>
+        <v>540</v>
+      </c>
+      <c r="L162" s="25"/>
       <c r="M162" s="19"/>
       <c r="N162" s="2"/>
     </row>
@@ -8055,31 +8111,31 @@
       <c r="B163" s="5"/>
       <c r="C163" s="5"/>
       <c r="D163" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E163" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F163" s="9" t="s">
-        <v>14</v>
+        <v>535</v>
       </c>
       <c r="G163" s="18" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H163" s="18" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I163" s="18" t="s">
-        <v>425</v>
-      </c>
-      <c r="J163" s="27" t="s">
-        <v>388</v>
-      </c>
-      <c r="K163" s="24" t="s">
-        <v>428</v>
-      </c>
-      <c r="L163" s="26" t="s">
-        <v>378</v>
+        <v>409</v>
+      </c>
+      <c r="J163" s="15" t="s">
+        <v>380</v>
+      </c>
+      <c r="K163" s="16" t="s">
+        <v>414</v>
+      </c>
+      <c r="L163" s="25" t="s">
+        <v>370</v>
       </c>
       <c r="M163" s="19"/>
       <c r="N163" s="2" t="s">
@@ -8100,7 +8156,7 @@
       <c r="I164" s="18"/>
       <c r="J164" s="15"/>
       <c r="K164" s="15"/>
-      <c r="L164" s="26"/>
+      <c r="L164" s="25"/>
       <c r="M164" s="19"/>
       <c r="N164" s="2"/>
     </row>
@@ -8114,59 +8170,59 @@
       <c r="C165" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D165" s="29" t="s">
+      <c r="D165" s="27" t="s">
         <v>8</v>
       </c>
       <c r="E165" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F165" s="7" t="s">
-        <v>519</v>
+        <v>495</v>
       </c>
       <c r="G165" s="18" t="s">
+        <v>331</v>
+      </c>
+      <c r="H165" s="18" t="s">
         <v>333</v>
       </c>
-      <c r="H165" s="18" t="s">
-        <v>335</v>
-      </c>
       <c r="I165" s="18" t="s">
-        <v>430</v>
+        <v>416</v>
       </c>
       <c r="J165" s="23"/>
       <c r="K165" s="16"/>
-      <c r="L165" s="26" t="s">
-        <v>378</v>
+      <c r="L165" s="25" t="s">
+        <v>370</v>
       </c>
       <c r="M165" s="19"/>
       <c r="N165" s="2"/>
     </row>
     <row r="166" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D166" s="29" t="s">
+      <c r="D166" s="27" t="s">
         <v>6</v>
       </c>
       <c r="E166" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F166" s="7" t="s">
-        <v>520</v>
+        <v>496</v>
       </c>
       <c r="G166" s="18" t="s">
+        <v>331</v>
+      </c>
+      <c r="H166" s="18" t="s">
         <v>333</v>
       </c>
-      <c r="H166" s="18" t="s">
-        <v>335</v>
-      </c>
       <c r="I166" s="18" t="s">
-        <v>425</v>
-      </c>
-      <c r="J166" s="25"/>
+        <v>412</v>
+      </c>
+      <c r="J166" s="24"/>
       <c r="K166" s="16"/>
-      <c r="L166" s="26" t="s">
-        <v>384</v>
+      <c r="L166" s="25" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="167" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D167" s="29" t="s">
+      <c r="D167" s="27" t="s">
         <v>4</v>
       </c>
       <c r="E167" s="4" t="s">
@@ -8176,22 +8232,22 @@
         <v>0</v>
       </c>
       <c r="G167" s="18" t="s">
+        <v>331</v>
+      </c>
+      <c r="H167" s="18" t="s">
         <v>333</v>
       </c>
-      <c r="H167" s="18" t="s">
-        <v>335</v>
-      </c>
       <c r="I167" s="18" t="s">
-        <v>425</v>
+        <v>412</v>
       </c>
       <c r="J167" s="16"/>
       <c r="K167" s="16"/>
-      <c r="L167" s="26" t="s">
-        <v>384</v>
+      <c r="L167" s="25" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="168" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D168" s="29" t="s">
+      <c r="D168" s="27" t="s">
         <v>2</v>
       </c>
       <c r="E168" s="4" t="s">
@@ -8201,18 +8257,18 @@
         <v>0</v>
       </c>
       <c r="G168" s="18" t="s">
+        <v>331</v>
+      </c>
+      <c r="H168" s="18" t="s">
         <v>333</v>
       </c>
-      <c r="H168" s="18" t="s">
-        <v>335</v>
-      </c>
       <c r="I168" s="18" t="s">
-        <v>425</v>
+        <v>412</v>
       </c>
       <c r="J168" s="16"/>
       <c r="K168" s="16"/>
-      <c r="L168" s="26" t="s">
-        <v>378</v>
+      <c r="L168" s="25" t="s">
+        <v>370</v>
       </c>
     </row>
   </sheetData>
@@ -8238,7 +8294,7 @@
     <hyperlink ref="J134" r:id="rId6"/>
     <hyperlink ref="J105" r:id="rId7"/>
     <hyperlink ref="J106" r:id="rId8"/>
-    <hyperlink ref="J19" r:id="rId9"/>
+    <hyperlink ref="J19" r:id="rId9" display="http://139.196.101.78:8668/column?type=1&amp;token=910820738640559462371283192"/>
     <hyperlink ref="J101" r:id="rId10"/>
     <hyperlink ref="J148" r:id="rId11"/>
   </hyperlinks>

--- a/trunk/biz/MC-MSC-Web/qxy接口定义文档2016-8-8/【千校云】bug列表.xlsx
+++ b/trunk/biz/MC-MSC-Web/qxy接口定义文档2016-8-8/【千校云】bug列表.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\svn\trunk\biz\MC-MSC-Web\qxy接口定义文档2016-8-8\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\docs\api\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2684,16 +2684,7 @@
   <si>
     <t>正常返回</t>
     <rPh sb="3" eb="4">
-      <t>cha ru</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>hou</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>shu j</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>du bu c</t>
+      <t>cha ruhoushu jdu bu c</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2746,10 +2737,6 @@
   </si>
   <si>
     <t>http://139.196.101.78:8668/label?token=910820738640559462371283192</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://139.196.101.78:8668/class?class=1&amp;page=1&amp;size=1&amp;token=910820738640559462371283192</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2914,6 +2901,10 @@
  "token":"910820738640559462371283192",
     "oaruleIdS":[1,2,3]
 }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://139.196.101.78:8668/class?cid=1&amp;page=1&amp;size=1&amp;token=910820738640559462371283192</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2993,7 +2984,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3051,6 +3042,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3133,7 +3130,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3223,6 +3220,12 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3821,7 +3824,7 @@
       <pane xSplit="6" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I52" sqref="I52"/>
+      <selection pane="bottomRight" activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3834,7 +3837,7 @@
     <col min="6" max="6" width="43.5" style="3" customWidth="1"/>
     <col min="7" max="7" width="8.625" style="18" customWidth="1"/>
     <col min="8" max="8" width="8.375" style="18" customWidth="1"/>
-    <col min="9" max="9" width="17.125" style="18" customWidth="1"/>
+    <col min="9" max="9" width="17.125" style="31" customWidth="1"/>
     <col min="10" max="10" width="31.625" style="15" customWidth="1"/>
     <col min="11" max="11" width="11.75" style="15" customWidth="1"/>
     <col min="12" max="12" width="20.375" style="25" customWidth="1"/>
@@ -3868,7 +3871,7 @@
       <c r="H1" s="18" t="s">
         <v>384</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="I1" s="31" t="s">
         <v>410</v>
       </c>
       <c r="J1" s="15" t="s">
@@ -3920,7 +3923,7 @@
       <c r="F3" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="I3" s="18" t="s">
+      <c r="I3" s="31" t="s">
         <v>510</v>
       </c>
       <c r="K3" s="15">
@@ -3951,7 +3954,7 @@
       <c r="F5" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="I5" s="18" t="s">
+      <c r="I5" s="31" t="s">
         <v>510</v>
       </c>
       <c r="J5" s="15" t="s">
@@ -3983,7 +3986,7 @@
       <c r="F6" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="I6" s="18" t="s">
+      <c r="I6" s="31" t="s">
         <v>510</v>
       </c>
       <c r="K6" s="15" t="s">
@@ -4009,7 +4012,7 @@
       <c r="F7" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="I7" s="18" t="s">
+      <c r="I7" s="31" t="s">
         <v>510</v>
       </c>
       <c r="K7" s="15" t="s">
@@ -4029,7 +4032,7 @@
       <c r="F8" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="I8" s="18" t="s">
+      <c r="I8" s="31" t="s">
         <v>510</v>
       </c>
       <c r="K8" s="15" t="s">
@@ -4046,7 +4049,7 @@
       <c r="F9" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="I9" s="18" t="s">
+      <c r="I9" s="31" t="s">
         <v>510</v>
       </c>
       <c r="K9" s="15" t="s">
@@ -4080,7 +4083,7 @@
       <c r="H11" s="18" t="s">
         <v>333</v>
       </c>
-      <c r="I11" s="18" t="s">
+      <c r="I11" s="31" t="s">
         <v>409</v>
       </c>
       <c r="L11" s="25" t="s">
@@ -4103,7 +4106,7 @@
       <c r="H12" s="18" t="s">
         <v>333</v>
       </c>
-      <c r="I12" s="18" t="s">
+      <c r="I12" s="31" t="s">
         <v>417</v>
       </c>
       <c r="L12" s="25" t="s">
@@ -4132,7 +4135,7 @@
       <c r="F13" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="I13" s="18" t="s">
+      <c r="I13" s="31" t="s">
         <v>504</v>
       </c>
       <c r="J13" s="15" t="s">
@@ -4147,28 +4150,28 @@
     </row>
     <row r="14" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D14" s="5" t="s">
+        <v>549</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>550</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="F14" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="G14" s="18" t="s">
+        <v>329</v>
+      </c>
+      <c r="I14" s="31" t="s">
         <v>551</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>571</v>
-      </c>
-      <c r="G14" s="18" t="s">
-        <v>329</v>
-      </c>
-      <c r="I14" s="18" t="s">
+      <c r="J14" s="15" t="s">
         <v>552</v>
       </c>
-      <c r="J14" s="15" t="s">
+      <c r="K14" s="15" t="s">
         <v>553</v>
       </c>
-      <c r="K14" s="15" t="s">
+      <c r="L14" s="28" t="s">
         <v>554</v>
-      </c>
-      <c r="L14" s="28" t="s">
-        <v>555</v>
       </c>
     </row>
     <row r="15" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4201,17 +4204,17 @@
       <c r="G16" s="18" t="s">
         <v>329</v>
       </c>
-      <c r="I16" s="18" t="s">
+      <c r="I16" s="31" t="s">
         <v>409</v>
       </c>
       <c r="J16" s="15" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="K16" s="15" t="s">
         <v>501</v>
       </c>
       <c r="L16" s="29" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4243,7 +4246,7 @@
       </c>
     </row>
     <row r="19" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="30" t="s">
         <v>284</v>
       </c>
       <c r="D19" s="5" t="s">
@@ -4390,7 +4393,7 @@
       <c r="G25" s="18" t="s">
         <v>329</v>
       </c>
-      <c r="I25" s="18" t="s">
+      <c r="I25" s="31" t="s">
         <v>409</v>
       </c>
       <c r="J25" s="15" t="s">
@@ -4434,19 +4437,19 @@
         <v>190</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="G27" s="18" t="s">
         <v>329</v>
       </c>
       <c r="J27" s="15" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K27" s="15" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="L27" s="29" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4462,17 +4465,17 @@
       <c r="G28" s="18" t="s">
         <v>329</v>
       </c>
-      <c r="I28" s="18" t="s">
+      <c r="I28" s="31" t="s">
+        <v>559</v>
+      </c>
+      <c r="J28" s="15" t="s">
         <v>560</v>
-      </c>
-      <c r="J28" s="15" t="s">
-        <v>561</v>
       </c>
       <c r="K28" s="15">
         <v>404</v>
       </c>
       <c r="L28" s="29" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4488,7 +4491,7 @@
       <c r="G29" s="18" t="s">
         <v>329</v>
       </c>
-      <c r="I29" s="18" t="s">
+      <c r="I29" s="31" t="s">
         <v>509</v>
       </c>
       <c r="K29" s="15" t="s">
@@ -4508,7 +4511,7 @@
       <c r="G30" s="18" t="s">
         <v>329</v>
       </c>
-      <c r="I30" s="18" t="s">
+      <c r="I30" s="31" t="s">
         <v>509</v>
       </c>
       <c r="K30" s="15" t="s">
@@ -4558,7 +4561,7 @@
       </c>
     </row>
     <row r="34" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C34" s="5" t="s">
+      <c r="C34" s="30" t="s">
         <v>262</v>
       </c>
       <c r="D34" s="5" t="s">
@@ -4594,13 +4597,13 @@
         <v>329</v>
       </c>
       <c r="J35" s="15" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="K35" s="15" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="L35" s="29" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="36" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4617,17 +4620,17 @@
         <v>329</v>
       </c>
       <c r="J36" s="15" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="K36" s="15" t="s">
         <v>466</v>
       </c>
       <c r="L36" s="29" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="37" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C37" s="5" t="s">
+      <c r="C37" s="30" t="s">
         <v>257</v>
       </c>
       <c r="D37" s="5" t="s">
@@ -4674,19 +4677,19 @@
         <v>183</v>
       </c>
       <c r="F39" s="21" t="s">
+        <v>567</v>
+      </c>
+      <c r="G39" s="18" t="s">
+        <v>329</v>
+      </c>
+      <c r="J39" s="15" t="s">
+        <v>574</v>
+      </c>
+      <c r="K39" s="15" t="s">
         <v>568</v>
       </c>
-      <c r="G39" s="18" t="s">
-        <v>329</v>
-      </c>
-      <c r="J39" s="15" t="s">
-        <v>575</v>
-      </c>
-      <c r="K39" s="15" t="s">
-        <v>569</v>
-      </c>
       <c r="L39" s="29" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="N39" s="2" t="s">
         <v>252</v>
@@ -4722,7 +4725,7 @@
       <c r="G41" s="18" t="s">
         <v>329</v>
       </c>
-      <c r="I41" s="18" t="s">
+      <c r="I41" s="31" t="s">
         <v>409</v>
       </c>
       <c r="J41" s="15" t="s">
@@ -4793,7 +4796,7 @@
       </c>
     </row>
     <row r="45" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C45" s="5" t="s">
+      <c r="C45" s="30" t="s">
         <v>241</v>
       </c>
       <c r="D45" s="5" t="s">
@@ -4863,17 +4866,17 @@
         <v>329</v>
       </c>
       <c r="J48" s="15" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="K48" s="15" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="L48" s="29" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="49" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C49" s="5" t="s">
+      <c r="C49" s="30" t="s">
         <v>234</v>
       </c>
       <c r="D49" s="5" t="s">
@@ -4949,19 +4952,19 @@
         <v>183</v>
       </c>
       <c r="F52" s="21" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="G52" s="18" t="s">
         <v>329</v>
       </c>
       <c r="J52" s="15" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="K52" s="15" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="L52" s="29" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="53" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5007,7 +5010,7 @@
       </c>
       <c r="G55" s="18"/>
       <c r="H55" s="18"/>
-      <c r="I55" s="18"/>
+      <c r="I55" s="31"/>
       <c r="J55" s="15"/>
       <c r="K55" s="15"/>
       <c r="L55" s="25"/>
@@ -5031,7 +5034,7 @@
       <c r="H56" s="18" t="s">
         <v>338</v>
       </c>
-      <c r="I56" s="18" t="s">
+      <c r="I56" s="31" t="s">
         <v>417</v>
       </c>
       <c r="J56" s="15" t="s">
@@ -5061,7 +5064,7 @@
       </c>
       <c r="G57" s="18"/>
       <c r="H57" s="18"/>
-      <c r="I57" s="18"/>
+      <c r="I57" s="31"/>
       <c r="J57" s="15"/>
       <c r="K57" s="15"/>
       <c r="L57" s="25"/>
@@ -5089,7 +5092,7 @@
       <c r="H58" s="18" t="s">
         <v>338</v>
       </c>
-      <c r="I58" s="18" t="s">
+      <c r="I58" s="31" t="s">
         <v>417</v>
       </c>
       <c r="J58" s="15" t="s">
@@ -5121,7 +5124,7 @@
       </c>
       <c r="G59" s="18"/>
       <c r="H59" s="18"/>
-      <c r="I59" s="18"/>
+      <c r="I59" s="31"/>
       <c r="J59" s="15"/>
       <c r="K59" s="15"/>
       <c r="L59" s="25"/>
@@ -5145,7 +5148,7 @@
         <v>329</v>
       </c>
       <c r="H60" s="18"/>
-      <c r="I60" s="18" t="s">
+      <c r="I60" s="31" t="s">
         <v>409</v>
       </c>
       <c r="J60" s="15" t="s">
@@ -5177,7 +5180,7 @@
       <c r="H61" s="18" t="s">
         <v>338</v>
       </c>
-      <c r="I61" s="18" t="s">
+      <c r="I61" s="31" t="s">
         <v>409</v>
       </c>
       <c r="J61" s="15"/>
@@ -5211,7 +5214,7 @@
       <c r="H62" s="18" t="s">
         <v>338</v>
       </c>
-      <c r="I62" s="18" t="s">
+      <c r="I62" s="31" t="s">
         <v>409</v>
       </c>
       <c r="J62" s="15"/>
@@ -5245,7 +5248,7 @@
       <c r="H63" s="18" t="s">
         <v>338</v>
       </c>
-      <c r="I63" s="18" t="s">
+      <c r="I63" s="31" t="s">
         <v>417</v>
       </c>
       <c r="J63" s="15"/>
@@ -5275,7 +5278,7 @@
       </c>
       <c r="G64" s="18"/>
       <c r="H64" s="18"/>
-      <c r="I64" s="18"/>
+      <c r="I64" s="31"/>
       <c r="J64" s="15"/>
       <c r="K64" s="15"/>
       <c r="L64" s="25"/>
@@ -5297,7 +5300,7 @@
       </c>
       <c r="G65" s="18"/>
       <c r="H65" s="18"/>
-      <c r="I65" s="18"/>
+      <c r="I65" s="31"/>
       <c r="J65" s="15"/>
       <c r="K65" s="15"/>
       <c r="L65" s="25"/>
@@ -5321,7 +5324,7 @@
       </c>
       <c r="G66" s="18"/>
       <c r="H66" s="18"/>
-      <c r="I66" s="18"/>
+      <c r="I66" s="31"/>
       <c r="J66" s="15"/>
       <c r="K66" s="15" t="s">
         <v>498</v>
@@ -5347,7 +5350,7 @@
       </c>
       <c r="G67" s="18"/>
       <c r="H67" s="18"/>
-      <c r="I67" s="18"/>
+      <c r="I67" s="31"/>
       <c r="J67" s="15"/>
       <c r="K67" s="15" t="s">
         <v>498</v>
@@ -5375,7 +5378,7 @@
       <c r="H68" s="18" t="s">
         <v>338</v>
       </c>
-      <c r="I68" s="18" t="s">
+      <c r="I68" s="31" t="s">
         <v>417</v>
       </c>
       <c r="J68" s="15"/>
@@ -5407,7 +5410,7 @@
       <c r="H69" s="18" t="s">
         <v>338</v>
       </c>
-      <c r="I69" s="18" t="s">
+      <c r="I69" s="31" t="s">
         <v>409</v>
       </c>
       <c r="J69" s="15" t="s">
@@ -5439,7 +5442,7 @@
       </c>
       <c r="G70" s="18"/>
       <c r="H70" s="18"/>
-      <c r="I70" s="18"/>
+      <c r="I70" s="31"/>
       <c r="J70" s="15"/>
       <c r="K70" s="15" t="s">
         <v>463</v>
@@ -5467,7 +5470,7 @@
       <c r="H71" s="18" t="s">
         <v>338</v>
       </c>
-      <c r="I71" s="18" t="s">
+      <c r="I71" s="31" t="s">
         <v>409</v>
       </c>
       <c r="J71" s="15"/>
@@ -5499,7 +5502,7 @@
       <c r="H72" s="18" t="s">
         <v>333</v>
       </c>
-      <c r="I72" s="18" t="s">
+      <c r="I72" s="31" t="s">
         <v>420</v>
       </c>
       <c r="J72" s="15"/>
@@ -5531,7 +5534,7 @@
       <c r="H73" s="18" t="s">
         <v>333</v>
       </c>
-      <c r="I73" s="18" t="s">
+      <c r="I73" s="31" t="s">
         <v>417</v>
       </c>
       <c r="J73" s="15"/>
@@ -5563,7 +5566,7 @@
       <c r="H74" s="18" t="s">
         <v>333</v>
       </c>
-      <c r="I74" s="18" t="s">
+      <c r="I74" s="31" t="s">
         <v>417</v>
       </c>
       <c r="J74" s="15"/>
@@ -5595,7 +5598,7 @@
       <c r="H75" s="18" t="s">
         <v>333</v>
       </c>
-      <c r="I75" s="18" t="s">
+      <c r="I75" s="31" t="s">
         <v>409</v>
       </c>
       <c r="J75" s="15"/>
@@ -5627,7 +5630,7 @@
       </c>
       <c r="G76" s="18"/>
       <c r="H76" s="18"/>
-      <c r="I76" s="18"/>
+      <c r="I76" s="31"/>
       <c r="J76" s="15"/>
       <c r="K76" s="15"/>
       <c r="L76" s="25"/>
@@ -5651,7 +5654,7 @@
       <c r="H77" s="18" t="s">
         <v>338</v>
       </c>
-      <c r="I77" s="18" t="s">
+      <c r="I77" s="31" t="s">
         <v>419</v>
       </c>
       <c r="J77" s="15"/>
@@ -5683,7 +5686,7 @@
       <c r="H78" s="18" t="s">
         <v>338</v>
       </c>
-      <c r="I78" s="18" t="s">
+      <c r="I78" s="31" t="s">
         <v>419</v>
       </c>
       <c r="J78" s="15"/>
@@ -5715,7 +5718,7 @@
       <c r="H79" s="18" t="s">
         <v>338</v>
       </c>
-      <c r="I79" s="18" t="s">
+      <c r="I79" s="31" t="s">
         <v>418</v>
       </c>
       <c r="J79" s="15"/>
@@ -5745,7 +5748,7 @@
       </c>
       <c r="G80" s="18"/>
       <c r="H80" s="18"/>
-      <c r="I80" s="18"/>
+      <c r="I80" s="31"/>
       <c r="J80" s="15"/>
       <c r="K80" s="15"/>
       <c r="L80" s="25"/>
@@ -5767,7 +5770,7 @@
       </c>
       <c r="G81" s="18"/>
       <c r="H81" s="18"/>
-      <c r="I81" s="18"/>
+      <c r="I81" s="31"/>
       <c r="J81" s="15"/>
       <c r="K81" s="15"/>
       <c r="L81" s="25"/>
@@ -5791,7 +5794,7 @@
       </c>
       <c r="G82" s="18"/>
       <c r="H82" s="18"/>
-      <c r="I82" s="18"/>
+      <c r="I82" s="31"/>
       <c r="J82" s="15"/>
       <c r="K82" s="15"/>
       <c r="L82" s="25"/>
@@ -5813,7 +5816,7 @@
       </c>
       <c r="G83" s="18"/>
       <c r="H83" s="18"/>
-      <c r="I83" s="18" t="s">
+      <c r="I83" s="31" t="s">
         <v>441</v>
       </c>
       <c r="J83" s="15"/>
@@ -5847,7 +5850,7 @@
         <v>331</v>
       </c>
       <c r="H84" s="18"/>
-      <c r="I84" s="18"/>
+      <c r="I84" s="31"/>
       <c r="J84" s="15"/>
       <c r="K84" s="15" t="s">
         <v>498</v>
@@ -5875,7 +5878,7 @@
       <c r="H85" s="18" t="s">
         <v>338</v>
       </c>
-      <c r="I85" s="18" t="s">
+      <c r="I85" s="31" t="s">
         <v>417</v>
       </c>
       <c r="J85" s="15"/>
@@ -5907,7 +5910,7 @@
         <v>329</v>
       </c>
       <c r="H86" s="18"/>
-      <c r="I86" s="18"/>
+      <c r="I86" s="31"/>
       <c r="J86" s="15"/>
       <c r="K86" s="15"/>
       <c r="L86" s="25"/>
@@ -5933,7 +5936,7 @@
         <v>329</v>
       </c>
       <c r="H87" s="18"/>
-      <c r="I87" s="18"/>
+      <c r="I87" s="31"/>
       <c r="J87" s="15"/>
       <c r="K87" s="15"/>
       <c r="L87" s="25"/>
@@ -5957,7 +5960,7 @@
         <v>329</v>
       </c>
       <c r="H88" s="18"/>
-      <c r="I88" s="18"/>
+      <c r="I88" s="31"/>
       <c r="J88" s="15"/>
       <c r="K88" s="15"/>
       <c r="L88" s="25"/>
@@ -5981,7 +5984,7 @@
         <v>329</v>
       </c>
       <c r="H89" s="18"/>
-      <c r="I89" s="18"/>
+      <c r="I89" s="31"/>
       <c r="J89" s="15"/>
       <c r="K89" s="15"/>
       <c r="L89" s="25"/>
@@ -6005,7 +6008,7 @@
         <v>329</v>
       </c>
       <c r="H90" s="18"/>
-      <c r="I90" s="18"/>
+      <c r="I90" s="31"/>
       <c r="J90" s="15"/>
       <c r="K90" s="15"/>
       <c r="L90" s="25"/>
@@ -6033,7 +6036,7 @@
       <c r="H91" s="18" t="s">
         <v>338</v>
       </c>
-      <c r="I91" s="18" t="s">
+      <c r="I91" s="31" t="s">
         <v>417</v>
       </c>
       <c r="J91" s="15"/>
@@ -6067,7 +6070,7 @@
       <c r="H92" s="18" t="s">
         <v>338</v>
       </c>
-      <c r="I92" s="18" t="s">
+      <c r="I92" s="31" t="s">
         <v>409</v>
       </c>
       <c r="J92" s="15"/>
@@ -6099,7 +6102,7 @@
       <c r="H93" s="18" t="s">
         <v>338</v>
       </c>
-      <c r="I93" s="18" t="s">
+      <c r="I93" s="31" t="s">
         <v>417</v>
       </c>
       <c r="J93" s="15"/>
@@ -6132,7 +6135,7 @@
         <v>329</v>
       </c>
       <c r="H94" s="18"/>
-      <c r="I94" s="18"/>
+      <c r="I94" s="31"/>
       <c r="J94" s="15"/>
       <c r="K94" s="15"/>
       <c r="L94" s="25"/>
@@ -6154,7 +6157,7 @@
         <v>329</v>
       </c>
       <c r="H95" s="18"/>
-      <c r="I95" s="18"/>
+      <c r="I95" s="31"/>
       <c r="J95" s="15"/>
       <c r="K95" s="15"/>
       <c r="L95" s="25"/>
@@ -6184,7 +6187,7 @@
         <v>329</v>
       </c>
       <c r="H96" s="18"/>
-      <c r="I96" s="18"/>
+      <c r="I96" s="31"/>
       <c r="J96" s="15" t="s">
         <v>480</v>
       </c>
@@ -6210,7 +6213,7 @@
         <v>329</v>
       </c>
       <c r="H97" s="18"/>
-      <c r="I97" s="18"/>
+      <c r="I97" s="31"/>
       <c r="J97" s="15"/>
       <c r="K97" s="15"/>
       <c r="L97" s="25"/>
@@ -6232,7 +6235,7 @@
         <v>329</v>
       </c>
       <c r="H98" s="18"/>
-      <c r="I98" s="18" t="s">
+      <c r="I98" s="31" t="s">
         <v>409</v>
       </c>
       <c r="J98" s="15" t="s">
@@ -6260,7 +6263,7 @@
         <v>329</v>
       </c>
       <c r="H99" s="18"/>
-      <c r="I99" s="18"/>
+      <c r="I99" s="31"/>
       <c r="J99" s="15"/>
       <c r="K99" s="15" t="s">
         <v>463</v>
@@ -6284,7 +6287,7 @@
         <v>329</v>
       </c>
       <c r="H100" s="18"/>
-      <c r="I100" s="18"/>
+      <c r="I100" s="31"/>
       <c r="J100" s="15"/>
       <c r="K100" s="15" t="s">
         <v>457</v>
@@ -6311,7 +6314,7 @@
         <v>329</v>
       </c>
       <c r="H101" s="18"/>
-      <c r="I101" s="18"/>
+      <c r="I101" s="31"/>
       <c r="J101" s="15" t="s">
         <v>544</v>
       </c>
@@ -6337,7 +6340,7 @@
         <v>329</v>
       </c>
       <c r="H102" s="18"/>
-      <c r="I102" s="18" t="s">
+      <c r="I102" s="31" t="s">
         <v>409</v>
       </c>
       <c r="J102" s="17" t="s">
@@ -6367,7 +6370,7 @@
         <v>329</v>
       </c>
       <c r="H103" s="18"/>
-      <c r="I103" s="18" t="s">
+      <c r="I103" s="31" t="s">
         <v>412</v>
       </c>
       <c r="J103" s="15" t="s">
@@ -6397,7 +6400,7 @@
         <v>329</v>
       </c>
       <c r="H104" s="18"/>
-      <c r="I104" s="18"/>
+      <c r="I104" s="31"/>
       <c r="J104" s="15" t="s">
         <v>353</v>
       </c>
@@ -6415,7 +6418,7 @@
       <c r="B105" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="C105" s="5" t="s">
+      <c r="C105" s="30" t="s">
         <v>120</v>
       </c>
       <c r="D105" s="5" t="s">
@@ -6431,7 +6434,7 @@
         <v>329</v>
       </c>
       <c r="H105" s="18"/>
-      <c r="I105" s="18"/>
+      <c r="I105" s="31"/>
       <c r="J105" s="15" t="s">
         <v>545</v>
       </c>
@@ -6457,7 +6460,7 @@
         <v>329</v>
       </c>
       <c r="H106" s="18"/>
-      <c r="I106" s="18"/>
+      <c r="I106" s="31"/>
       <c r="J106" s="15" t="s">
         <v>428</v>
       </c>
@@ -6485,7 +6488,7 @@
         <v>329</v>
       </c>
       <c r="H107" s="18"/>
-      <c r="I107" s="18" t="s">
+      <c r="I107" s="31" t="s">
         <v>440</v>
       </c>
       <c r="J107" s="15" t="s">
@@ -6515,7 +6518,7 @@
         <v>329</v>
       </c>
       <c r="H108" s="18"/>
-      <c r="I108" s="18"/>
+      <c r="I108" s="31"/>
       <c r="J108" s="15" t="s">
         <v>442</v>
       </c>
@@ -6543,7 +6546,7 @@
         <v>329</v>
       </c>
       <c r="H109" s="18"/>
-      <c r="I109" s="18"/>
+      <c r="I109" s="31"/>
       <c r="J109" s="15" t="s">
         <v>444</v>
       </c>
@@ -6573,7 +6576,7 @@
         <v>329</v>
       </c>
       <c r="H110" s="18"/>
-      <c r="I110" s="18"/>
+      <c r="I110" s="31"/>
       <c r="J110" s="15" t="s">
         <v>446</v>
       </c>
@@ -6601,7 +6604,7 @@
         <v>329</v>
       </c>
       <c r="H111" s="18"/>
-      <c r="I111" s="18" t="s">
+      <c r="I111" s="31" t="s">
         <v>441</v>
       </c>
       <c r="J111" s="15" t="s">
@@ -6635,7 +6638,7 @@
         <v>329</v>
       </c>
       <c r="H112" s="18"/>
-      <c r="I112" s="18" t="s">
+      <c r="I112" s="31" t="s">
         <v>433</v>
       </c>
       <c r="J112" s="15" t="s">
@@ -6667,7 +6670,7 @@
         <v>329</v>
       </c>
       <c r="H113" s="18"/>
-      <c r="I113" s="18"/>
+      <c r="I113" s="31"/>
       <c r="J113" s="15"/>
       <c r="K113" s="15" t="s">
         <v>434</v>
@@ -6679,7 +6682,7 @@
     <row r="114" spans="1:14" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="6"/>
       <c r="B114" s="5"/>
-      <c r="C114" s="5" t="s">
+      <c r="C114" s="30" t="s">
         <v>102</v>
       </c>
       <c r="D114" s="5" t="s">
@@ -6695,7 +6698,7 @@
         <v>329</v>
       </c>
       <c r="H114" s="18"/>
-      <c r="I114" s="18"/>
+      <c r="I114" s="31"/>
       <c r="J114" s="15"/>
       <c r="K114" s="15" t="s">
         <v>434</v>
@@ -6721,7 +6724,7 @@
         <v>329</v>
       </c>
       <c r="H115" s="18"/>
-      <c r="I115" s="18"/>
+      <c r="I115" s="31"/>
       <c r="J115" s="15" t="s">
         <v>436</v>
       </c>
@@ -6749,7 +6752,7 @@
         <v>329</v>
       </c>
       <c r="H116" s="18"/>
-      <c r="I116" s="18"/>
+      <c r="I116" s="31"/>
       <c r="J116" s="15"/>
       <c r="K116" s="15" t="s">
         <v>354</v>
@@ -6781,7 +6784,7 @@
         <v>329</v>
       </c>
       <c r="H117" s="18"/>
-      <c r="I117" s="18"/>
+      <c r="I117" s="31"/>
       <c r="J117" s="15"/>
       <c r="K117" s="15"/>
       <c r="L117" s="25"/>
@@ -6805,7 +6808,7 @@
         <v>329</v>
       </c>
       <c r="H118" s="18"/>
-      <c r="I118" s="18"/>
+      <c r="I118" s="31"/>
       <c r="J118" s="15" t="s">
         <v>482</v>
       </c>
@@ -6837,7 +6840,7 @@
       <c r="H119" s="18" t="s">
         <v>338</v>
       </c>
-      <c r="I119" s="18"/>
+      <c r="I119" s="31"/>
       <c r="J119" s="15" t="s">
         <v>486</v>
       </c>
@@ -6871,7 +6874,7 @@
         <v>329</v>
       </c>
       <c r="H120" s="18"/>
-      <c r="I120" s="18"/>
+      <c r="I120" s="31"/>
       <c r="J120" s="15"/>
       <c r="K120" s="15"/>
       <c r="L120" s="25"/>
@@ -6897,7 +6900,7 @@
       <c r="H121" s="18" t="s">
         <v>338</v>
       </c>
-      <c r="I121" s="18" t="s">
+      <c r="I121" s="31" t="s">
         <v>412</v>
       </c>
       <c r="J121" s="15"/>
@@ -6927,7 +6930,7 @@
         <v>329</v>
       </c>
       <c r="H122" s="18"/>
-      <c r="I122" s="18"/>
+      <c r="I122" s="31"/>
       <c r="J122" s="15"/>
       <c r="K122" s="15"/>
       <c r="L122" s="25"/>
@@ -6951,7 +6954,7 @@
         <v>329</v>
       </c>
       <c r="H123" s="18"/>
-      <c r="I123" s="18"/>
+      <c r="I123" s="31"/>
       <c r="J123" s="15" t="s">
         <v>487</v>
       </c>
@@ -6979,7 +6982,7 @@
         <v>329</v>
       </c>
       <c r="H124" s="18"/>
-      <c r="I124" s="18" t="s">
+      <c r="I124" s="31" t="s">
         <v>441</v>
       </c>
       <c r="J124" s="15" t="s">
@@ -7009,7 +7012,7 @@
         <v>329</v>
       </c>
       <c r="H125" s="18"/>
-      <c r="I125" s="18" t="s">
+      <c r="I125" s="31" t="s">
         <v>492</v>
       </c>
       <c r="J125" s="15" t="s">
@@ -7039,7 +7042,7 @@
         <v>329</v>
       </c>
       <c r="H126" s="18"/>
-      <c r="I126" s="18" t="s">
+      <c r="I126" s="31" t="s">
         <v>441</v>
       </c>
       <c r="J126" s="15" t="s">
@@ -7055,7 +7058,7 @@
     <row r="127" spans="1:14" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" s="6"/>
       <c r="B127" s="5"/>
-      <c r="C127" s="5" t="s">
+      <c r="C127" s="30" t="s">
         <v>78</v>
       </c>
       <c r="D127" s="5" t="s">
@@ -7071,7 +7074,7 @@
         <v>329</v>
       </c>
       <c r="H127" s="18"/>
-      <c r="I127" s="18"/>
+      <c r="I127" s="31"/>
       <c r="J127" s="15"/>
       <c r="K127" s="15"/>
       <c r="L127" s="25"/>
@@ -7097,7 +7100,7 @@
       <c r="H128" s="18" t="s">
         <v>338</v>
       </c>
-      <c r="I128" s="18" t="s">
+      <c r="I128" s="31" t="s">
         <v>534</v>
       </c>
       <c r="J128" s="15" t="s">
@@ -7131,7 +7134,7 @@
         <v>329</v>
       </c>
       <c r="H129" s="18"/>
-      <c r="I129" s="18"/>
+      <c r="I129" s="31"/>
       <c r="J129" s="15" t="s">
         <v>421</v>
       </c>
@@ -7159,7 +7162,7 @@
         <v>329</v>
       </c>
       <c r="H130" s="18"/>
-      <c r="I130" s="18"/>
+      <c r="I130" s="31"/>
       <c r="J130" s="15"/>
       <c r="K130" s="15" t="s">
         <v>422</v>
@@ -7185,7 +7188,7 @@
         <v>329</v>
       </c>
       <c r="H131" s="18"/>
-      <c r="I131" s="18"/>
+      <c r="I131" s="31"/>
       <c r="J131" s="15"/>
       <c r="K131" s="15" t="s">
         <v>422</v>
@@ -7211,7 +7214,7 @@
         <v>329</v>
       </c>
       <c r="H132" s="18"/>
-      <c r="I132" s="18"/>
+      <c r="I132" s="31"/>
       <c r="J132" s="15"/>
       <c r="K132" s="15" t="s">
         <v>422</v>
@@ -7243,7 +7246,7 @@
         <v>329</v>
       </c>
       <c r="H133" s="18"/>
-      <c r="I133" s="18"/>
+      <c r="I133" s="31"/>
       <c r="J133" s="15"/>
       <c r="K133" s="15"/>
       <c r="L133" s="25"/>
@@ -7253,7 +7256,7 @@
     <row r="134" spans="1:14" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A134" s="6"/>
       <c r="B134" s="5"/>
-      <c r="C134" s="5" t="s">
+      <c r="C134" s="30" t="s">
         <v>66</v>
       </c>
       <c r="D134" s="5" t="s">
@@ -7269,7 +7272,7 @@
         <v>329</v>
       </c>
       <c r="H134" s="18"/>
-      <c r="I134" s="18"/>
+      <c r="I134" s="31"/>
       <c r="J134" s="15" t="s">
         <v>356</v>
       </c>
@@ -7299,7 +7302,7 @@
         <v>329</v>
       </c>
       <c r="H135" s="18"/>
-      <c r="I135" s="18"/>
+      <c r="I135" s="31"/>
       <c r="J135" s="16" t="s">
         <v>388</v>
       </c>
@@ -7327,7 +7330,7 @@
         <v>329</v>
       </c>
       <c r="H136" s="18"/>
-      <c r="I136" s="18"/>
+      <c r="I136" s="31"/>
       <c r="J136" s="15" t="s">
         <v>389</v>
       </c>
@@ -7355,7 +7358,7 @@
         <v>329</v>
       </c>
       <c r="H137" s="18"/>
-      <c r="I137" s="18"/>
+      <c r="I137" s="31"/>
       <c r="J137" s="15" t="s">
         <v>390</v>
       </c>
@@ -7385,7 +7388,7 @@
         <v>329</v>
       </c>
       <c r="H138" s="18"/>
-      <c r="I138" s="18"/>
+      <c r="I138" s="31"/>
       <c r="J138" s="23"/>
       <c r="K138" s="16" t="s">
         <v>354</v>
@@ -7413,14 +7416,14 @@
       <c r="H139" s="18" t="s">
         <v>338</v>
       </c>
-      <c r="I139" s="18" t="s">
+      <c r="I139" s="31" t="s">
         <v>411</v>
       </c>
-      <c r="J139" s="15" t="s">
-        <v>546</v>
+      <c r="J139" s="23" t="s">
+        <v>577</v>
       </c>
       <c r="K139" s="25" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="L139" s="25" t="s">
         <v>378</v>
@@ -7447,7 +7450,7 @@
         <v>329</v>
       </c>
       <c r="H140" s="18"/>
-      <c r="I140" s="18"/>
+      <c r="I140" s="31"/>
       <c r="J140" s="25" t="s">
         <v>393</v>
       </c>
@@ -7475,7 +7478,7 @@
         <v>329</v>
       </c>
       <c r="H141" s="18"/>
-      <c r="I141" s="18"/>
+      <c r="I141" s="31"/>
       <c r="J141" s="15" t="s">
         <v>395</v>
       </c>
@@ -7503,7 +7506,7 @@
         <v>329</v>
       </c>
       <c r="H142" s="18"/>
-      <c r="I142" s="18"/>
+      <c r="I142" s="31"/>
       <c r="J142" s="15" t="s">
         <v>396</v>
       </c>
@@ -7531,7 +7534,7 @@
         <v>329</v>
       </c>
       <c r="H143" s="18"/>
-      <c r="I143" s="18" t="s">
+      <c r="I143" s="31" t="s">
         <v>427</v>
       </c>
       <c r="J143" s="15"/>
@@ -7567,11 +7570,11 @@
       <c r="H144" s="18" t="s">
         <v>338</v>
       </c>
-      <c r="I144" s="18" t="s">
+      <c r="I144" s="31" t="s">
         <v>412</v>
       </c>
       <c r="J144" s="15" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="K144" s="16" t="s">
         <v>344</v>
@@ -7601,7 +7604,7 @@
         <v>329</v>
       </c>
       <c r="H145" s="18"/>
-      <c r="I145" s="18"/>
+      <c r="I145" s="31"/>
       <c r="J145" s="25" t="s">
         <v>399</v>
       </c>
@@ -7629,7 +7632,7 @@
         <v>329</v>
       </c>
       <c r="H146" s="18"/>
-      <c r="I146" s="18"/>
+      <c r="I146" s="31"/>
       <c r="J146" s="15" t="s">
         <v>360</v>
       </c>
@@ -7657,7 +7660,7 @@
         <v>329</v>
       </c>
       <c r="H147" s="18"/>
-      <c r="I147" s="18" t="s">
+      <c r="I147" s="31" t="s">
         <v>411</v>
       </c>
       <c r="J147" s="15" t="s">
@@ -7689,7 +7692,7 @@
         <v>329</v>
       </c>
       <c r="H148" s="18"/>
-      <c r="I148" s="18"/>
+      <c r="I148" s="31"/>
       <c r="J148" s="15" t="s">
         <v>401</v>
       </c>
@@ -7719,7 +7722,7 @@
         <v>329</v>
       </c>
       <c r="H149" s="18"/>
-      <c r="I149" s="18"/>
+      <c r="I149" s="31"/>
       <c r="J149" s="17" t="s">
         <v>364</v>
       </c>
@@ -7747,7 +7750,7 @@
         <v>329</v>
       </c>
       <c r="H150" s="18"/>
-      <c r="I150" s="18"/>
+      <c r="I150" s="31"/>
       <c r="J150" s="15" t="s">
         <v>403</v>
       </c>
@@ -7775,7 +7778,7 @@
         <v>329</v>
       </c>
       <c r="H151" s="18"/>
-      <c r="I151" s="18"/>
+      <c r="I151" s="31"/>
       <c r="J151" s="15"/>
       <c r="K151" s="15" t="s">
         <v>354</v>
@@ -7801,7 +7804,7 @@
         <v>329</v>
       </c>
       <c r="H152" s="18"/>
-      <c r="I152" s="18"/>
+      <c r="I152" s="31"/>
       <c r="J152" s="15" t="s">
         <v>404</v>
       </c>
@@ -7829,7 +7832,7 @@
         <v>329</v>
       </c>
       <c r="H153" s="18"/>
-      <c r="I153" s="18" t="s">
+      <c r="I153" s="31" t="s">
         <v>412</v>
       </c>
       <c r="J153" s="15" t="s">
@@ -7859,7 +7862,7 @@
         <v>329</v>
       </c>
       <c r="H154" s="18"/>
-      <c r="I154" s="18" t="s">
+      <c r="I154" s="31" t="s">
         <v>413</v>
       </c>
       <c r="J154" s="15" t="s">
@@ -7875,7 +7878,7 @@
     <row r="155" spans="1:14" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A155" s="6"/>
       <c r="B155" s="5"/>
-      <c r="C155" s="5" t="s">
+      <c r="C155" s="30" t="s">
         <v>29</v>
       </c>
       <c r="D155" s="5" t="s">
@@ -7891,7 +7894,7 @@
         <v>329</v>
       </c>
       <c r="H155" s="18"/>
-      <c r="I155" s="18"/>
+      <c r="I155" s="31"/>
       <c r="J155" s="15" t="s">
         <v>363</v>
       </c>
@@ -7921,7 +7924,7 @@
         <v>329</v>
       </c>
       <c r="H156" s="18"/>
-      <c r="I156" s="18"/>
+      <c r="I156" s="31"/>
       <c r="J156" s="16" t="s">
         <v>365</v>
       </c>
@@ -7949,7 +7952,7 @@
         <v>329</v>
       </c>
       <c r="H157" s="18"/>
-      <c r="I157" s="18"/>
+      <c r="I157" s="31"/>
       <c r="J157" s="16" t="s">
         <v>366</v>
       </c>
@@ -7977,7 +7980,7 @@
         <v>329</v>
       </c>
       <c r="H158" s="18"/>
-      <c r="I158" s="18" t="s">
+      <c r="I158" s="31" t="s">
         <v>412</v>
       </c>
       <c r="J158" s="16" t="s">
@@ -7993,7 +7996,7 @@
     <row r="159" spans="1:14" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A159" s="6"/>
       <c r="B159" s="5"/>
-      <c r="C159" s="5" t="s">
+      <c r="C159" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D159" s="5" t="s">
@@ -8009,9 +8012,9 @@
         <v>329</v>
       </c>
       <c r="H159" s="18"/>
-      <c r="I159" s="18"/>
+      <c r="I159" s="31"/>
       <c r="J159" s="15" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="K159" s="16" t="s">
         <v>347</v>
@@ -8037,7 +8040,7 @@
         <v>329</v>
       </c>
       <c r="H160" s="18"/>
-      <c r="I160" s="18"/>
+      <c r="I160" s="31"/>
       <c r="J160" s="25" t="s">
         <v>537</v>
       </c>
@@ -8065,7 +8068,7 @@
         <v>329</v>
       </c>
       <c r="H161" s="18"/>
-      <c r="I161" s="18"/>
+      <c r="I161" s="31"/>
       <c r="J161" s="17" t="s">
         <v>541</v>
       </c>
@@ -8093,7 +8096,7 @@
         <v>329</v>
       </c>
       <c r="H162" s="18"/>
-      <c r="I162" s="18" t="s">
+      <c r="I162" s="31" t="s">
         <v>415</v>
       </c>
       <c r="J162" s="17" t="s">
@@ -8125,7 +8128,7 @@
       <c r="H163" s="18" t="s">
         <v>338</v>
       </c>
-      <c r="I163" s="18" t="s">
+      <c r="I163" s="31" t="s">
         <v>409</v>
       </c>
       <c r="J163" s="15" t="s">
@@ -8153,7 +8156,7 @@
       <c r="F164" s="3"/>
       <c r="G164" s="18"/>
       <c r="H164" s="18"/>
-      <c r="I164" s="18"/>
+      <c r="I164" s="31"/>
       <c r="J164" s="15"/>
       <c r="K164" s="15"/>
       <c r="L164" s="25"/>
@@ -8185,7 +8188,7 @@
       <c r="H165" s="18" t="s">
         <v>333</v>
       </c>
-      <c r="I165" s="18" t="s">
+      <c r="I165" s="31" t="s">
         <v>416</v>
       </c>
       <c r="J165" s="23"/>
@@ -8212,7 +8215,7 @@
       <c r="H166" s="18" t="s">
         <v>333</v>
       </c>
-      <c r="I166" s="18" t="s">
+      <c r="I166" s="31" t="s">
         <v>412</v>
       </c>
       <c r="J166" s="24"/>
@@ -8237,7 +8240,7 @@
       <c r="H167" s="18" t="s">
         <v>333</v>
       </c>
-      <c r="I167" s="18" t="s">
+      <c r="I167" s="31" t="s">
         <v>412</v>
       </c>
       <c r="J167" s="16"/>
@@ -8262,7 +8265,7 @@
       <c r="H168" s="18" t="s">
         <v>333</v>
       </c>
-      <c r="I168" s="18" t="s">
+      <c r="I168" s="31" t="s">
         <v>412</v>
       </c>
       <c r="J168" s="16"/>

--- a/trunk/biz/MC-MSC-Web/qxy接口定义文档2016-8-8/【千校云】bug列表.xlsx
+++ b/trunk/biz/MC-MSC-Web/qxy接口定义文档2016-8-8/【千校云】bug列表.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\docs\api\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\svn\trunk\biz\MC-MSC-Web\qxy接口定义文档2016-8-8\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2565,10 +2565,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/qxy/duty/list?type=[type]&amp;token=[token]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>139.196.101.78:8668/duty/list?token=910820738640559462371283192</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2905,6 +2901,10 @@
   </si>
   <si>
     <t>http://139.196.101.78:8668/class?cid=1&amp;page=1&amp;size=1&amp;token=910820738640559462371283192</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/qxy/duty/list?type=[type]&amp;token=[token]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3821,10 +3821,10 @@
   <dimension ref="A1:AJ168"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="G14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N9" sqref="N9"/>
+      <selection pane="bottomRight" activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4150,28 +4150,28 @@
     </row>
     <row r="14" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D14" s="5" t="s">
+        <v>548</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>549</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="F14" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="G14" s="18" t="s">
+        <v>329</v>
+      </c>
+      <c r="I14" s="31" t="s">
         <v>550</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>570</v>
-      </c>
-      <c r="G14" s="18" t="s">
-        <v>329</v>
-      </c>
-      <c r="I14" s="31" t="s">
+      <c r="J14" s="15" t="s">
         <v>551</v>
       </c>
-      <c r="J14" s="15" t="s">
+      <c r="K14" s="15" t="s">
         <v>552</v>
       </c>
-      <c r="K14" s="15" t="s">
+      <c r="L14" s="28" t="s">
         <v>553</v>
-      </c>
-      <c r="L14" s="28" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="15" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4208,13 +4208,13 @@
         <v>409</v>
       </c>
       <c r="J16" s="15" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="K16" s="15" t="s">
         <v>501</v>
       </c>
       <c r="L16" s="29" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4262,7 +4262,7 @@
         <v>329</v>
       </c>
       <c r="J19" s="15" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="K19" s="16" t="s">
         <v>340</v>
@@ -4348,16 +4348,16 @@
         <v>190</v>
       </c>
       <c r="F23" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="J23" s="15" t="s">
         <v>522</v>
       </c>
-      <c r="J23" s="15" t="s">
-        <v>523</v>
-      </c>
       <c r="K23" s="15" t="s">
+        <v>519</v>
+      </c>
+      <c r="L23" s="25" t="s">
         <v>520</v>
-      </c>
-      <c r="L23" s="25" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4371,13 +4371,13 @@
         <v>273</v>
       </c>
       <c r="J24" s="15" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="K24" s="15" t="s">
+        <v>519</v>
+      </c>
+      <c r="L24" s="25" t="s">
         <v>520</v>
-      </c>
-      <c r="L24" s="25" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4388,7 +4388,7 @@
         <v>190</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="G25" s="18" t="s">
         <v>329</v>
@@ -4397,13 +4397,13 @@
         <v>409</v>
       </c>
       <c r="J25" s="15" t="s">
+        <v>515</v>
+      </c>
+      <c r="K25" s="15" t="s">
+        <v>518</v>
+      </c>
+      <c r="L25" s="25" t="s">
         <v>516</v>
-      </c>
-      <c r="K25" s="15" t="s">
-        <v>519</v>
-      </c>
-      <c r="L25" s="25" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4414,16 +4414,16 @@
         <v>7</v>
       </c>
       <c r="F26" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="G26" s="18" t="s">
+        <v>329</v>
+      </c>
+      <c r="J26" s="15" t="s">
         <v>512</v>
       </c>
-      <c r="G26" s="18" t="s">
-        <v>329</v>
-      </c>
-      <c r="J26" s="15" t="s">
+      <c r="K26" s="15" t="s">
         <v>513</v>
-      </c>
-      <c r="K26" s="15" t="s">
-        <v>514</v>
       </c>
       <c r="N26" s="2" t="s">
         <v>270</v>
@@ -4437,19 +4437,19 @@
         <v>190</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="G27" s="18" t="s">
         <v>329</v>
       </c>
       <c r="J27" s="15" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="K27" s="15" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="L27" s="29" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4466,16 +4466,16 @@
         <v>329</v>
       </c>
       <c r="I28" s="31" t="s">
+        <v>558</v>
+      </c>
+      <c r="J28" s="15" t="s">
         <v>559</v>
-      </c>
-      <c r="J28" s="15" t="s">
-        <v>560</v>
       </c>
       <c r="K28" s="15">
         <v>404</v>
       </c>
       <c r="L28" s="29" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4554,10 +4554,10 @@
         <v>329</v>
       </c>
       <c r="K33" s="15" t="s">
+        <v>519</v>
+      </c>
+      <c r="L33" s="25" t="s">
         <v>520</v>
-      </c>
-      <c r="L33" s="25" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="34" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4597,13 +4597,13 @@
         <v>329</v>
       </c>
       <c r="J35" s="15" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="K35" s="15" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="L35" s="29" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="36" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4620,13 +4620,13 @@
         <v>329</v>
       </c>
       <c r="J36" s="15" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="K36" s="15" t="s">
         <v>466</v>
       </c>
       <c r="L36" s="29" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="37" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4677,19 +4677,19 @@
         <v>183</v>
       </c>
       <c r="F39" s="21" t="s">
+        <v>566</v>
+      </c>
+      <c r="G39" s="18" t="s">
+        <v>329</v>
+      </c>
+      <c r="J39" s="15" t="s">
+        <v>573</v>
+      </c>
+      <c r="K39" s="15" t="s">
         <v>567</v>
       </c>
-      <c r="G39" s="18" t="s">
-        <v>329</v>
-      </c>
-      <c r="J39" s="15" t="s">
-        <v>574</v>
-      </c>
-      <c r="K39" s="15" t="s">
-        <v>568</v>
-      </c>
       <c r="L39" s="29" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="N39" s="2" t="s">
         <v>252</v>
@@ -4709,7 +4709,7 @@
         <v>249</v>
       </c>
       <c r="K40" s="15" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="41" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4720,7 +4720,7 @@
         <v>187</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="G41" s="18" t="s">
         <v>329</v>
@@ -4729,13 +4729,13 @@
         <v>409</v>
       </c>
       <c r="J41" s="15" t="s">
+        <v>527</v>
+      </c>
+      <c r="K41" s="15" t="s">
         <v>528</v>
       </c>
-      <c r="K41" s="15" t="s">
+      <c r="L41" s="25" t="s">
         <v>529</v>
-      </c>
-      <c r="L41" s="25" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="42" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4752,7 +4752,7 @@
         <v>329</v>
       </c>
       <c r="K42" s="15" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="43" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4769,7 +4769,7 @@
         <v>329</v>
       </c>
       <c r="J43" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="K43" s="15" t="s">
         <v>354</v>
@@ -4789,10 +4789,10 @@
         <v>329</v>
       </c>
       <c r="K44" s="15" t="s">
+        <v>530</v>
+      </c>
+      <c r="L44" s="25" t="s">
         <v>531</v>
-      </c>
-      <c r="L44" s="25" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="45" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4866,13 +4866,13 @@
         <v>329</v>
       </c>
       <c r="J48" s="15" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="K48" s="15" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="L48" s="29" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="49" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4952,19 +4952,19 @@
         <v>183</v>
       </c>
       <c r="F52" s="21" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="G52" s="18" t="s">
         <v>329</v>
       </c>
       <c r="J52" s="15" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="K52" s="15" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="L52" s="29" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="53" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -6316,7 +6316,7 @@
       <c r="H101" s="18"/>
       <c r="I101" s="31"/>
       <c r="J101" s="15" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="K101" s="16" t="s">
         <v>340</v>
@@ -6436,7 +6436,7 @@
       <c r="H105" s="18"/>
       <c r="I105" s="31"/>
       <c r="J105" s="15" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="K105" s="16" t="s">
         <v>340</v>
@@ -6614,7 +6614,7 @@
         <v>430</v>
       </c>
       <c r="L111" s="25" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="M111" s="19"/>
       <c r="N111" s="2" t="s">
@@ -7101,7 +7101,7 @@
         <v>338</v>
       </c>
       <c r="I128" s="31" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="J128" s="15" t="s">
         <v>500</v>
@@ -7420,10 +7420,10 @@
         <v>411</v>
       </c>
       <c r="J139" s="23" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="K139" s="25" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="L139" s="25" t="s">
         <v>378</v>
@@ -7574,7 +7574,7 @@
         <v>412</v>
       </c>
       <c r="J144" s="15" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="K144" s="16" t="s">
         <v>344</v>
@@ -8014,7 +8014,7 @@
       <c r="H159" s="18"/>
       <c r="I159" s="31"/>
       <c r="J159" s="15" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="K159" s="16" t="s">
         <v>347</v>
@@ -8034,7 +8034,7 @@
         <v>5</v>
       </c>
       <c r="F160" s="22" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G160" s="18" t="s">
         <v>329</v>
@@ -8042,10 +8042,10 @@
       <c r="H160" s="18"/>
       <c r="I160" s="31"/>
       <c r="J160" s="25" t="s">
+        <v>536</v>
+      </c>
+      <c r="K160" s="25" t="s">
         <v>537</v>
-      </c>
-      <c r="K160" s="25" t="s">
-        <v>538</v>
       </c>
       <c r="L160" s="25"/>
       <c r="M160" s="19"/>
@@ -8070,10 +8070,10 @@
       <c r="H161" s="18"/>
       <c r="I161" s="31"/>
       <c r="J161" s="17" t="s">
+        <v>540</v>
+      </c>
+      <c r="K161" s="16" t="s">
         <v>541</v>
-      </c>
-      <c r="K161" s="16" t="s">
-        <v>542</v>
       </c>
       <c r="L161" s="25"/>
       <c r="M161" s="19"/>
@@ -8100,10 +8100,10 @@
         <v>415</v>
       </c>
       <c r="J162" s="17" t="s">
+        <v>538</v>
+      </c>
+      <c r="K162" s="16" t="s">
         <v>539</v>
-      </c>
-      <c r="K162" s="16" t="s">
-        <v>540</v>
       </c>
       <c r="L162" s="25"/>
       <c r="M162" s="19"/>
@@ -8120,7 +8120,7 @@
         <v>7</v>
       </c>
       <c r="F163" s="9" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="G163" s="18" t="s">
         <v>329</v>

--- a/trunk/biz/MC-MSC-Web/qxy接口定义文档2016-8-8/【千校云】bug列表.xlsx
+++ b/trunk/biz/MC-MSC-Web/qxy接口定义文档2016-8-8/【千校云】bug列表.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\svn\trunk\biz\MC-MSC-Web\qxy接口定义文档2016-8-8\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mkq\svn\trunk\biz\MC-MSC-Web\qxy接口定义文档2016-8-8\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -107,7 +107,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1084" uniqueCount="578">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="593">
   <si>
     <t>/qxy/trip</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -293,10 +293,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/qxy/class/worktime?class=[cid]&amp;page=[page]&amp;size=[size]&amp;token=[token]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>班级作息模版查询接口</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -329,10 +325,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/qxy/class?class=[cid]&amp;page=[page]&amp;size=[size]&amp;token=[token]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>学校班级查询接口</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -393,10 +385,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>rfid卡对应学生列表查询搜索接口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/qxy/studentrfid</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -457,10 +445,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/qxy/class/alarmlist?cid=[cid]&amp;page=[page]&amp;size=[size]&amp;token=[token]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>班级报警列表查询接口</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -481,10 +465,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/qxy/stundent/namelist?class=[cid]&amp;token=[token]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>学生列表查询接口</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -573,10 +553,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/qxy/teacher/list?label=[labelId]&amp;type=[type]&amp;page=[page]&amp;size=[size]&amp;token=[token]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>教工列表查询接口</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -653,10 +629,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/qxy/calendar?term=[term_id]&amp;time=[startTime|endTime]&amp;token=[token]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>学校校历查询接口</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -753,10 +725,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/qxy/syllabus?class=[cid]&amp;day=[startDay|endDay]&amp;token=[token]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>班级课表查询接口</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -813,18 +781,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/qxy/stundent/search?student=[studentId]&amp;number=[number]&amp;token=[token]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>学生搜索接口</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/qxy/stundent/list?class=[cid]&amp;page=[page]&amp;size=[size]&amp;token=[token]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>学生列表搜索查询接口</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -865,10 +825,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/qxy/class/student/parent/list?student=[studentId]&amp;type=[type]&amp;token=[token]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>GET</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -901,10 +857,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/qxy/class/student/info?student=[studentId]&amp;token=[token]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>班级学生信息查询接口</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -913,10 +865,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/qxy/class/student/search?student=[studentId]&amp;number=[number]&amp;token=[token]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>班级学生搜索接口</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -925,10 +873,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/qxy/class/student/list?class=[cid]&amp;page=[page]&amp;size=[size]&amp;token=[token]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>班级学生列表查询接口</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -985,10 +929,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/qxy/class/course?class=[cid]&amp;token=[token]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>班级课程查询接口</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1037,10 +977,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/qxy/oarule?oatags=[oatagsId]&amp;page=[page]&amp;size=[size]&amp;token=[token]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>工作流程事项模板规则查询接口</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1085,10 +1021,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/qxy/myaudit?teacher=[tid]&amp;token=[token]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>我的审批事项查询接口</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1105,10 +1037,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/qxy/myapplication?teacher=[tid]&amp;token=[token]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>我提交的事项查询接口</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1201,10 +1129,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/qxy/schedule/week?term=[term_id]&amp;week=[week]&amp;token=[token]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>值周工作安排查询接口</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1277,10 +1201,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/qxy/news?column=[colId]&amp;time=[startTime|endTime]&amp;type=[type]&amp;teacher=[tid]&amp;page=[page]&amp;size=[size]&amp;token=[token]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>新闻列表查询接口</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1293,18 +1213,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/qxy/schedule/mobile/day?term=[term]&amp;date=[date]&amp;teacher=[tid]&amp;token=[token]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>值日工作（手机端）安排查询接口</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/qxy/schedule/mobile/week?term=[term_id]&amp;week=[week]&amp;teacher=[tid]&amp;token=[token]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>值周工作（手机端）安排查询接口</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1313,10 +1225,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/qxy/parent/class?term=[term]&amp;parent=[parentId]&amp;student=[studentId]&amp;token=[token]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>家长角色对应学生所属班</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1325,15 +1233,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/qxy/class/teacher?term=[term]&amp;class=[cid]&amp;token=[token]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>班级查询任课老师</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/qxy/teacher/class?term=[termId]&amp;teacher=[tid]&amp;token=[token]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1640,10 +1540,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/qxy/class/parent?term=[term]&amp;class=[cid]&amp;student=[studentId]&amp;page=[page]&amp;size=[size]&amp;token=[token]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{
  "token":"910820738640559462371283192",
     "termId": "1",
@@ -2050,10 +1946,6 @@
   </si>
   <si>
     <t>返回正常</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/qxy/rfidstudent?rfid=[rfid]&amp;page=[page]&amp;size=[size]&amp;token=[token]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2215,10 +2107,6 @@
 "status": 3,
 "token": ""
 }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/qxy/classlist?class=[cid]&amp;page=[page]&amp;size=[size]&amp;token=[token]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2425,10 +2313,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/qxy/securitylog?student=[studentId]&amp;device=[deviceId]&amp;time=[startTime|endTime]&amp;page=[page]&amp;size=[size]&amp;token=[token]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>139.196.101.78:8668/securitylog?token=910820738640559462371283192</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2497,10 +2381,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/qxy/trip?teacher=[tid]&amp;day=[date]&amp;page=[page]&amp;size=[size]&amp;token=[token]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/qxy/trip</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2513,14 +2393,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/qxy/studentrfidlist?student=[studetId]&amp;page=[page]&amp;size=[size]&amp;token=[token]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>139.196.101.78:8668/studentrfidlist?student=1&amp;token=910820738640559462371283192</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>提示新闻id不能为空</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2549,10 +2421,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/qxy/newlist?column=[colId]&amp;page=[page]&amp;size=[size]&amp;token=[token]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>需要处理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2573,10 +2441,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/qxy/schedule/day?term=[term]&amp;date=[date]&amp;token=[token]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>139.196.101.78:8668/schedule/day?term=1&amp;date=2016/8/9&amp;token=910820738640559462371283192</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2598,10 +2462,6 @@
   </si>
   <si>
     <t>等待学期接口完善后再测</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/qxy/schedule/status?term=[term_id]&amp;teacher=[tid]&amp;token=[token]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2656,10 +2516,6 @@
   </si>
   <si>
     <t>需要处理，返回信息有误</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/qxy/devicealarm?device=[deviceId]page=[page]&amp;size=[size]&amp;token=[token]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2733,10 +2589,6 @@
   </si>
   <si>
     <t>http://139.196.101.78:8668/label?token=910820738640559462371283192</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://139.196.101.78:8668/class/worktime?class=1&amp;page=1&amp;size=1&amp;token=910820738640559462371283192</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2900,11 +2752,219 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://139.196.101.78:8668/class?cid=1&amp;page=1&amp;size=1&amp;token=910820738640559462371283192</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/qxy/duty/list?type=[type]&amp;token=[token]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学校班级搜索接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/qxy/class?page=[page]&amp;size=[size]&amp;token=[token]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://139.196.101.78:8668/class?page=1&amp;size=1&amp;token=910820738640559462371283192</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://139.196.101.78:8668/class?cid=1&amp;token=910820738640559462371283192</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>班级作息模版搜索接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/qxy/class/worktime?page=[page]&amp;size=[size]&amp;token=[token]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://139.196.101.78:8668/class/worktime?class=1&amp;token=910820738640559462371283192</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://139.196.101.78:8668/class/worktime?page=1&amp;size=1&amp;token=910820738640559462371283192</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/qxy/class/search?cid=[cid]&amp;token=[token]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rfid卡对应学生列表查询接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rfid卡对应学生列表搜索接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/qxy/rfidstudent?page=[page]&amp;size=[size]&amp;token=[token]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/qxy/rfidstudent/search?rfid=[rfid]&amp;token=[token]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生rfid卡列表搜索接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/qxy/studentrfidlist?studentId=[studetId]&amp;token=[token]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/qxy/studentrfidlist?page=[page]&amp;size=[size]&amp;token=[token]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>139.196.101.78:8668/studentrfidlist?token=910820738640559462371283192</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>班级报警列表搜索接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/qxy/class/alarmlist?page=[page]&amp;size=[size]&amp;token=[token]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/qxy/class/alarmlist?cid=[cid]&amp;token=[token]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>班级列表搜索接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/qxy/classlist?cid=[cid]&amp;token=[token]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/qxy/classlist?page=[page]&amp;size=[size]&amp;token=[token]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/qxy/newlist?columnId=[colId]&amp;page=[page]&amp;size=[size]&amp;token=[token]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/qxy/teacher/class?termId=[termId]&amp;tid=[tid]&amp;token=[token]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/qxy/class/teacher?termId=[term]&amp;cid=[cid]&amp;token=[token]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/qxy/class/parent?termId=[term]&amp;cid=[cid]&amp;studentId=[studentId]&amp;page=[page]&amp;size=[size]&amp;token=[token]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/qxy/parent/class?termId=[term]&amp;parentId=[parentId]&amp;studentId=[studentId]&amp;token=[token]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/qxy/schedule/mobile/week?termId=[term_id]&amp;week=[week]&amp;tid=[tid]&amp;token=[token]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/qxy/schedule/mobile/day?termId=[term]&amp;date=[date]&amp;tid=[tid]&amp;token=[token]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/qxy/news?columnId=[colId]&amp;time=[startTime|endTime]&amp;type=[type]&amp;tid=[tid]&amp;page=[page]&amp;size=[size]&amp;token=[token]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/qxy/schedule/status?termId=[term_id]&amp;tid=[tid]&amp;token=[token]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/qxy/schedule/week?termId=[term_id]&amp;week=[week]&amp;token=[token]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/qxy/schedule/day?termId=[term]&amp;date=[date]&amp;token=[token]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/qxy/myapplication?tid=[tid]&amp;token=[token]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/qxy/myaudit?tid=[tid]&amp;token=[token]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/qxy/oarule?oatagsId=[oatagsId]&amp;page=[page]&amp;size=[size]&amp;token=[token]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/qxy/class/course?cid=[cid]&amp;token=[token]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/qxy/class/student/list?cid=[cid]&amp;page=[page]&amp;size=[size]&amp;token=[token]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/qxy/class/student/search?studentId=[studentId]&amp;number=[number]&amp;token=[token]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/qxy/class/student/info?studentId=[studentId]&amp;token=[token]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/qxy/class/student/parent/list?studentId=[studentId]&amp;type=[type]&amp;token=[token]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/qxy/stundent/list?cid=[cid]&amp;page=[page]&amp;size=[size]&amp;token=[token]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/qxy/stundent/search?studentId=[studentId]&amp;number=[number]&amp;token=[token]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/qxy/syllabus?cid=[cid]&amp;date=[startDay|endDay]&amp;token=[token]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/qxy/calendar?termId=[term_id]&amp;time=[startTime|endTime]&amp;token=[token]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/qxy/teacher/list?labelId=[labelId]&amp;type=[type]&amp;page=[page]&amp;size=[size]&amp;token=[token]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/qxy/stundent/namelist?cid=[cid]&amp;token=[token]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/qxy/securitylog?studentId=[studentId]&amp;deviceId=[deviceId]&amp;time=[startTime|endTime]&amp;page=[page]&amp;size=[size]&amp;token=[token]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/qxy/class/worktime/search?cid=[cid]&amp;token=[token]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/qxy/devicealarm?deviceId=[deviceId]page=[page]&amp;size=[size]&amp;token=[token]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/qxy/trip?tid=[tid]&amp;date=[date]&amp;page=[page]&amp;size=[size]&amp;token=[token]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2912,7 +2972,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2980,6 +3040,22 @@
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF7030A0"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF7030A0"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -3130,7 +3206,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3152,15 +3228,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3172,9 +3242,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3226,6 +3293,24 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3818,13 +3903,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ168"/>
+  <dimension ref="A1:AJ174"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="G14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F26" sqref="F26"/>
+      <selection pane="bottomRight" activeCell="F167" sqref="F167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3834,60 +3919,60 @@
     <col min="3" max="3" width="8.375" style="5" customWidth="1"/>
     <col min="4" max="4" width="27.375" style="5" customWidth="1"/>
     <col min="5" max="5" width="6.875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="43.5" style="3" customWidth="1"/>
-    <col min="7" max="7" width="8.625" style="18" customWidth="1"/>
-    <col min="8" max="8" width="8.375" style="18" customWidth="1"/>
-    <col min="9" max="9" width="17.125" style="31" customWidth="1"/>
-    <col min="10" max="10" width="31.625" style="15" customWidth="1"/>
-    <col min="11" max="11" width="11.75" style="15" customWidth="1"/>
-    <col min="12" max="12" width="20.375" style="25" customWidth="1"/>
-    <col min="13" max="13" width="12.5" style="19" customWidth="1"/>
+    <col min="6" max="6" width="56.875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="8.625" style="15" customWidth="1"/>
+    <col min="8" max="8" width="8.375" style="15" customWidth="1"/>
+    <col min="9" max="9" width="17.125" style="28" customWidth="1"/>
+    <col min="10" max="10" width="31.625" style="12" customWidth="1"/>
+    <col min="11" max="11" width="11.75" style="12" customWidth="1"/>
+    <col min="12" max="12" width="20.375" style="22" customWidth="1"/>
+    <col min="13" max="13" width="12.5" style="16" customWidth="1"/>
     <col min="14" max="14" width="23.625" style="2" customWidth="1"/>
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
-        <v>326</v>
+        <v>301</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>325</v>
+        <v>300</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>324</v>
+        <v>299</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>358</v>
+      </c>
+      <c r="I1" s="28" t="s">
+        <v>384</v>
+      </c>
+      <c r="J1" s="12" t="s">
         <v>323</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>327</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>384</v>
-      </c>
-      <c r="I1" s="31" t="s">
-        <v>410</v>
-      </c>
-      <c r="J1" s="15" t="s">
-        <v>348</v>
-      </c>
-      <c r="K1" s="15" t="s">
-        <v>381</v>
-      </c>
-      <c r="L1" s="25" t="s">
-        <v>382</v>
-      </c>
-      <c r="M1" s="19" t="s">
-        <v>328</v>
+      <c r="K1" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="L1" s="22" t="s">
+        <v>356</v>
+      </c>
+      <c r="M1" s="16" t="s">
+        <v>303</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>320</v>
+        <v>295</v>
       </c>
     </row>
     <row r="2" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -3895,225 +3980,225 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>319</v>
+        <v>294</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>318</v>
+        <v>293</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>317</v>
+        <v>292</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>316</v>
+        <v>291</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>315</v>
+        <v>290</v>
       </c>
     </row>
     <row r="3" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D3" s="5" t="s">
-        <v>314</v>
+        <v>289</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>508</v>
-      </c>
-      <c r="I3" s="31" t="s">
-        <v>510</v>
-      </c>
-      <c r="K3" s="15">
+        <v>179</v>
+      </c>
+      <c r="F3" s="30" t="s">
+        <v>564</v>
+      </c>
+      <c r="I3" s="28" t="s">
+        <v>477</v>
+      </c>
+      <c r="K3" s="12">
         <v>404</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>313</v>
+        <v>288</v>
       </c>
     </row>
     <row r="4" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D4" s="5" t="s">
-        <v>312</v>
+        <v>287</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>311</v>
+        <v>286</v>
       </c>
     </row>
     <row r="5" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D5" s="5" t="s">
-        <v>310</v>
+        <v>285</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="F5" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="I5" s="28" t="s">
+        <v>477</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>475</v>
+      </c>
+      <c r="K5" s="12">
+        <v>404</v>
+      </c>
+      <c r="AH5" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="AI5" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="I5" s="31" t="s">
-        <v>510</v>
-      </c>
-      <c r="J5" s="15" t="s">
-        <v>507</v>
-      </c>
-      <c r="K5" s="15">
-        <v>404</v>
-      </c>
-      <c r="AH5" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="AI5" s="1" t="s">
-        <v>334</v>
-      </c>
       <c r="AJ5" s="1" t="s">
-        <v>336</v>
+        <v>311</v>
       </c>
     </row>
     <row r="6" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C6" s="5" t="s">
-        <v>308</v>
+        <v>283</v>
       </c>
       <c r="D6" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="F6" s="30" t="s">
+        <v>565</v>
+      </c>
+      <c r="I6" s="28" t="s">
+        <v>477</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>474</v>
+      </c>
+      <c r="AH6" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="I6" s="31" t="s">
-        <v>510</v>
-      </c>
-      <c r="K6" s="15" t="s">
-        <v>506</v>
-      </c>
-      <c r="AH6" s="1" t="s">
-        <v>332</v>
-      </c>
       <c r="AI6" s="1" t="s">
-        <v>339</v>
+        <v>314</v>
       </c>
       <c r="AJ6" s="1" t="s">
-        <v>337</v>
+        <v>312</v>
       </c>
     </row>
     <row r="7" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D7" s="5" t="s">
-        <v>305</v>
+        <v>281</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="I7" s="31" t="s">
-        <v>510</v>
-      </c>
-      <c r="K7" s="15" t="s">
-        <v>506</v>
+        <v>179</v>
+      </c>
+      <c r="F7" s="30" t="s">
+        <v>566</v>
+      </c>
+      <c r="I7" s="28" t="s">
+        <v>477</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>474</v>
       </c>
       <c r="AI7" s="1" t="s">
-        <v>335</v>
+        <v>310</v>
       </c>
     </row>
     <row r="8" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D8" s="5" t="s">
-        <v>303</v>
+        <v>280</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="I8" s="31" t="s">
-        <v>510</v>
-      </c>
-      <c r="K8" s="15" t="s">
-        <v>506</v>
+        <v>179</v>
+      </c>
+      <c r="F8" s="30" t="s">
+        <v>567</v>
+      </c>
+      <c r="I8" s="28" t="s">
+        <v>477</v>
+      </c>
+      <c r="K8" s="12" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="9" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D9" s="5" t="s">
-        <v>302</v>
+        <v>279</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="I9" s="31" t="s">
-        <v>510</v>
-      </c>
-      <c r="K9" s="15" t="s">
-        <v>505</v>
+        <v>179</v>
+      </c>
+      <c r="F9" s="30" t="s">
+        <v>568</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>477</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="10" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D10" s="5" t="s">
-        <v>275</v>
+        <v>256</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>350</v>
+        <v>325</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>300</v>
+        <v>278</v>
       </c>
     </row>
     <row r="11" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D11" s="5" t="s">
-        <v>299</v>
+        <v>277</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>298</v>
-      </c>
-      <c r="H11" s="18" t="s">
-        <v>333</v>
-      </c>
-      <c r="I11" s="31" t="s">
-        <v>409</v>
-      </c>
-      <c r="L11" s="25" t="s">
-        <v>368</v>
+        <v>179</v>
+      </c>
+      <c r="F11" s="31" t="s">
+        <v>569</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="I11" s="28" t="s">
+        <v>383</v>
+      </c>
+      <c r="L11" s="22" t="s">
+        <v>342</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D12" s="5" t="s">
-        <v>297</v>
+        <v>276</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>296</v>
-      </c>
-      <c r="H12" s="18" t="s">
-        <v>333</v>
-      </c>
-      <c r="I12" s="31" t="s">
-        <v>417</v>
-      </c>
-      <c r="L12" s="25" t="s">
-        <v>369</v>
+        <v>179</v>
+      </c>
+      <c r="F12" s="31" t="s">
+        <v>570</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="I12" s="28" t="s">
+        <v>391</v>
+      </c>
+      <c r="L12" s="22" t="s">
+        <v>343</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
     </row>
     <row r="13" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4121,214 +4206,214 @@
         <v>2</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>295</v>
+        <v>275</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>294</v>
+        <v>274</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>293</v>
+        <v>273</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="I13" s="31" t="s">
-        <v>504</v>
-      </c>
-      <c r="J13" s="15" t="s">
-        <v>502</v>
-      </c>
-      <c r="K13" s="15" t="s">
-        <v>503</v>
+        <v>179</v>
+      </c>
+      <c r="F13" s="30" t="s">
+        <v>571</v>
+      </c>
+      <c r="I13" s="28" t="s">
+        <v>472</v>
+      </c>
+      <c r="J13" s="12" t="s">
+        <v>470</v>
+      </c>
+      <c r="K13" s="12" t="s">
+        <v>471</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>291</v>
+        <v>272</v>
       </c>
     </row>
     <row r="14" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D14" s="5" t="s">
-        <v>548</v>
+        <v>511</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>549</v>
+        <v>512</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>569</v>
-      </c>
-      <c r="G14" s="18" t="s">
-        <v>329</v>
-      </c>
-      <c r="I14" s="31" t="s">
-        <v>550</v>
-      </c>
-      <c r="J14" s="15" t="s">
-        <v>551</v>
-      </c>
-      <c r="K14" s="15" t="s">
-        <v>552</v>
-      </c>
-      <c r="L14" s="28" t="s">
-        <v>553</v>
+        <v>532</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="I14" s="28" t="s">
+        <v>513</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>514</v>
+      </c>
+      <c r="K14" s="12" t="s">
+        <v>515</v>
+      </c>
+      <c r="L14" s="25" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="15" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D15" s="5" t="s">
-        <v>290</v>
+        <v>271</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="G15" s="18" t="s">
-        <v>329</v>
-      </c>
-      <c r="K15" s="15" t="s">
-        <v>434</v>
+        <v>268</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="K15" s="12" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="16" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D16" s="5" t="s">
-        <v>289</v>
+        <v>270</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="G16" s="18" t="s">
-        <v>329</v>
-      </c>
-      <c r="I16" s="31" t="s">
-        <v>409</v>
-      </c>
-      <c r="J16" s="15" t="s">
-        <v>570</v>
-      </c>
-      <c r="K16" s="15" t="s">
-        <v>501</v>
-      </c>
-      <c r="L16" s="29" t="s">
-        <v>554</v>
+        <v>268</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="I16" s="28" t="s">
+        <v>383</v>
+      </c>
+      <c r="J16" s="12" t="s">
+        <v>533</v>
+      </c>
+      <c r="K16" s="12" t="s">
+        <v>469</v>
+      </c>
+      <c r="L16" s="26" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D17" s="5" t="s">
-        <v>288</v>
+        <v>269</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="G17" s="18" t="s">
-        <v>329</v>
-      </c>
-      <c r="K17" s="15" t="s">
-        <v>354</v>
+        <v>268</v>
+      </c>
+      <c r="G17" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="K17" s="12" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D18" s="5" t="s">
-        <v>286</v>
+        <v>267</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>285</v>
+        <v>266</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C19" s="30" t="s">
-        <v>284</v>
+      <c r="C19" s="27" t="s">
+        <v>265</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>283</v>
+        <v>264</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="F19" s="20" t="s">
-        <v>282</v>
-      </c>
-      <c r="G19" s="18" t="s">
-        <v>329</v>
-      </c>
-      <c r="J19" s="15" t="s">
-        <v>542</v>
-      </c>
-      <c r="K19" s="16" t="s">
-        <v>340</v>
+        <v>179</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>263</v>
+      </c>
+      <c r="G19" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="J19" s="12" t="s">
+        <v>506</v>
+      </c>
+      <c r="K19" s="13" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D20" s="5" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="F20" s="21" t="s">
-        <v>383</v>
-      </c>
-      <c r="G20" s="18" t="s">
-        <v>329</v>
-      </c>
-      <c r="J20" s="15" t="s">
-        <v>385</v>
-      </c>
-      <c r="K20" s="15" t="s">
-        <v>354</v>
-      </c>
-      <c r="L20" s="25" t="s">
-        <v>475</v>
+        <v>177</v>
+      </c>
+      <c r="F20" s="18" t="s">
+        <v>357</v>
+      </c>
+      <c r="G20" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="J20" s="12" t="s">
+        <v>359</v>
+      </c>
+      <c r="K20" s="12" t="s">
+        <v>328</v>
+      </c>
+      <c r="L20" s="22" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D21" s="5" t="s">
-        <v>280</v>
+        <v>261</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="F21" s="21" t="s">
-        <v>278</v>
-      </c>
-      <c r="G21" s="18" t="s">
-        <v>329</v>
-      </c>
-      <c r="J21" s="15" t="s">
-        <v>386</v>
-      </c>
-      <c r="K21" s="15" t="s">
-        <v>354</v>
+        <v>175</v>
+      </c>
+      <c r="F21" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="G21" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="J21" s="12" t="s">
+        <v>360</v>
+      </c>
+      <c r="K21" s="12" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D22" s="5" t="s">
-        <v>279</v>
+        <v>260</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="F22" s="21" t="s">
-        <v>278</v>
-      </c>
-      <c r="G22" s="18" t="s">
-        <v>329</v>
-      </c>
-      <c r="J22" s="15" t="s">
-        <v>387</v>
-      </c>
-      <c r="K22" s="15" t="s">
-        <v>354</v>
+        <v>173</v>
+      </c>
+      <c r="F22" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="G22" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="J22" s="12" t="s">
+        <v>361</v>
+      </c>
+      <c r="K22" s="12" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4336,657 +4421,657 @@
         <v>3</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>277</v>
+        <v>258</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>276</v>
+        <v>257</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>275</v>
+        <v>256</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>521</v>
-      </c>
-      <c r="J23" s="15" t="s">
-        <v>522</v>
-      </c>
-      <c r="K23" s="15" t="s">
-        <v>519</v>
-      </c>
-      <c r="L23" s="25" t="s">
-        <v>520</v>
+        <v>179</v>
+      </c>
+      <c r="F23" s="30" t="s">
+        <v>572</v>
+      </c>
+      <c r="J23" s="12" t="s">
+        <v>487</v>
+      </c>
+      <c r="K23" s="12" t="s">
+        <v>485</v>
+      </c>
+      <c r="L23" s="22" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D24" s="5" t="s">
-        <v>274</v>
+        <v>255</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="J24" s="15" t="s">
-        <v>517</v>
-      </c>
-      <c r="K24" s="15" t="s">
-        <v>519</v>
-      </c>
-      <c r="L24" s="25" t="s">
-        <v>520</v>
+        <v>179</v>
+      </c>
+      <c r="F24" s="30" t="s">
+        <v>573</v>
+      </c>
+      <c r="J24" s="12" t="s">
+        <v>483</v>
+      </c>
+      <c r="K24" s="12" t="s">
+        <v>485</v>
+      </c>
+      <c r="L24" s="22" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D25" s="5" t="s">
-        <v>272</v>
+        <v>254</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>514</v>
-      </c>
-      <c r="G25" s="18" t="s">
-        <v>329</v>
-      </c>
-      <c r="I25" s="31" t="s">
-        <v>409</v>
-      </c>
-      <c r="J25" s="15" t="s">
-        <v>515</v>
-      </c>
-      <c r="K25" s="15" t="s">
-        <v>518</v>
-      </c>
-      <c r="L25" s="25" t="s">
-        <v>516</v>
+        <v>179</v>
+      </c>
+      <c r="F25" s="30" t="s">
+        <v>574</v>
+      </c>
+      <c r="G25" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="I25" s="28" t="s">
+        <v>383</v>
+      </c>
+      <c r="J25" s="12" t="s">
+        <v>481</v>
+      </c>
+      <c r="K25" s="12" t="s">
+        <v>484</v>
+      </c>
+      <c r="L25" s="22" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D26" s="5" t="s">
-        <v>271</v>
+        <v>253</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>577</v>
-      </c>
-      <c r="G26" s="18" t="s">
-        <v>329</v>
-      </c>
-      <c r="J26" s="15" t="s">
-        <v>512</v>
-      </c>
-      <c r="K26" s="15" t="s">
-        <v>513</v>
+        <v>539</v>
+      </c>
+      <c r="G26" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="J26" s="12" t="s">
+        <v>479</v>
+      </c>
+      <c r="K26" s="12" t="s">
+        <v>480</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D27" s="5" t="s">
-        <v>269</v>
+        <v>251</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>572</v>
-      </c>
-      <c r="G27" s="18" t="s">
-        <v>329</v>
-      </c>
-      <c r="J27" s="15" t="s">
-        <v>571</v>
-      </c>
-      <c r="K27" s="15" t="s">
-        <v>555</v>
-      </c>
-      <c r="L27" s="29" t="s">
-        <v>557</v>
+        <v>535</v>
+      </c>
+      <c r="G27" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="J27" s="12" t="s">
+        <v>534</v>
+      </c>
+      <c r="K27" s="12" t="s">
+        <v>518</v>
+      </c>
+      <c r="L27" s="26" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D28" s="5" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="G28" s="18" t="s">
-        <v>329</v>
-      </c>
-      <c r="I28" s="31" t="s">
-        <v>558</v>
-      </c>
-      <c r="J28" s="15" t="s">
-        <v>559</v>
-      </c>
-      <c r="K28" s="15">
+        <v>247</v>
+      </c>
+      <c r="G28" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="I28" s="28" t="s">
+        <v>521</v>
+      </c>
+      <c r="J28" s="12" t="s">
+        <v>522</v>
+      </c>
+      <c r="K28" s="12">
         <v>404</v>
       </c>
-      <c r="L28" s="29" t="s">
-        <v>560</v>
+      <c r="L28" s="26" t="s">
+        <v>523</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D29" s="5" t="s">
-        <v>267</v>
+        <v>249</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="G29" s="18" t="s">
-        <v>329</v>
-      </c>
-      <c r="I29" s="31" t="s">
-        <v>509</v>
-      </c>
-      <c r="K29" s="15" t="s">
-        <v>506</v>
+        <v>247</v>
+      </c>
+      <c r="G29" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="I29" s="28" t="s">
+        <v>476</v>
+      </c>
+      <c r="K29" s="12" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D30" s="5" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="G30" s="18" t="s">
-        <v>329</v>
-      </c>
-      <c r="I30" s="31" t="s">
-        <v>509</v>
-      </c>
-      <c r="K30" s="15" t="s">
-        <v>511</v>
+        <v>247</v>
+      </c>
+      <c r="G30" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="I30" s="28" t="s">
+        <v>476</v>
+      </c>
+      <c r="K30" s="12" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D31" s="5" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D32" s="5" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
     </row>
     <row r="33" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D33" s="5" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="G33" s="18" t="s">
-        <v>329</v>
-      </c>
-      <c r="K33" s="15" t="s">
-        <v>519</v>
-      </c>
-      <c r="L33" s="25" t="s">
-        <v>520</v>
+        <v>245</v>
+      </c>
+      <c r="G33" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="K33" s="12" t="s">
+        <v>485</v>
+      </c>
+      <c r="L33" s="22" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="34" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C34" s="30" t="s">
-        <v>262</v>
+      <c r="C34" s="27" t="s">
+        <v>244</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>261</v>
+        <v>243</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="F34" s="21" t="s">
-        <v>258</v>
-      </c>
-      <c r="G34" s="18" t="s">
-        <v>329</v>
-      </c>
-      <c r="J34" s="15" t="s">
-        <v>465</v>
-      </c>
-      <c r="K34" s="15" t="s">
-        <v>354</v>
+        <v>177</v>
+      </c>
+      <c r="F34" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="G34" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="J34" s="12" t="s">
+        <v>437</v>
+      </c>
+      <c r="K34" s="12" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="35" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D35" s="5" t="s">
-        <v>260</v>
+        <v>242</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="F35" s="21" t="s">
-        <v>258</v>
-      </c>
-      <c r="G35" s="18" t="s">
-        <v>329</v>
-      </c>
-      <c r="J35" s="15" t="s">
-        <v>561</v>
-      </c>
-      <c r="K35" s="15" t="s">
-        <v>564</v>
-      </c>
-      <c r="L35" s="29" t="s">
-        <v>563</v>
+        <v>175</v>
+      </c>
+      <c r="F35" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="G35" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="J35" s="12" t="s">
+        <v>524</v>
+      </c>
+      <c r="K35" s="12" t="s">
+        <v>527</v>
+      </c>
+      <c r="L35" s="26" t="s">
+        <v>526</v>
       </c>
     </row>
     <row r="36" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D36" s="5" t="s">
-        <v>259</v>
+        <v>241</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="F36" s="21" t="s">
-        <v>258</v>
-      </c>
-      <c r="G36" s="18" t="s">
-        <v>329</v>
-      </c>
-      <c r="J36" s="15" t="s">
-        <v>562</v>
-      </c>
-      <c r="K36" s="15" t="s">
-        <v>466</v>
-      </c>
-      <c r="L36" s="29" t="s">
-        <v>565</v>
+        <v>173</v>
+      </c>
+      <c r="F36" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="G36" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="J36" s="12" t="s">
+        <v>525</v>
+      </c>
+      <c r="K36" s="12" t="s">
+        <v>438</v>
+      </c>
+      <c r="L36" s="26" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="37" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C37" s="30" t="s">
-        <v>257</v>
+      <c r="C37" s="27" t="s">
+        <v>239</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="F37" s="21" t="s">
-        <v>467</v>
-      </c>
-      <c r="G37" s="18" t="s">
-        <v>329</v>
-      </c>
-      <c r="K37" s="15" t="s">
-        <v>468</v>
+        <v>177</v>
+      </c>
+      <c r="F37" s="18" t="s">
+        <v>439</v>
+      </c>
+      <c r="G37" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="K37" s="12" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="38" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D38" s="5" t="s">
-        <v>255</v>
+        <v>237</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="F38" s="21" t="s">
-        <v>253</v>
-      </c>
-      <c r="G38" s="18" t="s">
-        <v>329</v>
-      </c>
-      <c r="J38" s="15" t="s">
-        <v>469</v>
-      </c>
-      <c r="K38" s="15" t="s">
-        <v>468</v>
+        <v>175</v>
+      </c>
+      <c r="F38" s="18" t="s">
+        <v>235</v>
+      </c>
+      <c r="G38" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="J38" s="12" t="s">
+        <v>441</v>
+      </c>
+      <c r="K38" s="12" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="39" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D39" s="5" t="s">
-        <v>254</v>
+        <v>236</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="F39" s="21" t="s">
-        <v>566</v>
-      </c>
-      <c r="G39" s="18" t="s">
-        <v>329</v>
-      </c>
-      <c r="J39" s="15" t="s">
-        <v>573</v>
-      </c>
-      <c r="K39" s="15" t="s">
-        <v>567</v>
-      </c>
-      <c r="L39" s="29" t="s">
-        <v>556</v>
+        <v>173</v>
+      </c>
+      <c r="F39" s="18" t="s">
+        <v>529</v>
+      </c>
+      <c r="G39" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="J39" s="12" t="s">
+        <v>536</v>
+      </c>
+      <c r="K39" s="12" t="s">
+        <v>530</v>
+      </c>
+      <c r="L39" s="26" t="s">
+        <v>519</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>252</v>
+        <v>234</v>
       </c>
     </row>
     <row r="40" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C40" s="5" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>250</v>
+        <v>232</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="K40" s="15" t="s">
-        <v>526</v>
+        <v>179</v>
+      </c>
+      <c r="F40" s="30" t="s">
+        <v>575</v>
+      </c>
+      <c r="K40" s="12" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="41" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D41" s="5" t="s">
-        <v>248</v>
+        <v>231</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>523</v>
-      </c>
-      <c r="G41" s="18" t="s">
-        <v>329</v>
-      </c>
-      <c r="I41" s="31" t="s">
-        <v>409</v>
-      </c>
-      <c r="J41" s="15" t="s">
-        <v>527</v>
-      </c>
-      <c r="K41" s="15" t="s">
-        <v>528</v>
-      </c>
-      <c r="L41" s="25" t="s">
-        <v>529</v>
+        <v>488</v>
+      </c>
+      <c r="G41" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="I41" s="28" t="s">
+        <v>383</v>
+      </c>
+      <c r="J41" s="12" t="s">
+        <v>492</v>
+      </c>
+      <c r="K41" s="12" t="s">
+        <v>493</v>
+      </c>
+      <c r="L41" s="22" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="42" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D42" s="5" t="s">
-        <v>247</v>
+        <v>230</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="G42" s="18" t="s">
-        <v>329</v>
-      </c>
-      <c r="K42" s="15" t="s">
-        <v>525</v>
+        <v>229</v>
+      </c>
+      <c r="G42" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="K42" s="12" t="s">
+        <v>490</v>
       </c>
     </row>
     <row r="43" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D43" s="5" t="s">
-        <v>245</v>
+        <v>228</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="G43" s="18" t="s">
-        <v>329</v>
-      </c>
-      <c r="J43" s="15" t="s">
-        <v>524</v>
-      </c>
-      <c r="K43" s="15" t="s">
-        <v>354</v>
+        <v>179</v>
+      </c>
+      <c r="F43" s="30" t="s">
+        <v>576</v>
+      </c>
+      <c r="G43" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="J43" s="12" t="s">
+        <v>489</v>
+      </c>
+      <c r="K43" s="12" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="44" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D44" s="5" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="G44" s="18" t="s">
-        <v>329</v>
-      </c>
-      <c r="K44" s="15" t="s">
-        <v>530</v>
-      </c>
-      <c r="L44" s="25" t="s">
-        <v>531</v>
+        <v>226</v>
+      </c>
+      <c r="G44" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="K44" s="12" t="s">
+        <v>495</v>
+      </c>
+      <c r="L44" s="22" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="45" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C45" s="30" t="s">
-        <v>241</v>
+      <c r="C45" s="27" t="s">
+        <v>225</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="F45" s="21" t="s">
-        <v>239</v>
-      </c>
-      <c r="J45" s="15" t="s">
-        <v>471</v>
-      </c>
-      <c r="K45" s="15" t="s">
-        <v>358</v>
+        <v>179</v>
+      </c>
+      <c r="F45" s="18" t="s">
+        <v>223</v>
+      </c>
+      <c r="J45" s="12" t="s">
+        <v>443</v>
+      </c>
+      <c r="K45" s="12" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="46" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D46" s="5" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="F46" s="21" t="s">
-        <v>235</v>
-      </c>
-      <c r="G46" s="18" t="s">
-        <v>329</v>
-      </c>
-      <c r="K46" s="15" t="s">
-        <v>434</v>
+        <v>177</v>
+      </c>
+      <c r="F46" s="18" t="s">
+        <v>219</v>
+      </c>
+      <c r="G46" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="K46" s="12" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="47" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D47" s="5" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="F47" s="21" t="s">
-        <v>235</v>
-      </c>
-      <c r="G47" s="18" t="s">
-        <v>329</v>
-      </c>
-      <c r="J47" s="15" t="s">
-        <v>470</v>
-      </c>
-      <c r="K47" s="15" t="s">
-        <v>435</v>
+        <v>175</v>
+      </c>
+      <c r="F47" s="18" t="s">
+        <v>219</v>
+      </c>
+      <c r="G47" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="J47" s="12" t="s">
+        <v>442</v>
+      </c>
+      <c r="K47" s="12" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="48" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D48" s="5" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="F48" s="21" t="s">
-        <v>235</v>
-      </c>
-      <c r="G48" s="18" t="s">
-        <v>329</v>
-      </c>
-      <c r="J48" s="15" t="s">
-        <v>574</v>
-      </c>
-      <c r="K48" s="15" t="s">
-        <v>567</v>
-      </c>
-      <c r="L48" s="29" t="s">
-        <v>556</v>
+        <v>173</v>
+      </c>
+      <c r="F48" s="18" t="s">
+        <v>219</v>
+      </c>
+      <c r="G48" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="J48" s="12" t="s">
+        <v>537</v>
+      </c>
+      <c r="K48" s="12" t="s">
+        <v>530</v>
+      </c>
+      <c r="L48" s="26" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="49" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C49" s="30" t="s">
-        <v>234</v>
+      <c r="C49" s="27" t="s">
+        <v>218</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="F49" s="21" t="s">
-        <v>232</v>
-      </c>
-      <c r="H49" s="18" t="s">
-        <v>338</v>
-      </c>
-      <c r="J49" s="15" t="s">
-        <v>474</v>
-      </c>
-      <c r="K49" s="15" t="s">
-        <v>434</v>
-      </c>
-      <c r="L49" s="25" t="s">
-        <v>370</v>
+        <v>179</v>
+      </c>
+      <c r="F49" s="32" t="s">
+        <v>577</v>
+      </c>
+      <c r="H49" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="J49" s="12" t="s">
+        <v>446</v>
+      </c>
+      <c r="K49" s="12" t="s">
+        <v>407</v>
+      </c>
+      <c r="L49" s="22" t="s">
+        <v>344</v>
       </c>
       <c r="N49" s="2" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
     </row>
     <row r="50" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D50" s="5" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="F50" s="21" t="s">
-        <v>228</v>
-      </c>
-      <c r="G50" s="18" t="s">
-        <v>329</v>
-      </c>
-      <c r="J50" s="15" t="s">
-        <v>472</v>
-      </c>
-      <c r="K50" s="15" t="s">
-        <v>354</v>
+        <v>177</v>
+      </c>
+      <c r="F50" s="18" t="s">
+        <v>213</v>
+      </c>
+      <c r="G50" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="J50" s="12" t="s">
+        <v>444</v>
+      </c>
+      <c r="K50" s="12" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="51" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D51" s="5" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="F51" s="21" t="s">
-        <v>228</v>
-      </c>
-      <c r="G51" s="18" t="s">
-        <v>329</v>
-      </c>
-      <c r="J51" s="15" t="s">
-        <v>473</v>
-      </c>
-      <c r="K51" s="15" t="s">
-        <v>354</v>
+        <v>175</v>
+      </c>
+      <c r="F51" s="18" t="s">
+        <v>213</v>
+      </c>
+      <c r="G51" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="J51" s="12" t="s">
+        <v>445</v>
+      </c>
+      <c r="K51" s="12" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="52" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D52" s="5" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="F52" s="21" t="s">
-        <v>568</v>
-      </c>
-      <c r="G52" s="18" t="s">
-        <v>329</v>
-      </c>
-      <c r="J52" s="15" t="s">
-        <v>575</v>
-      </c>
-      <c r="K52" s="15" t="s">
-        <v>567</v>
-      </c>
-      <c r="L52" s="29" t="s">
-        <v>556</v>
+        <v>173</v>
+      </c>
+      <c r="F52" s="18" t="s">
+        <v>531</v>
+      </c>
+      <c r="G52" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="J52" s="12" t="s">
+        <v>538</v>
+      </c>
+      <c r="K52" s="12" t="s">
+        <v>530</v>
+      </c>
+      <c r="L52" s="26" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="53" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D53" s="5" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
     </row>
     <row r="54" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D54" s="5" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
     </row>
     <row r="55" spans="1:14" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4994,1978 +5079,1990 @@
         <v>4</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="G55" s="18"/>
-      <c r="H55" s="18"/>
-      <c r="I55" s="31"/>
-      <c r="J55" s="15"/>
-      <c r="K55" s="15"/>
-      <c r="L55" s="25"/>
-      <c r="M55" s="19"/>
+        <v>210</v>
+      </c>
+      <c r="G55" s="15"/>
+      <c r="H55" s="15"/>
+      <c r="I55" s="28"/>
+      <c r="J55" s="12"/>
+      <c r="K55" s="12"/>
+      <c r="L55" s="22"/>
+      <c r="M55" s="16"/>
       <c r="N55" s="2"/>
     </row>
     <row r="56" spans="1:14" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="6"/>
-      <c r="D56" s="5" t="s">
-        <v>224</v>
+      <c r="D56" s="29" t="s">
+        <v>209</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="F56" s="12" t="s">
-        <v>449</v>
-      </c>
-      <c r="G56" s="18" t="s">
-        <v>329</v>
-      </c>
-      <c r="H56" s="18" t="s">
-        <v>338</v>
-      </c>
-      <c r="I56" s="31" t="s">
-        <v>417</v>
-      </c>
-      <c r="J56" s="15" t="s">
-        <v>450</v>
-      </c>
-      <c r="K56" s="15" t="s">
-        <v>451</v>
-      </c>
-      <c r="L56" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="M56" s="19"/>
+        <v>179</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="G56" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="H56" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="I56" s="28" t="s">
+        <v>391</v>
+      </c>
+      <c r="J56" s="12" t="s">
+        <v>422</v>
+      </c>
+      <c r="K56" s="12" t="s">
+        <v>423</v>
+      </c>
+      <c r="L56" s="22" t="s">
+        <v>345</v>
+      </c>
+      <c r="M56" s="16"/>
       <c r="N56" s="2" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
     </row>
     <row r="57" spans="1:14" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="6"/>
-      <c r="D57" s="5" t="s">
-        <v>223</v>
+      <c r="D57" s="29" t="s">
+        <v>561</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="G57" s="18"/>
-      <c r="H57" s="18"/>
-      <c r="I57" s="31"/>
-      <c r="J57" s="15"/>
-      <c r="K57" s="15"/>
-      <c r="L57" s="25"/>
-      <c r="M57" s="19"/>
-      <c r="N57" s="2"/>
-    </row>
-    <row r="58" spans="1:14" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>7</v>
+      </c>
+      <c r="F57" s="30" t="s">
+        <v>562</v>
+      </c>
+      <c r="G57" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="H57" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="I57" s="28" t="s">
+        <v>383</v>
+      </c>
+      <c r="J57" s="12"/>
+      <c r="K57" s="12" t="s">
+        <v>423</v>
+      </c>
+      <c r="L57" s="22" t="s">
+        <v>344</v>
+      </c>
+      <c r="M57" s="16"/>
+      <c r="N57" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="6"/>
-      <c r="B58" s="5"/>
-      <c r="C58" s="5" t="s">
-        <v>221</v>
-      </c>
       <c r="D58" s="5" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="F58" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="G58" s="18" t="s">
-        <v>329</v>
-      </c>
-      <c r="H58" s="18" t="s">
-        <v>338</v>
-      </c>
-      <c r="I58" s="31" t="s">
-        <v>417</v>
-      </c>
-      <c r="J58" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="K58" s="15" t="s">
-        <v>453</v>
-      </c>
-      <c r="L58" s="25" t="s">
-        <v>370</v>
-      </c>
-      <c r="M58" s="19"/>
-      <c r="N58" s="2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>179</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="G58" s="15"/>
+      <c r="H58" s="15"/>
+      <c r="I58" s="28"/>
+      <c r="J58" s="12"/>
+      <c r="K58" s="12"/>
+      <c r="L58" s="22"/>
+      <c r="M58" s="16"/>
+      <c r="N58" s="2"/>
+    </row>
+    <row r="59" spans="1:14" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="6"/>
       <c r="B59" s="5"/>
-      <c r="C59" s="5"/>
+      <c r="C59" s="5" t="s">
+        <v>206</v>
+      </c>
       <c r="D59" s="5" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="G59" s="18"/>
-      <c r="H59" s="18"/>
-      <c r="I59" s="31"/>
-      <c r="J59" s="15"/>
-      <c r="K59" s="15"/>
-      <c r="L59" s="25"/>
-      <c r="M59" s="19"/>
-      <c r="N59" s="2"/>
-    </row>
-    <row r="60" spans="1:14" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>179</v>
+      </c>
+      <c r="F59" s="30" t="s">
+        <v>578</v>
+      </c>
+      <c r="G59" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="H59" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="I59" s="28" t="s">
+        <v>391</v>
+      </c>
+      <c r="J59" s="12" t="s">
+        <v>424</v>
+      </c>
+      <c r="K59" s="12" t="s">
+        <v>425</v>
+      </c>
+      <c r="L59" s="22" t="s">
+        <v>344</v>
+      </c>
+      <c r="M59" s="16"/>
+      <c r="N59" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="6"/>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
       <c r="D60" s="5" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="G60" s="18" t="s">
-        <v>329</v>
-      </c>
-      <c r="H60" s="18"/>
-      <c r="I60" s="31" t="s">
-        <v>409</v>
-      </c>
-      <c r="J60" s="15" t="s">
-        <v>455</v>
-      </c>
-      <c r="K60" s="15" t="s">
-        <v>456</v>
-      </c>
-      <c r="L60" s="25"/>
-      <c r="M60" s="19"/>
+        <v>203</v>
+      </c>
+      <c r="G60" s="15"/>
+      <c r="H60" s="15"/>
+      <c r="I60" s="28"/>
+      <c r="J60" s="12"/>
+      <c r="K60" s="12"/>
+      <c r="L60" s="22"/>
+      <c r="M60" s="16"/>
       <c r="N60" s="2"/>
     </row>
-    <row r="61" spans="1:14" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:14" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="6"/>
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
       <c r="D61" s="5" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="F61" s="12" t="s">
-        <v>211</v>
-      </c>
-      <c r="G61" s="18" t="s">
-        <v>329</v>
-      </c>
-      <c r="H61" s="18" t="s">
-        <v>338</v>
-      </c>
-      <c r="I61" s="31" t="s">
-        <v>409</v>
-      </c>
-      <c r="J61" s="15"/>
-      <c r="K61" s="15" t="s">
-        <v>457</v>
-      </c>
-      <c r="L61" s="25" t="s">
-        <v>372</v>
-      </c>
-      <c r="M61" s="19"/>
-      <c r="N61" s="2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>177</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="G61" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="H61" s="15"/>
+      <c r="I61" s="28" t="s">
+        <v>383</v>
+      </c>
+      <c r="J61" s="12" t="s">
+        <v>427</v>
+      </c>
+      <c r="K61" s="12" t="s">
+        <v>428</v>
+      </c>
+      <c r="L61" s="22"/>
+      <c r="M61" s="16"/>
+      <c r="N61" s="2"/>
+    </row>
+    <row r="62" spans="1:14" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="6"/>
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
       <c r="D62" s="5" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="F62" s="12" t="s">
-        <v>213</v>
-      </c>
-      <c r="G62" s="18" t="s">
-        <v>329</v>
-      </c>
-      <c r="H62" s="18" t="s">
-        <v>338</v>
-      </c>
-      <c r="I62" s="31" t="s">
-        <v>409</v>
-      </c>
-      <c r="J62" s="15"/>
-      <c r="K62" s="15" t="s">
-        <v>458</v>
-      </c>
-      <c r="L62" s="25" t="s">
-        <v>373</v>
-      </c>
-      <c r="M62" s="19"/>
+        <v>175</v>
+      </c>
+      <c r="F62" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="G62" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="H62" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="I62" s="28" t="s">
+        <v>383</v>
+      </c>
+      <c r="J62" s="12"/>
+      <c r="K62" s="12" t="s">
+        <v>429</v>
+      </c>
+      <c r="L62" s="22" t="s">
+        <v>346</v>
+      </c>
+      <c r="M62" s="16"/>
       <c r="N62" s="2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="6"/>
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
       <c r="D63" s="5" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="F63" s="12" t="s">
-        <v>211</v>
-      </c>
-      <c r="G63" s="18" t="s">
-        <v>329</v>
-      </c>
-      <c r="H63" s="18" t="s">
-        <v>338</v>
-      </c>
-      <c r="I63" s="31" t="s">
-        <v>417</v>
-      </c>
-      <c r="J63" s="15"/>
-      <c r="K63" s="15" t="s">
-        <v>459</v>
-      </c>
-      <c r="L63" s="25" t="s">
-        <v>372</v>
-      </c>
-      <c r="M63" s="19"/>
+        <v>175</v>
+      </c>
+      <c r="F63" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="G63" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="H63" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="I63" s="28" t="s">
+        <v>383</v>
+      </c>
+      <c r="J63" s="12"/>
+      <c r="K63" s="12" t="s">
+        <v>430</v>
+      </c>
+      <c r="L63" s="22" t="s">
+        <v>347</v>
+      </c>
+      <c r="M63" s="16"/>
       <c r="N63" s="2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="6"/>
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
       <c r="D64" s="5" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="F64" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="G64" s="18"/>
-      <c r="H64" s="18"/>
-      <c r="I64" s="31"/>
-      <c r="J64" s="15"/>
-      <c r="K64" s="15"/>
-      <c r="L64" s="25"/>
-      <c r="M64" s="19"/>
-      <c r="N64" s="2"/>
-    </row>
-    <row r="65" spans="1:14" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>173</v>
+      </c>
+      <c r="F64" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="G64" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="H64" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="I64" s="28" t="s">
+        <v>391</v>
+      </c>
+      <c r="J64" s="12"/>
+      <c r="K64" s="12" t="s">
+        <v>431</v>
+      </c>
+      <c r="L64" s="22" t="s">
+        <v>346</v>
+      </c>
+      <c r="M64" s="16"/>
+      <c r="N64" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="6"/>
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
       <c r="D65" s="5" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="G65" s="18"/>
-      <c r="H65" s="18"/>
-      <c r="I65" s="31"/>
-      <c r="J65" s="15"/>
-      <c r="K65" s="15"/>
-      <c r="L65" s="25"/>
-      <c r="M65" s="19"/>
+        <v>195</v>
+      </c>
+      <c r="G65" s="15"/>
+      <c r="H65" s="15"/>
+      <c r="I65" s="28"/>
+      <c r="J65" s="12"/>
+      <c r="K65" s="12"/>
+      <c r="L65" s="22"/>
+      <c r="M65" s="16"/>
       <c r="N65" s="2"/>
     </row>
-    <row r="66" spans="1:14" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:14" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="6"/>
       <c r="B66" s="5"/>
-      <c r="C66" s="5" t="s">
-        <v>206</v>
-      </c>
+      <c r="C66" s="5"/>
       <c r="D66" s="5" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="F66" s="13" t="s">
-        <v>204</v>
-      </c>
-      <c r="G66" s="18"/>
-      <c r="H66" s="18"/>
-      <c r="I66" s="31"/>
-      <c r="J66" s="15"/>
-      <c r="K66" s="15" t="s">
-        <v>498</v>
-      </c>
-      <c r="L66" s="25"/>
-      <c r="M66" s="19"/>
-      <c r="N66" s="2" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>179</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="G66" s="15"/>
+      <c r="H66" s="15"/>
+      <c r="I66" s="28"/>
+      <c r="J66" s="12"/>
+      <c r="K66" s="12"/>
+      <c r="L66" s="22"/>
+      <c r="M66" s="16"/>
+      <c r="N66" s="2"/>
+    </row>
+    <row r="67" spans="1:14" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="6"/>
       <c r="B67" s="5"/>
-      <c r="C67" s="5"/>
+      <c r="C67" s="5" t="s">
+        <v>192</v>
+      </c>
       <c r="D67" s="5" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="E67" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="F67" s="33" t="s">
+        <v>579</v>
+      </c>
+      <c r="G67" s="15"/>
+      <c r="H67" s="15"/>
+      <c r="I67" s="28"/>
+      <c r="J67" s="12"/>
+      <c r="K67" s="12" t="s">
+        <v>468</v>
+      </c>
+      <c r="L67" s="22"/>
+      <c r="M67" s="16"/>
+      <c r="N67" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="F67" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="G67" s="18"/>
-      <c r="H67" s="18"/>
-      <c r="I67" s="31"/>
-      <c r="J67" s="15"/>
-      <c r="K67" s="15" t="s">
-        <v>498</v>
-      </c>
-      <c r="L67" s="25"/>
-      <c r="M67" s="19"/>
-      <c r="N67" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="68" spans="1:14" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="6"/>
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
       <c r="D68" s="5" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="F68" s="21" t="s">
-        <v>198</v>
-      </c>
-      <c r="G68" s="18"/>
-      <c r="H68" s="18" t="s">
-        <v>338</v>
-      </c>
-      <c r="I68" s="31" t="s">
-        <v>417</v>
-      </c>
-      <c r="J68" s="15"/>
-      <c r="K68" s="15" t="s">
-        <v>498</v>
-      </c>
-      <c r="L68" s="25" t="s">
-        <v>370</v>
-      </c>
-      <c r="M68" s="19"/>
+        <v>179</v>
+      </c>
+      <c r="F68" s="30" t="s">
+        <v>580</v>
+      </c>
+      <c r="G68" s="15"/>
+      <c r="H68" s="15"/>
+      <c r="I68" s="28"/>
+      <c r="J68" s="12"/>
+      <c r="K68" s="12" t="s">
+        <v>468</v>
+      </c>
+      <c r="L68" s="22"/>
+      <c r="M68" s="16"/>
       <c r="N68" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="6"/>
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
       <c r="D69" s="5" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="F69" s="21" t="s">
-        <v>460</v>
-      </c>
-      <c r="G69" s="18"/>
-      <c r="H69" s="18" t="s">
-        <v>338</v>
-      </c>
-      <c r="I69" s="31" t="s">
-        <v>409</v>
-      </c>
-      <c r="J69" s="15" t="s">
-        <v>461</v>
-      </c>
-      <c r="K69" s="15" t="s">
-        <v>462</v>
-      </c>
-      <c r="L69" s="25" t="s">
-        <v>370</v>
-      </c>
-      <c r="M69" s="19"/>
+        <v>179</v>
+      </c>
+      <c r="F69" s="32" t="s">
+        <v>581</v>
+      </c>
+      <c r="G69" s="15"/>
+      <c r="H69" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="I69" s="28" t="s">
+        <v>391</v>
+      </c>
+      <c r="J69" s="12"/>
+      <c r="K69" s="12" t="s">
+        <v>468</v>
+      </c>
+      <c r="L69" s="22" t="s">
+        <v>344</v>
+      </c>
+      <c r="M69" s="16"/>
       <c r="N69" s="2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="6"/>
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
       <c r="D70" s="5" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="F70" s="21" t="s">
-        <v>193</v>
-      </c>
-      <c r="G70" s="18"/>
-      <c r="H70" s="18"/>
-      <c r="I70" s="31"/>
-      <c r="J70" s="15"/>
-      <c r="K70" s="15" t="s">
-        <v>463</v>
-      </c>
-      <c r="L70" s="25"/>
-      <c r="M70" s="19"/>
+        <v>177</v>
+      </c>
+      <c r="F70" s="18" t="s">
+        <v>432</v>
+      </c>
+      <c r="G70" s="15"/>
+      <c r="H70" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="I70" s="28" t="s">
+        <v>383</v>
+      </c>
+      <c r="J70" s="12" t="s">
+        <v>433</v>
+      </c>
+      <c r="K70" s="12" t="s">
+        <v>434</v>
+      </c>
+      <c r="L70" s="22" t="s">
+        <v>344</v>
+      </c>
+      <c r="M70" s="16"/>
       <c r="N70" s="2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="6"/>
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
       <c r="D71" s="5" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="F71" s="21" t="s">
-        <v>193</v>
-      </c>
-      <c r="G71" s="18"/>
-      <c r="H71" s="18" t="s">
-        <v>338</v>
-      </c>
-      <c r="I71" s="31" t="s">
-        <v>409</v>
-      </c>
-      <c r="J71" s="15"/>
-      <c r="K71" s="15" t="s">
-        <v>457</v>
-      </c>
-      <c r="L71" s="25" t="s">
-        <v>374</v>
-      </c>
-      <c r="M71" s="19"/>
+        <v>175</v>
+      </c>
+      <c r="F71" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="G71" s="15"/>
+      <c r="H71" s="15"/>
+      <c r="I71" s="28"/>
+      <c r="J71" s="12"/>
+      <c r="K71" s="12" t="s">
+        <v>435</v>
+      </c>
+      <c r="L71" s="22"/>
+      <c r="M71" s="16"/>
       <c r="N71" s="2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="6"/>
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
       <c r="D72" s="5" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="F72" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="G72" s="18"/>
-      <c r="H72" s="18" t="s">
-        <v>333</v>
-      </c>
-      <c r="I72" s="31" t="s">
-        <v>420</v>
-      </c>
-      <c r="J72" s="15"/>
-      <c r="K72" s="15" t="s">
-        <v>463</v>
-      </c>
-      <c r="L72" s="25" t="s">
-        <v>370</v>
-      </c>
-      <c r="M72" s="19"/>
+        <v>173</v>
+      </c>
+      <c r="F72" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="G72" s="15"/>
+      <c r="H72" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="I72" s="28" t="s">
+        <v>383</v>
+      </c>
+      <c r="J72" s="12"/>
+      <c r="K72" s="12" t="s">
+        <v>429</v>
+      </c>
+      <c r="L72" s="22" t="s">
+        <v>348</v>
+      </c>
+      <c r="M72" s="16"/>
       <c r="N72" s="2" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="73" spans="1:14" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:14" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="6"/>
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
       <c r="D73" s="5" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="F73" s="13" t="s">
-        <v>182</v>
-      </c>
-      <c r="G73" s="18"/>
-      <c r="H73" s="18" t="s">
-        <v>333</v>
-      </c>
-      <c r="I73" s="31" t="s">
-        <v>417</v>
-      </c>
-      <c r="J73" s="15"/>
-      <c r="K73" s="15" t="s">
-        <v>463</v>
-      </c>
-      <c r="L73" s="25" t="s">
-        <v>372</v>
-      </c>
-      <c r="M73" s="19"/>
+        <v>179</v>
+      </c>
+      <c r="F73" s="33" t="s">
+        <v>582</v>
+      </c>
+      <c r="G73" s="15"/>
+      <c r="H73" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="I73" s="28" t="s">
+        <v>394</v>
+      </c>
+      <c r="J73" s="12"/>
+      <c r="K73" s="12" t="s">
+        <v>435</v>
+      </c>
+      <c r="L73" s="22" t="s">
+        <v>344</v>
+      </c>
+      <c r="M73" s="16"/>
       <c r="N73" s="2" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="6"/>
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
       <c r="D74" s="5" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="F74" s="13" t="s">
-        <v>182</v>
-      </c>
-      <c r="G74" s="18"/>
-      <c r="H74" s="18" t="s">
-        <v>333</v>
-      </c>
-      <c r="I74" s="31" t="s">
-        <v>417</v>
-      </c>
-      <c r="J74" s="15"/>
-      <c r="K74" s="15" t="s">
-        <v>463</v>
-      </c>
-      <c r="L74" s="25" t="s">
-        <v>370</v>
-      </c>
-      <c r="M74" s="19"/>
+        <v>177</v>
+      </c>
+      <c r="F74" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="G74" s="15"/>
+      <c r="H74" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="I74" s="28" t="s">
+        <v>391</v>
+      </c>
+      <c r="J74" s="12"/>
+      <c r="K74" s="12" t="s">
+        <v>435</v>
+      </c>
+      <c r="L74" s="22" t="s">
+        <v>346</v>
+      </c>
+      <c r="M74" s="16"/>
       <c r="N74" s="2" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="6"/>
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
       <c r="D75" s="5" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="F75" s="13" t="s">
-        <v>182</v>
-      </c>
-      <c r="G75" s="18"/>
-      <c r="H75" s="18" t="s">
-        <v>333</v>
-      </c>
-      <c r="I75" s="31" t="s">
-        <v>409</v>
-      </c>
-      <c r="J75" s="15"/>
-      <c r="K75" s="15" t="s">
-        <v>464</v>
-      </c>
-      <c r="L75" s="25" t="s">
-        <v>372</v>
-      </c>
-      <c r="M75" s="19"/>
+        <v>175</v>
+      </c>
+      <c r="F75" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="G75" s="15"/>
+      <c r="H75" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="I75" s="28" t="s">
+        <v>391</v>
+      </c>
+      <c r="J75" s="12"/>
+      <c r="K75" s="12" t="s">
+        <v>435</v>
+      </c>
+      <c r="L75" s="22" t="s">
+        <v>344</v>
+      </c>
+      <c r="M75" s="16"/>
       <c r="N75" s="2" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="6"/>
       <c r="B76" s="5"/>
-      <c r="C76" s="5" t="s">
-        <v>180</v>
-      </c>
+      <c r="C76" s="5"/>
       <c r="D76" s="5" t="s">
-        <v>57</v>
+        <v>174</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="G76" s="18"/>
-      <c r="H76" s="18"/>
-      <c r="I76" s="31"/>
-      <c r="J76" s="15"/>
-      <c r="K76" s="15"/>
-      <c r="L76" s="25"/>
-      <c r="M76" s="19"/>
-      <c r="N76" s="2"/>
-    </row>
-    <row r="77" spans="1:14" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>173</v>
+      </c>
+      <c r="F76" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="G76" s="15"/>
+      <c r="H76" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="I76" s="28" t="s">
+        <v>383</v>
+      </c>
+      <c r="J76" s="12"/>
+      <c r="K76" s="12" t="s">
+        <v>436</v>
+      </c>
+      <c r="L76" s="22" t="s">
+        <v>346</v>
+      </c>
+      <c r="M76" s="16"/>
+      <c r="N76" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="6"/>
       <c r="B77" s="5"/>
-      <c r="C77" s="5"/>
+      <c r="C77" s="5" t="s">
+        <v>170</v>
+      </c>
       <c r="D77" s="5" t="s">
-        <v>179</v>
+        <v>55</v>
       </c>
       <c r="E77" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F77" s="21" t="s">
-        <v>178</v>
-      </c>
-      <c r="G77" s="18"/>
-      <c r="H77" s="18" t="s">
-        <v>338</v>
-      </c>
-      <c r="I77" s="31" t="s">
-        <v>419</v>
-      </c>
-      <c r="J77" s="15"/>
-      <c r="K77" s="15" t="s">
-        <v>463</v>
-      </c>
-      <c r="L77" s="25" t="s">
-        <v>370</v>
-      </c>
-      <c r="M77" s="19"/>
-      <c r="N77" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="78" spans="1:14" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F77" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G77" s="15"/>
+      <c r="H77" s="15"/>
+      <c r="I77" s="28"/>
+      <c r="J77" s="12"/>
+      <c r="K77" s="12"/>
+      <c r="L77" s="22"/>
+      <c r="M77" s="16"/>
+      <c r="N77" s="2"/>
+    </row>
+    <row r="78" spans="1:14" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="6"/>
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
       <c r="D78" s="5" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="E78" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F78" s="21" t="s">
-        <v>176</v>
-      </c>
-      <c r="G78" s="18"/>
-      <c r="H78" s="18" t="s">
-        <v>338</v>
-      </c>
-      <c r="I78" s="31" t="s">
-        <v>419</v>
-      </c>
-      <c r="J78" s="15"/>
-      <c r="K78" s="15" t="s">
-        <v>457</v>
-      </c>
-      <c r="L78" s="25" t="s">
-        <v>370</v>
-      </c>
-      <c r="M78" s="19"/>
+      <c r="F78" s="32" t="s">
+        <v>583</v>
+      </c>
+      <c r="G78" s="15"/>
+      <c r="H78" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="I78" s="28" t="s">
+        <v>393</v>
+      </c>
+      <c r="J78" s="12"/>
+      <c r="K78" s="12" t="s">
+        <v>435</v>
+      </c>
+      <c r="L78" s="22" t="s">
+        <v>344</v>
+      </c>
+      <c r="M78" s="16"/>
       <c r="N78" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="79" spans="1:14" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:14" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="6"/>
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
       <c r="D79" s="5" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="E79" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F79" s="21" t="s">
-        <v>174</v>
-      </c>
-      <c r="G79" s="18"/>
-      <c r="H79" s="18" t="s">
-        <v>338</v>
-      </c>
-      <c r="I79" s="31" t="s">
-        <v>418</v>
-      </c>
-      <c r="J79" s="15"/>
-      <c r="K79" s="15" t="s">
-        <v>463</v>
-      </c>
-      <c r="L79" s="25" t="s">
-        <v>370</v>
-      </c>
-      <c r="M79" s="19"/>
+      <c r="F79" s="32" t="s">
+        <v>584</v>
+      </c>
+      <c r="G79" s="15"/>
+      <c r="H79" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="I79" s="28" t="s">
+        <v>393</v>
+      </c>
+      <c r="J79" s="12"/>
+      <c r="K79" s="12" t="s">
+        <v>429</v>
+      </c>
+      <c r="L79" s="22" t="s">
+        <v>344</v>
+      </c>
+      <c r="M79" s="16"/>
       <c r="N79" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="80" spans="1:14" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:14" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="6"/>
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
       <c r="D80" s="5" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="F80" s="21" t="s">
-        <v>172</v>
-      </c>
-      <c r="G80" s="18"/>
-      <c r="H80" s="18"/>
-      <c r="I80" s="31"/>
-      <c r="J80" s="15"/>
-      <c r="K80" s="15"/>
-      <c r="L80" s="25"/>
-      <c r="M80" s="19"/>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="1:14" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>7</v>
+      </c>
+      <c r="F80" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="G80" s="15"/>
+      <c r="H80" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="I80" s="28" t="s">
+        <v>392</v>
+      </c>
+      <c r="J80" s="12"/>
+      <c r="K80" s="12" t="s">
+        <v>435</v>
+      </c>
+      <c r="L80" s="22" t="s">
+        <v>344</v>
+      </c>
+      <c r="M80" s="16"/>
+      <c r="N80" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="6"/>
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
       <c r="D81" s="5" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F81" s="21" t="s">
-        <v>170</v>
-      </c>
-      <c r="G81" s="18"/>
-      <c r="H81" s="18"/>
-      <c r="I81" s="31"/>
-      <c r="J81" s="15"/>
-      <c r="K81" s="15"/>
-      <c r="L81" s="25"/>
-      <c r="M81" s="19"/>
-      <c r="N81" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="82" spans="1:14" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>121</v>
+      </c>
+      <c r="F81" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="G81" s="15"/>
+      <c r="H81" s="15"/>
+      <c r="I81" s="28"/>
+      <c r="J81" s="12"/>
+      <c r="K81" s="12"/>
+      <c r="L81" s="22"/>
+      <c r="M81" s="16"/>
+      <c r="N81" s="2"/>
+    </row>
+    <row r="82" spans="1:14" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="6"/>
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
       <c r="D82" s="5" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F82" s="21" t="s">
-        <v>167</v>
-      </c>
-      <c r="G82" s="18"/>
-      <c r="H82" s="18"/>
-      <c r="I82" s="31"/>
-      <c r="J82" s="15"/>
-      <c r="K82" s="15"/>
-      <c r="L82" s="25"/>
-      <c r="M82" s="19"/>
-      <c r="N82" s="2"/>
-    </row>
-    <row r="83" spans="1:14" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+      <c r="F82" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="G82" s="15"/>
+      <c r="H82" s="15"/>
+      <c r="I82" s="28"/>
+      <c r="J82" s="12"/>
+      <c r="K82" s="12"/>
+      <c r="L82" s="22"/>
+      <c r="M82" s="16"/>
+      <c r="N82" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="6"/>
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
       <c r="D83" s="5" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="E83" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F83" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="G83" s="15"/>
+      <c r="H83" s="15"/>
+      <c r="I83" s="28"/>
+      <c r="J83" s="12"/>
+      <c r="K83" s="12"/>
+      <c r="L83" s="22"/>
+      <c r="M83" s="16"/>
+      <c r="N83" s="2"/>
+    </row>
+    <row r="84" spans="1:14" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A84" s="6"/>
+      <c r="B84" s="5"/>
+      <c r="C84" s="5"/>
+      <c r="D84" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="E84" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F83" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="G83" s="18"/>
-      <c r="H83" s="18"/>
-      <c r="I83" s="31" t="s">
-        <v>441</v>
-      </c>
-      <c r="J83" s="15"/>
-      <c r="K83" s="15" t="s">
-        <v>464</v>
-      </c>
-      <c r="L83" s="25"/>
-      <c r="M83" s="19"/>
-      <c r="N83" s="2"/>
-    </row>
-    <row r="84" spans="1:14" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="6">
+      <c r="F84" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="G84" s="15"/>
+      <c r="H84" s="15"/>
+      <c r="I84" s="28" t="s">
+        <v>414</v>
+      </c>
+      <c r="J84" s="12"/>
+      <c r="K84" s="12" t="s">
+        <v>436</v>
+      </c>
+      <c r="L84" s="22"/>
+      <c r="M84" s="16"/>
+      <c r="N84" s="2"/>
+    </row>
+    <row r="85" spans="1:14" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A85" s="6">
         <v>5</v>
       </c>
-      <c r="B84" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="C84" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="D84" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="E84" s="4" t="s">
+      <c r="B85" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E85" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F84" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="G84" s="18" t="s">
-        <v>331</v>
-      </c>
-      <c r="H84" s="18"/>
-      <c r="I84" s="31"/>
-      <c r="J84" s="15"/>
-      <c r="K84" s="15" t="s">
-        <v>498</v>
-      </c>
-      <c r="L84" s="25"/>
-      <c r="M84" s="19"/>
-      <c r="N84" s="2"/>
-    </row>
-    <row r="85" spans="1:14" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="6"/>
-      <c r="B85" s="5"/>
-      <c r="C85" s="5"/>
-      <c r="D85" s="27" t="s">
-        <v>162</v>
-      </c>
-      <c r="E85" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="F85" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="G85" s="18" t="s">
-        <v>331</v>
-      </c>
-      <c r="H85" s="18" t="s">
-        <v>338</v>
-      </c>
-      <c r="I85" s="31" t="s">
-        <v>417</v>
-      </c>
-      <c r="J85" s="15"/>
-      <c r="K85" s="15" t="s">
-        <v>498</v>
-      </c>
-      <c r="L85" s="25" t="s">
-        <v>370</v>
-      </c>
-      <c r="M85" s="19"/>
-      <c r="N85" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="86" spans="1:14" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F85" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G85" s="15" t="s">
+        <v>306</v>
+      </c>
+      <c r="H85" s="15"/>
+      <c r="I85" s="28"/>
+      <c r="J85" s="12"/>
+      <c r="K85" s="12" t="s">
+        <v>468</v>
+      </c>
+      <c r="L85" s="22"/>
+      <c r="M85" s="16"/>
+      <c r="N85" s="2"/>
+    </row>
+    <row r="86" spans="1:14" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="6"/>
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
-      <c r="D86" s="5" t="s">
-        <v>159</v>
+      <c r="D86" s="24" t="s">
+        <v>154</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F86" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="G86" s="18" t="s">
-        <v>329</v>
-      </c>
-      <c r="H86" s="18"/>
-      <c r="I86" s="31"/>
-      <c r="J86" s="15"/>
-      <c r="K86" s="15"/>
-      <c r="L86" s="25"/>
-      <c r="M86" s="19"/>
-      <c r="N86" s="2"/>
-    </row>
-    <row r="87" spans="1:14" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>86</v>
+      </c>
+      <c r="F86" s="30" t="s">
+        <v>585</v>
+      </c>
+      <c r="G86" s="15" t="s">
+        <v>306</v>
+      </c>
+      <c r="H86" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="I86" s="28" t="s">
+        <v>391</v>
+      </c>
+      <c r="J86" s="12"/>
+      <c r="K86" s="12" t="s">
+        <v>468</v>
+      </c>
+      <c r="L86" s="22" t="s">
+        <v>344</v>
+      </c>
+      <c r="M86" s="16"/>
+      <c r="N86" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="6"/>
       <c r="B87" s="5"/>
-      <c r="C87" s="5" t="s">
-        <v>157</v>
-      </c>
+      <c r="C87" s="5"/>
       <c r="D87" s="5" t="s">
-        <v>119</v>
+        <v>152</v>
       </c>
       <c r="E87" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="G87" s="18" t="s">
-        <v>329</v>
-      </c>
-      <c r="H87" s="18"/>
-      <c r="I87" s="31"/>
-      <c r="J87" s="15"/>
-      <c r="K87" s="15"/>
-      <c r="L87" s="25"/>
-      <c r="M87" s="19"/>
+        <v>151</v>
+      </c>
+      <c r="G87" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="H87" s="15"/>
+      <c r="I87" s="28"/>
+      <c r="J87" s="12"/>
+      <c r="K87" s="12"/>
+      <c r="L87" s="22"/>
+      <c r="M87" s="16"/>
       <c r="N87" s="2"/>
     </row>
-    <row r="88" spans="1:14" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:14" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="6"/>
       <c r="B88" s="5"/>
-      <c r="C88" s="5"/>
+      <c r="C88" s="5" t="s">
+        <v>150</v>
+      </c>
       <c r="D88" s="5" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>90</v>
+        <v>7</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="G88" s="18" t="s">
-        <v>329</v>
-      </c>
-      <c r="H88" s="18"/>
-      <c r="I88" s="31"/>
-      <c r="J88" s="15"/>
-      <c r="K88" s="15"/>
-      <c r="L88" s="25"/>
-      <c r="M88" s="19"/>
+        <v>149</v>
+      </c>
+      <c r="G88" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="H88" s="15"/>
+      <c r="I88" s="28"/>
+      <c r="J88" s="12"/>
+      <c r="K88" s="12"/>
+      <c r="L88" s="22"/>
+      <c r="M88" s="16"/>
       <c r="N88" s="2"/>
     </row>
-    <row r="89" spans="1:14" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:14" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="6"/>
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
       <c r="D89" s="5" t="s">
-        <v>154</v>
+        <v>111</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>3</v>
+        <v>86</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="G89" s="18" t="s">
-        <v>329</v>
-      </c>
-      <c r="H89" s="18"/>
-      <c r="I89" s="31"/>
-      <c r="J89" s="15"/>
-      <c r="K89" s="15"/>
-      <c r="L89" s="25"/>
-      <c r="M89" s="19"/>
+        <v>148</v>
+      </c>
+      <c r="G89" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="H89" s="15"/>
+      <c r="I89" s="28"/>
+      <c r="J89" s="12"/>
+      <c r="K89" s="12"/>
+      <c r="L89" s="22"/>
+      <c r="M89" s="16"/>
       <c r="N89" s="2"/>
     </row>
-    <row r="90" spans="1:14" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:14" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="6"/>
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
       <c r="D90" s="5" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="E90" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="G90" s="18" t="s">
-        <v>329</v>
-      </c>
-      <c r="H90" s="18"/>
-      <c r="I90" s="31"/>
-      <c r="J90" s="15"/>
-      <c r="K90" s="15"/>
-      <c r="L90" s="25"/>
-      <c r="M90" s="19"/>
+        <v>146</v>
+      </c>
+      <c r="G90" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="H90" s="15"/>
+      <c r="I90" s="28"/>
+      <c r="J90" s="12"/>
+      <c r="K90" s="12"/>
+      <c r="L90" s="22"/>
+      <c r="M90" s="16"/>
       <c r="N90" s="2"/>
     </row>
-    <row r="91" spans="1:14" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:14" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="6"/>
       <c r="B91" s="5"/>
-      <c r="C91" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="D91" s="27" t="s">
-        <v>149</v>
+      <c r="C91" s="5"/>
+      <c r="D91" s="5" t="s">
+        <v>145</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F91" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="G91" s="18" t="s">
-        <v>331</v>
-      </c>
-      <c r="H91" s="18" t="s">
-        <v>338</v>
-      </c>
-      <c r="I91" s="31" t="s">
-        <v>417</v>
-      </c>
-      <c r="J91" s="15"/>
-      <c r="K91" s="15" t="s">
-        <v>498</v>
-      </c>
-      <c r="L91" s="25" t="s">
-        <v>375</v>
-      </c>
-      <c r="M91" s="19"/>
-      <c r="N91" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="92" spans="1:14" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="G91" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="H91" s="15"/>
+      <c r="I91" s="28"/>
+      <c r="J91" s="12"/>
+      <c r="K91" s="12"/>
+      <c r="L91" s="22"/>
+      <c r="M91" s="16"/>
+      <c r="N91" s="2"/>
+    </row>
+    <row r="92" spans="1:14" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="6"/>
       <c r="B92" s="5"/>
-      <c r="C92" s="5"/>
-      <c r="D92" s="27" t="s">
-        <v>148</v>
+      <c r="C92" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="D92" s="24" t="s">
+        <v>142</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F92" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="G92" s="18" t="s">
-        <v>331</v>
-      </c>
-      <c r="H92" s="18" t="s">
-        <v>338</v>
-      </c>
-      <c r="I92" s="31" t="s">
-        <v>409</v>
-      </c>
-      <c r="J92" s="15"/>
-      <c r="K92" s="15" t="s">
-        <v>497</v>
-      </c>
-      <c r="L92" s="25" t="s">
-        <v>370</v>
-      </c>
-      <c r="M92" s="19"/>
+        <v>5</v>
+      </c>
+      <c r="F92" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="G92" s="15" t="s">
+        <v>306</v>
+      </c>
+      <c r="H92" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="I92" s="28" t="s">
+        <v>391</v>
+      </c>
+      <c r="J92" s="12"/>
+      <c r="K92" s="12" t="s">
+        <v>468</v>
+      </c>
+      <c r="L92" s="22" t="s">
+        <v>349</v>
+      </c>
+      <c r="M92" s="16"/>
       <c r="N92" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="93" spans="1:14" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:14" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="6"/>
-      <c r="D93" s="27" t="s">
-        <v>146</v>
+      <c r="B93" s="5"/>
+      <c r="C93" s="5"/>
+      <c r="D93" s="24" t="s">
+        <v>141</v>
       </c>
       <c r="E93" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F93" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="G93" s="18" t="s">
-        <v>331</v>
-      </c>
-      <c r="H93" s="18" t="s">
-        <v>338</v>
-      </c>
-      <c r="I93" s="31" t="s">
-        <v>417</v>
-      </c>
-      <c r="J93" s="15"/>
-      <c r="K93" s="15" t="s">
-        <v>498</v>
-      </c>
-      <c r="L93" s="25" t="s">
-        <v>370</v>
-      </c>
-      <c r="M93" s="19"/>
+      <c r="F93" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="G93" s="15" t="s">
+        <v>306</v>
+      </c>
+      <c r="H93" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="I93" s="28" t="s">
+        <v>383</v>
+      </c>
+      <c r="J93" s="12"/>
+      <c r="K93" s="12" t="s">
+        <v>467</v>
+      </c>
+      <c r="L93" s="22" t="s">
+        <v>344</v>
+      </c>
+      <c r="M93" s="16"/>
       <c r="N93" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="94" spans="1:14" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="6"/>
-      <c r="C94" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="D94" s="5" t="s">
-        <v>143</v>
+      <c r="D94" s="24" t="s">
+        <v>139</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="G94" s="18" t="s">
-        <v>329</v>
-      </c>
-      <c r="H94" s="18"/>
-      <c r="I94" s="31"/>
-      <c r="J94" s="15"/>
-      <c r="K94" s="15"/>
-      <c r="L94" s="25"/>
-      <c r="M94" s="19"/>
-      <c r="N94" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="F94" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="G94" s="15" t="s">
+        <v>306</v>
+      </c>
+      <c r="H94" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="I94" s="28" t="s">
+        <v>391</v>
+      </c>
+      <c r="J94" s="12"/>
+      <c r="K94" s="12" t="s">
+        <v>468</v>
+      </c>
+      <c r="L94" s="22" t="s">
+        <v>344</v>
+      </c>
+      <c r="M94" s="16"/>
+      <c r="N94" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="95" spans="1:14" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="6"/>
+      <c r="C95" s="5" t="s">
+        <v>137</v>
+      </c>
       <c r="D95" s="5" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="E95" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="G95" s="18" t="s">
-        <v>329</v>
-      </c>
-      <c r="H95" s="18"/>
-      <c r="I95" s="31"/>
-      <c r="J95" s="15"/>
-      <c r="K95" s="15"/>
-      <c r="L95" s="25"/>
-      <c r="M95" s="19"/>
+        <v>74</v>
+      </c>
+      <c r="G95" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="H95" s="15"/>
+      <c r="I95" s="28"/>
+      <c r="J95" s="12"/>
+      <c r="K95" s="12"/>
+      <c r="L95" s="22"/>
+      <c r="M95" s="16"/>
       <c r="N95" s="2"/>
     </row>
     <row r="96" spans="1:14" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="6">
-        <v>6</v>
-      </c>
-      <c r="B96" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="C96" s="5" t="s">
-        <v>139</v>
-      </c>
+      <c r="A96" s="6"/>
       <c r="D96" s="5" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E96" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>479</v>
-      </c>
-      <c r="G96" s="18" t="s">
-        <v>329</v>
-      </c>
-      <c r="H96" s="18"/>
-      <c r="I96" s="31"/>
-      <c r="J96" s="15" t="s">
-        <v>480</v>
-      </c>
-      <c r="K96" s="15" t="s">
-        <v>481</v>
-      </c>
-      <c r="L96" s="25"/>
-      <c r="M96" s="19"/>
+        <v>134</v>
+      </c>
+      <c r="G96" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="H96" s="15"/>
+      <c r="I96" s="28"/>
+      <c r="J96" s="12"/>
+      <c r="K96" s="12"/>
+      <c r="L96" s="22"/>
+      <c r="M96" s="16"/>
       <c r="N96" s="2"/>
     </row>
     <row r="97" spans="1:14" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="6"/>
+      <c r="A97" s="6">
+        <v>6</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>132</v>
+      </c>
       <c r="D97" s="5" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>90</v>
+        <v>7</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="G97" s="18" t="s">
-        <v>329</v>
-      </c>
-      <c r="H97" s="18"/>
-      <c r="I97" s="31"/>
-      <c r="J97" s="15"/>
-      <c r="K97" s="15"/>
-      <c r="L97" s="25"/>
-      <c r="M97" s="19"/>
+        <v>451</v>
+      </c>
+      <c r="G97" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="H97" s="15"/>
+      <c r="I97" s="28"/>
+      <c r="J97" s="12" t="s">
+        <v>452</v>
+      </c>
+      <c r="K97" s="12" t="s">
+        <v>453</v>
+      </c>
+      <c r="L97" s="22"/>
+      <c r="M97" s="16"/>
       <c r="N97" s="2"/>
     </row>
     <row r="98" spans="1:14" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="6"/>
       <c r="D98" s="5" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F98" s="3" t="s">
-        <v>476</v>
-      </c>
-      <c r="G98" s="18" t="s">
-        <v>329</v>
-      </c>
-      <c r="H98" s="18"/>
-      <c r="I98" s="31" t="s">
-        <v>409</v>
-      </c>
-      <c r="J98" s="15" t="s">
-        <v>477</v>
-      </c>
-      <c r="K98" s="15" t="s">
-        <v>478</v>
-      </c>
-      <c r="L98" s="25"/>
-      <c r="M98" s="19"/>
+        <v>86</v>
+      </c>
+      <c r="F98" s="30" t="s">
+        <v>586</v>
+      </c>
+      <c r="G98" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="H98" s="15"/>
+      <c r="I98" s="28"/>
+      <c r="J98" s="12"/>
+      <c r="K98" s="12"/>
+      <c r="L98" s="22"/>
+      <c r="M98" s="16"/>
       <c r="N98" s="2"/>
     </row>
     <row r="99" spans="1:14" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="6"/>
       <c r="D99" s="5" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="G99" s="18" t="s">
-        <v>329</v>
-      </c>
-      <c r="H99" s="18"/>
-      <c r="I99" s="31"/>
-      <c r="J99" s="15"/>
-      <c r="K99" s="15" t="s">
-        <v>463</v>
-      </c>
-      <c r="L99" s="25"/>
-      <c r="M99" s="19"/>
+        <v>448</v>
+      </c>
+      <c r="G99" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="H99" s="15"/>
+      <c r="I99" s="28" t="s">
+        <v>383</v>
+      </c>
+      <c r="J99" s="12" t="s">
+        <v>449</v>
+      </c>
+      <c r="K99" s="12" t="s">
+        <v>450</v>
+      </c>
+      <c r="L99" s="22"/>
+      <c r="M99" s="16"/>
       <c r="N99" s="2"/>
     </row>
     <row r="100" spans="1:14" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="6"/>
       <c r="D100" s="5" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="G100" s="18" t="s">
-        <v>329</v>
-      </c>
-      <c r="H100" s="18"/>
-      <c r="I100" s="31"/>
-      <c r="J100" s="15"/>
-      <c r="K100" s="15" t="s">
-        <v>457</v>
-      </c>
-      <c r="L100" s="25"/>
-      <c r="M100" s="19"/>
+        <v>126</v>
+      </c>
+      <c r="G100" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="H100" s="15"/>
+      <c r="I100" s="28"/>
+      <c r="J100" s="12"/>
+      <c r="K100" s="12" t="s">
+        <v>435</v>
+      </c>
+      <c r="L100" s="22"/>
+      <c r="M100" s="16"/>
       <c r="N100" s="2"/>
     </row>
     <row r="101" spans="1:14" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="6"/>
-      <c r="C101" s="5" t="s">
-        <v>131</v>
-      </c>
       <c r="D101" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E101" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G101" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="H101" s="15"/>
+      <c r="I101" s="28"/>
+      <c r="J101" s="12"/>
+      <c r="K101" s="12" t="s">
+        <v>429</v>
+      </c>
+      <c r="L101" s="22"/>
+      <c r="M101" s="16"/>
+      <c r="N101" s="2"/>
+    </row>
+    <row r="102" spans="1:14" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A102" s="6"/>
+      <c r="C102" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D102" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E102" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F101" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="G101" s="18" t="s">
-        <v>329</v>
-      </c>
-      <c r="H101" s="18"/>
-      <c r="I101" s="31"/>
-      <c r="J101" s="15" t="s">
-        <v>543</v>
-      </c>
-      <c r="K101" s="16" t="s">
-        <v>340</v>
-      </c>
-      <c r="L101" s="25"/>
-      <c r="M101" s="19"/>
-      <c r="N101" s="2"/>
-    </row>
-    <row r="102" spans="1:14" s="5" customFormat="1" ht="80.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="6"/>
-      <c r="D102" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="E102" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="F102" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="G102" s="18" t="s">
-        <v>329</v>
-      </c>
-      <c r="H102" s="18"/>
-      <c r="I102" s="31" t="s">
-        <v>409</v>
-      </c>
-      <c r="J102" s="17" t="s">
-        <v>391</v>
-      </c>
-      <c r="K102" s="17" t="s">
-        <v>349</v>
-      </c>
-      <c r="L102" s="25" t="s">
-        <v>392</v>
-      </c>
-      <c r="M102" s="19"/>
+      <c r="F102" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="G102" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="H102" s="15"/>
+      <c r="I102" s="28"/>
+      <c r="J102" s="12" t="s">
+        <v>507</v>
+      </c>
+      <c r="K102" s="13" t="s">
+        <v>315</v>
+      </c>
+      <c r="L102" s="22"/>
+      <c r="M102" s="16"/>
       <c r="N102" s="2"/>
     </row>
-    <row r="103" spans="1:14" s="5" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:14" s="5" customFormat="1" ht="80.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="6"/>
       <c r="D103" s="5" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="F103" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="G103" s="18" t="s">
-        <v>329</v>
-      </c>
-      <c r="H103" s="18"/>
-      <c r="I103" s="31" t="s">
-        <v>412</v>
-      </c>
-      <c r="J103" s="15" t="s">
-        <v>352</v>
-      </c>
-      <c r="K103" s="15" t="s">
-        <v>448</v>
-      </c>
-      <c r="L103" s="25" t="s">
-        <v>355</v>
-      </c>
-      <c r="M103" s="19"/>
+        <v>121</v>
+      </c>
+      <c r="F103" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="G103" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="H103" s="15"/>
+      <c r="I103" s="28" t="s">
+        <v>383</v>
+      </c>
+      <c r="J103" s="14" t="s">
+        <v>365</v>
+      </c>
+      <c r="K103" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="L103" s="22" t="s">
+        <v>366</v>
+      </c>
+      <c r="M103" s="16"/>
       <c r="N103" s="2"/>
     </row>
-    <row r="104" spans="1:14" s="5" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:14" s="5" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="6"/>
       <c r="D104" s="5" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="F104" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="G104" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="F104" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="G104" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="H104" s="15"/>
+      <c r="I104" s="28" t="s">
+        <v>386</v>
+      </c>
+      <c r="J104" s="12" t="s">
+        <v>326</v>
+      </c>
+      <c r="K104" s="12" t="s">
+        <v>421</v>
+      </c>
+      <c r="L104" s="22" t="s">
         <v>329</v>
       </c>
-      <c r="H104" s="18"/>
-      <c r="I104" s="31"/>
-      <c r="J104" s="15" t="s">
-        <v>353</v>
-      </c>
-      <c r="K104" s="15" t="s">
-        <v>354</v>
-      </c>
-      <c r="L104" s="25"/>
-      <c r="M104" s="19"/>
+      <c r="M104" s="16"/>
       <c r="N104" s="2"/>
     </row>
-    <row r="105" spans="1:14" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="6">
+    <row r="105" spans="1:14" s="5" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A105" s="6"/>
+      <c r="D105" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E105" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="F105" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="G105" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="H105" s="15"/>
+      <c r="I105" s="28"/>
+      <c r="J105" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="K105" s="12" t="s">
+        <v>328</v>
+      </c>
+      <c r="L105" s="22"/>
+      <c r="M105" s="16"/>
+      <c r="N105" s="2"/>
+    </row>
+    <row r="106" spans="1:14" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A106" s="6">
         <v>7</v>
       </c>
-      <c r="B105" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="C105" s="30" t="s">
-        <v>120</v>
-      </c>
-      <c r="D105" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="E105" s="4" t="s">
+      <c r="B106" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C106" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="D106" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="E106" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F105" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="G105" s="18" t="s">
-        <v>329</v>
-      </c>
-      <c r="H105" s="18"/>
-      <c r="I105" s="31"/>
-      <c r="J105" s="15" t="s">
-        <v>544</v>
-      </c>
-      <c r="K105" s="16" t="s">
-        <v>340</v>
-      </c>
-      <c r="L105" s="25"/>
-      <c r="M105" s="19"/>
-      <c r="N105" s="2"/>
-    </row>
-    <row r="106" spans="1:14" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="6"/>
-      <c r="D106" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="E106" s="4" t="s">
-        <v>90</v>
-      </c>
       <c r="F106" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="G106" s="18" t="s">
-        <v>329</v>
-      </c>
-      <c r="H106" s="18"/>
-      <c r="I106" s="31"/>
-      <c r="J106" s="15" t="s">
-        <v>428</v>
-      </c>
-      <c r="K106" s="16" t="s">
-        <v>341</v>
-      </c>
-      <c r="L106" s="25"/>
-      <c r="M106" s="19"/>
+        <v>112</v>
+      </c>
+      <c r="G106" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="H106" s="15"/>
+      <c r="I106" s="28"/>
+      <c r="J106" s="12" t="s">
+        <v>508</v>
+      </c>
+      <c r="K106" s="13" t="s">
+        <v>315</v>
+      </c>
+      <c r="L106" s="22"/>
+      <c r="M106" s="16"/>
       <c r="N106" s="2"/>
     </row>
-    <row r="107" spans="1:14" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:14" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="6"/>
-      <c r="B107" s="5"/>
-      <c r="C107" s="5"/>
       <c r="D107" s="5" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F107" s="3" t="s">
-        <v>437</v>
-      </c>
-      <c r="G107" s="18" t="s">
-        <v>329</v>
-      </c>
-      <c r="H107" s="18"/>
-      <c r="I107" s="31" t="s">
-        <v>440</v>
-      </c>
-      <c r="J107" s="15" t="s">
-        <v>438</v>
-      </c>
-      <c r="K107" s="15" t="s">
-        <v>439</v>
-      </c>
-      <c r="L107" s="25"/>
-      <c r="M107" s="19"/>
+        <v>86</v>
+      </c>
+      <c r="F107" s="34" t="s">
+        <v>587</v>
+      </c>
+      <c r="G107" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="H107" s="15"/>
+      <c r="I107" s="28"/>
+      <c r="J107" s="12" t="s">
+        <v>401</v>
+      </c>
+      <c r="K107" s="13" t="s">
+        <v>316</v>
+      </c>
+      <c r="L107" s="22"/>
+      <c r="M107" s="16"/>
       <c r="N107" s="2"/>
     </row>
-    <row r="108" spans="1:14" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:14" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="6"/>
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
       <c r="D108" s="5" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F108" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="G108" s="18" t="s">
-        <v>329</v>
-      </c>
-      <c r="H108" s="18"/>
-      <c r="I108" s="31"/>
-      <c r="J108" s="15" t="s">
-        <v>442</v>
-      </c>
-      <c r="K108" s="15" t="s">
-        <v>443</v>
-      </c>
-      <c r="L108" s="25"/>
-      <c r="M108" s="19"/>
+        <v>7</v>
+      </c>
+      <c r="F108" s="30" t="s">
+        <v>410</v>
+      </c>
+      <c r="G108" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="H108" s="15"/>
+      <c r="I108" s="28" t="s">
+        <v>413</v>
+      </c>
+      <c r="J108" s="12" t="s">
+        <v>411</v>
+      </c>
+      <c r="K108" s="12" t="s">
+        <v>412</v>
+      </c>
+      <c r="L108" s="22"/>
+      <c r="M108" s="16"/>
       <c r="N108" s="2"/>
     </row>
-    <row r="109" spans="1:14" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:14" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="6"/>
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
       <c r="D109" s="5" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E109" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="G109" s="18" t="s">
-        <v>329</v>
-      </c>
-      <c r="H109" s="18"/>
-      <c r="I109" s="31"/>
-      <c r="J109" s="15" t="s">
-        <v>444</v>
-      </c>
-      <c r="K109" s="15" t="s">
-        <v>358</v>
-      </c>
-      <c r="L109" s="25"/>
-      <c r="M109" s="19"/>
+        <v>108</v>
+      </c>
+      <c r="G109" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="H109" s="15"/>
+      <c r="I109" s="28"/>
+      <c r="J109" s="12" t="s">
+        <v>415</v>
+      </c>
+      <c r="K109" s="12" t="s">
+        <v>416</v>
+      </c>
+      <c r="L109" s="22"/>
+      <c r="M109" s="16"/>
       <c r="N109" s="2"/>
     </row>
-    <row r="110" spans="1:14" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:14" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="6"/>
       <c r="B110" s="5"/>
-      <c r="C110" s="5" t="s">
-        <v>110</v>
-      </c>
+      <c r="C110" s="5"/>
       <c r="D110" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F110" s="21" t="s">
-        <v>445</v>
-      </c>
-      <c r="G110" s="18" t="s">
-        <v>329</v>
-      </c>
-      <c r="H110" s="18"/>
-      <c r="I110" s="31"/>
-      <c r="J110" s="15" t="s">
-        <v>446</v>
-      </c>
-      <c r="K110" s="15" t="s">
-        <v>447</v>
-      </c>
-      <c r="L110" s="25"/>
-      <c r="M110" s="19"/>
+        <v>3</v>
+      </c>
+      <c r="F110" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="G110" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="H110" s="15"/>
+      <c r="I110" s="28"/>
+      <c r="J110" s="12" t="s">
+        <v>417</v>
+      </c>
+      <c r="K110" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="L110" s="22"/>
+      <c r="M110" s="16"/>
       <c r="N110" s="2"/>
     </row>
-    <row r="111" spans="1:14" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:14" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="6"/>
       <c r="B111" s="5"/>
-      <c r="C111" s="5"/>
+      <c r="C111" s="5" t="s">
+        <v>105</v>
+      </c>
       <c r="D111" s="5" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F111" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="G111" s="18" t="s">
-        <v>329</v>
-      </c>
-      <c r="H111" s="18"/>
-      <c r="I111" s="31" t="s">
-        <v>441</v>
-      </c>
-      <c r="J111" s="15" t="s">
-        <v>429</v>
-      </c>
-      <c r="K111" s="15" t="s">
-        <v>430</v>
-      </c>
-      <c r="L111" s="25" t="s">
-        <v>532</v>
-      </c>
-      <c r="M111" s="19"/>
-      <c r="N111" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="112" spans="1:14" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>7</v>
+      </c>
+      <c r="F111" s="18" t="s">
+        <v>418</v>
+      </c>
+      <c r="G111" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="H111" s="15"/>
+      <c r="I111" s="28"/>
+      <c r="J111" s="12" t="s">
+        <v>419</v>
+      </c>
+      <c r="K111" s="12" t="s">
+        <v>420</v>
+      </c>
+      <c r="L111" s="22"/>
+      <c r="M111" s="16"/>
+      <c r="N111" s="2"/>
+    </row>
+    <row r="112" spans="1:14" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="6"/>
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
       <c r="D112" s="5" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F112" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="G112" s="18" t="s">
-        <v>329</v>
-      </c>
-      <c r="H112" s="18"/>
-      <c r="I112" s="31" t="s">
-        <v>433</v>
-      </c>
-      <c r="J112" s="15" t="s">
-        <v>431</v>
-      </c>
-      <c r="K112" s="15" t="s">
-        <v>432</v>
-      </c>
-      <c r="L112" s="25"/>
-      <c r="M112" s="19"/>
+        <v>5</v>
+      </c>
+      <c r="F112" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="G112" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="H112" s="15"/>
+      <c r="I112" s="28" t="s">
+        <v>414</v>
+      </c>
+      <c r="J112" s="12" t="s">
+        <v>402</v>
+      </c>
+      <c r="K112" s="12" t="s">
+        <v>403</v>
+      </c>
+      <c r="L112" s="22" t="s">
+        <v>497</v>
+      </c>
+      <c r="M112" s="16"/>
       <c r="N112" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="113" spans="1:14" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="6"/>
       <c r="B113" s="5"/>
       <c r="C113" s="5"/>
       <c r="D113" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F113" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="G113" s="18" t="s">
-        <v>329</v>
-      </c>
-      <c r="H113" s="18"/>
-      <c r="I113" s="31"/>
-      <c r="J113" s="15"/>
-      <c r="K113" s="15" t="s">
-        <v>434</v>
-      </c>
-      <c r="L113" s="25"/>
-      <c r="M113" s="19"/>
-      <c r="N113" s="2"/>
-    </row>
-    <row r="114" spans="1:14" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+      <c r="F113" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="G113" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="H113" s="15"/>
+      <c r="I113" s="28" t="s">
+        <v>406</v>
+      </c>
+      <c r="J113" s="12" t="s">
+        <v>404</v>
+      </c>
+      <c r="K113" s="12" t="s">
+        <v>405</v>
+      </c>
+      <c r="L113" s="22"/>
+      <c r="M113" s="16"/>
+      <c r="N113" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="6"/>
       <c r="B114" s="5"/>
-      <c r="C114" s="30" t="s">
-        <v>102</v>
-      </c>
+      <c r="C114" s="5"/>
       <c r="D114" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F114" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="G114" s="18" t="s">
-        <v>329</v>
-      </c>
-      <c r="H114" s="18"/>
-      <c r="I114" s="31"/>
-      <c r="J114" s="15"/>
-      <c r="K114" s="15" t="s">
-        <v>434</v>
-      </c>
-      <c r="L114" s="25"/>
-      <c r="M114" s="19"/>
+        <v>1</v>
+      </c>
+      <c r="F114" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="G114" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="H114" s="15"/>
+      <c r="I114" s="28"/>
+      <c r="J114" s="12"/>
+      <c r="K114" s="12" t="s">
+        <v>407</v>
+      </c>
+      <c r="L114" s="22"/>
+      <c r="M114" s="16"/>
       <c r="N114" s="2"/>
     </row>
-    <row r="115" spans="1:14" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:14" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="6"/>
       <c r="B115" s="5"/>
-      <c r="C115" s="5"/>
+      <c r="C115" s="27" t="s">
+        <v>97</v>
+      </c>
       <c r="D115" s="5" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F115" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="G115" s="18" t="s">
-        <v>329</v>
-      </c>
-      <c r="H115" s="18"/>
-      <c r="I115" s="31"/>
-      <c r="J115" s="15" t="s">
-        <v>436</v>
-      </c>
-      <c r="K115" s="15" t="s">
-        <v>435</v>
-      </c>
-      <c r="L115" s="25"/>
-      <c r="M115" s="19"/>
+        <v>5</v>
+      </c>
+      <c r="F115" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="G115" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="H115" s="15"/>
+      <c r="I115" s="28"/>
+      <c r="J115" s="12"/>
+      <c r="K115" s="12" t="s">
+        <v>407</v>
+      </c>
+      <c r="L115" s="22"/>
+      <c r="M115" s="16"/>
       <c r="N115" s="2"/>
     </row>
-    <row r="116" spans="1:14" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:14" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="6"/>
       <c r="B116" s="5"/>
       <c r="C116" s="5"/>
       <c r="D116" s="5" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E116" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F116" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="G116" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="H116" s="15"/>
+      <c r="I116" s="28"/>
+      <c r="J116" s="12" t="s">
+        <v>409</v>
+      </c>
+      <c r="K116" s="12" t="s">
+        <v>408</v>
+      </c>
+      <c r="L116" s="22"/>
+      <c r="M116" s="16"/>
+      <c r="N116" s="2"/>
+    </row>
+    <row r="117" spans="1:14" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A117" s="6"/>
+      <c r="B117" s="5"/>
+      <c r="C117" s="5"/>
+      <c r="D117" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E117" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F116" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="G116" s="18" t="s">
-        <v>329</v>
-      </c>
-      <c r="H116" s="18"/>
-      <c r="I116" s="31"/>
-      <c r="J116" s="15"/>
-      <c r="K116" s="15" t="s">
-        <v>354</v>
-      </c>
-      <c r="L116" s="25"/>
-      <c r="M116" s="19"/>
-      <c r="N116" s="2"/>
-    </row>
-    <row r="117" spans="1:14" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A117" s="6">
+      <c r="F117" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="G117" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="H117" s="15"/>
+      <c r="I117" s="28"/>
+      <c r="J117" s="12"/>
+      <c r="K117" s="12" t="s">
+        <v>328</v>
+      </c>
+      <c r="L117" s="22"/>
+      <c r="M117" s="16"/>
+      <c r="N117" s="2"/>
+    </row>
+    <row r="118" spans="1:14" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A118" s="6">
         <v>8</v>
       </c>
-      <c r="B117" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="C117" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D117" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="E117" s="4" t="s">
+      <c r="B118" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C118" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D118" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E118" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F117" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="G117" s="18" t="s">
-        <v>329</v>
-      </c>
-      <c r="H117" s="18"/>
-      <c r="I117" s="31"/>
-      <c r="J117" s="15"/>
-      <c r="K117" s="15"/>
-      <c r="L117" s="25"/>
-      <c r="M117" s="19"/>
-      <c r="N117" s="2"/>
-    </row>
-    <row r="118" spans="1:14" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A118" s="6"/>
-      <c r="B118" s="5"/>
-      <c r="C118" s="5"/>
-      <c r="D118" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E118" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="F118" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="G118" s="18" t="s">
-        <v>329</v>
-      </c>
-      <c r="H118" s="18"/>
-      <c r="I118" s="31"/>
-      <c r="J118" s="15" t="s">
-        <v>482</v>
-      </c>
-      <c r="K118" s="15" t="s">
-        <v>483</v>
-      </c>
-      <c r="L118" s="25"/>
-      <c r="M118" s="19"/>
-      <c r="N118" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="119" spans="1:14" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F118" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G118" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="H118" s="15"/>
+      <c r="I118" s="28"/>
+      <c r="J118" s="12"/>
+      <c r="K118" s="12"/>
+      <c r="L118" s="22"/>
+      <c r="M118" s="16"/>
+      <c r="N118" s="2"/>
+    </row>
+    <row r="119" spans="1:14" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="6"/>
       <c r="B119" s="5"/>
       <c r="C119" s="5"/>
       <c r="D119" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E119" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="F119" s="12" t="s">
-        <v>485</v>
-      </c>
-      <c r="G119" s="18" t="s">
-        <v>329</v>
-      </c>
-      <c r="H119" s="18" t="s">
-        <v>338</v>
-      </c>
-      <c r="I119" s="31"/>
-      <c r="J119" s="15" t="s">
-        <v>486</v>
-      </c>
-      <c r="K119" s="15" t="s">
-        <v>484</v>
-      </c>
-      <c r="L119" s="25" t="s">
-        <v>398</v>
-      </c>
-      <c r="M119" s="19"/>
+        <v>86</v>
+      </c>
+      <c r="F119" s="30" t="s">
+        <v>588</v>
+      </c>
+      <c r="G119" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="H119" s="15"/>
+      <c r="I119" s="28"/>
+      <c r="J119" s="12" t="s">
+        <v>454</v>
+      </c>
+      <c r="K119" s="12" t="s">
+        <v>455</v>
+      </c>
+      <c r="L119" s="22"/>
+      <c r="M119" s="16"/>
       <c r="N119" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="120" spans="1:14" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" s="6"/>
       <c r="B120" s="5"/>
-      <c r="C120" s="5" t="s">
-        <v>89</v>
-      </c>
+      <c r="C120" s="5"/>
       <c r="D120" s="5" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F120" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="G120" s="18" t="s">
-        <v>329</v>
-      </c>
-      <c r="H120" s="18"/>
-      <c r="I120" s="31"/>
-      <c r="J120" s="15"/>
-      <c r="K120" s="15"/>
-      <c r="L120" s="25"/>
-      <c r="M120" s="19"/>
-      <c r="N120" s="2"/>
-    </row>
-    <row r="121" spans="1:14" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>86</v>
+      </c>
+      <c r="F120" s="30" t="s">
+        <v>589</v>
+      </c>
+      <c r="G120" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="H120" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="I120" s="28"/>
+      <c r="J120" s="12" t="s">
+        <v>457</v>
+      </c>
+      <c r="K120" s="12" t="s">
+        <v>456</v>
+      </c>
+      <c r="L120" s="22" t="s">
+        <v>372</v>
+      </c>
+      <c r="M120" s="16"/>
+      <c r="N120" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="6"/>
       <c r="B121" s="5"/>
-      <c r="C121" s="5"/>
+      <c r="C121" s="5" t="s">
+        <v>85</v>
+      </c>
       <c r="D121" s="5" t="s">
-        <v>88</v>
+        <v>55</v>
       </c>
       <c r="E121" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F121" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="G121" s="18" t="s">
-        <v>329</v>
-      </c>
-      <c r="H121" s="18" t="s">
-        <v>338</v>
-      </c>
-      <c r="I121" s="31" t="s">
-        <v>412</v>
-      </c>
-      <c r="J121" s="15"/>
-      <c r="K121" s="15"/>
-      <c r="L121" s="25" t="s">
-        <v>370</v>
-      </c>
-      <c r="M121" s="19"/>
-      <c r="N121" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="122" spans="1:14" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F121" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G121" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="H121" s="15"/>
+      <c r="I121" s="28"/>
+      <c r="J121" s="12"/>
+      <c r="K121" s="12"/>
+      <c r="L121" s="22"/>
+      <c r="M121" s="16"/>
+      <c r="N121" s="2"/>
+    </row>
+    <row r="122" spans="1:14" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="6"/>
       <c r="B122" s="5"/>
       <c r="C122" s="5"/>
-      <c r="D122" s="5" t="s">
-        <v>85</v>
+      <c r="D122" s="29" t="s">
+        <v>84</v>
       </c>
       <c r="E122" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="G122" s="18" t="s">
-        <v>329</v>
-      </c>
-      <c r="H122" s="18"/>
-      <c r="I122" s="31"/>
-      <c r="J122" s="15"/>
-      <c r="K122" s="15"/>
-      <c r="L122" s="25"/>
-      <c r="M122" s="19"/>
-      <c r="N122" s="2"/>
-    </row>
-    <row r="123" spans="1:14" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>558</v>
+      </c>
+      <c r="G122" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="H122" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="I122" s="28" t="s">
+        <v>386</v>
+      </c>
+      <c r="J122" s="12"/>
+      <c r="K122" s="12"/>
+      <c r="L122" s="22" t="s">
+        <v>344</v>
+      </c>
+      <c r="M122" s="16"/>
+      <c r="N122" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="6"/>
       <c r="B123" s="5"/>
       <c r="C123" s="5"/>
-      <c r="D123" s="5" t="s">
-        <v>83</v>
+      <c r="D123" s="29" t="s">
+        <v>557</v>
       </c>
       <c r="E123" s="4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="G123" s="18" t="s">
-        <v>329</v>
-      </c>
-      <c r="H123" s="18"/>
-      <c r="I123" s="31"/>
-      <c r="J123" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="K123" s="15" t="s">
-        <v>434</v>
-      </c>
-      <c r="L123" s="25"/>
-      <c r="M123" s="19"/>
-      <c r="N123" s="2"/>
-    </row>
-    <row r="124" spans="1:14" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>559</v>
+      </c>
+      <c r="G123" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="H123" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="I123" s="28" t="s">
+        <v>383</v>
+      </c>
+      <c r="J123" s="12"/>
+      <c r="K123" s="12"/>
+      <c r="L123" s="22" t="s">
+        <v>344</v>
+      </c>
+      <c r="M123" s="16"/>
+      <c r="N123" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" s="6"/>
       <c r="B124" s="5"/>
       <c r="C124" s="5"/>
@@ -6973,59 +7070,51 @@
         <v>82</v>
       </c>
       <c r="E124" s="4" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="G124" s="18" t="s">
-        <v>329</v>
-      </c>
-      <c r="H124" s="18"/>
-      <c r="I124" s="31" t="s">
-        <v>441</v>
-      </c>
-      <c r="J124" s="15" t="s">
-        <v>488</v>
-      </c>
-      <c r="K124" s="15" t="s">
-        <v>489</v>
-      </c>
-      <c r="L124" s="25"/>
-      <c r="M124" s="19"/>
+        <v>81</v>
+      </c>
+      <c r="G124" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="H124" s="15"/>
+      <c r="I124" s="28"/>
+      <c r="J124" s="12"/>
+      <c r="K124" s="12"/>
+      <c r="L124" s="22"/>
+      <c r="M124" s="16"/>
       <c r="N124" s="2"/>
     </row>
-    <row r="125" spans="1:14" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:14" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A125" s="6"/>
       <c r="B125" s="5"/>
       <c r="C125" s="5"/>
       <c r="D125" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E125" s="4" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="G125" s="18" t="s">
-        <v>329</v>
-      </c>
-      <c r="H125" s="18"/>
-      <c r="I125" s="31" t="s">
-        <v>492</v>
-      </c>
-      <c r="J125" s="15" t="s">
-        <v>490</v>
-      </c>
-      <c r="K125" s="15" t="s">
-        <v>491</v>
-      </c>
-      <c r="L125" s="25"/>
-      <c r="M125" s="19"/>
+        <v>77</v>
+      </c>
+      <c r="G125" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="H125" s="15"/>
+      <c r="I125" s="28"/>
+      <c r="J125" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="K125" s="12" t="s">
+        <v>407</v>
+      </c>
+      <c r="L125" s="22"/>
+      <c r="M125" s="16"/>
       <c r="N125" s="2"/>
     </row>
-    <row r="126" spans="1:14" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:14" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" s="6"/>
       <c r="B126" s="5"/>
       <c r="C126" s="5"/>
@@ -7036,52 +7125,56 @@
         <v>3</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>493</v>
-      </c>
-      <c r="G126" s="18" t="s">
-        <v>329</v>
-      </c>
-      <c r="H126" s="18"/>
-      <c r="I126" s="31" t="s">
-        <v>441</v>
-      </c>
-      <c r="J126" s="15" t="s">
-        <v>494</v>
-      </c>
-      <c r="K126" s="15" t="s">
-        <v>489</v>
-      </c>
-      <c r="L126" s="25"/>
-      <c r="M126" s="19"/>
+        <v>77</v>
+      </c>
+      <c r="G126" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="H126" s="15"/>
+      <c r="I126" s="28" t="s">
+        <v>414</v>
+      </c>
+      <c r="J126" s="12" t="s">
+        <v>459</v>
+      </c>
+      <c r="K126" s="12" t="s">
+        <v>460</v>
+      </c>
+      <c r="L126" s="22"/>
+      <c r="M126" s="16"/>
       <c r="N126" s="2"/>
     </row>
-    <row r="127" spans="1:14" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:14" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" s="6"/>
       <c r="B127" s="5"/>
-      <c r="C127" s="30" t="s">
+      <c r="C127" s="5"/>
+      <c r="D127" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="D127" s="5" t="s">
-        <v>57</v>
-      </c>
       <c r="E127" s="4" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F127" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="G127" s="18" t="s">
-        <v>329</v>
-      </c>
-      <c r="H127" s="18"/>
-      <c r="I127" s="31"/>
-      <c r="J127" s="15"/>
-      <c r="K127" s="15"/>
-      <c r="L127" s="25"/>
-      <c r="M127" s="19"/>
+      <c r="G127" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="H127" s="15"/>
+      <c r="I127" s="28" t="s">
+        <v>463</v>
+      </c>
+      <c r="J127" s="12" t="s">
+        <v>461</v>
+      </c>
+      <c r="K127" s="12" t="s">
+        <v>462</v>
+      </c>
+      <c r="L127" s="22"/>
+      <c r="M127" s="16"/>
       <c r="N127" s="2"/>
     </row>
-    <row r="128" spans="1:14" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:14" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" s="6"/>
       <c r="B128" s="5"/>
       <c r="C128" s="5"/>
@@ -7089,1189 +7182,1379 @@
         <v>76</v>
       </c>
       <c r="E128" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F128" s="21" t="s">
-        <v>499</v>
-      </c>
-      <c r="G128" s="18" t="s">
-        <v>329</v>
-      </c>
-      <c r="H128" s="18" t="s">
-        <v>338</v>
-      </c>
-      <c r="I128" s="31" t="s">
-        <v>533</v>
-      </c>
-      <c r="J128" s="15" t="s">
-        <v>500</v>
-      </c>
-      <c r="K128" s="15" t="s">
-        <v>447</v>
-      </c>
-      <c r="L128" s="25" t="s">
-        <v>377</v>
-      </c>
-      <c r="M128" s="19"/>
-      <c r="N128" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="129" spans="1:14" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+      <c r="F128" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="G128" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="H128" s="15"/>
+      <c r="I128" s="28" t="s">
+        <v>414</v>
+      </c>
+      <c r="J128" s="12" t="s">
+        <v>465</v>
+      </c>
+      <c r="K128" s="12" t="s">
+        <v>460</v>
+      </c>
+      <c r="L128" s="22"/>
+      <c r="M128" s="16"/>
+      <c r="N128" s="2"/>
+    </row>
+    <row r="129" spans="1:14" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" s="6"/>
       <c r="B129" s="5"/>
-      <c r="C129" s="5"/>
+      <c r="C129" s="27" t="s">
+        <v>75</v>
+      </c>
       <c r="D129" s="5" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="E129" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F129" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="G129" s="18" t="s">
-        <v>329</v>
-      </c>
-      <c r="H129" s="18"/>
-      <c r="I129" s="31"/>
-      <c r="J129" s="15" t="s">
-        <v>421</v>
-      </c>
-      <c r="K129" s="15" t="s">
-        <v>422</v>
-      </c>
-      <c r="L129" s="25"/>
-      <c r="M129" s="19"/>
+        <v>7</v>
+      </c>
+      <c r="F129" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G129" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="H129" s="15"/>
+      <c r="I129" s="28"/>
+      <c r="J129" s="12"/>
+      <c r="K129" s="12"/>
+      <c r="L129" s="22"/>
+      <c r="M129" s="16"/>
       <c r="N129" s="2"/>
     </row>
-    <row r="130" spans="1:14" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:14" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="6"/>
       <c r="B130" s="5"/>
       <c r="C130" s="5"/>
-      <c r="D130" s="5" t="s">
-        <v>74</v>
+      <c r="D130" s="29" t="s">
+        <v>73</v>
       </c>
       <c r="E130" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F130" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="G130" s="18" t="s">
-        <v>329</v>
-      </c>
-      <c r="H130" s="18"/>
-      <c r="I130" s="31"/>
-      <c r="J130" s="15"/>
-      <c r="K130" s="15" t="s">
-        <v>422</v>
-      </c>
-      <c r="L130" s="25"/>
-      <c r="M130" s="19"/>
-      <c r="N130" s="2"/>
-    </row>
-    <row r="131" spans="1:14" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>7</v>
+      </c>
+      <c r="F130" s="18" t="s">
+        <v>555</v>
+      </c>
+      <c r="G130" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="H130" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="I130" s="28" t="s">
+        <v>498</v>
+      </c>
+      <c r="J130" s="12" t="s">
+        <v>556</v>
+      </c>
+      <c r="K130" s="12" t="s">
+        <v>420</v>
+      </c>
+      <c r="L130" s="22" t="s">
+        <v>351</v>
+      </c>
+      <c r="M130" s="16"/>
+      <c r="N130" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="6"/>
       <c r="B131" s="5"/>
       <c r="C131" s="5"/>
-      <c r="D131" s="5" t="s">
-        <v>73</v>
+      <c r="D131" s="29" t="s">
+        <v>553</v>
       </c>
       <c r="E131" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F131" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="G131" s="18" t="s">
-        <v>329</v>
-      </c>
-      <c r="H131" s="18"/>
-      <c r="I131" s="31"/>
-      <c r="J131" s="15"/>
-      <c r="K131" s="15" t="s">
-        <v>422</v>
-      </c>
-      <c r="L131" s="25"/>
-      <c r="M131" s="19"/>
-      <c r="N131" s="2"/>
-    </row>
-    <row r="132" spans="1:14" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>7</v>
+      </c>
+      <c r="F131" s="18" t="s">
+        <v>554</v>
+      </c>
+      <c r="G131" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="H131" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="I131" s="28" t="s">
+        <v>383</v>
+      </c>
+      <c r="J131" s="12"/>
+      <c r="K131" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="L131" s="22" t="s">
+        <v>344</v>
+      </c>
+      <c r="M131" s="16"/>
+      <c r="N131" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="6"/>
       <c r="B132" s="5"/>
       <c r="C132" s="5"/>
       <c r="D132" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E132" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F132" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="G132" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="H132" s="15"/>
+      <c r="I132" s="28"/>
+      <c r="J132" s="12" t="s">
+        <v>395</v>
+      </c>
+      <c r="K132" s="12" t="s">
+        <v>396</v>
+      </c>
+      <c r="L132" s="22"/>
+      <c r="M132" s="16"/>
+      <c r="N132" s="2"/>
+    </row>
+    <row r="133" spans="1:14" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A133" s="6"/>
+      <c r="B133" s="5"/>
+      <c r="C133" s="5"/>
+      <c r="D133" s="5" t="s">
         <v>71</v>
-      </c>
-      <c r="E132" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F132" s="3" t="s">
-        <v>423</v>
-      </c>
-      <c r="G132" s="18" t="s">
-        <v>329</v>
-      </c>
-      <c r="H132" s="18"/>
-      <c r="I132" s="31"/>
-      <c r="J132" s="15"/>
-      <c r="K132" s="15" t="s">
-        <v>422</v>
-      </c>
-      <c r="L132" s="25"/>
-      <c r="M132" s="19"/>
-      <c r="N132" s="2"/>
-    </row>
-    <row r="133" spans="1:14" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A133" s="6">
-        <v>9</v>
-      </c>
-      <c r="B133" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C133" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="D133" s="5" t="s">
-        <v>68</v>
       </c>
       <c r="E133" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F133" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="G133" s="18" t="s">
-        <v>329</v>
-      </c>
-      <c r="H133" s="18"/>
-      <c r="I133" s="31"/>
-      <c r="J133" s="15"/>
-      <c r="K133" s="15"/>
-      <c r="L133" s="25"/>
-      <c r="M133" s="19"/>
+      <c r="F133" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="G133" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="H133" s="15"/>
+      <c r="I133" s="28"/>
+      <c r="J133" s="12"/>
+      <c r="K133" s="12" t="s">
+        <v>396</v>
+      </c>
+      <c r="L133" s="22"/>
+      <c r="M133" s="16"/>
       <c r="N133" s="2"/>
     </row>
-    <row r="134" spans="1:14" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:14" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A134" s="6"/>
       <c r="B134" s="5"/>
-      <c r="C134" s="30" t="s">
-        <v>66</v>
-      </c>
+      <c r="C134" s="5"/>
       <c r="D134" s="5" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="E134" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F134" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="G134" s="18" t="s">
-        <v>329</v>
-      </c>
-      <c r="H134" s="18"/>
-      <c r="I134" s="31"/>
-      <c r="J134" s="15" t="s">
-        <v>356</v>
-      </c>
-      <c r="K134" s="16" t="s">
-        <v>342</v>
-      </c>
-      <c r="L134" s="25"/>
-      <c r="M134" s="19"/>
-      <c r="N134" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="135" spans="1:14" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+      <c r="F134" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="G134" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="H134" s="15"/>
+      <c r="I134" s="28"/>
+      <c r="J134" s="12"/>
+      <c r="K134" s="12" t="s">
+        <v>396</v>
+      </c>
+      <c r="L134" s="22"/>
+      <c r="M134" s="16"/>
+      <c r="N134" s="2"/>
+    </row>
+    <row r="135" spans="1:14" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A135" s="6"/>
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
-      <c r="D135" s="5" t="s">
-        <v>62</v>
+      <c r="D135" s="29" t="s">
+        <v>549</v>
       </c>
       <c r="E135" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F135" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="G135" s="18" t="s">
-        <v>329</v>
-      </c>
-      <c r="H135" s="18"/>
-      <c r="I135" s="31"/>
-      <c r="J135" s="16" t="s">
-        <v>388</v>
-      </c>
-      <c r="K135" s="16" t="s">
-        <v>343</v>
-      </c>
-      <c r="L135" s="25"/>
-      <c r="M135" s="19"/>
+        <v>7</v>
+      </c>
+      <c r="F135" s="3" t="s">
+        <v>551</v>
+      </c>
+      <c r="G135" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="H135" s="15"/>
+      <c r="I135" s="28" t="s">
+        <v>560</v>
+      </c>
+      <c r="J135" s="12"/>
+      <c r="K135" s="12"/>
+      <c r="L135" s="22"/>
+      <c r="M135" s="16"/>
       <c r="N135" s="2"/>
     </row>
-    <row r="136" spans="1:14" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:14" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A136" s="6"/>
       <c r="B136" s="5"/>
       <c r="C136" s="5"/>
-      <c r="D136" s="5" t="s">
-        <v>61</v>
+      <c r="D136" s="29" t="s">
+        <v>550</v>
       </c>
       <c r="E136" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F136" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="G136" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="H136" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="I136" s="28" t="s">
+        <v>383</v>
+      </c>
+      <c r="J136" s="12"/>
+      <c r="K136" s="12"/>
+      <c r="L136" s="22"/>
+      <c r="M136" s="16"/>
+      <c r="N136" s="2"/>
+    </row>
+    <row r="137" spans="1:14" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A137" s="6">
+        <v>9</v>
+      </c>
+      <c r="B137" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C137" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D137" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E137" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F136" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="G136" s="18" t="s">
-        <v>329</v>
-      </c>
-      <c r="H136" s="18"/>
-      <c r="I136" s="31"/>
-      <c r="J136" s="15" t="s">
-        <v>389</v>
-      </c>
-      <c r="K136" s="16" t="s">
-        <v>340</v>
-      </c>
-      <c r="L136" s="25"/>
-      <c r="M136" s="19"/>
-      <c r="N136" s="2"/>
-    </row>
-    <row r="137" spans="1:14" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A137" s="6"/>
-      <c r="B137" s="5"/>
-      <c r="C137" s="5"/>
-      <c r="D137" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="E137" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F137" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="G137" s="18" t="s">
-        <v>329</v>
-      </c>
-      <c r="H137" s="18"/>
-      <c r="I137" s="31"/>
-      <c r="J137" s="15" t="s">
-        <v>390</v>
-      </c>
-      <c r="K137" s="16" t="s">
-        <v>340</v>
-      </c>
-      <c r="L137" s="25"/>
-      <c r="M137" s="19"/>
+      <c r="F137" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G137" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="H137" s="15"/>
+      <c r="I137" s="28"/>
+      <c r="J137" s="12"/>
+      <c r="K137" s="12"/>
+      <c r="L137" s="22"/>
+      <c r="M137" s="16"/>
       <c r="N137" s="2"/>
     </row>
-    <row r="138" spans="1:14" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:14" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A138" s="6"/>
       <c r="B138" s="5"/>
-      <c r="C138" s="5" t="s">
-        <v>58</v>
+      <c r="C138" s="27" t="s">
+        <v>64</v>
       </c>
       <c r="D138" s="5" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="E138" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F138" s="4" t="s">
-        <v>424</v>
-      </c>
-      <c r="G138" s="18" t="s">
-        <v>329</v>
-      </c>
-      <c r="H138" s="18"/>
-      <c r="I138" s="31"/>
-      <c r="J138" s="23"/>
-      <c r="K138" s="16" t="s">
-        <v>354</v>
-      </c>
-      <c r="L138" s="25"/>
-      <c r="M138" s="19"/>
-      <c r="N138" s="2"/>
-    </row>
-    <row r="139" spans="1:14" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F138" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="G138" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="H138" s="15"/>
+      <c r="I138" s="28"/>
+      <c r="J138" s="12" t="s">
+        <v>330</v>
+      </c>
+      <c r="K138" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="L138" s="22"/>
+      <c r="M138" s="16"/>
+      <c r="N138" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A139" s="6"/>
       <c r="B139" s="5"/>
       <c r="C139" s="5"/>
       <c r="D139" s="5" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E139" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F139" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="G139" s="18" t="s">
-        <v>329</v>
-      </c>
-      <c r="H139" s="18" t="s">
-        <v>338</v>
-      </c>
-      <c r="I139" s="31" t="s">
-        <v>411</v>
-      </c>
-      <c r="J139" s="23" t="s">
-        <v>576</v>
-      </c>
-      <c r="K139" s="25" t="s">
-        <v>547</v>
-      </c>
-      <c r="L139" s="25" t="s">
-        <v>378</v>
-      </c>
-      <c r="M139" s="19"/>
-      <c r="N139" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="140" spans="1:14" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>5</v>
+      </c>
+      <c r="F139" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="G139" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="H139" s="15"/>
+      <c r="I139" s="28"/>
+      <c r="J139" s="13" t="s">
+        <v>362</v>
+      </c>
+      <c r="K139" s="13" t="s">
+        <v>318</v>
+      </c>
+      <c r="L139" s="22"/>
+      <c r="M139" s="16"/>
+      <c r="N139" s="2"/>
+    </row>
+    <row r="140" spans="1:14" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A140" s="6"/>
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
       <c r="D140" s="5" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E140" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F140" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="G140" s="18" t="s">
-        <v>329</v>
-      </c>
-      <c r="H140" s="18"/>
-      <c r="I140" s="31"/>
-      <c r="J140" s="25" t="s">
-        <v>393</v>
-      </c>
-      <c r="K140" s="25" t="s">
-        <v>394</v>
-      </c>
-      <c r="L140" s="25"/>
-      <c r="M140" s="19"/>
+        <v>3</v>
+      </c>
+      <c r="F140" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="G140" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="H140" s="15"/>
+      <c r="I140" s="28"/>
+      <c r="J140" s="12" t="s">
+        <v>363</v>
+      </c>
+      <c r="K140" s="13" t="s">
+        <v>315</v>
+      </c>
+      <c r="L140" s="22"/>
+      <c r="M140" s="16"/>
       <c r="N140" s="2"/>
     </row>
-    <row r="141" spans="1:14" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:14" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A141" s="6"/>
       <c r="B141" s="5"/>
       <c r="C141" s="5"/>
       <c r="D141" s="5" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E141" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F141" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="G141" s="18" t="s">
-        <v>329</v>
-      </c>
-      <c r="H141" s="18"/>
-      <c r="I141" s="31"/>
-      <c r="J141" s="15" t="s">
-        <v>395</v>
-      </c>
-      <c r="K141" s="15" t="s">
-        <v>358</v>
-      </c>
-      <c r="L141" s="25"/>
-      <c r="M141" s="19"/>
+        <v>1</v>
+      </c>
+      <c r="F141" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="G141" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="H141" s="15"/>
+      <c r="I141" s="28"/>
+      <c r="J141" s="12" t="s">
+        <v>364</v>
+      </c>
+      <c r="K141" s="13" t="s">
+        <v>315</v>
+      </c>
+      <c r="L141" s="22"/>
+      <c r="M141" s="16"/>
       <c r="N141" s="2"/>
     </row>
-    <row r="142" spans="1:14" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:14" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A142" s="6"/>
       <c r="B142" s="5"/>
-      <c r="C142" s="5"/>
+      <c r="C142" s="5" t="s">
+        <v>56</v>
+      </c>
       <c r="D142" s="5" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E142" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F142" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="G142" s="18" t="s">
-        <v>329</v>
-      </c>
-      <c r="H142" s="18"/>
-      <c r="I142" s="31"/>
-      <c r="J142" s="15" t="s">
-        <v>396</v>
-      </c>
-      <c r="K142" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F142" s="4" t="s">
         <v>397</v>
       </c>
-      <c r="L142" s="25"/>
-      <c r="M142" s="19"/>
+      <c r="G142" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="H142" s="15"/>
+      <c r="I142" s="28"/>
+      <c r="J142" s="20"/>
+      <c r="K142" s="13" t="s">
+        <v>328</v>
+      </c>
+      <c r="L142" s="22"/>
+      <c r="M142" s="16"/>
       <c r="N142" s="2"/>
     </row>
-    <row r="143" spans="1:14" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:14" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A143" s="6"/>
       <c r="B143" s="5"/>
       <c r="C143" s="5"/>
       <c r="D143" s="5" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E143" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F143" s="3" t="s">
-        <v>425</v>
-      </c>
-      <c r="G143" s="18" t="s">
-        <v>329</v>
-      </c>
-      <c r="H143" s="18"/>
-      <c r="I143" s="31" t="s">
-        <v>427</v>
-      </c>
-      <c r="J143" s="15"/>
-      <c r="K143" s="15" t="s">
-        <v>422</v>
-      </c>
-      <c r="L143" s="25" t="s">
-        <v>426</v>
-      </c>
-      <c r="M143" s="19"/>
+        <v>7</v>
+      </c>
+      <c r="F143" s="23" t="s">
+        <v>541</v>
+      </c>
+      <c r="G143" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="H143" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="I143" s="28" t="s">
+        <v>385</v>
+      </c>
+      <c r="J143" s="20" t="s">
+        <v>542</v>
+      </c>
+      <c r="K143" s="22" t="s">
+        <v>510</v>
+      </c>
+      <c r="L143" s="22" t="s">
+        <v>352</v>
+      </c>
+      <c r="M143" s="16"/>
       <c r="N143" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="144" spans="1:14" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A144" s="6"/>
       <c r="B144" s="5"/>
-      <c r="C144" s="5" t="s">
-        <v>48</v>
-      </c>
+      <c r="C144" s="5"/>
       <c r="D144" s="5" t="s">
-        <v>47</v>
+        <v>540</v>
       </c>
       <c r="E144" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F144" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="G144" s="18" t="s">
-        <v>329</v>
-      </c>
-      <c r="H144" s="18" t="s">
-        <v>338</v>
-      </c>
-      <c r="I144" s="31" t="s">
-        <v>412</v>
-      </c>
-      <c r="J144" s="15" t="s">
-        <v>545</v>
-      </c>
-      <c r="K144" s="16" t="s">
-        <v>344</v>
-      </c>
-      <c r="L144" s="25" t="s">
-        <v>379</v>
-      </c>
-      <c r="M144" s="19"/>
+      <c r="F144" s="23" t="s">
+        <v>548</v>
+      </c>
+      <c r="G144" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="H144" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="I144" s="28" t="s">
+        <v>383</v>
+      </c>
+      <c r="J144" s="20" t="s">
+        <v>543</v>
+      </c>
+      <c r="K144" s="22" t="s">
+        <v>434</v>
+      </c>
+      <c r="L144" s="22" t="s">
+        <v>352</v>
+      </c>
+      <c r="M144" s="16"/>
       <c r="N144" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="145" spans="1:14" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:14" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A145" s="6"/>
       <c r="B145" s="5"/>
       <c r="C145" s="5"/>
       <c r="D145" s="5" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="E145" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F145" s="10" t="s">
-        <v>400</v>
-      </c>
-      <c r="G145" s="18" t="s">
-        <v>329</v>
-      </c>
-      <c r="H145" s="18"/>
-      <c r="I145" s="31"/>
-      <c r="J145" s="25" t="s">
-        <v>399</v>
-      </c>
-      <c r="K145" s="25" t="s">
-        <v>357</v>
-      </c>
-      <c r="L145" s="25"/>
-      <c r="M145" s="19"/>
+        <v>5</v>
+      </c>
+      <c r="F145" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="G145" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="H145" s="15"/>
+      <c r="I145" s="28"/>
+      <c r="J145" s="22" t="s">
+        <v>367</v>
+      </c>
+      <c r="K145" s="22" t="s">
+        <v>368</v>
+      </c>
+      <c r="L145" s="22"/>
+      <c r="M145" s="16"/>
       <c r="N145" s="2"/>
     </row>
-    <row r="146" spans="1:14" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:14" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A146" s="6"/>
       <c r="B146" s="5"/>
       <c r="C146" s="5"/>
       <c r="D146" s="5" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="E146" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F146" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G146" s="18" t="s">
-        <v>329</v>
-      </c>
-      <c r="H146" s="18"/>
-      <c r="I146" s="31"/>
-      <c r="J146" s="15" t="s">
-        <v>360</v>
-      </c>
-      <c r="K146" s="15" t="s">
-        <v>358</v>
-      </c>
-      <c r="L146" s="25"/>
-      <c r="M146" s="19"/>
+      <c r="F146" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="G146" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="H146" s="15"/>
+      <c r="I146" s="28"/>
+      <c r="J146" s="12" t="s">
+        <v>369</v>
+      </c>
+      <c r="K146" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="L146" s="22"/>
+      <c r="M146" s="16"/>
       <c r="N146" s="2"/>
     </row>
-    <row r="147" spans="1:14" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:14" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A147" s="6"/>
       <c r="B147" s="5"/>
       <c r="C147" s="5"/>
       <c r="D147" s="5" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="E147" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F147" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G147" s="18" t="s">
-        <v>329</v>
-      </c>
-      <c r="H147" s="18"/>
-      <c r="I147" s="31" t="s">
-        <v>411</v>
-      </c>
-      <c r="J147" s="15" t="s">
-        <v>361</v>
-      </c>
-      <c r="K147" s="15" t="s">
-        <v>359</v>
-      </c>
-      <c r="L147" s="25" t="s">
-        <v>362</v>
-      </c>
-      <c r="M147" s="19"/>
+        <v>1</v>
+      </c>
+      <c r="F147" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="G147" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="H147" s="15"/>
+      <c r="I147" s="28"/>
+      <c r="J147" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="K147" s="12" t="s">
+        <v>371</v>
+      </c>
+      <c r="L147" s="22"/>
+      <c r="M147" s="16"/>
       <c r="N147" s="2"/>
     </row>
-    <row r="148" spans="1:14" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:14" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A148" s="6"/>
       <c r="B148" s="5"/>
       <c r="C148" s="5"/>
       <c r="D148" s="5" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="E148" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F148" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="G148" s="18" t="s">
-        <v>329</v>
-      </c>
-      <c r="H148" s="18"/>
-      <c r="I148" s="31"/>
-      <c r="J148" s="15" t="s">
-        <v>401</v>
-      </c>
-      <c r="K148" s="16" t="s">
-        <v>340</v>
-      </c>
-      <c r="L148" s="25"/>
-      <c r="M148" s="19"/>
+        <v>3</v>
+      </c>
+      <c r="F148" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="G148" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="H148" s="15"/>
+      <c r="I148" s="28" t="s">
+        <v>400</v>
+      </c>
+      <c r="J148" s="12"/>
+      <c r="K148" s="12" t="s">
+        <v>396</v>
+      </c>
+      <c r="L148" s="22" t="s">
+        <v>399</v>
+      </c>
+      <c r="M148" s="16"/>
       <c r="N148" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="149" spans="1:14" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="149" spans="1:14" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A149" s="6"/>
       <c r="B149" s="5"/>
-      <c r="C149" s="5"/>
+      <c r="C149" s="5" t="s">
+        <v>47</v>
+      </c>
       <c r="D149" s="5" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="E149" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F149" s="22" t="s">
-        <v>402</v>
-      </c>
-      <c r="G149" s="18" t="s">
-        <v>329</v>
-      </c>
-      <c r="H149" s="18"/>
-      <c r="I149" s="31"/>
-      <c r="J149" s="17" t="s">
-        <v>364</v>
-      </c>
-      <c r="K149" s="16" t="s">
-        <v>340</v>
-      </c>
-      <c r="L149" s="25"/>
-      <c r="M149" s="19"/>
-      <c r="N149" s="2"/>
-    </row>
-    <row r="150" spans="1:14" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>7</v>
+      </c>
+      <c r="F149" s="9" t="s">
+        <v>545</v>
+      </c>
+      <c r="G149" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="H149" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="I149" s="28" t="s">
+        <v>386</v>
+      </c>
+      <c r="J149" s="20" t="s">
+        <v>547</v>
+      </c>
+      <c r="K149" s="13" t="s">
+        <v>319</v>
+      </c>
+      <c r="L149" s="22" t="s">
+        <v>353</v>
+      </c>
+      <c r="M149" s="16"/>
+      <c r="N149" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="150" spans="1:14" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A150" s="6"/>
       <c r="B150" s="5"/>
       <c r="C150" s="5"/>
       <c r="D150" s="5" t="s">
-        <v>36</v>
+        <v>544</v>
       </c>
       <c r="E150" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F150" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="G150" s="18" t="s">
-        <v>329</v>
-      </c>
-      <c r="H150" s="18"/>
-      <c r="I150" s="31"/>
-      <c r="J150" s="15" t="s">
-        <v>403</v>
-      </c>
-      <c r="K150" s="15" t="s">
-        <v>340</v>
-      </c>
-      <c r="L150" s="25"/>
-      <c r="M150" s="19"/>
-      <c r="N150" s="2"/>
-    </row>
-    <row r="151" spans="1:14" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>7</v>
+      </c>
+      <c r="F150" s="9" t="s">
+        <v>590</v>
+      </c>
+      <c r="G150" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="H150" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="I150" s="28" t="s">
+        <v>383</v>
+      </c>
+      <c r="J150" s="20" t="s">
+        <v>546</v>
+      </c>
+      <c r="K150" s="13" t="s">
+        <v>319</v>
+      </c>
+      <c r="L150" s="22" t="s">
+        <v>344</v>
+      </c>
+      <c r="M150" s="16"/>
+      <c r="N150" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="151" spans="1:14" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A151" s="6"/>
       <c r="B151" s="5"/>
       <c r="C151" s="5"/>
       <c r="D151" s="5" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="E151" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F151" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="G151" s="18" t="s">
-        <v>329</v>
-      </c>
-      <c r="H151" s="18"/>
-      <c r="I151" s="31"/>
-      <c r="J151" s="15"/>
-      <c r="K151" s="15" t="s">
-        <v>354</v>
-      </c>
-      <c r="L151" s="25"/>
-      <c r="M151" s="19"/>
+        <v>3</v>
+      </c>
+      <c r="F151" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="G151" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="H151" s="15"/>
+      <c r="I151" s="28"/>
+      <c r="J151" s="22" t="s">
+        <v>373</v>
+      </c>
+      <c r="K151" s="22" t="s">
+        <v>331</v>
+      </c>
+      <c r="L151" s="22"/>
+      <c r="M151" s="16"/>
       <c r="N151" s="2"/>
     </row>
-    <row r="152" spans="1:14" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:14" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A152" s="6"/>
       <c r="B152" s="5"/>
       <c r="C152" s="5"/>
       <c r="D152" s="5" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="E152" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F152" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="G152" s="18" t="s">
-        <v>329</v>
-      </c>
-      <c r="H152" s="18"/>
-      <c r="I152" s="31"/>
-      <c r="J152" s="15" t="s">
-        <v>404</v>
-      </c>
-      <c r="K152" s="15" t="s">
-        <v>354</v>
-      </c>
-      <c r="L152" s="25"/>
-      <c r="M152" s="19"/>
+        <v>3</v>
+      </c>
+      <c r="F152" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G152" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="H152" s="15"/>
+      <c r="I152" s="28"/>
+      <c r="J152" s="12" t="s">
+        <v>334</v>
+      </c>
+      <c r="K152" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="L152" s="22"/>
+      <c r="M152" s="16"/>
       <c r="N152" s="2"/>
     </row>
-    <row r="153" spans="1:14" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:14" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A153" s="6"/>
       <c r="B153" s="5"/>
       <c r="C153" s="5"/>
       <c r="D153" s="5" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="E153" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F153" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="G153" s="18" t="s">
-        <v>329</v>
-      </c>
-      <c r="H153" s="18"/>
-      <c r="I153" s="31" t="s">
-        <v>412</v>
-      </c>
-      <c r="J153" s="15" t="s">
-        <v>405</v>
-      </c>
-      <c r="K153" s="15" t="s">
-        <v>406</v>
-      </c>
-      <c r="L153" s="25"/>
-      <c r="M153" s="19"/>
+      <c r="F153" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G153" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="H153" s="15"/>
+      <c r="I153" s="28" t="s">
+        <v>385</v>
+      </c>
+      <c r="J153" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="K153" s="12" t="s">
+        <v>333</v>
+      </c>
+      <c r="L153" s="22" t="s">
+        <v>336</v>
+      </c>
+      <c r="M153" s="16"/>
       <c r="N153" s="2"/>
     </row>
-    <row r="154" spans="1:14" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:14" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A154" s="6"/>
       <c r="B154" s="5"/>
       <c r="C154" s="5"/>
       <c r="D154" s="5" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="E154" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F154" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="G154" s="18" t="s">
-        <v>329</v>
-      </c>
-      <c r="H154" s="18"/>
-      <c r="I154" s="31" t="s">
-        <v>413</v>
-      </c>
-      <c r="J154" s="15" t="s">
-        <v>407</v>
-      </c>
-      <c r="K154" s="15" t="s">
-        <v>408</v>
-      </c>
-      <c r="L154" s="25"/>
-      <c r="M154" s="19"/>
-      <c r="N154" s="2"/>
-    </row>
-    <row r="155" spans="1:14" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>7</v>
+      </c>
+      <c r="F154" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="G154" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="H154" s="15"/>
+      <c r="I154" s="28"/>
+      <c r="J154" s="12" t="s">
+        <v>375</v>
+      </c>
+      <c r="K154" s="13" t="s">
+        <v>315</v>
+      </c>
+      <c r="L154" s="22"/>
+      <c r="M154" s="16"/>
+      <c r="N154" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="155" spans="1:14" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A155" s="6"/>
       <c r="B155" s="5"/>
-      <c r="C155" s="30" t="s">
-        <v>29</v>
-      </c>
+      <c r="C155" s="5"/>
       <c r="D155" s="5" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E155" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F155" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="G155" s="18" t="s">
-        <v>329</v>
-      </c>
-      <c r="H155" s="18"/>
-      <c r="I155" s="31"/>
-      <c r="J155" s="15" t="s">
-        <v>363</v>
-      </c>
-      <c r="K155" s="16" t="s">
-        <v>345</v>
-      </c>
-      <c r="L155" s="25"/>
-      <c r="M155" s="19"/>
-      <c r="N155" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="156" spans="1:14" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>5</v>
+      </c>
+      <c r="F155" s="19" t="s">
+        <v>376</v>
+      </c>
+      <c r="G155" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="H155" s="15"/>
+      <c r="I155" s="28"/>
+      <c r="J155" s="14" t="s">
+        <v>338</v>
+      </c>
+      <c r="K155" s="13" t="s">
+        <v>315</v>
+      </c>
+      <c r="L155" s="22"/>
+      <c r="M155" s="16"/>
+      <c r="N155" s="2"/>
+    </row>
+    <row r="156" spans="1:14" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A156" s="6"/>
       <c r="B156" s="5"/>
       <c r="C156" s="5"/>
       <c r="D156" s="5" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="E156" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F156" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="G156" s="18" t="s">
-        <v>329</v>
-      </c>
-      <c r="H156" s="18"/>
-      <c r="I156" s="31"/>
-      <c r="J156" s="16" t="s">
-        <v>365</v>
-      </c>
-      <c r="K156" s="16" t="s">
-        <v>340</v>
-      </c>
-      <c r="L156" s="25"/>
-      <c r="M156" s="19"/>
+        <v>3</v>
+      </c>
+      <c r="F156" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="G156" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="H156" s="15"/>
+      <c r="I156" s="28"/>
+      <c r="J156" s="12" t="s">
+        <v>377</v>
+      </c>
+      <c r="K156" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="L156" s="22"/>
+      <c r="M156" s="16"/>
       <c r="N156" s="2"/>
     </row>
-    <row r="157" spans="1:14" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:14" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A157" s="6"/>
       <c r="B157" s="5"/>
       <c r="C157" s="5"/>
       <c r="D157" s="5" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="E157" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F157" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="G157" s="18" t="s">
-        <v>329</v>
-      </c>
-      <c r="H157" s="18"/>
-      <c r="I157" s="31"/>
-      <c r="J157" s="16" t="s">
-        <v>366</v>
-      </c>
-      <c r="K157" s="16" t="s">
-        <v>340</v>
-      </c>
-      <c r="L157" s="25"/>
-      <c r="M157" s="19"/>
+        <v>1</v>
+      </c>
+      <c r="F157" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="G157" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="H157" s="15"/>
+      <c r="I157" s="28"/>
+      <c r="J157" s="12"/>
+      <c r="K157" s="12" t="s">
+        <v>328</v>
+      </c>
+      <c r="L157" s="22"/>
+      <c r="M157" s="16"/>
       <c r="N157" s="2"/>
     </row>
-    <row r="158" spans="1:14" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:14" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A158" s="6"/>
       <c r="B158" s="5"/>
       <c r="C158" s="5"/>
       <c r="D158" s="5" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="E158" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F158" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="G158" s="18" t="s">
-        <v>329</v>
-      </c>
-      <c r="H158" s="18"/>
-      <c r="I158" s="31" t="s">
-        <v>412</v>
-      </c>
-      <c r="J158" s="16" t="s">
-        <v>367</v>
-      </c>
-      <c r="K158" s="16" t="s">
-        <v>346</v>
-      </c>
-      <c r="L158" s="25"/>
-      <c r="M158" s="19"/>
+        <v>5</v>
+      </c>
+      <c r="F158" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="G158" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="H158" s="15"/>
+      <c r="I158" s="28"/>
+      <c r="J158" s="12" t="s">
+        <v>378</v>
+      </c>
+      <c r="K158" s="12" t="s">
+        <v>328</v>
+      </c>
+      <c r="L158" s="22"/>
+      <c r="M158" s="16"/>
       <c r="N158" s="2"/>
     </row>
-    <row r="159" spans="1:14" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:14" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A159" s="6"/>
       <c r="B159" s="5"/>
-      <c r="C159" s="30" t="s">
-        <v>21</v>
-      </c>
+      <c r="C159" s="5"/>
       <c r="D159" s="5" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E159" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F159" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="G159" s="18" t="s">
-        <v>329</v>
-      </c>
-      <c r="H159" s="18"/>
-      <c r="I159" s="31"/>
-      <c r="J159" s="15" t="s">
-        <v>546</v>
-      </c>
-      <c r="K159" s="16" t="s">
-        <v>347</v>
-      </c>
-      <c r="L159" s="25"/>
-      <c r="M159" s="19"/>
+        <v>3</v>
+      </c>
+      <c r="F159" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="G159" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="H159" s="15"/>
+      <c r="I159" s="28" t="s">
+        <v>386</v>
+      </c>
+      <c r="J159" s="12" t="s">
+        <v>379</v>
+      </c>
+      <c r="K159" s="12" t="s">
+        <v>380</v>
+      </c>
+      <c r="L159" s="22"/>
+      <c r="M159" s="16"/>
       <c r="N159" s="2"/>
     </row>
-    <row r="160" spans="1:14" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:14" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A160" s="6"/>
       <c r="B160" s="5"/>
       <c r="C160" s="5"/>
       <c r="D160" s="5" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="E160" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F160" s="22" t="s">
-        <v>535</v>
-      </c>
-      <c r="G160" s="18" t="s">
-        <v>329</v>
-      </c>
-      <c r="H160" s="18"/>
-      <c r="I160" s="31"/>
-      <c r="J160" s="25" t="s">
-        <v>536</v>
-      </c>
-      <c r="K160" s="25" t="s">
-        <v>537</v>
-      </c>
-      <c r="L160" s="25"/>
-      <c r="M160" s="19"/>
+        <v>1</v>
+      </c>
+      <c r="F160" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="G160" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="H160" s="15"/>
+      <c r="I160" s="28" t="s">
+        <v>387</v>
+      </c>
+      <c r="J160" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="K160" s="12" t="s">
+        <v>382</v>
+      </c>
+      <c r="L160" s="22"/>
+      <c r="M160" s="16"/>
       <c r="N160" s="2"/>
     </row>
-    <row r="161" spans="1:14" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:14" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A161" s="6"/>
       <c r="B161" s="5"/>
-      <c r="C161" s="5"/>
+      <c r="C161" s="27" t="s">
+        <v>29</v>
+      </c>
       <c r="D161" s="5" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="E161" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F161" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="G161" s="18" t="s">
-        <v>329</v>
-      </c>
-      <c r="H161" s="18"/>
-      <c r="I161" s="31"/>
-      <c r="J161" s="17" t="s">
-        <v>540</v>
-      </c>
-      <c r="K161" s="16" t="s">
-        <v>541</v>
-      </c>
-      <c r="L161" s="25"/>
-      <c r="M161" s="19"/>
-      <c r="N161" s="2"/>
-    </row>
-    <row r="162" spans="1:14" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>7</v>
+      </c>
+      <c r="F161" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="G161" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="H161" s="15"/>
+      <c r="I161" s="28"/>
+      <c r="J161" s="12" t="s">
+        <v>337</v>
+      </c>
+      <c r="K161" s="13" t="s">
+        <v>320</v>
+      </c>
+      <c r="L161" s="22"/>
+      <c r="M161" s="16"/>
+      <c r="N161" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="162" spans="1:14" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A162" s="6"/>
       <c r="B162" s="5"/>
       <c r="C162" s="5"/>
       <c r="D162" s="5" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="E162" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F162" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="G162" s="18" t="s">
-        <v>329</v>
-      </c>
-      <c r="H162" s="18"/>
-      <c r="I162" s="31" t="s">
-        <v>415</v>
-      </c>
-      <c r="J162" s="17" t="s">
-        <v>538</v>
-      </c>
-      <c r="K162" s="16" t="s">
-        <v>539</v>
-      </c>
-      <c r="L162" s="25"/>
-      <c r="M162" s="19"/>
+        <v>5</v>
+      </c>
+      <c r="F162" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="G162" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="H162" s="15"/>
+      <c r="I162" s="28"/>
+      <c r="J162" s="13" t="s">
+        <v>339</v>
+      </c>
+      <c r="K162" s="13" t="s">
+        <v>315</v>
+      </c>
+      <c r="L162" s="22"/>
+      <c r="M162" s="16"/>
       <c r="N162" s="2"/>
     </row>
-    <row r="163" spans="1:14" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:14" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A163" s="6"/>
       <c r="B163" s="5"/>
       <c r="C163" s="5"/>
       <c r="D163" s="5" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="E163" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F163" s="9" t="s">
-        <v>534</v>
-      </c>
-      <c r="G163" s="18" t="s">
-        <v>329</v>
-      </c>
-      <c r="H163" s="18" t="s">
-        <v>338</v>
-      </c>
-      <c r="I163" s="31" t="s">
-        <v>409</v>
-      </c>
-      <c r="J163" s="15" t="s">
-        <v>380</v>
-      </c>
-      <c r="K163" s="16" t="s">
-        <v>414</v>
-      </c>
-      <c r="L163" s="25" t="s">
-        <v>370</v>
-      </c>
-      <c r="M163" s="19"/>
-      <c r="N163" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="164" spans="1:14" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+      <c r="F163" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="G163" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="H163" s="15"/>
+      <c r="I163" s="28"/>
+      <c r="J163" s="13" t="s">
+        <v>340</v>
+      </c>
+      <c r="K163" s="13" t="s">
+        <v>315</v>
+      </c>
+      <c r="L163" s="22"/>
+      <c r="M163" s="16"/>
+      <c r="N163" s="2"/>
+    </row>
+    <row r="164" spans="1:14" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A164" s="6"/>
       <c r="B164" s="5"/>
-      <c r="C164" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D164" s="5"/>
-      <c r="E164" s="4"/>
-      <c r="F164" s="3"/>
-      <c r="G164" s="18"/>
-      <c r="H164" s="18"/>
-      <c r="I164" s="31"/>
-      <c r="J164" s="15"/>
-      <c r="K164" s="15"/>
-      <c r="L164" s="25"/>
-      <c r="M164" s="19"/>
+      <c r="C164" s="5"/>
+      <c r="D164" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E164" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F164" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="G164" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="H164" s="15"/>
+      <c r="I164" s="28" t="s">
+        <v>386</v>
+      </c>
+      <c r="J164" s="13" t="s">
+        <v>341</v>
+      </c>
+      <c r="K164" s="13" t="s">
+        <v>321</v>
+      </c>
+      <c r="L164" s="22"/>
+      <c r="M164" s="16"/>
       <c r="N164" s="2"/>
     </row>
-    <row r="165" spans="1:14" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A165" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B165" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C165" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D165" s="27" t="s">
-        <v>8</v>
+    <row r="165" spans="1:14" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A165" s="6"/>
+      <c r="B165" s="5"/>
+      <c r="C165" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="D165" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="E165" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F165" s="7" t="s">
-        <v>495</v>
-      </c>
-      <c r="G165" s="18" t="s">
-        <v>331</v>
-      </c>
-      <c r="H165" s="18" t="s">
-        <v>333</v>
-      </c>
-      <c r="I165" s="31" t="s">
-        <v>416</v>
-      </c>
-      <c r="J165" s="23"/>
-      <c r="K165" s="16"/>
-      <c r="L165" s="25" t="s">
-        <v>370</v>
-      </c>
-      <c r="M165" s="19"/>
+      <c r="F165" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G165" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="H165" s="15"/>
+      <c r="I165" s="28"/>
+      <c r="J165" s="12" t="s">
+        <v>509</v>
+      </c>
+      <c r="K165" s="13" t="s">
+        <v>322</v>
+      </c>
+      <c r="L165" s="22"/>
+      <c r="M165" s="16"/>
       <c r="N165" s="2"/>
     </row>
-    <row r="166" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D166" s="27" t="s">
-        <v>6</v>
+    <row r="166" spans="1:14" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A166" s="6"/>
+      <c r="B166" s="5"/>
+      <c r="C166" s="5"/>
+      <c r="D166" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="E166" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F166" s="7" t="s">
-        <v>496</v>
-      </c>
-      <c r="G166" s="18" t="s">
-        <v>331</v>
-      </c>
-      <c r="H166" s="18" t="s">
-        <v>333</v>
-      </c>
-      <c r="I166" s="31" t="s">
-        <v>412</v>
-      </c>
-      <c r="J166" s="24"/>
-      <c r="K166" s="16"/>
-      <c r="L166" s="25" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="167" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D167" s="27" t="s">
-        <v>4</v>
+      <c r="F166" s="19" t="s">
+        <v>499</v>
+      </c>
+      <c r="G166" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="H166" s="15"/>
+      <c r="I166" s="28"/>
+      <c r="J166" s="22" t="s">
+        <v>500</v>
+      </c>
+      <c r="K166" s="22" t="s">
+        <v>501</v>
+      </c>
+      <c r="L166" s="22"/>
+      <c r="M166" s="16"/>
+      <c r="N166" s="2"/>
+    </row>
+    <row r="167" spans="1:14" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A167" s="6"/>
+      <c r="B167" s="5"/>
+      <c r="C167" s="5"/>
+      <c r="D167" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="E167" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F167" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="G167" s="18" t="s">
-        <v>331</v>
-      </c>
-      <c r="H167" s="18" t="s">
-        <v>333</v>
-      </c>
-      <c r="I167" s="31" t="s">
-        <v>412</v>
-      </c>
-      <c r="J167" s="16"/>
-      <c r="K167" s="16"/>
-      <c r="L167" s="25" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="168" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D168" s="27" t="s">
-        <v>2</v>
+      <c r="F167" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G167" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="H167" s="15"/>
+      <c r="I167" s="28"/>
+      <c r="J167" s="14" t="s">
+        <v>504</v>
+      </c>
+      <c r="K167" s="13" t="s">
+        <v>505</v>
+      </c>
+      <c r="L167" s="22"/>
+      <c r="M167" s="16"/>
+      <c r="N167" s="2"/>
+    </row>
+    <row r="168" spans="1:14" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A168" s="6"/>
+      <c r="B168" s="5"/>
+      <c r="C168" s="5"/>
+      <c r="D168" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="E168" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F168" s="7" t="s">
+      <c r="F168" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G168" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="H168" s="15"/>
+      <c r="I168" s="28" t="s">
+        <v>389</v>
+      </c>
+      <c r="J168" s="14" t="s">
+        <v>502</v>
+      </c>
+      <c r="K168" s="13" t="s">
+        <v>503</v>
+      </c>
+      <c r="L168" s="22"/>
+      <c r="M168" s="16"/>
+      <c r="N168" s="2"/>
+    </row>
+    <row r="169" spans="1:14" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A169" s="6"/>
+      <c r="B169" s="5"/>
+      <c r="C169" s="5"/>
+      <c r="D169" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E169" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F169" s="33" t="s">
+        <v>591</v>
+      </c>
+      <c r="G169" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="H169" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="I169" s="28" t="s">
+        <v>383</v>
+      </c>
+      <c r="J169" s="12" t="s">
+        <v>354</v>
+      </c>
+      <c r="K169" s="13" t="s">
+        <v>388</v>
+      </c>
+      <c r="L169" s="22" t="s">
+        <v>344</v>
+      </c>
+      <c r="M169" s="16"/>
+      <c r="N169" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="170" spans="1:14" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A170" s="6"/>
+      <c r="B170" s="5"/>
+      <c r="C170" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D170" s="5"/>
+      <c r="E170" s="4"/>
+      <c r="F170" s="3"/>
+      <c r="G170" s="15"/>
+      <c r="H170" s="15"/>
+      <c r="I170" s="28"/>
+      <c r="J170" s="12"/>
+      <c r="K170" s="12"/>
+      <c r="L170" s="22"/>
+      <c r="M170" s="16"/>
+      <c r="N170" s="2"/>
+    </row>
+    <row r="171" spans="1:14" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A171" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B171" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C171" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D171" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E171" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F171" s="34" t="s">
+        <v>592</v>
+      </c>
+      <c r="G171" s="15" t="s">
+        <v>306</v>
+      </c>
+      <c r="H171" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="I171" s="28" t="s">
+        <v>390</v>
+      </c>
+      <c r="J171" s="20"/>
+      <c r="K171" s="13"/>
+      <c r="L171" s="22" t="s">
+        <v>344</v>
+      </c>
+      <c r="M171" s="16"/>
+      <c r="N171" s="2"/>
+    </row>
+    <row r="172" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D172" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E172" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F172" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="G172" s="15" t="s">
+        <v>306</v>
+      </c>
+      <c r="H172" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="I172" s="28" t="s">
+        <v>386</v>
+      </c>
+      <c r="J172" s="21"/>
+      <c r="K172" s="13"/>
+      <c r="L172" s="22" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="173" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D173" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="E173" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F173" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="G168" s="18" t="s">
-        <v>331</v>
-      </c>
-      <c r="H168" s="18" t="s">
-        <v>333</v>
-      </c>
-      <c r="I168" s="31" t="s">
-        <v>412</v>
-      </c>
-      <c r="J168" s="16"/>
-      <c r="K168" s="16"/>
-      <c r="L168" s="25" t="s">
-        <v>370</v>
+      <c r="G173" s="15" t="s">
+        <v>306</v>
+      </c>
+      <c r="H173" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="I173" s="28" t="s">
+        <v>386</v>
+      </c>
+      <c r="J173" s="13"/>
+      <c r="K173" s="13"/>
+      <c r="L173" s="22" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="174" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D174" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="E174" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F174" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G174" s="15" t="s">
+        <v>306</v>
+      </c>
+      <c r="H174" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="I174" s="28" t="s">
+        <v>386</v>
+      </c>
+      <c r="J174" s="13"/>
+      <c r="K174" s="13"/>
+      <c r="L174" s="22" t="s">
+        <v>344</v>
       </c>
     </row>
   </sheetData>
@@ -8289,19 +8572,21 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="J163" r:id="rId1"/>
-    <hyperlink ref="J155" r:id="rId2"/>
-    <hyperlink ref="J159" r:id="rId3"/>
-    <hyperlink ref="J139" r:id="rId4"/>
-    <hyperlink ref="J144" r:id="rId5"/>
-    <hyperlink ref="J134" r:id="rId6"/>
-    <hyperlink ref="J105" r:id="rId7"/>
-    <hyperlink ref="J106" r:id="rId8"/>
+    <hyperlink ref="J169" r:id="rId1"/>
+    <hyperlink ref="J161" r:id="rId2"/>
+    <hyperlink ref="J165" r:id="rId3"/>
+    <hyperlink ref="J143" r:id="rId4"/>
+    <hyperlink ref="J149" r:id="rId5"/>
+    <hyperlink ref="J138" r:id="rId6"/>
+    <hyperlink ref="J106" r:id="rId7"/>
+    <hyperlink ref="J107" r:id="rId8"/>
     <hyperlink ref="J19" r:id="rId9" display="http://139.196.101.78:8668/column?type=1&amp;token=910820738640559462371283192"/>
-    <hyperlink ref="J101" r:id="rId10"/>
-    <hyperlink ref="J148" r:id="rId11"/>
+    <hyperlink ref="J102" r:id="rId10"/>
+    <hyperlink ref="J154" r:id="rId11"/>
+    <hyperlink ref="J144" r:id="rId12"/>
+    <hyperlink ref="J150" r:id="rId13"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId12"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId14"/>
 </worksheet>
 </file>
--- a/trunk/biz/MC-MSC-Web/qxy接口定义文档2016-8-8/【千校云】bug列表.xlsx
+++ b/trunk/biz/MC-MSC-Web/qxy接口定义文档2016-8-8/【千校云】bug列表.xlsx
@@ -30,7 +30,7 @@
     <definedName name="_a12" localSheetId="0">#REF!</definedName>
     <definedName name="_a12">#REF!</definedName>
     <definedName name="_au１２">[1]目次!$C$39</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'业务接口（2016-8-10）'!$A$1:$G$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'业务接口（2016-8-10）'!$A$1:$AL$174</definedName>
     <definedName name="_ｑ12" localSheetId="0">#REF!</definedName>
     <definedName name="_ｑ12">#REF!</definedName>
     <definedName name="a" localSheetId="0">'[2]WBS(1)'!#REF!</definedName>
@@ -108,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1750" uniqueCount="797">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1860" uniqueCount="816">
   <si>
     <t>/qxy/trip</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -431,10 +431,6 @@
   </si>
   <si>
     <t>班级报警规则新增接口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/qxy/class/alarmrule?cid=[cid]&amp;token=[token]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1397,25 +1393,6 @@
     </rPh>
     <rPh sb="15" eb="16">
       <t>ce s</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>正常返回，creator，sid这些都不对</t>
-    <rPh sb="0" eb="1">
-      <t>zheng c</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>fan h</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>zhe x</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>dou</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>bu dui</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1458,22 +1435,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>有返回，creator不正确，SID不正确</t>
-    <rPh sb="0" eb="1">
-      <t>you</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>fan h</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>bu zheng q</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>bu zheng q</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>正常返回，数据删除失败</t>
     <rPh sb="0" eb="1">
       <t>zheng c</t>
@@ -2290,18 +2251,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>139.196.101.78:8668/stundent/namelist?class=1&amp;token=910820738640559462371283192</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无数据，返回正常</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无数据，返回正常</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>139.196.101.78:8668/securitylog?token=910820738640559462371283192</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2578,10 +2527,6 @@
   </si>
   <si>
     <t>http://139.196.101.78:8668/label?token=910820738640559462371283192</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://139.196.101.78:8668/deviceinfo?sid=1&amp;token=910820738640559462371283192</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3731,15 +3676,151 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>待测试数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>反馈结果</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>说明2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂无数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常返回，提示查询失败</t>
+    <rPh sb="0" eb="1">
+      <t>zheng c</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fan h</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>139.196.101.78:8668/stundent/namelist?class=1&amp;token=910820738640559462371283192</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/qxy/class/alarmrule?cid=[cid]&amp;token=[token]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>139.196.101.78:8668/class/alarmrule?cid=2&amp;token=910820738640559462371283192</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常返回</t>
+    <rPh sb="0" eb="1">
+      <t>zheng c</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fan h</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>zhe x</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>dou</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>bu dui</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有返回</t>
+    <rPh sb="0" eb="1">
+      <t>you</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>fan h</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>bu zheng q</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>bu zheng q</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://139.196.101.78:8668/deviceinfo?sid=1&amp;token=910820738640559462371283192</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示正常200，未返回设备信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引用接口，不用看</t>
+  </si>
+  <si>
+    <t>引用接口，不用看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引用接口，不用看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引用接口，不用看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引用接口，不用看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引用接口，不用看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回正常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回正常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常返回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂缺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂缺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回正常，返回信息需对照文档变更</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4002,7 +4083,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4148,13 +4229,24 @@
     <xf numFmtId="0" fontId="8" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
     <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -4744,7 +4836,7 @@
       <pane xSplit="7" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K97" sqref="K97"/>
+      <selection pane="bottomRight" activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4758,64 +4850,64 @@
     <col min="7" max="7" width="56.875" style="3" customWidth="1"/>
     <col min="8" max="8" width="8.625" style="36" customWidth="1"/>
     <col min="9" max="9" width="5" style="36" customWidth="1"/>
-    <col min="10" max="10" width="17.125" style="26" customWidth="1"/>
+    <col min="10" max="10" width="17.125" style="48" customWidth="1"/>
     <col min="11" max="11" width="19" style="42" customWidth="1"/>
     <col min="12" max="12" width="20.75" style="37" customWidth="1"/>
     <col min="13" max="13" width="11.75" style="37" customWidth="1"/>
     <col min="14" max="14" width="20.375" style="36" customWidth="1"/>
-    <col min="15" max="15" width="12.5" style="15" customWidth="1"/>
+    <col min="15" max="15" width="12.5" style="46" customWidth="1"/>
     <col min="16" max="16" width="23.625" style="2" customWidth="1"/>
     <col min="17" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>600</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="H1" s="36" t="s">
         <v>301</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="D1" s="35" t="s">
-        <v>607</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="H1" s="36" t="s">
+      <c r="I1" s="36" t="s">
+        <v>355</v>
+      </c>
+      <c r="J1" s="48" t="s">
+        <v>787</v>
+      </c>
+      <c r="K1" s="42" t="s">
+        <v>788</v>
+      </c>
+      <c r="L1" s="37" t="s">
+        <v>320</v>
+      </c>
+      <c r="M1" s="37" t="s">
+        <v>352</v>
+      </c>
+      <c r="N1" s="36" t="s">
+        <v>353</v>
+      </c>
+      <c r="O1" s="46" t="s">
         <v>302</v>
       </c>
-      <c r="I1" s="36" t="s">
-        <v>358</v>
-      </c>
-      <c r="J1" s="26" t="s">
-        <v>795</v>
-      </c>
-      <c r="K1" s="42" t="s">
-        <v>796</v>
-      </c>
-      <c r="L1" s="37" t="s">
-        <v>323</v>
-      </c>
-      <c r="M1" s="37" t="s">
-        <v>355</v>
-      </c>
-      <c r="N1" s="36" t="s">
-        <v>356</v>
-      </c>
-      <c r="O1" s="15" t="s">
-        <v>303</v>
-      </c>
       <c r="P1" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="2" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4823,291 +4915,300 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D2" s="35" t="s">
-        <v>608</v>
+        <v>601</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H2" s="36" t="s">
-        <v>306</v>
+        <v>305</v>
+      </c>
+      <c r="J2" s="48" t="s">
+        <v>806</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="3" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D3" s="35" t="s">
-        <v>610</v>
+        <v>603</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G3" s="28" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="H3" s="36" t="s">
-        <v>306</v>
-      </c>
-      <c r="J3" s="26" t="s">
-        <v>474</v>
+        <v>305</v>
+      </c>
+      <c r="J3" s="48" t="s">
+        <v>468</v>
       </c>
       <c r="M3" s="37">
         <v>404</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="4" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D4" s="35" t="s">
-        <v>611</v>
+        <v>604</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H4" s="36" t="s">
-        <v>306</v>
+        <v>305</v>
+      </c>
+      <c r="J4" s="48" t="s">
+        <v>805</v>
       </c>
     </row>
     <row r="5" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D5" s="35" t="s">
-        <v>612</v>
+        <v>605</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H5" s="36" t="s">
-        <v>306</v>
-      </c>
-      <c r="J5" s="26" t="s">
-        <v>474</v>
+        <v>305</v>
+      </c>
+      <c r="J5" s="48" t="s">
+        <v>468</v>
       </c>
       <c r="L5" s="37" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="M5" s="37">
         <v>404</v>
       </c>
       <c r="AJ5" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AK5" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AL5" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="6" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C6" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D6" s="35" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G6" s="28" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="H6" s="36" t="s">
+        <v>305</v>
+      </c>
+      <c r="J6" s="48" t="s">
+        <v>468</v>
+      </c>
+      <c r="M6" s="37" t="s">
+        <v>465</v>
+      </c>
+      <c r="AJ6" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="J6" s="26" t="s">
-        <v>474</v>
-      </c>
-      <c r="M6" s="37" t="s">
-        <v>471</v>
-      </c>
-      <c r="AJ6" s="1" t="s">
-        <v>307</v>
-      </c>
       <c r="AK6" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AL6" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="7" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D7" s="35" t="s">
-        <v>614</v>
+        <v>607</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G7" s="28" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="H7" s="36" t="s">
-        <v>306</v>
-      </c>
-      <c r="J7" s="26" t="s">
-        <v>474</v>
+        <v>305</v>
+      </c>
+      <c r="J7" s="48" t="s">
+        <v>468</v>
       </c>
       <c r="M7" s="37" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="AK7" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="8" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D8" s="35" t="s">
-        <v>615</v>
+        <v>608</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G8" s="28" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="H8" s="36" t="s">
-        <v>306</v>
-      </c>
-      <c r="J8" s="26" t="s">
-        <v>474</v>
+        <v>305</v>
+      </c>
+      <c r="J8" s="48" t="s">
+        <v>468</v>
       </c>
       <c r="M8" s="37" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
     </row>
     <row r="9" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D9" s="35" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G9" s="28" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="H9" s="36" t="s">
-        <v>306</v>
-      </c>
-      <c r="J9" s="26" t="s">
-        <v>474</v>
+        <v>305</v>
+      </c>
+      <c r="J9" s="48" t="s">
+        <v>468</v>
       </c>
       <c r="M9" s="37" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="10" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D10" s="35" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="H10" s="36" t="s">
-        <v>306</v>
+        <v>305</v>
+      </c>
+      <c r="J10" s="48" t="s">
+        <v>806</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="11" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D11" s="35" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G11" s="28" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
       <c r="H11" s="36" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I11" s="36" t="s">
-        <v>308</v>
-      </c>
-      <c r="J11" s="26" t="s">
-        <v>383</v>
+        <v>307</v>
+      </c>
+      <c r="J11" s="48" t="s">
+        <v>380</v>
       </c>
       <c r="N11" s="36" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D12" s="35" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G12" s="28" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="H12" s="36" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I12" s="36" t="s">
-        <v>308</v>
-      </c>
-      <c r="J12" s="26" t="s">
-        <v>390</v>
+        <v>307</v>
+      </c>
+      <c r="J12" s="48" t="s">
+        <v>387</v>
       </c>
       <c r="N12" s="36" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="13" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5115,247 +5216,271 @@
         <v>2</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D13" s="35" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G13" s="28" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="H13" s="36" t="s">
-        <v>306</v>
-      </c>
-      <c r="J13" s="26" t="s">
-        <v>469</v>
+        <v>305</v>
+      </c>
+      <c r="J13" s="48" t="s">
+        <v>463</v>
       </c>
       <c r="L13" s="37" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="M13" s="37" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="14" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D14" s="35" t="s">
-        <v>621</v>
+        <v>614</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="H14" s="36" t="s">
-        <v>304</v>
-      </c>
-      <c r="J14" s="26" t="s">
-        <v>510</v>
+        <v>303</v>
+      </c>
+      <c r="J14" s="48" t="s">
+        <v>503</v>
       </c>
       <c r="L14" s="37" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="M14" s="37" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="N14" s="38" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
     </row>
     <row r="15" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D15" s="35" t="s">
-        <v>622</v>
+        <v>615</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H15" s="36" t="s">
-        <v>304</v>
+        <v>303</v>
+      </c>
+      <c r="J15" s="48" t="s">
+        <v>812</v>
       </c>
       <c r="M15" s="37" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
     </row>
     <row r="16" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D16" s="35" t="s">
-        <v>623</v>
+        <v>616</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H16" s="36" t="s">
-        <v>304</v>
-      </c>
-      <c r="J16" s="26" t="s">
-        <v>383</v>
+        <v>303</v>
+      </c>
+      <c r="J16" s="48" t="s">
+        <v>380</v>
       </c>
       <c r="L16" s="37" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="M16" s="37" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="N16" s="36" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D17" s="35" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H17" s="36" t="s">
-        <v>304</v>
+        <v>303</v>
+      </c>
+      <c r="J17" s="48" t="s">
+        <v>812</v>
       </c>
       <c r="M17" s="37" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D18" s="35" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
+      </c>
+      <c r="H18" s="36" t="s">
+        <v>305</v>
+      </c>
+      <c r="J18" s="48" t="s">
+        <v>813</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C19" s="25" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D19" s="35" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G19" s="16" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H19" s="36" t="s">
-        <v>304</v>
+        <v>303</v>
+      </c>
+      <c r="J19" s="48" t="s">
+        <v>812</v>
       </c>
       <c r="L19" s="37" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="M19" s="39" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D20" s="35" t="s">
-        <v>627</v>
+        <v>620</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G20" s="17" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="H20" s="36" t="s">
-        <v>304</v>
+        <v>303</v>
+      </c>
+      <c r="J20" s="48" t="s">
+        <v>812</v>
       </c>
       <c r="L20" s="37" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="M20" s="37" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="N20" s="36" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D21" s="35" t="s">
-        <v>628</v>
+        <v>621</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G21" s="17" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H21" s="36" t="s">
-        <v>304</v>
+        <v>303</v>
+      </c>
+      <c r="J21" s="48" t="s">
+        <v>812</v>
       </c>
       <c r="L21" s="37" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="M21" s="37" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D22" s="35" t="s">
-        <v>629</v>
+        <v>622</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G22" s="17" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H22" s="36" t="s">
-        <v>304</v>
+        <v>303</v>
+      </c>
+      <c r="J22" s="48" t="s">
+        <v>812</v>
       </c>
       <c r="L22" s="37" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="M22" s="37" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5363,753 +5488,834 @@
         <v>3</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D23" s="35" t="s">
-        <v>630</v>
+        <v>623</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G23" s="28" t="s">
-        <v>566</v>
+        <v>559</v>
+      </c>
+      <c r="J23" s="48" t="s">
+        <v>789</v>
       </c>
       <c r="L23" s="37" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="M23" s="37" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="N23" s="36" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D24" s="35" t="s">
-        <v>631</v>
+        <v>624</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G24" s="28" t="s">
-        <v>567</v>
+        <v>560</v>
+      </c>
+      <c r="J24" s="48" t="s">
+        <v>790</v>
       </c>
       <c r="L24" s="37" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="M24" s="37" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="N24" s="36" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D25" s="35" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G25" s="28" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="H25" s="36" t="s">
-        <v>304</v>
-      </c>
-      <c r="J25" s="26" t="s">
-        <v>383</v>
+        <v>303</v>
+      </c>
+      <c r="J25" s="48" t="s">
+        <v>380</v>
       </c>
       <c r="L25" s="37" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="M25" s="37" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="N25" s="36" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D26" s="35" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>7</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
       <c r="H26" s="36" t="s">
-        <v>304</v>
+        <v>303</v>
+      </c>
+      <c r="J26" s="48" t="s">
+        <v>812</v>
       </c>
       <c r="L26" s="37" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="M26" s="37" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="27" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D27" s="35" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="H27" s="36" t="s">
-        <v>304</v>
+        <v>303</v>
+      </c>
+      <c r="J27" s="48" t="s">
+        <v>812</v>
       </c>
       <c r="L27" s="37" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="M27" s="37" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="N27" s="36" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D28" s="35" t="s">
-        <v>635</v>
+        <v>628</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H28" s="36" t="s">
-        <v>304</v>
-      </c>
-      <c r="J28" s="26" t="s">
-        <v>518</v>
+        <v>303</v>
+      </c>
+      <c r="J28" s="48" t="s">
+        <v>511</v>
       </c>
       <c r="L28" s="37" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="M28" s="37">
         <v>404</v>
       </c>
       <c r="N28" s="36" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
     </row>
     <row r="29" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D29" s="35" t="s">
-        <v>636</v>
+        <v>629</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H29" s="36" t="s">
-        <v>304</v>
-      </c>
-      <c r="J29" s="26" t="s">
-        <v>473</v>
+        <v>303</v>
+      </c>
+      <c r="J29" s="48" t="s">
+        <v>467</v>
       </c>
       <c r="M29" s="37" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
     </row>
     <row r="30" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D30" s="35" t="s">
-        <v>637</v>
+        <v>630</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H30" s="36" t="s">
-        <v>304</v>
-      </c>
-      <c r="J30" s="26" t="s">
-        <v>473</v>
+        <v>303</v>
+      </c>
+      <c r="J30" s="48" t="s">
+        <v>467</v>
       </c>
       <c r="M30" s="37" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
     </row>
     <row r="31" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D31" s="35" t="s">
-        <v>638</v>
+        <v>631</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H31" s="36" t="s">
-        <v>304</v>
+        <v>303</v>
+      </c>
+      <c r="J31" s="48" t="s">
+        <v>790</v>
       </c>
       <c r="M31" s="37" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="N31" s="36" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
     </row>
     <row r="32" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D32" s="35" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
+      </c>
+      <c r="J32" s="48" t="s">
+        <v>805</v>
       </c>
     </row>
     <row r="33" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D33" s="35" t="s">
-        <v>640</v>
+        <v>633</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
+      </c>
+      <c r="J33" s="48" t="s">
+        <v>806</v>
       </c>
     </row>
     <row r="34" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C34" s="25" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D34" s="35" t="s">
-        <v>641</v>
+        <v>634</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G34" s="17" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H34" s="36" t="s">
-        <v>304</v>
+        <v>303</v>
+      </c>
+      <c r="J34" s="48" t="s">
+        <v>812</v>
       </c>
       <c r="L34" s="37" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="M34" s="37" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="35" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D35" s="35" t="s">
-        <v>642</v>
+        <v>635</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G35" s="17" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H35" s="36" t="s">
-        <v>304</v>
+        <v>303</v>
+      </c>
+      <c r="J35" s="48" t="s">
+        <v>812</v>
       </c>
       <c r="L35" s="37" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="M35" s="37" t="s">
-        <v>780</v>
+        <v>773</v>
       </c>
       <c r="N35" s="36" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
     </row>
     <row r="36" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D36" s="35" t="s">
-        <v>643</v>
+        <v>636</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G36" s="17" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H36" s="36" t="s">
-        <v>304</v>
+        <v>303</v>
+      </c>
+      <c r="J36" s="48" t="s">
+        <v>812</v>
       </c>
       <c r="L36" s="37" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="M36" s="37" t="s">
-        <v>793</v>
+        <v>786</v>
       </c>
       <c r="N36" s="36" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
     </row>
     <row r="37" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C37" s="25" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D37" s="35" t="s">
-        <v>645</v>
+        <v>638</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G37" s="17" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="H37" s="36" t="s">
-        <v>304</v>
+        <v>303</v>
+      </c>
+      <c r="J37" s="48" t="s">
+        <v>812</v>
       </c>
       <c r="M37" s="37" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
     </row>
     <row r="38" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D38" s="35" t="s">
-        <v>644</v>
+        <v>637</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G38" s="17" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H38" s="36" t="s">
-        <v>304</v>
+        <v>303</v>
+      </c>
+      <c r="J38" s="48" t="s">
+        <v>812</v>
       </c>
       <c r="L38" s="37" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="M38" s="37" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
     </row>
     <row r="39" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D39" s="35" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G39" s="17" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="H39" s="36" t="s">
-        <v>304</v>
+        <v>303</v>
+      </c>
+      <c r="J39" s="48" t="s">
+        <v>812</v>
       </c>
       <c r="L39" s="37" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="M39" s="37" t="s">
-        <v>780</v>
+        <v>773</v>
       </c>
       <c r="N39" s="36" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="P39" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="40" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C40" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D40" s="35" t="s">
-        <v>646</v>
+        <v>639</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G40" s="28" t="s">
-        <v>569</v>
+        <v>562</v>
+      </c>
+      <c r="J40" s="48" t="s">
+        <v>812</v>
       </c>
       <c r="M40" s="37" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
     </row>
     <row r="41" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D41" s="35" t="s">
-        <v>647</v>
+        <v>640</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G41" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="H41" s="36" t="s">
+        <v>303</v>
+      </c>
+      <c r="J41" s="48" t="s">
+        <v>380</v>
+      </c>
+      <c r="L41" s="37" t="s">
+        <v>483</v>
+      </c>
+      <c r="M41" s="37" t="s">
+        <v>484</v>
+      </c>
+      <c r="N41" s="36" t="s">
         <v>485</v>
-      </c>
-      <c r="H41" s="36" t="s">
-        <v>304</v>
-      </c>
-      <c r="J41" s="26" t="s">
-        <v>383</v>
-      </c>
-      <c r="L41" s="37" t="s">
-        <v>489</v>
-      </c>
-      <c r="M41" s="37" t="s">
-        <v>490</v>
-      </c>
-      <c r="N41" s="36" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="42" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D42" s="35" t="s">
-        <v>648</v>
+        <v>641</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H42" s="36" t="s">
-        <v>304</v>
+        <v>303</v>
+      </c>
+      <c r="J42" s="48" t="s">
+        <v>812</v>
       </c>
       <c r="M42" s="37" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
     </row>
     <row r="43" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D43" s="35" t="s">
-        <v>649</v>
+        <v>642</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G43" s="28" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="H43" s="36" t="s">
-        <v>304</v>
+        <v>303</v>
+      </c>
+      <c r="J43" s="48" t="s">
+        <v>812</v>
       </c>
       <c r="L43" s="37" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="M43" s="37" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="44" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D44" s="35" t="s">
-        <v>650</v>
+        <v>643</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H44" s="36" t="s">
-        <v>304</v>
+        <v>303</v>
+      </c>
+      <c r="J44" s="48" t="s">
+        <v>790</v>
       </c>
       <c r="M44" s="37" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="N44" s="36" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
     </row>
     <row r="45" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C45" s="25" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D45" s="35" t="s">
-        <v>651</v>
+        <v>644</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G45" s="17" t="s">
-        <v>223</v>
+        <v>222</v>
+      </c>
+      <c r="J45" s="48" t="s">
+        <v>812</v>
       </c>
       <c r="L45" s="37" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="M45" s="37" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="46" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D46" s="35" t="s">
-        <v>652</v>
+        <v>645</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G46" s="17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H46" s="36" t="s">
-        <v>304</v>
+        <v>303</v>
+      </c>
+      <c r="J46" s="48" t="s">
+        <v>812</v>
       </c>
       <c r="M46" s="37" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
     </row>
     <row r="47" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D47" s="35" t="s">
-        <v>653</v>
+        <v>646</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G47" s="17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H47" s="36" t="s">
-        <v>304</v>
+        <v>303</v>
+      </c>
+      <c r="J47" s="48" t="s">
+        <v>812</v>
       </c>
       <c r="L47" s="37" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="M47" s="37" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
     </row>
     <row r="48" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D48" s="35" t="s">
-        <v>654</v>
+        <v>647</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G48" s="17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H48" s="36" t="s">
-        <v>304</v>
+        <v>303</v>
+      </c>
+      <c r="J48" s="48" t="s">
+        <v>812</v>
       </c>
       <c r="L48" s="37" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="M48" s="37" t="s">
-        <v>780</v>
+        <v>773</v>
       </c>
       <c r="N48" s="36" t="s">
-        <v>792</v>
+        <v>785</v>
       </c>
     </row>
     <row r="49" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C49" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D49" s="35" t="s">
-        <v>655</v>
+        <v>648</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G49" s="30" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="I49" s="36" t="s">
-        <v>313</v>
+        <v>312</v>
+      </c>
+      <c r="J49" s="48" t="s">
+        <v>812</v>
       </c>
       <c r="L49" s="37" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="M49" s="37" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="N49" s="36" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="P49" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="50" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D50" s="35" t="s">
-        <v>656</v>
+        <v>649</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G50" s="17" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H50" s="36" t="s">
-        <v>304</v>
+        <v>303</v>
+      </c>
+      <c r="J50" s="48" t="s">
+        <v>812</v>
       </c>
       <c r="L50" s="37" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="M50" s="37" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="51" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D51" s="35" t="s">
-        <v>657</v>
+        <v>650</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G51" s="17" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H51" s="36" t="s">
-        <v>304</v>
+        <v>303</v>
+      </c>
+      <c r="J51" s="48" t="s">
+        <v>812</v>
       </c>
       <c r="L51" s="37" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="M51" s="37" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="52" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D52" s="35" t="s">
-        <v>658</v>
+        <v>651</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G52" s="17" t="s">
+        <v>519</v>
+      </c>
+      <c r="H52" s="36" t="s">
+        <v>303</v>
+      </c>
+      <c r="J52" s="48" t="s">
+        <v>812</v>
+      </c>
+      <c r="L52" s="37" t="s">
         <v>526</v>
       </c>
-      <c r="H52" s="36" t="s">
-        <v>304</v>
-      </c>
-      <c r="L52" s="37" t="s">
-        <v>533</v>
-      </c>
       <c r="M52" s="37" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="N52" s="36" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
     </row>
     <row r="53" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D53" s="35" t="s">
-        <v>659</v>
+        <v>652</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
+      </c>
+      <c r="J53" s="48" t="s">
+        <v>807</v>
       </c>
     </row>
     <row r="54" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D54" s="35" t="s">
-        <v>660</v>
+        <v>653</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
+      </c>
+      <c r="J54" s="48" t="s">
+        <v>805</v>
       </c>
     </row>
     <row r="55" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -6117,103 +6323,105 @@
         <v>4</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D55" s="35" t="s">
-        <v>661</v>
+        <v>654</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H55" s="36"/>
       <c r="I55" s="36"/>
-      <c r="J55" s="26"/>
+      <c r="J55" s="48" t="s">
+        <v>805</v>
+      </c>
       <c r="K55" s="42"/>
       <c r="L55" s="37"/>
       <c r="M55" s="37"/>
       <c r="N55" s="36"/>
-      <c r="O55" s="15"/>
+      <c r="O55" s="46"/>
       <c r="P55" s="2"/>
     </row>
     <row r="56" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="6"/>
       <c r="D56" s="35" t="s">
-        <v>662</v>
+        <v>655</v>
       </c>
       <c r="E56" s="27" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="H56" s="36" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I56" s="36" t="s">
-        <v>313</v>
-      </c>
-      <c r="J56" s="26" t="s">
-        <v>390</v>
+        <v>312</v>
+      </c>
+      <c r="J56" s="48" t="s">
+        <v>387</v>
       </c>
       <c r="K56" s="42"/>
       <c r="L56" s="37" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="M56" s="37" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="N56" s="36" t="s">
-        <v>345</v>
-      </c>
-      <c r="O56" s="15"/>
+        <v>342</v>
+      </c>
+      <c r="O56" s="46"/>
       <c r="P56" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="57" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="6"/>
       <c r="D57" s="35" t="s">
-        <v>663</v>
+        <v>656</v>
       </c>
       <c r="E57" s="27" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="F57" s="4" t="s">
         <v>7</v>
       </c>
       <c r="G57" s="28" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="H57" s="36" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I57" s="36" t="s">
-        <v>308</v>
-      </c>
-      <c r="J57" s="26" t="s">
-        <v>383</v>
+        <v>307</v>
+      </c>
+      <c r="J57" s="48" t="s">
+        <v>380</v>
       </c>
       <c r="K57" s="42"/>
       <c r="L57" s="37"/>
       <c r="M57" s="37" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="N57" s="36" t="s">
-        <v>344</v>
-      </c>
-      <c r="O57" s="15"/>
+        <v>341</v>
+      </c>
+      <c r="O57" s="46"/>
       <c r="P57" s="2" t="s">
         <v>13</v>
       </c>
@@ -6221,67 +6429,69 @@
     <row r="58" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="6"/>
       <c r="D58" s="35" t="s">
-        <v>664</v>
+        <v>657</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H58" s="36"/>
       <c r="I58" s="36"/>
-      <c r="J58" s="26"/>
+      <c r="J58" s="48" t="s">
+        <v>805</v>
+      </c>
       <c r="K58" s="42"/>
       <c r="L58" s="37"/>
       <c r="M58" s="37"/>
       <c r="N58" s="36"/>
-      <c r="O58" s="15"/>
+      <c r="O58" s="46"/>
       <c r="P58" s="2"/>
     </row>
     <row r="59" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="6"/>
       <c r="B59" s="5"/>
       <c r="C59" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D59" s="35" t="s">
-        <v>665</v>
+        <v>658</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G59" s="28" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="H59" s="36" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I59" s="36" t="s">
-        <v>313</v>
-      </c>
-      <c r="J59" s="26" t="s">
-        <v>390</v>
+        <v>312</v>
+      </c>
+      <c r="J59" s="48" t="s">
+        <v>387</v>
       </c>
       <c r="K59" s="42"/>
       <c r="L59" s="37" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="M59" s="37" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="N59" s="36" t="s">
-        <v>344</v>
-      </c>
-      <c r="O59" s="15"/>
+        <v>341</v>
+      </c>
+      <c r="O59" s="46"/>
       <c r="P59" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="60" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -6289,25 +6499,27 @@
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
       <c r="D60" s="35" t="s">
-        <v>666</v>
+        <v>659</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H60" s="36"/>
       <c r="I60" s="36"/>
-      <c r="J60" s="26"/>
+      <c r="J60" s="48" t="s">
+        <v>805</v>
+      </c>
       <c r="K60" s="42"/>
       <c r="L60" s="37"/>
       <c r="M60" s="37"/>
       <c r="N60" s="36"/>
-      <c r="O60" s="15"/>
+      <c r="O60" s="46"/>
       <c r="P60" s="2"/>
     </row>
     <row r="61" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -6315,33 +6527,33 @@
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
       <c r="D61" s="35" t="s">
-        <v>667</v>
+        <v>660</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="H61" s="36" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I61" s="36"/>
-      <c r="J61" s="26" t="s">
-        <v>383</v>
+      <c r="J61" s="48" t="s">
+        <v>380</v>
       </c>
       <c r="K61" s="42"/>
       <c r="L61" s="37" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="M61" s="37" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="N61" s="36"/>
-      <c r="O61" s="15"/>
+      <c r="O61" s="46"/>
       <c r="P61" s="2"/>
     </row>
     <row r="62" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -6349,37 +6561,37 @@
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
       <c r="D62" s="35" t="s">
-        <v>668</v>
+        <v>661</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G62" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H62" s="36" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I62" s="36" t="s">
-        <v>313</v>
-      </c>
-      <c r="J62" s="26" t="s">
-        <v>383</v>
+        <v>312</v>
+      </c>
+      <c r="J62" s="48" t="s">
+        <v>380</v>
       </c>
       <c r="K62" s="42"/>
       <c r="L62" s="37"/>
       <c r="M62" s="37" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="N62" s="36" t="s">
-        <v>346</v>
-      </c>
-      <c r="O62" s="15"/>
+        <v>343</v>
+      </c>
+      <c r="O62" s="46"/>
       <c r="P62" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="63" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -6387,37 +6599,37 @@
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
       <c r="D63" s="35" t="s">
-        <v>669</v>
+        <v>662</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G63" s="10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H63" s="36" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I63" s="36" t="s">
-        <v>313</v>
-      </c>
-      <c r="J63" s="26" t="s">
-        <v>383</v>
+        <v>312</v>
+      </c>
+      <c r="J63" s="48" t="s">
+        <v>380</v>
       </c>
       <c r="K63" s="42"/>
       <c r="L63" s="37"/>
       <c r="M63" s="37" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="N63" s="36" t="s">
-        <v>347</v>
-      </c>
-      <c r="O63" s="15"/>
+        <v>344</v>
+      </c>
+      <c r="O63" s="46"/>
       <c r="P63" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="64" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -6425,37 +6637,37 @@
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
       <c r="D64" s="35" t="s">
-        <v>670</v>
+        <v>663</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G64" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H64" s="36" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I64" s="36" t="s">
-        <v>313</v>
-      </c>
-      <c r="J64" s="26" t="s">
-        <v>390</v>
+        <v>312</v>
+      </c>
+      <c r="J64" s="48" t="s">
+        <v>387</v>
       </c>
       <c r="K64" s="42"/>
       <c r="L64" s="37"/>
       <c r="M64" s="37" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="N64" s="36" t="s">
-        <v>346</v>
-      </c>
-      <c r="O64" s="15"/>
+        <v>343</v>
+      </c>
+      <c r="O64" s="46"/>
       <c r="P64" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="65" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -6463,25 +6675,27 @@
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
       <c r="D65" s="35" t="s">
-        <v>671</v>
+        <v>664</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H65" s="36"/>
       <c r="I65" s="36"/>
-      <c r="J65" s="26"/>
+      <c r="J65" s="48" t="s">
+        <v>806</v>
+      </c>
       <c r="K65" s="42"/>
       <c r="L65" s="37"/>
       <c r="M65" s="37"/>
       <c r="N65" s="36"/>
-      <c r="O65" s="15"/>
+      <c r="O65" s="46"/>
       <c r="P65" s="2"/>
     </row>
     <row r="66" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -6489,59 +6703,63 @@
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
       <c r="D66" s="35" t="s">
-        <v>672</v>
+        <v>665</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H66" s="36"/>
       <c r="I66" s="36"/>
-      <c r="J66" s="26"/>
+      <c r="J66" s="48" t="s">
+        <v>805</v>
+      </c>
       <c r="K66" s="42"/>
       <c r="L66" s="37"/>
       <c r="M66" s="37"/>
       <c r="N66" s="36"/>
-      <c r="O66" s="15"/>
+      <c r="O66" s="46"/>
       <c r="P66" s="2"/>
     </row>
     <row r="67" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="6"/>
       <c r="B67" s="5"/>
       <c r="C67" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D67" s="35" t="s">
-        <v>673</v>
+        <v>666</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G67" s="31" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="H67" s="36" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I67" s="36"/>
-      <c r="J67" s="26"/>
+      <c r="J67" s="48" t="s">
+        <v>791</v>
+      </c>
       <c r="K67" s="42"/>
       <c r="L67" s="37"/>
-      <c r="M67" s="37" t="s">
-        <v>465</v>
+      <c r="M67" s="37">
+        <v>404</v>
       </c>
       <c r="N67" s="36"/>
-      <c r="O67" s="15"/>
+      <c r="O67" s="46"/>
       <c r="P67" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="68" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -6549,29 +6767,31 @@
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
       <c r="D68" s="35" t="s">
-        <v>674</v>
+        <v>667</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G68" s="28" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="H68" s="36"/>
       <c r="I68" s="36"/>
-      <c r="J68" s="26"/>
+      <c r="J68" s="48" t="s">
+        <v>792</v>
+      </c>
       <c r="K68" s="42"/>
       <c r="L68" s="37"/>
-      <c r="M68" s="37" t="s">
-        <v>465</v>
+      <c r="M68" s="37">
+        <v>404</v>
       </c>
       <c r="N68" s="36"/>
-      <c r="O68" s="15"/>
+      <c r="O68" s="46"/>
       <c r="P68" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="69" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -6579,33 +6799,35 @@
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
       <c r="D69" s="35" t="s">
-        <v>675</v>
+        <v>668</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G69" s="30" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="H69" s="36" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I69" s="36" t="s">
-        <v>313</v>
-      </c>
-      <c r="J69" s="26"/>
+        <v>312</v>
+      </c>
+      <c r="J69" s="48" t="s">
+        <v>812</v>
+      </c>
       <c r="K69" s="42"/>
       <c r="L69" s="37"/>
       <c r="M69" s="37" t="s">
-        <v>780</v>
+        <v>773</v>
       </c>
       <c r="N69" s="36" t="s">
-        <v>344</v>
-      </c>
-      <c r="O69" s="15"/>
+        <v>341</v>
+      </c>
+      <c r="O69" s="46"/>
       <c r="P69" s="2" t="s">
         <v>13</v>
       </c>
@@ -6615,37 +6837,39 @@
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
       <c r="D70" s="35" t="s">
-        <v>676</v>
+        <v>669</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G70" s="17" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="H70" s="36" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I70" s="36" t="s">
-        <v>313</v>
-      </c>
-      <c r="J70" s="26"/>
+        <v>312</v>
+      </c>
+      <c r="J70" s="48" t="s">
+        <v>812</v>
+      </c>
       <c r="K70" s="42"/>
       <c r="L70" s="37" t="s">
-        <v>781</v>
+        <v>774</v>
       </c>
       <c r="M70" s="37" t="s">
-        <v>782</v>
+        <v>775</v>
       </c>
       <c r="N70" s="36" t="s">
-        <v>344</v>
-      </c>
-      <c r="O70" s="15"/>
+        <v>341</v>
+      </c>
+      <c r="O70" s="46"/>
       <c r="P70" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="71" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -6653,33 +6877,35 @@
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
       <c r="D71" s="35" t="s">
-        <v>677</v>
+        <v>670</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G71" s="17" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H71" s="36" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I71" s="36"/>
-      <c r="J71" s="26"/>
+      <c r="J71" s="48" t="s">
+        <v>812</v>
+      </c>
       <c r="K71" s="42"/>
       <c r="L71" s="37" t="s">
-        <v>783</v>
+        <v>776</v>
       </c>
       <c r="M71" s="37" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="N71" s="36"/>
-      <c r="O71" s="15"/>
+      <c r="O71" s="46"/>
       <c r="P71" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="72" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -6687,37 +6913,39 @@
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
       <c r="D72" s="35" t="s">
-        <v>678</v>
+        <v>671</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G72" s="17" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H72" s="36" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I72" s="36" t="s">
-        <v>313</v>
-      </c>
-      <c r="J72" s="26"/>
+        <v>312</v>
+      </c>
+      <c r="J72" s="48" t="s">
+        <v>812</v>
+      </c>
       <c r="K72" s="42"/>
       <c r="L72" s="37" t="s">
+        <v>777</v>
+      </c>
+      <c r="M72" s="37" t="s">
         <v>784</v>
       </c>
-      <c r="M72" s="37" t="s">
-        <v>791</v>
-      </c>
       <c r="N72" s="36" t="s">
-        <v>348</v>
-      </c>
-      <c r="O72" s="15"/>
+        <v>345</v>
+      </c>
+      <c r="O72" s="46"/>
       <c r="P72" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="73" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -6725,23 +6953,23 @@
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
       <c r="D73" s="35" t="s">
-        <v>679</v>
+        <v>672</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G73" s="31" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="H73" s="36"/>
       <c r="I73" s="36" t="s">
-        <v>308</v>
-      </c>
-      <c r="J73" s="26" t="s">
-        <v>392</v>
+        <v>307</v>
+      </c>
+      <c r="J73" s="48" t="s">
+        <v>389</v>
       </c>
       <c r="K73" s="42"/>
       <c r="L73" s="37"/>
@@ -6749,11 +6977,11 @@
         <v>404</v>
       </c>
       <c r="N73" s="36" t="s">
-        <v>344</v>
-      </c>
-      <c r="O73" s="15"/>
+        <v>341</v>
+      </c>
+      <c r="O73" s="46"/>
       <c r="P73" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="74" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -6761,23 +6989,23 @@
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
       <c r="D74" s="35" t="s">
-        <v>680</v>
+        <v>673</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G74" s="11" t="s">
-        <v>790</v>
+        <v>783</v>
       </c>
       <c r="H74" s="36"/>
       <c r="I74" s="36" t="s">
-        <v>308</v>
-      </c>
-      <c r="J74" s="26" t="s">
-        <v>390</v>
+        <v>307</v>
+      </c>
+      <c r="J74" s="48" t="s">
+        <v>387</v>
       </c>
       <c r="K74" s="42"/>
       <c r="L74" s="37"/>
@@ -6785,11 +7013,11 @@
         <v>404</v>
       </c>
       <c r="N74" s="36" t="s">
-        <v>346</v>
-      </c>
-      <c r="O74" s="15"/>
+        <v>343</v>
+      </c>
+      <c r="O74" s="46"/>
       <c r="P74" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="75" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -6797,23 +7025,23 @@
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
       <c r="D75" s="35" t="s">
-        <v>681</v>
+        <v>674</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G75" s="11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H75" s="36"/>
       <c r="I75" s="36" t="s">
-        <v>308</v>
-      </c>
-      <c r="J75" s="26" t="s">
-        <v>390</v>
+        <v>307</v>
+      </c>
+      <c r="J75" s="48" t="s">
+        <v>387</v>
       </c>
       <c r="K75" s="42"/>
       <c r="L75" s="37"/>
@@ -6821,11 +7049,11 @@
         <v>404</v>
       </c>
       <c r="N75" s="36" t="s">
-        <v>344</v>
-      </c>
-      <c r="O75" s="15"/>
+        <v>341</v>
+      </c>
+      <c r="O75" s="46"/>
       <c r="P75" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="76" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -6833,23 +7061,23 @@
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
       <c r="D76" s="35" t="s">
-        <v>682</v>
+        <v>675</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G76" s="11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H76" s="36"/>
       <c r="I76" s="36" t="s">
-        <v>308</v>
-      </c>
-      <c r="J76" s="26" t="s">
-        <v>383</v>
+        <v>307</v>
+      </c>
+      <c r="J76" s="48" t="s">
+        <v>380</v>
       </c>
       <c r="K76" s="42"/>
       <c r="L76" s="37"/>
@@ -6857,21 +7085,21 @@
         <v>404</v>
       </c>
       <c r="N76" s="36" t="s">
-        <v>346</v>
-      </c>
-      <c r="O76" s="15"/>
+        <v>343</v>
+      </c>
+      <c r="O76" s="46"/>
       <c r="P76" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="77" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="6"/>
       <c r="B77" s="5"/>
       <c r="C77" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D77" s="35" t="s">
-        <v>683</v>
+        <v>676</v>
       </c>
       <c r="E77" s="5" t="s">
         <v>55</v>
@@ -6884,12 +7112,14 @@
       </c>
       <c r="H77" s="36"/>
       <c r="I77" s="36"/>
-      <c r="J77" s="26"/>
+      <c r="J77" s="48" t="s">
+        <v>806</v>
+      </c>
       <c r="K77" s="42"/>
       <c r="L77" s="37"/>
       <c r="M77" s="37"/>
       <c r="N77" s="36"/>
-      <c r="O77" s="15"/>
+      <c r="O77" s="46"/>
       <c r="P77" s="2"/>
     </row>
     <row r="78" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -6897,37 +7127,37 @@
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
       <c r="D78" s="35" t="s">
-        <v>684</v>
+        <v>677</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F78" s="4" t="s">
         <v>7</v>
       </c>
       <c r="G78" s="30" t="s">
-        <v>785</v>
+        <v>778</v>
       </c>
       <c r="H78" s="36" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I78" s="36" t="s">
-        <v>313</v>
-      </c>
-      <c r="J78" s="26" t="s">
-        <v>391</v>
+        <v>312</v>
+      </c>
+      <c r="J78" s="48" t="s">
+        <v>388</v>
       </c>
       <c r="K78" s="42"/>
       <c r="L78" s="37" t="s">
-        <v>786</v>
+        <v>779</v>
       </c>
       <c r="M78" s="37" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="N78" s="36" t="s">
-        <v>344</v>
-      </c>
-      <c r="O78" s="15"/>
+        <v>341</v>
+      </c>
+      <c r="O78" s="46"/>
       <c r="P78" s="2" t="s">
         <v>13</v>
       </c>
@@ -6937,35 +7167,35 @@
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
       <c r="D79" s="35" t="s">
-        <v>685</v>
+        <v>678</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F79" s="4" t="s">
         <v>7</v>
       </c>
       <c r="G79" s="30" t="s">
-        <v>787</v>
+        <v>780</v>
       </c>
       <c r="H79" s="36"/>
       <c r="I79" s="36" t="s">
-        <v>313</v>
-      </c>
-      <c r="J79" s="26" t="s">
-        <v>391</v>
+        <v>312</v>
+      </c>
+      <c r="J79" s="48" t="s">
+        <v>388</v>
       </c>
       <c r="K79" s="42"/>
       <c r="L79" s="37" t="s">
-        <v>788</v>
+        <v>781</v>
       </c>
       <c r="M79" s="37" t="s">
-        <v>789</v>
+        <v>782</v>
       </c>
       <c r="N79" s="36" t="s">
-        <v>344</v>
-      </c>
-      <c r="O79" s="15"/>
+        <v>341</v>
+      </c>
+      <c r="O79" s="46"/>
       <c r="P79" s="2" t="s">
         <v>13</v>
       </c>
@@ -6975,25 +7205,27 @@
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
       <c r="D80" s="35" t="s">
-        <v>686</v>
+        <v>679</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F80" s="4" t="s">
         <v>7</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H80" s="36"/>
       <c r="I80" s="36"/>
-      <c r="J80" s="26"/>
+      <c r="J80" s="48" t="s">
+        <v>805</v>
+      </c>
       <c r="K80" s="42"/>
       <c r="L80" s="37"/>
       <c r="M80" s="37"/>
       <c r="N80" s="36"/>
-      <c r="O80" s="15"/>
+      <c r="O80" s="46"/>
       <c r="P80" s="2"/>
     </row>
     <row r="81" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -7001,25 +7233,27 @@
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
       <c r="D81" s="35" t="s">
-        <v>687</v>
+        <v>680</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H81" s="36"/>
       <c r="I81" s="36"/>
-      <c r="J81" s="26"/>
+      <c r="J81" s="48" t="s">
+        <v>806</v>
+      </c>
       <c r="K81" s="42"/>
       <c r="L81" s="37"/>
       <c r="M81" s="37"/>
       <c r="N81" s="36"/>
-      <c r="O81" s="15"/>
+      <c r="O81" s="46"/>
       <c r="P81" s="2"/>
     </row>
     <row r="82" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -7027,27 +7261,29 @@
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
       <c r="D82" s="35" t="s">
-        <v>688</v>
+        <v>681</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F82" s="4" t="s">
         <v>3</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H82" s="36"/>
       <c r="I82" s="36"/>
-      <c r="J82" s="26"/>
+      <c r="J82" s="48" t="s">
+        <v>805</v>
+      </c>
       <c r="K82" s="42"/>
       <c r="L82" s="37"/>
       <c r="M82" s="37"/>
       <c r="N82" s="36"/>
-      <c r="O82" s="15"/>
+      <c r="O82" s="46"/>
       <c r="P82" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="83" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -7055,25 +7291,27 @@
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
       <c r="D83" s="35" t="s">
-        <v>689</v>
+        <v>682</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F83" s="4" t="s">
         <v>1</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H83" s="36"/>
       <c r="I83" s="36"/>
-      <c r="J83" s="26"/>
+      <c r="J83" s="48" t="s">
+        <v>808</v>
+      </c>
       <c r="K83" s="42"/>
       <c r="L83" s="37"/>
       <c r="M83" s="37"/>
       <c r="N83" s="36"/>
-      <c r="O83" s="15"/>
+      <c r="O83" s="46"/>
       <c r="P83" s="2"/>
     </row>
     <row r="84" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -7081,29 +7319,29 @@
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
       <c r="D84" s="35" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F84" s="4" t="s">
         <v>3</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H84" s="36"/>
       <c r="I84" s="36"/>
-      <c r="J84" s="26" t="s">
-        <v>412</v>
+      <c r="J84" s="48" t="s">
+        <v>409</v>
       </c>
       <c r="K84" s="42"/>
       <c r="L84" s="37"/>
       <c r="M84" s="37" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="N84" s="36"/>
-      <c r="O84" s="15"/>
+      <c r="O84" s="46"/>
       <c r="P84" s="2"/>
     </row>
     <row r="85" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -7111,13 +7349,13 @@
         <v>5</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D85" s="35" t="s">
-        <v>691</v>
+        <v>684</v>
       </c>
       <c r="E85" s="5" t="s">
         <v>55</v>
@@ -7128,18 +7366,16 @@
       <c r="G85" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="H85" s="36" t="s">
-        <v>306</v>
-      </c>
+      <c r="H85" s="36"/>
       <c r="I85" s="36"/>
-      <c r="J85" s="26"/>
+      <c r="J85" s="48" t="s">
+        <v>804</v>
+      </c>
       <c r="K85" s="42"/>
       <c r="L85" s="37"/>
-      <c r="M85" s="37" t="s">
-        <v>465</v>
-      </c>
+      <c r="M85" s="37"/>
       <c r="N85" s="36"/>
-      <c r="O85" s="15"/>
+      <c r="O85" s="46"/>
       <c r="P85" s="2"/>
     </row>
     <row r="86" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -7147,37 +7383,37 @@
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
       <c r="D86" s="35" t="s">
-        <v>692</v>
+        <v>685</v>
       </c>
       <c r="E86" s="22" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G86" s="28" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="H86" s="36" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I86" s="36" t="s">
-        <v>313</v>
-      </c>
-      <c r="J86" s="26" t="s">
-        <v>390</v>
+        <v>312</v>
+      </c>
+      <c r="J86" s="48" t="s">
+        <v>387</v>
       </c>
       <c r="K86" s="42"/>
       <c r="L86" s="37"/>
       <c r="M86" s="37" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="N86" s="36" t="s">
-        <v>344</v>
-      </c>
-      <c r="O86" s="15"/>
+        <v>341</v>
+      </c>
+      <c r="O86" s="46"/>
       <c r="P86" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="87" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -7185,57 +7421,61 @@
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
       <c r="D87" s="35" t="s">
-        <v>693</v>
+        <v>686</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F87" s="4" t="s">
         <v>7</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H87" s="36" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I87" s="36"/>
-      <c r="J87" s="26"/>
+      <c r="J87" s="48" t="s">
+        <v>805</v>
+      </c>
       <c r="K87" s="42"/>
       <c r="L87" s="37"/>
       <c r="M87" s="37"/>
       <c r="N87" s="36"/>
-      <c r="O87" s="15"/>
+      <c r="O87" s="46"/>
       <c r="P87" s="2"/>
     </row>
     <row r="88" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="6"/>
       <c r="B88" s="5"/>
       <c r="C88" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D88" s="35" t="s">
-        <v>694</v>
+        <v>687</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F88" s="4" t="s">
         <v>7</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H88" s="36" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I88" s="36"/>
-      <c r="J88" s="26"/>
+      <c r="J88" s="48" t="s">
+        <v>806</v>
+      </c>
       <c r="K88" s="42"/>
       <c r="L88" s="37"/>
       <c r="M88" s="37"/>
       <c r="N88" s="36"/>
-      <c r="O88" s="15"/>
+      <c r="O88" s="46"/>
       <c r="P88" s="2"/>
     </row>
     <row r="89" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -7243,27 +7483,29 @@
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
       <c r="D89" s="35" t="s">
-        <v>695</v>
+        <v>688</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H89" s="36" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I89" s="36"/>
-      <c r="J89" s="26"/>
+      <c r="J89" s="48" t="s">
+        <v>805</v>
+      </c>
       <c r="K89" s="42"/>
       <c r="L89" s="37"/>
       <c r="M89" s="37"/>
       <c r="N89" s="36"/>
-      <c r="O89" s="15"/>
+      <c r="O89" s="46"/>
       <c r="P89" s="2"/>
     </row>
     <row r="90" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -7271,27 +7513,29 @@
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
       <c r="D90" s="35" t="s">
-        <v>696</v>
+        <v>689</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F90" s="4" t="s">
         <v>3</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H90" s="36" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I90" s="36"/>
-      <c r="J90" s="26"/>
+      <c r="J90" s="48" t="s">
+        <v>805</v>
+      </c>
       <c r="K90" s="42"/>
       <c r="L90" s="37"/>
       <c r="M90" s="37"/>
       <c r="N90" s="36"/>
-      <c r="O90" s="15"/>
+      <c r="O90" s="46"/>
       <c r="P90" s="2"/>
     </row>
     <row r="91" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -7299,65 +7543,67 @@
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
       <c r="D91" s="35" t="s">
-        <v>697</v>
+        <v>690</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F91" s="4" t="s">
         <v>3</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H91" s="36" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I91" s="36"/>
-      <c r="J91" s="26"/>
+      <c r="J91" s="48" t="s">
+        <v>806</v>
+      </c>
       <c r="K91" s="42"/>
       <c r="L91" s="37"/>
       <c r="M91" s="37"/>
       <c r="N91" s="36"/>
-      <c r="O91" s="15"/>
+      <c r="O91" s="46"/>
       <c r="P91" s="2"/>
     </row>
     <row r="92" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="6"/>
       <c r="B92" s="5"/>
       <c r="C92" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D92" s="35" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
       <c r="E92" s="22" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F92" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G92" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H92" s="36" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I92" s="36" t="s">
-        <v>313</v>
-      </c>
-      <c r="J92" s="26" t="s">
-        <v>390</v>
+        <v>312</v>
+      </c>
+      <c r="J92" s="48" t="s">
+        <v>387</v>
       </c>
       <c r="K92" s="42"/>
       <c r="L92" s="37"/>
       <c r="M92" s="37" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="N92" s="36" t="s">
-        <v>349</v>
-      </c>
-      <c r="O92" s="15"/>
+        <v>346</v>
+      </c>
+      <c r="O92" s="46"/>
       <c r="P92" s="2" t="s">
         <v>13</v>
       </c>
@@ -7367,35 +7613,35 @@
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
       <c r="D93" s="35" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="E93" s="22" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F93" s="4" t="s">
         <v>3</v>
       </c>
       <c r="G93" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H93" s="36" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I93" s="36" t="s">
-        <v>313</v>
-      </c>
-      <c r="J93" s="26" t="s">
-        <v>383</v>
+        <v>312</v>
+      </c>
+      <c r="J93" s="48" t="s">
+        <v>380</v>
       </c>
       <c r="K93" s="42"/>
       <c r="L93" s="37"/>
       <c r="M93" s="37" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="N93" s="36" t="s">
-        <v>344</v>
-      </c>
-      <c r="O93" s="15"/>
+        <v>341</v>
+      </c>
+      <c r="O93" s="46"/>
       <c r="P93" s="2" t="s">
         <v>13</v>
       </c>
@@ -7403,35 +7649,35 @@
     <row r="94" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="6"/>
       <c r="D94" s="35" t="s">
-        <v>700</v>
+        <v>693</v>
       </c>
       <c r="E94" s="22" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F94" s="4" t="s">
         <v>3</v>
       </c>
       <c r="G94" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H94" s="36" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I94" s="36" t="s">
-        <v>313</v>
-      </c>
-      <c r="J94" s="26" t="s">
-        <v>390</v>
+        <v>312</v>
+      </c>
+      <c r="J94" s="48" t="s">
+        <v>387</v>
       </c>
       <c r="K94" s="42"/>
       <c r="L94" s="37"/>
       <c r="M94" s="37" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="N94" s="36" t="s">
-        <v>344</v>
-      </c>
-      <c r="O94" s="15"/>
+        <v>341</v>
+      </c>
+      <c r="O94" s="46"/>
       <c r="P94" s="2" t="s">
         <v>13</v>
       </c>
@@ -7439,13 +7685,13 @@
     <row r="95" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="6"/>
       <c r="C95" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D95" s="35" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
       <c r="E95" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F95" s="4" t="s">
         <v>7</v>
@@ -7454,41 +7700,45 @@
         <v>74</v>
       </c>
       <c r="H95" s="36" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I95" s="36"/>
-      <c r="J95" s="26"/>
+      <c r="J95" s="48" t="s">
+        <v>804</v>
+      </c>
       <c r="K95" s="42"/>
       <c r="L95" s="37"/>
       <c r="M95" s="37"/>
       <c r="N95" s="36"/>
-      <c r="O95" s="15"/>
+      <c r="O95" s="46"/>
       <c r="P95" s="2"/>
     </row>
     <row r="96" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="6"/>
       <c r="D96" s="35" t="s">
-        <v>702</v>
+        <v>695</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F96" s="4" t="s">
         <v>7</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H96" s="36" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I96" s="36"/>
-      <c r="J96" s="26"/>
+      <c r="J96" s="48" t="s">
+        <v>804</v>
+      </c>
       <c r="K96" s="42"/>
       <c r="L96" s="37"/>
       <c r="M96" s="37"/>
       <c r="N96" s="36"/>
-      <c r="O96" s="15"/>
+      <c r="O96" s="46"/>
       <c r="P96" s="2"/>
     </row>
     <row r="97" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -7496,282 +7746,296 @@
         <v>6</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D97" s="35" t="s">
-        <v>703</v>
+        <v>696</v>
       </c>
       <c r="E97" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F97" s="4" t="s">
         <v>7</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="H97" s="36" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I97" s="36"/>
-      <c r="J97" s="26"/>
+      <c r="J97" s="48" t="s">
+        <v>599</v>
+      </c>
       <c r="K97" s="42"/>
       <c r="L97" s="37" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="M97" s="37" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="N97" s="36"/>
-      <c r="O97" s="15"/>
+      <c r="O97" s="46"/>
       <c r="P97" s="2"/>
     </row>
     <row r="98" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="6"/>
       <c r="D98" s="35" t="s">
-        <v>704</v>
+        <v>697</v>
       </c>
       <c r="E98" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G98" s="28" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="H98" s="36" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I98" s="36"/>
-      <c r="J98" s="26"/>
+      <c r="J98" s="48" t="s">
+        <v>790</v>
+      </c>
       <c r="K98" s="42"/>
       <c r="L98" s="37"/>
-      <c r="M98" s="37"/>
+      <c r="M98" s="37" t="s">
+        <v>793</v>
+      </c>
       <c r="N98" s="36"/>
-      <c r="O98" s="15"/>
+      <c r="O98" s="46"/>
       <c r="P98" s="2"/>
     </row>
     <row r="99" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="6"/>
       <c r="D99" s="35" t="s">
-        <v>705</v>
+        <v>698</v>
       </c>
       <c r="E99" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F99" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="H99" s="36" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I99" s="36"/>
-      <c r="J99" s="26" t="s">
-        <v>383</v>
+      <c r="J99" s="48" t="s">
+        <v>380</v>
       </c>
       <c r="K99" s="42"/>
       <c r="L99" s="37" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="M99" s="37" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="N99" s="36"/>
-      <c r="O99" s="15"/>
+      <c r="O99" s="46"/>
       <c r="P99" s="2"/>
     </row>
     <row r="100" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="6"/>
       <c r="D100" s="35" t="s">
-        <v>706</v>
+        <v>699</v>
       </c>
       <c r="E100" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F100" s="4" t="s">
         <v>3</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H100" s="36" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I100" s="36"/>
-      <c r="J100" s="26"/>
+      <c r="J100" s="48" t="s">
+        <v>794</v>
+      </c>
       <c r="K100" s="42"/>
       <c r="L100" s="37"/>
       <c r="M100" s="37" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="N100" s="36"/>
-      <c r="O100" s="15"/>
+      <c r="O100" s="46"/>
       <c r="P100" s="2"/>
     </row>
     <row r="101" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="6"/>
       <c r="D101" s="35" t="s">
-        <v>707</v>
+        <v>700</v>
       </c>
       <c r="E101" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F101" s="4" t="s">
         <v>1</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H101" s="36" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I101" s="36"/>
-      <c r="J101" s="26"/>
+      <c r="J101" s="48" t="s">
+        <v>790</v>
+      </c>
       <c r="K101" s="42"/>
       <c r="L101" s="37"/>
       <c r="M101" s="37" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="N101" s="36"/>
-      <c r="O101" s="15"/>
+      <c r="O101" s="46"/>
       <c r="P101" s="2"/>
     </row>
     <row r="102" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="6"/>
       <c r="C102" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D102" s="35" t="s">
-        <v>708</v>
+        <v>701</v>
       </c>
       <c r="E102" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F102" s="4" t="s">
         <v>7</v>
       </c>
       <c r="G102" s="17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H102" s="36" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I102" s="36"/>
-      <c r="J102" s="26"/>
+      <c r="J102" s="48" t="s">
+        <v>792</v>
+      </c>
       <c r="K102" s="42"/>
-      <c r="L102" s="37" t="s">
-        <v>504</v>
+      <c r="L102" s="40" t="s">
+        <v>498</v>
       </c>
       <c r="M102" s="39" t="s">
-        <v>315</v>
+        <v>795</v>
       </c>
       <c r="N102" s="36"/>
-      <c r="O102" s="15"/>
+      <c r="O102" s="46"/>
       <c r="P102" s="2"/>
     </row>
     <row r="103" spans="1:16" s="5" customFormat="1" ht="80.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="6"/>
       <c r="D103" s="35" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="E103" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G103" s="18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H103" s="36" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I103" s="36"/>
-      <c r="J103" s="26" t="s">
-        <v>383</v>
+      <c r="J103" s="48" t="s">
+        <v>380</v>
       </c>
       <c r="K103" s="43"/>
       <c r="L103" s="38" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="M103" s="38" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="N103" s="36" t="s">
-        <v>366</v>
-      </c>
-      <c r="O103" s="15"/>
+        <v>363</v>
+      </c>
+      <c r="O103" s="46"/>
       <c r="P103" s="2"/>
     </row>
     <row r="104" spans="1:16" s="5" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="6"/>
       <c r="D104" s="35" t="s">
-        <v>710</v>
+        <v>703</v>
       </c>
       <c r="E104" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G104" s="17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H104" s="36" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I104" s="36"/>
-      <c r="J104" s="26" t="s">
-        <v>385</v>
+      <c r="J104" s="48" t="s">
+        <v>382</v>
       </c>
       <c r="K104" s="42"/>
       <c r="L104" s="37" t="s">
+        <v>323</v>
+      </c>
+      <c r="M104" s="37" t="s">
+        <v>416</v>
+      </c>
+      <c r="N104" s="36" t="s">
         <v>326</v>
       </c>
-      <c r="M104" s="37" t="s">
-        <v>419</v>
-      </c>
-      <c r="N104" s="36" t="s">
-        <v>329</v>
-      </c>
-      <c r="O104" s="15"/>
+      <c r="O104" s="46"/>
       <c r="P104" s="2"/>
     </row>
     <row r="105" spans="1:16" s="5" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="6"/>
       <c r="D105" s="35" t="s">
-        <v>711</v>
+        <v>704</v>
       </c>
       <c r="E105" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G105" s="17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H105" s="36" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I105" s="36"/>
-      <c r="J105" s="26"/>
+      <c r="J105" s="48" t="s">
+        <v>812</v>
+      </c>
       <c r="K105" s="42"/>
       <c r="L105" s="37" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="M105" s="37" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="N105" s="36"/>
-      <c r="O105" s="15"/>
+      <c r="O105" s="46"/>
       <c r="P105" s="2"/>
     </row>
     <row r="106" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -7779,67 +8043,71 @@
         <v>7</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C106" s="25" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D106" s="35" t="s">
-        <v>712</v>
+        <v>705</v>
       </c>
       <c r="E106" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F106" s="4" t="s">
         <v>7</v>
       </c>
       <c r="G106" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H106" s="36" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I106" s="36"/>
-      <c r="J106" s="26"/>
+      <c r="J106" s="48" t="s">
+        <v>812</v>
+      </c>
       <c r="K106" s="42"/>
       <c r="L106" s="37" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="M106" s="39" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="N106" s="36"/>
-      <c r="O106" s="15"/>
+      <c r="O106" s="46"/>
       <c r="P106" s="2"/>
     </row>
     <row r="107" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="6"/>
       <c r="D107" s="35" t="s">
-        <v>713</v>
+        <v>706</v>
       </c>
       <c r="E107" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G107" s="32" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="H107" s="36" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I107" s="36"/>
-      <c r="J107" s="26"/>
+      <c r="J107" s="48" t="s">
+        <v>812</v>
+      </c>
       <c r="K107" s="42"/>
       <c r="L107" s="37" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="M107" s="39" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="N107" s="36"/>
-      <c r="O107" s="15"/>
+      <c r="O107" s="46"/>
       <c r="P107" s="2"/>
     </row>
     <row r="108" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -7847,33 +8115,33 @@
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
       <c r="D108" s="35" t="s">
-        <v>714</v>
+        <v>707</v>
       </c>
       <c r="E108" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F108" s="4" t="s">
         <v>7</v>
       </c>
       <c r="G108" s="28" t="s">
+        <v>405</v>
+      </c>
+      <c r="H108" s="36" t="s">
+        <v>303</v>
+      </c>
+      <c r="I108" s="36"/>
+      <c r="J108" s="48" t="s">
         <v>408</v>
-      </c>
-      <c r="H108" s="36" t="s">
-        <v>304</v>
-      </c>
-      <c r="I108" s="36"/>
-      <c r="J108" s="26" t="s">
-        <v>411</v>
       </c>
       <c r="K108" s="42"/>
       <c r="L108" s="37" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="M108" s="37" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="N108" s="36"/>
-      <c r="O108" s="15"/>
+      <c r="O108" s="46"/>
       <c r="P108" s="2"/>
     </row>
     <row r="109" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -7881,31 +8149,33 @@
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
       <c r="D109" s="35" t="s">
-        <v>715</v>
+        <v>708</v>
       </c>
       <c r="E109" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F109" s="4" t="s">
         <v>3</v>
       </c>
       <c r="G109" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H109" s="36" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I109" s="36"/>
-      <c r="J109" s="26"/>
+      <c r="J109" s="48" t="s">
+        <v>812</v>
+      </c>
       <c r="K109" s="42"/>
       <c r="L109" s="37" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="M109" s="37" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="N109" s="36"/>
-      <c r="O109" s="15"/>
+      <c r="O109" s="46"/>
       <c r="P109" s="2"/>
     </row>
     <row r="110" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -7913,65 +8183,69 @@
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
       <c r="D110" s="35" t="s">
-        <v>716</v>
+        <v>709</v>
       </c>
       <c r="E110" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F110" s="4" t="s">
         <v>3</v>
       </c>
       <c r="G110" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H110" s="36" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I110" s="36"/>
-      <c r="J110" s="26"/>
+      <c r="J110" s="48" t="s">
+        <v>812</v>
+      </c>
       <c r="K110" s="42"/>
       <c r="L110" s="37" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="M110" s="37" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="N110" s="36"/>
-      <c r="O110" s="15"/>
+      <c r="O110" s="46"/>
       <c r="P110" s="2"/>
     </row>
     <row r="111" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="6"/>
       <c r="B111" s="5"/>
       <c r="C111" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D111" s="35" t="s">
-        <v>717</v>
+        <v>710</v>
       </c>
       <c r="E111" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F111" s="4" t="s">
         <v>7</v>
       </c>
       <c r="G111" s="17" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="H111" s="36" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I111" s="36"/>
-      <c r="J111" s="26"/>
+      <c r="J111" s="48" t="s">
+        <v>812</v>
+      </c>
       <c r="K111" s="42"/>
       <c r="L111" s="37" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="M111" s="37" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="N111" s="36"/>
-      <c r="O111" s="15"/>
+      <c r="O111" s="46"/>
       <c r="P111" s="2"/>
     </row>
     <row r="112" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -7979,37 +8253,37 @@
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
       <c r="D112" s="35" t="s">
-        <v>718</v>
+        <v>711</v>
       </c>
       <c r="E112" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F112" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G112" s="17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H112" s="36" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I112" s="36"/>
-      <c r="J112" s="26" t="s">
-        <v>412</v>
+      <c r="J112" s="48" t="s">
+        <v>409</v>
       </c>
       <c r="K112" s="42"/>
       <c r="L112" s="37" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="M112" s="37" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="N112" s="36" t="s">
-        <v>494</v>
-      </c>
-      <c r="O112" s="15"/>
+        <v>488</v>
+      </c>
+      <c r="O112" s="46"/>
       <c r="P112" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="113" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -8017,35 +8291,35 @@
       <c r="B113" s="5"/>
       <c r="C113" s="5"/>
       <c r="D113" s="35" t="s">
-        <v>719</v>
+        <v>712</v>
       </c>
       <c r="E113" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F113" s="4" t="s">
         <v>3</v>
       </c>
       <c r="G113" s="17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H113" s="36" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I113" s="36"/>
-      <c r="J113" s="26" t="s">
-        <v>404</v>
+      <c r="J113" s="48" t="s">
+        <v>401</v>
       </c>
       <c r="K113" s="42"/>
       <c r="L113" s="37" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="M113" s="37" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="N113" s="36"/>
-      <c r="O113" s="15"/>
+      <c r="O113" s="46"/>
       <c r="P113" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="114" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -8053,61 +8327,65 @@
       <c r="B114" s="5"/>
       <c r="C114" s="5"/>
       <c r="D114" s="35" t="s">
-        <v>720</v>
+        <v>713</v>
       </c>
       <c r="E114" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F114" s="4" t="s">
         <v>1</v>
       </c>
       <c r="G114" s="17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H114" s="36" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I114" s="36"/>
-      <c r="J114" s="26"/>
+      <c r="J114" s="48" t="s">
+        <v>812</v>
+      </c>
       <c r="K114" s="42"/>
       <c r="L114" s="37"/>
       <c r="M114" s="37" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="N114" s="36"/>
-      <c r="O114" s="15"/>
+      <c r="O114" s="46"/>
       <c r="P114" s="2"/>
     </row>
     <row r="115" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="6"/>
       <c r="B115" s="5"/>
       <c r="C115" s="25" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D115" s="35" t="s">
-        <v>721</v>
+        <v>714</v>
       </c>
       <c r="E115" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F115" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G115" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H115" s="36" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I115" s="36"/>
-      <c r="J115" s="26"/>
+      <c r="J115" s="48" t="s">
+        <v>812</v>
+      </c>
       <c r="K115" s="42"/>
       <c r="L115" s="37"/>
       <c r="M115" s="37" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="N115" s="36"/>
-      <c r="O115" s="15"/>
+      <c r="O115" s="46"/>
       <c r="P115" s="2"/>
     </row>
     <row r="116" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -8115,31 +8393,33 @@
       <c r="B116" s="5"/>
       <c r="C116" s="5"/>
       <c r="D116" s="35" t="s">
-        <v>722</v>
+        <v>715</v>
       </c>
       <c r="E116" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F116" s="4" t="s">
         <v>3</v>
       </c>
       <c r="G116" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H116" s="36" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I116" s="36"/>
-      <c r="J116" s="26"/>
+      <c r="J116" s="48" t="s">
+        <v>812</v>
+      </c>
       <c r="K116" s="42"/>
       <c r="L116" s="37" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="M116" s="37" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="N116" s="36"/>
-      <c r="O116" s="15"/>
+      <c r="O116" s="46"/>
       <c r="P116" s="2"/>
     </row>
     <row r="117" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -8147,29 +8427,31 @@
       <c r="B117" s="5"/>
       <c r="C117" s="5"/>
       <c r="D117" s="35" t="s">
-        <v>723</v>
+        <v>716</v>
       </c>
       <c r="E117" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F117" s="4" t="s">
         <v>1</v>
       </c>
       <c r="G117" s="17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H117" s="36" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I117" s="36"/>
-      <c r="J117" s="26"/>
+      <c r="J117" s="48" t="s">
+        <v>812</v>
+      </c>
       <c r="K117" s="42"/>
       <c r="L117" s="37"/>
       <c r="M117" s="37" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="N117" s="36"/>
-      <c r="O117" s="15"/>
+      <c r="O117" s="46"/>
       <c r="P117" s="2"/>
     </row>
     <row r="118" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -8177,13 +8459,13 @@
         <v>8</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D118" s="35" t="s">
-        <v>724</v>
+        <v>717</v>
       </c>
       <c r="E118" s="5" t="s">
         <v>55</v>
@@ -8195,15 +8477,17 @@
         <v>74</v>
       </c>
       <c r="H118" s="36" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I118" s="36"/>
-      <c r="J118" s="26"/>
+      <c r="J118" s="48" t="s">
+        <v>809</v>
+      </c>
       <c r="K118" s="42"/>
       <c r="L118" s="37"/>
       <c r="M118" s="37"/>
       <c r="N118" s="36"/>
-      <c r="O118" s="15"/>
+      <c r="O118" s="46"/>
       <c r="P118" s="2"/>
     </row>
     <row r="119" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -8211,33 +8495,35 @@
       <c r="B119" s="5"/>
       <c r="C119" s="5"/>
       <c r="D119" s="35" t="s">
-        <v>725</v>
+        <v>718</v>
       </c>
       <c r="E119" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F119" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G119" s="28" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="H119" s="36" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I119" s="36"/>
-      <c r="J119" s="26"/>
+      <c r="J119" s="48" t="s">
+        <v>812</v>
+      </c>
       <c r="K119" s="42"/>
       <c r="L119" s="37" t="s">
-        <v>451</v>
+        <v>796</v>
       </c>
       <c r="M119" s="37" t="s">
-        <v>452</v>
+        <v>810</v>
       </c>
       <c r="N119" s="36"/>
-      <c r="O119" s="15"/>
+      <c r="O119" s="46"/>
       <c r="P119" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="120" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -8245,35 +8531,37 @@
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
       <c r="D120" s="35" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="E120" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F120" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G120" s="28" t="s">
-        <v>583</v>
+        <v>576</v>
       </c>
       <c r="H120" s="36" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I120" s="36" t="s">
-        <v>313</v>
-      </c>
-      <c r="J120" s="26"/>
+        <v>312</v>
+      </c>
+      <c r="J120" s="48" t="s">
+        <v>812</v>
+      </c>
       <c r="K120" s="42"/>
       <c r="L120" s="37" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="M120" s="37" t="s">
-        <v>453</v>
+        <v>811</v>
       </c>
       <c r="N120" s="36" t="s">
-        <v>372</v>
-      </c>
-      <c r="O120" s="15"/>
+        <v>369</v>
+      </c>
+      <c r="O120" s="46"/>
       <c r="P120" s="2" t="s">
         <v>13</v>
       </c>
@@ -8282,10 +8570,10 @@
       <c r="A121" s="6"/>
       <c r="B121" s="5"/>
       <c r="C121" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D121" s="35" t="s">
-        <v>727</v>
+        <v>720</v>
       </c>
       <c r="E121" s="5" t="s">
         <v>55</v>
@@ -8297,15 +8585,17 @@
         <v>74</v>
       </c>
       <c r="H121" s="36" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I121" s="36"/>
-      <c r="J121" s="26"/>
+      <c r="J121" s="48" t="s">
+        <v>805</v>
+      </c>
       <c r="K121" s="42"/>
       <c r="L121" s="37"/>
       <c r="M121" s="37"/>
       <c r="N121" s="36"/>
-      <c r="O121" s="15"/>
+      <c r="O121" s="46"/>
       <c r="P121" s="2"/>
     </row>
     <row r="122" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -8313,35 +8603,35 @@
       <c r="B122" s="5"/>
       <c r="C122" s="5"/>
       <c r="D122" s="35" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
       <c r="E122" s="27" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F122" s="4" t="s">
         <v>7</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="H122" s="36" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I122" s="36" t="s">
-        <v>313</v>
-      </c>
-      <c r="J122" s="26" t="s">
-        <v>385</v>
+        <v>312</v>
+      </c>
+      <c r="J122" s="48" t="s">
+        <v>382</v>
       </c>
       <c r="K122" s="42"/>
       <c r="L122" s="37"/>
       <c r="M122" s="37"/>
       <c r="N122" s="36" t="s">
-        <v>344</v>
-      </c>
-      <c r="O122" s="15"/>
+        <v>341</v>
+      </c>
+      <c r="O122" s="46"/>
       <c r="P122" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="123" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -8349,33 +8639,33 @@
       <c r="B123" s="5"/>
       <c r="C123" s="5"/>
       <c r="D123" s="35" t="s">
-        <v>729</v>
+        <v>722</v>
       </c>
       <c r="E123" s="27" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="F123" s="4" t="s">
         <v>7</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="H123" s="36" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I123" s="36" t="s">
-        <v>308</v>
-      </c>
-      <c r="J123" s="26" t="s">
-        <v>383</v>
+        <v>307</v>
+      </c>
+      <c r="J123" s="48" t="s">
+        <v>380</v>
       </c>
       <c r="K123" s="42"/>
       <c r="L123" s="37"/>
       <c r="M123" s="37"/>
       <c r="N123" s="36" t="s">
-        <v>344</v>
-      </c>
-      <c r="O123" s="15"/>
+        <v>341</v>
+      </c>
+      <c r="O123" s="46"/>
       <c r="P123" s="2" t="s">
         <v>13</v>
       </c>
@@ -8385,27 +8675,33 @@
       <c r="B124" s="5"/>
       <c r="C124" s="5"/>
       <c r="D124" s="35" t="s">
-        <v>730</v>
+        <v>723</v>
       </c>
       <c r="E124" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F124" s="4" t="s">
         <v>7</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>81</v>
+        <v>797</v>
       </c>
       <c r="H124" s="36" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I124" s="36"/>
-      <c r="J124" s="26"/>
+      <c r="J124" s="48" t="s">
+        <v>812</v>
+      </c>
       <c r="K124" s="42"/>
-      <c r="L124" s="37"/>
-      <c r="M124" s="37"/>
+      <c r="L124" s="37" t="s">
+        <v>798</v>
+      </c>
+      <c r="M124" s="37" t="s">
+        <v>471</v>
+      </c>
       <c r="N124" s="36"/>
-      <c r="O124" s="15"/>
+      <c r="O124" s="46"/>
       <c r="P124" s="2"/>
     </row>
     <row r="125" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -8413,7 +8709,7 @@
       <c r="B125" s="5"/>
       <c r="C125" s="5"/>
       <c r="D125" s="35" t="s">
-        <v>731</v>
+        <v>724</v>
       </c>
       <c r="E125" s="5" t="s">
         <v>80</v>
@@ -8425,19 +8721,21 @@
         <v>77</v>
       </c>
       <c r="H125" s="36" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I125" s="36"/>
-      <c r="J125" s="26"/>
+      <c r="J125" s="48" t="s">
+        <v>812</v>
+      </c>
       <c r="K125" s="42"/>
       <c r="L125" s="37" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="M125" s="37" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="N125" s="36"/>
-      <c r="O125" s="15"/>
+      <c r="O125" s="46"/>
       <c r="P125" s="2"/>
     </row>
     <row r="126" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -8445,7 +8743,7 @@
       <c r="B126" s="5"/>
       <c r="C126" s="5"/>
       <c r="D126" s="35" t="s">
-        <v>732</v>
+        <v>725</v>
       </c>
       <c r="E126" s="5" t="s">
         <v>79</v>
@@ -8457,21 +8755,21 @@
         <v>77</v>
       </c>
       <c r="H126" s="36" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I126" s="36"/>
-      <c r="J126" s="26" t="s">
-        <v>412</v>
+      <c r="J126" s="48" t="s">
+        <v>409</v>
       </c>
       <c r="K126" s="42"/>
       <c r="L126" s="37" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="M126" s="37" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="N126" s="36"/>
-      <c r="O126" s="15"/>
+      <c r="O126" s="46"/>
       <c r="P126" s="2"/>
     </row>
     <row r="127" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -8479,7 +8777,7 @@
       <c r="B127" s="5"/>
       <c r="C127" s="5"/>
       <c r="D127" s="35" t="s">
-        <v>733</v>
+        <v>726</v>
       </c>
       <c r="E127" s="5" t="s">
         <v>78</v>
@@ -8491,21 +8789,21 @@
         <v>77</v>
       </c>
       <c r="H127" s="36" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I127" s="36"/>
-      <c r="J127" s="26" t="s">
-        <v>460</v>
+      <c r="J127" s="48" t="s">
+        <v>454</v>
       </c>
       <c r="K127" s="42"/>
       <c r="L127" s="37" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="M127" s="37" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="N127" s="36"/>
-      <c r="O127" s="15"/>
+      <c r="O127" s="46"/>
       <c r="P127" s="2"/>
     </row>
     <row r="128" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -8513,7 +8811,7 @@
       <c r="B128" s="5"/>
       <c r="C128" s="5"/>
       <c r="D128" s="35" t="s">
-        <v>734</v>
+        <v>727</v>
       </c>
       <c r="E128" s="5" t="s">
         <v>76</v>
@@ -8522,24 +8820,24 @@
         <v>3</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="H128" s="36" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I128" s="36"/>
-      <c r="J128" s="26" t="s">
-        <v>412</v>
+      <c r="J128" s="48" t="s">
+        <v>409</v>
       </c>
       <c r="K128" s="42"/>
       <c r="L128" s="37" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="M128" s="37" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="N128" s="36"/>
-      <c r="O128" s="15"/>
+      <c r="O128" s="46"/>
       <c r="P128" s="2"/>
     </row>
     <row r="129" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -8549,7 +8847,7 @@
         <v>75</v>
       </c>
       <c r="D129" s="35" t="s">
-        <v>735</v>
+        <v>728</v>
       </c>
       <c r="E129" s="5" t="s">
         <v>55</v>
@@ -8561,15 +8859,17 @@
         <v>74</v>
       </c>
       <c r="H129" s="36" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I129" s="36"/>
-      <c r="J129" s="26"/>
+      <c r="J129" s="48" t="s">
+        <v>805</v>
+      </c>
       <c r="K129" s="42"/>
       <c r="L129" s="37"/>
       <c r="M129" s="37"/>
       <c r="N129" s="36"/>
-      <c r="O129" s="15"/>
+      <c r="O129" s="46"/>
       <c r="P129" s="2"/>
     </row>
     <row r="130" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -8577,7 +8877,7 @@
       <c r="B130" s="5"/>
       <c r="C130" s="5"/>
       <c r="D130" s="35" t="s">
-        <v>736</v>
+        <v>729</v>
       </c>
       <c r="E130" s="27" t="s">
         <v>73</v>
@@ -8586,28 +8886,28 @@
         <v>7</v>
       </c>
       <c r="G130" s="17" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="H130" s="36" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I130" s="36" t="s">
-        <v>313</v>
-      </c>
-      <c r="J130" s="26" t="s">
-        <v>495</v>
+        <v>312</v>
+      </c>
+      <c r="J130" s="48" t="s">
+        <v>792</v>
       </c>
       <c r="K130" s="42"/>
       <c r="L130" s="37" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="M130" s="37" t="s">
-        <v>418</v>
+        <v>815</v>
       </c>
       <c r="N130" s="36" t="s">
-        <v>351</v>
-      </c>
-      <c r="O130" s="15"/>
+        <v>348</v>
+      </c>
+      <c r="O130" s="46"/>
       <c r="P130" s="2" t="s">
         <v>13</v>
       </c>
@@ -8617,35 +8917,35 @@
       <c r="B131" s="5"/>
       <c r="C131" s="5"/>
       <c r="D131" s="35" t="s">
-        <v>737</v>
+        <v>730</v>
       </c>
       <c r="E131" s="27" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="F131" s="4" t="s">
         <v>7</v>
       </c>
       <c r="G131" s="17" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="H131" s="36" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I131" s="36" t="s">
-        <v>308</v>
-      </c>
-      <c r="J131" s="26" t="s">
-        <v>383</v>
+        <v>307</v>
+      </c>
+      <c r="J131" s="48" t="s">
+        <v>380</v>
       </c>
       <c r="K131" s="42"/>
       <c r="L131" s="37"/>
       <c r="M131" s="37" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="N131" s="36" t="s">
-        <v>344</v>
-      </c>
-      <c r="O131" s="15"/>
+        <v>341</v>
+      </c>
+      <c r="O131" s="46"/>
       <c r="P131" s="2" t="s">
         <v>13</v>
       </c>
@@ -8655,7 +8955,7 @@
       <c r="B132" s="5"/>
       <c r="C132" s="5"/>
       <c r="D132" s="35" t="s">
-        <v>738</v>
+        <v>731</v>
       </c>
       <c r="E132" s="5" t="s">
         <v>72</v>
@@ -8667,19 +8967,21 @@
         <v>69</v>
       </c>
       <c r="H132" s="36" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I132" s="36"/>
-      <c r="J132" s="26"/>
+      <c r="J132" s="48" t="s">
+        <v>812</v>
+      </c>
       <c r="K132" s="42"/>
       <c r="L132" s="37" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="M132" s="37" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="N132" s="36"/>
-      <c r="O132" s="15"/>
+      <c r="O132" s="46"/>
       <c r="P132" s="2"/>
     </row>
     <row r="133" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -8687,7 +8989,7 @@
       <c r="B133" s="5"/>
       <c r="C133" s="5"/>
       <c r="D133" s="35" t="s">
-        <v>739</v>
+        <v>732</v>
       </c>
       <c r="E133" s="5" t="s">
         <v>71</v>
@@ -8699,17 +9001,19 @@
         <v>69</v>
       </c>
       <c r="H133" s="36" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I133" s="36"/>
-      <c r="J133" s="26"/>
+      <c r="J133" s="48" t="s">
+        <v>812</v>
+      </c>
       <c r="K133" s="42"/>
       <c r="L133" s="37"/>
       <c r="M133" s="37" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="N133" s="36"/>
-      <c r="O133" s="15"/>
+      <c r="O133" s="46"/>
       <c r="P133" s="2"/>
     </row>
     <row r="134" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -8717,7 +9021,7 @@
       <c r="B134" s="5"/>
       <c r="C134" s="5"/>
       <c r="D134" s="35" t="s">
-        <v>740</v>
+        <v>733</v>
       </c>
       <c r="E134" s="5" t="s">
         <v>70</v>
@@ -8729,17 +9033,19 @@
         <v>69</v>
       </c>
       <c r="H134" s="36" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I134" s="36"/>
-      <c r="J134" s="26"/>
+      <c r="J134" s="48" t="s">
+        <v>812</v>
+      </c>
       <c r="K134" s="42"/>
       <c r="L134" s="37"/>
       <c r="M134" s="37" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="N134" s="36"/>
-      <c r="O134" s="15"/>
+      <c r="O134" s="46"/>
       <c r="P134" s="2"/>
     </row>
     <row r="135" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -8747,29 +9053,29 @@
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
       <c r="D135" s="35" t="s">
-        <v>741</v>
+        <v>734</v>
       </c>
       <c r="E135" s="27" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="F135" s="4" t="s">
         <v>7</v>
       </c>
       <c r="G135" s="3" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="H135" s="36" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I135" s="36"/>
-      <c r="J135" s="26" t="s">
-        <v>554</v>
+      <c r="J135" s="48" t="s">
+        <v>547</v>
       </c>
       <c r="K135" s="42"/>
       <c r="L135" s="37"/>
       <c r="M135" s="37"/>
       <c r="N135" s="36"/>
-      <c r="O135" s="15"/>
+      <c r="O135" s="46"/>
       <c r="P135" s="2"/>
     </row>
     <row r="136" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -8777,31 +9083,31 @@
       <c r="B136" s="5"/>
       <c r="C136" s="5"/>
       <c r="D136" s="35" t="s">
-        <v>742</v>
+        <v>735</v>
       </c>
       <c r="E136" s="27" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="F136" s="4" t="s">
         <v>7</v>
       </c>
       <c r="G136" s="3" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="H136" s="36" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I136" s="36" t="s">
-        <v>308</v>
-      </c>
-      <c r="J136" s="26" t="s">
-        <v>383</v>
+        <v>307</v>
+      </c>
+      <c r="J136" s="48" t="s">
+        <v>380</v>
       </c>
       <c r="K136" s="42"/>
       <c r="L136" s="37"/>
       <c r="M136" s="37"/>
       <c r="N136" s="36"/>
-      <c r="O136" s="15"/>
+      <c r="O136" s="46"/>
       <c r="P136" s="2"/>
     </row>
     <row r="137" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -8815,7 +9121,7 @@
         <v>67</v>
       </c>
       <c r="D137" s="35" t="s">
-        <v>743</v>
+        <v>736</v>
       </c>
       <c r="E137" s="5" t="s">
         <v>66</v>
@@ -8827,15 +9133,17 @@
         <v>65</v>
       </c>
       <c r="H137" s="36" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I137" s="36"/>
-      <c r="J137" s="26"/>
+      <c r="J137" s="48" t="s">
+        <v>599</v>
+      </c>
       <c r="K137" s="42"/>
       <c r="L137" s="37"/>
       <c r="M137" s="37"/>
       <c r="N137" s="36"/>
-      <c r="O137" s="15"/>
+      <c r="O137" s="46"/>
       <c r="P137" s="2"/>
     </row>
     <row r="138" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -8845,7 +9153,7 @@
         <v>64</v>
       </c>
       <c r="D138" s="35" t="s">
-        <v>744</v>
+        <v>737</v>
       </c>
       <c r="E138" s="5" t="s">
         <v>63</v>
@@ -8857,19 +9165,21 @@
         <v>62</v>
       </c>
       <c r="H138" s="36" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I138" s="36"/>
-      <c r="J138" s="26"/>
+      <c r="J138" s="48" t="s">
+        <v>812</v>
+      </c>
       <c r="K138" s="42"/>
       <c r="L138" s="37" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="M138" s="39" t="s">
-        <v>317</v>
+        <v>799</v>
       </c>
       <c r="N138" s="36"/>
-      <c r="O138" s="15"/>
+      <c r="O138" s="46"/>
       <c r="P138" s="2" t="s">
         <v>61</v>
       </c>
@@ -8879,7 +9189,7 @@
       <c r="B139" s="5"/>
       <c r="C139" s="5"/>
       <c r="D139" s="35" t="s">
-        <v>745</v>
+        <v>738</v>
       </c>
       <c r="E139" s="5" t="s">
         <v>60</v>
@@ -8891,19 +9201,21 @@
         <v>57</v>
       </c>
       <c r="H139" s="36" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I139" s="36"/>
-      <c r="J139" s="26"/>
+      <c r="J139" s="48" t="s">
+        <v>812</v>
+      </c>
       <c r="K139" s="44"/>
       <c r="L139" s="39" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="M139" s="39" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="N139" s="36"/>
-      <c r="O139" s="15"/>
+      <c r="O139" s="46"/>
       <c r="P139" s="2"/>
     </row>
     <row r="140" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -8911,7 +9223,7 @@
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
       <c r="D140" s="35" t="s">
-        <v>746</v>
+        <v>739</v>
       </c>
       <c r="E140" s="5" t="s">
         <v>59</v>
@@ -8923,19 +9235,21 @@
         <v>57</v>
       </c>
       <c r="H140" s="36" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I140" s="36"/>
-      <c r="J140" s="26"/>
+      <c r="J140" s="48" t="s">
+        <v>812</v>
+      </c>
       <c r="K140" s="42"/>
       <c r="L140" s="37" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="M140" s="39" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="N140" s="36"/>
-      <c r="O140" s="15"/>
+      <c r="O140" s="46"/>
       <c r="P140" s="2"/>
     </row>
     <row r="141" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -8943,7 +9257,7 @@
       <c r="B141" s="5"/>
       <c r="C141" s="5"/>
       <c r="D141" s="35" t="s">
-        <v>747</v>
+        <v>740</v>
       </c>
       <c r="E141" s="5" t="s">
         <v>58</v>
@@ -8955,19 +9269,21 @@
         <v>57</v>
       </c>
       <c r="H141" s="36" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I141" s="36"/>
-      <c r="J141" s="26"/>
+      <c r="J141" s="48" t="s">
+        <v>812</v>
+      </c>
       <c r="K141" s="42"/>
       <c r="L141" s="37" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="M141" s="39" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="N141" s="36"/>
-      <c r="O141" s="15"/>
+      <c r="O141" s="46"/>
       <c r="P141" s="2"/>
     </row>
     <row r="142" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -8977,7 +9293,7 @@
         <v>56</v>
       </c>
       <c r="D142" s="35" t="s">
-        <v>748</v>
+        <v>741</v>
       </c>
       <c r="E142" s="5" t="s">
         <v>55</v>
@@ -8986,20 +9302,22 @@
         <v>7</v>
       </c>
       <c r="G142" s="4" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="H142" s="36" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I142" s="36"/>
-      <c r="J142" s="26"/>
+      <c r="J142" s="48" t="s">
+        <v>812</v>
+      </c>
       <c r="K142" s="45"/>
       <c r="L142" s="40"/>
       <c r="M142" s="39" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="N142" s="36"/>
-      <c r="O142" s="15"/>
+      <c r="O142" s="46"/>
       <c r="P142" s="2"/>
     </row>
     <row r="143" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -9007,7 +9325,7 @@
       <c r="B143" s="5"/>
       <c r="C143" s="5"/>
       <c r="D143" s="35" t="s">
-        <v>749</v>
+        <v>742</v>
       </c>
       <c r="E143" s="5" t="s">
         <v>54</v>
@@ -9016,28 +9334,28 @@
         <v>7</v>
       </c>
       <c r="G143" s="21" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="H143" s="36" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I143" s="36" t="s">
-        <v>313</v>
-      </c>
-      <c r="J143" s="26" t="s">
-        <v>384</v>
+        <v>312</v>
+      </c>
+      <c r="J143" s="48" t="s">
+        <v>381</v>
       </c>
       <c r="K143" s="45"/>
       <c r="L143" s="40" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="M143" s="36" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="N143" s="36" t="s">
-        <v>352</v>
-      </c>
-      <c r="O143" s="15"/>
+        <v>349</v>
+      </c>
+      <c r="O143" s="46"/>
       <c r="P143" s="2" t="s">
         <v>13</v>
       </c>
@@ -9047,37 +9365,37 @@
       <c r="B144" s="5"/>
       <c r="C144" s="5"/>
       <c r="D144" s="35" t="s">
-        <v>750</v>
+        <v>743</v>
       </c>
       <c r="E144" s="5" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="F144" s="4" t="s">
         <v>7</v>
       </c>
       <c r="G144" s="21" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="H144" s="36" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I144" s="36" t="s">
-        <v>308</v>
-      </c>
-      <c r="J144" s="26" t="s">
-        <v>383</v>
+        <v>307</v>
+      </c>
+      <c r="J144" s="48" t="s">
+        <v>380</v>
       </c>
       <c r="K144" s="45"/>
       <c r="L144" s="40" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="M144" s="36" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="N144" s="36" t="s">
-        <v>352</v>
-      </c>
-      <c r="O144" s="15"/>
+        <v>349</v>
+      </c>
+      <c r="O144" s="46"/>
       <c r="P144" s="2" t="s">
         <v>13</v>
       </c>
@@ -9087,7 +9405,7 @@
       <c r="B145" s="5"/>
       <c r="C145" s="5"/>
       <c r="D145" s="35" t="s">
-        <v>751</v>
+        <v>744</v>
       </c>
       <c r="E145" s="5" t="s">
         <v>53</v>
@@ -9099,19 +9417,21 @@
         <v>50</v>
       </c>
       <c r="H145" s="36" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I145" s="36"/>
-      <c r="J145" s="26"/>
+      <c r="J145" s="48" t="s">
+        <v>812</v>
+      </c>
       <c r="K145" s="46"/>
       <c r="L145" s="36" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="M145" s="36" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="N145" s="36"/>
-      <c r="O145" s="15"/>
+      <c r="O145" s="46"/>
       <c r="P145" s="2"/>
     </row>
     <row r="146" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -9119,7 +9439,7 @@
       <c r="B146" s="5"/>
       <c r="C146" s="5"/>
       <c r="D146" s="35" t="s">
-        <v>752</v>
+        <v>745</v>
       </c>
       <c r="E146" s="5" t="s">
         <v>52</v>
@@ -9131,19 +9451,21 @@
         <v>50</v>
       </c>
       <c r="H146" s="36" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I146" s="36"/>
-      <c r="J146" s="26"/>
+      <c r="J146" s="48" t="s">
+        <v>812</v>
+      </c>
       <c r="K146" s="42"/>
       <c r="L146" s="37" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="M146" s="37" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="N146" s="36"/>
-      <c r="O146" s="15"/>
+      <c r="O146" s="46"/>
       <c r="P146" s="2"/>
     </row>
     <row r="147" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -9151,7 +9473,7 @@
       <c r="B147" s="5"/>
       <c r="C147" s="5"/>
       <c r="D147" s="35" t="s">
-        <v>753</v>
+        <v>746</v>
       </c>
       <c r="E147" s="5" t="s">
         <v>51</v>
@@ -9163,19 +9485,21 @@
         <v>50</v>
       </c>
       <c r="H147" s="36" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I147" s="36"/>
-      <c r="J147" s="26"/>
+      <c r="J147" s="48" t="s">
+        <v>812</v>
+      </c>
       <c r="K147" s="42"/>
       <c r="L147" s="37" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="M147" s="37" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="N147" s="36"/>
-      <c r="O147" s="15"/>
+      <c r="O147" s="46"/>
       <c r="P147" s="2"/>
     </row>
     <row r="148" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -9183,7 +9507,7 @@
       <c r="B148" s="5"/>
       <c r="C148" s="5"/>
       <c r="D148" s="35" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="E148" s="5" t="s">
         <v>49</v>
@@ -9192,24 +9516,24 @@
         <v>3</v>
       </c>
       <c r="G148" s="3" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="H148" s="36" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I148" s="36"/>
-      <c r="J148" s="26" t="s">
-        <v>398</v>
+      <c r="J148" s="48" t="s">
+        <v>395</v>
       </c>
       <c r="K148" s="42"/>
       <c r="L148" s="37"/>
       <c r="M148" s="37" t="s">
+        <v>391</v>
+      </c>
+      <c r="N148" s="36" t="s">
         <v>394</v>
       </c>
-      <c r="N148" s="36" t="s">
-        <v>397</v>
-      </c>
-      <c r="O148" s="15"/>
+      <c r="O148" s="46"/>
       <c r="P148" s="2" t="s">
         <v>48</v>
       </c>
@@ -9221,7 +9545,7 @@
         <v>47</v>
       </c>
       <c r="D149" s="35" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
       <c r="E149" s="5" t="s">
         <v>46</v>
@@ -9230,28 +9554,28 @@
         <v>7</v>
       </c>
       <c r="G149" s="9" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="H149" s="36" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I149" s="36" t="s">
-        <v>313</v>
-      </c>
-      <c r="J149" s="26" t="s">
-        <v>385</v>
+        <v>312</v>
+      </c>
+      <c r="J149" s="48" t="s">
+        <v>382</v>
       </c>
       <c r="K149" s="45"/>
       <c r="L149" s="40" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="M149" s="39" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="N149" s="36" t="s">
-        <v>353</v>
-      </c>
-      <c r="O149" s="15"/>
+        <v>350</v>
+      </c>
+      <c r="O149" s="46"/>
       <c r="P149" s="2" t="s">
         <v>13</v>
       </c>
@@ -9261,37 +9585,37 @@
       <c r="B150" s="5"/>
       <c r="C150" s="5"/>
       <c r="D150" s="35" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="E150" s="5" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="F150" s="4" t="s">
         <v>7</v>
       </c>
       <c r="G150" s="9" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="H150" s="36" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I150" s="36" t="s">
-        <v>308</v>
-      </c>
-      <c r="J150" s="26" t="s">
-        <v>383</v>
+        <v>307</v>
+      </c>
+      <c r="J150" s="48" t="s">
+        <v>380</v>
       </c>
       <c r="K150" s="45"/>
       <c r="L150" s="40" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="M150" s="39" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="N150" s="36" t="s">
-        <v>344</v>
-      </c>
-      <c r="O150" s="15"/>
+        <v>341</v>
+      </c>
+      <c r="O150" s="46"/>
       <c r="P150" s="2" t="s">
         <v>13</v>
       </c>
@@ -9301,7 +9625,7 @@
       <c r="B151" s="5"/>
       <c r="C151" s="5"/>
       <c r="D151" s="35" t="s">
-        <v>757</v>
+        <v>750</v>
       </c>
       <c r="E151" s="5" t="s">
         <v>45</v>
@@ -9310,22 +9634,24 @@
         <v>3</v>
       </c>
       <c r="G151" s="8" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="H151" s="36" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I151" s="36"/>
-      <c r="J151" s="26"/>
+      <c r="J151" s="48" t="s">
+        <v>812</v>
+      </c>
       <c r="K151" s="46"/>
       <c r="L151" s="36" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="M151" s="36" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="N151" s="36"/>
-      <c r="O151" s="15"/>
+      <c r="O151" s="46"/>
       <c r="P151" s="2"/>
     </row>
     <row r="152" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -9333,7 +9659,7 @@
       <c r="B152" s="5"/>
       <c r="C152" s="5"/>
       <c r="D152" s="35" t="s">
-        <v>758</v>
+        <v>751</v>
       </c>
       <c r="E152" s="5" t="s">
         <v>44</v>
@@ -9345,19 +9671,21 @@
         <v>43</v>
       </c>
       <c r="H152" s="36" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I152" s="36"/>
-      <c r="J152" s="26"/>
+      <c r="J152" s="48" t="s">
+        <v>812</v>
+      </c>
       <c r="K152" s="42"/>
       <c r="L152" s="37" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="M152" s="37" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="N152" s="36"/>
-      <c r="O152" s="15"/>
+      <c r="O152" s="46"/>
       <c r="P152" s="2"/>
     </row>
     <row r="153" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -9365,7 +9693,7 @@
       <c r="B153" s="5"/>
       <c r="C153" s="5"/>
       <c r="D153" s="35" t="s">
-        <v>759</v>
+        <v>752</v>
       </c>
       <c r="E153" s="5" t="s">
         <v>42</v>
@@ -9377,23 +9705,23 @@
         <v>41</v>
       </c>
       <c r="H153" s="36" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I153" s="36"/>
-      <c r="J153" s="26" t="s">
-        <v>384</v>
+      <c r="J153" s="48" t="s">
+        <v>381</v>
       </c>
       <c r="K153" s="42"/>
       <c r="L153" s="37" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="M153" s="37" t="s">
+        <v>330</v>
+      </c>
+      <c r="N153" s="36" t="s">
         <v>333</v>
       </c>
-      <c r="N153" s="36" t="s">
-        <v>336</v>
-      </c>
-      <c r="O153" s="15"/>
+      <c r="O153" s="46"/>
       <c r="P153" s="2"/>
     </row>
     <row r="154" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -9401,7 +9729,7 @@
       <c r="B154" s="5"/>
       <c r="C154" s="5"/>
       <c r="D154" s="35" t="s">
-        <v>760</v>
+        <v>753</v>
       </c>
       <c r="E154" s="5" t="s">
         <v>40</v>
@@ -9413,19 +9741,21 @@
         <v>39</v>
       </c>
       <c r="H154" s="36" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I154" s="36"/>
-      <c r="J154" s="26"/>
+      <c r="J154" s="48" t="s">
+        <v>812</v>
+      </c>
       <c r="K154" s="42"/>
       <c r="L154" s="37" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="M154" s="39" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="N154" s="36"/>
-      <c r="O154" s="15"/>
+      <c r="O154" s="46"/>
       <c r="P154" s="2" t="s">
         <v>38</v>
       </c>
@@ -9435,7 +9765,7 @@
       <c r="B155" s="5"/>
       <c r="C155" s="5"/>
       <c r="D155" s="35" t="s">
-        <v>761</v>
+        <v>754</v>
       </c>
       <c r="E155" s="5" t="s">
         <v>37</v>
@@ -9444,22 +9774,24 @@
         <v>5</v>
       </c>
       <c r="G155" s="18" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H155" s="36" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I155" s="36"/>
-      <c r="J155" s="26"/>
+      <c r="J155" s="48" t="s">
+        <v>812</v>
+      </c>
       <c r="K155" s="43"/>
       <c r="L155" s="38" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="M155" s="39" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="N155" s="36"/>
-      <c r="O155" s="15"/>
+      <c r="O155" s="46"/>
       <c r="P155" s="2"/>
     </row>
     <row r="156" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -9467,7 +9799,7 @@
       <c r="B156" s="5"/>
       <c r="C156" s="5"/>
       <c r="D156" s="35" t="s">
-        <v>762</v>
+        <v>755</v>
       </c>
       <c r="E156" s="5" t="s">
         <v>36</v>
@@ -9479,19 +9811,21 @@
         <v>34</v>
       </c>
       <c r="H156" s="36" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I156" s="36"/>
-      <c r="J156" s="26"/>
+      <c r="J156" s="48" t="s">
+        <v>812</v>
+      </c>
       <c r="K156" s="42"/>
       <c r="L156" s="37" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="M156" s="37" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="N156" s="36"/>
-      <c r="O156" s="15"/>
+      <c r="O156" s="46"/>
       <c r="P156" s="2"/>
     </row>
     <row r="157" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -9499,7 +9833,7 @@
       <c r="B157" s="5"/>
       <c r="C157" s="5"/>
       <c r="D157" s="35" t="s">
-        <v>763</v>
+        <v>756</v>
       </c>
       <c r="E157" s="5" t="s">
         <v>35</v>
@@ -9511,17 +9845,19 @@
         <v>34</v>
       </c>
       <c r="H157" s="36" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I157" s="36"/>
-      <c r="J157" s="26"/>
+      <c r="J157" s="48" t="s">
+        <v>812</v>
+      </c>
       <c r="K157" s="42"/>
       <c r="L157" s="37"/>
       <c r="M157" s="37" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="N157" s="36"/>
-      <c r="O157" s="15"/>
+      <c r="O157" s="46"/>
       <c r="P157" s="2"/>
     </row>
     <row r="158" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -9529,7 +9865,7 @@
       <c r="B158" s="5"/>
       <c r="C158" s="5"/>
       <c r="D158" s="35" t="s">
-        <v>764</v>
+        <v>757</v>
       </c>
       <c r="E158" s="5" t="s">
         <v>33</v>
@@ -9541,19 +9877,21 @@
         <v>30</v>
       </c>
       <c r="H158" s="36" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I158" s="36"/>
-      <c r="J158" s="26"/>
+      <c r="J158" s="48" t="s">
+        <v>812</v>
+      </c>
       <c r="K158" s="42"/>
       <c r="L158" s="37" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="M158" s="37" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="N158" s="36"/>
-      <c r="O158" s="15"/>
+      <c r="O158" s="46"/>
       <c r="P158" s="2"/>
     </row>
     <row r="159" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -9561,7 +9899,7 @@
       <c r="B159" s="5"/>
       <c r="C159" s="5"/>
       <c r="D159" s="35" t="s">
-        <v>765</v>
+        <v>758</v>
       </c>
       <c r="E159" s="5" t="s">
         <v>32</v>
@@ -9573,21 +9911,21 @@
         <v>30</v>
       </c>
       <c r="H159" s="36" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I159" s="36"/>
-      <c r="J159" s="26" t="s">
-        <v>385</v>
+      <c r="J159" s="48" t="s">
+        <v>382</v>
       </c>
       <c r="K159" s="42"/>
       <c r="L159" s="37" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="M159" s="37" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="N159" s="36"/>
-      <c r="O159" s="15"/>
+      <c r="O159" s="46"/>
       <c r="P159" s="2"/>
     </row>
     <row r="160" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -9595,7 +9933,7 @@
       <c r="B160" s="5"/>
       <c r="C160" s="5"/>
       <c r="D160" s="35" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
       <c r="E160" s="5" t="s">
         <v>31</v>
@@ -9607,21 +9945,21 @@
         <v>30</v>
       </c>
       <c r="H160" s="36" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I160" s="36"/>
-      <c r="J160" s="26" t="s">
-        <v>386</v>
+      <c r="J160" s="48" t="s">
+        <v>383</v>
       </c>
       <c r="K160" s="42"/>
       <c r="L160" s="37" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="M160" s="37" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="N160" s="36"/>
-      <c r="O160" s="15"/>
+      <c r="O160" s="46"/>
       <c r="P160" s="2"/>
     </row>
     <row r="161" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -9631,7 +9969,7 @@
         <v>29</v>
       </c>
       <c r="D161" s="35" t="s">
-        <v>767</v>
+        <v>760</v>
       </c>
       <c r="E161" s="5" t="s">
         <v>28</v>
@@ -9643,19 +9981,21 @@
         <v>27</v>
       </c>
       <c r="H161" s="36" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I161" s="36"/>
-      <c r="J161" s="26"/>
+      <c r="J161" s="48" t="s">
+        <v>812</v>
+      </c>
       <c r="K161" s="42"/>
       <c r="L161" s="37" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="M161" s="39" t="s">
-        <v>320</v>
+        <v>800</v>
       </c>
       <c r="N161" s="36"/>
-      <c r="O161" s="15"/>
+      <c r="O161" s="46"/>
       <c r="P161" s="2" t="s">
         <v>26</v>
       </c>
@@ -9665,7 +10005,7 @@
       <c r="B162" s="5"/>
       <c r="C162" s="5"/>
       <c r="D162" s="35" t="s">
-        <v>768</v>
+        <v>761</v>
       </c>
       <c r="E162" s="5" t="s">
         <v>25</v>
@@ -9677,19 +10017,21 @@
         <v>22</v>
       </c>
       <c r="H162" s="36" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I162" s="36"/>
-      <c r="J162" s="26"/>
+      <c r="J162" s="48" t="s">
+        <v>812</v>
+      </c>
       <c r="K162" s="44"/>
       <c r="L162" s="39" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="M162" s="39" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="N162" s="36"/>
-      <c r="O162" s="15"/>
+      <c r="O162" s="46"/>
       <c r="P162" s="2"/>
     </row>
     <row r="163" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -9697,7 +10039,7 @@
       <c r="B163" s="5"/>
       <c r="C163" s="5"/>
       <c r="D163" s="35" t="s">
-        <v>769</v>
+        <v>762</v>
       </c>
       <c r="E163" s="5" t="s">
         <v>24</v>
@@ -9709,19 +10051,21 @@
         <v>22</v>
       </c>
       <c r="H163" s="36" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I163" s="36"/>
-      <c r="J163" s="26"/>
+      <c r="J163" s="48" t="s">
+        <v>812</v>
+      </c>
       <c r="K163" s="44"/>
       <c r="L163" s="39" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="M163" s="39" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="N163" s="36"/>
-      <c r="O163" s="15"/>
+      <c r="O163" s="46"/>
       <c r="P163" s="2"/>
     </row>
     <row r="164" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -9729,7 +10073,7 @@
       <c r="B164" s="5"/>
       <c r="C164" s="5"/>
       <c r="D164" s="35" t="s">
-        <v>770</v>
+        <v>763</v>
       </c>
       <c r="E164" s="5" t="s">
         <v>23</v>
@@ -9741,21 +10085,21 @@
         <v>22</v>
       </c>
       <c r="H164" s="36" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I164" s="36"/>
-      <c r="J164" s="26" t="s">
-        <v>385</v>
+      <c r="J164" s="48" t="s">
+        <v>382</v>
       </c>
       <c r="K164" s="44"/>
       <c r="L164" s="39" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="M164" s="39" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="N164" s="36"/>
-      <c r="O164" s="15"/>
+      <c r="O164" s="46"/>
       <c r="P164" s="2"/>
     </row>
     <row r="165" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -9765,7 +10109,7 @@
         <v>21</v>
       </c>
       <c r="D165" s="35" t="s">
-        <v>771</v>
+        <v>764</v>
       </c>
       <c r="E165" s="5" t="s">
         <v>20</v>
@@ -9777,19 +10121,23 @@
         <v>19</v>
       </c>
       <c r="H165" s="36" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I165" s="36"/>
-      <c r="J165" s="26"/>
+      <c r="J165" s="48" t="s">
+        <v>802</v>
+      </c>
       <c r="K165" s="42"/>
-      <c r="L165" s="37" t="s">
-        <v>506</v>
+      <c r="L165" s="40" t="s">
+        <v>801</v>
       </c>
       <c r="M165" s="39" t="s">
-        <v>322</v>
-      </c>
-      <c r="N165" s="36"/>
-      <c r="O165" s="15"/>
+        <v>319</v>
+      </c>
+      <c r="N165" s="36" t="s">
+        <v>803</v>
+      </c>
+      <c r="O165" s="46"/>
       <c r="P165" s="2"/>
     </row>
     <row r="166" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -9797,7 +10145,7 @@
       <c r="B166" s="5"/>
       <c r="C166" s="5"/>
       <c r="D166" s="35" t="s">
-        <v>772</v>
+        <v>765</v>
       </c>
       <c r="E166" s="5" t="s">
         <v>18</v>
@@ -9806,22 +10154,24 @@
         <v>5</v>
       </c>
       <c r="G166" s="18" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="H166" s="36" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I166" s="36"/>
-      <c r="J166" s="26"/>
+      <c r="J166" s="48" t="s">
+        <v>812</v>
+      </c>
       <c r="K166" s="46"/>
       <c r="L166" s="36" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="M166" s="36" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="N166" s="36"/>
-      <c r="O166" s="15"/>
+      <c r="O166" s="46"/>
       <c r="P166" s="2"/>
     </row>
     <row r="167" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -9829,7 +10179,7 @@
       <c r="B167" s="5"/>
       <c r="C167" s="5"/>
       <c r="D167" s="35" t="s">
-        <v>773</v>
+        <v>766</v>
       </c>
       <c r="E167" s="5" t="s">
         <v>17</v>
@@ -9841,19 +10191,21 @@
         <v>15</v>
       </c>
       <c r="H167" s="36" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I167" s="36"/>
-      <c r="J167" s="26"/>
+      <c r="J167" s="48" t="s">
+        <v>812</v>
+      </c>
       <c r="K167" s="43"/>
       <c r="L167" s="38" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="M167" s="39" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="N167" s="36"/>
-      <c r="O167" s="15"/>
+      <c r="O167" s="46"/>
       <c r="P167" s="2"/>
     </row>
     <row r="168" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -9861,7 +10213,7 @@
       <c r="B168" s="5"/>
       <c r="C168" s="5"/>
       <c r="D168" s="35" t="s">
-        <v>774</v>
+        <v>767</v>
       </c>
       <c r="E168" s="5" t="s">
         <v>16</v>
@@ -9873,21 +10225,21 @@
         <v>15</v>
       </c>
       <c r="H168" s="36" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I168" s="36"/>
-      <c r="J168" s="26" t="s">
-        <v>388</v>
+      <c r="J168" s="48" t="s">
+        <v>385</v>
       </c>
       <c r="K168" s="43"/>
       <c r="L168" s="38" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="M168" s="39" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="N168" s="36"/>
-      <c r="O168" s="15"/>
+      <c r="O168" s="46"/>
       <c r="P168" s="2"/>
     </row>
     <row r="169" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -9895,7 +10247,7 @@
       <c r="B169" s="5"/>
       <c r="C169" s="5"/>
       <c r="D169" s="35" t="s">
-        <v>775</v>
+        <v>768</v>
       </c>
       <c r="E169" s="5" t="s">
         <v>14</v>
@@ -9904,28 +10256,28 @@
         <v>7</v>
       </c>
       <c r="G169" s="31" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="H169" s="36" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I169" s="36" t="s">
-        <v>313</v>
-      </c>
-      <c r="J169" s="26" t="s">
-        <v>794</v>
+        <v>312</v>
+      </c>
+      <c r="J169" s="48" t="s">
+        <v>790</v>
       </c>
       <c r="K169" s="42"/>
       <c r="L169" s="37" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="M169" s="39" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="N169" s="36" t="s">
-        <v>344</v>
-      </c>
-      <c r="O169" s="15"/>
+        <v>341</v>
+      </c>
+      <c r="O169" s="46"/>
       <c r="P169" s="2" t="s">
         <v>13</v>
       </c>
@@ -9942,12 +10294,14 @@
       <c r="G170" s="3"/>
       <c r="H170" s="36"/>
       <c r="I170" s="36"/>
-      <c r="J170" s="26"/>
+      <c r="J170" s="48" t="s">
+        <v>814</v>
+      </c>
       <c r="K170" s="42"/>
       <c r="L170" s="37"/>
       <c r="M170" s="37"/>
       <c r="N170" s="36"/>
-      <c r="O170" s="15"/>
+      <c r="O170" s="46"/>
       <c r="P170" s="2"/>
     </row>
     <row r="171" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -9961,7 +10315,7 @@
         <v>9</v>
       </c>
       <c r="D171" s="35" t="s">
-        <v>776</v>
+        <v>769</v>
       </c>
       <c r="E171" s="22" t="s">
         <v>8</v>
@@ -9970,29 +10324,29 @@
         <v>7</v>
       </c>
       <c r="G171" s="32" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="H171" s="36" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I171" s="36" t="s">
-        <v>308</v>
-      </c>
-      <c r="J171" s="26" t="s">
-        <v>389</v>
+        <v>307</v>
+      </c>
+      <c r="J171" s="48" t="s">
+        <v>386</v>
       </c>
       <c r="K171" s="45"/>
       <c r="L171" s="40"/>
       <c r="M171" s="39"/>
       <c r="N171" s="36" t="s">
-        <v>344</v>
-      </c>
-      <c r="O171" s="15"/>
+        <v>341</v>
+      </c>
+      <c r="O171" s="46"/>
       <c r="P171" s="2"/>
     </row>
     <row r="172" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D172" s="35" t="s">
-        <v>777</v>
+        <v>770</v>
       </c>
       <c r="E172" s="22" t="s">
         <v>6</v>
@@ -10001,27 +10355,27 @@
         <v>5</v>
       </c>
       <c r="G172" s="4" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="H172" s="36" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I172" s="36" t="s">
-        <v>308</v>
-      </c>
-      <c r="J172" s="26" t="s">
-        <v>385</v>
+        <v>307</v>
+      </c>
+      <c r="J172" s="48" t="s">
+        <v>382</v>
       </c>
       <c r="K172" s="47"/>
       <c r="L172" s="41"/>
       <c r="M172" s="39"/>
       <c r="N172" s="36" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="173" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D173" s="35" t="s">
-        <v>778</v>
+        <v>771</v>
       </c>
       <c r="E173" s="22" t="s">
         <v>4</v>
@@ -10033,24 +10387,24 @@
         <v>0</v>
       </c>
       <c r="H173" s="36" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I173" s="36" t="s">
-        <v>308</v>
-      </c>
-      <c r="J173" s="26" t="s">
-        <v>385</v>
+        <v>307</v>
+      </c>
+      <c r="J173" s="48" t="s">
+        <v>382</v>
       </c>
       <c r="K173" s="44"/>
       <c r="L173" s="39"/>
       <c r="M173" s="39"/>
       <c r="N173" s="36" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="174" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D174" s="35" t="s">
-        <v>779</v>
+        <v>772</v>
       </c>
       <c r="E174" s="22" t="s">
         <v>2</v>
@@ -10062,24 +10416,29 @@
         <v>0</v>
       </c>
       <c r="H174" s="36" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I174" s="36" t="s">
-        <v>308</v>
-      </c>
-      <c r="J174" s="26" t="s">
-        <v>385</v>
+        <v>307</v>
+      </c>
+      <c r="J174" s="48" t="s">
+        <v>382</v>
       </c>
       <c r="K174" s="44"/>
       <c r="L174" s="39"/>
       <c r="M174" s="39"/>
       <c r="N174" s="36" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G19"/>
+  <autoFilter ref="A1:AL174"/>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="J1:J1048576">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>$J$5</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H1048576">
       <formula1>$AJ$5:$AJ$6</formula1>
@@ -10135,37 +10494,37 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="33" t="s">
+        <v>581</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>582</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>584</v>
+      </c>
+      <c r="D1" s="33" t="s">
+        <v>583</v>
+      </c>
+      <c r="E1" s="33" t="s">
+        <v>585</v>
+      </c>
+      <c r="F1" s="33" t="s">
+        <v>586</v>
+      </c>
+      <c r="G1" s="33" t="s">
+        <v>587</v>
+      </c>
+      <c r="H1" s="33" t="s">
         <v>588</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="I1" s="33" t="s">
+        <v>591</v>
+      </c>
+      <c r="J1" s="33" t="s">
         <v>589</v>
       </c>
-      <c r="C1" s="33" t="s">
-        <v>591</v>
-      </c>
-      <c r="D1" s="33" t="s">
+      <c r="K1" s="33" t="s">
         <v>590</v>
-      </c>
-      <c r="E1" s="33" t="s">
-        <v>592</v>
-      </c>
-      <c r="F1" s="33" t="s">
-        <v>593</v>
-      </c>
-      <c r="G1" s="33" t="s">
-        <v>594</v>
-      </c>
-      <c r="H1" s="33" t="s">
-        <v>595</v>
-      </c>
-      <c r="I1" s="33" t="s">
-        <v>598</v>
-      </c>
-      <c r="J1" s="33" t="s">
-        <v>596</v>
-      </c>
-      <c r="K1" s="33" t="s">
-        <v>597</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10173,11 +10532,11 @@
         <v>7</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="E2" s="14"/>
       <c r="F2" s="26" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="G2" s="12"/>
       <c r="H2" s="12">
@@ -10191,14 +10550,14 @@
         <v>7</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E3" s="14"/>
       <c r="F3" s="26" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="H3" s="12">
         <v>404</v>
@@ -10211,15 +10570,15 @@
         <v>7</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="E4" s="14"/>
       <c r="F4" s="26" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="G4" s="12"/>
       <c r="H4" s="12" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="I4" s="20"/>
       <c r="J4" s="15"/>
@@ -10229,15 +10588,15 @@
         <v>7</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="E5" s="14"/>
       <c r="F5" s="26" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="G5" s="12"/>
       <c r="H5" s="12" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="I5" s="20"/>
       <c r="J5" s="15"/>
@@ -10247,15 +10606,15 @@
         <v>7</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="E6" s="14"/>
       <c r="F6" s="26" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="G6" s="12"/>
       <c r="H6" s="12" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="I6" s="20"/>
       <c r="J6" s="15"/>
@@ -10265,15 +10624,15 @@
         <v>7</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="E7" s="14"/>
       <c r="F7" s="26" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="G7" s="12"/>
       <c r="H7" s="12" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="I7" s="20"/>
       <c r="J7" s="15"/>
@@ -10283,16 +10642,16 @@
         <v>7</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
       <c r="E8" s="14"/>
       <c r="F8" s="26" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
       <c r="I8" s="20" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="J8" s="15"/>
     </row>
@@ -10301,16 +10660,16 @@
         <v>7</v>
       </c>
       <c r="D9" s="29" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="E9" s="14"/>
       <c r="F9" s="26" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
       <c r="I9" s="20" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="J9" s="15"/>
     </row>
@@ -10319,17 +10678,17 @@
         <v>7</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="E10" s="14"/>
       <c r="F10" s="26" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="I10" s="20"/>
       <c r="J10" s="15"/>
@@ -10339,22 +10698,22 @@
         <v>7</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F11" s="26" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="I11" s="23" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="J11" s="15"/>
     </row>
@@ -10363,22 +10722,22 @@
         <v>3</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F12" s="26" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="I12" s="24" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="J12" s="15"/>
     </row>
@@ -10387,11 +10746,11 @@
         <v>3</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E13" s="14"/>
       <c r="F13" s="26" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
       <c r="G13" s="12"/>
       <c r="H13" s="12"/>
@@ -10403,20 +10762,20 @@
         <v>7</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
       <c r="E14" s="14"/>
       <c r="F14" s="26" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="I14" s="20" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="J14" s="15"/>
     </row>
@@ -10425,20 +10784,20 @@
         <v>7</v>
       </c>
       <c r="D15" s="28" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="E15" s="14"/>
       <c r="F15" s="26" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="I15" s="20" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="J15" s="15"/>
     </row>
@@ -10447,22 +10806,22 @@
         <v>7</v>
       </c>
       <c r="D16" s="28" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F16" s="26" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="I16" s="20" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="J16" s="15"/>
     </row>
@@ -10471,22 +10830,22 @@
         <v>5</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F17" s="26" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="H17" s="12">
         <v>404</v>
       </c>
       <c r="I17" s="24" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="J17" s="15"/>
     </row>
@@ -10495,17 +10854,17 @@
         <v>3</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F18" s="26" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="G18" s="12"/>
       <c r="H18" s="12" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="I18" s="20"/>
       <c r="J18" s="15"/>
@@ -10515,17 +10874,17 @@
         <v>1</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F19" s="26" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="G19" s="12"/>
       <c r="H19" s="12" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="I19" s="20"/>
       <c r="J19" s="15"/>
@@ -10535,20 +10894,20 @@
         <v>3</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F20" s="26" t="s">
-        <v>602</v>
+        <v>595</v>
       </c>
       <c r="G20" s="12"/>
       <c r="H20" s="12" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="I20" s="20" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="J20" s="15"/>
     </row>
@@ -10557,22 +10916,22 @@
         <v>5</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F21" s="26" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="H21" s="12" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="I21" s="20" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="J21" s="15"/>
     </row>
@@ -10581,20 +10940,20 @@
         <v>3</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F22" s="26" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
       <c r="G22" s="12"/>
       <c r="H22" s="12" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="I22" s="20" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="J22" s="15"/>
     </row>
@@ -10603,22 +10962,22 @@
         <v>7</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F23" s="26" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="I23" s="20" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="J23" s="15"/>
     </row>
@@ -10627,20 +10986,20 @@
         <v>7</v>
       </c>
       <c r="D24" s="28" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F24" s="26" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="G24" s="12"/>
       <c r="H24" s="12" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="I24" s="20" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="J24" s="15"/>
     </row>
@@ -10649,22 +11008,22 @@
         <v>7</v>
       </c>
       <c r="D25" s="28" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F25" s="26" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="G25" s="12" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="H25" s="12" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="I25" s="20" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="J25" s="15"/>
     </row>
@@ -10673,19 +11032,19 @@
         <v>5</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F26" s="26" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="G26" s="12" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="H26" s="12" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="I26" s="20"/>
       <c r="J26" s="15"/>
@@ -10695,20 +11054,20 @@
         <v>3</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F27" s="26" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="G27" s="12"/>
       <c r="H27" s="12" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="I27" s="20" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="J27" s="15"/>
     </row>
@@ -10717,20 +11076,20 @@
         <v>3</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F28" s="26" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="G28" s="12"/>
       <c r="H28" s="12" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="I28" s="20" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="J28" s="15"/>
     </row>
@@ -10739,20 +11098,20 @@
         <v>1</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F29" s="26" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="G29" s="12"/>
       <c r="H29" s="12" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="I29" s="20" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="J29" s="15"/>
     </row>
@@ -10761,17 +11120,17 @@
         <v>7</v>
       </c>
       <c r="D30" s="31" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="E30" s="14" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F30" s="26" t="s">
-        <v>604</v>
+        <v>597</v>
       </c>
       <c r="G30" s="12"/>
       <c r="H30" s="12" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="I30" s="20"/>
       <c r="J30" s="15"/>
@@ -10781,15 +11140,15 @@
         <v>7</v>
       </c>
       <c r="D31" s="28" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="E31" s="14"/>
       <c r="F31" s="26" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="G31" s="12"/>
       <c r="H31" s="12" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="I31" s="20"/>
       <c r="J31" s="15"/>
@@ -10799,18 +11158,18 @@
         <v>7</v>
       </c>
       <c r="D32" s="30" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="E32" s="14"/>
       <c r="F32" s="26" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="G32" s="12"/>
       <c r="H32" s="12" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="I32" s="20" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="J32" s="15"/>
     </row>
@@ -10819,20 +11178,20 @@
         <v>5</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E33" s="14"/>
       <c r="F33" s="26" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="G33" s="12" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="H33" s="12" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="I33" s="20" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="J33" s="15"/>
     </row>
@@ -10841,15 +11200,15 @@
         <v>3</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E34" s="14"/>
       <c r="F34" s="26" t="s">
-        <v>606</v>
+        <v>599</v>
       </c>
       <c r="G34" s="12"/>
       <c r="H34" s="12" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="I34" s="20"/>
       <c r="J34" s="15"/>
@@ -10859,18 +11218,18 @@
         <v>1</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E35" s="14"/>
       <c r="F35" s="26" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="G35" s="12"/>
       <c r="H35" s="12" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="I35" s="20" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="J35" s="15"/>
     </row>
@@ -10879,18 +11238,18 @@
         <v>7</v>
       </c>
       <c r="D36" s="31" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="E36" s="14"/>
       <c r="F36" s="26" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="G36" s="12"/>
       <c r="H36" s="12" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="I36" s="20" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="J36" s="15"/>
     </row>
@@ -10899,18 +11258,18 @@
         <v>5</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E37" s="14"/>
       <c r="F37" s="26" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="G37" s="12"/>
       <c r="H37" s="12" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="I37" s="20" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="J37" s="15"/>
     </row>
@@ -10919,18 +11278,18 @@
         <v>3</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E38" s="14"/>
       <c r="F38" s="26" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="G38" s="12"/>
       <c r="H38" s="12" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="I38" s="20" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="J38" s="15"/>
     </row>
@@ -10939,18 +11298,18 @@
         <v>1</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E39" s="14"/>
       <c r="F39" s="26" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="G39" s="12"/>
       <c r="H39" s="12" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="I39" s="20" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="J39" s="15"/>
     </row>
@@ -10959,20 +11318,20 @@
         <v>7</v>
       </c>
       <c r="D40" s="30" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="E40" s="14" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F40" s="26" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="G40" s="12"/>
       <c r="H40" s="12" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="I40" s="20" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="J40" s="15"/>
     </row>
@@ -10981,18 +11340,18 @@
         <v>7</v>
       </c>
       <c r="D41" s="30" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
       <c r="E41" s="14"/>
       <c r="F41" s="26" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="G41" s="12"/>
       <c r="H41" s="12" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="I41" s="20" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="J41" s="15"/>
     </row>
@@ -11001,15 +11360,15 @@
         <v>3</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E42" s="14"/>
       <c r="F42" s="26" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="G42" s="12"/>
       <c r="H42" s="12" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="I42" s="20"/>
       <c r="J42" s="15"/>
@@ -11019,20 +11378,20 @@
         <v>7</v>
       </c>
       <c r="D43" s="28" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="E43" s="14" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F43" s="26" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="G43" s="12"/>
       <c r="H43" s="12" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="I43" s="20" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="J43" s="15"/>
     </row>
@@ -11041,20 +11400,20 @@
         <v>5</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E44" s="14" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F44" s="26" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="G44" s="12"/>
       <c r="H44" s="12" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="I44" s="20" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="J44" s="15"/>
     </row>
@@ -11063,20 +11422,20 @@
         <v>3</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E45" s="14" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F45" s="26" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="G45" s="12"/>
       <c r="H45" s="12" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="I45" s="20" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="J45" s="15"/>
     </row>
@@ -11085,20 +11444,20 @@
         <v>3</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E46" s="14" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F46" s="26" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="G46" s="12"/>
       <c r="H46" s="12" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="I46" s="20" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="J46" s="15"/>
     </row>
@@ -11107,19 +11466,19 @@
         <v>5</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E47" s="14" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F47" s="26" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="G47" s="12" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="H47" s="12" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="I47" s="20"/>
       <c r="J47" s="15"/>
@@ -11129,46 +11488,46 @@
         <v>5</v>
       </c>
       <c r="D48" s="18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E48" s="14" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F48" s="26" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="G48" s="13" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="H48" s="13" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="I48" s="20" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="J48" s="15"/>
     </row>
     <row r="49" spans="3:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C49" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E49" s="14" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F49" s="26" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="G49" s="12" t="s">
+        <v>323</v>
+      </c>
+      <c r="H49" s="12" t="s">
+        <v>416</v>
+      </c>
+      <c r="I49" s="20" t="s">
         <v>326</v>
-      </c>
-      <c r="H49" s="12" t="s">
-        <v>419</v>
-      </c>
-      <c r="I49" s="20" t="s">
-        <v>329</v>
       </c>
       <c r="J49" s="15"/>
     </row>
@@ -11177,19 +11536,19 @@
         <v>7</v>
       </c>
       <c r="D50" s="28" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="E50" s="14" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F50" s="26" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="G50" s="12" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="H50" s="12" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="I50" s="20"/>
       <c r="J50" s="15"/>
@@ -11199,22 +11558,22 @@
         <v>5</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E51" s="14" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F51" s="26" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="G51" s="12" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="H51" s="12" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="I51" s="20" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="J51" s="15"/>
     </row>
@@ -11223,19 +11582,19 @@
         <v>3</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E52" s="14" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F52" s="26" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="G52" s="12" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="H52" s="12" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="I52" s="20"/>
       <c r="J52" s="15"/>
@@ -11245,18 +11604,18 @@
         <v>7</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="E53" s="14" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F53" s="26" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="G53" s="12"/>
       <c r="H53" s="12"/>
       <c r="I53" s="20" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="J53" s="15"/>
     </row>
@@ -11265,18 +11624,18 @@
         <v>7</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="E54" s="14" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F54" s="26" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="G54" s="12"/>
       <c r="H54" s="12"/>
       <c r="I54" s="20" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="J54" s="15"/>
     </row>
@@ -11288,16 +11647,16 @@
         <v>77</v>
       </c>
       <c r="E55" s="14" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F55" s="26" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="G55" s="12" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="H55" s="12" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="I55" s="20"/>
       <c r="J55" s="15"/>
@@ -11310,16 +11669,16 @@
         <v>77</v>
       </c>
       <c r="E56" s="14" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F56" s="26" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="G56" s="12" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="H56" s="12" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="I56" s="20"/>
       <c r="J56" s="15"/>
@@ -11329,19 +11688,19 @@
         <v>3</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="E57" s="14" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F57" s="26" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="G57" s="12" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="H57" s="12" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="I57" s="20"/>
       <c r="J57" s="15"/>
@@ -11351,22 +11710,22 @@
         <v>7</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="E58" s="14" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F58" s="26" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="G58" s="12" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="H58" s="12" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="I58" s="20" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="J58" s="15"/>
     </row>
@@ -11375,20 +11734,20 @@
         <v>7</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="E59" s="14" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F59" s="26" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="G59" s="12"/>
       <c r="H59" s="12" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="I59" s="20" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="J59" s="15"/>
     </row>
@@ -11397,13 +11756,13 @@
         <v>7</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="E60" s="14" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F60" s="26" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="G60" s="12"/>
       <c r="H60" s="12"/>
@@ -11415,13 +11774,13 @@
         <v>7</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="E61" s="14" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F61" s="26" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="G61" s="12"/>
       <c r="H61" s="12"/>
@@ -11433,22 +11792,22 @@
         <v>7</v>
       </c>
       <c r="D62" s="21" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="E62" s="14" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F62" s="26" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="G62" s="34" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="H62" s="20" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="I62" s="20" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="J62" s="15"/>
     </row>
@@ -11457,22 +11816,22 @@
         <v>7</v>
       </c>
       <c r="D63" s="21" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="E63" s="14" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F63" s="26" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="G63" s="34" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="H63" s="20" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="I63" s="20" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="J63" s="15"/>
     </row>
@@ -11481,20 +11840,20 @@
         <v>3</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="E64" s="14" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F64" s="26" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="G64" s="12"/>
       <c r="H64" s="12" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="I64" s="20" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="J64" s="15"/>
     </row>
@@ -11503,22 +11862,22 @@
         <v>7</v>
       </c>
       <c r="D65" s="11" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="E65" s="14" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F65" s="26" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="G65" s="34" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="H65" s="12" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I65" s="20" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="J65" s="15"/>
     </row>
@@ -11527,22 +11886,22 @@
         <v>7</v>
       </c>
       <c r="D66" s="11" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="E66" s="14" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F66" s="26" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="G66" s="34" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="H66" s="12" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I66" s="20" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="J66" s="15"/>
     </row>
@@ -11554,19 +11913,19 @@
         <v>41</v>
       </c>
       <c r="E67" s="14" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F67" s="26" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="G67" s="12" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="H67" s="12" t="s">
+        <v>330</v>
+      </c>
+      <c r="I67" s="20" t="s">
         <v>333</v>
-      </c>
-      <c r="I67" s="20" t="s">
-        <v>336</v>
       </c>
       <c r="J67" s="15"/>
     </row>
@@ -11578,16 +11937,16 @@
         <v>30</v>
       </c>
       <c r="E68" s="14" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F68" s="26" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="G68" s="12" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="H68" s="12" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="I68" s="20"/>
       <c r="J68" s="15"/>
@@ -11600,16 +11959,16 @@
         <v>30</v>
       </c>
       <c r="E69" s="14" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F69" s="26" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="G69" s="12" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="H69" s="12" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="I69" s="20"/>
       <c r="J69" s="15"/>
@@ -11622,16 +11981,16 @@
         <v>22</v>
       </c>
       <c r="E70" s="14" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F70" s="26" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="G70" s="12" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="H70" s="12" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="I70" s="20"/>
       <c r="J70" s="15"/>
@@ -11644,16 +12003,16 @@
         <v>15</v>
       </c>
       <c r="E71" s="14" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F71" s="26" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="G71" s="13" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="H71" s="12" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="I71" s="20"/>
       <c r="J71" s="15"/>
@@ -11663,22 +12022,22 @@
         <v>7</v>
       </c>
       <c r="D72" s="31" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="E72" s="14" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F72" s="26" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="G72" s="12" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="H72" s="12" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="I72" s="20" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="J72" s="15"/>
     </row>
@@ -11687,18 +12046,18 @@
         <v>7</v>
       </c>
       <c r="D73" s="28" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="E73" s="14" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F73" s="26" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="G73" s="34"/>
       <c r="H73" s="12"/>
       <c r="I73" s="20" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="J73" s="15"/>
     </row>
@@ -11710,15 +12069,15 @@
         <v>0</v>
       </c>
       <c r="E74" s="14" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F74" s="26" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="G74" s="19"/>
       <c r="H74" s="12"/>
       <c r="I74" s="20" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="J74" s="15"/>
     </row>
@@ -11730,15 +12089,15 @@
         <v>0</v>
       </c>
       <c r="E75" s="14" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F75" s="26" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="G75" s="12"/>
       <c r="H75" s="12"/>
       <c r="I75" s="20" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="J75" s="15"/>
     </row>
@@ -11750,15 +12109,15 @@
         <v>0</v>
       </c>
       <c r="E76" s="14" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F76" s="26" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="G76" s="12"/>
       <c r="H76" s="12"/>
       <c r="I76" s="20" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="J76" s="15"/>
     </row>

--- a/trunk/biz/MC-MSC-Web/qxy接口定义文档2016-8-8/【千校云】bug列表.xlsx
+++ b/trunk/biz/MC-MSC-Web/qxy接口定义文档2016-8-8/【千校云】bug列表.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\svn\trunk\biz\MC-MSC-Web\qxy接口定义文档2016-8-8\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\巴士\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -108,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1860" uniqueCount="816">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1878" uniqueCount="817">
   <si>
     <t>/qxy/trip</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2818,10 +2818,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/qxy/myapplication?tid=[tid]&amp;token=[token]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/qxy/myaudit?tid=[tid]&amp;token=[token]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3688,10 +3684,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>待测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>需要处理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3735,16 +3727,7 @@
       <t>zheng c</t>
     </rPh>
     <rPh sb="2" eb="3">
-      <t>fan h</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>zhe x</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>dou</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>bu dui</t>
+      <t>fan hzhe xdoubu dui</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3754,14 +3737,8 @@
       <t>you</t>
     </rPh>
     <rPh sb="1" eb="2">
-      <t>fan h</t>
+      <t>fan hbu zheng qbu zheng q</t>
     </rPh>
-    <rPh sb="11" eb="12">
-      <t>bu zheng q</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>bu zheng q</t>
-    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3821,6 +3798,18 @@
   </si>
   <si>
     <t>返回正常，返回信息需对照文档变更</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/qxy/myapplication?tid=[tid]&amp;token=[token]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>url参数变更，待处理测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>url参数变更，待处理测试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4238,7 +4227,834 @@
     <cellStyle name="常规 2" xfId="1"/>
     <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="87">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -4836,7 +5652,7 @@
       <pane xSplit="7" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J15" sqref="J15"/>
+      <selection pane="bottomRight" activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4871,7 +5687,7 @@
         <v>298</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>297</v>
@@ -4889,10 +5705,10 @@
         <v>355</v>
       </c>
       <c r="J1" s="48" t="s">
+        <v>786</v>
+      </c>
+      <c r="K1" s="42" t="s">
         <v>787</v>
-      </c>
-      <c r="K1" s="42" t="s">
-        <v>788</v>
       </c>
       <c r="L1" s="37" t="s">
         <v>320</v>
@@ -4921,7 +5737,7 @@
         <v>292</v>
       </c>
       <c r="D2" s="35" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>291</v>
@@ -4936,7 +5752,7 @@
         <v>305</v>
       </c>
       <c r="J2" s="48" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>289</v>
@@ -4944,7 +5760,7 @@
     </row>
     <row r="3" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D3" s="35" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>288</v>
@@ -4958,6 +5774,9 @@
       <c r="H3" s="36" t="s">
         <v>305</v>
       </c>
+      <c r="I3" s="36" t="s">
+        <v>312</v>
+      </c>
       <c r="J3" s="48" t="s">
         <v>468</v>
       </c>
@@ -4970,7 +5789,7 @@
     </row>
     <row r="4" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D4" s="35" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>286</v>
@@ -4985,12 +5804,12 @@
         <v>305</v>
       </c>
       <c r="J4" s="48" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
     </row>
     <row r="5" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D5" s="35" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>284</v>
@@ -5028,7 +5847,7 @@
         <v>282</v>
       </c>
       <c r="D6" s="35" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>281</v>
@@ -5042,6 +5861,9 @@
       <c r="H6" s="36" t="s">
         <v>305</v>
       </c>
+      <c r="I6" s="36" t="s">
+        <v>312</v>
+      </c>
       <c r="J6" s="48" t="s">
         <v>468</v>
       </c>
@@ -5060,7 +5882,7 @@
     </row>
     <row r="7" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D7" s="35" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>280</v>
@@ -5074,6 +5896,9 @@
       <c r="H7" s="36" t="s">
         <v>305</v>
       </c>
+      <c r="I7" s="36" t="s">
+        <v>312</v>
+      </c>
       <c r="J7" s="48" t="s">
         <v>468</v>
       </c>
@@ -5086,7 +5911,7 @@
     </row>
     <row r="8" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D8" s="35" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>279</v>
@@ -5100,6 +5925,9 @@
       <c r="H8" s="36" t="s">
         <v>305</v>
       </c>
+      <c r="I8" s="36" t="s">
+        <v>312</v>
+      </c>
       <c r="J8" s="48" t="s">
         <v>468</v>
       </c>
@@ -5109,7 +5937,7 @@
     </row>
     <row r="9" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D9" s="35" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>278</v>
@@ -5123,6 +5951,9 @@
       <c r="H9" s="36" t="s">
         <v>305</v>
       </c>
+      <c r="I9" s="36" t="s">
+        <v>312</v>
+      </c>
       <c r="J9" s="48" t="s">
         <v>468</v>
       </c>
@@ -5132,7 +5963,7 @@
     </row>
     <row r="10" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D10" s="35" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>255</v>
@@ -5147,7 +5978,7 @@
         <v>305</v>
       </c>
       <c r="J10" s="48" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="P10" s="2" t="s">
         <v>277</v>
@@ -5155,7 +5986,7 @@
     </row>
     <row r="11" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D11" s="35" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>276</v>
@@ -5184,7 +6015,7 @@
     </row>
     <row r="12" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D12" s="35" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>275</v>
@@ -5222,7 +6053,7 @@
         <v>273</v>
       </c>
       <c r="D13" s="35" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>272</v>
@@ -5236,6 +6067,9 @@
       <c r="H13" s="36" t="s">
         <v>305</v>
       </c>
+      <c r="I13" s="36" t="s">
+        <v>312</v>
+      </c>
       <c r="J13" s="48" t="s">
         <v>463</v>
       </c>
@@ -5251,7 +6085,7 @@
     </row>
     <row r="14" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D14" s="35" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>501</v>
@@ -5280,7 +6114,7 @@
     </row>
     <row r="15" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D15" s="35" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>270</v>
@@ -5295,7 +6129,7 @@
         <v>303</v>
       </c>
       <c r="J15" s="48" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="M15" s="37" t="s">
         <v>402</v>
@@ -5303,7 +6137,7 @@
     </row>
     <row r="16" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D16" s="35" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>269</v>
@@ -5332,7 +6166,7 @@
     </row>
     <row r="17" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D17" s="35" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>268</v>
@@ -5347,7 +6181,7 @@
         <v>303</v>
       </c>
       <c r="J17" s="48" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="M17" s="37" t="s">
         <v>325</v>
@@ -5355,7 +6189,7 @@
     </row>
     <row r="18" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D18" s="35" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>266</v>
@@ -5370,7 +6204,7 @@
         <v>305</v>
       </c>
       <c r="J18" s="48" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.15">
@@ -5378,7 +6212,7 @@
         <v>264</v>
       </c>
       <c r="D19" s="35" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>263</v>
@@ -5393,7 +6227,7 @@
         <v>303</v>
       </c>
       <c r="J19" s="48" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="L19" s="37" t="s">
         <v>497</v>
@@ -5404,7 +6238,7 @@
     </row>
     <row r="20" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D20" s="35" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>261</v>
@@ -5419,7 +6253,7 @@
         <v>303</v>
       </c>
       <c r="J20" s="48" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="L20" s="37" t="s">
         <v>356</v>
@@ -5433,7 +6267,7 @@
     </row>
     <row r="21" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D21" s="35" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>260</v>
@@ -5448,7 +6282,7 @@
         <v>303</v>
       </c>
       <c r="J21" s="48" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="L21" s="37" t="s">
         <v>357</v>
@@ -5459,7 +6293,7 @@
     </row>
     <row r="22" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D22" s="35" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>259</v>
@@ -5474,7 +6308,7 @@
         <v>303</v>
       </c>
       <c r="J22" s="48" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="L22" s="37" t="s">
         <v>358</v>
@@ -5494,7 +6328,7 @@
         <v>256</v>
       </c>
       <c r="D23" s="35" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>255</v>
@@ -5505,8 +6339,11 @@
       <c r="G23" s="28" t="s">
         <v>559</v>
       </c>
+      <c r="I23" s="36" t="s">
+        <v>312</v>
+      </c>
       <c r="J23" s="48" t="s">
-        <v>789</v>
+        <v>816</v>
       </c>
       <c r="L23" s="37" t="s">
         <v>478</v>
@@ -5520,7 +6357,7 @@
     </row>
     <row r="24" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D24" s="35" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>254</v>
@@ -5531,8 +6368,11 @@
       <c r="G24" s="28" t="s">
         <v>560</v>
       </c>
+      <c r="I24" s="36" t="s">
+        <v>312</v>
+      </c>
       <c r="J24" s="48" t="s">
-        <v>790</v>
+        <v>816</v>
       </c>
       <c r="L24" s="37" t="s">
         <v>474</v>
@@ -5546,7 +6386,7 @@
     </row>
     <row r="25" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D25" s="35" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>253</v>
@@ -5560,6 +6400,9 @@
       <c r="H25" s="36" t="s">
         <v>303</v>
       </c>
+      <c r="I25" s="36" t="s">
+        <v>312</v>
+      </c>
       <c r="J25" s="48" t="s">
         <v>380</v>
       </c>
@@ -5575,7 +6418,7 @@
     </row>
     <row r="26" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D26" s="35" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>252</v>
@@ -5584,13 +6427,13 @@
         <v>7</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H26" s="36" t="s">
         <v>303</v>
       </c>
       <c r="J26" s="48" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="L26" s="37" t="s">
         <v>470</v>
@@ -5604,7 +6447,7 @@
     </row>
     <row r="27" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D27" s="35" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>250</v>
@@ -5619,7 +6462,7 @@
         <v>303</v>
       </c>
       <c r="J27" s="48" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="L27" s="37" t="s">
         <v>522</v>
@@ -5633,7 +6476,7 @@
     </row>
     <row r="28" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D28" s="35" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>249</v>
@@ -5662,7 +6505,7 @@
     </row>
     <row r="29" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D29" s="35" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>248</v>
@@ -5685,7 +6528,7 @@
     </row>
     <row r="30" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D30" s="35" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>247</v>
@@ -5708,7 +6551,7 @@
     </row>
     <row r="31" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D31" s="35" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>245</v>
@@ -5723,7 +6566,7 @@
         <v>303</v>
       </c>
       <c r="J31" s="48" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="M31" s="37" t="s">
         <v>476</v>
@@ -5734,7 +6577,7 @@
     </row>
     <row r="32" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D32" s="35" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>195</v>
@@ -5746,12 +6589,12 @@
         <v>194</v>
       </c>
       <c r="J32" s="48" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
     </row>
     <row r="33" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D33" s="35" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>193</v>
@@ -5763,7 +6606,7 @@
         <v>192</v>
       </c>
       <c r="J33" s="48" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
     </row>
     <row r="34" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5771,7 +6614,7 @@
         <v>243</v>
       </c>
       <c r="D34" s="35" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>242</v>
@@ -5786,7 +6629,7 @@
         <v>303</v>
       </c>
       <c r="J34" s="48" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="L34" s="37" t="s">
         <v>432</v>
@@ -5797,7 +6640,7 @@
     </row>
     <row r="35" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D35" s="35" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>241</v>
@@ -5812,13 +6655,13 @@
         <v>303</v>
       </c>
       <c r="J35" s="48" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="L35" s="37" t="s">
         <v>514</v>
       </c>
       <c r="M35" s="37" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="N35" s="36" t="s">
         <v>516</v>
@@ -5826,7 +6669,7 @@
     </row>
     <row r="36" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D36" s="35" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>240</v>
@@ -5841,13 +6684,13 @@
         <v>303</v>
       </c>
       <c r="J36" s="48" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="L36" s="37" t="s">
         <v>515</v>
       </c>
       <c r="M36" s="37" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="N36" s="36" t="s">
         <v>517</v>
@@ -5858,7 +6701,7 @@
         <v>238</v>
       </c>
       <c r="D37" s="35" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>237</v>
@@ -5873,7 +6716,7 @@
         <v>303</v>
       </c>
       <c r="J37" s="48" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="M37" s="37" t="s">
         <v>434</v>
@@ -5881,7 +6724,7 @@
     </row>
     <row r="38" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D38" s="35" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>236</v>
@@ -5896,7 +6739,7 @@
         <v>303</v>
       </c>
       <c r="J38" s="48" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="L38" s="37" t="s">
         <v>435</v>
@@ -5907,7 +6750,7 @@
     </row>
     <row r="39" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D39" s="35" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>235</v>
@@ -5922,13 +6765,13 @@
         <v>303</v>
       </c>
       <c r="J39" s="48" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="L39" s="37" t="s">
         <v>524</v>
       </c>
       <c r="M39" s="37" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="N39" s="36" t="s">
         <v>509</v>
@@ -5942,7 +6785,7 @@
         <v>232</v>
       </c>
       <c r="D40" s="35" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>231</v>
@@ -5951,10 +6794,16 @@
         <v>178</v>
       </c>
       <c r="G40" s="28" t="s">
-        <v>562</v>
+        <v>814</v>
+      </c>
+      <c r="H40" s="36" t="s">
+        <v>303</v>
+      </c>
+      <c r="I40" s="36" t="s">
+        <v>312</v>
       </c>
       <c r="J40" s="48" t="s">
-        <v>812</v>
+        <v>816</v>
       </c>
       <c r="M40" s="37" t="s">
         <v>482</v>
@@ -5962,7 +6811,7 @@
     </row>
     <row r="41" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D41" s="35" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>230</v>
@@ -5991,7 +6840,7 @@
     </row>
     <row r="42" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D42" s="35" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>229</v>
@@ -6006,7 +6855,7 @@
         <v>303</v>
       </c>
       <c r="J42" s="48" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="M42" s="37" t="s">
         <v>481</v>
@@ -6014,7 +6863,7 @@
     </row>
     <row r="43" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D43" s="35" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>227</v>
@@ -6023,13 +6872,16 @@
         <v>178</v>
       </c>
       <c r="G43" s="28" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H43" s="36" t="s">
         <v>303</v>
       </c>
+      <c r="I43" s="36" t="s">
+        <v>312</v>
+      </c>
       <c r="J43" s="48" t="s">
-        <v>812</v>
+        <v>816</v>
       </c>
       <c r="L43" s="37" t="s">
         <v>480</v>
@@ -6040,7 +6892,7 @@
     </row>
     <row r="44" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D44" s="35" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>226</v>
@@ -6055,7 +6907,7 @@
         <v>303</v>
       </c>
       <c r="J44" s="48" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="M44" s="37" t="s">
         <v>486</v>
@@ -6069,7 +6921,7 @@
         <v>224</v>
       </c>
       <c r="D45" s="35" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>223</v>
@@ -6081,7 +6933,7 @@
         <v>222</v>
       </c>
       <c r="J45" s="48" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="L45" s="37" t="s">
         <v>437</v>
@@ -6092,7 +6944,7 @@
     </row>
     <row r="46" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D46" s="35" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E46" s="5" t="s">
         <v>221</v>
@@ -6107,7 +6959,7 @@
         <v>303</v>
       </c>
       <c r="J46" s="48" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="M46" s="37" t="s">
         <v>402</v>
@@ -6115,7 +6967,7 @@
     </row>
     <row r="47" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D47" s="35" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>220</v>
@@ -6130,7 +6982,7 @@
         <v>303</v>
       </c>
       <c r="J47" s="48" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="L47" s="37" t="s">
         <v>436</v>
@@ -6141,7 +6993,7 @@
     </row>
     <row r="48" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D48" s="35" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>219</v>
@@ -6156,16 +7008,16 @@
         <v>303</v>
       </c>
       <c r="J48" s="48" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="L48" s="37" t="s">
         <v>525</v>
       </c>
       <c r="M48" s="37" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="N48" s="36" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="49" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -6173,7 +7025,7 @@
         <v>217</v>
       </c>
       <c r="D49" s="35" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>216</v>
@@ -6182,13 +7034,13 @@
         <v>178</v>
       </c>
       <c r="G49" s="30" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="I49" s="36" t="s">
         <v>312</v>
       </c>
       <c r="J49" s="48" t="s">
-        <v>812</v>
+        <v>816</v>
       </c>
       <c r="L49" s="37" t="s">
         <v>440</v>
@@ -6205,7 +7057,7 @@
     </row>
     <row r="50" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D50" s="35" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>215</v>
@@ -6220,7 +7072,7 @@
         <v>303</v>
       </c>
       <c r="J50" s="48" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="L50" s="37" t="s">
         <v>438</v>
@@ -6231,7 +7083,7 @@
     </row>
     <row r="51" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D51" s="35" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="E51" s="5" t="s">
         <v>214</v>
@@ -6246,7 +7098,7 @@
         <v>303</v>
       </c>
       <c r="J51" s="48" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="L51" s="37" t="s">
         <v>439</v>
@@ -6257,7 +7109,7 @@
     </row>
     <row r="52" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D52" s="35" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E52" s="5" t="s">
         <v>213</v>
@@ -6272,7 +7124,7 @@
         <v>303</v>
       </c>
       <c r="J52" s="48" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="L52" s="37" t="s">
         <v>526</v>
@@ -6286,7 +7138,7 @@
     </row>
     <row r="53" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D53" s="35" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="E53" s="5" t="s">
         <v>195</v>
@@ -6298,12 +7150,12 @@
         <v>194</v>
       </c>
       <c r="J53" s="48" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
     </row>
     <row r="54" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D54" s="35" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E54" s="5" t="s">
         <v>193</v>
@@ -6315,7 +7167,7 @@
         <v>192</v>
       </c>
       <c r="J54" s="48" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
     </row>
     <row r="55" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -6329,7 +7181,7 @@
         <v>211</v>
       </c>
       <c r="D55" s="35" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="E55" s="5" t="s">
         <v>210</v>
@@ -6343,7 +7195,7 @@
       <c r="H55" s="36"/>
       <c r="I55" s="36"/>
       <c r="J55" s="48" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="K55" s="42"/>
       <c r="L55" s="37"/>
@@ -6355,7 +7207,7 @@
     <row r="56" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="6"/>
       <c r="D56" s="35" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="E56" s="27" t="s">
         <v>208</v>
@@ -6393,7 +7245,7 @@
     <row r="57" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="6"/>
       <c r="D57" s="35" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E57" s="27" t="s">
         <v>548</v>
@@ -6429,7 +7281,7 @@
     <row r="58" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="6"/>
       <c r="D58" s="35" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E58" s="5" t="s">
         <v>207</v>
@@ -6443,7 +7295,7 @@
       <c r="H58" s="36"/>
       <c r="I58" s="36"/>
       <c r="J58" s="48" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="K58" s="42"/>
       <c r="L58" s="37"/>
@@ -6459,7 +7311,7 @@
         <v>205</v>
       </c>
       <c r="D59" s="35" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E59" s="5" t="s">
         <v>204</v>
@@ -6468,7 +7320,7 @@
         <v>178</v>
       </c>
       <c r="G59" s="28" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H59" s="36" t="s">
         <v>303</v>
@@ -6499,7 +7351,7 @@
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
       <c r="D60" s="35" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E60" s="5" t="s">
         <v>203</v>
@@ -6513,7 +7365,7 @@
       <c r="H60" s="36"/>
       <c r="I60" s="36"/>
       <c r="J60" s="48" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="K60" s="42"/>
       <c r="L60" s="37"/>
@@ -6527,7 +7379,7 @@
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
       <c r="D61" s="35" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E61" s="5" t="s">
         <v>201</v>
@@ -6561,7 +7413,7 @@
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
       <c r="D62" s="35" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E62" s="5" t="s">
         <v>200</v>
@@ -6599,7 +7451,7 @@
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
       <c r="D63" s="35" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E63" s="5" t="s">
         <v>199</v>
@@ -6637,7 +7489,7 @@
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
       <c r="D64" s="35" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E64" s="5" t="s">
         <v>197</v>
@@ -6675,7 +7527,7 @@
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
       <c r="D65" s="35" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="E65" s="5" t="s">
         <v>195</v>
@@ -6689,7 +7541,7 @@
       <c r="H65" s="36"/>
       <c r="I65" s="36"/>
       <c r="J65" s="48" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="K65" s="42"/>
       <c r="L65" s="37"/>
@@ -6703,7 +7555,7 @@
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
       <c r="D66" s="35" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E66" s="5" t="s">
         <v>193</v>
@@ -6717,7 +7569,7 @@
       <c r="H66" s="36"/>
       <c r="I66" s="36"/>
       <c r="J66" s="48" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="K66" s="42"/>
       <c r="L66" s="37"/>
@@ -6733,7 +7585,7 @@
         <v>191</v>
       </c>
       <c r="D67" s="35" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="E67" s="5" t="s">
         <v>190</v>
@@ -6742,14 +7594,16 @@
         <v>178</v>
       </c>
       <c r="G67" s="31" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H67" s="36" t="s">
         <v>305</v>
       </c>
-      <c r="I67" s="36"/>
+      <c r="I67" s="36" t="s">
+        <v>312</v>
+      </c>
       <c r="J67" s="48" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="K67" s="42"/>
       <c r="L67" s="37"/>
@@ -6767,7 +7621,7 @@
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
       <c r="D68" s="35" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E68" s="5" t="s">
         <v>188</v>
@@ -6776,12 +7630,14 @@
         <v>178</v>
       </c>
       <c r="G68" s="28" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="H68" s="36"/>
-      <c r="I68" s="36"/>
+      <c r="I68" s="36" t="s">
+        <v>312</v>
+      </c>
       <c r="J68" s="48" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="K68" s="42"/>
       <c r="L68" s="37"/>
@@ -6799,7 +7655,7 @@
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
       <c r="D69" s="35" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E69" s="5" t="s">
         <v>186</v>
@@ -6808,7 +7664,7 @@
         <v>178</v>
       </c>
       <c r="G69" s="30" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H69" s="36" t="s">
         <v>303</v>
@@ -6817,12 +7673,12 @@
         <v>312</v>
       </c>
       <c r="J69" s="48" t="s">
-        <v>812</v>
+        <v>816</v>
       </c>
       <c r="K69" s="42"/>
       <c r="L69" s="37"/>
       <c r="M69" s="37" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="N69" s="36" t="s">
         <v>341</v>
@@ -6837,7 +7693,7 @@
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
       <c r="D70" s="35" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="E70" s="5" t="s">
         <v>185</v>
@@ -6855,14 +7711,14 @@
         <v>312</v>
       </c>
       <c r="J70" s="48" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="K70" s="42"/>
       <c r="L70" s="37" t="s">
+        <v>773</v>
+      </c>
+      <c r="M70" s="37" t="s">
         <v>774</v>
-      </c>
-      <c r="M70" s="37" t="s">
-        <v>775</v>
       </c>
       <c r="N70" s="36" t="s">
         <v>341</v>
@@ -6877,7 +7733,7 @@
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
       <c r="D71" s="35" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="E71" s="5" t="s">
         <v>184</v>
@@ -6893,11 +7749,11 @@
       </c>
       <c r="I71" s="36"/>
       <c r="J71" s="48" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="K71" s="42"/>
       <c r="L71" s="37" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="M71" s="37" t="s">
         <v>325</v>
@@ -6913,7 +7769,7 @@
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
       <c r="D72" s="35" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="E72" s="5" t="s">
         <v>182</v>
@@ -6931,14 +7787,14 @@
         <v>312</v>
       </c>
       <c r="J72" s="48" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="K72" s="42"/>
       <c r="L72" s="37" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="M72" s="37" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="N72" s="36" t="s">
         <v>345</v>
@@ -6953,7 +7809,7 @@
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
       <c r="D73" s="35" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="E73" s="5" t="s">
         <v>179</v>
@@ -6962,7 +7818,7 @@
         <v>178</v>
       </c>
       <c r="G73" s="31" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H73" s="36"/>
       <c r="I73" s="36" t="s">
@@ -6989,7 +7845,7 @@
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
       <c r="D74" s="35" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="E74" s="5" t="s">
         <v>177</v>
@@ -6998,7 +7854,7 @@
         <v>176</v>
       </c>
       <c r="G74" s="11" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="H74" s="36"/>
       <c r="I74" s="36" t="s">
@@ -7025,7 +7881,7 @@
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
       <c r="D75" s="35" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="E75" s="5" t="s">
         <v>175</v>
@@ -7061,7 +7917,7 @@
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
       <c r="D76" s="35" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="E76" s="5" t="s">
         <v>173</v>
@@ -7099,7 +7955,7 @@
         <v>169</v>
       </c>
       <c r="D77" s="35" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E77" s="5" t="s">
         <v>55</v>
@@ -7113,7 +7969,7 @@
       <c r="H77" s="36"/>
       <c r="I77" s="36"/>
       <c r="J77" s="48" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="K77" s="42"/>
       <c r="L77" s="37"/>
@@ -7127,7 +7983,7 @@
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
       <c r="D78" s="35" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="E78" s="5" t="s">
         <v>168</v>
@@ -7136,7 +7992,7 @@
         <v>7</v>
       </c>
       <c r="G78" s="30" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="H78" s="36" t="s">
         <v>305</v>
@@ -7149,7 +8005,7 @@
       </c>
       <c r="K78" s="42"/>
       <c r="L78" s="37" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="M78" s="37" t="s">
         <v>429</v>
@@ -7167,7 +8023,7 @@
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
       <c r="D79" s="35" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="E79" s="5" t="s">
         <v>167</v>
@@ -7176,7 +8032,7 @@
         <v>7</v>
       </c>
       <c r="G79" s="30" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="H79" s="36"/>
       <c r="I79" s="36" t="s">
@@ -7187,10 +8043,10 @@
       </c>
       <c r="K79" s="42"/>
       <c r="L79" s="37" t="s">
+        <v>780</v>
+      </c>
+      <c r="M79" s="37" t="s">
         <v>781</v>
-      </c>
-      <c r="M79" s="37" t="s">
-        <v>782</v>
       </c>
       <c r="N79" s="36" t="s">
         <v>341</v>
@@ -7205,7 +8061,7 @@
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
       <c r="D80" s="35" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E80" s="5" t="s">
         <v>166</v>
@@ -7219,7 +8075,7 @@
       <c r="H80" s="36"/>
       <c r="I80" s="36"/>
       <c r="J80" s="48" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="K80" s="42"/>
       <c r="L80" s="37"/>
@@ -7233,7 +8089,7 @@
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
       <c r="D81" s="35" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E81" s="5" t="s">
         <v>164</v>
@@ -7247,7 +8103,7 @@
       <c r="H81" s="36"/>
       <c r="I81" s="36"/>
       <c r="J81" s="48" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="K81" s="42"/>
       <c r="L81" s="37"/>
@@ -7261,7 +8117,7 @@
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
       <c r="D82" s="35" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E82" s="5" t="s">
         <v>162</v>
@@ -7275,7 +8131,7 @@
       <c r="H82" s="36"/>
       <c r="I82" s="36"/>
       <c r="J82" s="48" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="K82" s="42"/>
       <c r="L82" s="37"/>
@@ -7291,7 +8147,7 @@
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
       <c r="D83" s="35" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E83" s="5" t="s">
         <v>159</v>
@@ -7305,7 +8161,7 @@
       <c r="H83" s="36"/>
       <c r="I83" s="36"/>
       <c r="J83" s="48" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="K83" s="42"/>
       <c r="L83" s="37"/>
@@ -7319,7 +8175,7 @@
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
       <c r="D84" s="35" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E84" s="5" t="s">
         <v>157</v>
@@ -7355,7 +8211,7 @@
         <v>154</v>
       </c>
       <c r="D85" s="35" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E85" s="5" t="s">
         <v>55</v>
@@ -7369,7 +8225,7 @@
       <c r="H85" s="36"/>
       <c r="I85" s="36"/>
       <c r="J85" s="48" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="K85" s="42"/>
       <c r="L85" s="37"/>
@@ -7383,7 +8239,7 @@
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
       <c r="D86" s="35" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="E86" s="22" t="s">
         <v>153</v>
@@ -7392,7 +8248,7 @@
         <v>85</v>
       </c>
       <c r="G86" s="28" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H86" s="36" t="s">
         <v>305</v>
@@ -7421,7 +8277,7 @@
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
       <c r="D87" s="35" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="E87" s="5" t="s">
         <v>151</v>
@@ -7437,7 +8293,7 @@
       </c>
       <c r="I87" s="36"/>
       <c r="J87" s="48" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="K87" s="42"/>
       <c r="L87" s="37"/>
@@ -7453,7 +8309,7 @@
         <v>149</v>
       </c>
       <c r="D88" s="35" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="E88" s="5" t="s">
         <v>112</v>
@@ -7469,7 +8325,7 @@
       </c>
       <c r="I88" s="36"/>
       <c r="J88" s="48" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="K88" s="42"/>
       <c r="L88" s="37"/>
@@ -7483,7 +8339,7 @@
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
       <c r="D89" s="35" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E89" s="5" t="s">
         <v>110</v>
@@ -7499,7 +8355,7 @@
       </c>
       <c r="I89" s="36"/>
       <c r="J89" s="48" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="K89" s="42"/>
       <c r="L89" s="37"/>
@@ -7513,7 +8369,7 @@
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
       <c r="D90" s="35" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="E90" s="5" t="s">
         <v>146</v>
@@ -7529,7 +8385,7 @@
       </c>
       <c r="I90" s="36"/>
       <c r="J90" s="48" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="K90" s="42"/>
       <c r="L90" s="37"/>
@@ -7543,7 +8399,7 @@
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
       <c r="D91" s="35" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="E91" s="5" t="s">
         <v>144</v>
@@ -7559,7 +8415,7 @@
       </c>
       <c r="I91" s="36"/>
       <c r="J91" s="48" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="K91" s="42"/>
       <c r="L91" s="37"/>
@@ -7575,7 +8431,7 @@
         <v>142</v>
       </c>
       <c r="D92" s="35" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="E92" s="22" t="s">
         <v>141</v>
@@ -7613,7 +8469,7 @@
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
       <c r="D93" s="35" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E93" s="22" t="s">
         <v>140</v>
@@ -7649,7 +8505,7 @@
     <row r="94" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="6"/>
       <c r="D94" s="35" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="E94" s="22" t="s">
         <v>138</v>
@@ -7688,7 +8544,7 @@
         <v>136</v>
       </c>
       <c r="D95" s="35" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E95" s="5" t="s">
         <v>135</v>
@@ -7704,7 +8560,7 @@
       </c>
       <c r="I95" s="36"/>
       <c r="J95" s="48" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="K95" s="42"/>
       <c r="L95" s="37"/>
@@ -7716,7 +8572,7 @@
     <row r="96" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="6"/>
       <c r="D96" s="35" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="E96" s="5" t="s">
         <v>134</v>
@@ -7732,7 +8588,7 @@
       </c>
       <c r="I96" s="36"/>
       <c r="J96" s="48" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="K96" s="42"/>
       <c r="L96" s="37"/>
@@ -7752,7 +8608,7 @@
         <v>131</v>
       </c>
       <c r="D97" s="35" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="E97" s="5" t="s">
         <v>130</v>
@@ -7768,7 +8624,7 @@
       </c>
       <c r="I97" s="36"/>
       <c r="J97" s="48" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="K97" s="42"/>
       <c r="L97" s="37" t="s">
@@ -7784,7 +8640,7 @@
     <row r="98" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="6"/>
       <c r="D98" s="35" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E98" s="5" t="s">
         <v>129</v>
@@ -7793,19 +8649,21 @@
         <v>85</v>
       </c>
       <c r="G98" s="28" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="H98" s="36" t="s">
         <v>303</v>
       </c>
-      <c r="I98" s="36"/>
+      <c r="I98" s="36" t="s">
+        <v>312</v>
+      </c>
       <c r="J98" s="48" t="s">
-        <v>790</v>
+        <v>816</v>
       </c>
       <c r="K98" s="42"/>
       <c r="L98" s="37"/>
       <c r="M98" s="37" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="N98" s="36"/>
       <c r="O98" s="46"/>
@@ -7814,7 +8672,7 @@
     <row r="99" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="6"/>
       <c r="D99" s="35" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="E99" s="5" t="s">
         <v>128</v>
@@ -7846,7 +8704,7 @@
     <row r="100" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="6"/>
       <c r="D100" s="35" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="E100" s="5" t="s">
         <v>127</v>
@@ -7862,7 +8720,7 @@
       </c>
       <c r="I100" s="36"/>
       <c r="J100" s="48" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="K100" s="42"/>
       <c r="L100" s="37"/>
@@ -7876,7 +8734,7 @@
     <row r="101" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="6"/>
       <c r="D101" s="35" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="E101" s="5" t="s">
         <v>126</v>
@@ -7892,7 +8750,7 @@
       </c>
       <c r="I101" s="36"/>
       <c r="J101" s="48" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="K101" s="42"/>
       <c r="L101" s="37"/>
@@ -7909,7 +8767,7 @@
         <v>124</v>
       </c>
       <c r="D102" s="35" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E102" s="5" t="s">
         <v>123</v>
@@ -7925,14 +8783,14 @@
       </c>
       <c r="I102" s="36"/>
       <c r="J102" s="48" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="K102" s="42"/>
       <c r="L102" s="40" t="s">
         <v>498</v>
       </c>
       <c r="M102" s="39" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="N102" s="36"/>
       <c r="O102" s="46"/>
@@ -7941,7 +8799,7 @@
     <row r="103" spans="1:16" s="5" customFormat="1" ht="80.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="6"/>
       <c r="D103" s="35" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E103" s="5" t="s">
         <v>121</v>
@@ -7975,7 +8833,7 @@
     <row r="104" spans="1:16" s="5" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="6"/>
       <c r="D104" s="35" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E104" s="5" t="s">
         <v>119</v>
@@ -8009,7 +8867,7 @@
     <row r="105" spans="1:16" s="5" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="6"/>
       <c r="D105" s="35" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="E105" s="5" t="s">
         <v>117</v>
@@ -8025,7 +8883,7 @@
       </c>
       <c r="I105" s="36"/>
       <c r="J105" s="48" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="K105" s="42"/>
       <c r="L105" s="37" t="s">
@@ -8049,7 +8907,7 @@
         <v>113</v>
       </c>
       <c r="D106" s="35" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E106" s="5" t="s">
         <v>112</v>
@@ -8065,7 +8923,7 @@
       </c>
       <c r="I106" s="36"/>
       <c r="J106" s="48" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="K106" s="42"/>
       <c r="L106" s="37" t="s">
@@ -8081,7 +8939,7 @@
     <row r="107" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="6"/>
       <c r="D107" s="35" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="E107" s="5" t="s">
         <v>110</v>
@@ -8090,14 +8948,16 @@
         <v>85</v>
       </c>
       <c r="G107" s="32" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="H107" s="36" t="s">
         <v>303</v>
       </c>
-      <c r="I107" s="36"/>
+      <c r="I107" s="36" t="s">
+        <v>312</v>
+      </c>
       <c r="J107" s="48" t="s">
-        <v>812</v>
+        <v>816</v>
       </c>
       <c r="K107" s="42"/>
       <c r="L107" s="37" t="s">
@@ -8115,7 +8975,7 @@
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
       <c r="D108" s="35" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E108" s="5" t="s">
         <v>109</v>
@@ -8129,7 +8989,9 @@
       <c r="H108" s="36" t="s">
         <v>303</v>
       </c>
-      <c r="I108" s="36"/>
+      <c r="I108" s="36" t="s">
+        <v>312</v>
+      </c>
       <c r="J108" s="48" t="s">
         <v>408</v>
       </c>
@@ -8149,7 +9011,7 @@
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
       <c r="D109" s="35" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="E109" s="5" t="s">
         <v>108</v>
@@ -8165,7 +9027,7 @@
       </c>
       <c r="I109" s="36"/>
       <c r="J109" s="48" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="K109" s="42"/>
       <c r="L109" s="37" t="s">
@@ -8183,7 +9045,7 @@
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
       <c r="D110" s="35" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E110" s="5" t="s">
         <v>106</v>
@@ -8199,7 +9061,7 @@
       </c>
       <c r="I110" s="36"/>
       <c r="J110" s="48" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="K110" s="42"/>
       <c r="L110" s="37" t="s">
@@ -8219,7 +9081,7 @@
         <v>104</v>
       </c>
       <c r="D111" s="35" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E111" s="5" t="s">
         <v>103</v>
@@ -8235,7 +9097,7 @@
       </c>
       <c r="I111" s="36"/>
       <c r="J111" s="48" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="K111" s="42"/>
       <c r="L111" s="37" t="s">
@@ -8253,7 +9115,7 @@
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
       <c r="D112" s="35" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="E112" s="5" t="s">
         <v>102</v>
@@ -8291,7 +9153,7 @@
       <c r="B113" s="5"/>
       <c r="C113" s="5"/>
       <c r="D113" s="35" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="E113" s="5" t="s">
         <v>101</v>
@@ -8327,7 +9189,7 @@
       <c r="B114" s="5"/>
       <c r="C114" s="5"/>
       <c r="D114" s="35" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E114" s="5" t="s">
         <v>98</v>
@@ -8343,7 +9205,7 @@
       </c>
       <c r="I114" s="36"/>
       <c r="J114" s="48" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="K114" s="42"/>
       <c r="L114" s="37"/>
@@ -8361,7 +9223,7 @@
         <v>96</v>
       </c>
       <c r="D115" s="35" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E115" s="5" t="s">
         <v>95</v>
@@ -8377,7 +9239,7 @@
       </c>
       <c r="I115" s="36"/>
       <c r="J115" s="48" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="K115" s="42"/>
       <c r="L115" s="37"/>
@@ -8393,7 +9255,7 @@
       <c r="B116" s="5"/>
       <c r="C116" s="5"/>
       <c r="D116" s="35" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="E116" s="5" t="s">
         <v>94</v>
@@ -8409,7 +9271,7 @@
       </c>
       <c r="I116" s="36"/>
       <c r="J116" s="48" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="K116" s="42"/>
       <c r="L116" s="37" t="s">
@@ -8427,7 +9289,7 @@
       <c r="B117" s="5"/>
       <c r="C117" s="5"/>
       <c r="D117" s="35" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="E117" s="5" t="s">
         <v>92</v>
@@ -8443,7 +9305,7 @@
       </c>
       <c r="I117" s="36"/>
       <c r="J117" s="48" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="K117" s="42"/>
       <c r="L117" s="37"/>
@@ -8465,7 +9327,7 @@
         <v>89</v>
       </c>
       <c r="D118" s="35" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E118" s="5" t="s">
         <v>55</v>
@@ -8481,7 +9343,7 @@
       </c>
       <c r="I118" s="36"/>
       <c r="J118" s="48" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="K118" s="42"/>
       <c r="L118" s="37"/>
@@ -8495,7 +9357,7 @@
       <c r="B119" s="5"/>
       <c r="C119" s="5"/>
       <c r="D119" s="35" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E119" s="5" t="s">
         <v>88</v>
@@ -8504,21 +9366,23 @@
         <v>85</v>
       </c>
       <c r="G119" s="28" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H119" s="36" t="s">
         <v>303</v>
       </c>
-      <c r="I119" s="36"/>
+      <c r="I119" s="36" t="s">
+        <v>312</v>
+      </c>
       <c r="J119" s="48" t="s">
-        <v>812</v>
+        <v>816</v>
       </c>
       <c r="K119" s="42"/>
       <c r="L119" s="37" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="M119" s="37" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="N119" s="36"/>
       <c r="O119" s="46"/>
@@ -8531,7 +9395,7 @@
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
       <c r="D120" s="35" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="E120" s="5" t="s">
         <v>86</v>
@@ -8540,7 +9404,7 @@
         <v>85</v>
       </c>
       <c r="G120" s="28" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H120" s="36" t="s">
         <v>303</v>
@@ -8549,14 +9413,14 @@
         <v>312</v>
       </c>
       <c r="J120" s="48" t="s">
-        <v>812</v>
+        <v>816</v>
       </c>
       <c r="K120" s="42"/>
       <c r="L120" s="37" t="s">
         <v>448</v>
       </c>
       <c r="M120" s="37" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="N120" s="36" t="s">
         <v>369</v>
@@ -8573,7 +9437,7 @@
         <v>84</v>
       </c>
       <c r="D121" s="35" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="E121" s="5" t="s">
         <v>55</v>
@@ -8589,7 +9453,7 @@
       </c>
       <c r="I121" s="36"/>
       <c r="J121" s="48" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="K121" s="42"/>
       <c r="L121" s="37"/>
@@ -8603,7 +9467,7 @@
       <c r="B122" s="5"/>
       <c r="C122" s="5"/>
       <c r="D122" s="35" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="E122" s="27" t="s">
         <v>83</v>
@@ -8639,7 +9503,7 @@
       <c r="B123" s="5"/>
       <c r="C123" s="5"/>
       <c r="D123" s="35" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="E123" s="27" t="s">
         <v>544</v>
@@ -8675,7 +9539,7 @@
       <c r="B124" s="5"/>
       <c r="C124" s="5"/>
       <c r="D124" s="35" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="E124" s="5" t="s">
         <v>81</v>
@@ -8684,18 +9548,18 @@
         <v>7</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="H124" s="36" t="s">
         <v>303</v>
       </c>
       <c r="I124" s="36"/>
       <c r="J124" s="48" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="K124" s="42"/>
       <c r="L124" s="37" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="M124" s="37" t="s">
         <v>471</v>
@@ -8709,7 +9573,7 @@
       <c r="B125" s="5"/>
       <c r="C125" s="5"/>
       <c r="D125" s="35" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="E125" s="5" t="s">
         <v>80</v>
@@ -8725,7 +9589,7 @@
       </c>
       <c r="I125" s="36"/>
       <c r="J125" s="48" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="K125" s="42"/>
       <c r="L125" s="37" t="s">
@@ -8743,7 +9607,7 @@
       <c r="B126" s="5"/>
       <c r="C126" s="5"/>
       <c r="D126" s="35" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="E126" s="5" t="s">
         <v>79</v>
@@ -8777,7 +9641,7 @@
       <c r="B127" s="5"/>
       <c r="C127" s="5"/>
       <c r="D127" s="35" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E127" s="5" t="s">
         <v>78</v>
@@ -8811,7 +9675,7 @@
       <c r="B128" s="5"/>
       <c r="C128" s="5"/>
       <c r="D128" s="35" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="E128" s="5" t="s">
         <v>76</v>
@@ -8847,7 +9711,7 @@
         <v>75</v>
       </c>
       <c r="D129" s="35" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="E129" s="5" t="s">
         <v>55</v>
@@ -8863,7 +9727,7 @@
       </c>
       <c r="I129" s="36"/>
       <c r="J129" s="48" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="K129" s="42"/>
       <c r="L129" s="37"/>
@@ -8877,7 +9741,7 @@
       <c r="B130" s="5"/>
       <c r="C130" s="5"/>
       <c r="D130" s="35" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="E130" s="27" t="s">
         <v>73</v>
@@ -8895,14 +9759,14 @@
         <v>312</v>
       </c>
       <c r="J130" s="48" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="K130" s="42"/>
       <c r="L130" s="37" t="s">
         <v>543</v>
       </c>
       <c r="M130" s="37" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="N130" s="36" t="s">
         <v>348</v>
@@ -8917,7 +9781,7 @@
       <c r="B131" s="5"/>
       <c r="C131" s="5"/>
       <c r="D131" s="35" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="E131" s="27" t="s">
         <v>540</v>
@@ -8955,7 +9819,7 @@
       <c r="B132" s="5"/>
       <c r="C132" s="5"/>
       <c r="D132" s="35" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="E132" s="5" t="s">
         <v>72</v>
@@ -8971,7 +9835,7 @@
       </c>
       <c r="I132" s="36"/>
       <c r="J132" s="48" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="K132" s="42"/>
       <c r="L132" s="37" t="s">
@@ -8989,7 +9853,7 @@
       <c r="B133" s="5"/>
       <c r="C133" s="5"/>
       <c r="D133" s="35" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="E133" s="5" t="s">
         <v>71</v>
@@ -9005,7 +9869,7 @@
       </c>
       <c r="I133" s="36"/>
       <c r="J133" s="48" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="K133" s="42"/>
       <c r="L133" s="37"/>
@@ -9021,7 +9885,7 @@
       <c r="B134" s="5"/>
       <c r="C134" s="5"/>
       <c r="D134" s="35" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="E134" s="5" t="s">
         <v>70</v>
@@ -9037,7 +9901,7 @@
       </c>
       <c r="I134" s="36"/>
       <c r="J134" s="48" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="K134" s="42"/>
       <c r="L134" s="37"/>
@@ -9053,7 +9917,7 @@
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
       <c r="D135" s="35" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E135" s="27" t="s">
         <v>536</v>
@@ -9083,7 +9947,7 @@
       <c r="B136" s="5"/>
       <c r="C136" s="5"/>
       <c r="D136" s="35" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="E136" s="27" t="s">
         <v>537</v>
@@ -9121,7 +9985,7 @@
         <v>67</v>
       </c>
       <c r="D137" s="35" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="E137" s="5" t="s">
         <v>66</v>
@@ -9137,7 +10001,7 @@
       </c>
       <c r="I137" s="36"/>
       <c r="J137" s="48" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="K137" s="42"/>
       <c r="L137" s="37"/>
@@ -9153,7 +10017,7 @@
         <v>64</v>
       </c>
       <c r="D138" s="35" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="E138" s="5" t="s">
         <v>63</v>
@@ -9169,14 +10033,14 @@
       </c>
       <c r="I138" s="36"/>
       <c r="J138" s="48" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="K138" s="42"/>
       <c r="L138" s="37" t="s">
         <v>327</v>
       </c>
       <c r="M138" s="39" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="N138" s="36"/>
       <c r="O138" s="46"/>
@@ -9189,7 +10053,7 @@
       <c r="B139" s="5"/>
       <c r="C139" s="5"/>
       <c r="D139" s="35" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E139" s="5" t="s">
         <v>60</v>
@@ -9205,7 +10069,7 @@
       </c>
       <c r="I139" s="36"/>
       <c r="J139" s="48" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="K139" s="44"/>
       <c r="L139" s="39" t="s">
@@ -9223,7 +10087,7 @@
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
       <c r="D140" s="35" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="E140" s="5" t="s">
         <v>59</v>
@@ -9239,7 +10103,7 @@
       </c>
       <c r="I140" s="36"/>
       <c r="J140" s="48" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="K140" s="42"/>
       <c r="L140" s="37" t="s">
@@ -9257,7 +10121,7 @@
       <c r="B141" s="5"/>
       <c r="C141" s="5"/>
       <c r="D141" s="35" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="E141" s="5" t="s">
         <v>58</v>
@@ -9273,7 +10137,7 @@
       </c>
       <c r="I141" s="36"/>
       <c r="J141" s="48" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="K141" s="42"/>
       <c r="L141" s="37" t="s">
@@ -9293,7 +10157,7 @@
         <v>56</v>
       </c>
       <c r="D142" s="35" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E142" s="5" t="s">
         <v>55</v>
@@ -9309,7 +10173,7 @@
       </c>
       <c r="I142" s="36"/>
       <c r="J142" s="48" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="K142" s="45"/>
       <c r="L142" s="40"/>
@@ -9325,7 +10189,7 @@
       <c r="B143" s="5"/>
       <c r="C143" s="5"/>
       <c r="D143" s="35" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="E143" s="5" t="s">
         <v>54</v>
@@ -9365,7 +10229,7 @@
       <c r="B144" s="5"/>
       <c r="C144" s="5"/>
       <c r="D144" s="35" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="E144" s="5" t="s">
         <v>527</v>
@@ -9405,7 +10269,7 @@
       <c r="B145" s="5"/>
       <c r="C145" s="5"/>
       <c r="D145" s="35" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="E145" s="5" t="s">
         <v>53</v>
@@ -9421,7 +10285,7 @@
       </c>
       <c r="I145" s="36"/>
       <c r="J145" s="48" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="K145" s="46"/>
       <c r="L145" s="36" t="s">
@@ -9439,7 +10303,7 @@
       <c r="B146" s="5"/>
       <c r="C146" s="5"/>
       <c r="D146" s="35" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="E146" s="5" t="s">
         <v>52</v>
@@ -9455,7 +10319,7 @@
       </c>
       <c r="I146" s="36"/>
       <c r="J146" s="48" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="K146" s="42"/>
       <c r="L146" s="37" t="s">
@@ -9473,7 +10337,7 @@
       <c r="B147" s="5"/>
       <c r="C147" s="5"/>
       <c r="D147" s="35" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="E147" s="5" t="s">
         <v>51</v>
@@ -9489,7 +10353,7 @@
       </c>
       <c r="I147" s="36"/>
       <c r="J147" s="48" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="K147" s="42"/>
       <c r="L147" s="37" t="s">
@@ -9507,7 +10371,7 @@
       <c r="B148" s="5"/>
       <c r="C148" s="5"/>
       <c r="D148" s="35" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="E148" s="5" t="s">
         <v>49</v>
@@ -9545,7 +10409,7 @@
         <v>47</v>
       </c>
       <c r="D149" s="35" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="E149" s="5" t="s">
         <v>46</v>
@@ -9585,7 +10449,7 @@
       <c r="B150" s="5"/>
       <c r="C150" s="5"/>
       <c r="D150" s="35" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="E150" s="5" t="s">
         <v>531</v>
@@ -9594,7 +10458,7 @@
         <v>7</v>
       </c>
       <c r="G150" s="9" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H150" s="36" t="s">
         <v>303</v>
@@ -9625,7 +10489,7 @@
       <c r="B151" s="5"/>
       <c r="C151" s="5"/>
       <c r="D151" s="35" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="E151" s="5" t="s">
         <v>45</v>
@@ -9641,7 +10505,7 @@
       </c>
       <c r="I151" s="36"/>
       <c r="J151" s="48" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="K151" s="46"/>
       <c r="L151" s="36" t="s">
@@ -9659,7 +10523,7 @@
       <c r="B152" s="5"/>
       <c r="C152" s="5"/>
       <c r="D152" s="35" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="E152" s="5" t="s">
         <v>44</v>
@@ -9675,7 +10539,7 @@
       </c>
       <c r="I152" s="36"/>
       <c r="J152" s="48" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="K152" s="42"/>
       <c r="L152" s="37" t="s">
@@ -9693,7 +10557,7 @@
       <c r="B153" s="5"/>
       <c r="C153" s="5"/>
       <c r="D153" s="35" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="E153" s="5" t="s">
         <v>42</v>
@@ -9729,7 +10593,7 @@
       <c r="B154" s="5"/>
       <c r="C154" s="5"/>
       <c r="D154" s="35" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="E154" s="5" t="s">
         <v>40</v>
@@ -9745,7 +10609,7 @@
       </c>
       <c r="I154" s="36"/>
       <c r="J154" s="48" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="K154" s="42"/>
       <c r="L154" s="37" t="s">
@@ -9765,7 +10629,7 @@
       <c r="B155" s="5"/>
       <c r="C155" s="5"/>
       <c r="D155" s="35" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="E155" s="5" t="s">
         <v>37</v>
@@ -9781,7 +10645,7 @@
       </c>
       <c r="I155" s="36"/>
       <c r="J155" s="48" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="K155" s="43"/>
       <c r="L155" s="38" t="s">
@@ -9799,7 +10663,7 @@
       <c r="B156" s="5"/>
       <c r="C156" s="5"/>
       <c r="D156" s="35" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E156" s="5" t="s">
         <v>36</v>
@@ -9815,7 +10679,7 @@
       </c>
       <c r="I156" s="36"/>
       <c r="J156" s="48" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="K156" s="42"/>
       <c r="L156" s="37" t="s">
@@ -9833,7 +10697,7 @@
       <c r="B157" s="5"/>
       <c r="C157" s="5"/>
       <c r="D157" s="35" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="E157" s="5" t="s">
         <v>35</v>
@@ -9849,7 +10713,7 @@
       </c>
       <c r="I157" s="36"/>
       <c r="J157" s="48" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="K157" s="42"/>
       <c r="L157" s="37"/>
@@ -9865,7 +10729,7 @@
       <c r="B158" s="5"/>
       <c r="C158" s="5"/>
       <c r="D158" s="35" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="E158" s="5" t="s">
         <v>33</v>
@@ -9881,7 +10745,7 @@
       </c>
       <c r="I158" s="36"/>
       <c r="J158" s="48" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="K158" s="42"/>
       <c r="L158" s="37" t="s">
@@ -9899,7 +10763,7 @@
       <c r="B159" s="5"/>
       <c r="C159" s="5"/>
       <c r="D159" s="35" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E159" s="5" t="s">
         <v>32</v>
@@ -9933,7 +10797,7 @@
       <c r="B160" s="5"/>
       <c r="C160" s="5"/>
       <c r="D160" s="35" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="E160" s="5" t="s">
         <v>31</v>
@@ -9969,7 +10833,7 @@
         <v>29</v>
       </c>
       <c r="D161" s="35" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="E161" s="5" t="s">
         <v>28</v>
@@ -9985,14 +10849,14 @@
       </c>
       <c r="I161" s="36"/>
       <c r="J161" s="48" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="K161" s="42"/>
       <c r="L161" s="37" t="s">
         <v>334</v>
       </c>
       <c r="M161" s="39" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="N161" s="36"/>
       <c r="O161" s="46"/>
@@ -10005,7 +10869,7 @@
       <c r="B162" s="5"/>
       <c r="C162" s="5"/>
       <c r="D162" s="35" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E162" s="5" t="s">
         <v>25</v>
@@ -10021,7 +10885,7 @@
       </c>
       <c r="I162" s="36"/>
       <c r="J162" s="48" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="K162" s="44"/>
       <c r="L162" s="39" t="s">
@@ -10039,7 +10903,7 @@
       <c r="B163" s="5"/>
       <c r="C163" s="5"/>
       <c r="D163" s="35" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="E163" s="5" t="s">
         <v>24</v>
@@ -10055,7 +10919,7 @@
       </c>
       <c r="I163" s="36"/>
       <c r="J163" s="48" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="K163" s="44"/>
       <c r="L163" s="39" t="s">
@@ -10073,7 +10937,7 @@
       <c r="B164" s="5"/>
       <c r="C164" s="5"/>
       <c r="D164" s="35" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="E164" s="5" t="s">
         <v>23</v>
@@ -10109,7 +10973,7 @@
         <v>21</v>
       </c>
       <c r="D165" s="35" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="E165" s="5" t="s">
         <v>20</v>
@@ -10125,17 +10989,17 @@
       </c>
       <c r="I165" s="36"/>
       <c r="J165" s="48" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="K165" s="42"/>
       <c r="L165" s="40" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="M165" s="39" t="s">
         <v>319</v>
       </c>
       <c r="N165" s="36" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="O165" s="46"/>
       <c r="P165" s="2"/>
@@ -10145,7 +11009,7 @@
       <c r="B166" s="5"/>
       <c r="C166" s="5"/>
       <c r="D166" s="35" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="E166" s="5" t="s">
         <v>18</v>
@@ -10161,7 +11025,7 @@
       </c>
       <c r="I166" s="36"/>
       <c r="J166" s="48" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="K166" s="46"/>
       <c r="L166" s="36" t="s">
@@ -10179,7 +11043,7 @@
       <c r="B167" s="5"/>
       <c r="C167" s="5"/>
       <c r="D167" s="35" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="E167" s="5" t="s">
         <v>17</v>
@@ -10195,7 +11059,7 @@
       </c>
       <c r="I167" s="36"/>
       <c r="J167" s="48" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="K167" s="43"/>
       <c r="L167" s="38" t="s">
@@ -10213,7 +11077,7 @@
       <c r="B168" s="5"/>
       <c r="C168" s="5"/>
       <c r="D168" s="35" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="E168" s="5" t="s">
         <v>16</v>
@@ -10247,7 +11111,7 @@
       <c r="B169" s="5"/>
       <c r="C169" s="5"/>
       <c r="D169" s="35" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="E169" s="5" t="s">
         <v>14</v>
@@ -10256,7 +11120,7 @@
         <v>7</v>
       </c>
       <c r="G169" s="31" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H169" s="36" t="s">
         <v>303</v>
@@ -10265,7 +11129,7 @@
         <v>312</v>
       </c>
       <c r="J169" s="48" t="s">
-        <v>790</v>
+        <v>815</v>
       </c>
       <c r="K169" s="42"/>
       <c r="L169" s="37" t="s">
@@ -10295,7 +11159,7 @@
       <c r="H170" s="36"/>
       <c r="I170" s="36"/>
       <c r="J170" s="48" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="K170" s="42"/>
       <c r="L170" s="37"/>
@@ -10315,7 +11179,7 @@
         <v>9</v>
       </c>
       <c r="D171" s="35" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="E171" s="22" t="s">
         <v>8</v>
@@ -10324,7 +11188,7 @@
         <v>7</v>
       </c>
       <c r="G171" s="32" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H171" s="36" t="s">
         <v>305</v>
@@ -10346,7 +11210,7 @@
     </row>
     <row r="172" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D172" s="35" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="E172" s="22" t="s">
         <v>6</v>
@@ -10375,7 +11239,7 @@
     </row>
     <row r="173" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D173" s="35" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="E173" s="22" t="s">
         <v>4</v>
@@ -10404,7 +11268,7 @@
     </row>
     <row r="174" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D174" s="35" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="E174" s="22" t="s">
         <v>2</v>
@@ -10435,8 +11299,32 @@
   <autoFilter ref="A1:AL174"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="J1:J1048576">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="9" operator="equal">
       <formula>$J$5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="8" operator="equal">
+      <formula>$J$23</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="7" operator="equal">
+      <formula>$J$23</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
+      <formula>$J$23</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+      <formula>$J$15</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
+      <formula>$J$15</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
+      <formula>$J$20</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
+      <formula>$J$23</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+      <formula>$J$31</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
@@ -10494,37 +11382,37 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="33" t="s">
+        <v>580</v>
+      </c>
+      <c r="B1" s="33" t="s">
         <v>581</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="C1" s="33" t="s">
+        <v>583</v>
+      </c>
+      <c r="D1" s="33" t="s">
         <v>582</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="E1" s="33" t="s">
         <v>584</v>
       </c>
-      <c r="D1" s="33" t="s">
-        <v>583</v>
-      </c>
-      <c r="E1" s="33" t="s">
+      <c r="F1" s="33" t="s">
         <v>585</v>
       </c>
-      <c r="F1" s="33" t="s">
+      <c r="G1" s="33" t="s">
         <v>586</v>
       </c>
-      <c r="G1" s="33" t="s">
+      <c r="H1" s="33" t="s">
         <v>587</v>
       </c>
-      <c r="H1" s="33" t="s">
+      <c r="I1" s="33" t="s">
+        <v>590</v>
+      </c>
+      <c r="J1" s="33" t="s">
         <v>588</v>
       </c>
-      <c r="I1" s="33" t="s">
-        <v>591</v>
-      </c>
-      <c r="J1" s="33" t="s">
+      <c r="K1" s="33" t="s">
         <v>589</v>
-      </c>
-      <c r="K1" s="33" t="s">
-        <v>590</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10750,7 +11638,7 @@
       </c>
       <c r="E13" s="14"/>
       <c r="F13" s="26" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="G13" s="12"/>
       <c r="H13" s="12"/>
@@ -10766,7 +11654,7 @@
       </c>
       <c r="E14" s="14"/>
       <c r="F14" s="26" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G14" s="12" t="s">
         <v>478</v>
@@ -10788,7 +11676,7 @@
       </c>
       <c r="E15" s="14"/>
       <c r="F15" s="26" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="G15" s="12" t="s">
         <v>474</v>
@@ -10900,7 +11788,7 @@
         <v>303</v>
       </c>
       <c r="F20" s="26" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="G20" s="12"/>
       <c r="H20" s="12" t="s">
@@ -10946,7 +11834,7 @@
         <v>303</v>
       </c>
       <c r="F22" s="26" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="G22" s="12"/>
       <c r="H22" s="12" t="s">
@@ -11008,7 +11896,7 @@
         <v>7</v>
       </c>
       <c r="D25" s="28" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E25" s="14" t="s">
         <v>303</v>
@@ -11120,13 +12008,13 @@
         <v>7</v>
       </c>
       <c r="D30" s="31" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E30" s="14" t="s">
         <v>305</v>
       </c>
       <c r="F30" s="26" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="G30" s="12"/>
       <c r="H30" s="12" t="s">
@@ -11140,11 +12028,11 @@
         <v>7</v>
       </c>
       <c r="D31" s="28" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E31" s="14"/>
       <c r="F31" s="26" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="G31" s="12"/>
       <c r="H31" s="12" t="s">
@@ -11158,7 +12046,7 @@
         <v>7</v>
       </c>
       <c r="D32" s="30" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E32" s="14"/>
       <c r="F32" s="26" t="s">
@@ -11204,7 +12092,7 @@
       </c>
       <c r="E34" s="14"/>
       <c r="F34" s="26" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="G34" s="12"/>
       <c r="H34" s="12" t="s">
@@ -11238,7 +12126,7 @@
         <v>7</v>
       </c>
       <c r="D36" s="31" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E36" s="14"/>
       <c r="F36" s="26" t="s">
@@ -11318,7 +12206,7 @@
         <v>7</v>
       </c>
       <c r="D40" s="30" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E40" s="14" t="s">
         <v>305</v>
@@ -11340,7 +12228,7 @@
         <v>7</v>
       </c>
       <c r="D41" s="30" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E41" s="14"/>
       <c r="F41" s="26" t="s">
@@ -11378,7 +12266,7 @@
         <v>7</v>
       </c>
       <c r="D43" s="28" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E43" s="14" t="s">
         <v>305</v>
@@ -11886,7 +12774,7 @@
         <v>7</v>
       </c>
       <c r="D66" s="11" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E66" s="14" t="s">
         <v>303</v>
@@ -12022,7 +12910,7 @@
         <v>7</v>
       </c>
       <c r="D72" s="31" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E72" s="14" t="s">
         <v>303</v>
@@ -12046,7 +12934,7 @@
         <v>7</v>
       </c>
       <c r="D73" s="28" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E73" s="14" t="s">
         <v>305</v>

--- a/trunk/biz/MC-MSC-Web/qxy接口定义文档2016-8-8/【千校云】bug列表.xlsx
+++ b/trunk/biz/MC-MSC-Web/qxy接口定义文档2016-8-8/【千校云】bug列表.xlsx
@@ -100,7 +100,7 @@
   </definedNames>
   <calcPr calcId="152511" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId10"/>
+    <pivotCache cacheId="0" r:id="rId10"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -111,7 +111,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1543" uniqueCount="848">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1545" uniqueCount="853">
   <si>
     <t>/qxy/trip</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2658,10 +2658,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/qxy/class?page=[page]&amp;size=[size]&amp;token=[token]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://139.196.101.78:8668/class?page=1&amp;size=1&amp;token=910820738640559462371283192</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3868,6 +3864,30 @@
   </si>
   <si>
     <t>待测试</t>
+  </si>
+  <si>
+    <t>415错误，应该是该接口的content-type没有设定为：application/json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/qxy/class?termId=[termId]&amp;page=[page]&amp;size=[size]&amp;token=[token]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法获取班级列表,文档已更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>感觉和新增接口弄混了，返回的错误是重名，反馈人郑宇昂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反馈人郑宇昂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4090,7 +4110,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4211,6 +4231,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4441,11 +4464,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1978993760"/>
-        <c:axId val="-1978995392"/>
+        <c:axId val="636240768"/>
+        <c:axId val="636245664"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1978993760"/>
+        <c:axId val="636240768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4487,7 +4510,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1978995392"/>
+        <c:crossAx val="636245664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4495,7 +4518,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1978995392"/>
+        <c:axId val="636245664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4545,7 +4568,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1978993760"/>
+        <c:crossAx val="636240768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4559,7 +4582,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7323,7 +7345,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A1:A90" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField axis="axisRow" showAll="0">
@@ -8084,452 +8106,452 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="37" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="38" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" s="39" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" s="39" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" s="39" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" s="39" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" s="39" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" s="39" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9" s="39" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" s="39" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A11" s="39" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A12" s="39" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A13" s="39" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A14" s="38" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A15" s="39" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A16" s="39" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="39" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="39" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" s="39" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="39" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" s="38" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" s="39" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" s="39" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" s="39" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25" s="39" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A26" s="39" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A27" s="39" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A28" s="39" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A29" s="39" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A30" s="39" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A31" s="39" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A32" s="39" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A33" s="39" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A34" s="39" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A35" s="39" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A36" s="39" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A37" s="39" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A38" s="39" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A39" s="39" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A40" s="39" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A41" s="39" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A42" s="39" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A43" s="39" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A44" s="39" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A45" s="39" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A46" s="39" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A47" s="39" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A48" s="39" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A49" s="39" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A50" s="39" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A51" s="39" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A52" s="39" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A53" s="39" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A54" s="39" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A55" s="39" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A56" s="39" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A57" s="39" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A58" s="39" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A59" s="39" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A60" s="39" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A61" s="39" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A62" s="39" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A63" s="39" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A64" s="39" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A65" s="39" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A66" s="39" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A67" s="39" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A68" s="39" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A69" s="39" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A70" s="39" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A71" s="39" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A72" s="39" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A73" s="39" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A74" s="39" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A75" s="39" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A76" s="39" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A77" s="39" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A78" s="39" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A79" s="39" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A80" s="39" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A81" s="39" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A82" s="39" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A83" s="39" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A84" s="39" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A85" s="39" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A86" s="39" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A87" s="39" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A88" s="39" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A89" s="39" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A90" s="38" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
   </sheetData>
@@ -8544,10 +8566,10 @@
   <dimension ref="A1:AL175"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H101" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E22" sqref="E22"/>
+      <selection pane="bottomRight" activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -8582,7 +8604,7 @@
         <v>298</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>297</v>
@@ -8600,10 +8622,10 @@
         <v>355</v>
       </c>
       <c r="J1" s="36" t="s">
+        <v>763</v>
+      </c>
+      <c r="K1" s="30" t="s">
         <v>764</v>
-      </c>
-      <c r="K1" s="30" t="s">
-        <v>765</v>
       </c>
       <c r="L1" s="25" t="s">
         <v>320</v>
@@ -8632,7 +8654,7 @@
         <v>292</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>291</v>
@@ -8647,7 +8669,7 @@
         <v>305</v>
       </c>
       <c r="J2" s="36" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>289</v>
@@ -8655,7 +8677,7 @@
     </row>
     <row r="3" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D3" s="23" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>288</v>
@@ -8664,7 +8686,7 @@
         <v>178</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H3" s="24" t="s">
         <v>305</v>
@@ -8684,7 +8706,7 @@
     </row>
     <row r="4" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D4" s="23" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>286</v>
@@ -8699,12 +8721,12 @@
         <v>305</v>
       </c>
       <c r="J4" s="36" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="5" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D5" s="23" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>284</v>
@@ -8742,7 +8764,7 @@
         <v>282</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>281</v>
@@ -8751,7 +8773,7 @@
         <v>178</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H6" s="24" t="s">
         <v>305</v>
@@ -8777,7 +8799,7 @@
     </row>
     <row r="7" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D7" s="23" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>280</v>
@@ -8786,7 +8808,7 @@
         <v>178</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H7" s="24" t="s">
         <v>305</v>
@@ -8806,7 +8828,7 @@
     </row>
     <row r="8" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D8" s="23" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>279</v>
@@ -8815,7 +8837,7 @@
         <v>178</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="H8" s="24" t="s">
         <v>305</v>
@@ -8832,7 +8854,7 @@
     </row>
     <row r="9" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D9" s="23" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>278</v>
@@ -8841,7 +8863,7 @@
         <v>178</v>
       </c>
       <c r="G9" s="19" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H9" s="24" t="s">
         <v>305</v>
@@ -8858,7 +8880,7 @@
     </row>
     <row r="10" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D10" s="23" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>255</v>
@@ -8873,7 +8895,7 @@
         <v>305</v>
       </c>
       <c r="J10" s="36" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="P10" s="2" t="s">
         <v>277</v>
@@ -8881,7 +8903,7 @@
     </row>
     <row r="11" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D11" s="23" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>276</v>
@@ -8890,7 +8912,7 @@
         <v>178</v>
       </c>
       <c r="G11" s="19" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H11" s="24" t="s">
         <v>305</v>
@@ -8910,7 +8932,7 @@
     </row>
     <row r="12" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D12" s="23" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>275</v>
@@ -8919,7 +8941,7 @@
         <v>178</v>
       </c>
       <c r="G12" s="19" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="H12" s="24" t="s">
         <v>305</v>
@@ -8948,7 +8970,7 @@
         <v>273</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>272</v>
@@ -8957,7 +8979,7 @@
         <v>178</v>
       </c>
       <c r="G13" s="19" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H13" s="24" t="s">
         <v>305</v>
@@ -8980,7 +9002,7 @@
     </row>
     <row r="14" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D14" s="23" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>499</v>
@@ -9009,7 +9031,7 @@
     </row>
     <row r="15" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D15" s="23" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>270</v>
@@ -9024,7 +9046,7 @@
         <v>303</v>
       </c>
       <c r="J15" s="36" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="M15" s="25" t="s">
         <v>402</v>
@@ -9032,7 +9054,7 @@
     </row>
     <row r="16" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D16" s="23" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>269</v>
@@ -9061,7 +9083,7 @@
     </row>
     <row r="17" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D17" s="23" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>268</v>
@@ -9076,7 +9098,7 @@
         <v>303</v>
       </c>
       <c r="J17" s="36" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="M17" s="25" t="s">
         <v>325</v>
@@ -9084,7 +9106,7 @@
     </row>
     <row r="18" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D18" s="23" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>266</v>
@@ -9099,7 +9121,7 @@
         <v>305</v>
       </c>
       <c r="J18" s="36" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.15">
@@ -9107,7 +9129,7 @@
         <v>264</v>
       </c>
       <c r="D19" s="23" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>263</v>
@@ -9122,7 +9144,7 @@
         <v>303</v>
       </c>
       <c r="J19" s="36" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="L19" s="25" t="s">
         <v>495</v>
@@ -9133,7 +9155,7 @@
     </row>
     <row r="20" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D20" s="23" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>261</v>
@@ -9148,7 +9170,7 @@
         <v>303</v>
       </c>
       <c r="J20" s="36" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="L20" s="25" t="s">
         <v>356</v>
@@ -9162,7 +9184,7 @@
     </row>
     <row r="21" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D21" s="23" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>260</v>
@@ -9177,7 +9199,7 @@
         <v>303</v>
       </c>
       <c r="J21" s="36" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="L21" s="25" t="s">
         <v>357</v>
@@ -9188,7 +9210,7 @@
     </row>
     <row r="22" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D22" s="23" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>259</v>
@@ -9203,13 +9225,16 @@
         <v>303</v>
       </c>
       <c r="J22" s="36" t="s">
-        <v>788</v>
+        <v>380</v>
       </c>
       <c r="L22" s="25" t="s">
         <v>358</v>
       </c>
       <c r="M22" s="25" t="s">
-        <v>325</v>
+        <v>847</v>
+      </c>
+      <c r="N22" s="24" t="s">
+        <v>852</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -9223,7 +9248,7 @@
         <v>256</v>
       </c>
       <c r="D23" s="23" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>255</v>
@@ -9232,13 +9257,13 @@
         <v>178</v>
       </c>
       <c r="G23" s="19" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="I23" s="24" t="s">
         <v>312</v>
       </c>
       <c r="J23" s="36" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="L23" s="25" t="s">
         <v>477</v>
@@ -9252,7 +9277,7 @@
     </row>
     <row r="24" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D24" s="23" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>254</v>
@@ -9261,13 +9286,13 @@
         <v>178</v>
       </c>
       <c r="G24" s="19" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="I24" s="24" t="s">
         <v>312</v>
       </c>
       <c r="J24" s="36" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="L24" s="25" t="s">
         <v>473</v>
@@ -9281,7 +9306,7 @@
     </row>
     <row r="25" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D25" s="23" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>253</v>
@@ -9290,7 +9315,7 @@
         <v>178</v>
       </c>
       <c r="G25" s="19" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="H25" s="24" t="s">
         <v>303</v>
@@ -9313,7 +9338,7 @@
     </row>
     <row r="26" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D26" s="23" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>252</v>
@@ -9322,13 +9347,13 @@
         <v>7</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H26" s="24" t="s">
         <v>303</v>
       </c>
       <c r="J26" s="36" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="L26" s="25" t="s">
         <v>469</v>
@@ -9342,7 +9367,7 @@
     </row>
     <row r="27" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D27" s="23" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>250</v>
@@ -9357,7 +9382,7 @@
         <v>303</v>
       </c>
       <c r="J27" s="36" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="L27" s="25" t="s">
         <v>520</v>
@@ -9371,7 +9396,7 @@
     </row>
     <row r="28" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D28" s="23" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>249</v>
@@ -9400,7 +9425,7 @@
     </row>
     <row r="29" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D29" s="23" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>248</v>
@@ -9423,7 +9448,7 @@
     </row>
     <row r="30" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D30" s="23" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>247</v>
@@ -9446,7 +9471,7 @@
     </row>
     <row r="31" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D31" s="23" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>245</v>
@@ -9461,7 +9486,7 @@
         <v>303</v>
       </c>
       <c r="J31" s="36" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="M31" s="25" t="s">
         <v>475</v>
@@ -9472,7 +9497,7 @@
     </row>
     <row r="32" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D32" s="23" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>195</v>
@@ -9484,12 +9509,12 @@
         <v>194</v>
       </c>
       <c r="J32" s="36" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="33" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D33" s="23" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>193</v>
@@ -9501,7 +9526,7 @@
         <v>192</v>
       </c>
       <c r="J33" s="36" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="34" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -9509,7 +9534,7 @@
         <v>243</v>
       </c>
       <c r="D34" s="23" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>242</v>
@@ -9524,7 +9549,7 @@
         <v>303</v>
       </c>
       <c r="J34" s="36" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="L34" s="25" t="s">
         <v>431</v>
@@ -9535,7 +9560,7 @@
     </row>
     <row r="35" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D35" s="23" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>241</v>
@@ -9550,13 +9575,13 @@
         <v>303</v>
       </c>
       <c r="J35" s="36" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="L35" s="25" t="s">
         <v>512</v>
       </c>
       <c r="M35" s="25" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="N35" s="24" t="s">
         <v>514</v>
@@ -9564,7 +9589,7 @@
     </row>
     <row r="36" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D36" s="23" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>240</v>
@@ -9579,13 +9604,13 @@
         <v>303</v>
       </c>
       <c r="J36" s="36" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="L36" s="25" t="s">
         <v>513</v>
       </c>
       <c r="M36" s="25" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="N36" s="24" t="s">
         <v>515</v>
@@ -9596,7 +9621,7 @@
         <v>238</v>
       </c>
       <c r="D37" s="23" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>237</v>
@@ -9611,7 +9636,7 @@
         <v>303</v>
       </c>
       <c r="J37" s="36" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="M37" s="25" t="s">
         <v>433</v>
@@ -9619,7 +9644,7 @@
     </row>
     <row r="38" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D38" s="23" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>236</v>
@@ -9634,7 +9659,7 @@
         <v>303</v>
       </c>
       <c r="J38" s="36" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="L38" s="25" t="s">
         <v>434</v>
@@ -9645,7 +9670,7 @@
     </row>
     <row r="39" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D39" s="23" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>235</v>
@@ -9660,13 +9685,13 @@
         <v>303</v>
       </c>
       <c r="J39" s="36" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="L39" s="25" t="s">
         <v>522</v>
       </c>
       <c r="M39" s="25" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="N39" s="24" t="s">
         <v>507</v>
@@ -9680,7 +9705,7 @@
         <v>232</v>
       </c>
       <c r="D40" s="23" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>231</v>
@@ -9689,7 +9714,7 @@
         <v>178</v>
       </c>
       <c r="G40" s="19" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="H40" s="24" t="s">
         <v>303</v>
@@ -9698,7 +9723,7 @@
         <v>312</v>
       </c>
       <c r="J40" s="36" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="M40" s="25" t="s">
         <v>481</v>
@@ -9706,7 +9731,7 @@
     </row>
     <row r="41" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D41" s="23" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>230</v>
@@ -9735,7 +9760,7 @@
     </row>
     <row r="42" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D42" s="23" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>229</v>
@@ -9750,7 +9775,7 @@
         <v>303</v>
       </c>
       <c r="J42" s="36" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="M42" s="25" t="s">
         <v>480</v>
@@ -9758,7 +9783,7 @@
     </row>
     <row r="43" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D43" s="23" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>227</v>
@@ -9767,7 +9792,7 @@
         <v>178</v>
       </c>
       <c r="G43" s="19" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H43" s="24" t="s">
         <v>303</v>
@@ -9776,7 +9801,7 @@
         <v>312</v>
       </c>
       <c r="J43" s="36" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="L43" s="25" t="s">
         <v>479</v>
@@ -9787,7 +9812,7 @@
     </row>
     <row r="44" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D44" s="23" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>226</v>
@@ -9802,7 +9827,7 @@
         <v>303</v>
       </c>
       <c r="J44" s="36" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="M44" s="25" t="s">
         <v>485</v>
@@ -9816,7 +9841,7 @@
         <v>224</v>
       </c>
       <c r="D45" s="23" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>223</v>
@@ -9828,7 +9853,7 @@
         <v>222</v>
       </c>
       <c r="J45" s="36" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="L45" s="25" t="s">
         <v>436</v>
@@ -9839,7 +9864,7 @@
     </row>
     <row r="46" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D46" s="23" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E46" s="5" t="s">
         <v>221</v>
@@ -9854,7 +9879,7 @@
         <v>303</v>
       </c>
       <c r="J46" s="36" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="M46" s="25" t="s">
         <v>402</v>
@@ -9862,7 +9887,7 @@
     </row>
     <row r="47" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D47" s="23" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>220</v>
@@ -9877,7 +9902,7 @@
         <v>303</v>
       </c>
       <c r="J47" s="36" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="L47" s="25" t="s">
         <v>435</v>
@@ -9888,7 +9913,7 @@
     </row>
     <row r="48" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D48" s="23" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>219</v>
@@ -9903,16 +9928,16 @@
         <v>303</v>
       </c>
       <c r="J48" s="36" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="L48" s="25" t="s">
         <v>523</v>
       </c>
       <c r="M48" s="25" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="N48" s="24" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="49" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -9920,7 +9945,7 @@
         <v>217</v>
       </c>
       <c r="D49" s="23" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>216</v>
@@ -9929,13 +9954,13 @@
         <v>178</v>
       </c>
       <c r="G49" s="20" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="I49" s="24" t="s">
         <v>312</v>
       </c>
       <c r="J49" s="36" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="L49" s="25" t="s">
         <v>439</v>
@@ -9952,7 +9977,7 @@
     </row>
     <row r="50" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D50" s="23" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>215</v>
@@ -9967,7 +9992,7 @@
         <v>303</v>
       </c>
       <c r="J50" s="36" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="L50" s="25" t="s">
         <v>437</v>
@@ -9978,7 +10003,7 @@
     </row>
     <row r="51" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D51" s="23" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E51" s="5" t="s">
         <v>214</v>
@@ -9993,7 +10018,7 @@
         <v>303</v>
       </c>
       <c r="J51" s="36" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="L51" s="25" t="s">
         <v>438</v>
@@ -10004,7 +10029,7 @@
     </row>
     <row r="52" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D52" s="23" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E52" s="5" t="s">
         <v>213</v>
@@ -10019,7 +10044,7 @@
         <v>303</v>
       </c>
       <c r="J52" s="36" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="L52" s="25" t="s">
         <v>524</v>
@@ -10033,7 +10058,7 @@
     </row>
     <row r="53" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D53" s="23" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E53" s="5" t="s">
         <v>195</v>
@@ -10045,12 +10070,12 @@
         <v>194</v>
       </c>
       <c r="J53" s="36" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="54" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D54" s="23" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E54" s="5" t="s">
         <v>193</v>
@@ -10062,7 +10087,7 @@
         <v>192</v>
       </c>
       <c r="J54" s="36" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="55" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10076,7 +10101,7 @@
         <v>211</v>
       </c>
       <c r="D55" s="23" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E55" s="5" t="s">
         <v>210</v>
@@ -10090,7 +10115,7 @@
       <c r="H55" s="24"/>
       <c r="I55" s="24"/>
       <c r="J55" s="36" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="K55" s="30"/>
       <c r="L55" s="25"/>
@@ -10102,7 +10127,7 @@
     <row r="56" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="6"/>
       <c r="D56" s="23" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E56" s="18" t="s">
         <v>208</v>
@@ -10111,7 +10136,7 @@
         <v>178</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H56" s="24" t="s">
         <v>303</v>
@@ -10140,16 +10165,16 @@
     <row r="57" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="6"/>
       <c r="D57" s="23" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="E57" s="18" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="F57" s="4" t="s">
         <v>7</v>
       </c>
       <c r="G57" s="19" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H57" s="24" t="s">
         <v>303</v>
@@ -10176,7 +10201,7 @@
     <row r="58" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="6"/>
       <c r="D58" s="23" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E58" s="5" t="s">
         <v>207</v>
@@ -10190,7 +10215,7 @@
       <c r="H58" s="24"/>
       <c r="I58" s="24"/>
       <c r="J58" s="36" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="K58" s="30"/>
       <c r="L58" s="25"/>
@@ -10206,7 +10231,7 @@
         <v>205</v>
       </c>
       <c r="D59" s="23" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E59" s="5" t="s">
         <v>204</v>
@@ -10215,7 +10240,7 @@
         <v>178</v>
       </c>
       <c r="G59" s="19" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H59" s="24" t="s">
         <v>303</v>
@@ -10246,7 +10271,7 @@
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
       <c r="D60" s="23" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E60" s="5" t="s">
         <v>203</v>
@@ -10260,7 +10285,7 @@
       <c r="H60" s="24"/>
       <c r="I60" s="24"/>
       <c r="J60" s="36" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="K60" s="30"/>
       <c r="L60" s="25"/>
@@ -10274,7 +10299,7 @@
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
       <c r="D61" s="23" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E61" s="5" t="s">
         <v>201</v>
@@ -10308,7 +10333,7 @@
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
       <c r="D62" s="23" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="E62" s="5" t="s">
         <v>200</v>
@@ -10346,7 +10371,7 @@
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
       <c r="D63" s="23" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E63" s="5" t="s">
         <v>199</v>
@@ -10384,7 +10409,7 @@
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
       <c r="D64" s="23" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E64" s="5" t="s">
         <v>197</v>
@@ -10422,7 +10447,7 @@
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
       <c r="D65" s="23" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E65" s="5" t="s">
         <v>195</v>
@@ -10436,7 +10461,7 @@
       <c r="H65" s="24"/>
       <c r="I65" s="24"/>
       <c r="J65" s="36" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="K65" s="30"/>
       <c r="L65" s="25"/>
@@ -10450,7 +10475,7 @@
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
       <c r="D66" s="23" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E66" s="5" t="s">
         <v>193</v>
@@ -10464,7 +10489,7 @@
       <c r="H66" s="24"/>
       <c r="I66" s="24"/>
       <c r="J66" s="36" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="K66" s="30"/>
       <c r="L66" s="25"/>
@@ -10480,7 +10505,7 @@
         <v>191</v>
       </c>
       <c r="D67" s="23" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E67" s="5" t="s">
         <v>190</v>
@@ -10489,7 +10514,7 @@
         <v>178</v>
       </c>
       <c r="G67" s="21" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H67" s="24" t="s">
         <v>305</v>
@@ -10498,7 +10523,7 @@
         <v>312</v>
       </c>
       <c r="J67" s="36" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="K67" s="30"/>
       <c r="L67" s="25"/>
@@ -10516,7 +10541,7 @@
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
       <c r="D68" s="23" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="E68" s="5" t="s">
         <v>188</v>
@@ -10525,14 +10550,14 @@
         <v>178</v>
       </c>
       <c r="G68" s="19" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="H68" s="24"/>
       <c r="I68" s="24" t="s">
         <v>312</v>
       </c>
       <c r="J68" s="36" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="K68" s="30"/>
       <c r="L68" s="25"/>
@@ -10550,7 +10575,7 @@
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
       <c r="D69" s="23" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E69" s="5" t="s">
         <v>186</v>
@@ -10559,7 +10584,7 @@
         <v>178</v>
       </c>
       <c r="G69" s="20" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H69" s="24" t="s">
         <v>303</v>
@@ -10568,12 +10593,12 @@
         <v>312</v>
       </c>
       <c r="J69" s="36" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="K69" s="30"/>
       <c r="L69" s="25"/>
       <c r="M69" s="25" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="N69" s="24" t="s">
         <v>341</v>
@@ -10588,7 +10613,7 @@
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
       <c r="D70" s="23" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E70" s="5" t="s">
         <v>185</v>
@@ -10606,14 +10631,14 @@
         <v>312</v>
       </c>
       <c r="J70" s="36" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="K70" s="30"/>
       <c r="L70" s="25" t="s">
+        <v>750</v>
+      </c>
+      <c r="M70" s="25" t="s">
         <v>751</v>
-      </c>
-      <c r="M70" s="25" t="s">
-        <v>752</v>
       </c>
       <c r="N70" s="24" t="s">
         <v>341</v>
@@ -10628,7 +10653,7 @@
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
       <c r="D71" s="23" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E71" s="5" t="s">
         <v>184</v>
@@ -10644,11 +10669,11 @@
       </c>
       <c r="I71" s="24"/>
       <c r="J71" s="36" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="K71" s="30"/>
       <c r="L71" s="25" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="M71" s="25" t="s">
         <v>325</v>
@@ -10664,7 +10689,7 @@
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
       <c r="D72" s="23" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E72" s="5" t="s">
         <v>182</v>
@@ -10682,14 +10707,14 @@
         <v>312</v>
       </c>
       <c r="J72" s="36" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="K72" s="30"/>
       <c r="L72" s="25" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="M72" s="25" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="N72" s="24" t="s">
         <v>345</v>
@@ -10704,7 +10729,7 @@
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
       <c r="D73" s="23" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E73" s="5" t="s">
         <v>179</v>
@@ -10713,7 +10738,7 @@
         <v>178</v>
       </c>
       <c r="G73" s="21" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H73" s="24"/>
       <c r="I73" s="24" t="s">
@@ -10740,7 +10765,7 @@
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
       <c r="D74" s="23" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="E74" s="5" t="s">
         <v>177</v>
@@ -10749,7 +10774,7 @@
         <v>176</v>
       </c>
       <c r="G74" s="11" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="H74" s="24"/>
       <c r="I74" s="24" t="s">
@@ -10776,7 +10801,7 @@
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
       <c r="D75" s="23" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E75" s="5" t="s">
         <v>175</v>
@@ -10812,7 +10837,7 @@
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
       <c r="D76" s="23" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="E76" s="5" t="s">
         <v>173</v>
@@ -10850,7 +10875,7 @@
         <v>169</v>
       </c>
       <c r="D77" s="23" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E77" s="5" t="s">
         <v>55</v>
@@ -10864,7 +10889,7 @@
       <c r="H77" s="24"/>
       <c r="I77" s="24"/>
       <c r="J77" s="36" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="K77" s="30"/>
       <c r="L77" s="25"/>
@@ -10878,7 +10903,7 @@
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
       <c r="D78" s="23" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="E78" s="5" t="s">
         <v>168</v>
@@ -10887,7 +10912,7 @@
         <v>7</v>
       </c>
       <c r="G78" s="20" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H78" s="24" t="s">
         <v>305</v>
@@ -10900,7 +10925,7 @@
       </c>
       <c r="K78" s="30"/>
       <c r="L78" s="25" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="M78" s="25" t="s">
         <v>428</v>
@@ -10918,7 +10943,7 @@
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
       <c r="D79" s="23" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="E79" s="5" t="s">
         <v>167</v>
@@ -10927,7 +10952,7 @@
         <v>7</v>
       </c>
       <c r="G79" s="20" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="H79" s="24"/>
       <c r="I79" s="24" t="s">
@@ -10938,10 +10963,10 @@
       </c>
       <c r="K79" s="30"/>
       <c r="L79" s="25" t="s">
+        <v>757</v>
+      </c>
+      <c r="M79" s="25" t="s">
         <v>758</v>
-      </c>
-      <c r="M79" s="25" t="s">
-        <v>759</v>
       </c>
       <c r="N79" s="24" t="s">
         <v>341</v>
@@ -10956,7 +10981,7 @@
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
       <c r="D80" s="23" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E80" s="5" t="s">
         <v>166</v>
@@ -10970,7 +10995,7 @@
       <c r="H80" s="24"/>
       <c r="I80" s="24"/>
       <c r="J80" s="36" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="K80" s="30"/>
       <c r="L80" s="25"/>
@@ -10984,7 +11009,7 @@
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
       <c r="D81" s="23" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E81" s="5" t="s">
         <v>164</v>
@@ -10998,7 +11023,7 @@
       <c r="H81" s="24"/>
       <c r="I81" s="24"/>
       <c r="J81" s="36" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="K81" s="30"/>
       <c r="L81" s="25"/>
@@ -11012,7 +11037,7 @@
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
       <c r="D82" s="23" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E82" s="5" t="s">
         <v>162</v>
@@ -11026,7 +11051,7 @@
       <c r="H82" s="24"/>
       <c r="I82" s="24"/>
       <c r="J82" s="36" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="K82" s="30"/>
       <c r="L82" s="25"/>
@@ -11042,7 +11067,7 @@
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
       <c r="D83" s="23" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E83" s="5" t="s">
         <v>159</v>
@@ -11056,7 +11081,7 @@
       <c r="H83" s="24"/>
       <c r="I83" s="24"/>
       <c r="J83" s="36" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="K83" s="30"/>
       <c r="L83" s="25"/>
@@ -11070,7 +11095,7 @@
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
       <c r="D84" s="23" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E84" s="5" t="s">
         <v>157</v>
@@ -11106,7 +11131,7 @@
         <v>154</v>
       </c>
       <c r="D85" s="23" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E85" s="5" t="s">
         <v>55</v>
@@ -11120,7 +11145,7 @@
       <c r="H85" s="24"/>
       <c r="I85" s="24"/>
       <c r="J85" s="36" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="K85" s="30"/>
       <c r="L85" s="25"/>
@@ -11134,7 +11159,7 @@
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
       <c r="D86" s="23" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E86" s="16" t="s">
         <v>153</v>
@@ -11143,7 +11168,7 @@
         <v>85</v>
       </c>
       <c r="G86" s="19" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="H86" s="24" t="s">
         <v>305</v>
@@ -11172,7 +11197,7 @@
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
       <c r="D87" s="23" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E87" s="5" t="s">
         <v>151</v>
@@ -11188,7 +11213,7 @@
       </c>
       <c r="I87" s="24"/>
       <c r="J87" s="36" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="K87" s="30"/>
       <c r="L87" s="25"/>
@@ -11204,7 +11229,7 @@
         <v>149</v>
       </c>
       <c r="D88" s="23" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="E88" s="5" t="s">
         <v>112</v>
@@ -11220,7 +11245,7 @@
       </c>
       <c r="I88" s="24"/>
       <c r="J88" s="36" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="K88" s="30"/>
       <c r="L88" s="25"/>
@@ -11234,7 +11259,7 @@
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
       <c r="D89" s="23" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E89" s="5" t="s">
         <v>110</v>
@@ -11250,7 +11275,7 @@
       </c>
       <c r="I89" s="24"/>
       <c r="J89" s="36" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="K89" s="30"/>
       <c r="L89" s="25"/>
@@ -11264,7 +11289,7 @@
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
       <c r="D90" s="23" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="E90" s="5" t="s">
         <v>146</v>
@@ -11280,7 +11305,7 @@
       </c>
       <c r="I90" s="24"/>
       <c r="J90" s="36" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="K90" s="30"/>
       <c r="L90" s="25"/>
@@ -11294,7 +11319,7 @@
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
       <c r="D91" s="23" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E91" s="5" t="s">
         <v>144</v>
@@ -11310,7 +11335,7 @@
       </c>
       <c r="I91" s="24"/>
       <c r="J91" s="36" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="K91" s="30"/>
       <c r="L91" s="25"/>
@@ -11326,7 +11351,7 @@
         <v>142</v>
       </c>
       <c r="D92" s="23" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E92" s="16" t="s">
         <v>141</v>
@@ -11364,7 +11389,7 @@
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
       <c r="D93" s="23" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="E93" s="16" t="s">
         <v>140</v>
@@ -11400,7 +11425,7 @@
     <row r="94" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="6"/>
       <c r="D94" s="23" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="E94" s="16" t="s">
         <v>138</v>
@@ -11439,7 +11464,7 @@
         <v>136</v>
       </c>
       <c r="D95" s="23" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="E95" s="5" t="s">
         <v>135</v>
@@ -11455,7 +11480,7 @@
       </c>
       <c r="I95" s="24"/>
       <c r="J95" s="36" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="K95" s="30"/>
       <c r="L95" s="25"/>
@@ -11467,7 +11492,7 @@
     <row r="96" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="6"/>
       <c r="D96" s="23" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="E96" s="5" t="s">
         <v>134</v>
@@ -11483,7 +11508,7 @@
       </c>
       <c r="I96" s="24"/>
       <c r="J96" s="36" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="K96" s="30"/>
       <c r="L96" s="25"/>
@@ -11503,7 +11528,7 @@
         <v>131</v>
       </c>
       <c r="D97" s="23" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="E97" s="5" t="s">
         <v>130</v>
@@ -11519,7 +11544,7 @@
       </c>
       <c r="I97" s="24"/>
       <c r="J97" s="36" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="K97" s="30"/>
       <c r="L97" s="25" t="s">
@@ -11535,7 +11560,7 @@
     <row r="98" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="6"/>
       <c r="D98" s="23" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="E98" s="5" t="s">
         <v>129</v>
@@ -11544,7 +11569,7 @@
         <v>85</v>
       </c>
       <c r="G98" s="19" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H98" s="24" t="s">
         <v>303</v>
@@ -11553,12 +11578,12 @@
         <v>312</v>
       </c>
       <c r="J98" s="36" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="K98" s="30"/>
       <c r="L98" s="25"/>
       <c r="M98" s="25" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="N98" s="24"/>
       <c r="O98" s="34"/>
@@ -11567,7 +11592,7 @@
     <row r="99" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="6"/>
       <c r="D99" s="23" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="E99" s="5" t="s">
         <v>128</v>
@@ -11599,7 +11624,7 @@
     <row r="100" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="6"/>
       <c r="D100" s="23" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E100" s="5" t="s">
         <v>127</v>
@@ -11615,7 +11640,7 @@
       </c>
       <c r="I100" s="24"/>
       <c r="J100" s="36" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="K100" s="30"/>
       <c r="L100" s="25"/>
@@ -11629,7 +11654,7 @@
     <row r="101" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="6"/>
       <c r="D101" s="23" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="E101" s="5" t="s">
         <v>126</v>
@@ -11645,7 +11670,7 @@
       </c>
       <c r="I101" s="24"/>
       <c r="J101" s="36" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="K101" s="30"/>
       <c r="L101" s="25"/>
@@ -11662,7 +11687,7 @@
         <v>124</v>
       </c>
       <c r="D102" s="23" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="E102" s="5" t="s">
         <v>123</v>
@@ -11678,14 +11703,14 @@
       </c>
       <c r="I102" s="24"/>
       <c r="J102" s="36" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="K102" s="30"/>
       <c r="L102" s="28" t="s">
         <v>496</v>
       </c>
       <c r="M102" s="27" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="N102" s="24"/>
       <c r="O102" s="34"/>
@@ -11694,7 +11719,7 @@
     <row r="103" spans="1:16" s="5" customFormat="1" ht="80.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="6"/>
       <c r="D103" s="23" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E103" s="5" t="s">
         <v>121</v>
@@ -11728,7 +11753,7 @@
     <row r="104" spans="1:16" s="5" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="6"/>
       <c r="D104" s="23" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E104" s="5" t="s">
         <v>119</v>
@@ -11762,7 +11787,7 @@
     <row r="105" spans="1:16" s="5" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="6"/>
       <c r="D105" s="23" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E105" s="5" t="s">
         <v>117</v>
@@ -11778,7 +11803,7 @@
       </c>
       <c r="I105" s="24"/>
       <c r="J105" s="36" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="K105" s="30"/>
       <c r="L105" s="25" t="s">
@@ -11802,7 +11827,7 @@
         <v>113</v>
       </c>
       <c r="D106" s="23" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E106" s="5" t="s">
         <v>112</v>
@@ -11818,7 +11843,7 @@
       </c>
       <c r="I106" s="24"/>
       <c r="J106" s="36" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="K106" s="30"/>
       <c r="L106" s="25" t="s">
@@ -11834,7 +11859,7 @@
     <row r="107" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="6"/>
       <c r="D107" s="23" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E107" s="5" t="s">
         <v>110</v>
@@ -11843,7 +11868,7 @@
         <v>85</v>
       </c>
       <c r="G107" s="22" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H107" s="24" t="s">
         <v>303</v>
@@ -11852,7 +11877,7 @@
         <v>312</v>
       </c>
       <c r="J107" s="36" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="K107" s="30"/>
       <c r="L107" s="25" t="s">
@@ -11870,7 +11895,7 @@
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
       <c r="D108" s="23" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E108" s="5" t="s">
         <v>109</v>
@@ -11906,7 +11931,7 @@
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
       <c r="D109" s="23" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="E109" s="5" t="s">
         <v>108</v>
@@ -11922,7 +11947,7 @@
       </c>
       <c r="I109" s="24"/>
       <c r="J109" s="36" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="K109" s="30"/>
       <c r="L109" s="25" t="s">
@@ -11940,7 +11965,7 @@
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
       <c r="D110" s="23" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="E110" s="5" t="s">
         <v>106</v>
@@ -11956,7 +11981,7 @@
       </c>
       <c r="I110" s="24"/>
       <c r="J110" s="36" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="K110" s="30"/>
       <c r="L110" s="25" t="s">
@@ -11976,7 +12001,7 @@
         <v>104</v>
       </c>
       <c r="D111" s="23" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="E111" s="5" t="s">
         <v>103</v>
@@ -11992,7 +12017,7 @@
       </c>
       <c r="I111" s="24"/>
       <c r="J111" s="36" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="K111" s="30"/>
       <c r="L111" s="25" t="s">
@@ -12010,7 +12035,7 @@
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
       <c r="D112" s="23" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E112" s="5" t="s">
         <v>102</v>
@@ -12048,7 +12073,7 @@
       <c r="B113" s="5"/>
       <c r="C113" s="5"/>
       <c r="D113" s="23" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="E113" s="5" t="s">
         <v>101</v>
@@ -12084,7 +12109,7 @@
       <c r="B114" s="5"/>
       <c r="C114" s="5"/>
       <c r="D114" s="23" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="E114" s="5" t="s">
         <v>98</v>
@@ -12100,7 +12125,7 @@
       </c>
       <c r="I114" s="24"/>
       <c r="J114" s="36" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="K114" s="30"/>
       <c r="L114" s="25"/>
@@ -12118,7 +12143,7 @@
         <v>96</v>
       </c>
       <c r="D115" s="23" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="E115" s="5" t="s">
         <v>95</v>
@@ -12134,7 +12159,7 @@
       </c>
       <c r="I115" s="24"/>
       <c r="J115" s="36" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="K115" s="30"/>
       <c r="L115" s="25"/>
@@ -12150,7 +12175,7 @@
       <c r="B116" s="5"/>
       <c r="C116" s="5"/>
       <c r="D116" s="23" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E116" s="5" t="s">
         <v>94</v>
@@ -12166,7 +12191,7 @@
       </c>
       <c r="I116" s="24"/>
       <c r="J116" s="36" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="K116" s="30"/>
       <c r="L116" s="25" t="s">
@@ -12184,7 +12209,7 @@
       <c r="B117" s="5"/>
       <c r="C117" s="5"/>
       <c r="D117" s="23" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="E117" s="5" t="s">
         <v>92</v>
@@ -12200,7 +12225,7 @@
       </c>
       <c r="I117" s="24"/>
       <c r="J117" s="36" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="K117" s="30"/>
       <c r="L117" s="25"/>
@@ -12222,7 +12247,7 @@
         <v>89</v>
       </c>
       <c r="D118" s="23" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E118" s="5" t="s">
         <v>55</v>
@@ -12238,7 +12263,7 @@
       </c>
       <c r="I118" s="24"/>
       <c r="J118" s="36" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="K118" s="30"/>
       <c r="L118" s="25"/>
@@ -12252,7 +12277,7 @@
       <c r="B119" s="5"/>
       <c r="C119" s="5"/>
       <c r="D119" s="23" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="E119" s="5" t="s">
         <v>88</v>
@@ -12261,7 +12286,7 @@
         <v>85</v>
       </c>
       <c r="G119" s="19" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H119" s="24" t="s">
         <v>303</v>
@@ -12270,14 +12295,14 @@
         <v>312</v>
       </c>
       <c r="J119" s="36" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="K119" s="30"/>
       <c r="L119" s="25" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="M119" s="25" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="N119" s="24"/>
       <c r="O119" s="34"/>
@@ -12290,7 +12315,7 @@
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
       <c r="D120" s="23" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="E120" s="5" t="s">
         <v>86</v>
@@ -12299,7 +12324,7 @@
         <v>85</v>
       </c>
       <c r="G120" s="19" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H120" s="24" t="s">
         <v>303</v>
@@ -12308,14 +12333,14 @@
         <v>312</v>
       </c>
       <c r="J120" s="36" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="K120" s="30"/>
       <c r="L120" s="25" t="s">
         <v>447</v>
       </c>
       <c r="M120" s="25" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="N120" s="24" t="s">
         <v>369</v>
@@ -12332,7 +12357,7 @@
         <v>84</v>
       </c>
       <c r="D121" s="23" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E121" s="5" t="s">
         <v>55</v>
@@ -12348,7 +12373,7 @@
       </c>
       <c r="I121" s="24"/>
       <c r="J121" s="36" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="K121" s="30"/>
       <c r="L121" s="25"/>
@@ -12362,7 +12387,7 @@
       <c r="B122" s="5"/>
       <c r="C122" s="5"/>
       <c r="D122" s="23" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="E122" s="18" t="s">
         <v>83</v>
@@ -12371,7 +12396,7 @@
         <v>7</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H122" s="24" t="s">
         <v>303</v>
@@ -12398,16 +12423,16 @@
       <c r="B123" s="5"/>
       <c r="C123" s="5"/>
       <c r="D123" s="23" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="E123" s="18" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="F123" s="4" t="s">
         <v>7</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H123" s="24" t="s">
         <v>303</v>
@@ -12434,7 +12459,7 @@
       <c r="B124" s="5"/>
       <c r="C124" s="5"/>
       <c r="D124" s="23" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="E124" s="5" t="s">
         <v>81</v>
@@ -12443,18 +12468,18 @@
         <v>7</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="H124" s="24" t="s">
         <v>303</v>
       </c>
       <c r="I124" s="24"/>
       <c r="J124" s="36" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="K124" s="30"/>
       <c r="L124" s="25" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="M124" s="25" t="s">
         <v>470</v>
@@ -12468,7 +12493,7 @@
       <c r="B125" s="5"/>
       <c r="C125" s="5"/>
       <c r="D125" s="23" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E125" s="5" t="s">
         <v>80</v>
@@ -12484,7 +12509,7 @@
       </c>
       <c r="I125" s="24"/>
       <c r="J125" s="36" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="K125" s="30"/>
       <c r="L125" s="25" t="s">
@@ -12502,7 +12527,7 @@
       <c r="B126" s="5"/>
       <c r="C126" s="5"/>
       <c r="D126" s="23" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E126" s="5" t="s">
         <v>79</v>
@@ -12536,7 +12561,7 @@
       <c r="B127" s="5"/>
       <c r="C127" s="5"/>
       <c r="D127" s="23" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E127" s="5" t="s">
         <v>78</v>
@@ -12570,7 +12595,7 @@
       <c r="B128" s="5"/>
       <c r="C128" s="5"/>
       <c r="D128" s="23" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="E128" s="5" t="s">
         <v>76</v>
@@ -12606,7 +12631,7 @@
         <v>75</v>
       </c>
       <c r="D129" s="23" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E129" s="5" t="s">
         <v>55</v>
@@ -12622,7 +12647,7 @@
       </c>
       <c r="I129" s="24"/>
       <c r="J129" s="36" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="K129" s="30"/>
       <c r="L129" s="25"/>
@@ -12636,7 +12661,7 @@
       <c r="B130" s="5"/>
       <c r="C130" s="5"/>
       <c r="D130" s="23" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="E130" s="18" t="s">
         <v>73</v>
@@ -12645,7 +12670,7 @@
         <v>7</v>
       </c>
       <c r="G130" s="13" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H130" s="24" t="s">
         <v>303</v>
@@ -12654,14 +12679,14 @@
         <v>312</v>
       </c>
       <c r="J130" s="36" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="K130" s="30"/>
       <c r="L130" s="25" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="M130" s="25" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="N130" s="24" t="s">
         <v>348</v>
@@ -12676,16 +12701,16 @@
       <c r="B131" s="5"/>
       <c r="C131" s="5"/>
       <c r="D131" s="23" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E131" s="18" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F131" s="4" t="s">
         <v>7</v>
       </c>
       <c r="G131" s="13" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="H131" s="24" t="s">
         <v>303</v>
@@ -12714,7 +12739,7 @@
       <c r="B132" s="5"/>
       <c r="C132" s="5"/>
       <c r="D132" s="23" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="E132" s="5" t="s">
         <v>72</v>
@@ -12730,7 +12755,7 @@
       </c>
       <c r="I132" s="24"/>
       <c r="J132" s="36" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="K132" s="30"/>
       <c r="L132" s="25" t="s">
@@ -12748,7 +12773,7 @@
       <c r="B133" s="5"/>
       <c r="C133" s="5"/>
       <c r="D133" s="23" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E133" s="5" t="s">
         <v>71</v>
@@ -12764,7 +12789,7 @@
       </c>
       <c r="I133" s="24"/>
       <c r="J133" s="36" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="K133" s="30"/>
       <c r="L133" s="25"/>
@@ -12780,7 +12805,7 @@
       <c r="B134" s="5"/>
       <c r="C134" s="5"/>
       <c r="D134" s="23" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E134" s="5" t="s">
         <v>70</v>
@@ -12796,7 +12821,7 @@
       </c>
       <c r="I134" s="24"/>
       <c r="J134" s="36" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="K134" s="30"/>
       <c r="L134" s="25"/>
@@ -12812,23 +12837,23 @@
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
       <c r="D135" s="23" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="E135" s="18" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="F135" s="4" t="s">
         <v>7</v>
       </c>
       <c r="G135" s="3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H135" s="24" t="s">
         <v>303</v>
       </c>
       <c r="I135" s="24"/>
       <c r="J135" s="36" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="K135" s="30"/>
       <c r="L135" s="25"/>
@@ -12842,16 +12867,16 @@
       <c r="B136" s="5"/>
       <c r="C136" s="5"/>
       <c r="D136" s="23" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="E136" s="18" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="F136" s="4" t="s">
         <v>7</v>
       </c>
       <c r="G136" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H136" s="24" t="s">
         <v>303</v>
@@ -12880,7 +12905,7 @@
         <v>67</v>
       </c>
       <c r="D137" s="23" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E137" s="5" t="s">
         <v>66</v>
@@ -12896,7 +12921,7 @@
       </c>
       <c r="I137" s="24"/>
       <c r="J137" s="36" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="K137" s="30"/>
       <c r="L137" s="25"/>
@@ -12912,7 +12937,7 @@
         <v>64</v>
       </c>
       <c r="D138" s="23" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E138" s="5" t="s">
         <v>63</v>
@@ -12928,14 +12953,14 @@
       </c>
       <c r="I138" s="24"/>
       <c r="J138" s="36" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="K138" s="30"/>
       <c r="L138" s="25" t="s">
         <v>327</v>
       </c>
       <c r="M138" s="27" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="N138" s="24"/>
       <c r="O138" s="34"/>
@@ -12948,7 +12973,7 @@
       <c r="B139" s="5"/>
       <c r="C139" s="5"/>
       <c r="D139" s="23" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="E139" s="5" t="s">
         <v>60</v>
@@ -12964,7 +12989,7 @@
       </c>
       <c r="I139" s="24"/>
       <c r="J139" s="36" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="K139" s="32"/>
       <c r="L139" s="27" t="s">
@@ -12982,7 +13007,7 @@
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
       <c r="D140" s="23" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="E140" s="5" t="s">
         <v>59</v>
@@ -12998,7 +13023,7 @@
       </c>
       <c r="I140" s="24"/>
       <c r="J140" s="36" t="s">
-        <v>788</v>
+        <v>849</v>
       </c>
       <c r="K140" s="30"/>
       <c r="L140" s="25" t="s">
@@ -13007,7 +13032,9 @@
       <c r="M140" s="27" t="s">
         <v>314</v>
       </c>
-      <c r="N140" s="24"/>
+      <c r="N140" s="24" t="s">
+        <v>851</v>
+      </c>
       <c r="O140" s="34"/>
       <c r="P140" s="2"/>
     </row>
@@ -13016,7 +13043,7 @@
       <c r="B141" s="5"/>
       <c r="C141" s="5"/>
       <c r="D141" s="23" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E141" s="5" t="s">
         <v>58</v>
@@ -13032,7 +13059,7 @@
       </c>
       <c r="I141" s="24"/>
       <c r="J141" s="36" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="K141" s="30"/>
       <c r="L141" s="25" t="s">
@@ -13052,7 +13079,7 @@
         <v>56</v>
       </c>
       <c r="D142" s="23" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E142" s="5" t="s">
         <v>55</v>
@@ -13068,7 +13095,7 @@
       </c>
       <c r="I142" s="24"/>
       <c r="J142" s="36" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="K142" s="33"/>
       <c r="L142" s="28"/>
@@ -13083,8 +13110,8 @@
       <c r="A143" s="6"/>
       <c r="B143" s="5"/>
       <c r="C143" s="5"/>
-      <c r="D143" s="23" t="s">
-        <v>719</v>
+      <c r="D143" s="40" t="s">
+        <v>718</v>
       </c>
       <c r="E143" s="5" t="s">
         <v>54</v>
@@ -13093,7 +13120,7 @@
         <v>7</v>
       </c>
       <c r="G143" s="15" t="s">
-        <v>526</v>
+        <v>848</v>
       </c>
       <c r="H143" s="24" t="s">
         <v>303</v>
@@ -13106,13 +13133,13 @@
       </c>
       <c r="K143" s="33"/>
       <c r="L143" s="28" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="M143" s="24" t="s">
         <v>498</v>
       </c>
       <c r="N143" s="24" t="s">
-        <v>349</v>
+        <v>850</v>
       </c>
       <c r="O143" s="34"/>
       <c r="P143" s="2" t="s">
@@ -13124,7 +13151,7 @@
       <c r="B144" s="5"/>
       <c r="C144" s="5"/>
       <c r="D144" s="23" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="E144" s="5" t="s">
         <v>525</v>
@@ -13133,7 +13160,7 @@
         <v>7</v>
       </c>
       <c r="G144" s="15" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H144" s="24" t="s">
         <v>303</v>
@@ -13146,7 +13173,7 @@
       </c>
       <c r="K144" s="33"/>
       <c r="L144" s="28" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="M144" s="24" t="s">
         <v>428</v>
@@ -13164,7 +13191,7 @@
       <c r="B145" s="5"/>
       <c r="C145" s="5"/>
       <c r="D145" s="23" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="E145" s="5" t="s">
         <v>53</v>
@@ -13180,7 +13207,7 @@
       </c>
       <c r="I145" s="24"/>
       <c r="J145" s="36" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="K145" s="34"/>
       <c r="L145" s="24" t="s">
@@ -13198,7 +13225,7 @@
       <c r="B146" s="5"/>
       <c r="C146" s="5"/>
       <c r="D146" s="23" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="E146" s="5" t="s">
         <v>52</v>
@@ -13214,7 +13241,7 @@
       </c>
       <c r="I146" s="24"/>
       <c r="J146" s="36" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="K146" s="30"/>
       <c r="L146" s="25" t="s">
@@ -13232,7 +13259,7 @@
       <c r="B147" s="5"/>
       <c r="C147" s="5"/>
       <c r="D147" s="23" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="E147" s="5" t="s">
         <v>51</v>
@@ -13248,7 +13275,7 @@
       </c>
       <c r="I147" s="24"/>
       <c r="J147" s="36" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="K147" s="30"/>
       <c r="L147" s="25" t="s">
@@ -13266,7 +13293,7 @@
       <c r="B148" s="5"/>
       <c r="C148" s="5"/>
       <c r="D148" s="23" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="E148" s="5" t="s">
         <v>49</v>
@@ -13304,7 +13331,7 @@
         <v>47</v>
       </c>
       <c r="D149" s="23" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="E149" s="5" t="s">
         <v>46</v>
@@ -13313,7 +13340,7 @@
         <v>7</v>
       </c>
       <c r="G149" s="9" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H149" s="24" t="s">
         <v>303</v>
@@ -13326,7 +13353,7 @@
       </c>
       <c r="K149" s="33"/>
       <c r="L149" s="28" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="M149" s="27" t="s">
         <v>317</v>
@@ -13344,16 +13371,16 @@
       <c r="B150" s="5"/>
       <c r="C150" s="5"/>
       <c r="D150" s="23" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E150" s="5" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="F150" s="4" t="s">
         <v>7</v>
       </c>
       <c r="G150" s="9" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H150" s="24" t="s">
         <v>303</v>
@@ -13366,7 +13393,7 @@
       </c>
       <c r="K150" s="33"/>
       <c r="L150" s="28" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="M150" s="27" t="s">
         <v>317</v>
@@ -13384,7 +13411,7 @@
       <c r="B151" s="5"/>
       <c r="C151" s="5"/>
       <c r="D151" s="23" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="E151" s="5" t="s">
         <v>45</v>
@@ -13400,7 +13427,7 @@
       </c>
       <c r="I151" s="24"/>
       <c r="J151" s="36" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="K151" s="34"/>
       <c r="L151" s="24" t="s">
@@ -13418,7 +13445,7 @@
       <c r="B152" s="5"/>
       <c r="C152" s="5"/>
       <c r="D152" s="23" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="E152" s="5" t="s">
         <v>44</v>
@@ -13434,7 +13461,7 @@
       </c>
       <c r="I152" s="24"/>
       <c r="J152" s="36" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="K152" s="30"/>
       <c r="L152" s="25" t="s">
@@ -13452,7 +13479,7 @@
       <c r="B153" s="5"/>
       <c r="C153" s="5"/>
       <c r="D153" s="23" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="E153" s="5" t="s">
         <v>42</v>
@@ -13488,7 +13515,7 @@
       <c r="B154" s="5"/>
       <c r="C154" s="5"/>
       <c r="D154" s="23" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="E154" s="5" t="s">
         <v>40</v>
@@ -13504,7 +13531,7 @@
       </c>
       <c r="I154" s="24"/>
       <c r="J154" s="36" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="K154" s="30"/>
       <c r="L154" s="25" t="s">
@@ -13524,7 +13551,7 @@
       <c r="B155" s="5"/>
       <c r="C155" s="5"/>
       <c r="D155" s="23" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="E155" s="5" t="s">
         <v>37</v>
@@ -13540,7 +13567,7 @@
       </c>
       <c r="I155" s="24"/>
       <c r="J155" s="36" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="K155" s="31"/>
       <c r="L155" s="26" t="s">
@@ -13558,7 +13585,7 @@
       <c r="B156" s="5"/>
       <c r="C156" s="5"/>
       <c r="D156" s="23" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="E156" s="5" t="s">
         <v>36</v>
@@ -13574,7 +13601,7 @@
       </c>
       <c r="I156" s="24"/>
       <c r="J156" s="36" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="K156" s="30"/>
       <c r="L156" s="25" t="s">
@@ -13592,7 +13619,7 @@
       <c r="B157" s="5"/>
       <c r="C157" s="5"/>
       <c r="D157" s="23" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="E157" s="5" t="s">
         <v>35</v>
@@ -13608,7 +13635,7 @@
       </c>
       <c r="I157" s="24"/>
       <c r="J157" s="36" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="K157" s="30"/>
       <c r="L157" s="25"/>
@@ -13624,7 +13651,7 @@
       <c r="B158" s="5"/>
       <c r="C158" s="5"/>
       <c r="D158" s="23" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E158" s="5" t="s">
         <v>33</v>
@@ -13640,7 +13667,7 @@
       </c>
       <c r="I158" s="24"/>
       <c r="J158" s="36" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="K158" s="30"/>
       <c r="L158" s="25" t="s">
@@ -13658,7 +13685,7 @@
       <c r="B159" s="5"/>
       <c r="C159" s="5"/>
       <c r="D159" s="23" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="E159" s="5" t="s">
         <v>32</v>
@@ -13692,7 +13719,7 @@
       <c r="B160" s="5"/>
       <c r="C160" s="5"/>
       <c r="D160" s="23" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="E160" s="5" t="s">
         <v>31</v>
@@ -13728,7 +13755,7 @@
         <v>29</v>
       </c>
       <c r="D161" s="23" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="E161" s="5" t="s">
         <v>28</v>
@@ -13744,14 +13771,14 @@
       </c>
       <c r="I161" s="24"/>
       <c r="J161" s="36" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="K161" s="30"/>
       <c r="L161" s="25" t="s">
         <v>334</v>
       </c>
       <c r="M161" s="27" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="N161" s="24"/>
       <c r="O161" s="34"/>
@@ -13764,7 +13791,7 @@
       <c r="B162" s="5"/>
       <c r="C162" s="5"/>
       <c r="D162" s="23" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E162" s="5" t="s">
         <v>25</v>
@@ -13780,7 +13807,7 @@
       </c>
       <c r="I162" s="24"/>
       <c r="J162" s="36" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="K162" s="32"/>
       <c r="L162" s="27" t="s">
@@ -13798,7 +13825,7 @@
       <c r="B163" s="5"/>
       <c r="C163" s="5"/>
       <c r="D163" s="23" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="E163" s="5" t="s">
         <v>24</v>
@@ -13814,7 +13841,7 @@
       </c>
       <c r="I163" s="24"/>
       <c r="J163" s="36" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="K163" s="32"/>
       <c r="L163" s="27" t="s">
@@ -13832,7 +13859,7 @@
       <c r="B164" s="5"/>
       <c r="C164" s="5"/>
       <c r="D164" s="23" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="E164" s="5" t="s">
         <v>23</v>
@@ -13868,7 +13895,7 @@
         <v>21</v>
       </c>
       <c r="D165" s="23" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E165" s="5" t="s">
         <v>20</v>
@@ -13884,17 +13911,17 @@
       </c>
       <c r="I165" s="24"/>
       <c r="J165" s="36" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="K165" s="30"/>
       <c r="L165" s="28" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="M165" s="27" t="s">
         <v>319</v>
       </c>
       <c r="N165" s="24" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="O165" s="34"/>
       <c r="P165" s="2"/>
@@ -13904,7 +13931,7 @@
       <c r="B166" s="5"/>
       <c r="C166" s="5"/>
       <c r="D166" s="23" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="E166" s="5" t="s">
         <v>18</v>
@@ -13920,7 +13947,7 @@
       </c>
       <c r="I166" s="24"/>
       <c r="J166" s="36" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="K166" s="34"/>
       <c r="L166" s="24" t="s">
@@ -13938,7 +13965,7 @@
       <c r="B167" s="5"/>
       <c r="C167" s="5"/>
       <c r="D167" s="23" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="E167" s="5" t="s">
         <v>17</v>
@@ -13954,7 +13981,7 @@
       </c>
       <c r="I167" s="24"/>
       <c r="J167" s="36" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="K167" s="31"/>
       <c r="L167" s="26" t="s">
@@ -13972,7 +13999,7 @@
       <c r="B168" s="5"/>
       <c r="C168" s="5"/>
       <c r="D168" s="23" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="E168" s="5" t="s">
         <v>16</v>
@@ -14006,7 +14033,7 @@
       <c r="B169" s="5"/>
       <c r="C169" s="5"/>
       <c r="D169" s="23" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="E169" s="5" t="s">
         <v>14</v>
@@ -14015,7 +14042,7 @@
         <v>7</v>
       </c>
       <c r="G169" s="21" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="H169" s="24" t="s">
         <v>303</v>
@@ -14024,7 +14051,7 @@
         <v>312</v>
       </c>
       <c r="J169" s="36" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="K169" s="30"/>
       <c r="L169" s="25" t="s">
@@ -14046,10 +14073,10 @@
       <c r="B170" s="5"/>
       <c r="C170" s="5"/>
       <c r="D170" s="23" t="s">
+        <v>795</v>
+      </c>
+      <c r="E170" s="5" t="s">
         <v>796</v>
-      </c>
-      <c r="E170" s="5" t="s">
-        <v>797</v>
       </c>
       <c r="F170" s="4"/>
       <c r="G170" s="21"/>
@@ -14082,7 +14109,7 @@
       <c r="H171" s="24"/>
       <c r="I171" s="24"/>
       <c r="J171" s="36" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="K171" s="30"/>
       <c r="L171" s="25"/>
@@ -14102,7 +14129,7 @@
         <v>9</v>
       </c>
       <c r="D172" s="23" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="E172" s="16" t="s">
         <v>8</v>
@@ -14111,7 +14138,7 @@
         <v>7</v>
       </c>
       <c r="G172" s="22" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="H172" s="24" t="s">
         <v>305</v>
@@ -14133,7 +14160,7 @@
     </row>
     <row r="173" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D173" s="23" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="E173" s="16" t="s">
         <v>6</v>
@@ -14162,7 +14189,7 @@
     </row>
     <row r="174" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D174" s="23" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="E174" s="16" t="s">
         <v>4</v>
@@ -14191,7 +14218,7 @@
     </row>
     <row r="175" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D175" s="23" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="E175" s="16" t="s">
         <v>2</v>

--- a/trunk/biz/MC-MSC-Web/qxy接口定义文档2016-8-8/【千校云】bug列表.xlsx
+++ b/trunk/biz/MC-MSC-Web/qxy接口定义文档2016-8-8/【千校云】bug列表.xlsx
@@ -111,7 +111,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1545" uniqueCount="853">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1545" uniqueCount="855">
   <si>
     <t>/qxy/trip</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1645,18 +1645,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>文档已更新</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无法获取班级列表,文档已更新</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>文档已更新</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://139.196.101.78:8668/devicealarm?device=1page=1&amp;size=1&amp;token=910820738640559462371283192</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1776,10 +1764,6 @@
   </si>
   <si>
     <t>返回正常</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>文档已更新</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2670,10 +2654,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/qxy/class/worktime?page=[page]&amp;size=[size]&amp;token=[token]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://139.196.101.78:8668/class/worktime?class=1&amp;token=910820738640559462371283192</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2710,10 +2690,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/qxy/studentrfidlist?page=[page]&amp;size=[size]&amp;token=[token]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>139.196.101.78:8668/studentrfidlist?token=910820738640559462371283192</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2722,10 +2698,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/qxy/class/alarmlist?page=[page]&amp;size=[size]&amp;token=[token]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/qxy/class/alarmlist?cid=[cid]&amp;token=[token]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2742,10 +2714,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/qxy/classlist?page=[page]&amp;size=[size]&amp;token=[token]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/qxy/newlist?columnId=[colId]&amp;page=[page]&amp;size=[size]&amp;token=[token]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2802,30 +2770,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/qxy/class/student/list?cid=[cid]&amp;page=[page]&amp;size=[size]&amp;token=[token]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/qxy/class/student/search?studentId=[studentId]&amp;number=[number]&amp;token=[token]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/qxy/class/student/info?studentId=[studentId]&amp;token=[token]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/qxy/class/student/parent/list?studentId=[studentId]&amp;type=[type]&amp;token=[token]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/qxy/syllabus?cid=[cid]&amp;date=[startDay|endDay]&amp;token=[token]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/qxy/calendar?termId=[term_id]&amp;time=[startTime|endTime]&amp;token=[token]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/qxy/teacher/list?labelId=[labelId]&amp;type=[type]&amp;page=[page]&amp;size=[size]&amp;token=[token]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2834,15 +2786,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/qxy/securitylog?studentId=[studentId]&amp;deviceId=[deviceId]&amp;time=[startTime|endTime]&amp;page=[page]&amp;size=[size]&amp;token=[token]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/qxy/class/worktime/search?cid=[cid]&amp;token=[token]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/qxy/devicealarm?deviceId=[deviceId]page=[page]&amp;size=[size]&amp;token=[token]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3528,10 +3472,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/qxy/stundent/list?cid=[cid]&amp;page=[page]&amp;size=[size]&amp;token=[token]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>139.196.101.78:8668/stundent/list?cid=2&amp;token=910820738640559462371283192</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3870,11 +3810,83 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>需要处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>感觉和新增接口弄混了，返回的错误是重名，反馈人郑宇昂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反馈人郑宇昂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>/qxy/class?termId=[termId]&amp;page=[page]&amp;size=[size]&amp;token=[token]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>需要处理</t>
+    <t>/qxy/class/worktime?termId=[termId]&amp;page=[page]&amp;size=[size]&amp;token=[token]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/qxy/devicealarm?deviceId=[deviceId]page=[page]&amp;size=[size]&amp;token=[token]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/qxy/studentrfidlist?termId=[termId]&amp;page=[page]&amp;size=[size]&amp;token=[token]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/qxy/class/alarmlist?termId=[termId]&amp;page=[page]&amp;size=[size]&amp;token=[token]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/qxy/securitylog?termId=[termId]&amp;studentId=[studentId]&amp;deviceId=[deviceId]&amp;time=[startTime|endTime]&amp;page=[page]&amp;size=[size]&amp;token=[token]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/qxy/calendar?termId=[term_id]&amp;time=[startTime|endTime]&amp;token=[token]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/qxy/stundent/list?termId=[termId]&amp;cid=[cid]&amp;page=[page]&amp;size=[size]&amp;token=[token]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/qxy/class/student/parent/list?studentId=[studentId]&amp;type=[type]&amp;token=[token]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/qxy/class/student/search?studentId=[studentId]&amp;number=[number]&amp;token=[token]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/qxy/class/student/list?cid=[cid]&amp;page=[page]&amp;size=[size]&amp;token=[token]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/qxy/classlist?termId=[termId]&amp;page=[page]&amp;size=[size]&amp;token=[token]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文档已更新，添加termId参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文档已更新，添加termId参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文档已更新，添加termId参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文档已更新，添加termId参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加termId参数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3882,11 +3894,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>感觉和新增接口弄混了，返回的错误是重名，反馈人郑宇昂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>反馈人郑宇昂</t>
+    <t>添加termId参数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4464,11 +4472,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="636240768"/>
-        <c:axId val="636245664"/>
+        <c:axId val="-271599664"/>
+        <c:axId val="-271597488"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="636240768"/>
+        <c:axId val="-271599664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4510,7 +4518,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="636245664"/>
+        <c:crossAx val="-271597488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4518,7 +4526,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="636245664"/>
+        <c:axId val="-271597488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4568,7 +4576,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="636240768"/>
+        <c:crossAx val="-271599664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8106,452 +8114,452 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="37" t="s">
-        <v>798</v>
+        <v>783</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="38" t="s">
-        <v>845</v>
+        <v>830</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" s="39" t="s">
-        <v>805</v>
+        <v>790</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" s="39" t="s">
-        <v>806</v>
+        <v>791</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" s="39" t="s">
-        <v>807</v>
+        <v>792</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" s="39" t="s">
-        <v>618</v>
+        <v>604</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" s="39" t="s">
-        <v>809</v>
+        <v>794</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" s="39" t="s">
-        <v>644</v>
+        <v>630</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9" s="39" t="s">
-        <v>820</v>
+        <v>805</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" s="39" t="s">
-        <v>824</v>
+        <v>809</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A11" s="39" t="s">
-        <v>827</v>
+        <v>812</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A12" s="39" t="s">
-        <v>695</v>
+        <v>681</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A13" s="39" t="s">
-        <v>841</v>
+        <v>826</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A14" s="38" t="s">
-        <v>846</v>
+        <v>831</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A15" s="39" t="s">
-        <v>607</v>
+        <v>593</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A16" s="39" t="s">
-        <v>619</v>
+        <v>605</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="39" t="s">
-        <v>819</v>
+        <v>804</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="39" t="s">
-        <v>675</v>
+        <v>661</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" s="39" t="s">
-        <v>676</v>
+        <v>662</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="39" t="s">
-        <v>834</v>
+        <v>819</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" s="38" t="s">
-        <v>797</v>
+        <v>782</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" s="39" t="s">
-        <v>799</v>
+        <v>784</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" s="39" t="s">
-        <v>581</v>
+        <v>567</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" s="39" t="s">
-        <v>800</v>
+        <v>785</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25" s="39" t="s">
-        <v>801</v>
+        <v>786</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A26" s="39" t="s">
-        <v>584</v>
+        <v>570</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A27" s="39" t="s">
-        <v>585</v>
+        <v>571</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A28" s="39" t="s">
-        <v>802</v>
+        <v>787</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A29" s="39" t="s">
-        <v>588</v>
+        <v>574</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A30" s="39" t="s">
-        <v>803</v>
+        <v>788</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A31" s="39" t="s">
-        <v>804</v>
+        <v>789</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A32" s="39" t="s">
-        <v>592</v>
+        <v>578</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A33" s="39" t="s">
-        <v>601</v>
+        <v>587</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A34" s="39" t="s">
-        <v>604</v>
+        <v>590</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A35" s="39" t="s">
-        <v>605</v>
+        <v>591</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A36" s="39" t="s">
-        <v>606</v>
+        <v>592</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A37" s="39" t="s">
-        <v>808</v>
+        <v>793</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A38" s="39" t="s">
-        <v>810</v>
+        <v>795</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A39" s="39" t="s">
-        <v>811</v>
+        <v>796</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A40" s="39" t="s">
-        <v>812</v>
+        <v>797</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A41" s="39" t="s">
-        <v>636</v>
+        <v>622</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A42" s="39" t="s">
-        <v>637</v>
+        <v>623</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A43" s="39" t="s">
-        <v>638</v>
+        <v>624</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A44" s="39" t="s">
-        <v>639</v>
+        <v>625</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A45" s="39" t="s">
-        <v>813</v>
+        <v>798</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A46" s="39" t="s">
-        <v>651</v>
+        <v>637</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A47" s="39" t="s">
-        <v>814</v>
+        <v>799</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A48" s="39" t="s">
-        <v>648</v>
+        <v>634</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A49" s="39" t="s">
-        <v>649</v>
+        <v>635</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A50" s="39" t="s">
-        <v>650</v>
+        <v>636</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A51" s="39" t="s">
-        <v>815</v>
+        <v>800</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A52" s="39" t="s">
-        <v>654</v>
+        <v>640</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A53" s="39" t="s">
-        <v>659</v>
+        <v>645</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A54" s="39" t="s">
-        <v>816</v>
+        <v>801</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A55" s="39" t="s">
-        <v>817</v>
+        <v>802</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A56" s="39" t="s">
-        <v>818</v>
+        <v>803</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A57" s="39" t="s">
-        <v>669</v>
+        <v>655</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A58" s="39" t="s">
-        <v>674</v>
+        <v>660</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A59" s="39" t="s">
-        <v>821</v>
+        <v>806</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A60" s="39" t="s">
-        <v>822</v>
+        <v>807</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A61" s="39" t="s">
-        <v>823</v>
+        <v>808</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A62" s="39" t="s">
-        <v>825</v>
+        <v>810</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A63" s="39" t="s">
-        <v>826</v>
+        <v>811</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A64" s="39" t="s">
-        <v>688</v>
+        <v>674</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A65" s="39" t="s">
-        <v>828</v>
+        <v>813</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A66" s="39" t="s">
-        <v>829</v>
+        <v>814</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A67" s="39" t="s">
-        <v>701</v>
+        <v>687</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A68" s="39" t="s">
-        <v>702</v>
+        <v>688</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A69" s="39" t="s">
-        <v>703</v>
+        <v>689</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A70" s="39" t="s">
-        <v>830</v>
+        <v>815</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A71" s="39" t="s">
-        <v>831</v>
+        <v>816</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A72" s="39" t="s">
-        <v>832</v>
+        <v>817</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A73" s="39" t="s">
-        <v>833</v>
+        <v>818</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A74" s="39" t="s">
-        <v>835</v>
+        <v>820</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A75" s="39" t="s">
-        <v>836</v>
+        <v>821</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A76" s="39" t="s">
-        <v>723</v>
+        <v>709</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A77" s="39" t="s">
-        <v>734</v>
+        <v>720</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A78" s="39" t="s">
-        <v>735</v>
+        <v>721</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A79" s="39" t="s">
-        <v>837</v>
+        <v>822</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A80" s="39" t="s">
-        <v>838</v>
+        <v>823</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A81" s="39" t="s">
-        <v>728</v>
+        <v>714</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A82" s="39" t="s">
-        <v>739</v>
+        <v>725</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A83" s="39" t="s">
-        <v>839</v>
+        <v>824</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A84" s="39" t="s">
-        <v>840</v>
+        <v>825</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A85" s="39" t="s">
-        <v>794</v>
+        <v>779</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A86" s="39" t="s">
-        <v>842</v>
+        <v>827</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A87" s="39" t="s">
-        <v>843</v>
+        <v>828</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A88" s="39" t="s">
-        <v>747</v>
+        <v>733</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A89" s="39" t="s">
-        <v>748</v>
+        <v>734</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A90" s="38" t="s">
-        <v>844</v>
+        <v>829</v>
       </c>
     </row>
   </sheetData>
@@ -8566,10 +8574,10 @@
   <dimension ref="A1:AL175"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H101" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H158" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N24" sqref="N24"/>
+      <selection pane="bottomRight" activeCell="N150" sqref="N150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -8604,7 +8612,7 @@
         <v>298</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>576</v>
+        <v>562</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>297</v>
@@ -8619,22 +8627,22 @@
         <v>301</v>
       </c>
       <c r="I1" s="24" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="J1" s="36" t="s">
-        <v>763</v>
+        <v>748</v>
       </c>
       <c r="K1" s="30" t="s">
-        <v>764</v>
+        <v>749</v>
       </c>
       <c r="L1" s="25" t="s">
         <v>320</v>
       </c>
       <c r="M1" s="25" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="N1" s="24" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="O1" s="34" t="s">
         <v>302</v>
@@ -8654,7 +8662,7 @@
         <v>292</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>577</v>
+        <v>563</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>291</v>
@@ -8669,7 +8677,7 @@
         <v>305</v>
       </c>
       <c r="J2" s="36" t="s">
-        <v>781</v>
+        <v>766</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>289</v>
@@ -8677,7 +8685,7 @@
     </row>
     <row r="3" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D3" s="23" t="s">
-        <v>579</v>
+        <v>565</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>288</v>
@@ -8686,7 +8694,7 @@
         <v>178</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="H3" s="24" t="s">
         <v>305</v>
@@ -8695,7 +8703,7 @@
         <v>312</v>
       </c>
       <c r="J3" s="36" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="M3" s="25">
         <v>404</v>
@@ -8706,7 +8714,7 @@
     </row>
     <row r="4" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D4" s="23" t="s">
-        <v>580</v>
+        <v>566</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>286</v>
@@ -8721,12 +8729,12 @@
         <v>305</v>
       </c>
       <c r="J4" s="36" t="s">
-        <v>780</v>
+        <v>765</v>
       </c>
     </row>
     <row r="5" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D5" s="23" t="s">
-        <v>581</v>
+        <v>567</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>284</v>
@@ -8741,10 +8749,10 @@
         <v>305</v>
       </c>
       <c r="J5" s="36" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="L5" s="25" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="M5" s="25">
         <v>404</v>
@@ -8764,7 +8772,7 @@
         <v>282</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>582</v>
+        <v>568</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>281</v>
@@ -8773,7 +8781,7 @@
         <v>178</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="H6" s="24" t="s">
         <v>305</v>
@@ -8782,10 +8790,10 @@
         <v>312</v>
       </c>
       <c r="J6" s="36" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="M6" s="25" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="AJ6" s="1" t="s">
         <v>306</v>
@@ -8799,7 +8807,7 @@
     </row>
     <row r="7" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D7" s="23" t="s">
-        <v>583</v>
+        <v>569</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>280</v>
@@ -8808,7 +8816,7 @@
         <v>178</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="H7" s="24" t="s">
         <v>305</v>
@@ -8817,10 +8825,10 @@
         <v>312</v>
       </c>
       <c r="J7" s="36" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="M7" s="25" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="AK7" s="1" t="s">
         <v>309</v>
@@ -8828,7 +8836,7 @@
     </row>
     <row r="8" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D8" s="23" t="s">
-        <v>584</v>
+        <v>570</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>279</v>
@@ -8837,7 +8845,7 @@
         <v>178</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="H8" s="24" t="s">
         <v>305</v>
@@ -8846,15 +8854,15 @@
         <v>312</v>
       </c>
       <c r="J8" s="36" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="M8" s="25" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
     <row r="9" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D9" s="23" t="s">
-        <v>585</v>
+        <v>571</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>278</v>
@@ -8863,7 +8871,7 @@
         <v>178</v>
       </c>
       <c r="G9" s="19" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="H9" s="24" t="s">
         <v>305</v>
@@ -8872,15 +8880,15 @@
         <v>312</v>
       </c>
       <c r="J9" s="36" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="M9" s="25" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
     </row>
     <row r="10" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D10" s="23" t="s">
-        <v>586</v>
+        <v>572</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>255</v>
@@ -8895,7 +8903,7 @@
         <v>305</v>
       </c>
       <c r="J10" s="36" t="s">
-        <v>781</v>
+        <v>766</v>
       </c>
       <c r="P10" s="2" t="s">
         <v>277</v>
@@ -8903,7 +8911,7 @@
     </row>
     <row r="11" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D11" s="23" t="s">
-        <v>587</v>
+        <v>573</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>276</v>
@@ -8912,7 +8920,7 @@
         <v>178</v>
       </c>
       <c r="G11" s="19" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="H11" s="24" t="s">
         <v>305</v>
@@ -8921,7 +8929,7 @@
         <v>307</v>
       </c>
       <c r="J11" s="36" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="N11" s="24" t="s">
         <v>339</v>
@@ -8932,7 +8940,7 @@
     </row>
     <row r="12" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D12" s="23" t="s">
-        <v>588</v>
+        <v>574</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>275</v>
@@ -8941,7 +8949,7 @@
         <v>178</v>
       </c>
       <c r="G12" s="19" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="H12" s="24" t="s">
         <v>305</v>
@@ -8950,7 +8958,7 @@
         <v>307</v>
       </c>
       <c r="J12" s="36" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="N12" s="24" t="s">
         <v>340</v>
@@ -8970,7 +8978,7 @@
         <v>273</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>589</v>
+        <v>575</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>272</v>
@@ -8979,7 +8987,7 @@
         <v>178</v>
       </c>
       <c r="G13" s="19" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="H13" s="24" t="s">
         <v>305</v>
@@ -8988,13 +8996,13 @@
         <v>312</v>
       </c>
       <c r="J13" s="36" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="L13" s="25" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="M13" s="25" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="P13" s="2" t="s">
         <v>271</v>
@@ -9002,36 +9010,36 @@
     </row>
     <row r="14" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D14" s="23" t="s">
-        <v>590</v>
+        <v>576</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="H14" s="24" t="s">
         <v>303</v>
       </c>
       <c r="J14" s="36" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="L14" s="25" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="M14" s="25" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="N14" s="26" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
     </row>
     <row r="15" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D15" s="23" t="s">
-        <v>591</v>
+        <v>577</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>270</v>
@@ -9046,15 +9054,15 @@
         <v>303</v>
       </c>
       <c r="J15" s="36" t="s">
-        <v>787</v>
+        <v>772</v>
       </c>
       <c r="M15" s="25" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
     </row>
     <row r="16" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D16" s="23" t="s">
-        <v>592</v>
+        <v>578</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>269</v>
@@ -9069,21 +9077,21 @@
         <v>303</v>
       </c>
       <c r="J16" s="36" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="L16" s="25" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="M16" s="25" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="N16" s="24" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D17" s="23" t="s">
-        <v>593</v>
+        <v>579</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>268</v>
@@ -9098,7 +9106,7 @@
         <v>303</v>
       </c>
       <c r="J17" s="36" t="s">
-        <v>787</v>
+        <v>772</v>
       </c>
       <c r="M17" s="25" t="s">
         <v>325</v>
@@ -9106,7 +9114,7 @@
     </row>
     <row r="18" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D18" s="23" t="s">
-        <v>594</v>
+        <v>580</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>266</v>
@@ -9121,7 +9129,7 @@
         <v>305</v>
       </c>
       <c r="J18" s="36" t="s">
-        <v>788</v>
+        <v>773</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.15">
@@ -9129,7 +9137,7 @@
         <v>264</v>
       </c>
       <c r="D19" s="23" t="s">
-        <v>595</v>
+        <v>581</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>263</v>
@@ -9144,10 +9152,10 @@
         <v>303</v>
       </c>
       <c r="J19" s="36" t="s">
-        <v>787</v>
+        <v>772</v>
       </c>
       <c r="L19" s="25" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="M19" s="27" t="s">
         <v>314</v>
@@ -9155,7 +9163,7 @@
     </row>
     <row r="20" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D20" s="23" t="s">
-        <v>596</v>
+        <v>582</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>261</v>
@@ -9164,27 +9172,27 @@
         <v>176</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="H20" s="24" t="s">
         <v>303</v>
       </c>
       <c r="J20" s="36" t="s">
-        <v>787</v>
+        <v>772</v>
       </c>
       <c r="L20" s="25" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="M20" s="25" t="s">
         <v>325</v>
       </c>
       <c r="N20" s="24" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D21" s="23" t="s">
-        <v>597</v>
+        <v>583</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>260</v>
@@ -9199,10 +9207,10 @@
         <v>303</v>
       </c>
       <c r="J21" s="36" t="s">
-        <v>787</v>
+        <v>772</v>
       </c>
       <c r="L21" s="25" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="M21" s="25" t="s">
         <v>325</v>
@@ -9210,7 +9218,7 @@
     </row>
     <row r="22" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D22" s="23" t="s">
-        <v>598</v>
+        <v>584</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>259</v>
@@ -9225,16 +9233,16 @@
         <v>303</v>
       </c>
       <c r="J22" s="36" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="L22" s="25" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="M22" s="25" t="s">
-        <v>847</v>
+        <v>832</v>
       </c>
       <c r="N22" s="24" t="s">
-        <v>852</v>
+        <v>835</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -9248,7 +9256,7 @@
         <v>256</v>
       </c>
       <c r="D23" s="23" t="s">
-        <v>599</v>
+        <v>585</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>255</v>
@@ -9257,27 +9265,27 @@
         <v>178</v>
       </c>
       <c r="G23" s="19" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="I23" s="24" t="s">
         <v>312</v>
       </c>
       <c r="J23" s="36" t="s">
-        <v>793</v>
+        <v>778</v>
       </c>
       <c r="L23" s="25" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="M23" s="25" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="N23" s="24" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D24" s="23" t="s">
-        <v>600</v>
+        <v>586</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>254</v>
@@ -9286,27 +9294,27 @@
         <v>178</v>
       </c>
       <c r="G24" s="19" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="I24" s="24" t="s">
         <v>312</v>
       </c>
       <c r="J24" s="36" t="s">
-        <v>793</v>
+        <v>778</v>
       </c>
       <c r="L24" s="25" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="M24" s="25" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="N24" s="24" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D25" s="23" t="s">
-        <v>601</v>
+        <v>587</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>253</v>
@@ -9315,7 +9323,7 @@
         <v>178</v>
       </c>
       <c r="G25" s="19" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="H25" s="24" t="s">
         <v>303</v>
@@ -9324,21 +9332,21 @@
         <v>312</v>
       </c>
       <c r="J25" s="36" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="L25" s="25" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="M25" s="25" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="N25" s="24" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D26" s="23" t="s">
-        <v>602</v>
+        <v>588</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>252</v>
@@ -9347,19 +9355,19 @@
         <v>7</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>574</v>
+        <v>560</v>
       </c>
       <c r="H26" s="24" t="s">
         <v>303</v>
       </c>
       <c r="J26" s="36" t="s">
-        <v>787</v>
+        <v>772</v>
       </c>
       <c r="L26" s="25" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="M26" s="25" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="P26" s="2" t="s">
         <v>251</v>
@@ -9367,7 +9375,7 @@
     </row>
     <row r="27" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D27" s="23" t="s">
-        <v>603</v>
+        <v>589</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>250</v>
@@ -9376,27 +9384,27 @@
         <v>178</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="H27" s="24" t="s">
         <v>303</v>
       </c>
       <c r="J27" s="36" t="s">
-        <v>787</v>
+        <v>772</v>
       </c>
       <c r="L27" s="25" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="M27" s="25" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="N27" s="24" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D28" s="23" t="s">
-        <v>604</v>
+        <v>590</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>249</v>
@@ -9411,21 +9419,21 @@
         <v>303</v>
       </c>
       <c r="J28" s="36" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="L28" s="25" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="M28" s="25">
         <v>404</v>
       </c>
       <c r="N28" s="24" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
     </row>
     <row r="29" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D29" s="23" t="s">
-        <v>605</v>
+        <v>591</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>248</v>
@@ -9440,15 +9448,15 @@
         <v>303</v>
       </c>
       <c r="J29" s="36" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="M29" s="25" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
     <row r="30" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D30" s="23" t="s">
-        <v>606</v>
+        <v>592</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>247</v>
@@ -9463,15 +9471,15 @@
         <v>303</v>
       </c>
       <c r="J30" s="36" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="M30" s="25" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
     </row>
     <row r="31" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D31" s="23" t="s">
-        <v>607</v>
+        <v>593</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>245</v>
@@ -9486,18 +9494,18 @@
         <v>303</v>
       </c>
       <c r="J31" s="36" t="s">
-        <v>765</v>
+        <v>750</v>
       </c>
       <c r="M31" s="25" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="N31" s="24" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
     </row>
     <row r="32" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D32" s="23" t="s">
-        <v>608</v>
+        <v>594</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>195</v>
@@ -9509,12 +9517,12 @@
         <v>194</v>
       </c>
       <c r="J32" s="36" t="s">
-        <v>780</v>
+        <v>765</v>
       </c>
     </row>
     <row r="33" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D33" s="23" t="s">
-        <v>609</v>
+        <v>595</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>193</v>
@@ -9526,7 +9534,7 @@
         <v>192</v>
       </c>
       <c r="J33" s="36" t="s">
-        <v>781</v>
+        <v>766</v>
       </c>
     </row>
     <row r="34" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -9534,7 +9542,7 @@
         <v>243</v>
       </c>
       <c r="D34" s="23" t="s">
-        <v>610</v>
+        <v>596</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>242</v>
@@ -9549,10 +9557,10 @@
         <v>303</v>
       </c>
       <c r="J34" s="36" t="s">
-        <v>787</v>
+        <v>772</v>
       </c>
       <c r="L34" s="25" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="M34" s="25" t="s">
         <v>325</v>
@@ -9560,7 +9568,7 @@
     </row>
     <row r="35" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D35" s="23" t="s">
-        <v>611</v>
+        <v>597</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>241</v>
@@ -9575,21 +9583,21 @@
         <v>303</v>
       </c>
       <c r="J35" s="36" t="s">
-        <v>787</v>
+        <v>772</v>
       </c>
       <c r="L35" s="25" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="M35" s="25" t="s">
-        <v>749</v>
+        <v>735</v>
       </c>
       <c r="N35" s="24" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
     </row>
     <row r="36" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D36" s="23" t="s">
-        <v>612</v>
+        <v>598</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>240</v>
@@ -9604,16 +9612,16 @@
         <v>303</v>
       </c>
       <c r="J36" s="36" t="s">
-        <v>787</v>
+        <v>772</v>
       </c>
       <c r="L36" s="25" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="M36" s="25" t="s">
-        <v>762</v>
+        <v>747</v>
       </c>
       <c r="N36" s="24" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
     </row>
     <row r="37" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -9621,7 +9629,7 @@
         <v>238</v>
       </c>
       <c r="D37" s="23" t="s">
-        <v>614</v>
+        <v>600</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>237</v>
@@ -9630,21 +9638,21 @@
         <v>176</v>
       </c>
       <c r="G37" s="13" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="H37" s="24" t="s">
         <v>303</v>
       </c>
       <c r="J37" s="36" t="s">
-        <v>787</v>
+        <v>772</v>
       </c>
       <c r="M37" s="25" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
     </row>
     <row r="38" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D38" s="23" t="s">
-        <v>613</v>
+        <v>599</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>236</v>
@@ -9659,18 +9667,18 @@
         <v>303</v>
       </c>
       <c r="J38" s="36" t="s">
-        <v>787</v>
+        <v>772</v>
       </c>
       <c r="L38" s="25" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="M38" s="25" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
     </row>
     <row r="39" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D39" s="23" t="s">
-        <v>578</v>
+        <v>564</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>235</v>
@@ -9679,22 +9687,22 @@
         <v>172</v>
       </c>
       <c r="G39" s="13" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="H39" s="24" t="s">
         <v>303</v>
       </c>
       <c r="J39" s="36" t="s">
-        <v>787</v>
+        <v>772</v>
       </c>
       <c r="L39" s="25" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="M39" s="25" t="s">
-        <v>749</v>
+        <v>735</v>
       </c>
       <c r="N39" s="24" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="P39" s="2" t="s">
         <v>233</v>
@@ -9705,7 +9713,7 @@
         <v>232</v>
       </c>
       <c r="D40" s="23" t="s">
-        <v>615</v>
+        <v>601</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>231</v>
@@ -9714,7 +9722,7 @@
         <v>178</v>
       </c>
       <c r="G40" s="19" t="s">
-        <v>791</v>
+        <v>776</v>
       </c>
       <c r="H40" s="24" t="s">
         <v>303</v>
@@ -9723,15 +9731,15 @@
         <v>312</v>
       </c>
       <c r="J40" s="36" t="s">
-        <v>793</v>
+        <v>778</v>
       </c>
       <c r="M40" s="25" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
     </row>
     <row r="41" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D41" s="23" t="s">
-        <v>616</v>
+        <v>602</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>230</v>
@@ -9740,27 +9748,27 @@
         <v>176</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="H41" s="24" t="s">
         <v>303</v>
       </c>
       <c r="J41" s="36" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="L41" s="25" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="M41" s="25" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="N41" s="24" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="42" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D42" s="23" t="s">
-        <v>617</v>
+        <v>603</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>229</v>
@@ -9775,15 +9783,15 @@
         <v>303</v>
       </c>
       <c r="J42" s="36" t="s">
-        <v>787</v>
+        <v>772</v>
       </c>
       <c r="M42" s="25" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="43" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D43" s="23" t="s">
-        <v>618</v>
+        <v>604</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>227</v>
@@ -9792,7 +9800,7 @@
         <v>178</v>
       </c>
       <c r="G43" s="19" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="H43" s="24" t="s">
         <v>303</v>
@@ -9801,10 +9809,10 @@
         <v>312</v>
       </c>
       <c r="J43" s="36" t="s">
-        <v>793</v>
+        <v>778</v>
       </c>
       <c r="L43" s="25" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="M43" s="25" t="s">
         <v>325</v>
@@ -9812,7 +9820,7 @@
     </row>
     <row r="44" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D44" s="23" t="s">
-        <v>619</v>
+        <v>605</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>226</v>
@@ -9827,13 +9835,13 @@
         <v>303</v>
       </c>
       <c r="J44" s="36" t="s">
-        <v>765</v>
+        <v>750</v>
       </c>
       <c r="M44" s="25" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="N44" s="24" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
     </row>
     <row r="45" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -9841,7 +9849,7 @@
         <v>224</v>
       </c>
       <c r="D45" s="23" t="s">
-        <v>620</v>
+        <v>606</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>223</v>
@@ -9853,10 +9861,10 @@
         <v>222</v>
       </c>
       <c r="J45" s="36" t="s">
-        <v>787</v>
+        <v>772</v>
       </c>
       <c r="L45" s="25" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="M45" s="25" t="s">
         <v>329</v>
@@ -9864,7 +9872,7 @@
     </row>
     <row r="46" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D46" s="23" t="s">
-        <v>621</v>
+        <v>607</v>
       </c>
       <c r="E46" s="5" t="s">
         <v>221</v>
@@ -9879,15 +9887,15 @@
         <v>303</v>
       </c>
       <c r="J46" s="36" t="s">
-        <v>787</v>
+        <v>772</v>
       </c>
       <c r="M46" s="25" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
     </row>
     <row r="47" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D47" s="23" t="s">
-        <v>622</v>
+        <v>608</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>220</v>
@@ -9902,18 +9910,18 @@
         <v>303</v>
       </c>
       <c r="J47" s="36" t="s">
-        <v>787</v>
+        <v>772</v>
       </c>
       <c r="L47" s="25" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="M47" s="25" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
     </row>
     <row r="48" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D48" s="23" t="s">
-        <v>623</v>
+        <v>609</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>219</v>
@@ -9928,16 +9936,16 @@
         <v>303</v>
       </c>
       <c r="J48" s="36" t="s">
-        <v>787</v>
+        <v>772</v>
       </c>
       <c r="L48" s="25" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="M48" s="25" t="s">
-        <v>749</v>
+        <v>735</v>
       </c>
       <c r="N48" s="24" t="s">
-        <v>761</v>
+        <v>746</v>
       </c>
     </row>
     <row r="49" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -9945,7 +9953,7 @@
         <v>217</v>
       </c>
       <c r="D49" s="23" t="s">
-        <v>624</v>
+        <v>610</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>216</v>
@@ -9954,19 +9962,19 @@
         <v>178</v>
       </c>
       <c r="G49" s="20" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="I49" s="24" t="s">
         <v>312</v>
       </c>
       <c r="J49" s="36" t="s">
-        <v>793</v>
+        <v>778</v>
       </c>
       <c r="L49" s="25" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="M49" s="25" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="N49" s="24" t="s">
         <v>341</v>
@@ -9977,7 +9985,7 @@
     </row>
     <row r="50" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D50" s="23" t="s">
-        <v>625</v>
+        <v>611</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>215</v>
@@ -9992,10 +10000,10 @@
         <v>303</v>
       </c>
       <c r="J50" s="36" t="s">
-        <v>787</v>
+        <v>772</v>
       </c>
       <c r="L50" s="25" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="M50" s="25" t="s">
         <v>325</v>
@@ -10003,7 +10011,7 @@
     </row>
     <row r="51" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D51" s="23" t="s">
-        <v>626</v>
+        <v>612</v>
       </c>
       <c r="E51" s="5" t="s">
         <v>214</v>
@@ -10018,10 +10026,10 @@
         <v>303</v>
       </c>
       <c r="J51" s="36" t="s">
-        <v>787</v>
+        <v>772</v>
       </c>
       <c r="L51" s="25" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="M51" s="25" t="s">
         <v>325</v>
@@ -10029,7 +10037,7 @@
     </row>
     <row r="52" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D52" s="23" t="s">
-        <v>627</v>
+        <v>613</v>
       </c>
       <c r="E52" s="5" t="s">
         <v>213</v>
@@ -10038,27 +10046,27 @@
         <v>172</v>
       </c>
       <c r="G52" s="13" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="H52" s="24" t="s">
         <v>303</v>
       </c>
       <c r="J52" s="36" t="s">
-        <v>787</v>
+        <v>772</v>
       </c>
       <c r="L52" s="25" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="M52" s="25" t="s">
         <v>325</v>
       </c>
       <c r="N52" s="24" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
     </row>
     <row r="53" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D53" s="23" t="s">
-        <v>628</v>
+        <v>614</v>
       </c>
       <c r="E53" s="5" t="s">
         <v>195</v>
@@ -10070,12 +10078,12 @@
         <v>194</v>
       </c>
       <c r="J53" s="36" t="s">
-        <v>782</v>
+        <v>767</v>
       </c>
     </row>
     <row r="54" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D54" s="23" t="s">
-        <v>629</v>
+        <v>615</v>
       </c>
       <c r="E54" s="5" t="s">
         <v>193</v>
@@ -10087,7 +10095,7 @@
         <v>192</v>
       </c>
       <c r="J54" s="36" t="s">
-        <v>780</v>
+        <v>765</v>
       </c>
     </row>
     <row r="55" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10101,7 +10109,7 @@
         <v>211</v>
       </c>
       <c r="D55" s="23" t="s">
-        <v>630</v>
+        <v>616</v>
       </c>
       <c r="E55" s="5" t="s">
         <v>210</v>
@@ -10115,7 +10123,7 @@
       <c r="H55" s="24"/>
       <c r="I55" s="24"/>
       <c r="J55" s="36" t="s">
-        <v>780</v>
+        <v>765</v>
       </c>
       <c r="K55" s="30"/>
       <c r="L55" s="25"/>
@@ -10127,7 +10135,7 @@
     <row r="56" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="6"/>
       <c r="D56" s="23" t="s">
-        <v>631</v>
+        <v>617</v>
       </c>
       <c r="E56" s="18" t="s">
         <v>208</v>
@@ -10136,7 +10144,7 @@
         <v>178</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>547</v>
+        <v>847</v>
       </c>
       <c r="H56" s="24" t="s">
         <v>303</v>
@@ -10145,14 +10153,14 @@
         <v>312</v>
       </c>
       <c r="J56" s="36" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="K56" s="30"/>
       <c r="L56" s="25" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="M56" s="25" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="N56" s="24" t="s">
         <v>342</v>
@@ -10165,16 +10173,16 @@
     <row r="57" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="6"/>
       <c r="D57" s="23" t="s">
-        <v>632</v>
+        <v>618</v>
       </c>
       <c r="E57" s="18" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="F57" s="4" t="s">
         <v>7</v>
       </c>
       <c r="G57" s="19" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="H57" s="24" t="s">
         <v>303</v>
@@ -10183,12 +10191,12 @@
         <v>307</v>
       </c>
       <c r="J57" s="36" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="K57" s="30"/>
       <c r="L57" s="25"/>
       <c r="M57" s="25" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="N57" s="24" t="s">
         <v>341</v>
@@ -10201,7 +10209,7 @@
     <row r="58" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="6"/>
       <c r="D58" s="23" t="s">
-        <v>633</v>
+        <v>619</v>
       </c>
       <c r="E58" s="5" t="s">
         <v>207</v>
@@ -10215,7 +10223,7 @@
       <c r="H58" s="24"/>
       <c r="I58" s="24"/>
       <c r="J58" s="36" t="s">
-        <v>780</v>
+        <v>765</v>
       </c>
       <c r="K58" s="30"/>
       <c r="L58" s="25"/>
@@ -10231,7 +10239,7 @@
         <v>205</v>
       </c>
       <c r="D59" s="23" t="s">
-        <v>634</v>
+        <v>620</v>
       </c>
       <c r="E59" s="5" t="s">
         <v>204</v>
@@ -10240,7 +10248,7 @@
         <v>178</v>
       </c>
       <c r="G59" s="19" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="H59" s="24" t="s">
         <v>303</v>
@@ -10249,14 +10257,14 @@
         <v>312</v>
       </c>
       <c r="J59" s="36" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="K59" s="30"/>
       <c r="L59" s="25" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="M59" s="25" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="N59" s="24" t="s">
         <v>341</v>
@@ -10271,7 +10279,7 @@
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
       <c r="D60" s="23" t="s">
-        <v>635</v>
+        <v>621</v>
       </c>
       <c r="E60" s="5" t="s">
         <v>203</v>
@@ -10285,7 +10293,7 @@
       <c r="H60" s="24"/>
       <c r="I60" s="24"/>
       <c r="J60" s="36" t="s">
-        <v>780</v>
+        <v>765</v>
       </c>
       <c r="K60" s="30"/>
       <c r="L60" s="25"/>
@@ -10299,7 +10307,7 @@
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
       <c r="D61" s="23" t="s">
-        <v>636</v>
+        <v>622</v>
       </c>
       <c r="E61" s="5" t="s">
         <v>201</v>
@@ -10308,21 +10316,21 @@
         <v>176</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="H61" s="24" t="s">
         <v>303</v>
       </c>
       <c r="I61" s="24"/>
       <c r="J61" s="36" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="K61" s="30"/>
       <c r="L61" s="25" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="M61" s="25" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="N61" s="24"/>
       <c r="O61" s="34"/>
@@ -10333,7 +10341,7 @@
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
       <c r="D62" s="23" t="s">
-        <v>637</v>
+        <v>623</v>
       </c>
       <c r="E62" s="5" t="s">
         <v>200</v>
@@ -10351,12 +10359,12 @@
         <v>312</v>
       </c>
       <c r="J62" s="36" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="K62" s="30"/>
       <c r="L62" s="25"/>
       <c r="M62" s="25" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="N62" s="24" t="s">
         <v>343</v>
@@ -10371,7 +10379,7 @@
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
       <c r="D63" s="23" t="s">
-        <v>638</v>
+        <v>624</v>
       </c>
       <c r="E63" s="5" t="s">
         <v>199</v>
@@ -10389,12 +10397,12 @@
         <v>312</v>
       </c>
       <c r="J63" s="36" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="K63" s="30"/>
       <c r="L63" s="25"/>
       <c r="M63" s="25" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="N63" s="24" t="s">
         <v>344</v>
@@ -10409,7 +10417,7 @@
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
       <c r="D64" s="23" t="s">
-        <v>639</v>
+        <v>625</v>
       </c>
       <c r="E64" s="5" t="s">
         <v>197</v>
@@ -10427,12 +10435,12 @@
         <v>312</v>
       </c>
       <c r="J64" s="36" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="K64" s="30"/>
       <c r="L64" s="25"/>
       <c r="M64" s="25" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="N64" s="24" t="s">
         <v>343</v>
@@ -10447,7 +10455,7 @@
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
       <c r="D65" s="23" t="s">
-        <v>640</v>
+        <v>626</v>
       </c>
       <c r="E65" s="5" t="s">
         <v>195</v>
@@ -10461,7 +10469,7 @@
       <c r="H65" s="24"/>
       <c r="I65" s="24"/>
       <c r="J65" s="36" t="s">
-        <v>781</v>
+        <v>766</v>
       </c>
       <c r="K65" s="30"/>
       <c r="L65" s="25"/>
@@ -10475,7 +10483,7 @@
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
       <c r="D66" s="23" t="s">
-        <v>641</v>
+        <v>627</v>
       </c>
       <c r="E66" s="5" t="s">
         <v>193</v>
@@ -10489,7 +10497,7 @@
       <c r="H66" s="24"/>
       <c r="I66" s="24"/>
       <c r="J66" s="36" t="s">
-        <v>780</v>
+        <v>765</v>
       </c>
       <c r="K66" s="30"/>
       <c r="L66" s="25"/>
@@ -10505,7 +10513,7 @@
         <v>191</v>
       </c>
       <c r="D67" s="23" t="s">
-        <v>642</v>
+        <v>628</v>
       </c>
       <c r="E67" s="5" t="s">
         <v>190</v>
@@ -10514,7 +10522,7 @@
         <v>178</v>
       </c>
       <c r="G67" s="21" t="s">
-        <v>562</v>
+        <v>846</v>
       </c>
       <c r="H67" s="24" t="s">
         <v>305</v>
@@ -10523,7 +10531,7 @@
         <v>312</v>
       </c>
       <c r="J67" s="36" t="s">
-        <v>766</v>
+        <v>751</v>
       </c>
       <c r="K67" s="30"/>
       <c r="L67" s="25"/>
@@ -10541,7 +10549,7 @@
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
       <c r="D68" s="23" t="s">
-        <v>643</v>
+        <v>629</v>
       </c>
       <c r="E68" s="5" t="s">
         <v>188</v>
@@ -10550,14 +10558,14 @@
         <v>178</v>
       </c>
       <c r="G68" s="19" t="s">
-        <v>563</v>
+        <v>845</v>
       </c>
       <c r="H68" s="24"/>
       <c r="I68" s="24" t="s">
         <v>312</v>
       </c>
       <c r="J68" s="36" t="s">
-        <v>767</v>
+        <v>752</v>
       </c>
       <c r="K68" s="30"/>
       <c r="L68" s="25"/>
@@ -10575,7 +10583,7 @@
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
       <c r="D69" s="23" t="s">
-        <v>644</v>
+        <v>630</v>
       </c>
       <c r="E69" s="5" t="s">
         <v>186</v>
@@ -10584,7 +10592,7 @@
         <v>178</v>
       </c>
       <c r="G69" s="20" t="s">
-        <v>564</v>
+        <v>554</v>
       </c>
       <c r="H69" s="24" t="s">
         <v>303</v>
@@ -10593,12 +10601,12 @@
         <v>312</v>
       </c>
       <c r="J69" s="36" t="s">
-        <v>793</v>
+        <v>778</v>
       </c>
       <c r="K69" s="30"/>
       <c r="L69" s="25"/>
       <c r="M69" s="25" t="s">
-        <v>749</v>
+        <v>735</v>
       </c>
       <c r="N69" s="24" t="s">
         <v>341</v>
@@ -10613,7 +10621,7 @@
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
       <c r="D70" s="23" t="s">
-        <v>645</v>
+        <v>631</v>
       </c>
       <c r="E70" s="5" t="s">
         <v>185</v>
@@ -10622,7 +10630,7 @@
         <v>176</v>
       </c>
       <c r="G70" s="13" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="H70" s="24" t="s">
         <v>303</v>
@@ -10631,14 +10639,14 @@
         <v>312</v>
       </c>
       <c r="J70" s="36" t="s">
-        <v>787</v>
+        <v>772</v>
       </c>
       <c r="K70" s="30"/>
       <c r="L70" s="25" t="s">
-        <v>750</v>
+        <v>736</v>
       </c>
       <c r="M70" s="25" t="s">
-        <v>751</v>
+        <v>737</v>
       </c>
       <c r="N70" s="24" t="s">
         <v>341</v>
@@ -10653,7 +10661,7 @@
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
       <c r="D71" s="23" t="s">
-        <v>646</v>
+        <v>632</v>
       </c>
       <c r="E71" s="5" t="s">
         <v>184</v>
@@ -10669,11 +10677,11 @@
       </c>
       <c r="I71" s="24"/>
       <c r="J71" s="36" t="s">
-        <v>787</v>
+        <v>772</v>
       </c>
       <c r="K71" s="30"/>
       <c r="L71" s="25" t="s">
-        <v>752</v>
+        <v>738</v>
       </c>
       <c r="M71" s="25" t="s">
         <v>325</v>
@@ -10689,7 +10697,7 @@
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
       <c r="D72" s="23" t="s">
-        <v>647</v>
+        <v>633</v>
       </c>
       <c r="E72" s="5" t="s">
         <v>182</v>
@@ -10707,14 +10715,14 @@
         <v>312</v>
       </c>
       <c r="J72" s="36" t="s">
-        <v>787</v>
+        <v>772</v>
       </c>
       <c r="K72" s="30"/>
       <c r="L72" s="25" t="s">
-        <v>753</v>
+        <v>739</v>
       </c>
       <c r="M72" s="25" t="s">
-        <v>760</v>
+        <v>745</v>
       </c>
       <c r="N72" s="24" t="s">
         <v>345</v>
@@ -10729,7 +10737,7 @@
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
       <c r="D73" s="23" t="s">
-        <v>648</v>
+        <v>634</v>
       </c>
       <c r="E73" s="5" t="s">
         <v>179</v>
@@ -10738,14 +10746,14 @@
         <v>178</v>
       </c>
       <c r="G73" s="21" t="s">
-        <v>565</v>
+        <v>844</v>
       </c>
       <c r="H73" s="24"/>
       <c r="I73" s="24" t="s">
         <v>307</v>
       </c>
       <c r="J73" s="36" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="K73" s="30"/>
       <c r="L73" s="25"/>
@@ -10765,7 +10773,7 @@
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
       <c r="D74" s="23" t="s">
-        <v>649</v>
+        <v>635</v>
       </c>
       <c r="E74" s="5" t="s">
         <v>177</v>
@@ -10774,14 +10782,14 @@
         <v>176</v>
       </c>
       <c r="G74" s="11" t="s">
-        <v>759</v>
+        <v>744</v>
       </c>
       <c r="H74" s="24"/>
       <c r="I74" s="24" t="s">
         <v>307</v>
       </c>
       <c r="J74" s="36" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="K74" s="30"/>
       <c r="L74" s="25"/>
@@ -10801,7 +10809,7 @@
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
       <c r="D75" s="23" t="s">
-        <v>650</v>
+        <v>636</v>
       </c>
       <c r="E75" s="5" t="s">
         <v>175</v>
@@ -10817,7 +10825,7 @@
         <v>307</v>
       </c>
       <c r="J75" s="36" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="K75" s="30"/>
       <c r="L75" s="25"/>
@@ -10837,7 +10845,7 @@
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
       <c r="D76" s="23" t="s">
-        <v>651</v>
+        <v>637</v>
       </c>
       <c r="E76" s="5" t="s">
         <v>173</v>
@@ -10853,7 +10861,7 @@
         <v>307</v>
       </c>
       <c r="J76" s="36" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="K76" s="30"/>
       <c r="L76" s="25"/>
@@ -10875,7 +10883,7 @@
         <v>169</v>
       </c>
       <c r="D77" s="23" t="s">
-        <v>652</v>
+        <v>638</v>
       </c>
       <c r="E77" s="5" t="s">
         <v>55</v>
@@ -10889,7 +10897,7 @@
       <c r="H77" s="24"/>
       <c r="I77" s="24"/>
       <c r="J77" s="36" t="s">
-        <v>781</v>
+        <v>766</v>
       </c>
       <c r="K77" s="30"/>
       <c r="L77" s="25"/>
@@ -10902,8 +10910,8 @@
       <c r="A78" s="6"/>
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
-      <c r="D78" s="23" t="s">
-        <v>653</v>
+      <c r="D78" s="40" t="s">
+        <v>639</v>
       </c>
       <c r="E78" s="5" t="s">
         <v>168</v>
@@ -10912,7 +10920,7 @@
         <v>7</v>
       </c>
       <c r="G78" s="20" t="s">
-        <v>754</v>
+        <v>843</v>
       </c>
       <c r="H78" s="24" t="s">
         <v>305</v>
@@ -10921,17 +10929,17 @@
         <v>312</v>
       </c>
       <c r="J78" s="36" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="K78" s="30"/>
       <c r="L78" s="25" t="s">
-        <v>755</v>
+        <v>740</v>
       </c>
       <c r="M78" s="25" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="N78" s="24" t="s">
-        <v>341</v>
+        <v>848</v>
       </c>
       <c r="O78" s="34"/>
       <c r="P78" s="2" t="s">
@@ -10943,7 +10951,7 @@
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
       <c r="D79" s="23" t="s">
-        <v>654</v>
+        <v>640</v>
       </c>
       <c r="E79" s="5" t="s">
         <v>167</v>
@@ -10952,21 +10960,21 @@
         <v>7</v>
       </c>
       <c r="G79" s="20" t="s">
-        <v>756</v>
+        <v>741</v>
       </c>
       <c r="H79" s="24"/>
       <c r="I79" s="24" t="s">
         <v>312</v>
       </c>
       <c r="J79" s="36" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="K79" s="30"/>
       <c r="L79" s="25" t="s">
-        <v>757</v>
+        <v>742</v>
       </c>
       <c r="M79" s="25" t="s">
-        <v>758</v>
+        <v>743</v>
       </c>
       <c r="N79" s="24" t="s">
         <v>341</v>
@@ -10981,7 +10989,7 @@
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
       <c r="D80" s="23" t="s">
-        <v>655</v>
+        <v>641</v>
       </c>
       <c r="E80" s="5" t="s">
         <v>166</v>
@@ -10995,7 +11003,7 @@
       <c r="H80" s="24"/>
       <c r="I80" s="24"/>
       <c r="J80" s="36" t="s">
-        <v>780</v>
+        <v>765</v>
       </c>
       <c r="K80" s="30"/>
       <c r="L80" s="25"/>
@@ -11009,7 +11017,7 @@
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
       <c r="D81" s="23" t="s">
-        <v>656</v>
+        <v>642</v>
       </c>
       <c r="E81" s="5" t="s">
         <v>164</v>
@@ -11023,7 +11031,7 @@
       <c r="H81" s="24"/>
       <c r="I81" s="24"/>
       <c r="J81" s="36" t="s">
-        <v>781</v>
+        <v>766</v>
       </c>
       <c r="K81" s="30"/>
       <c r="L81" s="25"/>
@@ -11037,7 +11045,7 @@
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
       <c r="D82" s="23" t="s">
-        <v>657</v>
+        <v>643</v>
       </c>
       <c r="E82" s="5" t="s">
         <v>162</v>
@@ -11051,7 +11059,7 @@
       <c r="H82" s="24"/>
       <c r="I82" s="24"/>
       <c r="J82" s="36" t="s">
-        <v>780</v>
+        <v>765</v>
       </c>
       <c r="K82" s="30"/>
       <c r="L82" s="25"/>
@@ -11067,7 +11075,7 @@
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
       <c r="D83" s="23" t="s">
-        <v>658</v>
+        <v>644</v>
       </c>
       <c r="E83" s="5" t="s">
         <v>159</v>
@@ -11081,7 +11089,7 @@
       <c r="H83" s="24"/>
       <c r="I83" s="24"/>
       <c r="J83" s="36" t="s">
-        <v>783</v>
+        <v>768</v>
       </c>
       <c r="K83" s="30"/>
       <c r="L83" s="25"/>
@@ -11095,7 +11103,7 @@
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
       <c r="D84" s="23" t="s">
-        <v>659</v>
+        <v>645</v>
       </c>
       <c r="E84" s="5" t="s">
         <v>157</v>
@@ -11109,12 +11117,12 @@
       <c r="H84" s="24"/>
       <c r="I84" s="24"/>
       <c r="J84" s="36" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="K84" s="30"/>
       <c r="L84" s="25"/>
       <c r="M84" s="25" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="N84" s="24"/>
       <c r="O84" s="34"/>
@@ -11131,7 +11139,7 @@
         <v>154</v>
       </c>
       <c r="D85" s="23" t="s">
-        <v>660</v>
+        <v>646</v>
       </c>
       <c r="E85" s="5" t="s">
         <v>55</v>
@@ -11145,7 +11153,7 @@
       <c r="H85" s="24"/>
       <c r="I85" s="24"/>
       <c r="J85" s="36" t="s">
-        <v>779</v>
+        <v>764</v>
       </c>
       <c r="K85" s="30"/>
       <c r="L85" s="25"/>
@@ -11159,7 +11167,7 @@
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
       <c r="D86" s="23" t="s">
-        <v>661</v>
+        <v>647</v>
       </c>
       <c r="E86" s="16" t="s">
         <v>153</v>
@@ -11168,7 +11176,7 @@
         <v>85</v>
       </c>
       <c r="G86" s="19" t="s">
-        <v>566</v>
+        <v>555</v>
       </c>
       <c r="H86" s="24" t="s">
         <v>305</v>
@@ -11177,12 +11185,12 @@
         <v>312</v>
       </c>
       <c r="J86" s="36" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="K86" s="30"/>
       <c r="L86" s="25"/>
       <c r="M86" s="25" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="N86" s="24" t="s">
         <v>341</v>
@@ -11197,7 +11205,7 @@
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
       <c r="D87" s="23" t="s">
-        <v>662</v>
+        <v>648</v>
       </c>
       <c r="E87" s="5" t="s">
         <v>151</v>
@@ -11213,7 +11221,7 @@
       </c>
       <c r="I87" s="24"/>
       <c r="J87" s="36" t="s">
-        <v>780</v>
+        <v>765</v>
       </c>
       <c r="K87" s="30"/>
       <c r="L87" s="25"/>
@@ -11229,7 +11237,7 @@
         <v>149</v>
       </c>
       <c r="D88" s="23" t="s">
-        <v>663</v>
+        <v>649</v>
       </c>
       <c r="E88" s="5" t="s">
         <v>112</v>
@@ -11245,7 +11253,7 @@
       </c>
       <c r="I88" s="24"/>
       <c r="J88" s="36" t="s">
-        <v>781</v>
+        <v>766</v>
       </c>
       <c r="K88" s="30"/>
       <c r="L88" s="25"/>
@@ -11259,7 +11267,7 @@
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
       <c r="D89" s="23" t="s">
-        <v>664</v>
+        <v>650</v>
       </c>
       <c r="E89" s="5" t="s">
         <v>110</v>
@@ -11275,7 +11283,7 @@
       </c>
       <c r="I89" s="24"/>
       <c r="J89" s="36" t="s">
-        <v>780</v>
+        <v>765</v>
       </c>
       <c r="K89" s="30"/>
       <c r="L89" s="25"/>
@@ -11289,7 +11297,7 @@
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
       <c r="D90" s="23" t="s">
-        <v>665</v>
+        <v>651</v>
       </c>
       <c r="E90" s="5" t="s">
         <v>146</v>
@@ -11305,7 +11313,7 @@
       </c>
       <c r="I90" s="24"/>
       <c r="J90" s="36" t="s">
-        <v>780</v>
+        <v>765</v>
       </c>
       <c r="K90" s="30"/>
       <c r="L90" s="25"/>
@@ -11319,7 +11327,7 @@
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
       <c r="D91" s="23" t="s">
-        <v>666</v>
+        <v>652</v>
       </c>
       <c r="E91" s="5" t="s">
         <v>144</v>
@@ -11335,7 +11343,7 @@
       </c>
       <c r="I91" s="24"/>
       <c r="J91" s="36" t="s">
-        <v>781</v>
+        <v>766</v>
       </c>
       <c r="K91" s="30"/>
       <c r="L91" s="25"/>
@@ -11351,7 +11359,7 @@
         <v>142</v>
       </c>
       <c r="D92" s="23" t="s">
-        <v>667</v>
+        <v>653</v>
       </c>
       <c r="E92" s="16" t="s">
         <v>141</v>
@@ -11369,12 +11377,12 @@
         <v>312</v>
       </c>
       <c r="J92" s="36" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="K92" s="30"/>
       <c r="L92" s="25"/>
       <c r="M92" s="25" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="N92" s="24" t="s">
         <v>346</v>
@@ -11389,7 +11397,7 @@
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
       <c r="D93" s="23" t="s">
-        <v>668</v>
+        <v>654</v>
       </c>
       <c r="E93" s="16" t="s">
         <v>140</v>
@@ -11407,12 +11415,12 @@
         <v>312</v>
       </c>
       <c r="J93" s="36" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="K93" s="30"/>
       <c r="L93" s="25"/>
       <c r="M93" s="25" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="N93" s="24" t="s">
         <v>341</v>
@@ -11425,7 +11433,7 @@
     <row r="94" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="6"/>
       <c r="D94" s="23" t="s">
-        <v>669</v>
+        <v>655</v>
       </c>
       <c r="E94" s="16" t="s">
         <v>138</v>
@@ -11443,12 +11451,12 @@
         <v>312</v>
       </c>
       <c r="J94" s="36" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="K94" s="30"/>
       <c r="L94" s="25"/>
       <c r="M94" s="25" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="N94" s="24" t="s">
         <v>341</v>
@@ -11464,7 +11472,7 @@
         <v>136</v>
       </c>
       <c r="D95" s="23" t="s">
-        <v>670</v>
+        <v>656</v>
       </c>
       <c r="E95" s="5" t="s">
         <v>135</v>
@@ -11480,7 +11488,7 @@
       </c>
       <c r="I95" s="24"/>
       <c r="J95" s="36" t="s">
-        <v>779</v>
+        <v>764</v>
       </c>
       <c r="K95" s="30"/>
       <c r="L95" s="25"/>
@@ -11492,7 +11500,7 @@
     <row r="96" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="6"/>
       <c r="D96" s="23" t="s">
-        <v>671</v>
+        <v>657</v>
       </c>
       <c r="E96" s="5" t="s">
         <v>134</v>
@@ -11508,7 +11516,7 @@
       </c>
       <c r="I96" s="24"/>
       <c r="J96" s="36" t="s">
-        <v>779</v>
+        <v>764</v>
       </c>
       <c r="K96" s="30"/>
       <c r="L96" s="25"/>
@@ -11528,7 +11536,7 @@
         <v>131</v>
       </c>
       <c r="D97" s="23" t="s">
-        <v>672</v>
+        <v>658</v>
       </c>
       <c r="E97" s="5" t="s">
         <v>130</v>
@@ -11537,21 +11545,21 @@
         <v>7</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="H97" s="24" t="s">
         <v>303</v>
       </c>
       <c r="I97" s="24"/>
       <c r="J97" s="36" t="s">
-        <v>575</v>
+        <v>561</v>
       </c>
       <c r="K97" s="30"/>
       <c r="L97" s="25" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="M97" s="25" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="N97" s="24"/>
       <c r="O97" s="34"/>
@@ -11560,7 +11568,7 @@
     <row r="98" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="6"/>
       <c r="D98" s="23" t="s">
-        <v>673</v>
+        <v>659</v>
       </c>
       <c r="E98" s="5" t="s">
         <v>129</v>
@@ -11569,7 +11577,7 @@
         <v>85</v>
       </c>
       <c r="G98" s="19" t="s">
-        <v>567</v>
+        <v>842</v>
       </c>
       <c r="H98" s="24" t="s">
         <v>303</v>
@@ -11578,12 +11586,12 @@
         <v>312</v>
       </c>
       <c r="J98" s="36" t="s">
-        <v>793</v>
+        <v>778</v>
       </c>
       <c r="K98" s="30"/>
       <c r="L98" s="25"/>
       <c r="M98" s="25" t="s">
-        <v>768</v>
+        <v>753</v>
       </c>
       <c r="N98" s="24"/>
       <c r="O98" s="34"/>
@@ -11592,7 +11600,7 @@
     <row r="99" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="6"/>
       <c r="D99" s="23" t="s">
-        <v>674</v>
+        <v>660</v>
       </c>
       <c r="E99" s="5" t="s">
         <v>128</v>
@@ -11601,21 +11609,21 @@
         <v>5</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="H99" s="24" t="s">
         <v>303</v>
       </c>
       <c r="I99" s="24"/>
       <c r="J99" s="36" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="K99" s="30"/>
       <c r="L99" s="25" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="M99" s="25" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="N99" s="24"/>
       <c r="O99" s="34"/>
@@ -11624,7 +11632,7 @@
     <row r="100" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="6"/>
       <c r="D100" s="23" t="s">
-        <v>675</v>
+        <v>661</v>
       </c>
       <c r="E100" s="5" t="s">
         <v>127</v>
@@ -11640,12 +11648,12 @@
       </c>
       <c r="I100" s="24"/>
       <c r="J100" s="36" t="s">
-        <v>769</v>
+        <v>754</v>
       </c>
       <c r="K100" s="30"/>
       <c r="L100" s="25"/>
       <c r="M100" s="25" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="N100" s="24"/>
       <c r="O100" s="34"/>
@@ -11654,7 +11662,7 @@
     <row r="101" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="6"/>
       <c r="D101" s="23" t="s">
-        <v>676</v>
+        <v>662</v>
       </c>
       <c r="E101" s="5" t="s">
         <v>126</v>
@@ -11670,12 +11678,12 @@
       </c>
       <c r="I101" s="24"/>
       <c r="J101" s="36" t="s">
-        <v>765</v>
+        <v>750</v>
       </c>
       <c r="K101" s="30"/>
       <c r="L101" s="25"/>
       <c r="M101" s="25" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="N101" s="24"/>
       <c r="O101" s="34"/>
@@ -11687,7 +11695,7 @@
         <v>124</v>
       </c>
       <c r="D102" s="23" t="s">
-        <v>677</v>
+        <v>663</v>
       </c>
       <c r="E102" s="5" t="s">
         <v>123</v>
@@ -11703,14 +11711,14 @@
       </c>
       <c r="I102" s="24"/>
       <c r="J102" s="36" t="s">
-        <v>767</v>
+        <v>752</v>
       </c>
       <c r="K102" s="30"/>
       <c r="L102" s="28" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="M102" s="27" t="s">
-        <v>770</v>
+        <v>755</v>
       </c>
       <c r="N102" s="24"/>
       <c r="O102" s="34"/>
@@ -11719,7 +11727,7 @@
     <row r="103" spans="1:16" s="5" customFormat="1" ht="80.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="6"/>
       <c r="D103" s="23" t="s">
-        <v>678</v>
+        <v>664</v>
       </c>
       <c r="E103" s="5" t="s">
         <v>121</v>
@@ -11735,17 +11743,17 @@
       </c>
       <c r="I103" s="24"/>
       <c r="J103" s="36" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="K103" s="31"/>
       <c r="L103" s="26" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="M103" s="26" t="s">
         <v>321</v>
       </c>
       <c r="N103" s="24" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="O103" s="34"/>
       <c r="P103" s="2"/>
@@ -11753,7 +11761,7 @@
     <row r="104" spans="1:16" s="5" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="6"/>
       <c r="D104" s="23" t="s">
-        <v>679</v>
+        <v>665</v>
       </c>
       <c r="E104" s="5" t="s">
         <v>119</v>
@@ -11769,14 +11777,14 @@
       </c>
       <c r="I104" s="24"/>
       <c r="J104" s="36" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="K104" s="30"/>
       <c r="L104" s="25" t="s">
         <v>323</v>
       </c>
       <c r="M104" s="25" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="N104" s="24" t="s">
         <v>326</v>
@@ -11787,7 +11795,7 @@
     <row r="105" spans="1:16" s="5" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="6"/>
       <c r="D105" s="23" t="s">
-        <v>680</v>
+        <v>666</v>
       </c>
       <c r="E105" s="5" t="s">
         <v>117</v>
@@ -11803,7 +11811,7 @@
       </c>
       <c r="I105" s="24"/>
       <c r="J105" s="36" t="s">
-        <v>787</v>
+        <v>772</v>
       </c>
       <c r="K105" s="30"/>
       <c r="L105" s="25" t="s">
@@ -11827,7 +11835,7 @@
         <v>113</v>
       </c>
       <c r="D106" s="23" t="s">
-        <v>681</v>
+        <v>667</v>
       </c>
       <c r="E106" s="5" t="s">
         <v>112</v>
@@ -11843,11 +11851,11 @@
       </c>
       <c r="I106" s="24"/>
       <c r="J106" s="36" t="s">
-        <v>787</v>
+        <v>772</v>
       </c>
       <c r="K106" s="30"/>
       <c r="L106" s="25" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="M106" s="27" t="s">
         <v>314</v>
@@ -11859,7 +11867,7 @@
     <row r="107" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="6"/>
       <c r="D107" s="23" t="s">
-        <v>682</v>
+        <v>668</v>
       </c>
       <c r="E107" s="5" t="s">
         <v>110</v>
@@ -11868,7 +11876,7 @@
         <v>85</v>
       </c>
       <c r="G107" s="22" t="s">
-        <v>568</v>
+        <v>556</v>
       </c>
       <c r="H107" s="24" t="s">
         <v>303</v>
@@ -11877,11 +11885,11 @@
         <v>312</v>
       </c>
       <c r="J107" s="36" t="s">
-        <v>793</v>
+        <v>778</v>
       </c>
       <c r="K107" s="30"/>
       <c r="L107" s="25" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="M107" s="27" t="s">
         <v>315</v>
@@ -11895,7 +11903,7 @@
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
       <c r="D108" s="23" t="s">
-        <v>683</v>
+        <v>669</v>
       </c>
       <c r="E108" s="5" t="s">
         <v>109</v>
@@ -11904,7 +11912,7 @@
         <v>7</v>
       </c>
       <c r="G108" s="19" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="H108" s="24" t="s">
         <v>303</v>
@@ -11913,14 +11921,14 @@
         <v>312</v>
       </c>
       <c r="J108" s="36" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="K108" s="30"/>
       <c r="L108" s="25" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="M108" s="25" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="N108" s="24"/>
       <c r="O108" s="34"/>
@@ -11931,7 +11939,7 @@
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
       <c r="D109" s="23" t="s">
-        <v>684</v>
+        <v>670</v>
       </c>
       <c r="E109" s="5" t="s">
         <v>108</v>
@@ -11947,14 +11955,14 @@
       </c>
       <c r="I109" s="24"/>
       <c r="J109" s="36" t="s">
-        <v>787</v>
+        <v>772</v>
       </c>
       <c r="K109" s="30"/>
       <c r="L109" s="25" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="M109" s="25" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="N109" s="24"/>
       <c r="O109" s="34"/>
@@ -11965,7 +11973,7 @@
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
       <c r="D110" s="23" t="s">
-        <v>685</v>
+        <v>671</v>
       </c>
       <c r="E110" s="5" t="s">
         <v>106</v>
@@ -11981,11 +11989,11 @@
       </c>
       <c r="I110" s="24"/>
       <c r="J110" s="36" t="s">
-        <v>787</v>
+        <v>772</v>
       </c>
       <c r="K110" s="30"/>
       <c r="L110" s="25" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="M110" s="25" t="s">
         <v>329</v>
@@ -12001,7 +12009,7 @@
         <v>104</v>
       </c>
       <c r="D111" s="23" t="s">
-        <v>686</v>
+        <v>672</v>
       </c>
       <c r="E111" s="5" t="s">
         <v>103</v>
@@ -12010,21 +12018,21 @@
         <v>7</v>
       </c>
       <c r="G111" s="13" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="H111" s="24" t="s">
         <v>303</v>
       </c>
       <c r="I111" s="24"/>
       <c r="J111" s="36" t="s">
-        <v>787</v>
+        <v>772</v>
       </c>
       <c r="K111" s="30"/>
       <c r="L111" s="25" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="M111" s="25" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="N111" s="24"/>
       <c r="O111" s="34"/>
@@ -12035,7 +12043,7 @@
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
       <c r="D112" s="23" t="s">
-        <v>687</v>
+        <v>673</v>
       </c>
       <c r="E112" s="5" t="s">
         <v>102</v>
@@ -12051,17 +12059,17 @@
       </c>
       <c r="I112" s="24"/>
       <c r="J112" s="36" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="K112" s="30"/>
       <c r="L112" s="25" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="M112" s="25" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="N112" s="24" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="O112" s="34"/>
       <c r="P112" s="2" t="s">
@@ -12073,7 +12081,7 @@
       <c r="B113" s="5"/>
       <c r="C113" s="5"/>
       <c r="D113" s="23" t="s">
-        <v>688</v>
+        <v>674</v>
       </c>
       <c r="E113" s="5" t="s">
         <v>101</v>
@@ -12089,14 +12097,14 @@
       </c>
       <c r="I113" s="24"/>
       <c r="J113" s="36" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="K113" s="30"/>
       <c r="L113" s="25" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="M113" s="25" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="N113" s="24"/>
       <c r="O113" s="34"/>
@@ -12109,7 +12117,7 @@
       <c r="B114" s="5"/>
       <c r="C114" s="5"/>
       <c r="D114" s="23" t="s">
-        <v>689</v>
+        <v>675</v>
       </c>
       <c r="E114" s="5" t="s">
         <v>98</v>
@@ -12125,12 +12133,12 @@
       </c>
       <c r="I114" s="24"/>
       <c r="J114" s="36" t="s">
-        <v>787</v>
+        <v>772</v>
       </c>
       <c r="K114" s="30"/>
       <c r="L114" s="25"/>
       <c r="M114" s="25" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="N114" s="24"/>
       <c r="O114" s="34"/>
@@ -12143,7 +12151,7 @@
         <v>96</v>
       </c>
       <c r="D115" s="23" t="s">
-        <v>690</v>
+        <v>676</v>
       </c>
       <c r="E115" s="5" t="s">
         <v>95</v>
@@ -12159,12 +12167,12 @@
       </c>
       <c r="I115" s="24"/>
       <c r="J115" s="36" t="s">
-        <v>787</v>
+        <v>772</v>
       </c>
       <c r="K115" s="30"/>
       <c r="L115" s="25"/>
       <c r="M115" s="25" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="N115" s="24"/>
       <c r="O115" s="34"/>
@@ -12175,7 +12183,7 @@
       <c r="B116" s="5"/>
       <c r="C116" s="5"/>
       <c r="D116" s="23" t="s">
-        <v>691</v>
+        <v>677</v>
       </c>
       <c r="E116" s="5" t="s">
         <v>94</v>
@@ -12191,14 +12199,14 @@
       </c>
       <c r="I116" s="24"/>
       <c r="J116" s="36" t="s">
-        <v>787</v>
+        <v>772</v>
       </c>
       <c r="K116" s="30"/>
       <c r="L116" s="25" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="M116" s="25" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="N116" s="24"/>
       <c r="O116" s="34"/>
@@ -12209,7 +12217,7 @@
       <c r="B117" s="5"/>
       <c r="C117" s="5"/>
       <c r="D117" s="23" t="s">
-        <v>692</v>
+        <v>678</v>
       </c>
       <c r="E117" s="5" t="s">
         <v>92</v>
@@ -12225,7 +12233,7 @@
       </c>
       <c r="I117" s="24"/>
       <c r="J117" s="36" t="s">
-        <v>787</v>
+        <v>772</v>
       </c>
       <c r="K117" s="30"/>
       <c r="L117" s="25"/>
@@ -12247,7 +12255,7 @@
         <v>89</v>
       </c>
       <c r="D118" s="23" t="s">
-        <v>693</v>
+        <v>679</v>
       </c>
       <c r="E118" s="5" t="s">
         <v>55</v>
@@ -12263,7 +12271,7 @@
       </c>
       <c r="I118" s="24"/>
       <c r="J118" s="36" t="s">
-        <v>784</v>
+        <v>769</v>
       </c>
       <c r="K118" s="30"/>
       <c r="L118" s="25"/>
@@ -12277,7 +12285,7 @@
       <c r="B119" s="5"/>
       <c r="C119" s="5"/>
       <c r="D119" s="23" t="s">
-        <v>694</v>
+        <v>680</v>
       </c>
       <c r="E119" s="5" t="s">
         <v>88</v>
@@ -12286,7 +12294,7 @@
         <v>85</v>
       </c>
       <c r="G119" s="19" t="s">
-        <v>569</v>
+        <v>557</v>
       </c>
       <c r="H119" s="24" t="s">
         <v>303</v>
@@ -12295,14 +12303,14 @@
         <v>312</v>
       </c>
       <c r="J119" s="36" t="s">
-        <v>793</v>
+        <v>778</v>
       </c>
       <c r="K119" s="30"/>
       <c r="L119" s="25" t="s">
-        <v>771</v>
+        <v>756</v>
       </c>
       <c r="M119" s="25" t="s">
-        <v>785</v>
+        <v>770</v>
       </c>
       <c r="N119" s="24"/>
       <c r="O119" s="34"/>
@@ -12314,8 +12322,8 @@
       <c r="A120" s="6"/>
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
-      <c r="D120" s="23" t="s">
-        <v>695</v>
+      <c r="D120" s="40" t="s">
+        <v>681</v>
       </c>
       <c r="E120" s="5" t="s">
         <v>86</v>
@@ -12324,7 +12332,7 @@
         <v>85</v>
       </c>
       <c r="G120" s="19" t="s">
-        <v>570</v>
+        <v>841</v>
       </c>
       <c r="H120" s="24" t="s">
         <v>303</v>
@@ -12333,17 +12341,17 @@
         <v>312</v>
       </c>
       <c r="J120" s="36" t="s">
-        <v>793</v>
+        <v>778</v>
       </c>
       <c r="K120" s="30"/>
       <c r="L120" s="25" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="M120" s="25" t="s">
-        <v>786</v>
+        <v>771</v>
       </c>
       <c r="N120" s="24" t="s">
-        <v>369</v>
+        <v>849</v>
       </c>
       <c r="O120" s="34"/>
       <c r="P120" s="2" t="s">
@@ -12357,7 +12365,7 @@
         <v>84</v>
       </c>
       <c r="D121" s="23" t="s">
-        <v>696</v>
+        <v>682</v>
       </c>
       <c r="E121" s="5" t="s">
         <v>55</v>
@@ -12373,7 +12381,7 @@
       </c>
       <c r="I121" s="24"/>
       <c r="J121" s="36" t="s">
-        <v>780</v>
+        <v>765</v>
       </c>
       <c r="K121" s="30"/>
       <c r="L121" s="25"/>
@@ -12386,8 +12394,8 @@
       <c r="A122" s="6"/>
       <c r="B122" s="5"/>
       <c r="C122" s="5"/>
-      <c r="D122" s="23" t="s">
-        <v>697</v>
+      <c r="D122" s="40" t="s">
+        <v>683</v>
       </c>
       <c r="E122" s="18" t="s">
         <v>83</v>
@@ -12396,7 +12404,7 @@
         <v>7</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>542</v>
+        <v>840</v>
       </c>
       <c r="H122" s="24" t="s">
         <v>303</v>
@@ -12405,13 +12413,13 @@
         <v>312</v>
       </c>
       <c r="J122" s="36" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="K122" s="30"/>
       <c r="L122" s="25"/>
       <c r="M122" s="25"/>
       <c r="N122" s="24" t="s">
-        <v>341</v>
+        <v>850</v>
       </c>
       <c r="O122" s="34"/>
       <c r="P122" s="2" t="s">
@@ -12423,16 +12431,16 @@
       <c r="B123" s="5"/>
       <c r="C123" s="5"/>
       <c r="D123" s="23" t="s">
-        <v>698</v>
+        <v>684</v>
       </c>
       <c r="E123" s="18" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="F123" s="4" t="s">
         <v>7</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="H123" s="24" t="s">
         <v>303</v>
@@ -12441,7 +12449,7 @@
         <v>307</v>
       </c>
       <c r="J123" s="36" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="K123" s="30"/>
       <c r="L123" s="25"/>
@@ -12459,7 +12467,7 @@
       <c r="B124" s="5"/>
       <c r="C124" s="5"/>
       <c r="D124" s="23" t="s">
-        <v>699</v>
+        <v>685</v>
       </c>
       <c r="E124" s="5" t="s">
         <v>81</v>
@@ -12468,21 +12476,21 @@
         <v>7</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>772</v>
+        <v>757</v>
       </c>
       <c r="H124" s="24" t="s">
         <v>303</v>
       </c>
       <c r="I124" s="24"/>
       <c r="J124" s="36" t="s">
-        <v>787</v>
+        <v>772</v>
       </c>
       <c r="K124" s="30"/>
       <c r="L124" s="25" t="s">
-        <v>773</v>
+        <v>758</v>
       </c>
       <c r="M124" s="25" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="N124" s="24"/>
       <c r="O124" s="34"/>
@@ -12493,7 +12501,7 @@
       <c r="B125" s="5"/>
       <c r="C125" s="5"/>
       <c r="D125" s="23" t="s">
-        <v>700</v>
+        <v>686</v>
       </c>
       <c r="E125" s="5" t="s">
         <v>80</v>
@@ -12509,14 +12517,14 @@
       </c>
       <c r="I125" s="24"/>
       <c r="J125" s="36" t="s">
-        <v>787</v>
+        <v>772</v>
       </c>
       <c r="K125" s="30"/>
       <c r="L125" s="25" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="M125" s="25" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="N125" s="24"/>
       <c r="O125" s="34"/>
@@ -12527,7 +12535,7 @@
       <c r="B126" s="5"/>
       <c r="C126" s="5"/>
       <c r="D126" s="23" t="s">
-        <v>701</v>
+        <v>687</v>
       </c>
       <c r="E126" s="5" t="s">
         <v>79</v>
@@ -12543,14 +12551,14 @@
       </c>
       <c r="I126" s="24"/>
       <c r="J126" s="36" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="K126" s="30"/>
       <c r="L126" s="25" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="M126" s="25" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="N126" s="24"/>
       <c r="O126" s="34"/>
@@ -12561,7 +12569,7 @@
       <c r="B127" s="5"/>
       <c r="C127" s="5"/>
       <c r="D127" s="23" t="s">
-        <v>702</v>
+        <v>688</v>
       </c>
       <c r="E127" s="5" t="s">
         <v>78</v>
@@ -12577,14 +12585,14 @@
       </c>
       <c r="I127" s="24"/>
       <c r="J127" s="36" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="K127" s="30"/>
       <c r="L127" s="25" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="M127" s="25" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="N127" s="24"/>
       <c r="O127" s="34"/>
@@ -12595,7 +12603,7 @@
       <c r="B128" s="5"/>
       <c r="C128" s="5"/>
       <c r="D128" s="23" t="s">
-        <v>703</v>
+        <v>689</v>
       </c>
       <c r="E128" s="5" t="s">
         <v>76</v>
@@ -12604,21 +12612,21 @@
         <v>3</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="H128" s="24" t="s">
         <v>303</v>
       </c>
       <c r="I128" s="24"/>
       <c r="J128" s="36" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="K128" s="30"/>
       <c r="L128" s="25" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="M128" s="25" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="N128" s="24"/>
       <c r="O128" s="34"/>
@@ -12631,7 +12639,7 @@
         <v>75</v>
       </c>
       <c r="D129" s="23" t="s">
-        <v>704</v>
+        <v>690</v>
       </c>
       <c r="E129" s="5" t="s">
         <v>55</v>
@@ -12647,7 +12655,7 @@
       </c>
       <c r="I129" s="24"/>
       <c r="J129" s="36" t="s">
-        <v>780</v>
+        <v>765</v>
       </c>
       <c r="K129" s="30"/>
       <c r="L129" s="25"/>
@@ -12660,8 +12668,8 @@
       <c r="A130" s="6"/>
       <c r="B130" s="5"/>
       <c r="C130" s="5"/>
-      <c r="D130" s="23" t="s">
-        <v>705</v>
+      <c r="D130" s="40" t="s">
+        <v>691</v>
       </c>
       <c r="E130" s="18" t="s">
         <v>73</v>
@@ -12670,7 +12678,7 @@
         <v>7</v>
       </c>
       <c r="G130" s="13" t="s">
-        <v>539</v>
+        <v>839</v>
       </c>
       <c r="H130" s="24" t="s">
         <v>303</v>
@@ -12679,17 +12687,17 @@
         <v>312</v>
       </c>
       <c r="J130" s="36" t="s">
-        <v>767</v>
+        <v>752</v>
       </c>
       <c r="K130" s="30"/>
       <c r="L130" s="25" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="M130" s="25" t="s">
-        <v>790</v>
+        <v>775</v>
       </c>
       <c r="N130" s="24" t="s">
-        <v>348</v>
+        <v>851</v>
       </c>
       <c r="O130" s="34"/>
       <c r="P130" s="2" t="s">
@@ -12701,16 +12709,16 @@
       <c r="B131" s="5"/>
       <c r="C131" s="5"/>
       <c r="D131" s="23" t="s">
-        <v>706</v>
+        <v>692</v>
       </c>
       <c r="E131" s="18" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="F131" s="4" t="s">
         <v>7</v>
       </c>
       <c r="G131" s="13" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="H131" s="24" t="s">
         <v>303</v>
@@ -12719,7 +12727,7 @@
         <v>307</v>
       </c>
       <c r="J131" s="36" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="K131" s="30"/>
       <c r="L131" s="25"/>
@@ -12739,7 +12747,7 @@
       <c r="B132" s="5"/>
       <c r="C132" s="5"/>
       <c r="D132" s="23" t="s">
-        <v>707</v>
+        <v>693</v>
       </c>
       <c r="E132" s="5" t="s">
         <v>72</v>
@@ -12755,14 +12763,14 @@
       </c>
       <c r="I132" s="24"/>
       <c r="J132" s="36" t="s">
-        <v>787</v>
+        <v>772</v>
       </c>
       <c r="K132" s="30"/>
       <c r="L132" s="25" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="M132" s="25" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="N132" s="24"/>
       <c r="O132" s="34"/>
@@ -12773,7 +12781,7 @@
       <c r="B133" s="5"/>
       <c r="C133" s="5"/>
       <c r="D133" s="23" t="s">
-        <v>708</v>
+        <v>694</v>
       </c>
       <c r="E133" s="5" t="s">
         <v>71</v>
@@ -12789,12 +12797,12 @@
       </c>
       <c r="I133" s="24"/>
       <c r="J133" s="36" t="s">
-        <v>787</v>
+        <v>772</v>
       </c>
       <c r="K133" s="30"/>
       <c r="L133" s="25"/>
       <c r="M133" s="25" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="N133" s="24"/>
       <c r="O133" s="34"/>
@@ -12805,7 +12813,7 @@
       <c r="B134" s="5"/>
       <c r="C134" s="5"/>
       <c r="D134" s="23" t="s">
-        <v>709</v>
+        <v>695</v>
       </c>
       <c r="E134" s="5" t="s">
         <v>70</v>
@@ -12821,12 +12829,12 @@
       </c>
       <c r="I134" s="24"/>
       <c r="J134" s="36" t="s">
-        <v>787</v>
+        <v>772</v>
       </c>
       <c r="K134" s="30"/>
       <c r="L134" s="25"/>
       <c r="M134" s="25" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="N134" s="24"/>
       <c r="O134" s="34"/>
@@ -12837,23 +12845,23 @@
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
       <c r="D135" s="23" t="s">
-        <v>710</v>
+        <v>696</v>
       </c>
       <c r="E135" s="18" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="F135" s="4" t="s">
         <v>7</v>
       </c>
       <c r="G135" s="3" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="H135" s="24" t="s">
         <v>303</v>
       </c>
       <c r="I135" s="24"/>
       <c r="J135" s="36" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="K135" s="30"/>
       <c r="L135" s="25"/>
@@ -12867,16 +12875,16 @@
       <c r="B136" s="5"/>
       <c r="C136" s="5"/>
       <c r="D136" s="23" t="s">
-        <v>711</v>
+        <v>697</v>
       </c>
       <c r="E136" s="18" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="F136" s="4" t="s">
         <v>7</v>
       </c>
       <c r="G136" s="3" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="H136" s="24" t="s">
         <v>303</v>
@@ -12885,7 +12893,7 @@
         <v>307</v>
       </c>
       <c r="J136" s="36" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="K136" s="30"/>
       <c r="L136" s="25"/>
@@ -12905,7 +12913,7 @@
         <v>67</v>
       </c>
       <c r="D137" s="23" t="s">
-        <v>712</v>
+        <v>698</v>
       </c>
       <c r="E137" s="5" t="s">
         <v>66</v>
@@ -12921,7 +12929,7 @@
       </c>
       <c r="I137" s="24"/>
       <c r="J137" s="36" t="s">
-        <v>575</v>
+        <v>561</v>
       </c>
       <c r="K137" s="30"/>
       <c r="L137" s="25"/>
@@ -12937,7 +12945,7 @@
         <v>64</v>
       </c>
       <c r="D138" s="23" t="s">
-        <v>713</v>
+        <v>699</v>
       </c>
       <c r="E138" s="5" t="s">
         <v>63</v>
@@ -12953,14 +12961,14 @@
       </c>
       <c r="I138" s="24"/>
       <c r="J138" s="36" t="s">
-        <v>787</v>
+        <v>772</v>
       </c>
       <c r="K138" s="30"/>
       <c r="L138" s="25" t="s">
         <v>327</v>
       </c>
       <c r="M138" s="27" t="s">
-        <v>774</v>
+        <v>759</v>
       </c>
       <c r="N138" s="24"/>
       <c r="O138" s="34"/>
@@ -12973,7 +12981,7 @@
       <c r="B139" s="5"/>
       <c r="C139" s="5"/>
       <c r="D139" s="23" t="s">
-        <v>714</v>
+        <v>700</v>
       </c>
       <c r="E139" s="5" t="s">
         <v>60</v>
@@ -12989,11 +12997,11 @@
       </c>
       <c r="I139" s="24"/>
       <c r="J139" s="36" t="s">
-        <v>787</v>
+        <v>772</v>
       </c>
       <c r="K139" s="32"/>
       <c r="L139" s="27" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="M139" s="27" t="s">
         <v>316</v>
@@ -13007,7 +13015,7 @@
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
       <c r="D140" s="23" t="s">
-        <v>715</v>
+        <v>701</v>
       </c>
       <c r="E140" s="5" t="s">
         <v>59</v>
@@ -13023,17 +13031,17 @@
       </c>
       <c r="I140" s="24"/>
       <c r="J140" s="36" t="s">
-        <v>849</v>
+        <v>833</v>
       </c>
       <c r="K140" s="30"/>
       <c r="L140" s="25" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="M140" s="27" t="s">
         <v>314</v>
       </c>
       <c r="N140" s="24" t="s">
-        <v>851</v>
+        <v>834</v>
       </c>
       <c r="O140" s="34"/>
       <c r="P140" s="2"/>
@@ -13043,7 +13051,7 @@
       <c r="B141" s="5"/>
       <c r="C141" s="5"/>
       <c r="D141" s="23" t="s">
-        <v>716</v>
+        <v>702</v>
       </c>
       <c r="E141" s="5" t="s">
         <v>58</v>
@@ -13059,11 +13067,11 @@
       </c>
       <c r="I141" s="24"/>
       <c r="J141" s="36" t="s">
-        <v>787</v>
+        <v>772</v>
       </c>
       <c r="K141" s="30"/>
       <c r="L141" s="25" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="M141" s="27" t="s">
         <v>314</v>
@@ -13079,7 +13087,7 @@
         <v>56</v>
       </c>
       <c r="D142" s="23" t="s">
-        <v>717</v>
+        <v>703</v>
       </c>
       <c r="E142" s="5" t="s">
         <v>55</v>
@@ -13088,14 +13096,14 @@
         <v>7</v>
       </c>
       <c r="G142" s="4" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="H142" s="24" t="s">
         <v>303</v>
       </c>
       <c r="I142" s="24"/>
       <c r="J142" s="36" t="s">
-        <v>787</v>
+        <v>772</v>
       </c>
       <c r="K142" s="33"/>
       <c r="L142" s="28"/>
@@ -13111,7 +13119,7 @@
       <c r="B143" s="5"/>
       <c r="C143" s="5"/>
       <c r="D143" s="40" t="s">
-        <v>718</v>
+        <v>704</v>
       </c>
       <c r="E143" s="5" t="s">
         <v>54</v>
@@ -13120,7 +13128,7 @@
         <v>7</v>
       </c>
       <c r="G143" s="15" t="s">
-        <v>848</v>
+        <v>836</v>
       </c>
       <c r="H143" s="24" t="s">
         <v>303</v>
@@ -13129,17 +13137,17 @@
         <v>312</v>
       </c>
       <c r="J143" s="36" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="K143" s="33"/>
       <c r="L143" s="28" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="M143" s="24" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="N143" s="24" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="O143" s="34"/>
       <c r="P143" s="2" t="s">
@@ -13151,16 +13159,16 @@
       <c r="B144" s="5"/>
       <c r="C144" s="5"/>
       <c r="D144" s="23" t="s">
-        <v>719</v>
+        <v>705</v>
       </c>
       <c r="E144" s="5" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="F144" s="4" t="s">
         <v>7</v>
       </c>
       <c r="G144" s="15" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="H144" s="24" t="s">
         <v>303</v>
@@ -13169,17 +13177,17 @@
         <v>307</v>
       </c>
       <c r="J144" s="36" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="K144" s="33"/>
       <c r="L144" s="28" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="M144" s="24" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="N144" s="24" t="s">
-        <v>349</v>
+        <v>853</v>
       </c>
       <c r="O144" s="34"/>
       <c r="P144" s="2" t="s">
@@ -13191,7 +13199,7 @@
       <c r="B145" s="5"/>
       <c r="C145" s="5"/>
       <c r="D145" s="23" t="s">
-        <v>720</v>
+        <v>706</v>
       </c>
       <c r="E145" s="5" t="s">
         <v>53</v>
@@ -13207,14 +13215,14 @@
       </c>
       <c r="I145" s="24"/>
       <c r="J145" s="36" t="s">
-        <v>787</v>
+        <v>772</v>
       </c>
       <c r="K145" s="34"/>
       <c r="L145" s="24" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="M145" s="24" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="N145" s="24"/>
       <c r="O145" s="34"/>
@@ -13225,7 +13233,7 @@
       <c r="B146" s="5"/>
       <c r="C146" s="5"/>
       <c r="D146" s="23" t="s">
-        <v>721</v>
+        <v>707</v>
       </c>
       <c r="E146" s="5" t="s">
         <v>52</v>
@@ -13241,11 +13249,11 @@
       </c>
       <c r="I146" s="24"/>
       <c r="J146" s="36" t="s">
-        <v>787</v>
+        <v>772</v>
       </c>
       <c r="K146" s="30"/>
       <c r="L146" s="25" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="M146" s="25" t="s">
         <v>329</v>
@@ -13259,7 +13267,7 @@
       <c r="B147" s="5"/>
       <c r="C147" s="5"/>
       <c r="D147" s="23" t="s">
-        <v>722</v>
+        <v>708</v>
       </c>
       <c r="E147" s="5" t="s">
         <v>51</v>
@@ -13275,14 +13283,14 @@
       </c>
       <c r="I147" s="24"/>
       <c r="J147" s="36" t="s">
-        <v>787</v>
+        <v>772</v>
       </c>
       <c r="K147" s="30"/>
       <c r="L147" s="25" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="M147" s="25" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="N147" s="24"/>
       <c r="O147" s="34"/>
@@ -13293,7 +13301,7 @@
       <c r="B148" s="5"/>
       <c r="C148" s="5"/>
       <c r="D148" s="23" t="s">
-        <v>723</v>
+        <v>709</v>
       </c>
       <c r="E148" s="5" t="s">
         <v>49</v>
@@ -13302,22 +13310,22 @@
         <v>3</v>
       </c>
       <c r="G148" s="3" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="H148" s="24" t="s">
         <v>303</v>
       </c>
       <c r="I148" s="24"/>
       <c r="J148" s="36" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="K148" s="30"/>
       <c r="L148" s="25"/>
       <c r="M148" s="25" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="N148" s="24" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="O148" s="34"/>
       <c r="P148" s="2" t="s">
@@ -13330,8 +13338,8 @@
       <c r="C149" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D149" s="23" t="s">
-        <v>724</v>
+      <c r="D149" s="40" t="s">
+        <v>710</v>
       </c>
       <c r="E149" s="5" t="s">
         <v>46</v>
@@ -13340,7 +13348,7 @@
         <v>7</v>
       </c>
       <c r="G149" s="9" t="s">
-        <v>529</v>
+        <v>837</v>
       </c>
       <c r="H149" s="24" t="s">
         <v>303</v>
@@ -13349,17 +13357,17 @@
         <v>312</v>
       </c>
       <c r="J149" s="36" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="K149" s="33"/>
       <c r="L149" s="28" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="M149" s="27" t="s">
         <v>317</v>
       </c>
       <c r="N149" s="24" t="s">
-        <v>350</v>
+        <v>854</v>
       </c>
       <c r="O149" s="34"/>
       <c r="P149" s="2" t="s">
@@ -13371,16 +13379,16 @@
       <c r="B150" s="5"/>
       <c r="C150" s="5"/>
       <c r="D150" s="23" t="s">
-        <v>725</v>
+        <v>711</v>
       </c>
       <c r="E150" s="5" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="F150" s="4" t="s">
         <v>7</v>
       </c>
       <c r="G150" s="9" t="s">
-        <v>571</v>
+        <v>558</v>
       </c>
       <c r="H150" s="24" t="s">
         <v>303</v>
@@ -13389,11 +13397,11 @@
         <v>307</v>
       </c>
       <c r="J150" s="36" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="K150" s="33"/>
       <c r="L150" s="28" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="M150" s="27" t="s">
         <v>317</v>
@@ -13411,7 +13419,7 @@
       <c r="B151" s="5"/>
       <c r="C151" s="5"/>
       <c r="D151" s="23" t="s">
-        <v>726</v>
+        <v>712</v>
       </c>
       <c r="E151" s="5" t="s">
         <v>45</v>
@@ -13420,18 +13428,18 @@
         <v>3</v>
       </c>
       <c r="G151" s="8" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="H151" s="24" t="s">
         <v>303</v>
       </c>
       <c r="I151" s="24"/>
       <c r="J151" s="36" t="s">
-        <v>787</v>
+        <v>772</v>
       </c>
       <c r="K151" s="34"/>
       <c r="L151" s="24" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="M151" s="24" t="s">
         <v>328</v>
@@ -13445,7 +13453,7 @@
       <c r="B152" s="5"/>
       <c r="C152" s="5"/>
       <c r="D152" s="23" t="s">
-        <v>727</v>
+        <v>713</v>
       </c>
       <c r="E152" s="5" t="s">
         <v>44</v>
@@ -13461,7 +13469,7 @@
       </c>
       <c r="I152" s="24"/>
       <c r="J152" s="36" t="s">
-        <v>787</v>
+        <v>772</v>
       </c>
       <c r="K152" s="30"/>
       <c r="L152" s="25" t="s">
@@ -13479,7 +13487,7 @@
       <c r="B153" s="5"/>
       <c r="C153" s="5"/>
       <c r="D153" s="23" t="s">
-        <v>728</v>
+        <v>714</v>
       </c>
       <c r="E153" s="5" t="s">
         <v>42</v>
@@ -13495,7 +13503,7 @@
       </c>
       <c r="I153" s="24"/>
       <c r="J153" s="36" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="K153" s="30"/>
       <c r="L153" s="25" t="s">
@@ -13515,7 +13523,7 @@
       <c r="B154" s="5"/>
       <c r="C154" s="5"/>
       <c r="D154" s="23" t="s">
-        <v>729</v>
+        <v>715</v>
       </c>
       <c r="E154" s="5" t="s">
         <v>40</v>
@@ -13531,11 +13539,11 @@
       </c>
       <c r="I154" s="24"/>
       <c r="J154" s="36" t="s">
-        <v>787</v>
+        <v>772</v>
       </c>
       <c r="K154" s="30"/>
       <c r="L154" s="25" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="M154" s="27" t="s">
         <v>314</v>
@@ -13551,7 +13559,7 @@
       <c r="B155" s="5"/>
       <c r="C155" s="5"/>
       <c r="D155" s="23" t="s">
-        <v>730</v>
+        <v>716</v>
       </c>
       <c r="E155" s="5" t="s">
         <v>37</v>
@@ -13560,14 +13568,14 @@
         <v>5</v>
       </c>
       <c r="G155" s="14" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="H155" s="24" t="s">
         <v>303</v>
       </c>
       <c r="I155" s="24"/>
       <c r="J155" s="36" t="s">
-        <v>787</v>
+        <v>772</v>
       </c>
       <c r="K155" s="31"/>
       <c r="L155" s="26" t="s">
@@ -13585,7 +13593,7 @@
       <c r="B156" s="5"/>
       <c r="C156" s="5"/>
       <c r="D156" s="23" t="s">
-        <v>731</v>
+        <v>717</v>
       </c>
       <c r="E156" s="5" t="s">
         <v>36</v>
@@ -13601,11 +13609,11 @@
       </c>
       <c r="I156" s="24"/>
       <c r="J156" s="36" t="s">
-        <v>787</v>
+        <v>772</v>
       </c>
       <c r="K156" s="30"/>
       <c r="L156" s="25" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="M156" s="25" t="s">
         <v>314</v>
@@ -13619,7 +13627,7 @@
       <c r="B157" s="5"/>
       <c r="C157" s="5"/>
       <c r="D157" s="23" t="s">
-        <v>732</v>
+        <v>718</v>
       </c>
       <c r="E157" s="5" t="s">
         <v>35</v>
@@ -13635,7 +13643,7 @@
       </c>
       <c r="I157" s="24"/>
       <c r="J157" s="36" t="s">
-        <v>787</v>
+        <v>772</v>
       </c>
       <c r="K157" s="30"/>
       <c r="L157" s="25"/>
@@ -13651,7 +13659,7 @@
       <c r="B158" s="5"/>
       <c r="C158" s="5"/>
       <c r="D158" s="23" t="s">
-        <v>733</v>
+        <v>719</v>
       </c>
       <c r="E158" s="5" t="s">
         <v>33</v>
@@ -13667,11 +13675,11 @@
       </c>
       <c r="I158" s="24"/>
       <c r="J158" s="36" t="s">
-        <v>787</v>
+        <v>772</v>
       </c>
       <c r="K158" s="30"/>
       <c r="L158" s="25" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="M158" s="25" t="s">
         <v>325</v>
@@ -13685,7 +13693,7 @@
       <c r="B159" s="5"/>
       <c r="C159" s="5"/>
       <c r="D159" s="23" t="s">
-        <v>734</v>
+        <v>720</v>
       </c>
       <c r="E159" s="5" t="s">
         <v>32</v>
@@ -13701,14 +13709,14 @@
       </c>
       <c r="I159" s="24"/>
       <c r="J159" s="36" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="K159" s="30"/>
       <c r="L159" s="25" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="M159" s="25" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="N159" s="24"/>
       <c r="O159" s="34"/>
@@ -13719,7 +13727,7 @@
       <c r="B160" s="5"/>
       <c r="C160" s="5"/>
       <c r="D160" s="23" t="s">
-        <v>735</v>
+        <v>721</v>
       </c>
       <c r="E160" s="5" t="s">
         <v>31</v>
@@ -13735,14 +13743,14 @@
       </c>
       <c r="I160" s="24"/>
       <c r="J160" s="36" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="K160" s="30"/>
       <c r="L160" s="25" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="M160" s="25" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="N160" s="24"/>
       <c r="O160" s="34"/>
@@ -13755,7 +13763,7 @@
         <v>29</v>
       </c>
       <c r="D161" s="23" t="s">
-        <v>736</v>
+        <v>722</v>
       </c>
       <c r="E161" s="5" t="s">
         <v>28</v>
@@ -13771,14 +13779,14 @@
       </c>
       <c r="I161" s="24"/>
       <c r="J161" s="36" t="s">
-        <v>787</v>
+        <v>772</v>
       </c>
       <c r="K161" s="30"/>
       <c r="L161" s="25" t="s">
         <v>334</v>
       </c>
       <c r="M161" s="27" t="s">
-        <v>775</v>
+        <v>760</v>
       </c>
       <c r="N161" s="24"/>
       <c r="O161" s="34"/>
@@ -13791,7 +13799,7 @@
       <c r="B162" s="5"/>
       <c r="C162" s="5"/>
       <c r="D162" s="23" t="s">
-        <v>737</v>
+        <v>723</v>
       </c>
       <c r="E162" s="5" t="s">
         <v>25</v>
@@ -13807,7 +13815,7 @@
       </c>
       <c r="I162" s="24"/>
       <c r="J162" s="36" t="s">
-        <v>787</v>
+        <v>772</v>
       </c>
       <c r="K162" s="32"/>
       <c r="L162" s="27" t="s">
@@ -13825,7 +13833,7 @@
       <c r="B163" s="5"/>
       <c r="C163" s="5"/>
       <c r="D163" s="23" t="s">
-        <v>738</v>
+        <v>724</v>
       </c>
       <c r="E163" s="5" t="s">
         <v>24</v>
@@ -13841,7 +13849,7 @@
       </c>
       <c r="I163" s="24"/>
       <c r="J163" s="36" t="s">
-        <v>787</v>
+        <v>772</v>
       </c>
       <c r="K163" s="32"/>
       <c r="L163" s="27" t="s">
@@ -13859,7 +13867,7 @@
       <c r="B164" s="5"/>
       <c r="C164" s="5"/>
       <c r="D164" s="23" t="s">
-        <v>739</v>
+        <v>725</v>
       </c>
       <c r="E164" s="5" t="s">
         <v>23</v>
@@ -13875,7 +13883,7 @@
       </c>
       <c r="I164" s="24"/>
       <c r="J164" s="36" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="K164" s="32"/>
       <c r="L164" s="27" t="s">
@@ -13895,7 +13903,7 @@
         <v>21</v>
       </c>
       <c r="D165" s="23" t="s">
-        <v>740</v>
+        <v>726</v>
       </c>
       <c r="E165" s="5" t="s">
         <v>20</v>
@@ -13911,17 +13919,17 @@
       </c>
       <c r="I165" s="24"/>
       <c r="J165" s="36" t="s">
-        <v>777</v>
+        <v>762</v>
       </c>
       <c r="K165" s="30"/>
       <c r="L165" s="28" t="s">
-        <v>776</v>
+        <v>761</v>
       </c>
       <c r="M165" s="27" t="s">
         <v>319</v>
       </c>
       <c r="N165" s="24" t="s">
-        <v>778</v>
+        <v>763</v>
       </c>
       <c r="O165" s="34"/>
       <c r="P165" s="2"/>
@@ -13931,7 +13939,7 @@
       <c r="B166" s="5"/>
       <c r="C166" s="5"/>
       <c r="D166" s="23" t="s">
-        <v>741</v>
+        <v>727</v>
       </c>
       <c r="E166" s="5" t="s">
         <v>18</v>
@@ -13940,21 +13948,21 @@
         <v>5</v>
       </c>
       <c r="G166" s="14" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="H166" s="24" t="s">
         <v>303</v>
       </c>
       <c r="I166" s="24"/>
       <c r="J166" s="36" t="s">
-        <v>787</v>
+        <v>772</v>
       </c>
       <c r="K166" s="34"/>
       <c r="L166" s="24" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="M166" s="24" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="N166" s="24"/>
       <c r="O166" s="34"/>
@@ -13965,7 +13973,7 @@
       <c r="B167" s="5"/>
       <c r="C167" s="5"/>
       <c r="D167" s="23" t="s">
-        <v>742</v>
+        <v>728</v>
       </c>
       <c r="E167" s="5" t="s">
         <v>17</v>
@@ -13981,14 +13989,14 @@
       </c>
       <c r="I167" s="24"/>
       <c r="J167" s="36" t="s">
-        <v>787</v>
+        <v>772</v>
       </c>
       <c r="K167" s="31"/>
       <c r="L167" s="26" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="M167" s="27" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="N167" s="24"/>
       <c r="O167" s="34"/>
@@ -13999,7 +14007,7 @@
       <c r="B168" s="5"/>
       <c r="C168" s="5"/>
       <c r="D168" s="23" t="s">
-        <v>743</v>
+        <v>729</v>
       </c>
       <c r="E168" s="5" t="s">
         <v>16</v>
@@ -14015,14 +14023,14 @@
       </c>
       <c r="I168" s="24"/>
       <c r="J168" s="36" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="K168" s="31"/>
       <c r="L168" s="26" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="M168" s="27" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="N168" s="24"/>
       <c r="O168" s="34"/>
@@ -14033,7 +14041,7 @@
       <c r="B169" s="5"/>
       <c r="C169" s="5"/>
       <c r="D169" s="23" t="s">
-        <v>744</v>
+        <v>730</v>
       </c>
       <c r="E169" s="5" t="s">
         <v>14</v>
@@ -14042,7 +14050,7 @@
         <v>7</v>
       </c>
       <c r="G169" s="21" t="s">
-        <v>572</v>
+        <v>838</v>
       </c>
       <c r="H169" s="24" t="s">
         <v>303</v>
@@ -14051,14 +14059,14 @@
         <v>312</v>
       </c>
       <c r="J169" s="36" t="s">
-        <v>792</v>
+        <v>777</v>
       </c>
       <c r="K169" s="30"/>
       <c r="L169" s="25" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="M169" s="27" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="N169" s="24" t="s">
         <v>341</v>
@@ -14073,10 +14081,10 @@
       <c r="B170" s="5"/>
       <c r="C170" s="5"/>
       <c r="D170" s="23" t="s">
-        <v>795</v>
+        <v>780</v>
       </c>
       <c r="E170" s="5" t="s">
-        <v>796</v>
+        <v>781</v>
       </c>
       <c r="F170" s="4"/>
       <c r="G170" s="21"/>
@@ -14085,7 +14093,7 @@
       </c>
       <c r="I170" s="24"/>
       <c r="J170" s="36" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="K170" s="30"/>
       <c r="L170" s="25"/>
@@ -14109,7 +14117,7 @@
       <c r="H171" s="24"/>
       <c r="I171" s="24"/>
       <c r="J171" s="36" t="s">
-        <v>789</v>
+        <v>774</v>
       </c>
       <c r="K171" s="30"/>
       <c r="L171" s="25"/>
@@ -14129,7 +14137,7 @@
         <v>9</v>
       </c>
       <c r="D172" s="23" t="s">
-        <v>745</v>
+        <v>731</v>
       </c>
       <c r="E172" s="16" t="s">
         <v>8</v>
@@ -14138,7 +14146,7 @@
         <v>7</v>
       </c>
       <c r="G172" s="22" t="s">
-        <v>573</v>
+        <v>559</v>
       </c>
       <c r="H172" s="24" t="s">
         <v>305</v>
@@ -14147,7 +14155,7 @@
         <v>307</v>
       </c>
       <c r="J172" s="36" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="K172" s="33"/>
       <c r="L172" s="28"/>
@@ -14160,7 +14168,7 @@
     </row>
     <row r="173" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D173" s="23" t="s">
-        <v>746</v>
+        <v>732</v>
       </c>
       <c r="E173" s="16" t="s">
         <v>6</v>
@@ -14169,7 +14177,7 @@
         <v>5</v>
       </c>
       <c r="G173" s="4" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="H173" s="24" t="s">
         <v>305</v>
@@ -14178,7 +14186,7 @@
         <v>307</v>
       </c>
       <c r="J173" s="36" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="K173" s="35"/>
       <c r="L173" s="29"/>
@@ -14189,7 +14197,7 @@
     </row>
     <row r="174" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D174" s="23" t="s">
-        <v>747</v>
+        <v>733</v>
       </c>
       <c r="E174" s="16" t="s">
         <v>4</v>
@@ -14207,7 +14215,7 @@
         <v>307</v>
       </c>
       <c r="J174" s="36" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="K174" s="32"/>
       <c r="L174" s="27"/>
@@ -14218,7 +14226,7 @@
     </row>
     <row r="175" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D175" s="23" t="s">
-        <v>748</v>
+        <v>734</v>
       </c>
       <c r="E175" s="16" t="s">
         <v>2</v>
@@ -14236,7 +14244,7 @@
         <v>307</v>
       </c>
       <c r="J175" s="36" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="K175" s="32"/>
       <c r="L175" s="27"/>

--- a/trunk/biz/MC-MSC-Web/qxy接口定义文档2016-8-8/【千校云】bug列表.xlsx
+++ b/trunk/biz/MC-MSC-Web/qxy接口定义文档2016-8-8/【千校云】bug列表.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\svn\trunk\biz\MC-MSC-Web\qxy接口定义文档2016-8-8\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mkq\svn\trunk\biz\MC-MSC-Web\qxy接口定义文档2016-8-8\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2742,10 +2742,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/qxy/news?columnId=[colId]&amp;time=[startTime|endTime]&amp;type=[type]&amp;tid=[tid]&amp;page=[page]&amp;size=[size]&amp;token=[token]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/qxy/schedule/status?termId=[term_id]&amp;tid=[tid]&amp;token=[token]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2771,10 +2767,6 @@
   </si>
   <si>
     <t>/qxy/class/student/info?studentId=[studentId]&amp;token=[token]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/qxy/syllabus?cid=[cid]&amp;date=[startDay|endDay]&amp;token=[token]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3842,14 +3834,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/qxy/securitylog?termId=[termId]&amp;studentId=[studentId]&amp;deviceId=[deviceId]&amp;time=[startTime|endTime]&amp;page=[page]&amp;size=[size]&amp;token=[token]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/qxy/calendar?termId=[term_id]&amp;time=[startTime|endTime]&amp;token=[token]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/qxy/stundent/list?termId=[termId]&amp;cid=[cid]&amp;page=[page]&amp;size=[size]&amp;token=[token]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3895,6 +3879,22 @@
   </si>
   <si>
     <t>添加termId参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/qxy/news?columnId=[colId]&amp;startTime=[startTime]&amp;endTime=[endTime]&amp;type=[type]&amp;tid=[tid]&amp;page=[page]&amp;size=[size]&amp;token=[token]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/qxy/syllabus?cid=[cid]&amp;startTime=[startTime]&amp;endTime=[endTime]&amp;&amp;token=[token]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/qxy/calendar?termId=[termId]&amp;startTime=[startTime]&amp;endTime=[endTime]&amp;token=[token]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/qxy/securitylog?termId=[termId]&amp;studentId=[studentId]&amp;deviceId=[deviceId]&amp;startTime=[startTime]&amp;endTime=[endTime]&amp;page=[page]&amp;size=[size]&amp;token=[token]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3990,7 +3990,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4036,6 +4036,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4118,7 +4124,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4241,6 +4247,9 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4472,11 +4481,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-271599664"/>
-        <c:axId val="-271597488"/>
+        <c:axId val="-1385741072"/>
+        <c:axId val="-1385731280"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-271599664"/>
+        <c:axId val="-1385741072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4518,7 +4527,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-271597488"/>
+        <c:crossAx val="-1385731280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4526,7 +4535,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-271597488"/>
+        <c:axId val="-1385731280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4576,7 +4585,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-271599664"/>
+        <c:crossAx val="-1385741072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8114,452 +8123,452 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="37" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="38" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" s="39" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" s="39" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" s="39" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" s="39" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" s="39" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" s="39" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9" s="39" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" s="39" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A11" s="39" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A12" s="39" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A13" s="39" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A14" s="38" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A15" s="39" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A16" s="39" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="39" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="39" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" s="39" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="39" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" s="38" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" s="39" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" s="39" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" s="39" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25" s="39" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A26" s="39" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A27" s="39" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A28" s="39" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A29" s="39" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A30" s="39" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A31" s="39" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A32" s="39" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A33" s="39" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A34" s="39" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A35" s="39" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A36" s="39" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A37" s="39" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A38" s="39" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A39" s="39" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A40" s="39" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A41" s="39" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A42" s="39" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A43" s="39" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A44" s="39" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A45" s="39" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A46" s="39" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A47" s="39" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A48" s="39" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A49" s="39" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A50" s="39" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A51" s="39" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A52" s="39" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A53" s="39" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A54" s="39" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A55" s="39" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A56" s="39" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A57" s="39" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A58" s="39" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A59" s="39" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A60" s="39" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A61" s="39" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A62" s="39" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A63" s="39" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A64" s="39" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A65" s="39" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A66" s="39" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A67" s="39" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A68" s="39" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A69" s="39" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A70" s="39" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A71" s="39" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A72" s="39" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A73" s="39" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A74" s="39" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A75" s="39" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A76" s="39" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A77" s="39" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A78" s="39" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A79" s="39" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A80" s="39" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A81" s="39" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A82" s="39" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A83" s="39" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A84" s="39" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A85" s="39" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A86" s="39" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A87" s="39" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A88" s="39" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A89" s="39" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A90" s="38" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
     </row>
   </sheetData>
@@ -8574,10 +8583,10 @@
   <dimension ref="A1:AL175"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H158" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N150" sqref="N150"/>
+      <selection pane="bottomRight" activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -8612,7 +8621,7 @@
         <v>298</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>297</v>
@@ -8630,10 +8639,10 @@
         <v>352</v>
       </c>
       <c r="J1" s="36" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="K1" s="30" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="L1" s="25" t="s">
         <v>320</v>
@@ -8662,7 +8671,7 @@
         <v>292</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>291</v>
@@ -8677,7 +8686,7 @@
         <v>305</v>
       </c>
       <c r="J2" s="36" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>289</v>
@@ -8685,7 +8694,7 @@
     </row>
     <row r="3" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D3" s="23" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>288</v>
@@ -8714,7 +8723,7 @@
     </row>
     <row r="4" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D4" s="23" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>286</v>
@@ -8729,12 +8738,12 @@
         <v>305</v>
       </c>
       <c r="J4" s="36" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
     </row>
     <row r="5" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D5" s="23" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>284</v>
@@ -8772,7 +8781,7 @@
         <v>282</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>281</v>
@@ -8807,7 +8816,7 @@
     </row>
     <row r="7" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D7" s="23" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>280</v>
@@ -8836,7 +8845,7 @@
     </row>
     <row r="8" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D8" s="23" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>279</v>
@@ -8862,7 +8871,7 @@
     </row>
     <row r="9" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D9" s="23" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>278</v>
@@ -8888,7 +8897,7 @@
     </row>
     <row r="10" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D10" s="23" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>255</v>
@@ -8903,7 +8912,7 @@
         <v>305</v>
       </c>
       <c r="J10" s="36" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="P10" s="2" t="s">
         <v>277</v>
@@ -8911,7 +8920,7 @@
     </row>
     <row r="11" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D11" s="23" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>276</v>
@@ -8940,7 +8949,7 @@
     </row>
     <row r="12" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D12" s="23" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>275</v>
@@ -8977,8 +8986,8 @@
       <c r="C13" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="D13" s="23" t="s">
-        <v>575</v>
+      <c r="D13" s="41" t="s">
+        <v>573</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>272</v>
@@ -8987,7 +8996,7 @@
         <v>178</v>
       </c>
       <c r="G13" s="19" t="s">
-        <v>547</v>
+        <v>851</v>
       </c>
       <c r="H13" s="24" t="s">
         <v>305</v>
@@ -9010,7 +9019,7 @@
     </row>
     <row r="14" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D14" s="23" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>495</v>
@@ -9039,7 +9048,7 @@
     </row>
     <row r="15" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D15" s="23" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>270</v>
@@ -9054,7 +9063,7 @@
         <v>303</v>
       </c>
       <c r="J15" s="36" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="M15" s="25" t="s">
         <v>398</v>
@@ -9062,7 +9071,7 @@
     </row>
     <row r="16" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D16" s="23" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>269</v>
@@ -9091,7 +9100,7 @@
     </row>
     <row r="17" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D17" s="23" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>268</v>
@@ -9106,7 +9115,7 @@
         <v>303</v>
       </c>
       <c r="J17" s="36" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="M17" s="25" t="s">
         <v>325</v>
@@ -9114,7 +9123,7 @@
     </row>
     <row r="18" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D18" s="23" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>266</v>
@@ -9129,7 +9138,7 @@
         <v>305</v>
       </c>
       <c r="J18" s="36" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.15">
@@ -9137,7 +9146,7 @@
         <v>264</v>
       </c>
       <c r="D19" s="23" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>263</v>
@@ -9152,7 +9161,7 @@
         <v>303</v>
       </c>
       <c r="J19" s="36" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="L19" s="25" t="s">
         <v>491</v>
@@ -9163,7 +9172,7 @@
     </row>
     <row r="20" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D20" s="23" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>261</v>
@@ -9178,7 +9187,7 @@
         <v>303</v>
       </c>
       <c r="J20" s="36" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="L20" s="25" t="s">
         <v>353</v>
@@ -9192,7 +9201,7 @@
     </row>
     <row r="21" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D21" s="23" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>260</v>
@@ -9207,7 +9216,7 @@
         <v>303</v>
       </c>
       <c r="J21" s="36" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="L21" s="25" t="s">
         <v>354</v>
@@ -9218,7 +9227,7 @@
     </row>
     <row r="22" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D22" s="23" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>259</v>
@@ -9239,10 +9248,10 @@
         <v>355</v>
       </c>
       <c r="M22" s="25" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="N22" s="24" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -9256,7 +9265,7 @@
         <v>256</v>
       </c>
       <c r="D23" s="23" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>255</v>
@@ -9265,13 +9274,13 @@
         <v>178</v>
       </c>
       <c r="G23" s="19" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="I23" s="24" t="s">
         <v>312</v>
       </c>
       <c r="J23" s="36" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="L23" s="25" t="s">
         <v>473</v>
@@ -9285,7 +9294,7 @@
     </row>
     <row r="24" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D24" s="23" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>254</v>
@@ -9294,13 +9303,13 @@
         <v>178</v>
       </c>
       <c r="G24" s="19" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="I24" s="24" t="s">
         <v>312</v>
       </c>
       <c r="J24" s="36" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="L24" s="25" t="s">
         <v>469</v>
@@ -9314,7 +9323,7 @@
     </row>
     <row r="25" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D25" s="23" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>253</v>
@@ -9323,7 +9332,7 @@
         <v>178</v>
       </c>
       <c r="G25" s="19" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H25" s="24" t="s">
         <v>303</v>
@@ -9346,7 +9355,7 @@
     </row>
     <row r="26" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D26" s="23" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>252</v>
@@ -9355,13 +9364,13 @@
         <v>7</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="H26" s="24" t="s">
         <v>303</v>
       </c>
       <c r="J26" s="36" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="L26" s="25" t="s">
         <v>465</v>
@@ -9375,7 +9384,7 @@
     </row>
     <row r="27" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D27" s="23" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>250</v>
@@ -9390,7 +9399,7 @@
         <v>303</v>
       </c>
       <c r="J27" s="36" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="L27" s="25" t="s">
         <v>516</v>
@@ -9404,7 +9413,7 @@
     </row>
     <row r="28" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D28" s="23" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>249</v>
@@ -9433,7 +9442,7 @@
     </row>
     <row r="29" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D29" s="23" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>248</v>
@@ -9456,7 +9465,7 @@
     </row>
     <row r="30" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D30" s="23" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>247</v>
@@ -9479,7 +9488,7 @@
     </row>
     <row r="31" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D31" s="23" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>245</v>
@@ -9494,7 +9503,7 @@
         <v>303</v>
       </c>
       <c r="J31" s="36" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="M31" s="25" t="s">
         <v>471</v>
@@ -9505,7 +9514,7 @@
     </row>
     <row r="32" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D32" s="23" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>195</v>
@@ -9517,12 +9526,12 @@
         <v>194</v>
       </c>
       <c r="J32" s="36" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
     </row>
     <row r="33" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D33" s="23" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>193</v>
@@ -9534,7 +9543,7 @@
         <v>192</v>
       </c>
       <c r="J33" s="36" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
     </row>
     <row r="34" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -9542,7 +9551,7 @@
         <v>243</v>
       </c>
       <c r="D34" s="23" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>242</v>
@@ -9557,7 +9566,7 @@
         <v>303</v>
       </c>
       <c r="J34" s="36" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="L34" s="25" t="s">
         <v>427</v>
@@ -9568,7 +9577,7 @@
     </row>
     <row r="35" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D35" s="23" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>241</v>
@@ -9583,13 +9592,13 @@
         <v>303</v>
       </c>
       <c r="J35" s="36" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="L35" s="25" t="s">
         <v>508</v>
       </c>
       <c r="M35" s="25" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="N35" s="24" t="s">
         <v>510</v>
@@ -9597,7 +9606,7 @@
     </row>
     <row r="36" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D36" s="23" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>240</v>
@@ -9612,13 +9621,13 @@
         <v>303</v>
       </c>
       <c r="J36" s="36" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="L36" s="25" t="s">
         <v>509</v>
       </c>
       <c r="M36" s="25" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="N36" s="24" t="s">
         <v>511</v>
@@ -9629,7 +9638,7 @@
         <v>238</v>
       </c>
       <c r="D37" s="23" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>237</v>
@@ -9644,7 +9653,7 @@
         <v>303</v>
       </c>
       <c r="J37" s="36" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="M37" s="25" t="s">
         <v>429</v>
@@ -9652,7 +9661,7 @@
     </row>
     <row r="38" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D38" s="23" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>236</v>
@@ -9667,7 +9676,7 @@
         <v>303</v>
       </c>
       <c r="J38" s="36" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="L38" s="25" t="s">
         <v>430</v>
@@ -9678,7 +9687,7 @@
     </row>
     <row r="39" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D39" s="23" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>235</v>
@@ -9693,13 +9702,13 @@
         <v>303</v>
       </c>
       <c r="J39" s="36" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="L39" s="25" t="s">
         <v>518</v>
       </c>
       <c r="M39" s="25" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="N39" s="24" t="s">
         <v>503</v>
@@ -9713,7 +9722,7 @@
         <v>232</v>
       </c>
       <c r="D40" s="23" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>231</v>
@@ -9722,7 +9731,7 @@
         <v>178</v>
       </c>
       <c r="G40" s="19" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="H40" s="24" t="s">
         <v>303</v>
@@ -9731,7 +9740,7 @@
         <v>312</v>
       </c>
       <c r="J40" s="36" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="M40" s="25" t="s">
         <v>477</v>
@@ -9739,7 +9748,7 @@
     </row>
     <row r="41" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D41" s="23" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>230</v>
@@ -9768,7 +9777,7 @@
     </row>
     <row r="42" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D42" s="23" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>229</v>
@@ -9783,7 +9792,7 @@
         <v>303</v>
       </c>
       <c r="J42" s="36" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="M42" s="25" t="s">
         <v>476</v>
@@ -9791,7 +9800,7 @@
     </row>
     <row r="43" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D43" s="23" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>227</v>
@@ -9800,7 +9809,7 @@
         <v>178</v>
       </c>
       <c r="G43" s="19" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H43" s="24" t="s">
         <v>303</v>
@@ -9809,7 +9818,7 @@
         <v>312</v>
       </c>
       <c r="J43" s="36" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="L43" s="25" t="s">
         <v>475</v>
@@ -9820,7 +9829,7 @@
     </row>
     <row r="44" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D44" s="23" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>226</v>
@@ -9835,7 +9844,7 @@
         <v>303</v>
       </c>
       <c r="J44" s="36" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="M44" s="25" t="s">
         <v>481</v>
@@ -9849,7 +9858,7 @@
         <v>224</v>
       </c>
       <c r="D45" s="23" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>223</v>
@@ -9861,7 +9870,7 @@
         <v>222</v>
       </c>
       <c r="J45" s="36" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="L45" s="25" t="s">
         <v>432</v>
@@ -9872,7 +9881,7 @@
     </row>
     <row r="46" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D46" s="23" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="E46" s="5" t="s">
         <v>221</v>
@@ -9887,7 +9896,7 @@
         <v>303</v>
       </c>
       <c r="J46" s="36" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="M46" s="25" t="s">
         <v>398</v>
@@ -9895,7 +9904,7 @@
     </row>
     <row r="47" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D47" s="23" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>220</v>
@@ -9910,7 +9919,7 @@
         <v>303</v>
       </c>
       <c r="J47" s="36" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="L47" s="25" t="s">
         <v>431</v>
@@ -9921,7 +9930,7 @@
     </row>
     <row r="48" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D48" s="23" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>219</v>
@@ -9936,16 +9945,16 @@
         <v>303</v>
       </c>
       <c r="J48" s="36" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="L48" s="25" t="s">
         <v>519</v>
       </c>
       <c r="M48" s="25" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="N48" s="24" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
     </row>
     <row r="49" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -9953,7 +9962,7 @@
         <v>217</v>
       </c>
       <c r="D49" s="23" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>216</v>
@@ -9962,13 +9971,13 @@
         <v>178</v>
       </c>
       <c r="G49" s="20" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="I49" s="24" t="s">
         <v>312</v>
       </c>
       <c r="J49" s="36" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="L49" s="25" t="s">
         <v>435</v>
@@ -9985,7 +9994,7 @@
     </row>
     <row r="50" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D50" s="23" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>215</v>
@@ -10000,7 +10009,7 @@
         <v>303</v>
       </c>
       <c r="J50" s="36" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="L50" s="25" t="s">
         <v>433</v>
@@ -10011,7 +10020,7 @@
     </row>
     <row r="51" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D51" s="23" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="E51" s="5" t="s">
         <v>214</v>
@@ -10026,7 +10035,7 @@
         <v>303</v>
       </c>
       <c r="J51" s="36" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="L51" s="25" t="s">
         <v>434</v>
@@ -10037,7 +10046,7 @@
     </row>
     <row r="52" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D52" s="23" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="E52" s="5" t="s">
         <v>213</v>
@@ -10052,7 +10061,7 @@
         <v>303</v>
       </c>
       <c r="J52" s="36" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="L52" s="25" t="s">
         <v>520</v>
@@ -10066,7 +10075,7 @@
     </row>
     <row r="53" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D53" s="23" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="E53" s="5" t="s">
         <v>195</v>
@@ -10078,12 +10087,12 @@
         <v>194</v>
       </c>
       <c r="J53" s="36" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="54" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D54" s="23" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="E54" s="5" t="s">
         <v>193</v>
@@ -10095,7 +10104,7 @@
         <v>192</v>
       </c>
       <c r="J54" s="36" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
     </row>
     <row r="55" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10109,7 +10118,7 @@
         <v>211</v>
       </c>
       <c r="D55" s="23" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="E55" s="5" t="s">
         <v>210</v>
@@ -10123,7 +10132,7 @@
       <c r="H55" s="24"/>
       <c r="I55" s="24"/>
       <c r="J55" s="36" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="K55" s="30"/>
       <c r="L55" s="25"/>
@@ -10135,7 +10144,7 @@
     <row r="56" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="6"/>
       <c r="D56" s="23" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="E56" s="18" t="s">
         <v>208</v>
@@ -10144,7 +10153,7 @@
         <v>178</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
       <c r="H56" s="24" t="s">
         <v>303</v>
@@ -10173,7 +10182,7 @@
     <row r="57" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="6"/>
       <c r="D57" s="23" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="E57" s="18" t="s">
         <v>538</v>
@@ -10209,7 +10218,7 @@
     <row r="58" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="6"/>
       <c r="D58" s="23" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E58" s="5" t="s">
         <v>207</v>
@@ -10223,7 +10232,7 @@
       <c r="H58" s="24"/>
       <c r="I58" s="24"/>
       <c r="J58" s="36" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="K58" s="30"/>
       <c r="L58" s="25"/>
@@ -10239,7 +10248,7 @@
         <v>205</v>
       </c>
       <c r="D59" s="23" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="E59" s="5" t="s">
         <v>204</v>
@@ -10248,7 +10257,7 @@
         <v>178</v>
       </c>
       <c r="G59" s="19" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H59" s="24" t="s">
         <v>303</v>
@@ -10279,7 +10288,7 @@
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
       <c r="D60" s="23" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="E60" s="5" t="s">
         <v>203</v>
@@ -10293,7 +10302,7 @@
       <c r="H60" s="24"/>
       <c r="I60" s="24"/>
       <c r="J60" s="36" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="K60" s="30"/>
       <c r="L60" s="25"/>
@@ -10307,7 +10316,7 @@
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
       <c r="D61" s="23" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="E61" s="5" t="s">
         <v>201</v>
@@ -10341,7 +10350,7 @@
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
       <c r="D62" s="23" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="E62" s="5" t="s">
         <v>200</v>
@@ -10379,7 +10388,7 @@
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
       <c r="D63" s="23" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="E63" s="5" t="s">
         <v>199</v>
@@ -10417,7 +10426,7 @@
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
       <c r="D64" s="23" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="E64" s="5" t="s">
         <v>197</v>
@@ -10455,7 +10464,7 @@
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
       <c r="D65" s="23" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="E65" s="5" t="s">
         <v>195</v>
@@ -10469,7 +10478,7 @@
       <c r="H65" s="24"/>
       <c r="I65" s="24"/>
       <c r="J65" s="36" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="K65" s="30"/>
       <c r="L65" s="25"/>
@@ -10483,7 +10492,7 @@
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
       <c r="D66" s="23" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="E66" s="5" t="s">
         <v>193</v>
@@ -10497,7 +10506,7 @@
       <c r="H66" s="24"/>
       <c r="I66" s="24"/>
       <c r="J66" s="36" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="K66" s="30"/>
       <c r="L66" s="25"/>
@@ -10513,7 +10522,7 @@
         <v>191</v>
       </c>
       <c r="D67" s="23" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="E67" s="5" t="s">
         <v>190</v>
@@ -10522,7 +10531,7 @@
         <v>178</v>
       </c>
       <c r="G67" s="21" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
       <c r="H67" s="24" t="s">
         <v>305</v>
@@ -10531,7 +10540,7 @@
         <v>312</v>
       </c>
       <c r="J67" s="36" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="K67" s="30"/>
       <c r="L67" s="25"/>
@@ -10549,7 +10558,7 @@
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
       <c r="D68" s="23" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="E68" s="5" t="s">
         <v>188</v>
@@ -10558,14 +10567,14 @@
         <v>178</v>
       </c>
       <c r="G68" s="19" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="H68" s="24"/>
       <c r="I68" s="24" t="s">
         <v>312</v>
       </c>
       <c r="J68" s="36" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="K68" s="30"/>
       <c r="L68" s="25"/>
@@ -10583,7 +10592,7 @@
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
       <c r="D69" s="23" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="E69" s="5" t="s">
         <v>186</v>
@@ -10592,7 +10601,7 @@
         <v>178</v>
       </c>
       <c r="G69" s="20" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H69" s="24" t="s">
         <v>303</v>
@@ -10601,12 +10610,12 @@
         <v>312</v>
       </c>
       <c r="J69" s="36" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="K69" s="30"/>
       <c r="L69" s="25"/>
       <c r="M69" s="25" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="N69" s="24" t="s">
         <v>341</v>
@@ -10621,7 +10630,7 @@
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
       <c r="D70" s="23" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="E70" s="5" t="s">
         <v>185</v>
@@ -10639,14 +10648,14 @@
         <v>312</v>
       </c>
       <c r="J70" s="36" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="K70" s="30"/>
       <c r="L70" s="25" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="M70" s="25" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="N70" s="24" t="s">
         <v>341</v>
@@ -10661,7 +10670,7 @@
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
       <c r="D71" s="23" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="E71" s="5" t="s">
         <v>184</v>
@@ -10677,11 +10686,11 @@
       </c>
       <c r="I71" s="24"/>
       <c r="J71" s="36" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="K71" s="30"/>
       <c r="L71" s="25" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="M71" s="25" t="s">
         <v>325</v>
@@ -10697,7 +10706,7 @@
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
       <c r="D72" s="23" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="E72" s="5" t="s">
         <v>182</v>
@@ -10715,14 +10724,14 @@
         <v>312</v>
       </c>
       <c r="J72" s="36" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="K72" s="30"/>
       <c r="L72" s="25" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="M72" s="25" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="N72" s="24" t="s">
         <v>345</v>
@@ -10737,7 +10746,7 @@
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
       <c r="D73" s="23" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="E73" s="5" t="s">
         <v>179</v>
@@ -10746,7 +10755,7 @@
         <v>178</v>
       </c>
       <c r="G73" s="21" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
       <c r="H73" s="24"/>
       <c r="I73" s="24" t="s">
@@ -10773,7 +10782,7 @@
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
       <c r="D74" s="23" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="E74" s="5" t="s">
         <v>177</v>
@@ -10782,7 +10791,7 @@
         <v>176</v>
       </c>
       <c r="G74" s="11" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="H74" s="24"/>
       <c r="I74" s="24" t="s">
@@ -10809,7 +10818,7 @@
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
       <c r="D75" s="23" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E75" s="5" t="s">
         <v>175</v>
@@ -10845,7 +10854,7 @@
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
       <c r="D76" s="23" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="E76" s="5" t="s">
         <v>173</v>
@@ -10883,7 +10892,7 @@
         <v>169</v>
       </c>
       <c r="D77" s="23" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="E77" s="5" t="s">
         <v>55</v>
@@ -10897,7 +10906,7 @@
       <c r="H77" s="24"/>
       <c r="I77" s="24"/>
       <c r="J77" s="36" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="K77" s="30"/>
       <c r="L77" s="25"/>
@@ -10911,7 +10920,7 @@
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
       <c r="D78" s="40" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="E78" s="5" t="s">
         <v>168</v>
@@ -10920,7 +10929,7 @@
         <v>7</v>
       </c>
       <c r="G78" s="20" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
       <c r="H78" s="24" t="s">
         <v>305</v>
@@ -10933,13 +10942,13 @@
       </c>
       <c r="K78" s="30"/>
       <c r="L78" s="25" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="M78" s="25" t="s">
         <v>424</v>
       </c>
       <c r="N78" s="24" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
       <c r="O78" s="34"/>
       <c r="P78" s="2" t="s">
@@ -10951,7 +10960,7 @@
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
       <c r="D79" s="23" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="E79" s="5" t="s">
         <v>167</v>
@@ -10960,7 +10969,7 @@
         <v>7</v>
       </c>
       <c r="G79" s="20" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="H79" s="24"/>
       <c r="I79" s="24" t="s">
@@ -10971,10 +10980,10 @@
       </c>
       <c r="K79" s="30"/>
       <c r="L79" s="25" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="M79" s="25" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="N79" s="24" t="s">
         <v>341</v>
@@ -10989,7 +10998,7 @@
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
       <c r="D80" s="23" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="E80" s="5" t="s">
         <v>166</v>
@@ -11003,7 +11012,7 @@
       <c r="H80" s="24"/>
       <c r="I80" s="24"/>
       <c r="J80" s="36" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="K80" s="30"/>
       <c r="L80" s="25"/>
@@ -11017,7 +11026,7 @@
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
       <c r="D81" s="23" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="E81" s="5" t="s">
         <v>164</v>
@@ -11031,7 +11040,7 @@
       <c r="H81" s="24"/>
       <c r="I81" s="24"/>
       <c r="J81" s="36" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="K81" s="30"/>
       <c r="L81" s="25"/>
@@ -11045,7 +11054,7 @@
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
       <c r="D82" s="23" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="E82" s="5" t="s">
         <v>162</v>
@@ -11059,7 +11068,7 @@
       <c r="H82" s="24"/>
       <c r="I82" s="24"/>
       <c r="J82" s="36" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="K82" s="30"/>
       <c r="L82" s="25"/>
@@ -11075,7 +11084,7 @@
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
       <c r="D83" s="23" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="E83" s="5" t="s">
         <v>159</v>
@@ -11089,7 +11098,7 @@
       <c r="H83" s="24"/>
       <c r="I83" s="24"/>
       <c r="J83" s="36" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="K83" s="30"/>
       <c r="L83" s="25"/>
@@ -11103,7 +11112,7 @@
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
       <c r="D84" s="23" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="E84" s="5" t="s">
         <v>157</v>
@@ -11139,7 +11148,7 @@
         <v>154</v>
       </c>
       <c r="D85" s="23" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="E85" s="5" t="s">
         <v>55</v>
@@ -11153,7 +11162,7 @@
       <c r="H85" s="24"/>
       <c r="I85" s="24"/>
       <c r="J85" s="36" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="K85" s="30"/>
       <c r="L85" s="25"/>
@@ -11166,8 +11175,8 @@
       <c r="A86" s="6"/>
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
-      <c r="D86" s="23" t="s">
-        <v>647</v>
+      <c r="D86" s="41" t="s">
+        <v>645</v>
       </c>
       <c r="E86" s="16" t="s">
         <v>153</v>
@@ -11176,7 +11185,7 @@
         <v>85</v>
       </c>
       <c r="G86" s="19" t="s">
-        <v>555</v>
+        <v>852</v>
       </c>
       <c r="H86" s="24" t="s">
         <v>305</v>
@@ -11205,7 +11214,7 @@
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
       <c r="D87" s="23" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="E87" s="5" t="s">
         <v>151</v>
@@ -11221,7 +11230,7 @@
       </c>
       <c r="I87" s="24"/>
       <c r="J87" s="36" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="K87" s="30"/>
       <c r="L87" s="25"/>
@@ -11237,7 +11246,7 @@
         <v>149</v>
       </c>
       <c r="D88" s="23" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="E88" s="5" t="s">
         <v>112</v>
@@ -11253,7 +11262,7 @@
       </c>
       <c r="I88" s="24"/>
       <c r="J88" s="36" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="K88" s="30"/>
       <c r="L88" s="25"/>
@@ -11267,7 +11276,7 @@
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
       <c r="D89" s="23" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="E89" s="5" t="s">
         <v>110</v>
@@ -11283,7 +11292,7 @@
       </c>
       <c r="I89" s="24"/>
       <c r="J89" s="36" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="K89" s="30"/>
       <c r="L89" s="25"/>
@@ -11297,7 +11306,7 @@
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
       <c r="D90" s="23" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="E90" s="5" t="s">
         <v>146</v>
@@ -11313,7 +11322,7 @@
       </c>
       <c r="I90" s="24"/>
       <c r="J90" s="36" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="K90" s="30"/>
       <c r="L90" s="25"/>
@@ -11327,7 +11336,7 @@
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
       <c r="D91" s="23" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="E91" s="5" t="s">
         <v>144</v>
@@ -11343,7 +11352,7 @@
       </c>
       <c r="I91" s="24"/>
       <c r="J91" s="36" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="K91" s="30"/>
       <c r="L91" s="25"/>
@@ -11359,7 +11368,7 @@
         <v>142</v>
       </c>
       <c r="D92" s="23" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="E92" s="16" t="s">
         <v>141</v>
@@ -11397,7 +11406,7 @@
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
       <c r="D93" s="23" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="E93" s="16" t="s">
         <v>140</v>
@@ -11433,7 +11442,7 @@
     <row r="94" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="6"/>
       <c r="D94" s="23" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="E94" s="16" t="s">
         <v>138</v>
@@ -11472,7 +11481,7 @@
         <v>136</v>
       </c>
       <c r="D95" s="23" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="E95" s="5" t="s">
         <v>135</v>
@@ -11488,7 +11497,7 @@
       </c>
       <c r="I95" s="24"/>
       <c r="J95" s="36" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="K95" s="30"/>
       <c r="L95" s="25"/>
@@ -11500,7 +11509,7 @@
     <row r="96" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="6"/>
       <c r="D96" s="23" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="E96" s="5" t="s">
         <v>134</v>
@@ -11516,7 +11525,7 @@
       </c>
       <c r="I96" s="24"/>
       <c r="J96" s="36" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="K96" s="30"/>
       <c r="L96" s="25"/>
@@ -11536,7 +11545,7 @@
         <v>131</v>
       </c>
       <c r="D97" s="23" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="E97" s="5" t="s">
         <v>130</v>
@@ -11552,7 +11561,7 @@
       </c>
       <c r="I97" s="24"/>
       <c r="J97" s="36" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="K97" s="30"/>
       <c r="L97" s="25" t="s">
@@ -11567,8 +11576,8 @@
     </row>
     <row r="98" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="6"/>
-      <c r="D98" s="23" t="s">
-        <v>659</v>
+      <c r="D98" s="41" t="s">
+        <v>657</v>
       </c>
       <c r="E98" s="5" t="s">
         <v>129</v>
@@ -11577,7 +11586,7 @@
         <v>85</v>
       </c>
       <c r="G98" s="19" t="s">
-        <v>842</v>
+        <v>853</v>
       </c>
       <c r="H98" s="24" t="s">
         <v>303</v>
@@ -11586,12 +11595,12 @@
         <v>312</v>
       </c>
       <c r="J98" s="36" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="K98" s="30"/>
       <c r="L98" s="25"/>
       <c r="M98" s="25" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="N98" s="24"/>
       <c r="O98" s="34"/>
@@ -11600,7 +11609,7 @@
     <row r="99" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="6"/>
       <c r="D99" s="23" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="E99" s="5" t="s">
         <v>128</v>
@@ -11632,7 +11641,7 @@
     <row r="100" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="6"/>
       <c r="D100" s="23" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="E100" s="5" t="s">
         <v>127</v>
@@ -11648,7 +11657,7 @@
       </c>
       <c r="I100" s="24"/>
       <c r="J100" s="36" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="K100" s="30"/>
       <c r="L100" s="25"/>
@@ -11662,7 +11671,7 @@
     <row r="101" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="6"/>
       <c r="D101" s="23" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="E101" s="5" t="s">
         <v>126</v>
@@ -11678,7 +11687,7 @@
       </c>
       <c r="I101" s="24"/>
       <c r="J101" s="36" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="K101" s="30"/>
       <c r="L101" s="25"/>
@@ -11695,7 +11704,7 @@
         <v>124</v>
       </c>
       <c r="D102" s="23" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="E102" s="5" t="s">
         <v>123</v>
@@ -11711,14 +11720,14 @@
       </c>
       <c r="I102" s="24"/>
       <c r="J102" s="36" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="K102" s="30"/>
       <c r="L102" s="28" t="s">
         <v>492</v>
       </c>
       <c r="M102" s="27" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="N102" s="24"/>
       <c r="O102" s="34"/>
@@ -11727,7 +11736,7 @@
     <row r="103" spans="1:16" s="5" customFormat="1" ht="80.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="6"/>
       <c r="D103" s="23" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="E103" s="5" t="s">
         <v>121</v>
@@ -11761,7 +11770,7 @@
     <row r="104" spans="1:16" s="5" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="6"/>
       <c r="D104" s="23" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="E104" s="5" t="s">
         <v>119</v>
@@ -11795,7 +11804,7 @@
     <row r="105" spans="1:16" s="5" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="6"/>
       <c r="D105" s="23" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="E105" s="5" t="s">
         <v>117</v>
@@ -11811,7 +11820,7 @@
       </c>
       <c r="I105" s="24"/>
       <c r="J105" s="36" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="K105" s="30"/>
       <c r="L105" s="25" t="s">
@@ -11835,7 +11844,7 @@
         <v>113</v>
       </c>
       <c r="D106" s="23" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="E106" s="5" t="s">
         <v>112</v>
@@ -11851,7 +11860,7 @@
       </c>
       <c r="I106" s="24"/>
       <c r="J106" s="36" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="K106" s="30"/>
       <c r="L106" s="25" t="s">
@@ -11867,7 +11876,7 @@
     <row r="107" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="6"/>
       <c r="D107" s="23" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="E107" s="5" t="s">
         <v>110</v>
@@ -11876,7 +11885,7 @@
         <v>85</v>
       </c>
       <c r="G107" s="22" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="H107" s="24" t="s">
         <v>303</v>
@@ -11885,7 +11894,7 @@
         <v>312</v>
       </c>
       <c r="J107" s="36" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="K107" s="30"/>
       <c r="L107" s="25" t="s">
@@ -11903,7 +11912,7 @@
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
       <c r="D108" s="23" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="E108" s="5" t="s">
         <v>109</v>
@@ -11939,7 +11948,7 @@
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
       <c r="D109" s="23" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="E109" s="5" t="s">
         <v>108</v>
@@ -11955,7 +11964,7 @@
       </c>
       <c r="I109" s="24"/>
       <c r="J109" s="36" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="K109" s="30"/>
       <c r="L109" s="25" t="s">
@@ -11973,7 +11982,7 @@
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
       <c r="D110" s="23" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="E110" s="5" t="s">
         <v>106</v>
@@ -11989,7 +11998,7 @@
       </c>
       <c r="I110" s="24"/>
       <c r="J110" s="36" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="K110" s="30"/>
       <c r="L110" s="25" t="s">
@@ -12009,7 +12018,7 @@
         <v>104</v>
       </c>
       <c r="D111" s="23" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="E111" s="5" t="s">
         <v>103</v>
@@ -12025,7 +12034,7 @@
       </c>
       <c r="I111" s="24"/>
       <c r="J111" s="36" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="K111" s="30"/>
       <c r="L111" s="25" t="s">
@@ -12043,7 +12052,7 @@
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
       <c r="D112" s="23" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="E112" s="5" t="s">
         <v>102</v>
@@ -12081,7 +12090,7 @@
       <c r="B113" s="5"/>
       <c r="C113" s="5"/>
       <c r="D113" s="23" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="E113" s="5" t="s">
         <v>101</v>
@@ -12117,7 +12126,7 @@
       <c r="B114" s="5"/>
       <c r="C114" s="5"/>
       <c r="D114" s="23" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="E114" s="5" t="s">
         <v>98</v>
@@ -12133,7 +12142,7 @@
       </c>
       <c r="I114" s="24"/>
       <c r="J114" s="36" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="K114" s="30"/>
       <c r="L114" s="25"/>
@@ -12151,7 +12160,7 @@
         <v>96</v>
       </c>
       <c r="D115" s="23" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="E115" s="5" t="s">
         <v>95</v>
@@ -12167,7 +12176,7 @@
       </c>
       <c r="I115" s="24"/>
       <c r="J115" s="36" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="K115" s="30"/>
       <c r="L115" s="25"/>
@@ -12183,7 +12192,7 @@
       <c r="B116" s="5"/>
       <c r="C116" s="5"/>
       <c r="D116" s="23" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="E116" s="5" t="s">
         <v>94</v>
@@ -12199,7 +12208,7 @@
       </c>
       <c r="I116" s="24"/>
       <c r="J116" s="36" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="K116" s="30"/>
       <c r="L116" s="25" t="s">
@@ -12217,7 +12226,7 @@
       <c r="B117" s="5"/>
       <c r="C117" s="5"/>
       <c r="D117" s="23" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="E117" s="5" t="s">
         <v>92</v>
@@ -12233,7 +12242,7 @@
       </c>
       <c r="I117" s="24"/>
       <c r="J117" s="36" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="K117" s="30"/>
       <c r="L117" s="25"/>
@@ -12255,7 +12264,7 @@
         <v>89</v>
       </c>
       <c r="D118" s="23" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="E118" s="5" t="s">
         <v>55</v>
@@ -12271,7 +12280,7 @@
       </c>
       <c r="I118" s="24"/>
       <c r="J118" s="36" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="K118" s="30"/>
       <c r="L118" s="25"/>
@@ -12285,7 +12294,7 @@
       <c r="B119" s="5"/>
       <c r="C119" s="5"/>
       <c r="D119" s="23" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="E119" s="5" t="s">
         <v>88</v>
@@ -12294,7 +12303,7 @@
         <v>85</v>
       </c>
       <c r="G119" s="19" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="H119" s="24" t="s">
         <v>303</v>
@@ -12303,14 +12312,14 @@
         <v>312</v>
       </c>
       <c r="J119" s="36" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="K119" s="30"/>
       <c r="L119" s="25" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="M119" s="25" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="N119" s="24"/>
       <c r="O119" s="34"/>
@@ -12321,9 +12330,9 @@
     <row r="120" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" s="6"/>
       <c r="B120" s="5"/>
-      <c r="C120" s="5"/>
+      <c r="C120" s="41"/>
       <c r="D120" s="40" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="E120" s="5" t="s">
         <v>86</v>
@@ -12332,7 +12341,7 @@
         <v>85</v>
       </c>
       <c r="G120" s="19" t="s">
-        <v>841</v>
+        <v>854</v>
       </c>
       <c r="H120" s="24" t="s">
         <v>303</v>
@@ -12341,17 +12350,17 @@
         <v>312</v>
       </c>
       <c r="J120" s="36" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="K120" s="30"/>
       <c r="L120" s="25" t="s">
         <v>443</v>
       </c>
       <c r="M120" s="25" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="N120" s="24" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="O120" s="34"/>
       <c r="P120" s="2" t="s">
@@ -12365,7 +12374,7 @@
         <v>84</v>
       </c>
       <c r="D121" s="23" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="E121" s="5" t="s">
         <v>55</v>
@@ -12381,7 +12390,7 @@
       </c>
       <c r="I121" s="24"/>
       <c r="J121" s="36" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="K121" s="30"/>
       <c r="L121" s="25"/>
@@ -12395,7 +12404,7 @@
       <c r="B122" s="5"/>
       <c r="C122" s="5"/>
       <c r="D122" s="40" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="E122" s="18" t="s">
         <v>83</v>
@@ -12404,7 +12413,7 @@
         <v>7</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="H122" s="24" t="s">
         <v>303</v>
@@ -12419,7 +12428,7 @@
       <c r="L122" s="25"/>
       <c r="M122" s="25"/>
       <c r="N122" s="24" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="O122" s="34"/>
       <c r="P122" s="2" t="s">
@@ -12431,7 +12440,7 @@
       <c r="B123" s="5"/>
       <c r="C123" s="5"/>
       <c r="D123" s="23" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="E123" s="18" t="s">
         <v>535</v>
@@ -12467,7 +12476,7 @@
       <c r="B124" s="5"/>
       <c r="C124" s="5"/>
       <c r="D124" s="23" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="E124" s="5" t="s">
         <v>81</v>
@@ -12476,18 +12485,18 @@
         <v>7</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="H124" s="24" t="s">
         <v>303</v>
       </c>
       <c r="I124" s="24"/>
       <c r="J124" s="36" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="K124" s="30"/>
       <c r="L124" s="25" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="M124" s="25" t="s">
         <v>466</v>
@@ -12501,7 +12510,7 @@
       <c r="B125" s="5"/>
       <c r="C125" s="5"/>
       <c r="D125" s="23" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="E125" s="5" t="s">
         <v>80</v>
@@ -12517,7 +12526,7 @@
       </c>
       <c r="I125" s="24"/>
       <c r="J125" s="36" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="K125" s="30"/>
       <c r="L125" s="25" t="s">
@@ -12535,7 +12544,7 @@
       <c r="B126" s="5"/>
       <c r="C126" s="5"/>
       <c r="D126" s="23" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="E126" s="5" t="s">
         <v>79</v>
@@ -12569,7 +12578,7 @@
       <c r="B127" s="5"/>
       <c r="C127" s="5"/>
       <c r="D127" s="23" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="E127" s="5" t="s">
         <v>78</v>
@@ -12603,7 +12612,7 @@
       <c r="B128" s="5"/>
       <c r="C128" s="5"/>
       <c r="D128" s="23" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="E128" s="5" t="s">
         <v>76</v>
@@ -12639,7 +12648,7 @@
         <v>75</v>
       </c>
       <c r="D129" s="23" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E129" s="5" t="s">
         <v>55</v>
@@ -12655,7 +12664,7 @@
       </c>
       <c r="I129" s="24"/>
       <c r="J129" s="36" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="K129" s="30"/>
       <c r="L129" s="25"/>
@@ -12669,7 +12678,7 @@
       <c r="B130" s="5"/>
       <c r="C130" s="5"/>
       <c r="D130" s="40" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="E130" s="18" t="s">
         <v>73</v>
@@ -12678,7 +12687,7 @@
         <v>7</v>
       </c>
       <c r="G130" s="13" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="H130" s="24" t="s">
         <v>303</v>
@@ -12687,17 +12696,17 @@
         <v>312</v>
       </c>
       <c r="J130" s="36" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="K130" s="30"/>
       <c r="L130" s="25" t="s">
         <v>534</v>
       </c>
       <c r="M130" s="25" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="N130" s="24" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="O130" s="34"/>
       <c r="P130" s="2" t="s">
@@ -12709,7 +12718,7 @@
       <c r="B131" s="5"/>
       <c r="C131" s="5"/>
       <c r="D131" s="23" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="E131" s="18" t="s">
         <v>532</v>
@@ -12747,7 +12756,7 @@
       <c r="B132" s="5"/>
       <c r="C132" s="5"/>
       <c r="D132" s="23" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="E132" s="5" t="s">
         <v>72</v>
@@ -12763,7 +12772,7 @@
       </c>
       <c r="I132" s="24"/>
       <c r="J132" s="36" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="K132" s="30"/>
       <c r="L132" s="25" t="s">
@@ -12781,7 +12790,7 @@
       <c r="B133" s="5"/>
       <c r="C133" s="5"/>
       <c r="D133" s="23" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="E133" s="5" t="s">
         <v>71</v>
@@ -12797,7 +12806,7 @@
       </c>
       <c r="I133" s="24"/>
       <c r="J133" s="36" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="K133" s="30"/>
       <c r="L133" s="25"/>
@@ -12813,7 +12822,7 @@
       <c r="B134" s="5"/>
       <c r="C134" s="5"/>
       <c r="D134" s="23" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="E134" s="5" t="s">
         <v>70</v>
@@ -12829,7 +12838,7 @@
       </c>
       <c r="I134" s="24"/>
       <c r="J134" s="36" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="K134" s="30"/>
       <c r="L134" s="25"/>
@@ -12845,7 +12854,7 @@
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
       <c r="D135" s="23" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="E135" s="18" t="s">
         <v>528</v>
@@ -12875,7 +12884,7 @@
       <c r="B136" s="5"/>
       <c r="C136" s="5"/>
       <c r="D136" s="23" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="E136" s="18" t="s">
         <v>529</v>
@@ -12913,7 +12922,7 @@
         <v>67</v>
       </c>
       <c r="D137" s="23" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="E137" s="5" t="s">
         <v>66</v>
@@ -12929,7 +12938,7 @@
       </c>
       <c r="I137" s="24"/>
       <c r="J137" s="36" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="K137" s="30"/>
       <c r="L137" s="25"/>
@@ -12945,7 +12954,7 @@
         <v>64</v>
       </c>
       <c r="D138" s="23" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="E138" s="5" t="s">
         <v>63</v>
@@ -12961,14 +12970,14 @@
       </c>
       <c r="I138" s="24"/>
       <c r="J138" s="36" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="K138" s="30"/>
       <c r="L138" s="25" t="s">
         <v>327</v>
       </c>
       <c r="M138" s="27" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="N138" s="24"/>
       <c r="O138" s="34"/>
@@ -12981,7 +12990,7 @@
       <c r="B139" s="5"/>
       <c r="C139" s="5"/>
       <c r="D139" s="23" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="E139" s="5" t="s">
         <v>60</v>
@@ -12997,7 +13006,7 @@
       </c>
       <c r="I139" s="24"/>
       <c r="J139" s="36" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="K139" s="32"/>
       <c r="L139" s="27" t="s">
@@ -13015,7 +13024,7 @@
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
       <c r="D140" s="23" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="E140" s="5" t="s">
         <v>59</v>
@@ -13031,7 +13040,7 @@
       </c>
       <c r="I140" s="24"/>
       <c r="J140" s="36" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="K140" s="30"/>
       <c r="L140" s="25" t="s">
@@ -13041,7 +13050,7 @@
         <v>314</v>
       </c>
       <c r="N140" s="24" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="O140" s="34"/>
       <c r="P140" s="2"/>
@@ -13051,7 +13060,7 @@
       <c r="B141" s="5"/>
       <c r="C141" s="5"/>
       <c r="D141" s="23" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="E141" s="5" t="s">
         <v>58</v>
@@ -13067,7 +13076,7 @@
       </c>
       <c r="I141" s="24"/>
       <c r="J141" s="36" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="K141" s="30"/>
       <c r="L141" s="25" t="s">
@@ -13087,7 +13096,7 @@
         <v>56</v>
       </c>
       <c r="D142" s="23" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="E142" s="5" t="s">
         <v>55</v>
@@ -13103,7 +13112,7 @@
       </c>
       <c r="I142" s="24"/>
       <c r="J142" s="36" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="K142" s="33"/>
       <c r="L142" s="28"/>
@@ -13119,7 +13128,7 @@
       <c r="B143" s="5"/>
       <c r="C143" s="5"/>
       <c r="D143" s="40" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="E143" s="5" t="s">
         <v>54</v>
@@ -13128,7 +13137,7 @@
         <v>7</v>
       </c>
       <c r="G143" s="15" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="H143" s="24" t="s">
         <v>303</v>
@@ -13147,7 +13156,7 @@
         <v>494</v>
       </c>
       <c r="N143" s="24" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="O143" s="34"/>
       <c r="P143" s="2" t="s">
@@ -13159,7 +13168,7 @@
       <c r="B144" s="5"/>
       <c r="C144" s="5"/>
       <c r="D144" s="23" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="E144" s="5" t="s">
         <v>521</v>
@@ -13187,7 +13196,7 @@
         <v>424</v>
       </c>
       <c r="N144" s="24" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
       <c r="O144" s="34"/>
       <c r="P144" s="2" t="s">
@@ -13199,7 +13208,7 @@
       <c r="B145" s="5"/>
       <c r="C145" s="5"/>
       <c r="D145" s="23" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="E145" s="5" t="s">
         <v>53</v>
@@ -13215,7 +13224,7 @@
       </c>
       <c r="I145" s="24"/>
       <c r="J145" s="36" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="K145" s="34"/>
       <c r="L145" s="24" t="s">
@@ -13233,7 +13242,7 @@
       <c r="B146" s="5"/>
       <c r="C146" s="5"/>
       <c r="D146" s="23" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="E146" s="5" t="s">
         <v>52</v>
@@ -13249,7 +13258,7 @@
       </c>
       <c r="I146" s="24"/>
       <c r="J146" s="36" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="K146" s="30"/>
       <c r="L146" s="25" t="s">
@@ -13267,7 +13276,7 @@
       <c r="B147" s="5"/>
       <c r="C147" s="5"/>
       <c r="D147" s="23" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="E147" s="5" t="s">
         <v>51</v>
@@ -13283,7 +13292,7 @@
       </c>
       <c r="I147" s="24"/>
       <c r="J147" s="36" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="K147" s="30"/>
       <c r="L147" s="25" t="s">
@@ -13301,7 +13310,7 @@
       <c r="B148" s="5"/>
       <c r="C148" s="5"/>
       <c r="D148" s="23" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="E148" s="5" t="s">
         <v>49</v>
@@ -13339,7 +13348,7 @@
         <v>47</v>
       </c>
       <c r="D149" s="40" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="E149" s="5" t="s">
         <v>46</v>
@@ -13348,7 +13357,7 @@
         <v>7</v>
       </c>
       <c r="G149" s="9" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="H149" s="24" t="s">
         <v>303</v>
@@ -13367,7 +13376,7 @@
         <v>317</v>
       </c>
       <c r="N149" s="24" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
       <c r="O149" s="34"/>
       <c r="P149" s="2" t="s">
@@ -13379,7 +13388,7 @@
       <c r="B150" s="5"/>
       <c r="C150" s="5"/>
       <c r="D150" s="23" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="E150" s="5" t="s">
         <v>524</v>
@@ -13388,7 +13397,7 @@
         <v>7</v>
       </c>
       <c r="G150" s="9" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="H150" s="24" t="s">
         <v>303</v>
@@ -13419,7 +13428,7 @@
       <c r="B151" s="5"/>
       <c r="C151" s="5"/>
       <c r="D151" s="23" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="E151" s="5" t="s">
         <v>45</v>
@@ -13435,7 +13444,7 @@
       </c>
       <c r="I151" s="24"/>
       <c r="J151" s="36" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="K151" s="34"/>
       <c r="L151" s="24" t="s">
@@ -13453,7 +13462,7 @@
       <c r="B152" s="5"/>
       <c r="C152" s="5"/>
       <c r="D152" s="23" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="E152" s="5" t="s">
         <v>44</v>
@@ -13469,7 +13478,7 @@
       </c>
       <c r="I152" s="24"/>
       <c r="J152" s="36" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="K152" s="30"/>
       <c r="L152" s="25" t="s">
@@ -13487,7 +13496,7 @@
       <c r="B153" s="5"/>
       <c r="C153" s="5"/>
       <c r="D153" s="23" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="E153" s="5" t="s">
         <v>42</v>
@@ -13523,7 +13532,7 @@
       <c r="B154" s="5"/>
       <c r="C154" s="5"/>
       <c r="D154" s="23" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="E154" s="5" t="s">
         <v>40</v>
@@ -13539,7 +13548,7 @@
       </c>
       <c r="I154" s="24"/>
       <c r="J154" s="36" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="K154" s="30"/>
       <c r="L154" s="25" t="s">
@@ -13559,7 +13568,7 @@
       <c r="B155" s="5"/>
       <c r="C155" s="5"/>
       <c r="D155" s="23" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="E155" s="5" t="s">
         <v>37</v>
@@ -13575,7 +13584,7 @@
       </c>
       <c r="I155" s="24"/>
       <c r="J155" s="36" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="K155" s="31"/>
       <c r="L155" s="26" t="s">
@@ -13593,7 +13602,7 @@
       <c r="B156" s="5"/>
       <c r="C156" s="5"/>
       <c r="D156" s="23" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="E156" s="5" t="s">
         <v>36</v>
@@ -13609,7 +13618,7 @@
       </c>
       <c r="I156" s="24"/>
       <c r="J156" s="36" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="K156" s="30"/>
       <c r="L156" s="25" t="s">
@@ -13627,7 +13636,7 @@
       <c r="B157" s="5"/>
       <c r="C157" s="5"/>
       <c r="D157" s="23" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="E157" s="5" t="s">
         <v>35</v>
@@ -13643,7 +13652,7 @@
       </c>
       <c r="I157" s="24"/>
       <c r="J157" s="36" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="K157" s="30"/>
       <c r="L157" s="25"/>
@@ -13659,7 +13668,7 @@
       <c r="B158" s="5"/>
       <c r="C158" s="5"/>
       <c r="D158" s="23" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="E158" s="5" t="s">
         <v>33</v>
@@ -13675,7 +13684,7 @@
       </c>
       <c r="I158" s="24"/>
       <c r="J158" s="36" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="K158" s="30"/>
       <c r="L158" s="25" t="s">
@@ -13693,7 +13702,7 @@
       <c r="B159" s="5"/>
       <c r="C159" s="5"/>
       <c r="D159" s="23" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="E159" s="5" t="s">
         <v>32</v>
@@ -13727,7 +13736,7 @@
       <c r="B160" s="5"/>
       <c r="C160" s="5"/>
       <c r="D160" s="23" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="E160" s="5" t="s">
         <v>31</v>
@@ -13763,7 +13772,7 @@
         <v>29</v>
       </c>
       <c r="D161" s="23" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="E161" s="5" t="s">
         <v>28</v>
@@ -13779,14 +13788,14 @@
       </c>
       <c r="I161" s="24"/>
       <c r="J161" s="36" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="K161" s="30"/>
       <c r="L161" s="25" t="s">
         <v>334</v>
       </c>
       <c r="M161" s="27" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="N161" s="24"/>
       <c r="O161" s="34"/>
@@ -13799,7 +13808,7 @@
       <c r="B162" s="5"/>
       <c r="C162" s="5"/>
       <c r="D162" s="23" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="E162" s="5" t="s">
         <v>25</v>
@@ -13815,7 +13824,7 @@
       </c>
       <c r="I162" s="24"/>
       <c r="J162" s="36" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="K162" s="32"/>
       <c r="L162" s="27" t="s">
@@ -13833,7 +13842,7 @@
       <c r="B163" s="5"/>
       <c r="C163" s="5"/>
       <c r="D163" s="23" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="E163" s="5" t="s">
         <v>24</v>
@@ -13849,7 +13858,7 @@
       </c>
       <c r="I163" s="24"/>
       <c r="J163" s="36" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="K163" s="32"/>
       <c r="L163" s="27" t="s">
@@ -13867,7 +13876,7 @@
       <c r="B164" s="5"/>
       <c r="C164" s="5"/>
       <c r="D164" s="23" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="E164" s="5" t="s">
         <v>23</v>
@@ -13903,7 +13912,7 @@
         <v>21</v>
       </c>
       <c r="D165" s="23" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="E165" s="5" t="s">
         <v>20</v>
@@ -13919,17 +13928,17 @@
       </c>
       <c r="I165" s="24"/>
       <c r="J165" s="36" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="K165" s="30"/>
       <c r="L165" s="28" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="M165" s="27" t="s">
         <v>319</v>
       </c>
       <c r="N165" s="24" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="O165" s="34"/>
       <c r="P165" s="2"/>
@@ -13939,7 +13948,7 @@
       <c r="B166" s="5"/>
       <c r="C166" s="5"/>
       <c r="D166" s="23" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="E166" s="5" t="s">
         <v>18</v>
@@ -13955,7 +13964,7 @@
       </c>
       <c r="I166" s="24"/>
       <c r="J166" s="36" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="K166" s="34"/>
       <c r="L166" s="24" t="s">
@@ -13973,7 +13982,7 @@
       <c r="B167" s="5"/>
       <c r="C167" s="5"/>
       <c r="D167" s="23" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="E167" s="5" t="s">
         <v>17</v>
@@ -13989,7 +13998,7 @@
       </c>
       <c r="I167" s="24"/>
       <c r="J167" s="36" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="K167" s="31"/>
       <c r="L167" s="26" t="s">
@@ -14007,7 +14016,7 @@
       <c r="B168" s="5"/>
       <c r="C168" s="5"/>
       <c r="D168" s="23" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="E168" s="5" t="s">
         <v>16</v>
@@ -14041,7 +14050,7 @@
       <c r="B169" s="5"/>
       <c r="C169" s="5"/>
       <c r="D169" s="23" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="E169" s="5" t="s">
         <v>14</v>
@@ -14050,7 +14059,7 @@
         <v>7</v>
       </c>
       <c r="G169" s="21" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="H169" s="24" t="s">
         <v>303</v>
@@ -14059,7 +14068,7 @@
         <v>312</v>
       </c>
       <c r="J169" s="36" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="K169" s="30"/>
       <c r="L169" s="25" t="s">
@@ -14081,10 +14090,10 @@
       <c r="B170" s="5"/>
       <c r="C170" s="5"/>
       <c r="D170" s="23" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="E170" s="5" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="F170" s="4"/>
       <c r="G170" s="21"/>
@@ -14117,7 +14126,7 @@
       <c r="H171" s="24"/>
       <c r="I171" s="24"/>
       <c r="J171" s="36" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="K171" s="30"/>
       <c r="L171" s="25"/>
@@ -14137,7 +14146,7 @@
         <v>9</v>
       </c>
       <c r="D172" s="23" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="E172" s="16" t="s">
         <v>8</v>
@@ -14146,7 +14155,7 @@
         <v>7</v>
       </c>
       <c r="G172" s="22" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="H172" s="24" t="s">
         <v>305</v>
@@ -14168,7 +14177,7 @@
     </row>
     <row r="173" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D173" s="23" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="E173" s="16" t="s">
         <v>6</v>
@@ -14197,7 +14206,7 @@
     </row>
     <row r="174" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D174" s="23" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="E174" s="16" t="s">
         <v>4</v>
@@ -14226,7 +14235,7 @@
     </row>
     <row r="175" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D175" s="23" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="E175" s="16" t="s">
         <v>2</v>

--- a/trunk/biz/MC-MSC-Web/qxy接口定义文档2016-8-8/【千校云】bug列表.xlsx
+++ b/trunk/biz/MC-MSC-Web/qxy接口定义文档2016-8-8/【千校云】bug列表.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mkq\svn\trunk\biz\MC-MSC-Web\qxy接口定义文档2016-8-8\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\svn\trunk\biz\MC-MSC-Web\qxy接口定义文档2016-8-8\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2686,10 +2686,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/qxy/studentrfidlist?studentId=[studetId]&amp;token=[token]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>139.196.101.78:8668/studentrfidlist?token=910820738640559462371283192</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2698,19 +2694,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/qxy/class/alarmlist?cid=[cid]&amp;token=[token]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>需要处理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>班级列表搜索接口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/qxy/classlist?cid=[cid]&amp;token=[token]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3895,6 +3883,18 @@
   </si>
   <si>
     <t>/qxy/securitylog?termId=[termId]&amp;studentId=[studentId]&amp;deviceId=[deviceId]&amp;startTime=[startTime]&amp;endTime=[endTime]&amp;page=[page]&amp;size=[size]&amp;token=[token]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/qxy/classlist/search?cid=[cid]&amp;token=[token]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/qxy/class/alarmlist/search?cid=[cid]&amp;token=[token]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/qxy/studentrfidlist/search?studentId=[studetId]&amp;token=[token]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4481,11 +4481,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1385741072"/>
-        <c:axId val="-1385731280"/>
+        <c:axId val="-739849952"/>
+        <c:axId val="-739845600"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1385741072"/>
+        <c:axId val="-739849952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4527,7 +4527,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1385731280"/>
+        <c:crossAx val="-739845600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4535,7 +4535,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1385731280"/>
+        <c:axId val="-739845600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4585,7 +4585,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1385741072"/>
+        <c:crossAx val="-739849952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8123,452 +8123,452 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="37" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="38" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" s="39" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" s="39" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" s="39" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" s="39" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" s="39" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" s="39" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9" s="39" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" s="39" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A11" s="39" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A12" s="39" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A13" s="39" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A14" s="38" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A15" s="39" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A16" s="39" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="39" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="39" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" s="39" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="39" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" s="38" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" s="39" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" s="39" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" s="39" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25" s="39" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A26" s="39" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A27" s="39" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A28" s="39" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A29" s="39" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A30" s="39" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A31" s="39" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A32" s="39" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A33" s="39" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A34" s="39" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A35" s="39" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A36" s="39" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A37" s="39" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A38" s="39" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A39" s="39" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A40" s="39" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A41" s="39" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A42" s="39" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A43" s="39" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A44" s="39" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A45" s="39" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A46" s="39" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A47" s="39" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A48" s="39" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A49" s="39" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A50" s="39" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A51" s="39" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A52" s="39" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A53" s="39" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A54" s="39" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A55" s="39" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A56" s="39" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A57" s="39" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A58" s="39" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A59" s="39" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A60" s="39" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A61" s="39" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A62" s="39" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A63" s="39" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A64" s="39" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A65" s="39" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A66" s="39" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A67" s="39" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A68" s="39" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A69" s="39" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A70" s="39" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A71" s="39" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A72" s="39" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A73" s="39" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A74" s="39" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A75" s="39" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A76" s="39" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A77" s="39" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A78" s="39" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A79" s="39" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A80" s="39" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A81" s="39" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A82" s="39" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A83" s="39" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A84" s="39" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A85" s="39" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A86" s="39" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A87" s="39" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A88" s="39" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A89" s="39" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A90" s="38" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
     </row>
   </sheetData>
@@ -8583,10 +8583,10 @@
   <dimension ref="A1:AL175"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H35" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H65" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G18" sqref="G18"/>
+      <selection pane="bottomRight" activeCell="G82" sqref="G82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -8621,7 +8621,7 @@
         <v>298</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>297</v>
@@ -8639,10 +8639,10 @@
         <v>352</v>
       </c>
       <c r="J1" s="36" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="K1" s="30" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="L1" s="25" t="s">
         <v>320</v>
@@ -8671,7 +8671,7 @@
         <v>292</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>291</v>
@@ -8686,7 +8686,7 @@
         <v>305</v>
       </c>
       <c r="J2" s="36" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>289</v>
@@ -8694,7 +8694,7 @@
     </row>
     <row r="3" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D3" s="23" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>288</v>
@@ -8703,7 +8703,7 @@
         <v>178</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="H3" s="24" t="s">
         <v>305</v>
@@ -8723,7 +8723,7 @@
     </row>
     <row r="4" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D4" s="23" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>286</v>
@@ -8738,12 +8738,12 @@
         <v>305</v>
       </c>
       <c r="J4" s="36" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
     </row>
     <row r="5" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D5" s="23" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>284</v>
@@ -8781,7 +8781,7 @@
         <v>282</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>281</v>
@@ -8790,7 +8790,7 @@
         <v>178</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="H6" s="24" t="s">
         <v>305</v>
@@ -8816,7 +8816,7 @@
     </row>
     <row r="7" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D7" s="23" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>280</v>
@@ -8825,7 +8825,7 @@
         <v>178</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="H7" s="24" t="s">
         <v>305</v>
@@ -8845,7 +8845,7 @@
     </row>
     <row r="8" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D8" s="23" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>279</v>
@@ -8854,7 +8854,7 @@
         <v>178</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="H8" s="24" t="s">
         <v>305</v>
@@ -8871,7 +8871,7 @@
     </row>
     <row r="9" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D9" s="23" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>278</v>
@@ -8880,7 +8880,7 @@
         <v>178</v>
       </c>
       <c r="G9" s="19" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H9" s="24" t="s">
         <v>305</v>
@@ -8897,7 +8897,7 @@
     </row>
     <row r="10" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D10" s="23" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>255</v>
@@ -8912,7 +8912,7 @@
         <v>305</v>
       </c>
       <c r="J10" s="36" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="P10" s="2" t="s">
         <v>277</v>
@@ -8920,7 +8920,7 @@
     </row>
     <row r="11" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D11" s="23" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>276</v>
@@ -8929,7 +8929,7 @@
         <v>178</v>
       </c>
       <c r="G11" s="19" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="H11" s="24" t="s">
         <v>305</v>
@@ -8949,7 +8949,7 @@
     </row>
     <row r="12" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D12" s="23" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>275</v>
@@ -8958,7 +8958,7 @@
         <v>178</v>
       </c>
       <c r="G12" s="19" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="H12" s="24" t="s">
         <v>305</v>
@@ -8987,7 +8987,7 @@
         <v>273</v>
       </c>
       <c r="D13" s="41" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>272</v>
@@ -8996,7 +8996,7 @@
         <v>178</v>
       </c>
       <c r="G13" s="19" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="H13" s="24" t="s">
         <v>305</v>
@@ -9019,7 +9019,7 @@
     </row>
     <row r="14" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D14" s="23" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>495</v>
@@ -9048,7 +9048,7 @@
     </row>
     <row r="15" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D15" s="23" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>270</v>
@@ -9063,7 +9063,7 @@
         <v>303</v>
       </c>
       <c r="J15" s="36" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="M15" s="25" t="s">
         <v>398</v>
@@ -9071,7 +9071,7 @@
     </row>
     <row r="16" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D16" s="23" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>269</v>
@@ -9100,7 +9100,7 @@
     </row>
     <row r="17" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D17" s="23" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>268</v>
@@ -9115,7 +9115,7 @@
         <v>303</v>
       </c>
       <c r="J17" s="36" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="M17" s="25" t="s">
         <v>325</v>
@@ -9123,7 +9123,7 @@
     </row>
     <row r="18" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D18" s="23" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>266</v>
@@ -9138,7 +9138,7 @@
         <v>305</v>
       </c>
       <c r="J18" s="36" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.15">
@@ -9146,7 +9146,7 @@
         <v>264</v>
       </c>
       <c r="D19" s="23" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>263</v>
@@ -9161,7 +9161,7 @@
         <v>303</v>
       </c>
       <c r="J19" s="36" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="L19" s="25" t="s">
         <v>491</v>
@@ -9172,7 +9172,7 @@
     </row>
     <row r="20" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D20" s="23" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>261</v>
@@ -9187,7 +9187,7 @@
         <v>303</v>
       </c>
       <c r="J20" s="36" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="L20" s="25" t="s">
         <v>353</v>
@@ -9201,7 +9201,7 @@
     </row>
     <row r="21" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D21" s="23" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>260</v>
@@ -9216,7 +9216,7 @@
         <v>303</v>
       </c>
       <c r="J21" s="36" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="L21" s="25" t="s">
         <v>354</v>
@@ -9227,7 +9227,7 @@
     </row>
     <row r="22" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D22" s="23" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>259</v>
@@ -9248,10 +9248,10 @@
         <v>355</v>
       </c>
       <c r="M22" s="25" t="s">
+        <v>827</v>
+      </c>
+      <c r="N22" s="24" t="s">
         <v>830</v>
-      </c>
-      <c r="N22" s="24" t="s">
-        <v>833</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -9265,7 +9265,7 @@
         <v>256</v>
       </c>
       <c r="D23" s="23" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>255</v>
@@ -9274,13 +9274,13 @@
         <v>178</v>
       </c>
       <c r="G23" s="19" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="I23" s="24" t="s">
         <v>312</v>
       </c>
       <c r="J23" s="36" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="L23" s="25" t="s">
         <v>473</v>
@@ -9294,7 +9294,7 @@
     </row>
     <row r="24" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D24" s="23" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>254</v>
@@ -9303,13 +9303,13 @@
         <v>178</v>
       </c>
       <c r="G24" s="19" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="I24" s="24" t="s">
         <v>312</v>
       </c>
       <c r="J24" s="36" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="L24" s="25" t="s">
         <v>469</v>
@@ -9323,7 +9323,7 @@
     </row>
     <row r="25" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D25" s="23" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>253</v>
@@ -9332,7 +9332,7 @@
         <v>178</v>
       </c>
       <c r="G25" s="19" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="H25" s="24" t="s">
         <v>303</v>
@@ -9355,7 +9355,7 @@
     </row>
     <row r="26" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D26" s="23" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>252</v>
@@ -9364,13 +9364,13 @@
         <v>7</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="H26" s="24" t="s">
         <v>303</v>
       </c>
       <c r="J26" s="36" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="L26" s="25" t="s">
         <v>465</v>
@@ -9384,7 +9384,7 @@
     </row>
     <row r="27" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D27" s="23" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>250</v>
@@ -9399,7 +9399,7 @@
         <v>303</v>
       </c>
       <c r="J27" s="36" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="L27" s="25" t="s">
         <v>516</v>
@@ -9413,7 +9413,7 @@
     </row>
     <row r="28" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D28" s="23" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>249</v>
@@ -9442,7 +9442,7 @@
     </row>
     <row r="29" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D29" s="23" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>248</v>
@@ -9465,7 +9465,7 @@
     </row>
     <row r="30" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D30" s="23" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>247</v>
@@ -9488,7 +9488,7 @@
     </row>
     <row r="31" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D31" s="23" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>245</v>
@@ -9503,7 +9503,7 @@
         <v>303</v>
       </c>
       <c r="J31" s="36" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="M31" s="25" t="s">
         <v>471</v>
@@ -9514,7 +9514,7 @@
     </row>
     <row r="32" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D32" s="23" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>195</v>
@@ -9526,12 +9526,12 @@
         <v>194</v>
       </c>
       <c r="J32" s="36" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
     </row>
     <row r="33" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D33" s="23" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>193</v>
@@ -9543,7 +9543,7 @@
         <v>192</v>
       </c>
       <c r="J33" s="36" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
     </row>
     <row r="34" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -9551,7 +9551,7 @@
         <v>243</v>
       </c>
       <c r="D34" s="23" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>242</v>
@@ -9566,7 +9566,7 @@
         <v>303</v>
       </c>
       <c r="J34" s="36" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="L34" s="25" t="s">
         <v>427</v>
@@ -9577,7 +9577,7 @@
     </row>
     <row r="35" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D35" s="23" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>241</v>
@@ -9592,13 +9592,13 @@
         <v>303</v>
       </c>
       <c r="J35" s="36" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="L35" s="25" t="s">
         <v>508</v>
       </c>
       <c r="M35" s="25" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="N35" s="24" t="s">
         <v>510</v>
@@ -9606,7 +9606,7 @@
     </row>
     <row r="36" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D36" s="23" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>240</v>
@@ -9621,13 +9621,13 @@
         <v>303</v>
       </c>
       <c r="J36" s="36" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="L36" s="25" t="s">
         <v>509</v>
       </c>
       <c r="M36" s="25" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="N36" s="24" t="s">
         <v>511</v>
@@ -9638,7 +9638,7 @@
         <v>238</v>
       </c>
       <c r="D37" s="23" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>237</v>
@@ -9653,7 +9653,7 @@
         <v>303</v>
       </c>
       <c r="J37" s="36" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="M37" s="25" t="s">
         <v>429</v>
@@ -9661,7 +9661,7 @@
     </row>
     <row r="38" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D38" s="23" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>236</v>
@@ -9676,7 +9676,7 @@
         <v>303</v>
       </c>
       <c r="J38" s="36" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="L38" s="25" t="s">
         <v>430</v>
@@ -9687,7 +9687,7 @@
     </row>
     <row r="39" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D39" s="23" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>235</v>
@@ -9702,13 +9702,13 @@
         <v>303</v>
       </c>
       <c r="J39" s="36" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="L39" s="25" t="s">
         <v>518</v>
       </c>
       <c r="M39" s="25" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="N39" s="24" t="s">
         <v>503</v>
@@ -9722,7 +9722,7 @@
         <v>232</v>
       </c>
       <c r="D40" s="23" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>231</v>
@@ -9731,7 +9731,7 @@
         <v>178</v>
       </c>
       <c r="G40" s="19" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="H40" s="24" t="s">
         <v>303</v>
@@ -9740,7 +9740,7 @@
         <v>312</v>
       </c>
       <c r="J40" s="36" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="M40" s="25" t="s">
         <v>477</v>
@@ -9748,7 +9748,7 @@
     </row>
     <row r="41" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D41" s="23" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>230</v>
@@ -9777,7 +9777,7 @@
     </row>
     <row r="42" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D42" s="23" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>229</v>
@@ -9792,7 +9792,7 @@
         <v>303</v>
       </c>
       <c r="J42" s="36" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="M42" s="25" t="s">
         <v>476</v>
@@ -9800,7 +9800,7 @@
     </row>
     <row r="43" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D43" s="23" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>227</v>
@@ -9809,7 +9809,7 @@
         <v>178</v>
       </c>
       <c r="G43" s="19" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="H43" s="24" t="s">
         <v>303</v>
@@ -9818,7 +9818,7 @@
         <v>312</v>
       </c>
       <c r="J43" s="36" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="L43" s="25" t="s">
         <v>475</v>
@@ -9829,7 +9829,7 @@
     </row>
     <row r="44" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D44" s="23" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>226</v>
@@ -9844,7 +9844,7 @@
         <v>303</v>
       </c>
       <c r="J44" s="36" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="M44" s="25" t="s">
         <v>481</v>
@@ -9858,7 +9858,7 @@
         <v>224</v>
       </c>
       <c r="D45" s="23" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>223</v>
@@ -9870,7 +9870,7 @@
         <v>222</v>
       </c>
       <c r="J45" s="36" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="L45" s="25" t="s">
         <v>432</v>
@@ -9881,7 +9881,7 @@
     </row>
     <row r="46" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D46" s="23" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="E46" s="5" t="s">
         <v>221</v>
@@ -9896,7 +9896,7 @@
         <v>303</v>
       </c>
       <c r="J46" s="36" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="M46" s="25" t="s">
         <v>398</v>
@@ -9904,7 +9904,7 @@
     </row>
     <row r="47" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D47" s="23" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>220</v>
@@ -9919,7 +9919,7 @@
         <v>303</v>
       </c>
       <c r="J47" s="36" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="L47" s="25" t="s">
         <v>431</v>
@@ -9930,7 +9930,7 @@
     </row>
     <row r="48" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D48" s="23" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>219</v>
@@ -9945,16 +9945,16 @@
         <v>303</v>
       </c>
       <c r="J48" s="36" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="L48" s="25" t="s">
         <v>519</v>
       </c>
       <c r="M48" s="25" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="N48" s="24" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
     </row>
     <row r="49" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -9962,7 +9962,7 @@
         <v>217</v>
       </c>
       <c r="D49" s="23" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>216</v>
@@ -9971,13 +9971,13 @@
         <v>178</v>
       </c>
       <c r="G49" s="20" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="I49" s="24" t="s">
         <v>312</v>
       </c>
       <c r="J49" s="36" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="L49" s="25" t="s">
         <v>435</v>
@@ -9994,7 +9994,7 @@
     </row>
     <row r="50" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D50" s="23" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>215</v>
@@ -10009,7 +10009,7 @@
         <v>303</v>
       </c>
       <c r="J50" s="36" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="L50" s="25" t="s">
         <v>433</v>
@@ -10020,7 +10020,7 @@
     </row>
     <row r="51" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D51" s="23" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="E51" s="5" t="s">
         <v>214</v>
@@ -10035,7 +10035,7 @@
         <v>303</v>
       </c>
       <c r="J51" s="36" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="L51" s="25" t="s">
         <v>434</v>
@@ -10046,7 +10046,7 @@
     </row>
     <row r="52" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D52" s="23" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="E52" s="5" t="s">
         <v>213</v>
@@ -10061,7 +10061,7 @@
         <v>303</v>
       </c>
       <c r="J52" s="36" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="L52" s="25" t="s">
         <v>520</v>
@@ -10075,7 +10075,7 @@
     </row>
     <row r="53" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D53" s="23" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="E53" s="5" t="s">
         <v>195</v>
@@ -10087,12 +10087,12 @@
         <v>194</v>
       </c>
       <c r="J53" s="36" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
     </row>
     <row r="54" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D54" s="23" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="E54" s="5" t="s">
         <v>193</v>
@@ -10104,7 +10104,7 @@
         <v>192</v>
       </c>
       <c r="J54" s="36" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
     </row>
     <row r="55" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10118,7 +10118,7 @@
         <v>211</v>
       </c>
       <c r="D55" s="23" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="E55" s="5" t="s">
         <v>210</v>
@@ -10132,7 +10132,7 @@
       <c r="H55" s="24"/>
       <c r="I55" s="24"/>
       <c r="J55" s="36" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="K55" s="30"/>
       <c r="L55" s="25"/>
@@ -10144,7 +10144,7 @@
     <row r="56" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="6"/>
       <c r="D56" s="23" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="E56" s="18" t="s">
         <v>208</v>
@@ -10153,7 +10153,7 @@
         <v>178</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="H56" s="24" t="s">
         <v>303</v>
@@ -10182,16 +10182,16 @@
     <row r="57" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="6"/>
       <c r="D57" s="23" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="E57" s="18" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="F57" s="4" t="s">
         <v>7</v>
       </c>
       <c r="G57" s="19" t="s">
-        <v>539</v>
+        <v>852</v>
       </c>
       <c r="H57" s="24" t="s">
         <v>303</v>
@@ -10218,7 +10218,7 @@
     <row r="58" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="6"/>
       <c r="D58" s="23" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="E58" s="5" t="s">
         <v>207</v>
@@ -10232,7 +10232,7 @@
       <c r="H58" s="24"/>
       <c r="I58" s="24"/>
       <c r="J58" s="36" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="K58" s="30"/>
       <c r="L58" s="25"/>
@@ -10248,7 +10248,7 @@
         <v>205</v>
       </c>
       <c r="D59" s="23" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="E59" s="5" t="s">
         <v>204</v>
@@ -10257,7 +10257,7 @@
         <v>178</v>
       </c>
       <c r="G59" s="19" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="H59" s="24" t="s">
         <v>303</v>
@@ -10288,7 +10288,7 @@
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
       <c r="D60" s="23" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="E60" s="5" t="s">
         <v>203</v>
@@ -10302,7 +10302,7 @@
       <c r="H60" s="24"/>
       <c r="I60" s="24"/>
       <c r="J60" s="36" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="K60" s="30"/>
       <c r="L60" s="25"/>
@@ -10316,7 +10316,7 @@
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
       <c r="D61" s="23" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="E61" s="5" t="s">
         <v>201</v>
@@ -10350,7 +10350,7 @@
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
       <c r="D62" s="23" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="E62" s="5" t="s">
         <v>200</v>
@@ -10388,7 +10388,7 @@
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
       <c r="D63" s="23" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="E63" s="5" t="s">
         <v>199</v>
@@ -10426,7 +10426,7 @@
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
       <c r="D64" s="23" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="E64" s="5" t="s">
         <v>197</v>
@@ -10464,7 +10464,7 @@
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
       <c r="D65" s="23" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="E65" s="5" t="s">
         <v>195</v>
@@ -10478,7 +10478,7 @@
       <c r="H65" s="24"/>
       <c r="I65" s="24"/>
       <c r="J65" s="36" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="K65" s="30"/>
       <c r="L65" s="25"/>
@@ -10492,7 +10492,7 @@
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
       <c r="D66" s="23" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="E66" s="5" t="s">
         <v>193</v>
@@ -10506,7 +10506,7 @@
       <c r="H66" s="24"/>
       <c r="I66" s="24"/>
       <c r="J66" s="36" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="K66" s="30"/>
       <c r="L66" s="25"/>
@@ -10522,7 +10522,7 @@
         <v>191</v>
       </c>
       <c r="D67" s="23" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="E67" s="5" t="s">
         <v>190</v>
@@ -10531,7 +10531,7 @@
         <v>178</v>
       </c>
       <c r="G67" s="21" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="H67" s="24" t="s">
         <v>305</v>
@@ -10540,7 +10540,7 @@
         <v>312</v>
       </c>
       <c r="J67" s="36" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="K67" s="30"/>
       <c r="L67" s="25"/>
@@ -10558,7 +10558,7 @@
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
       <c r="D68" s="23" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="E68" s="5" t="s">
         <v>188</v>
@@ -10567,14 +10567,14 @@
         <v>178</v>
       </c>
       <c r="G68" s="19" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="H68" s="24"/>
       <c r="I68" s="24" t="s">
         <v>312</v>
       </c>
       <c r="J68" s="36" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="K68" s="30"/>
       <c r="L68" s="25"/>
@@ -10592,7 +10592,7 @@
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
       <c r="D69" s="23" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="E69" s="5" t="s">
         <v>186</v>
@@ -10601,7 +10601,7 @@
         <v>178</v>
       </c>
       <c r="G69" s="20" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="H69" s="24" t="s">
         <v>303</v>
@@ -10610,12 +10610,12 @@
         <v>312</v>
       </c>
       <c r="J69" s="36" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="K69" s="30"/>
       <c r="L69" s="25"/>
       <c r="M69" s="25" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="N69" s="24" t="s">
         <v>341</v>
@@ -10630,7 +10630,7 @@
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
       <c r="D70" s="23" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="E70" s="5" t="s">
         <v>185</v>
@@ -10648,14 +10648,14 @@
         <v>312</v>
       </c>
       <c r="J70" s="36" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="K70" s="30"/>
       <c r="L70" s="25" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="M70" s="25" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="N70" s="24" t="s">
         <v>341</v>
@@ -10670,7 +10670,7 @@
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
       <c r="D71" s="23" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="E71" s="5" t="s">
         <v>184</v>
@@ -10686,11 +10686,11 @@
       </c>
       <c r="I71" s="24"/>
       <c r="J71" s="36" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="K71" s="30"/>
       <c r="L71" s="25" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="M71" s="25" t="s">
         <v>325</v>
@@ -10706,7 +10706,7 @@
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
       <c r="D72" s="23" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="E72" s="5" t="s">
         <v>182</v>
@@ -10724,14 +10724,14 @@
         <v>312</v>
       </c>
       <c r="J72" s="36" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="K72" s="30"/>
       <c r="L72" s="25" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="M72" s="25" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="N72" s="24" t="s">
         <v>345</v>
@@ -10746,7 +10746,7 @@
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
       <c r="D73" s="23" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="E73" s="5" t="s">
         <v>179</v>
@@ -10755,7 +10755,7 @@
         <v>178</v>
       </c>
       <c r="G73" s="21" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="H73" s="24"/>
       <c r="I73" s="24" t="s">
@@ -10782,7 +10782,7 @@
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
       <c r="D74" s="23" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="E74" s="5" t="s">
         <v>177</v>
@@ -10791,7 +10791,7 @@
         <v>176</v>
       </c>
       <c r="G74" s="11" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="H74" s="24"/>
       <c r="I74" s="24" t="s">
@@ -10818,7 +10818,7 @@
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
       <c r="D75" s="23" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="E75" s="5" t="s">
         <v>175</v>
@@ -10854,7 +10854,7 @@
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
       <c r="D76" s="23" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="E76" s="5" t="s">
         <v>173</v>
@@ -10892,7 +10892,7 @@
         <v>169</v>
       </c>
       <c r="D77" s="23" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="E77" s="5" t="s">
         <v>55</v>
@@ -10906,7 +10906,7 @@
       <c r="H77" s="24"/>
       <c r="I77" s="24"/>
       <c r="J77" s="36" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="K77" s="30"/>
       <c r="L77" s="25"/>
@@ -10920,7 +10920,7 @@
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
       <c r="D78" s="40" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="E78" s="5" t="s">
         <v>168</v>
@@ -10929,7 +10929,7 @@
         <v>7</v>
       </c>
       <c r="G78" s="20" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="H78" s="24" t="s">
         <v>305</v>
@@ -10942,13 +10942,13 @@
       </c>
       <c r="K78" s="30"/>
       <c r="L78" s="25" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="M78" s="25" t="s">
         <v>424</v>
       </c>
       <c r="N78" s="24" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="O78" s="34"/>
       <c r="P78" s="2" t="s">
@@ -10960,7 +10960,7 @@
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
       <c r="D79" s="23" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="E79" s="5" t="s">
         <v>167</v>
@@ -10969,7 +10969,7 @@
         <v>7</v>
       </c>
       <c r="G79" s="20" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="H79" s="24"/>
       <c r="I79" s="24" t="s">
@@ -10980,10 +10980,10 @@
       </c>
       <c r="K79" s="30"/>
       <c r="L79" s="25" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="M79" s="25" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="N79" s="24" t="s">
         <v>341</v>
@@ -10998,7 +10998,7 @@
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
       <c r="D80" s="23" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="E80" s="5" t="s">
         <v>166</v>
@@ -11012,7 +11012,7 @@
       <c r="H80" s="24"/>
       <c r="I80" s="24"/>
       <c r="J80" s="36" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="K80" s="30"/>
       <c r="L80" s="25"/>
@@ -11026,7 +11026,7 @@
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
       <c r="D81" s="23" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="E81" s="5" t="s">
         <v>164</v>
@@ -11040,7 +11040,7 @@
       <c r="H81" s="24"/>
       <c r="I81" s="24"/>
       <c r="J81" s="36" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="K81" s="30"/>
       <c r="L81" s="25"/>
@@ -11054,7 +11054,7 @@
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
       <c r="D82" s="23" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="E82" s="5" t="s">
         <v>162</v>
@@ -11068,7 +11068,7 @@
       <c r="H82" s="24"/>
       <c r="I82" s="24"/>
       <c r="J82" s="36" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="K82" s="30"/>
       <c r="L82" s="25"/>
@@ -11084,7 +11084,7 @@
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
       <c r="D83" s="23" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="E83" s="5" t="s">
         <v>159</v>
@@ -11098,7 +11098,7 @@
       <c r="H83" s="24"/>
       <c r="I83" s="24"/>
       <c r="J83" s="36" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="K83" s="30"/>
       <c r="L83" s="25"/>
@@ -11112,7 +11112,7 @@
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
       <c r="D84" s="23" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="E84" s="5" t="s">
         <v>157</v>
@@ -11148,7 +11148,7 @@
         <v>154</v>
       </c>
       <c r="D85" s="23" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="E85" s="5" t="s">
         <v>55</v>
@@ -11162,7 +11162,7 @@
       <c r="H85" s="24"/>
       <c r="I85" s="24"/>
       <c r="J85" s="36" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="K85" s="30"/>
       <c r="L85" s="25"/>
@@ -11176,7 +11176,7 @@
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
       <c r="D86" s="41" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="E86" s="16" t="s">
         <v>153</v>
@@ -11185,7 +11185,7 @@
         <v>85</v>
       </c>
       <c r="G86" s="19" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="H86" s="24" t="s">
         <v>305</v>
@@ -11214,7 +11214,7 @@
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
       <c r="D87" s="23" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="E87" s="5" t="s">
         <v>151</v>
@@ -11230,7 +11230,7 @@
       </c>
       <c r="I87" s="24"/>
       <c r="J87" s="36" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="K87" s="30"/>
       <c r="L87" s="25"/>
@@ -11246,7 +11246,7 @@
         <v>149</v>
       </c>
       <c r="D88" s="23" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="E88" s="5" t="s">
         <v>112</v>
@@ -11262,7 +11262,7 @@
       </c>
       <c r="I88" s="24"/>
       <c r="J88" s="36" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="K88" s="30"/>
       <c r="L88" s="25"/>
@@ -11276,7 +11276,7 @@
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
       <c r="D89" s="23" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="E89" s="5" t="s">
         <v>110</v>
@@ -11292,7 +11292,7 @@
       </c>
       <c r="I89" s="24"/>
       <c r="J89" s="36" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="K89" s="30"/>
       <c r="L89" s="25"/>
@@ -11306,7 +11306,7 @@
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
       <c r="D90" s="23" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="E90" s="5" t="s">
         <v>146</v>
@@ -11322,7 +11322,7 @@
       </c>
       <c r="I90" s="24"/>
       <c r="J90" s="36" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="K90" s="30"/>
       <c r="L90" s="25"/>
@@ -11336,7 +11336,7 @@
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
       <c r="D91" s="23" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="E91" s="5" t="s">
         <v>144</v>
@@ -11352,7 +11352,7 @@
       </c>
       <c r="I91" s="24"/>
       <c r="J91" s="36" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="K91" s="30"/>
       <c r="L91" s="25"/>
@@ -11368,7 +11368,7 @@
         <v>142</v>
       </c>
       <c r="D92" s="23" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="E92" s="16" t="s">
         <v>141</v>
@@ -11406,7 +11406,7 @@
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
       <c r="D93" s="23" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="E93" s="16" t="s">
         <v>140</v>
@@ -11442,7 +11442,7 @@
     <row r="94" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="6"/>
       <c r="D94" s="23" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="E94" s="16" t="s">
         <v>138</v>
@@ -11481,7 +11481,7 @@
         <v>136</v>
       </c>
       <c r="D95" s="23" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="E95" s="5" t="s">
         <v>135</v>
@@ -11497,7 +11497,7 @@
       </c>
       <c r="I95" s="24"/>
       <c r="J95" s="36" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="K95" s="30"/>
       <c r="L95" s="25"/>
@@ -11509,7 +11509,7 @@
     <row r="96" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="6"/>
       <c r="D96" s="23" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="E96" s="5" t="s">
         <v>134</v>
@@ -11525,7 +11525,7 @@
       </c>
       <c r="I96" s="24"/>
       <c r="J96" s="36" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="K96" s="30"/>
       <c r="L96" s="25"/>
@@ -11545,7 +11545,7 @@
         <v>131</v>
       </c>
       <c r="D97" s="23" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="E97" s="5" t="s">
         <v>130</v>
@@ -11561,7 +11561,7 @@
       </c>
       <c r="I97" s="24"/>
       <c r="J97" s="36" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="K97" s="30"/>
       <c r="L97" s="25" t="s">
@@ -11577,7 +11577,7 @@
     <row r="98" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="6"/>
       <c r="D98" s="41" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="E98" s="5" t="s">
         <v>129</v>
@@ -11586,7 +11586,7 @@
         <v>85</v>
       </c>
       <c r="G98" s="19" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="H98" s="24" t="s">
         <v>303</v>
@@ -11595,12 +11595,12 @@
         <v>312</v>
       </c>
       <c r="J98" s="36" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="K98" s="30"/>
       <c r="L98" s="25"/>
       <c r="M98" s="25" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="N98" s="24"/>
       <c r="O98" s="34"/>
@@ -11609,7 +11609,7 @@
     <row r="99" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="6"/>
       <c r="D99" s="23" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="E99" s="5" t="s">
         <v>128</v>
@@ -11641,7 +11641,7 @@
     <row r="100" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="6"/>
       <c r="D100" s="23" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="E100" s="5" t="s">
         <v>127</v>
@@ -11657,7 +11657,7 @@
       </c>
       <c r="I100" s="24"/>
       <c r="J100" s="36" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="K100" s="30"/>
       <c r="L100" s="25"/>
@@ -11671,7 +11671,7 @@
     <row r="101" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="6"/>
       <c r="D101" s="23" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="E101" s="5" t="s">
         <v>126</v>
@@ -11687,7 +11687,7 @@
       </c>
       <c r="I101" s="24"/>
       <c r="J101" s="36" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="K101" s="30"/>
       <c r="L101" s="25"/>
@@ -11704,7 +11704,7 @@
         <v>124</v>
       </c>
       <c r="D102" s="23" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="E102" s="5" t="s">
         <v>123</v>
@@ -11720,14 +11720,14 @@
       </c>
       <c r="I102" s="24"/>
       <c r="J102" s="36" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="K102" s="30"/>
       <c r="L102" s="28" t="s">
         <v>492</v>
       </c>
       <c r="M102" s="27" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="N102" s="24"/>
       <c r="O102" s="34"/>
@@ -11736,7 +11736,7 @@
     <row r="103" spans="1:16" s="5" customFormat="1" ht="80.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="6"/>
       <c r="D103" s="23" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="E103" s="5" t="s">
         <v>121</v>
@@ -11770,7 +11770,7 @@
     <row r="104" spans="1:16" s="5" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="6"/>
       <c r="D104" s="23" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="E104" s="5" t="s">
         <v>119</v>
@@ -11804,7 +11804,7 @@
     <row r="105" spans="1:16" s="5" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="6"/>
       <c r="D105" s="23" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E105" s="5" t="s">
         <v>117</v>
@@ -11820,7 +11820,7 @@
       </c>
       <c r="I105" s="24"/>
       <c r="J105" s="36" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="K105" s="30"/>
       <c r="L105" s="25" t="s">
@@ -11844,7 +11844,7 @@
         <v>113</v>
       </c>
       <c r="D106" s="23" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="E106" s="5" t="s">
         <v>112</v>
@@ -11860,7 +11860,7 @@
       </c>
       <c r="I106" s="24"/>
       <c r="J106" s="36" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="K106" s="30"/>
       <c r="L106" s="25" t="s">
@@ -11876,7 +11876,7 @@
     <row r="107" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="6"/>
       <c r="D107" s="23" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="E107" s="5" t="s">
         <v>110</v>
@@ -11885,7 +11885,7 @@
         <v>85</v>
       </c>
       <c r="G107" s="22" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="H107" s="24" t="s">
         <v>303</v>
@@ -11894,7 +11894,7 @@
         <v>312</v>
       </c>
       <c r="J107" s="36" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="K107" s="30"/>
       <c r="L107" s="25" t="s">
@@ -11912,7 +11912,7 @@
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
       <c r="D108" s="23" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="E108" s="5" t="s">
         <v>109</v>
@@ -11948,7 +11948,7 @@
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
       <c r="D109" s="23" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="E109" s="5" t="s">
         <v>108</v>
@@ -11964,7 +11964,7 @@
       </c>
       <c r="I109" s="24"/>
       <c r="J109" s="36" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="K109" s="30"/>
       <c r="L109" s="25" t="s">
@@ -11982,7 +11982,7 @@
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
       <c r="D110" s="23" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="E110" s="5" t="s">
         <v>106</v>
@@ -11998,7 +11998,7 @@
       </c>
       <c r="I110" s="24"/>
       <c r="J110" s="36" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="K110" s="30"/>
       <c r="L110" s="25" t="s">
@@ -12018,7 +12018,7 @@
         <v>104</v>
       </c>
       <c r="D111" s="23" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="E111" s="5" t="s">
         <v>103</v>
@@ -12034,7 +12034,7 @@
       </c>
       <c r="I111" s="24"/>
       <c r="J111" s="36" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="K111" s="30"/>
       <c r="L111" s="25" t="s">
@@ -12052,7 +12052,7 @@
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
       <c r="D112" s="23" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="E112" s="5" t="s">
         <v>102</v>
@@ -12090,7 +12090,7 @@
       <c r="B113" s="5"/>
       <c r="C113" s="5"/>
       <c r="D113" s="23" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="E113" s="5" t="s">
         <v>101</v>
@@ -12126,7 +12126,7 @@
       <c r="B114" s="5"/>
       <c r="C114" s="5"/>
       <c r="D114" s="23" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="E114" s="5" t="s">
         <v>98</v>
@@ -12142,7 +12142,7 @@
       </c>
       <c r="I114" s="24"/>
       <c r="J114" s="36" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="K114" s="30"/>
       <c r="L114" s="25"/>
@@ -12160,7 +12160,7 @@
         <v>96</v>
       </c>
       <c r="D115" s="23" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="E115" s="5" t="s">
         <v>95</v>
@@ -12176,7 +12176,7 @@
       </c>
       <c r="I115" s="24"/>
       <c r="J115" s="36" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="K115" s="30"/>
       <c r="L115" s="25"/>
@@ -12192,7 +12192,7 @@
       <c r="B116" s="5"/>
       <c r="C116" s="5"/>
       <c r="D116" s="23" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="E116" s="5" t="s">
         <v>94</v>
@@ -12208,7 +12208,7 @@
       </c>
       <c r="I116" s="24"/>
       <c r="J116" s="36" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="K116" s="30"/>
       <c r="L116" s="25" t="s">
@@ -12226,7 +12226,7 @@
       <c r="B117" s="5"/>
       <c r="C117" s="5"/>
       <c r="D117" s="23" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="E117" s="5" t="s">
         <v>92</v>
@@ -12242,7 +12242,7 @@
       </c>
       <c r="I117" s="24"/>
       <c r="J117" s="36" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="K117" s="30"/>
       <c r="L117" s="25"/>
@@ -12264,7 +12264,7 @@
         <v>89</v>
       </c>
       <c r="D118" s="23" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="E118" s="5" t="s">
         <v>55</v>
@@ -12280,7 +12280,7 @@
       </c>
       <c r="I118" s="24"/>
       <c r="J118" s="36" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="K118" s="30"/>
       <c r="L118" s="25"/>
@@ -12294,7 +12294,7 @@
       <c r="B119" s="5"/>
       <c r="C119" s="5"/>
       <c r="D119" s="23" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="E119" s="5" t="s">
         <v>88</v>
@@ -12303,7 +12303,7 @@
         <v>85</v>
       </c>
       <c r="G119" s="19" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="H119" s="24" t="s">
         <v>303</v>
@@ -12312,14 +12312,14 @@
         <v>312</v>
       </c>
       <c r="J119" s="36" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="K119" s="30"/>
       <c r="L119" s="25" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="M119" s="25" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="N119" s="24"/>
       <c r="O119" s="34"/>
@@ -12332,7 +12332,7 @@
       <c r="B120" s="5"/>
       <c r="C120" s="41"/>
       <c r="D120" s="40" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="E120" s="5" t="s">
         <v>86</v>
@@ -12341,7 +12341,7 @@
         <v>85</v>
       </c>
       <c r="G120" s="19" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="H120" s="24" t="s">
         <v>303</v>
@@ -12350,17 +12350,17 @@
         <v>312</v>
       </c>
       <c r="J120" s="36" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="K120" s="30"/>
       <c r="L120" s="25" t="s">
         <v>443</v>
       </c>
       <c r="M120" s="25" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="N120" s="24" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="O120" s="34"/>
       <c r="P120" s="2" t="s">
@@ -12374,7 +12374,7 @@
         <v>84</v>
       </c>
       <c r="D121" s="23" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="E121" s="5" t="s">
         <v>55</v>
@@ -12390,7 +12390,7 @@
       </c>
       <c r="I121" s="24"/>
       <c r="J121" s="36" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="K121" s="30"/>
       <c r="L121" s="25"/>
@@ -12404,7 +12404,7 @@
       <c r="B122" s="5"/>
       <c r="C122" s="5"/>
       <c r="D122" s="40" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="E122" s="18" t="s">
         <v>83</v>
@@ -12413,7 +12413,7 @@
         <v>7</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="H122" s="24" t="s">
         <v>303</v>
@@ -12428,7 +12428,7 @@
       <c r="L122" s="25"/>
       <c r="M122" s="25"/>
       <c r="N122" s="24" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="O122" s="34"/>
       <c r="P122" s="2" t="s">
@@ -12440,16 +12440,16 @@
       <c r="B123" s="5"/>
       <c r="C123" s="5"/>
       <c r="D123" s="23" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="E123" s="18" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="F123" s="4" t="s">
         <v>7</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>536</v>
+        <v>853</v>
       </c>
       <c r="H123" s="24" t="s">
         <v>303</v>
@@ -12476,7 +12476,7 @@
       <c r="B124" s="5"/>
       <c r="C124" s="5"/>
       <c r="D124" s="23" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="E124" s="5" t="s">
         <v>81</v>
@@ -12485,18 +12485,18 @@
         <v>7</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="H124" s="24" t="s">
         <v>303</v>
       </c>
       <c r="I124" s="24"/>
       <c r="J124" s="36" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="K124" s="30"/>
       <c r="L124" s="25" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="M124" s="25" t="s">
         <v>466</v>
@@ -12510,7 +12510,7 @@
       <c r="B125" s="5"/>
       <c r="C125" s="5"/>
       <c r="D125" s="23" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="E125" s="5" t="s">
         <v>80</v>
@@ -12526,7 +12526,7 @@
       </c>
       <c r="I125" s="24"/>
       <c r="J125" s="36" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="K125" s="30"/>
       <c r="L125" s="25" t="s">
@@ -12544,7 +12544,7 @@
       <c r="B126" s="5"/>
       <c r="C126" s="5"/>
       <c r="D126" s="23" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="E126" s="5" t="s">
         <v>79</v>
@@ -12578,7 +12578,7 @@
       <c r="B127" s="5"/>
       <c r="C127" s="5"/>
       <c r="D127" s="23" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="E127" s="5" t="s">
         <v>78</v>
@@ -12612,7 +12612,7 @@
       <c r="B128" s="5"/>
       <c r="C128" s="5"/>
       <c r="D128" s="23" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="E128" s="5" t="s">
         <v>76</v>
@@ -12648,7 +12648,7 @@
         <v>75</v>
       </c>
       <c r="D129" s="23" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="E129" s="5" t="s">
         <v>55</v>
@@ -12664,7 +12664,7 @@
       </c>
       <c r="I129" s="24"/>
       <c r="J129" s="36" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="K129" s="30"/>
       <c r="L129" s="25"/>
@@ -12678,7 +12678,7 @@
       <c r="B130" s="5"/>
       <c r="C130" s="5"/>
       <c r="D130" s="40" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="E130" s="18" t="s">
         <v>73</v>
@@ -12687,7 +12687,7 @@
         <v>7</v>
       </c>
       <c r="G130" s="13" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="H130" s="24" t="s">
         <v>303</v>
@@ -12696,17 +12696,17 @@
         <v>312</v>
       </c>
       <c r="J130" s="36" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="K130" s="30"/>
       <c r="L130" s="25" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="M130" s="25" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="N130" s="24" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="O130" s="34"/>
       <c r="P130" s="2" t="s">
@@ -12718,7 +12718,7 @@
       <c r="B131" s="5"/>
       <c r="C131" s="5"/>
       <c r="D131" s="23" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="E131" s="18" t="s">
         <v>532</v>
@@ -12727,7 +12727,7 @@
         <v>7</v>
       </c>
       <c r="G131" s="13" t="s">
-        <v>533</v>
+        <v>854</v>
       </c>
       <c r="H131" s="24" t="s">
         <v>303</v>
@@ -12756,7 +12756,7 @@
       <c r="B132" s="5"/>
       <c r="C132" s="5"/>
       <c r="D132" s="23" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="E132" s="5" t="s">
         <v>72</v>
@@ -12772,7 +12772,7 @@
       </c>
       <c r="I132" s="24"/>
       <c r="J132" s="36" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="K132" s="30"/>
       <c r="L132" s="25" t="s">
@@ -12790,7 +12790,7 @@
       <c r="B133" s="5"/>
       <c r="C133" s="5"/>
       <c r="D133" s="23" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="E133" s="5" t="s">
         <v>71</v>
@@ -12806,7 +12806,7 @@
       </c>
       <c r="I133" s="24"/>
       <c r="J133" s="36" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="K133" s="30"/>
       <c r="L133" s="25"/>
@@ -12822,7 +12822,7 @@
       <c r="B134" s="5"/>
       <c r="C134" s="5"/>
       <c r="D134" s="23" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="E134" s="5" t="s">
         <v>70</v>
@@ -12838,7 +12838,7 @@
       </c>
       <c r="I134" s="24"/>
       <c r="J134" s="36" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="K134" s="30"/>
       <c r="L134" s="25"/>
@@ -12854,7 +12854,7 @@
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
       <c r="D135" s="23" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="E135" s="18" t="s">
         <v>528</v>
@@ -12870,7 +12870,7 @@
       </c>
       <c r="I135" s="24"/>
       <c r="J135" s="36" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="K135" s="30"/>
       <c r="L135" s="25"/>
@@ -12884,7 +12884,7 @@
       <c r="B136" s="5"/>
       <c r="C136" s="5"/>
       <c r="D136" s="23" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="E136" s="18" t="s">
         <v>529</v>
@@ -12922,7 +12922,7 @@
         <v>67</v>
       </c>
       <c r="D137" s="23" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="E137" s="5" t="s">
         <v>66</v>
@@ -12938,7 +12938,7 @@
       </c>
       <c r="I137" s="24"/>
       <c r="J137" s="36" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="K137" s="30"/>
       <c r="L137" s="25"/>
@@ -12954,7 +12954,7 @@
         <v>64</v>
       </c>
       <c r="D138" s="23" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="E138" s="5" t="s">
         <v>63</v>
@@ -12970,14 +12970,14 @@
       </c>
       <c r="I138" s="24"/>
       <c r="J138" s="36" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="K138" s="30"/>
       <c r="L138" s="25" t="s">
         <v>327</v>
       </c>
       <c r="M138" s="27" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="N138" s="24"/>
       <c r="O138" s="34"/>
@@ -12990,7 +12990,7 @@
       <c r="B139" s="5"/>
       <c r="C139" s="5"/>
       <c r="D139" s="23" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="E139" s="5" t="s">
         <v>60</v>
@@ -13006,7 +13006,7 @@
       </c>
       <c r="I139" s="24"/>
       <c r="J139" s="36" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="K139" s="32"/>
       <c r="L139" s="27" t="s">
@@ -13024,7 +13024,7 @@
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
       <c r="D140" s="23" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="E140" s="5" t="s">
         <v>59</v>
@@ -13040,7 +13040,7 @@
       </c>
       <c r="I140" s="24"/>
       <c r="J140" s="36" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="K140" s="30"/>
       <c r="L140" s="25" t="s">
@@ -13050,7 +13050,7 @@
         <v>314</v>
       </c>
       <c r="N140" s="24" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="O140" s="34"/>
       <c r="P140" s="2"/>
@@ -13060,7 +13060,7 @@
       <c r="B141" s="5"/>
       <c r="C141" s="5"/>
       <c r="D141" s="23" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="E141" s="5" t="s">
         <v>58</v>
@@ -13076,7 +13076,7 @@
       </c>
       <c r="I141" s="24"/>
       <c r="J141" s="36" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="K141" s="30"/>
       <c r="L141" s="25" t="s">
@@ -13096,7 +13096,7 @@
         <v>56</v>
       </c>
       <c r="D142" s="23" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="E142" s="5" t="s">
         <v>55</v>
@@ -13112,7 +13112,7 @@
       </c>
       <c r="I142" s="24"/>
       <c r="J142" s="36" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="K142" s="33"/>
       <c r="L142" s="28"/>
@@ -13128,7 +13128,7 @@
       <c r="B143" s="5"/>
       <c r="C143" s="5"/>
       <c r="D143" s="40" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="E143" s="5" t="s">
         <v>54</v>
@@ -13137,7 +13137,7 @@
         <v>7</v>
       </c>
       <c r="G143" s="15" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="H143" s="24" t="s">
         <v>303</v>
@@ -13156,7 +13156,7 @@
         <v>494</v>
       </c>
       <c r="N143" s="24" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="O143" s="34"/>
       <c r="P143" s="2" t="s">
@@ -13168,7 +13168,7 @@
       <c r="B144" s="5"/>
       <c r="C144" s="5"/>
       <c r="D144" s="23" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="E144" s="5" t="s">
         <v>521</v>
@@ -13196,7 +13196,7 @@
         <v>424</v>
       </c>
       <c r="N144" s="24" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="O144" s="34"/>
       <c r="P144" s="2" t="s">
@@ -13208,7 +13208,7 @@
       <c r="B145" s="5"/>
       <c r="C145" s="5"/>
       <c r="D145" s="23" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="E145" s="5" t="s">
         <v>53</v>
@@ -13224,7 +13224,7 @@
       </c>
       <c r="I145" s="24"/>
       <c r="J145" s="36" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="K145" s="34"/>
       <c r="L145" s="24" t="s">
@@ -13242,7 +13242,7 @@
       <c r="B146" s="5"/>
       <c r="C146" s="5"/>
       <c r="D146" s="23" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="E146" s="5" t="s">
         <v>52</v>
@@ -13258,7 +13258,7 @@
       </c>
       <c r="I146" s="24"/>
       <c r="J146" s="36" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="K146" s="30"/>
       <c r="L146" s="25" t="s">
@@ -13276,7 +13276,7 @@
       <c r="B147" s="5"/>
       <c r="C147" s="5"/>
       <c r="D147" s="23" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="E147" s="5" t="s">
         <v>51</v>
@@ -13292,7 +13292,7 @@
       </c>
       <c r="I147" s="24"/>
       <c r="J147" s="36" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="K147" s="30"/>
       <c r="L147" s="25" t="s">
@@ -13310,7 +13310,7 @@
       <c r="B148" s="5"/>
       <c r="C148" s="5"/>
       <c r="D148" s="23" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="E148" s="5" t="s">
         <v>49</v>
@@ -13348,7 +13348,7 @@
         <v>47</v>
       </c>
       <c r="D149" s="40" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="E149" s="5" t="s">
         <v>46</v>
@@ -13357,7 +13357,7 @@
         <v>7</v>
       </c>
       <c r="G149" s="9" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="H149" s="24" t="s">
         <v>303</v>
@@ -13376,7 +13376,7 @@
         <v>317</v>
       </c>
       <c r="N149" s="24" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="O149" s="34"/>
       <c r="P149" s="2" t="s">
@@ -13388,7 +13388,7 @@
       <c r="B150" s="5"/>
       <c r="C150" s="5"/>
       <c r="D150" s="23" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="E150" s="5" t="s">
         <v>524</v>
@@ -13397,7 +13397,7 @@
         <v>7</v>
       </c>
       <c r="G150" s="9" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="H150" s="24" t="s">
         <v>303</v>
@@ -13428,7 +13428,7 @@
       <c r="B151" s="5"/>
       <c r="C151" s="5"/>
       <c r="D151" s="23" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="E151" s="5" t="s">
         <v>45</v>
@@ -13444,7 +13444,7 @@
       </c>
       <c r="I151" s="24"/>
       <c r="J151" s="36" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="K151" s="34"/>
       <c r="L151" s="24" t="s">
@@ -13462,7 +13462,7 @@
       <c r="B152" s="5"/>
       <c r="C152" s="5"/>
       <c r="D152" s="23" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="E152" s="5" t="s">
         <v>44</v>
@@ -13478,7 +13478,7 @@
       </c>
       <c r="I152" s="24"/>
       <c r="J152" s="36" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="K152" s="30"/>
       <c r="L152" s="25" t="s">
@@ -13496,7 +13496,7 @@
       <c r="B153" s="5"/>
       <c r="C153" s="5"/>
       <c r="D153" s="23" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="E153" s="5" t="s">
         <v>42</v>
@@ -13532,7 +13532,7 @@
       <c r="B154" s="5"/>
       <c r="C154" s="5"/>
       <c r="D154" s="23" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="E154" s="5" t="s">
         <v>40</v>
@@ -13548,7 +13548,7 @@
       </c>
       <c r="I154" s="24"/>
       <c r="J154" s="36" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="K154" s="30"/>
       <c r="L154" s="25" t="s">
@@ -13568,7 +13568,7 @@
       <c r="B155" s="5"/>
       <c r="C155" s="5"/>
       <c r="D155" s="23" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="E155" s="5" t="s">
         <v>37</v>
@@ -13584,7 +13584,7 @@
       </c>
       <c r="I155" s="24"/>
       <c r="J155" s="36" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="K155" s="31"/>
       <c r="L155" s="26" t="s">
@@ -13602,7 +13602,7 @@
       <c r="B156" s="5"/>
       <c r="C156" s="5"/>
       <c r="D156" s="23" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="E156" s="5" t="s">
         <v>36</v>
@@ -13618,7 +13618,7 @@
       </c>
       <c r="I156" s="24"/>
       <c r="J156" s="36" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="K156" s="30"/>
       <c r="L156" s="25" t="s">
@@ -13636,7 +13636,7 @@
       <c r="B157" s="5"/>
       <c r="C157" s="5"/>
       <c r="D157" s="23" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="E157" s="5" t="s">
         <v>35</v>
@@ -13652,7 +13652,7 @@
       </c>
       <c r="I157" s="24"/>
       <c r="J157" s="36" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="K157" s="30"/>
       <c r="L157" s="25"/>
@@ -13668,7 +13668,7 @@
       <c r="B158" s="5"/>
       <c r="C158" s="5"/>
       <c r="D158" s="23" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="E158" s="5" t="s">
         <v>33</v>
@@ -13684,7 +13684,7 @@
       </c>
       <c r="I158" s="24"/>
       <c r="J158" s="36" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="K158" s="30"/>
       <c r="L158" s="25" t="s">
@@ -13702,7 +13702,7 @@
       <c r="B159" s="5"/>
       <c r="C159" s="5"/>
       <c r="D159" s="23" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="E159" s="5" t="s">
         <v>32</v>
@@ -13736,7 +13736,7 @@
       <c r="B160" s="5"/>
       <c r="C160" s="5"/>
       <c r="D160" s="23" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="E160" s="5" t="s">
         <v>31</v>
@@ -13772,7 +13772,7 @@
         <v>29</v>
       </c>
       <c r="D161" s="23" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="E161" s="5" t="s">
         <v>28</v>
@@ -13788,14 +13788,14 @@
       </c>
       <c r="I161" s="24"/>
       <c r="J161" s="36" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="K161" s="30"/>
       <c r="L161" s="25" t="s">
         <v>334</v>
       </c>
       <c r="M161" s="27" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="N161" s="24"/>
       <c r="O161" s="34"/>
@@ -13808,7 +13808,7 @@
       <c r="B162" s="5"/>
       <c r="C162" s="5"/>
       <c r="D162" s="23" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="E162" s="5" t="s">
         <v>25</v>
@@ -13824,7 +13824,7 @@
       </c>
       <c r="I162" s="24"/>
       <c r="J162" s="36" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="K162" s="32"/>
       <c r="L162" s="27" t="s">
@@ -13842,7 +13842,7 @@
       <c r="B163" s="5"/>
       <c r="C163" s="5"/>
       <c r="D163" s="23" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="E163" s="5" t="s">
         <v>24</v>
@@ -13858,7 +13858,7 @@
       </c>
       <c r="I163" s="24"/>
       <c r="J163" s="36" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="K163" s="32"/>
       <c r="L163" s="27" t="s">
@@ -13876,7 +13876,7 @@
       <c r="B164" s="5"/>
       <c r="C164" s="5"/>
       <c r="D164" s="23" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="E164" s="5" t="s">
         <v>23</v>
@@ -13912,7 +13912,7 @@
         <v>21</v>
       </c>
       <c r="D165" s="23" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="E165" s="5" t="s">
         <v>20</v>
@@ -13928,17 +13928,17 @@
       </c>
       <c r="I165" s="24"/>
       <c r="J165" s="36" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="K165" s="30"/>
       <c r="L165" s="28" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="M165" s="27" t="s">
         <v>319</v>
       </c>
       <c r="N165" s="24" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="O165" s="34"/>
       <c r="P165" s="2"/>
@@ -13948,7 +13948,7 @@
       <c r="B166" s="5"/>
       <c r="C166" s="5"/>
       <c r="D166" s="23" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="E166" s="5" t="s">
         <v>18</v>
@@ -13964,7 +13964,7 @@
       </c>
       <c r="I166" s="24"/>
       <c r="J166" s="36" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="K166" s="34"/>
       <c r="L166" s="24" t="s">
@@ -13982,7 +13982,7 @@
       <c r="B167" s="5"/>
       <c r="C167" s="5"/>
       <c r="D167" s="23" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="E167" s="5" t="s">
         <v>17</v>
@@ -13998,7 +13998,7 @@
       </c>
       <c r="I167" s="24"/>
       <c r="J167" s="36" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="K167" s="31"/>
       <c r="L167" s="26" t="s">
@@ -14016,7 +14016,7 @@
       <c r="B168" s="5"/>
       <c r="C168" s="5"/>
       <c r="D168" s="23" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="E168" s="5" t="s">
         <v>16</v>
@@ -14050,7 +14050,7 @@
       <c r="B169" s="5"/>
       <c r="C169" s="5"/>
       <c r="D169" s="23" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="E169" s="5" t="s">
         <v>14</v>
@@ -14059,7 +14059,7 @@
         <v>7</v>
       </c>
       <c r="G169" s="21" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="H169" s="24" t="s">
         <v>303</v>
@@ -14068,7 +14068,7 @@
         <v>312</v>
       </c>
       <c r="J169" s="36" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="K169" s="30"/>
       <c r="L169" s="25" t="s">
@@ -14090,10 +14090,10 @@
       <c r="B170" s="5"/>
       <c r="C170" s="5"/>
       <c r="D170" s="23" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="E170" s="5" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="F170" s="4"/>
       <c r="G170" s="21"/>
@@ -14126,7 +14126,7 @@
       <c r="H171" s="24"/>
       <c r="I171" s="24"/>
       <c r="J171" s="36" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="K171" s="30"/>
       <c r="L171" s="25"/>
@@ -14146,7 +14146,7 @@
         <v>9</v>
       </c>
       <c r="D172" s="23" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="E172" s="16" t="s">
         <v>8</v>
@@ -14155,7 +14155,7 @@
         <v>7</v>
       </c>
       <c r="G172" s="22" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="H172" s="24" t="s">
         <v>305</v>
@@ -14177,7 +14177,7 @@
     </row>
     <row r="173" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D173" s="23" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="E173" s="16" t="s">
         <v>6</v>
@@ -14206,7 +14206,7 @@
     </row>
     <row r="174" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D174" s="23" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="E174" s="16" t="s">
         <v>4</v>
@@ -14235,7 +14235,7 @@
     </row>
     <row r="175" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D175" s="23" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="E175" s="16" t="s">
         <v>2</v>

--- a/trunk/biz/MC-MSC-Web/qxy接口定义文档2016-8-8/【千校云】bug列表.xlsx
+++ b/trunk/biz/MC-MSC-Web/qxy接口定义文档2016-8-8/【千校云】bug列表.xlsx
@@ -111,7 +111,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1619" uniqueCount="922">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1619" uniqueCount="923">
   <si>
     <t>/qxy/trip</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1692,16 +1692,6 @@
   <si>
     <t>{
     "token":"910820738640559462371283192",
-    "cid":"1",
-    "gradeId":"1",   
-    "className": "三班",   
-    "year": "2016"
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "token":"910820738640559462371283192",
     "cid":"1"
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2397,10 +2387,6 @@
   </si>
   <si>
     <t>学校班级搜索接口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://139.196.101.78:8668/class?page=1&amp;size=1&amp;token=910820738640559462371283192</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3472,14 +3458,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/qxy/class?termId=[termId]&amp;page=[page]&amp;size=[size]&amp;token=[token]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/qxy/studentrfidlist?termId=[termId]&amp;page=[page]&amp;size=[size]&amp;token=[token]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/qxy/class/student/parent/list?studentId=[studentId]&amp;type=[type]&amp;token=[token]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3759,10 +3737,6 @@
   </si>
   <si>
     <t>已测试ok</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/qxy/myapplication?tid=[tid]&amp;token=[token]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -4180,6 +4154,36 @@
   </si>
   <si>
     <t>/qxy/trip?tid=[tid]&amp;date=[date]&amp;page=[page]&amp;size=[size]&amp;token=[token]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/qxy/class?termId=[termId]&amp;page=[page]&amp;size=[size]&amp;token=[token]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://139.196.101.78:8668/class?page=1&amp;size=1&amp;token=910820738640559462371283192</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/qxy/myapplication?tid=[tid]&amp;token=[token]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/qxy/studentrfidlist?termId=[termId]&amp;cid=[cid]&amp;page=[page]&amp;size=[size]&amp;token=[token]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学校学期年级班级查询接口（通用）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "token":"910820738640559462371283192",
+    "cid":"1",
+    "gradeId":"1",   
+    "className": "三班",   
+    "year": "2016"
+}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4790,11 +4794,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1028554688"/>
-        <c:axId val="-1028554144"/>
+        <c:axId val="-772910560"/>
+        <c:axId val="-772902944"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1028554688"/>
+        <c:axId val="-772910560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4836,7 +4840,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1028554144"/>
+        <c:crossAx val="-772902944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4844,7 +4848,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1028554144"/>
+        <c:axId val="-772902944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4894,7 +4898,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1028554688"/>
+        <c:crossAx val="-772910560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8432,452 +8436,452 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="37" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="38" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" s="39" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" s="39" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" s="39" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" s="39" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" s="39" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" s="39" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9" s="39" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" s="39" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A11" s="39" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A12" s="39" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A13" s="39" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A14" s="38" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A15" s="39" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A16" s="39" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="39" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="39" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" s="39" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="39" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" s="38" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" s="39" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" s="39" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" s="39" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25" s="39" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A26" s="39" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A27" s="39" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A28" s="39" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A29" s="39" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A30" s="39" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A31" s="39" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A32" s="39" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A33" s="39" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A34" s="39" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A35" s="39" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A36" s="39" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A37" s="39" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A38" s="39" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A39" s="39" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A40" s="39" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A41" s="39" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A42" s="39" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A43" s="39" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A44" s="39" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A45" s="39" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A46" s="39" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A47" s="39" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A48" s="39" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A49" s="39" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A50" s="39" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A51" s="39" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A52" s="39" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A53" s="39" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A54" s="39" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A55" s="39" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A56" s="39" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A57" s="39" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A58" s="39" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A59" s="39" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A60" s="39" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A61" s="39" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A62" s="39" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A63" s="39" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A64" s="39" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A65" s="39" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A66" s="39" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A67" s="39" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A68" s="39" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A69" s="39" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A70" s="39" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A71" s="39" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A72" s="39" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A73" s="39" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A74" s="39" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A75" s="39" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A76" s="39" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A77" s="39" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A78" s="39" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A79" s="39" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A80" s="39" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A81" s="39" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A82" s="39" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A83" s="39" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A84" s="39" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A85" s="39" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A86" s="39" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A87" s="39" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A88" s="39" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A89" s="39" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A90" s="38" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
   </sheetData>
@@ -8889,14 +8893,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:AL175"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H134" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K79" sqref="K79"/>
+      <selection pane="bottomRight" activeCell="J145" sqref="J145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -8931,7 +8934,7 @@
         <v>293</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>292</v>
@@ -8949,10 +8952,10 @@
         <v>344</v>
       </c>
       <c r="J1" s="36" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="K1" s="30" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="L1" s="25" t="s">
         <v>315</v>
@@ -8970,7 +8973,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="2" spans="1:38" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -8981,7 +8984,7 @@
         <v>287</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>286</v>
@@ -8996,7 +8999,7 @@
         <v>300</v>
       </c>
       <c r="J2" s="36" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>284</v>
@@ -9004,7 +9007,7 @@
     </row>
     <row r="3" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D3" s="23" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>283</v>
@@ -9013,7 +9016,7 @@
         <v>173</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="H3" s="24" t="s">
         <v>300</v>
@@ -9022,13 +9025,13 @@
         <v>307</v>
       </c>
       <c r="J3" s="36" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="K3" s="30" t="s">
-        <v>904</v>
+        <v>899</v>
       </c>
       <c r="L3" s="25" t="s">
-        <v>903</v>
+        <v>898</v>
       </c>
       <c r="M3" s="25">
         <v>404</v>
@@ -9037,9 +9040,9 @@
         <v>282</v>
       </c>
     </row>
-    <row r="4" spans="1:38" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D4" s="23" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>281</v>
@@ -9054,12 +9057,12 @@
         <v>300</v>
       </c>
       <c r="J4" s="36" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="5" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D5" s="23" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>279</v>
@@ -9074,13 +9077,13 @@
         <v>300</v>
       </c>
       <c r="J5" s="36" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="K5" s="30" t="s">
-        <v>905</v>
+        <v>900</v>
       </c>
       <c r="L5" s="25" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="M5" s="25">
         <v>404</v>
@@ -9095,12 +9098,12 @@
         <v>305</v>
       </c>
     </row>
-    <row r="6" spans="1:38" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C6" s="5" t="s">
         <v>277</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>276</v>
@@ -9109,7 +9112,7 @@
         <v>173</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="H6" s="24" t="s">
         <v>300</v>
@@ -9121,10 +9124,10 @@
         <v>318</v>
       </c>
       <c r="K6" s="30" t="s">
-        <v>906</v>
+        <v>901</v>
       </c>
       <c r="M6" s="25" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AJ6" s="1" t="s">
         <v>301</v>
@@ -9136,9 +9139,9 @@
         <v>306</v>
       </c>
     </row>
-    <row r="7" spans="1:38" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D7" s="23" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>275</v>
@@ -9147,7 +9150,7 @@
         <v>173</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="H7" s="24" t="s">
         <v>300</v>
@@ -9156,13 +9159,13 @@
         <v>307</v>
       </c>
       <c r="J7" s="36" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="K7" s="30" t="s">
-        <v>907</v>
+        <v>902</v>
       </c>
       <c r="M7" s="25" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AK7" s="1" t="s">
         <v>304</v>
@@ -9170,7 +9173,7 @@
     </row>
     <row r="8" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D8" s="23" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>274</v>
@@ -9179,7 +9182,7 @@
         <v>173</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>908</v>
+        <v>903</v>
       </c>
       <c r="H8" s="24" t="s">
         <v>300</v>
@@ -9188,21 +9191,21 @@
         <v>307</v>
       </c>
       <c r="J8" s="36" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="K8" s="30" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="L8" s="25" t="s">
-        <v>909</v>
+        <v>904</v>
       </c>
       <c r="M8" s="25" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="9" spans="1:38" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D9" s="23" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>273</v>
@@ -9211,7 +9214,7 @@
         <v>173</v>
       </c>
       <c r="G9" s="19" t="s">
-        <v>910</v>
+        <v>905</v>
       </c>
       <c r="H9" s="24" t="s">
         <v>300</v>
@@ -9220,18 +9223,18 @@
         <v>307</v>
       </c>
       <c r="J9" s="36" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="L9" s="25" t="s">
-        <v>911</v>
+        <v>906</v>
       </c>
       <c r="M9" s="25" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="10" spans="1:38" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D10" s="23" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>250</v>
@@ -9246,15 +9249,15 @@
         <v>300</v>
       </c>
       <c r="J10" s="36" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="P10" s="2" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="11" spans="1:38" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D11" s="23" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>271</v>
@@ -9263,7 +9266,7 @@
         <v>173</v>
       </c>
       <c r="G11" s="19" t="s">
-        <v>912</v>
+        <v>907</v>
       </c>
       <c r="H11" s="24" t="s">
         <v>300</v>
@@ -9275,10 +9278,10 @@
         <v>318</v>
       </c>
       <c r="K11" s="30" t="s">
-        <v>914</v>
+        <v>909</v>
       </c>
       <c r="L11" s="25" t="s">
-        <v>913</v>
+        <v>908</v>
       </c>
       <c r="N11" s="24" t="s">
         <v>331</v>
@@ -9287,9 +9290,9 @@
         <v>165</v>
       </c>
     </row>
-    <row r="12" spans="1:38" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D12" s="23" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>270</v>
@@ -9298,7 +9301,7 @@
         <v>173</v>
       </c>
       <c r="G12" s="19" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="H12" s="24" t="s">
         <v>300</v>
@@ -9307,13 +9310,13 @@
         <v>302</v>
       </c>
       <c r="J12" s="36" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="K12" s="30" t="s">
-        <v>846</v>
+        <v>841</v>
       </c>
       <c r="L12" s="25" t="s">
-        <v>915</v>
+        <v>910</v>
       </c>
       <c r="N12" s="24" t="s">
         <v>332</v>
@@ -9322,7 +9325,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="13" spans="1:38" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="6">
         <v>2</v>
       </c>
@@ -9333,7 +9336,7 @@
         <v>268</v>
       </c>
       <c r="D13" s="41" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>267</v>
@@ -9342,7 +9345,7 @@
         <v>173</v>
       </c>
       <c r="G13" s="19" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="H13" s="24" t="s">
         <v>300</v>
@@ -9354,50 +9357,50 @@
         <v>318</v>
       </c>
       <c r="L13" s="25" t="s">
+        <v>427</v>
+      </c>
+      <c r="M13" s="25" t="s">
         <v>428</v>
-      </c>
-      <c r="M13" s="25" t="s">
-        <v>429</v>
       </c>
       <c r="P13" s="2" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="14" spans="1:38" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D14" s="23" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="E14" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="F14" s="4" t="s">
         <v>464</v>
       </c>
-      <c r="F14" s="4" t="s">
-        <v>465</v>
-      </c>
       <c r="G14" s="3" t="s">
-        <v>842</v>
+        <v>837</v>
       </c>
       <c r="H14" s="24" t="s">
         <v>298</v>
       </c>
       <c r="J14" s="36" t="s">
-        <v>843</v>
+        <v>838</v>
       </c>
       <c r="K14" s="30" t="s">
-        <v>844</v>
+        <v>839</v>
       </c>
       <c r="L14" s="25" t="s">
+        <v>465</v>
+      </c>
+      <c r="M14" s="25" t="s">
         <v>466</v>
       </c>
-      <c r="M14" s="25" t="s">
+      <c r="N14" s="26" t="s">
         <v>467</v>
       </c>
-      <c r="N14" s="26" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="15" spans="1:38" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="15" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D15" s="23" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>265</v>
@@ -9412,15 +9415,15 @@
         <v>298</v>
       </c>
       <c r="J15" s="36" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="M15" s="25" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="16" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D16" s="23" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>264</v>
@@ -9435,24 +9438,24 @@
         <v>298</v>
       </c>
       <c r="J16" s="36" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="K16" s="30" t="s">
-        <v>902</v>
+        <v>897</v>
       </c>
       <c r="L16" s="25" t="s">
-        <v>901</v>
+        <v>896</v>
       </c>
       <c r="M16" s="25" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="N16" s="24" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D17" s="23" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>263</v>
@@ -9467,7 +9470,7 @@
         <v>298</v>
       </c>
       <c r="J17" s="36" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="M17" s="25" t="s">
         <v>318</v>
@@ -9475,7 +9478,7 @@
     </row>
     <row r="18" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D18" s="23" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>261</v>
@@ -9490,15 +9493,15 @@
         <v>300</v>
       </c>
       <c r="J18" s="36" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C19" s="17" t="s">
         <v>259</v>
       </c>
       <c r="D19" s="23" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>258</v>
@@ -9513,18 +9516,18 @@
         <v>298</v>
       </c>
       <c r="J19" s="36" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="L19" s="25" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="M19" s="27" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D20" s="23" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>256</v>
@@ -9539,7 +9542,7 @@
         <v>298</v>
       </c>
       <c r="J20" s="36" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="L20" s="25" t="s">
         <v>345</v>
@@ -9548,12 +9551,12 @@
         <v>318</v>
       </c>
       <c r="N20" s="24" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D21" s="23" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>255</v>
@@ -9568,7 +9571,7 @@
         <v>298</v>
       </c>
       <c r="J21" s="36" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="L21" s="25" t="s">
         <v>346</v>
@@ -9577,9 +9580,9 @@
         <v>318</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D22" s="23" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>254</v>
@@ -9588,28 +9591,28 @@
         <v>167</v>
       </c>
       <c r="G22" s="13" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="H22" s="24" t="s">
         <v>298</v>
       </c>
       <c r="J22" s="36" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="K22" s="30" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="L22" s="25" t="s">
-        <v>838</v>
+        <v>833</v>
       </c>
       <c r="M22" s="25" t="s">
+        <v>768</v>
+      </c>
+      <c r="N22" s="24" t="s">
         <v>770</v>
       </c>
-      <c r="N22" s="24" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="23" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="6">
         <v>3</v>
       </c>
@@ -9620,7 +9623,7 @@
         <v>251</v>
       </c>
       <c r="D23" s="23" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>250</v>
@@ -9629,27 +9632,27 @@
         <v>173</v>
       </c>
       <c r="G23" s="19" t="s">
-        <v>890</v>
+        <v>885</v>
       </c>
       <c r="I23" s="24" t="s">
         <v>307</v>
       </c>
       <c r="J23" s="36" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="L23" s="25" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="M23" s="25" t="s">
+        <v>440</v>
+      </c>
+      <c r="N23" s="24" t="s">
         <v>441</v>
       </c>
-      <c r="N23" s="24" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="24" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D24" s="23" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>249</v>
@@ -9658,30 +9661,30 @@
         <v>173</v>
       </c>
       <c r="G24" s="19" t="s">
-        <v>891</v>
+        <v>886</v>
       </c>
       <c r="I24" s="24" t="s">
         <v>307</v>
       </c>
       <c r="J24" s="36" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="K24" s="30" t="s">
-        <v>846</v>
+        <v>841</v>
       </c>
       <c r="L24" s="25" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="M24" s="25" t="s">
+        <v>440</v>
+      </c>
+      <c r="N24" s="24" t="s">
         <v>441</v>
-      </c>
-      <c r="N24" s="24" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D25" s="23" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>248</v>
@@ -9690,7 +9693,7 @@
         <v>173</v>
       </c>
       <c r="G25" s="19" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="H25" s="24" t="s">
         <v>298</v>
@@ -9699,24 +9702,24 @@
         <v>307</v>
       </c>
       <c r="J25" s="36" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="K25" s="30" t="s">
-        <v>892</v>
+        <v>887</v>
       </c>
       <c r="L25" s="25" t="s">
+        <v>436</v>
+      </c>
+      <c r="M25" s="25" t="s">
+        <v>439</v>
+      </c>
+      <c r="N25" s="24" t="s">
         <v>437</v>
       </c>
-      <c r="M25" s="25" t="s">
-        <v>440</v>
-      </c>
-      <c r="N25" s="24" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="26" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D26" s="23" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>247</v>
@@ -9725,27 +9728,27 @@
         <v>7</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="H26" s="24" t="s">
         <v>298</v>
       </c>
       <c r="J26" s="36" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="L26" s="25" t="s">
+        <v>434</v>
+      </c>
+      <c r="M26" s="25" t="s">
         <v>435</v>
-      </c>
-      <c r="M26" s="25" t="s">
-        <v>436</v>
       </c>
       <c r="P26" s="2" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D27" s="23" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>245</v>
@@ -9754,27 +9757,27 @@
         <v>173</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H27" s="24" t="s">
         <v>298</v>
       </c>
       <c r="J27" s="36" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="L27" s="25" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="M27" s="25" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N27" s="24" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D28" s="23" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>244</v>
@@ -9783,27 +9786,27 @@
         <v>171</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>893</v>
+        <v>888</v>
       </c>
       <c r="H28" s="24" t="s">
         <v>298</v>
       </c>
       <c r="J28" s="36" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="L28" s="25" t="s">
-        <v>894</v>
+        <v>889</v>
       </c>
       <c r="M28" s="25">
         <v>404</v>
       </c>
       <c r="N28" s="24" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D29" s="23" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>243</v>
@@ -9818,18 +9821,18 @@
         <v>298</v>
       </c>
       <c r="J29" s="36" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="L29" s="25" t="s">
-        <v>895</v>
+        <v>890</v>
       </c>
       <c r="M29" s="25" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D30" s="23" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>242</v>
@@ -9844,21 +9847,21 @@
         <v>298</v>
       </c>
       <c r="J30" s="36" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="K30" s="30" t="s">
-        <v>897</v>
+        <v>892</v>
       </c>
       <c r="L30" s="25" t="s">
-        <v>896</v>
+        <v>891</v>
       </c>
       <c r="M30" s="25" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="31" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D31" s="23" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>240</v>
@@ -9873,21 +9876,21 @@
         <v>298</v>
       </c>
       <c r="J31" s="36" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="K31" s="30" t="s">
-        <v>898</v>
+        <v>893</v>
       </c>
       <c r="L31" s="25" t="s">
-        <v>899</v>
+        <v>894</v>
       </c>
       <c r="M31" s="25" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D32" s="23" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>190</v>
@@ -9899,12 +9902,12 @@
         <v>189</v>
       </c>
       <c r="J32" s="36" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="33" spans="3:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="33" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D33" s="23" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>188</v>
@@ -9916,15 +9919,15 @@
         <v>187</v>
       </c>
       <c r="J33" s="36" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="34" spans="3:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="34" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C34" s="17" t="s">
         <v>238</v>
       </c>
       <c r="D34" s="23" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>237</v>
@@ -9939,18 +9942,18 @@
         <v>298</v>
       </c>
       <c r="J34" s="36" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="L34" s="25" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="M34" s="25" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="35" spans="3:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D35" s="23" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>236</v>
@@ -9965,21 +9968,21 @@
         <v>298</v>
       </c>
       <c r="J35" s="36" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="L35" s="25" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="M35" s="25" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="N35" s="24" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="36" spans="3:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="36" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D36" s="23" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>235</v>
@@ -9994,24 +9997,24 @@
         <v>298</v>
       </c>
       <c r="J36" s="36" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="L36" s="25" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="M36" s="25" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="N36" s="24" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="37" spans="3:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="37" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C37" s="17" t="s">
         <v>233</v>
       </c>
       <c r="D37" s="23" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>232</v>
@@ -10020,21 +10023,21 @@
         <v>171</v>
       </c>
       <c r="G37" s="13" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H37" s="24" t="s">
         <v>298</v>
       </c>
       <c r="J37" s="36" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="M37" s="25" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="38" spans="3:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="38" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D38" s="23" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>231</v>
@@ -10049,18 +10052,18 @@
         <v>298</v>
       </c>
       <c r="J38" s="36" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="L38" s="25" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="M38" s="25" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="39" spans="3:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="39" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D39" s="23" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>230</v>
@@ -10069,33 +10072,33 @@
         <v>167</v>
       </c>
       <c r="G39" s="13" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H39" s="24" t="s">
         <v>298</v>
       </c>
       <c r="J39" s="36" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="L39" s="25" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="M39" s="25" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="N39" s="24" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="P39" s="2" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="40" spans="3:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C40" s="5" t="s">
         <v>227</v>
       </c>
       <c r="D40" s="23" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>226</v>
@@ -10104,7 +10107,7 @@
         <v>173</v>
       </c>
       <c r="G40" s="19" t="s">
-        <v>834</v>
+        <v>919</v>
       </c>
       <c r="H40" s="24" t="s">
         <v>298</v>
@@ -10113,15 +10116,15 @@
         <v>307</v>
       </c>
       <c r="J40" s="36" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="M40" s="25" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="41" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D41" s="23" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>225</v>
@@ -10130,30 +10133,30 @@
         <v>171</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H41" s="24" t="s">
         <v>298</v>
       </c>
       <c r="J41" s="36" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="K41" s="30" t="s">
-        <v>835</v>
+        <v>830</v>
       </c>
       <c r="L41" s="25" t="s">
+        <v>447</v>
+      </c>
+      <c r="M41" s="25" t="s">
         <v>448</v>
       </c>
-      <c r="M41" s="25" t="s">
+      <c r="N41" s="24" t="s">
         <v>449</v>
       </c>
-      <c r="N41" s="24" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="42" spans="3:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="42" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D42" s="23" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>224</v>
@@ -10168,15 +10171,15 @@
         <v>298</v>
       </c>
       <c r="J42" s="36" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="M42" s="25" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="43" spans="3:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="43" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D43" s="23" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>222</v>
@@ -10185,7 +10188,7 @@
         <v>173</v>
       </c>
       <c r="G43" s="19" t="s">
-        <v>836</v>
+        <v>831</v>
       </c>
       <c r="H43" s="24" t="s">
         <v>298</v>
@@ -10194,13 +10197,13 @@
         <v>307</v>
       </c>
       <c r="J43" s="36" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="K43" s="30" t="s">
-        <v>837</v>
+        <v>832</v>
       </c>
       <c r="L43" s="25" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="M43" s="25" t="s">
         <v>318</v>
@@ -10208,7 +10211,7 @@
     </row>
     <row r="44" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D44" s="23" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>221</v>
@@ -10223,24 +10226,24 @@
         <v>298</v>
       </c>
       <c r="J44" s="36" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="K44" s="30" t="s">
-        <v>900</v>
+        <v>895</v>
       </c>
       <c r="M44" s="25" t="s">
+        <v>450</v>
+      </c>
+      <c r="N44" s="24" t="s">
         <v>451</v>
       </c>
-      <c r="N44" s="24" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="45" spans="3:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="45" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C45" s="17" t="s">
         <v>219</v>
       </c>
       <c r="D45" s="23" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>218</v>
@@ -10252,18 +10255,18 @@
         <v>217</v>
       </c>
       <c r="J45" s="36" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="L45" s="25" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
       <c r="M45" s="25" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="46" spans="3:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D46" s="23" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E46" s="5" t="s">
         <v>216</v>
@@ -10278,15 +10281,15 @@
         <v>298</v>
       </c>
       <c r="J46" s="36" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="M46" s="25" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="47" spans="3:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="47" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D47" s="23" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>215</v>
@@ -10301,18 +10304,18 @@
         <v>298</v>
       </c>
       <c r="J47" s="36" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="L47" s="25" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="M47" s="25" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="48" spans="3:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="48" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D48" s="23" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>214</v>
@@ -10327,24 +10330,24 @@
         <v>298</v>
       </c>
       <c r="J48" s="36" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="L48" s="25" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="M48" s="25" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="N48" s="24" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C49" s="17" t="s">
         <v>212</v>
       </c>
       <c r="D49" s="23" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>211</v>
@@ -10353,22 +10356,22 @@
         <v>173</v>
       </c>
       <c r="G49" s="20" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
       <c r="I49" s="24" t="s">
         <v>307</v>
       </c>
       <c r="J49" s="36" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="K49" s="30" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="L49" s="25" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="M49" s="25" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="N49" s="24" t="s">
         <v>333</v>
@@ -10377,9 +10380,9 @@
         <v>175</v>
       </c>
     </row>
-    <row r="50" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D50" s="23" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>210</v>
@@ -10394,18 +10397,18 @@
         <v>298</v>
       </c>
       <c r="J50" s="36" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="L50" s="25" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="M50" s="25" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="51" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D51" s="23" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="E51" s="5" t="s">
         <v>209</v>
@@ -10420,18 +10423,18 @@
         <v>298</v>
       </c>
       <c r="J51" s="36" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="L51" s="25" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="M51" s="25" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="52" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D52" s="23" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="E52" s="5" t="s">
         <v>208</v>
@@ -10440,27 +10443,27 @@
         <v>167</v>
       </c>
       <c r="G52" s="13" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H52" s="24" t="s">
         <v>298</v>
       </c>
       <c r="J52" s="36" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="L52" s="25" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="M52" s="25" t="s">
         <v>318</v>
       </c>
       <c r="N52" s="24" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D53" s="23" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="E53" s="5" t="s">
         <v>190</v>
@@ -10472,12 +10475,12 @@
         <v>189</v>
       </c>
       <c r="J53" s="36" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D54" s="23" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="E54" s="5" t="s">
         <v>188</v>
@@ -10489,10 +10492,10 @@
         <v>187</v>
       </c>
       <c r="J54" s="36" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16" s="5" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="6">
         <v>4</v>
       </c>
@@ -10503,7 +10506,7 @@
         <v>206</v>
       </c>
       <c r="D55" s="23" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="E55" s="5" t="s">
         <v>205</v>
@@ -10517,7 +10520,7 @@
       <c r="H55" s="24"/>
       <c r="I55" s="24"/>
       <c r="J55" s="36" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="K55" s="30"/>
       <c r="L55" s="25"/>
@@ -10529,7 +10532,7 @@
     <row r="56" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="6"/>
       <c r="D56" s="23" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="E56" s="18" t="s">
         <v>203</v>
@@ -10538,7 +10541,7 @@
         <v>173</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
       <c r="H56" s="24" t="s">
         <v>298</v>
@@ -10547,16 +10550,16 @@
         <v>307</v>
       </c>
       <c r="J56" s="36" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="K56" s="30" t="s">
-        <v>872</v>
+        <v>867</v>
       </c>
       <c r="L56" s="25" t="s">
-        <v>871</v>
+        <v>866</v>
       </c>
       <c r="M56" s="25" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="N56" s="24" t="s">
         <v>334</v>
@@ -10569,16 +10572,16 @@
     <row r="57" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="6"/>
       <c r="D57" s="23" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="E57" s="18" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="F57" s="4" t="s">
         <v>7</v>
       </c>
       <c r="G57" s="19" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="H57" s="24" t="s">
         <v>298</v>
@@ -10587,14 +10590,14 @@
         <v>302</v>
       </c>
       <c r="J57" s="36" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="K57" s="30" t="s">
-        <v>873</v>
+        <v>868</v>
       </c>
       <c r="L57" s="25"/>
       <c r="M57" s="25" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="N57" s="24" t="s">
         <v>333</v>
@@ -10604,10 +10607,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="58" spans="1:16" s="5" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="6"/>
       <c r="D58" s="23" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E58" s="5" t="s">
         <v>202</v>
@@ -10621,7 +10624,7 @@
       <c r="H58" s="24"/>
       <c r="I58" s="24"/>
       <c r="J58" s="36" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="K58" s="30"/>
       <c r="L58" s="25"/>
@@ -10630,14 +10633,14 @@
       <c r="O58" s="34"/>
       <c r="P58" s="2"/>
     </row>
-    <row r="59" spans="1:16" s="7" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="6"/>
       <c r="B59" s="5"/>
       <c r="C59" s="5" t="s">
         <v>200</v>
       </c>
       <c r="D59" s="23" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="E59" s="5" t="s">
         <v>199</v>
@@ -10646,7 +10649,7 @@
         <v>173</v>
       </c>
       <c r="G59" s="19" t="s">
-        <v>874</v>
+        <v>869</v>
       </c>
       <c r="H59" s="24" t="s">
         <v>298</v>
@@ -10659,10 +10662,10 @@
       </c>
       <c r="K59" s="30"/>
       <c r="L59" s="25" t="s">
+        <v>392</v>
+      </c>
+      <c r="M59" s="25" t="s">
         <v>393</v>
-      </c>
-      <c r="M59" s="25" t="s">
-        <v>394</v>
       </c>
       <c r="N59" s="24" t="s">
         <v>333</v>
@@ -10672,12 +10675,12 @@
         <v>175</v>
       </c>
     </row>
-    <row r="60" spans="1:16" s="7" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="6"/>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
       <c r="D60" s="23" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="E60" s="5" t="s">
         <v>198</v>
@@ -10691,7 +10694,7 @@
       <c r="H60" s="24"/>
       <c r="I60" s="24"/>
       <c r="J60" s="36" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="K60" s="30"/>
       <c r="L60" s="25"/>
@@ -10705,7 +10708,7 @@
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
       <c r="D61" s="23" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="E61" s="5" t="s">
         <v>196</v>
@@ -10714,23 +10717,23 @@
         <v>171</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H61" s="24" t="s">
         <v>298</v>
       </c>
       <c r="I61" s="24"/>
       <c r="J61" s="36" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="K61" s="30" t="s">
-        <v>876</v>
+        <v>871</v>
       </c>
       <c r="L61" s="25" t="s">
-        <v>875</v>
+        <v>870</v>
       </c>
       <c r="M61" s="25" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="N61" s="24"/>
       <c r="O61" s="34"/>
@@ -10741,7 +10744,7 @@
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
       <c r="D62" s="23" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="E62" s="5" t="s">
         <v>195</v>
@@ -10759,14 +10762,14 @@
         <v>307</v>
       </c>
       <c r="J62" s="36" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="K62" s="30" t="s">
-        <v>877</v>
+        <v>872</v>
       </c>
       <c r="L62" s="25"/>
       <c r="M62" s="25" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="N62" s="24" t="s">
         <v>335</v>
@@ -10781,7 +10784,7 @@
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
       <c r="D63" s="23" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="E63" s="5" t="s">
         <v>194</v>
@@ -10799,14 +10802,14 @@
         <v>307</v>
       </c>
       <c r="J63" s="36" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="K63" s="30" t="s">
-        <v>878</v>
+        <v>873</v>
       </c>
       <c r="L63" s="25"/>
       <c r="M63" s="25" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="N63" s="24" t="s">
         <v>336</v>
@@ -10821,7 +10824,7 @@
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
       <c r="D64" s="23" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="E64" s="5" t="s">
         <v>192</v>
@@ -10839,14 +10842,14 @@
         <v>307</v>
       </c>
       <c r="J64" s="36" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="K64" s="30" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
       <c r="L64" s="25"/>
       <c r="M64" s="25" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="N64" s="24" t="s">
         <v>335</v>
@@ -10856,12 +10859,12 @@
         <v>175</v>
       </c>
     </row>
-    <row r="65" spans="1:16" s="7" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="6"/>
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
       <c r="D65" s="23" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="E65" s="5" t="s">
         <v>190</v>
@@ -10875,7 +10878,7 @@
       <c r="H65" s="24"/>
       <c r="I65" s="24"/>
       <c r="J65" s="36" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="K65" s="30"/>
       <c r="L65" s="25"/>
@@ -10884,12 +10887,12 @@
       <c r="O65" s="34"/>
       <c r="P65" s="2"/>
     </row>
-    <row r="66" spans="1:16" s="7" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="6"/>
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
       <c r="D66" s="23" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="E66" s="5" t="s">
         <v>188</v>
@@ -10903,7 +10906,7 @@
       <c r="H66" s="24"/>
       <c r="I66" s="24"/>
       <c r="J66" s="36" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="K66" s="30"/>
       <c r="L66" s="25"/>
@@ -10919,7 +10922,7 @@
         <v>186</v>
       </c>
       <c r="D67" s="23" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="E67" s="5" t="s">
         <v>185</v>
@@ -10928,7 +10931,7 @@
         <v>173</v>
       </c>
       <c r="G67" s="21" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
       <c r="H67" s="24" t="s">
         <v>300</v>
@@ -10937,10 +10940,10 @@
         <v>307</v>
       </c>
       <c r="J67" s="36" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="K67" s="30" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="L67" s="25"/>
       <c r="M67" s="25">
@@ -10952,12 +10955,12 @@
         <v>184</v>
       </c>
     </row>
-    <row r="68" spans="1:16" s="7" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="6"/>
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
       <c r="D68" s="23" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="E68" s="5" t="s">
         <v>183</v>
@@ -10966,7 +10969,7 @@
         <v>173</v>
       </c>
       <c r="G68" s="19" t="s">
-        <v>881</v>
+        <v>876</v>
       </c>
       <c r="H68" s="24"/>
       <c r="I68" s="24" t="s">
@@ -10986,12 +10989,12 @@
         <v>182</v>
       </c>
     </row>
-    <row r="69" spans="1:16" s="7" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="6"/>
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
       <c r="D69" s="23" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="E69" s="5" t="s">
         <v>181</v>
@@ -11000,7 +11003,7 @@
         <v>173</v>
       </c>
       <c r="G69" s="20" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="H69" s="24" t="s">
         <v>298</v>
@@ -11009,12 +11012,12 @@
         <v>307</v>
       </c>
       <c r="J69" s="36" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="K69" s="30"/>
       <c r="L69" s="25"/>
       <c r="M69" s="25" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="N69" s="24" t="s">
         <v>333</v>
@@ -11024,12 +11027,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="70" spans="1:16" s="7" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="6"/>
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
       <c r="D70" s="23" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="E70" s="5" t="s">
         <v>180</v>
@@ -11038,7 +11041,7 @@
         <v>171</v>
       </c>
       <c r="G70" s="13" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="H70" s="24" t="s">
         <v>298</v>
@@ -11051,10 +11054,10 @@
       </c>
       <c r="K70" s="30"/>
       <c r="L70" s="25" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="M70" s="25" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="N70" s="24" t="s">
         <v>333</v>
@@ -11064,12 +11067,12 @@
         <v>175</v>
       </c>
     </row>
-    <row r="71" spans="1:16" s="7" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="6"/>
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
       <c r="D71" s="23" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="E71" s="5" t="s">
         <v>179</v>
@@ -11078,18 +11081,18 @@
         <v>169</v>
       </c>
       <c r="G71" s="13" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
       <c r="H71" s="24" t="s">
         <v>298</v>
       </c>
       <c r="I71" s="24"/>
       <c r="J71" s="36" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="K71" s="30"/>
       <c r="L71" s="25" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="M71" s="25" t="s">
         <v>318</v>
@@ -11100,12 +11103,12 @@
         <v>178</v>
       </c>
     </row>
-    <row r="72" spans="1:16" s="7" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="6"/>
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
       <c r="D72" s="23" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="E72" s="5" t="s">
         <v>177</v>
@@ -11123,14 +11126,14 @@
         <v>307</v>
       </c>
       <c r="J72" s="36" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="K72" s="30"/>
       <c r="L72" s="25" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="M72" s="25" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="N72" s="24" t="s">
         <v>337</v>
@@ -11140,12 +11143,12 @@
         <v>175</v>
       </c>
     </row>
-    <row r="73" spans="1:16" s="7" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="6"/>
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
       <c r="D73" s="23" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="E73" s="5" t="s">
         <v>174</v>
@@ -11154,17 +11157,17 @@
         <v>173</v>
       </c>
       <c r="G73" s="21" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="H73" s="24"/>
       <c r="I73" s="24" t="s">
         <v>302</v>
       </c>
       <c r="J73" s="36" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="K73" s="30" t="s">
-        <v>882</v>
+        <v>877</v>
       </c>
       <c r="L73" s="25"/>
       <c r="M73" s="25">
@@ -11183,7 +11186,7 @@
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
       <c r="D74" s="23" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="E74" s="5" t="s">
         <v>172</v>
@@ -11192,17 +11195,17 @@
         <v>171</v>
       </c>
       <c r="G74" s="11" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="H74" s="24"/>
       <c r="I74" s="24" t="s">
         <v>302</v>
       </c>
       <c r="J74" s="36" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="K74" s="30" t="s">
-        <v>883</v>
+        <v>878</v>
       </c>
       <c r="L74" s="25"/>
       <c r="M74" s="25">
@@ -11221,7 +11224,7 @@
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
       <c r="D75" s="23" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="E75" s="5" t="s">
         <v>170</v>
@@ -11237,10 +11240,10 @@
         <v>302</v>
       </c>
       <c r="J75" s="36" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="K75" s="30" t="s">
-        <v>884</v>
+        <v>879</v>
       </c>
       <c r="L75" s="25"/>
       <c r="M75" s="25">
@@ -11254,12 +11257,12 @@
         <v>165</v>
       </c>
     </row>
-    <row r="76" spans="1:16" s="7" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="6"/>
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
       <c r="D76" s="23" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="E76" s="5" t="s">
         <v>168</v>
@@ -11275,10 +11278,10 @@
         <v>302</v>
       </c>
       <c r="J76" s="36" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="K76" s="30" t="s">
-        <v>882</v>
+        <v>877</v>
       </c>
       <c r="L76" s="25"/>
       <c r="M76" s="25">
@@ -11292,14 +11295,14 @@
         <v>165</v>
       </c>
     </row>
-    <row r="77" spans="1:16" s="7" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="6"/>
       <c r="B77" s="5"/>
       <c r="C77" s="5" t="s">
         <v>164</v>
       </c>
       <c r="D77" s="23" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="E77" s="5" t="s">
         <v>54</v>
@@ -11313,7 +11316,7 @@
       <c r="H77" s="24"/>
       <c r="I77" s="24"/>
       <c r="J77" s="36" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="K77" s="30"/>
       <c r="L77" s="25"/>
@@ -11327,7 +11330,7 @@
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
       <c r="D78" s="40" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="E78" s="5" t="s">
         <v>163</v>
@@ -11336,7 +11339,7 @@
         <v>7</v>
       </c>
       <c r="G78" s="20" t="s">
-        <v>885</v>
+        <v>880</v>
       </c>
       <c r="H78" s="24" t="s">
         <v>300</v>
@@ -11345,19 +11348,19 @@
         <v>307</v>
       </c>
       <c r="J78" s="36" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K78" s="30" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="L78" s="25" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="M78" s="25" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="N78" s="24" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="O78" s="34"/>
       <c r="P78" s="2" t="s">
@@ -11369,7 +11372,7 @@
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
       <c r="D79" s="23" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="E79" s="5" t="s">
         <v>162</v>
@@ -11378,23 +11381,23 @@
         <v>7</v>
       </c>
       <c r="G79" s="20" t="s">
-        <v>886</v>
+        <v>881</v>
       </c>
       <c r="H79" s="24"/>
       <c r="I79" s="24" t="s">
         <v>307</v>
       </c>
       <c r="J79" s="36" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K79" s="30" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="L79" s="25" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="M79" s="25" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="N79" s="24" t="s">
         <v>333</v>
@@ -11404,12 +11407,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="80" spans="1:16" s="7" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="6"/>
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
       <c r="D80" s="23" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="E80" s="5" t="s">
         <v>161</v>
@@ -11423,7 +11426,7 @@
       <c r="H80" s="24"/>
       <c r="I80" s="24"/>
       <c r="J80" s="36" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="K80" s="30"/>
       <c r="L80" s="25"/>
@@ -11432,12 +11435,12 @@
       <c r="O80" s="34"/>
       <c r="P80" s="2"/>
     </row>
-    <row r="81" spans="1:16" s="7" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="6"/>
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
       <c r="D81" s="23" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="E81" s="5" t="s">
         <v>159</v>
@@ -11451,7 +11454,7 @@
       <c r="H81" s="24"/>
       <c r="I81" s="24"/>
       <c r="J81" s="36" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="K81" s="30"/>
       <c r="L81" s="25"/>
@@ -11460,12 +11463,12 @@
       <c r="O81" s="34"/>
       <c r="P81" s="2"/>
     </row>
-    <row r="82" spans="1:16" s="7" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="6"/>
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
       <c r="D82" s="23" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="E82" s="5" t="s">
         <v>157</v>
@@ -11479,7 +11482,7 @@
       <c r="H82" s="24"/>
       <c r="I82" s="24"/>
       <c r="J82" s="36" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="K82" s="30"/>
       <c r="L82" s="25"/>
@@ -11490,12 +11493,12 @@
         <v>155</v>
       </c>
     </row>
-    <row r="83" spans="1:16" s="7" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="6"/>
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
       <c r="D83" s="23" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="E83" s="5" t="s">
         <v>154</v>
@@ -11509,7 +11512,7 @@
       <c r="H83" s="24"/>
       <c r="I83" s="24"/>
       <c r="J83" s="36" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="K83" s="30"/>
       <c r="L83" s="25"/>
@@ -11523,7 +11526,7 @@
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
       <c r="D84" s="23" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="E84" s="5" t="s">
         <v>152</v>
@@ -11537,24 +11540,24 @@
       <c r="H84" s="24"/>
       <c r="I84" s="24"/>
       <c r="J84" s="36" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="K84" s="30" t="s">
-        <v>888</v>
+        <v>883</v>
       </c>
       <c r="L84" s="25" t="s">
-        <v>887</v>
+        <v>882</v>
       </c>
       <c r="M84" s="25" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="N84" s="24" t="s">
-        <v>889</v>
+        <v>884</v>
       </c>
       <c r="O84" s="34"/>
       <c r="P84" s="2"/>
     </row>
-    <row r="85" spans="1:16" s="7" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="6">
         <v>5</v>
       </c>
@@ -11565,7 +11568,7 @@
         <v>149</v>
       </c>
       <c r="D85" s="23" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="E85" s="5" t="s">
         <v>54</v>
@@ -11579,7 +11582,7 @@
       <c r="H85" s="24"/>
       <c r="I85" s="24"/>
       <c r="J85" s="36" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="K85" s="30"/>
       <c r="L85" s="25"/>
@@ -11593,7 +11596,7 @@
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
       <c r="D86" s="41" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="E86" s="16" t="s">
         <v>148</v>
@@ -11602,7 +11605,7 @@
         <v>83</v>
       </c>
       <c r="G86" s="19" t="s">
-        <v>916</v>
+        <v>911</v>
       </c>
       <c r="H86" s="24" t="s">
         <v>300</v>
@@ -11611,16 +11614,16 @@
         <v>307</v>
       </c>
       <c r="J86" s="36" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="K86" s="30" t="s">
-        <v>918</v>
+        <v>913</v>
       </c>
       <c r="L86" s="25" t="s">
-        <v>917</v>
+        <v>912</v>
       </c>
       <c r="M86" s="25" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="N86" s="24" t="s">
         <v>333</v>
@@ -11630,12 +11633,12 @@
         <v>147</v>
       </c>
     </row>
-    <row r="87" spans="1:16" s="7" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="6"/>
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
       <c r="D87" s="23" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="E87" s="5" t="s">
         <v>146</v>
@@ -11651,7 +11654,7 @@
       </c>
       <c r="I87" s="24"/>
       <c r="J87" s="36" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="K87" s="30"/>
       <c r="L87" s="25"/>
@@ -11660,14 +11663,14 @@
       <c r="O87" s="34"/>
       <c r="P87" s="2"/>
     </row>
-    <row r="88" spans="1:16" s="7" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="6"/>
       <c r="B88" s="5"/>
       <c r="C88" s="5" t="s">
         <v>144</v>
       </c>
       <c r="D88" s="23" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="E88" s="5" t="s">
         <v>108</v>
@@ -11683,7 +11686,7 @@
       </c>
       <c r="I88" s="24"/>
       <c r="J88" s="36" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="K88" s="30"/>
       <c r="L88" s="25"/>
@@ -11692,12 +11695,12 @@
       <c r="O88" s="34"/>
       <c r="P88" s="2"/>
     </row>
-    <row r="89" spans="1:16" s="7" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="6"/>
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
       <c r="D89" s="23" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="E89" s="5" t="s">
         <v>106</v>
@@ -11713,7 +11716,7 @@
       </c>
       <c r="I89" s="24"/>
       <c r="J89" s="36" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="K89" s="30"/>
       <c r="L89" s="25"/>
@@ -11722,12 +11725,12 @@
       <c r="O89" s="34"/>
       <c r="P89" s="2"/>
     </row>
-    <row r="90" spans="1:16" s="7" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="6"/>
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
       <c r="D90" s="23" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="E90" s="5" t="s">
         <v>141</v>
@@ -11743,7 +11746,7 @@
       </c>
       <c r="I90" s="24"/>
       <c r="J90" s="36" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="K90" s="30"/>
       <c r="L90" s="25"/>
@@ -11752,12 +11755,12 @@
       <c r="O90" s="34"/>
       <c r="P90" s="2"/>
     </row>
-    <row r="91" spans="1:16" s="7" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="6"/>
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
       <c r="D91" s="23" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="E91" s="5" t="s">
         <v>139</v>
@@ -11773,7 +11776,7 @@
       </c>
       <c r="I91" s="24"/>
       <c r="J91" s="36" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="K91" s="30"/>
       <c r="L91" s="25"/>
@@ -11789,7 +11792,7 @@
         <v>137</v>
       </c>
       <c r="D92" s="23" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="E92" s="16" t="s">
         <v>136</v>
@@ -11807,12 +11810,12 @@
         <v>307</v>
       </c>
       <c r="J92" s="36" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="K92" s="30"/>
       <c r="L92" s="25"/>
       <c r="M92" s="25" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="N92" s="24" t="s">
         <v>338</v>
@@ -11827,7 +11830,7 @@
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
       <c r="D93" s="23" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="E93" s="16" t="s">
         <v>135</v>
@@ -11845,12 +11848,12 @@
         <v>307</v>
       </c>
       <c r="J93" s="36" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
       <c r="K93" s="30"/>
       <c r="L93" s="25"/>
       <c r="M93" s="25" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="N93" s="24" t="s">
         <v>333</v>
@@ -11863,7 +11866,7 @@
     <row r="94" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="6"/>
       <c r="D94" s="23" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="E94" s="16" t="s">
         <v>133</v>
@@ -11881,12 +11884,12 @@
         <v>307</v>
       </c>
       <c r="J94" s="36" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="K94" s="30"/>
       <c r="L94" s="25"/>
       <c r="M94" s="25" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="N94" s="24" t="s">
         <v>333</v>
@@ -11896,13 +11899,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="95" spans="1:16" s="5" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="6"/>
       <c r="C95" s="5" t="s">
         <v>131</v>
       </c>
       <c r="D95" s="23" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="E95" s="5" t="s">
         <v>130</v>
@@ -11918,7 +11921,7 @@
       </c>
       <c r="I95" s="24"/>
       <c r="J95" s="36" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="K95" s="30"/>
       <c r="L95" s="25"/>
@@ -11927,10 +11930,10 @@
       <c r="O95" s="34"/>
       <c r="P95" s="2"/>
     </row>
-    <row r="96" spans="1:16" s="5" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="6"/>
       <c r="D96" s="23" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="E96" s="5" t="s">
         <v>129</v>
@@ -11946,7 +11949,7 @@
       </c>
       <c r="I96" s="24"/>
       <c r="J96" s="36" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="K96" s="30"/>
       <c r="L96" s="25"/>
@@ -11955,7 +11958,7 @@
       <c r="O96" s="34"/>
       <c r="P96" s="2"/>
     </row>
-    <row r="97" spans="1:16" s="5" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="6">
         <v>6</v>
       </c>
@@ -11966,7 +11969,7 @@
         <v>126</v>
       </c>
       <c r="D97" s="23" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="E97" s="5" t="s">
         <v>125</v>
@@ -11975,32 +11978,32 @@
         <v>7</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="H97" s="24" t="s">
         <v>298</v>
       </c>
       <c r="I97" s="24"/>
       <c r="J97" s="36" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="K97" s="30" t="s">
-        <v>868</v>
+        <v>863</v>
       </c>
       <c r="L97" s="25" t="s">
+        <v>413</v>
+      </c>
+      <c r="M97" s="25" t="s">
         <v>414</v>
-      </c>
-      <c r="M97" s="25" t="s">
-        <v>415</v>
       </c>
       <c r="N97" s="24"/>
       <c r="O97" s="34"/>
       <c r="P97" s="2"/>
     </row>
-    <row r="98" spans="1:16" s="5" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="6"/>
       <c r="D98" s="41" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="E98" s="5" t="s">
         <v>124</v>
@@ -12009,7 +12012,7 @@
         <v>83</v>
       </c>
       <c r="G98" s="19" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="H98" s="24" t="s">
         <v>298</v>
@@ -12018,23 +12021,23 @@
         <v>307</v>
       </c>
       <c r="J98" s="36" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="K98" s="30"/>
       <c r="L98" s="25" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="M98" s="25" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="N98" s="24"/>
       <c r="O98" s="34"/>
       <c r="P98" s="2"/>
     </row>
-    <row r="99" spans="1:16" s="5" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="6"/>
       <c r="D99" s="23" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="E99" s="5" t="s">
         <v>123</v>
@@ -12053,13 +12056,13 @@
         <v>318</v>
       </c>
       <c r="K99" s="30" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="L99" s="25" t="s">
+        <v>411</v>
+      </c>
+      <c r="M99" s="25" t="s">
         <v>412</v>
-      </c>
-      <c r="M99" s="25" t="s">
-        <v>413</v>
       </c>
       <c r="N99" s="24"/>
       <c r="O99" s="34"/>
@@ -12068,7 +12071,7 @@
     <row r="100" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="6"/>
       <c r="D100" s="23" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="E100" s="5" t="s">
         <v>122</v>
@@ -12084,23 +12087,23 @@
       </c>
       <c r="I100" s="24"/>
       <c r="J100" s="36" t="s">
-        <v>869</v>
+        <v>864</v>
       </c>
       <c r="K100" s="30" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="L100" s="25"/>
       <c r="M100" s="25" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="N100" s="24"/>
       <c r="O100" s="34"/>
       <c r="P100" s="2"/>
     </row>
-    <row r="101" spans="1:16" s="5" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="6"/>
       <c r="D101" s="23" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="E101" s="5" t="s">
         <v>121</v>
@@ -12116,26 +12119,26 @@
       </c>
       <c r="I101" s="24"/>
       <c r="J101" s="36" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="K101" s="30" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="L101" s="25"/>
       <c r="M101" s="25" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="N101" s="24"/>
       <c r="O101" s="34"/>
       <c r="P101" s="2"/>
     </row>
-    <row r="102" spans="1:16" s="5" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="6"/>
       <c r="C102" s="5" t="s">
         <v>119</v>
       </c>
       <c r="D102" s="23" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="E102" s="5" t="s">
         <v>118</v>
@@ -12144,7 +12147,7 @@
         <v>7</v>
       </c>
       <c r="G102" s="13" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="H102" s="24" t="s">
         <v>298</v>
@@ -12155,21 +12158,21 @@
       </c>
       <c r="K102" s="30"/>
       <c r="L102" s="28" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="M102" s="27" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="N102" s="24" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="O102" s="34"/>
       <c r="P102" s="2"/>
     </row>
-    <row r="103" spans="1:16" s="5" customFormat="1" ht="46.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:16" s="5" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="6"/>
       <c r="D103" s="23" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="E103" s="5" t="s">
         <v>117</v>
@@ -12185,17 +12188,17 @@
       </c>
       <c r="I103" s="24"/>
       <c r="J103" s="36" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="K103" s="31"/>
       <c r="L103" s="26" t="s">
         <v>350</v>
       </c>
       <c r="M103" s="26" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="N103" s="24" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="O103" s="34"/>
       <c r="P103" s="2"/>
@@ -12203,7 +12206,7 @@
     <row r="104" spans="1:16" s="5" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="6"/>
       <c r="D104" s="23" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="E104" s="5" t="s">
         <v>115</v>
@@ -12212,34 +12215,34 @@
         <v>114</v>
       </c>
       <c r="G104" s="13" t="s">
-        <v>870</v>
+        <v>865</v>
       </c>
       <c r="H104" s="24" t="s">
         <v>298</v>
       </c>
       <c r="I104" s="24"/>
       <c r="J104" s="36" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="K104" s="30" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="L104" s="25" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="M104" s="25" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="N104" s="24" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="O104" s="34"/>
       <c r="P104" s="2"/>
     </row>
-    <row r="105" spans="1:16" s="5" customFormat="1" ht="35.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:16" s="5" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="6"/>
       <c r="D105" s="23" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="E105" s="5" t="s">
         <v>113</v>
@@ -12255,7 +12258,7 @@
       </c>
       <c r="I105" s="24"/>
       <c r="J105" s="36" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="K105" s="30"/>
       <c r="L105" s="25" t="s">
@@ -12268,7 +12271,7 @@
       <c r="O105" s="34"/>
       <c r="P105" s="2"/>
     </row>
-    <row r="106" spans="1:16" s="5" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="6">
         <v>7</v>
       </c>
@@ -12279,7 +12282,7 @@
         <v>109</v>
       </c>
       <c r="D106" s="23" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="E106" s="5" t="s">
         <v>108</v>
@@ -12295,11 +12298,11 @@
       </c>
       <c r="I106" s="24"/>
       <c r="J106" s="36" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="K106" s="30"/>
       <c r="L106" s="25" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="M106" s="27" t="s">
         <v>309</v>
@@ -12308,10 +12311,10 @@
       <c r="O106" s="34"/>
       <c r="P106" s="2"/>
     </row>
-    <row r="107" spans="1:16" s="5" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="6"/>
       <c r="D107" s="23" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="E107" s="5" t="s">
         <v>106</v>
@@ -12320,7 +12323,7 @@
         <v>83</v>
       </c>
       <c r="G107" s="22" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="H107" s="24" t="s">
         <v>298</v>
@@ -12332,10 +12335,10 @@
         <v>318</v>
       </c>
       <c r="K107" s="30" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="L107" s="25" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="M107" s="27" t="s">
         <v>310</v>
@@ -12344,12 +12347,12 @@
       <c r="O107" s="34"/>
       <c r="P107" s="2"/>
     </row>
-    <row r="108" spans="1:16" s="7" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="6"/>
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
       <c r="D108" s="23" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="E108" s="5" t="s">
         <v>105</v>
@@ -12358,7 +12361,7 @@
         <v>7</v>
       </c>
       <c r="G108" s="19" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="H108" s="24" t="s">
         <v>298</v>
@@ -12367,27 +12370,27 @@
         <v>307</v>
       </c>
       <c r="J108" s="36" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="K108" s="30" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="L108" s="25" t="s">
+        <v>381</v>
+      </c>
+      <c r="M108" s="25" t="s">
         <v>382</v>
-      </c>
-      <c r="M108" s="25" t="s">
-        <v>383</v>
       </c>
       <c r="N108" s="24"/>
       <c r="O108" s="34"/>
       <c r="P108" s="2"/>
     </row>
-    <row r="109" spans="1:16" s="7" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="6"/>
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
       <c r="D109" s="23" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="E109" s="5" t="s">
         <v>104</v>
@@ -12403,25 +12406,25 @@
       </c>
       <c r="I109" s="24"/>
       <c r="J109" s="36" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="K109" s="30"/>
       <c r="L109" s="25" t="s">
+        <v>384</v>
+      </c>
+      <c r="M109" s="25" t="s">
         <v>385</v>
-      </c>
-      <c r="M109" s="25" t="s">
-        <v>386</v>
       </c>
       <c r="N109" s="24"/>
       <c r="O109" s="34"/>
       <c r="P109" s="2"/>
     </row>
-    <row r="110" spans="1:16" s="7" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="6"/>
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
       <c r="D110" s="23" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="E110" s="5" t="s">
         <v>102</v>
@@ -12437,11 +12440,11 @@
       </c>
       <c r="I110" s="24"/>
       <c r="J110" s="36" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="K110" s="30"/>
       <c r="L110" s="25" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="M110" s="25" t="s">
         <v>321</v>
@@ -12450,14 +12453,14 @@
       <c r="O110" s="34"/>
       <c r="P110" s="2"/>
     </row>
-    <row r="111" spans="1:16" s="7" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="6"/>
       <c r="B111" s="5"/>
       <c r="C111" s="5" t="s">
         <v>100</v>
       </c>
       <c r="D111" s="23" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="E111" s="5" t="s">
         <v>99</v>
@@ -12466,32 +12469,32 @@
         <v>7</v>
       </c>
       <c r="G111" s="13" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H111" s="24" t="s">
         <v>298</v>
       </c>
       <c r="I111" s="24"/>
       <c r="J111" s="36" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="K111" s="30"/>
       <c r="L111" s="25" t="s">
+        <v>388</v>
+      </c>
+      <c r="M111" s="25" t="s">
         <v>389</v>
-      </c>
-      <c r="M111" s="25" t="s">
-        <v>390</v>
       </c>
       <c r="N111" s="24"/>
       <c r="O111" s="34"/>
       <c r="P111" s="2"/>
     </row>
-    <row r="112" spans="1:16" s="7" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="6"/>
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
       <c r="D112" s="23" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="E112" s="5" t="s">
         <v>98</v>
@@ -12500,21 +12503,21 @@
         <v>5</v>
       </c>
       <c r="G112" s="13" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="H112" s="24" t="s">
         <v>298</v>
       </c>
       <c r="I112" s="24"/>
       <c r="J112" s="36" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="K112" s="30"/>
       <c r="L112" s="25" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="M112" s="25" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="N112" s="24"/>
       <c r="O112" s="34"/>
@@ -12527,32 +12530,32 @@
       <c r="B113" s="5"/>
       <c r="C113" s="5"/>
       <c r="D113" s="23" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E113" s="5" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="F113" s="4" t="s">
         <v>3</v>
       </c>
       <c r="G113" s="13" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="H113" s="24" t="s">
         <v>298</v>
       </c>
       <c r="I113" s="24"/>
       <c r="J113" s="36" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="K113" s="30" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="L113" s="25" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="M113" s="25" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="N113" s="24"/>
       <c r="O113" s="34"/>
@@ -12560,12 +12563,12 @@
         <v>97</v>
       </c>
     </row>
-    <row r="114" spans="1:16" s="7" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="6"/>
       <c r="B114" s="5"/>
       <c r="C114" s="5"/>
       <c r="D114" s="23" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="E114" s="5" t="s">
         <v>96</v>
@@ -12581,25 +12584,25 @@
       </c>
       <c r="I114" s="24"/>
       <c r="J114" s="36" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="K114" s="30"/>
       <c r="L114" s="25"/>
       <c r="M114" s="25" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="N114" s="24"/>
       <c r="O114" s="34"/>
       <c r="P114" s="2"/>
     </row>
-    <row r="115" spans="1:16" s="7" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="6"/>
       <c r="B115" s="5"/>
       <c r="C115" s="17" t="s">
         <v>94</v>
       </c>
       <c r="D115" s="23" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="E115" s="5" t="s">
         <v>93</v>
@@ -12615,23 +12618,23 @@
       </c>
       <c r="I115" s="24"/>
       <c r="J115" s="36" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="K115" s="30"/>
       <c r="L115" s="25"/>
       <c r="M115" s="25" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="N115" s="24"/>
       <c r="O115" s="34"/>
       <c r="P115" s="2"/>
     </row>
-    <row r="116" spans="1:16" s="7" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="6"/>
       <c r="B116" s="5"/>
       <c r="C116" s="5"/>
       <c r="D116" s="23" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="E116" s="5" t="s">
         <v>92</v>
@@ -12647,25 +12650,25 @@
       </c>
       <c r="I116" s="24"/>
       <c r="J116" s="36" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="K116" s="30"/>
       <c r="L116" s="25" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="M116" s="25" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="N116" s="24"/>
       <c r="O116" s="34"/>
       <c r="P116" s="2"/>
     </row>
-    <row r="117" spans="1:16" s="7" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="6"/>
       <c r="B117" s="5"/>
       <c r="C117" s="5"/>
       <c r="D117" s="23" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="E117" s="5" t="s">
         <v>90</v>
@@ -12681,7 +12684,7 @@
       </c>
       <c r="I117" s="24"/>
       <c r="J117" s="36" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="K117" s="30"/>
       <c r="L117" s="25"/>
@@ -12692,7 +12695,7 @@
       <c r="O117" s="34"/>
       <c r="P117" s="2"/>
     </row>
-    <row r="118" spans="1:16" s="7" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="6">
         <v>8</v>
       </c>
@@ -12703,7 +12706,7 @@
         <v>87</v>
       </c>
       <c r="D118" s="23" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="E118" s="5" t="s">
         <v>54</v>
@@ -12719,7 +12722,7 @@
       </c>
       <c r="I118" s="24"/>
       <c r="J118" s="36" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="K118" s="30"/>
       <c r="L118" s="25"/>
@@ -12728,12 +12731,12 @@
       <c r="O118" s="34"/>
       <c r="P118" s="2"/>
     </row>
-    <row r="119" spans="1:16" s="7" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="6"/>
       <c r="B119" s="5"/>
       <c r="C119" s="5"/>
       <c r="D119" s="23" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="E119" s="5" t="s">
         <v>86</v>
@@ -12742,7 +12745,7 @@
         <v>83</v>
       </c>
       <c r="G119" s="19" t="s">
-        <v>858</v>
+        <v>853</v>
       </c>
       <c r="H119" s="24" t="s">
         <v>298</v>
@@ -12751,14 +12754,14 @@
         <v>307</v>
       </c>
       <c r="J119" s="36" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="K119" s="30"/>
       <c r="L119" s="25" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="M119" s="25" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="N119" s="24"/>
       <c r="O119" s="34"/>
@@ -12766,12 +12769,12 @@
         <v>85</v>
       </c>
     </row>
-    <row r="120" spans="1:16" s="7" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" s="6"/>
       <c r="B120" s="5"/>
       <c r="C120" s="41"/>
       <c r="D120" s="40" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="E120" s="5" t="s">
         <v>84</v>
@@ -12780,7 +12783,7 @@
         <v>83</v>
       </c>
       <c r="G120" s="19" t="s">
-        <v>859</v>
+        <v>854</v>
       </c>
       <c r="H120" s="24" t="s">
         <v>298</v>
@@ -12789,33 +12792,33 @@
         <v>307</v>
       </c>
       <c r="J120" s="36" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="K120" s="30" t="s">
-        <v>846</v>
+        <v>841</v>
       </c>
       <c r="L120" s="25" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="M120" s="25" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="N120" s="24" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="O120" s="34"/>
       <c r="P120" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="121" spans="1:16" s="7" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="6"/>
       <c r="B121" s="5"/>
       <c r="C121" s="5" t="s">
         <v>82</v>
       </c>
       <c r="D121" s="23" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="E121" s="5" t="s">
         <v>54</v>
@@ -12831,7 +12834,7 @@
       </c>
       <c r="I121" s="24"/>
       <c r="J121" s="36" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="K121" s="30"/>
       <c r="L121" s="25"/>
@@ -12840,12 +12843,12 @@
       <c r="O121" s="34"/>
       <c r="P121" s="2"/>
     </row>
-    <row r="122" spans="1:16" s="7" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="6"/>
       <c r="B122" s="5"/>
       <c r="C122" s="5"/>
       <c r="D122" s="40" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="E122" s="18" t="s">
         <v>81</v>
@@ -12854,7 +12857,7 @@
         <v>7</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>860</v>
+        <v>855</v>
       </c>
       <c r="H122" s="24" t="s">
         <v>298</v>
@@ -12863,13 +12866,13 @@
         <v>307</v>
       </c>
       <c r="J122" s="36" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="K122" s="30"/>
       <c r="L122" s="25"/>
       <c r="M122" s="25"/>
       <c r="N122" s="24" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="O122" s="34"/>
       <c r="P122" s="2" t="s">
@@ -12881,16 +12884,16 @@
       <c r="B123" s="5"/>
       <c r="C123" s="5"/>
       <c r="D123" s="23" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="E123" s="18" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="F123" s="4" t="s">
         <v>7</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
       <c r="H123" s="24" t="s">
         <v>298</v>
@@ -12899,10 +12902,10 @@
         <v>302</v>
       </c>
       <c r="J123" s="36" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="K123" s="30" t="s">
-        <v>862</v>
+        <v>857</v>
       </c>
       <c r="L123" s="25"/>
       <c r="M123" s="25"/>
@@ -12914,12 +12917,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="124" spans="1:16" s="7" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" s="6"/>
       <c r="B124" s="5"/>
       <c r="C124" s="5"/>
       <c r="D124" s="23" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="E124" s="5" t="s">
         <v>79</v>
@@ -12928,32 +12931,32 @@
         <v>7</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="H124" s="24" t="s">
         <v>298</v>
       </c>
       <c r="I124" s="24"/>
       <c r="J124" s="36" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="K124" s="30"/>
       <c r="L124" s="25" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="M124" s="25" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="N124" s="24"/>
       <c r="O124" s="34"/>
       <c r="P124" s="2"/>
     </row>
-    <row r="125" spans="1:16" s="7" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A125" s="6"/>
       <c r="B125" s="5"/>
       <c r="C125" s="5"/>
       <c r="D125" s="23" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="E125" s="5" t="s">
         <v>78</v>
@@ -12962,21 +12965,21 @@
         <v>5</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>863</v>
+        <v>858</v>
       </c>
       <c r="H125" s="24" t="s">
         <v>298</v>
       </c>
       <c r="I125" s="24"/>
       <c r="J125" s="36" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="K125" s="30"/>
       <c r="L125" s="25" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="M125" s="25" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="N125" s="24"/>
       <c r="O125" s="34"/>
@@ -12987,7 +12990,7 @@
       <c r="B126" s="5"/>
       <c r="C126" s="5"/>
       <c r="D126" s="23" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="E126" s="5" t="s">
         <v>77</v>
@@ -12996,23 +12999,23 @@
         <v>3</v>
       </c>
       <c r="G126" s="3" t="s">
-        <v>864</v>
+        <v>859</v>
       </c>
       <c r="H126" s="24" t="s">
         <v>298</v>
       </c>
       <c r="I126" s="24"/>
       <c r="J126" s="36" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="K126" s="30" t="s">
-        <v>866</v>
+        <v>861</v>
       </c>
       <c r="L126" s="25" t="s">
-        <v>865</v>
+        <v>860</v>
       </c>
       <c r="M126" s="25" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="N126" s="24"/>
       <c r="O126" s="34"/>
@@ -13023,7 +13026,7 @@
       <c r="B127" s="5"/>
       <c r="C127" s="5"/>
       <c r="D127" s="23" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="E127" s="5" t="s">
         <v>76</v>
@@ -13039,16 +13042,16 @@
       </c>
       <c r="I127" s="24"/>
       <c r="J127" s="36" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="K127" s="30" t="s">
-        <v>919</v>
+        <v>914</v>
       </c>
       <c r="L127" s="25" t="s">
+        <v>418</v>
+      </c>
+      <c r="M127" s="25" t="s">
         <v>419</v>
-      </c>
-      <c r="M127" s="25" t="s">
-        <v>420</v>
       </c>
       <c r="N127" s="24"/>
       <c r="O127" s="34"/>
@@ -13059,7 +13062,7 @@
       <c r="B128" s="5"/>
       <c r="C128" s="5"/>
       <c r="D128" s="23" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="E128" s="5" t="s">
         <v>74</v>
@@ -13068,36 +13071,36 @@
         <v>3</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H128" s="24" t="s">
         <v>298</v>
       </c>
       <c r="I128" s="24"/>
       <c r="J128" s="36" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="K128" s="30" t="s">
-        <v>867</v>
+        <v>862</v>
       </c>
       <c r="L128" s="25" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="M128" s="25" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="N128" s="24"/>
       <c r="O128" s="34"/>
       <c r="P128" s="2"/>
     </row>
-    <row r="129" spans="1:16" s="7" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" s="6"/>
       <c r="B129" s="5"/>
       <c r="C129" s="17" t="s">
         <v>73</v>
       </c>
       <c r="D129" s="23" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="E129" s="5" t="s">
         <v>54</v>
@@ -13113,7 +13116,7 @@
       </c>
       <c r="I129" s="24"/>
       <c r="J129" s="36" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="K129" s="30"/>
       <c r="L129" s="25"/>
@@ -13127,7 +13130,7 @@
       <c r="B130" s="5"/>
       <c r="C130" s="5"/>
       <c r="D130" s="40" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E130" s="18" t="s">
         <v>71</v>
@@ -13136,7 +13139,7 @@
         <v>7</v>
       </c>
       <c r="G130" s="13" t="s">
-        <v>774</v>
+        <v>920</v>
       </c>
       <c r="H130" s="24" t="s">
         <v>298</v>
@@ -13145,19 +13148,19 @@
         <v>307</v>
       </c>
       <c r="J130" s="36" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="K130" s="30" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="L130" s="25" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="M130" s="25" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="N130" s="24" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="O130" s="34"/>
       <c r="P130" s="2" t="s">
@@ -13169,16 +13172,16 @@
       <c r="B131" s="5"/>
       <c r="C131" s="5"/>
       <c r="D131" s="23" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="E131" s="18" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="F131" s="4" t="s">
         <v>7</v>
       </c>
       <c r="G131" s="13" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="H131" s="24" t="s">
         <v>298</v>
@@ -13187,10 +13190,10 @@
         <v>302</v>
       </c>
       <c r="J131" s="36" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="K131" s="30" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="L131" s="25"/>
       <c r="M131" s="25" t="s">
@@ -13204,12 +13207,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="132" spans="1:16" s="7" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="6"/>
       <c r="B132" s="5"/>
       <c r="C132" s="5"/>
       <c r="D132" s="23" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="E132" s="5" t="s">
         <v>70</v>
@@ -13225,25 +13228,25 @@
       </c>
       <c r="I132" s="24"/>
       <c r="J132" s="36" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="K132" s="30"/>
       <c r="L132" s="25" t="s">
+        <v>369</v>
+      </c>
+      <c r="M132" s="25" t="s">
         <v>370</v>
-      </c>
-      <c r="M132" s="25" t="s">
-        <v>371</v>
       </c>
       <c r="N132" s="24"/>
       <c r="O132" s="34"/>
       <c r="P132" s="2"/>
     </row>
-    <row r="133" spans="1:16" s="7" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A133" s="6"/>
       <c r="B133" s="5"/>
       <c r="C133" s="5"/>
       <c r="D133" s="23" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="E133" s="5" t="s">
         <v>69</v>
@@ -13259,23 +13262,23 @@
       </c>
       <c r="I133" s="24"/>
       <c r="J133" s="36" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="K133" s="30"/>
       <c r="L133" s="25"/>
       <c r="M133" s="25" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="N133" s="24"/>
       <c r="O133" s="34"/>
       <c r="P133" s="2"/>
     </row>
-    <row r="134" spans="1:16" s="7" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A134" s="6"/>
       <c r="B134" s="5"/>
       <c r="C134" s="5"/>
       <c r="D134" s="23" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="E134" s="5" t="s">
         <v>68</v>
@@ -13291,12 +13294,12 @@
       </c>
       <c r="I134" s="24"/>
       <c r="J134" s="36" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="K134" s="30"/>
       <c r="L134" s="25"/>
       <c r="M134" s="25" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="N134" s="24"/>
       <c r="O134" s="34"/>
@@ -13307,26 +13310,26 @@
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
       <c r="D135" s="23" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="E135" s="18" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="F135" s="4" t="s">
         <v>7</v>
       </c>
       <c r="G135" s="3" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="H135" s="24" t="s">
         <v>298</v>
       </c>
       <c r="I135" s="24"/>
       <c r="J135" s="36" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="K135" s="30" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
       <c r="L135" s="25"/>
       <c r="M135" s="25"/>
@@ -13339,16 +13342,16 @@
       <c r="B136" s="5"/>
       <c r="C136" s="5"/>
       <c r="D136" s="23" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="E136" s="18" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="F136" s="4" t="s">
         <v>7</v>
       </c>
       <c r="G136" s="3" t="s">
-        <v>857</v>
+        <v>852</v>
       </c>
       <c r="H136" s="24" t="s">
         <v>298</v>
@@ -13357,10 +13360,10 @@
         <v>302</v>
       </c>
       <c r="J136" s="36" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="K136" s="30" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="L136" s="25"/>
       <c r="M136" s="25"/>
@@ -13368,7 +13371,7 @@
       <c r="O136" s="34"/>
       <c r="P136" s="2"/>
     </row>
-    <row r="137" spans="1:16" s="7" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A137" s="6">
         <v>9</v>
       </c>
@@ -13379,7 +13382,7 @@
         <v>65</v>
       </c>
       <c r="D137" s="23" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="E137" s="5" t="s">
         <v>64</v>
@@ -13388,17 +13391,17 @@
         <v>3</v>
       </c>
       <c r="G137" s="3" t="s">
-        <v>853</v>
+        <v>848</v>
       </c>
       <c r="H137" s="24" t="s">
         <v>298</v>
       </c>
       <c r="I137" s="24"/>
       <c r="J137" s="36" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="K137" s="30" t="s">
-        <v>854</v>
+        <v>849</v>
       </c>
       <c r="L137" s="25"/>
       <c r="M137" s="25"/>
@@ -13406,14 +13409,14 @@
       <c r="O137" s="34"/>
       <c r="P137" s="2"/>
     </row>
-    <row r="138" spans="1:16" s="7" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A138" s="6"/>
       <c r="B138" s="5"/>
       <c r="C138" s="17" t="s">
         <v>63</v>
       </c>
       <c r="D138" s="23" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="E138" s="5" t="s">
         <v>62</v>
@@ -13429,14 +13432,14 @@
       </c>
       <c r="I138" s="24"/>
       <c r="J138" s="36" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="K138" s="30"/>
       <c r="L138" s="25" t="s">
         <v>319</v>
       </c>
       <c r="M138" s="27" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="N138" s="24"/>
       <c r="O138" s="34"/>
@@ -13444,12 +13447,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="139" spans="1:16" s="7" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A139" s="6"/>
       <c r="B139" s="5"/>
       <c r="C139" s="5"/>
       <c r="D139" s="23" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="E139" s="5" t="s">
         <v>59</v>
@@ -13465,7 +13468,7 @@
       </c>
       <c r="I139" s="24"/>
       <c r="J139" s="36" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="K139" s="32"/>
       <c r="L139" s="27" t="s">
@@ -13478,12 +13481,12 @@
       <c r="O139" s="34"/>
       <c r="P139" s="2"/>
     </row>
-    <row r="140" spans="1:16" s="7" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A140" s="6"/>
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
       <c r="D140" s="23" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="E140" s="5" t="s">
         <v>58</v>
@@ -13499,10 +13502,10 @@
       </c>
       <c r="I140" s="24"/>
       <c r="J140" s="36" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="K140" s="30" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="L140" s="25" t="s">
         <v>348</v>
@@ -13511,17 +13514,17 @@
         <v>309</v>
       </c>
       <c r="N140" s="24" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="O140" s="34"/>
       <c r="P140" s="2"/>
     </row>
-    <row r="141" spans="1:16" s="7" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A141" s="6"/>
       <c r="B141" s="5"/>
       <c r="C141" s="5"/>
       <c r="D141" s="23" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="E141" s="5" t="s">
         <v>57</v>
@@ -13537,7 +13540,7 @@
       </c>
       <c r="I141" s="24"/>
       <c r="J141" s="36" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="K141" s="30"/>
       <c r="L141" s="25" t="s">
@@ -13550,30 +13553,30 @@
       <c r="O141" s="34"/>
       <c r="P141" s="2"/>
     </row>
-    <row r="142" spans="1:16" s="7" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A142" s="6"/>
       <c r="B142" s="5"/>
       <c r="C142" s="5" t="s">
         <v>55</v>
       </c>
       <c r="D142" s="23" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="E142" s="5" t="s">
-        <v>54</v>
+        <v>921</v>
       </c>
       <c r="F142" s="4" t="s">
         <v>7</v>
       </c>
       <c r="G142" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H142" s="24" t="s">
         <v>298</v>
       </c>
       <c r="I142" s="24"/>
       <c r="J142" s="36" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="K142" s="33"/>
       <c r="L142" s="28"/>
@@ -13584,12 +13587,12 @@
       <c r="O142" s="34"/>
       <c r="P142" s="2"/>
     </row>
-    <row r="143" spans="1:16" s="7" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A143" s="6"/>
       <c r="B143" s="5"/>
       <c r="C143" s="5"/>
       <c r="D143" s="40" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="E143" s="5" t="s">
         <v>53</v>
@@ -13598,7 +13601,7 @@
         <v>7</v>
       </c>
       <c r="G143" s="15" t="s">
-        <v>773</v>
+        <v>917</v>
       </c>
       <c r="H143" s="24" t="s">
         <v>298</v>
@@ -13607,40 +13610,40 @@
         <v>307</v>
       </c>
       <c r="J143" s="36" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="K143" s="33" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="L143" s="28" t="s">
-        <v>486</v>
+        <v>918</v>
       </c>
       <c r="M143" s="24" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="N143" s="24" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="O143" s="34"/>
       <c r="P143" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="144" spans="1:16" s="7" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A144" s="6"/>
       <c r="B144" s="5"/>
       <c r="C144" s="5"/>
       <c r="D144" s="23" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="E144" s="5" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F144" s="4" t="s">
         <v>7</v>
       </c>
       <c r="G144" s="15" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="H144" s="24" t="s">
         <v>298</v>
@@ -13649,31 +13652,31 @@
         <v>302</v>
       </c>
       <c r="J144" s="36" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="K144" s="33" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="L144" s="28" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="M144" s="24" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="N144" s="24" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="O144" s="34"/>
       <c r="P144" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="145" spans="1:16" s="7" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A145" s="6"/>
       <c r="B145" s="5"/>
       <c r="C145" s="5"/>
       <c r="D145" s="23" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="E145" s="5" t="s">
         <v>52</v>
@@ -13689,7 +13692,7 @@
       </c>
       <c r="I145" s="24"/>
       <c r="J145" s="36" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="K145" s="34"/>
       <c r="L145" s="24" t="s">
@@ -13702,12 +13705,12 @@
       <c r="O145" s="34"/>
       <c r="P145" s="2"/>
     </row>
-    <row r="146" spans="1:16" s="7" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A146" s="6"/>
       <c r="B146" s="5"/>
       <c r="C146" s="5"/>
       <c r="D146" s="23" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="E146" s="5" t="s">
         <v>51</v>
@@ -13723,11 +13726,11 @@
       </c>
       <c r="I146" s="24"/>
       <c r="J146" s="36" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="K146" s="30"/>
       <c r="L146" s="25" t="s">
-        <v>353</v>
+        <v>922</v>
       </c>
       <c r="M146" s="25" t="s">
         <v>321</v>
@@ -13736,12 +13739,12 @@
       <c r="O146" s="34"/>
       <c r="P146" s="2"/>
     </row>
-    <row r="147" spans="1:16" s="7" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A147" s="6"/>
       <c r="B147" s="5"/>
       <c r="C147" s="5"/>
       <c r="D147" s="23" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="E147" s="5" t="s">
         <v>50</v>
@@ -13757,14 +13760,14 @@
       </c>
       <c r="I147" s="24"/>
       <c r="J147" s="36" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="K147" s="30"/>
       <c r="L147" s="25" t="s">
+        <v>353</v>
+      </c>
+      <c r="M147" s="25" t="s">
         <v>354</v>
-      </c>
-      <c r="M147" s="25" t="s">
-        <v>355</v>
       </c>
       <c r="N147" s="24"/>
       <c r="O147" s="34"/>
@@ -13775,7 +13778,7 @@
       <c r="B148" s="5"/>
       <c r="C148" s="5"/>
       <c r="D148" s="23" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="E148" s="5" t="s">
         <v>48</v>
@@ -13784,40 +13787,40 @@
         <v>3</v>
       </c>
       <c r="G148" s="3" t="s">
-        <v>850</v>
+        <v>845</v>
       </c>
       <c r="H148" s="24" t="s">
         <v>298</v>
       </c>
       <c r="I148" s="24"/>
       <c r="J148" s="36" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="K148" s="30" t="s">
-        <v>851</v>
+        <v>846</v>
       </c>
       <c r="L148" s="25" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
       <c r="M148" s="25" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="N148" s="24" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="O148" s="34"/>
       <c r="P148" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="149" spans="1:16" s="7" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A149" s="6"/>
       <c r="B149" s="5"/>
       <c r="C149" s="5" t="s">
         <v>46</v>
       </c>
       <c r="D149" s="40" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="E149" s="5" t="s">
         <v>45</v>
@@ -13826,7 +13829,7 @@
         <v>7</v>
       </c>
       <c r="G149" s="9" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
       <c r="H149" s="24" t="s">
         <v>298</v>
@@ -13835,40 +13838,40 @@
         <v>307</v>
       </c>
       <c r="J149" s="36" t="s">
-        <v>848</v>
+        <v>843</v>
       </c>
       <c r="K149" s="33" t="s">
-        <v>849</v>
+        <v>844</v>
       </c>
       <c r="L149" s="28" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="M149" s="27" t="s">
         <v>312</v>
       </c>
       <c r="N149" s="24" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="O149" s="34"/>
       <c r="P149" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="150" spans="1:16" s="7" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A150" s="6"/>
       <c r="B150" s="5"/>
       <c r="C150" s="5"/>
       <c r="D150" s="23" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="E150" s="5" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="F150" s="4" t="s">
         <v>7</v>
       </c>
       <c r="G150" s="9" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="H150" s="24" t="s">
         <v>298</v>
@@ -13881,7 +13884,7 @@
       </c>
       <c r="K150" s="33"/>
       <c r="L150" s="28" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="M150" s="27" t="s">
         <v>312</v>
@@ -13894,12 +13897,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="151" spans="1:16" s="7" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A151" s="6"/>
       <c r="B151" s="5"/>
       <c r="C151" s="5"/>
       <c r="D151" s="23" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="E151" s="5" t="s">
         <v>44</v>
@@ -13908,18 +13911,18 @@
         <v>3</v>
       </c>
       <c r="G151" s="8" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H151" s="24" t="s">
         <v>298</v>
       </c>
       <c r="I151" s="24"/>
       <c r="J151" s="36" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="K151" s="34"/>
       <c r="L151" s="24" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M151" s="24" t="s">
         <v>320</v>
@@ -13928,12 +13931,12 @@
       <c r="O151" s="34"/>
       <c r="P151" s="2"/>
     </row>
-    <row r="152" spans="1:16" s="7" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A152" s="6"/>
       <c r="B152" s="5"/>
       <c r="C152" s="5"/>
       <c r="D152" s="23" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="E152" s="5" t="s">
         <v>43</v>
@@ -13949,7 +13952,7 @@
       </c>
       <c r="I152" s="24"/>
       <c r="J152" s="36" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="K152" s="30"/>
       <c r="L152" s="25" t="s">
@@ -13962,12 +13965,12 @@
       <c r="O152" s="34"/>
       <c r="P152" s="2"/>
     </row>
-    <row r="153" spans="1:16" s="7" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A153" s="6"/>
       <c r="B153" s="5"/>
       <c r="C153" s="5"/>
       <c r="D153" s="23" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="E153" s="5" t="s">
         <v>41</v>
@@ -13983,7 +13986,7 @@
       </c>
       <c r="I153" s="24"/>
       <c r="J153" s="36" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="K153" s="30"/>
       <c r="L153" s="25" t="s">
@@ -13998,12 +14001,12 @@
       <c r="O153" s="34"/>
       <c r="P153" s="2"/>
     </row>
-    <row r="154" spans="1:16" s="7" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A154" s="6"/>
       <c r="B154" s="5"/>
       <c r="C154" s="5"/>
       <c r="D154" s="23" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="E154" s="5" t="s">
         <v>39</v>
@@ -14019,11 +14022,11 @@
       </c>
       <c r="I154" s="24"/>
       <c r="J154" s="36" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="K154" s="30"/>
       <c r="L154" s="25" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M154" s="27" t="s">
         <v>309</v>
@@ -14034,12 +14037,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="155" spans="1:16" s="7" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A155" s="6"/>
       <c r="B155" s="5"/>
       <c r="C155" s="5"/>
       <c r="D155" s="23" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="E155" s="5" t="s">
         <v>36</v>
@@ -14048,14 +14051,14 @@
         <v>5</v>
       </c>
       <c r="G155" s="14" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H155" s="24" t="s">
         <v>298</v>
       </c>
       <c r="I155" s="24"/>
       <c r="J155" s="36" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="K155" s="31"/>
       <c r="L155" s="26" t="s">
@@ -14068,12 +14071,12 @@
       <c r="O155" s="34"/>
       <c r="P155" s="2"/>
     </row>
-    <row r="156" spans="1:16" s="7" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A156" s="6"/>
       <c r="B156" s="5"/>
       <c r="C156" s="5"/>
       <c r="D156" s="23" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="E156" s="5" t="s">
         <v>35</v>
@@ -14089,11 +14092,11 @@
       </c>
       <c r="I156" s="24"/>
       <c r="J156" s="36" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="K156" s="30"/>
       <c r="L156" s="25" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="M156" s="25" t="s">
         <v>309</v>
@@ -14102,12 +14105,12 @@
       <c r="O156" s="34"/>
       <c r="P156" s="2"/>
     </row>
-    <row r="157" spans="1:16" s="7" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A157" s="6"/>
       <c r="B157" s="5"/>
       <c r="C157" s="5"/>
       <c r="D157" s="23" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="E157" s="5" t="s">
         <v>34</v>
@@ -14123,7 +14126,7 @@
       </c>
       <c r="I157" s="24"/>
       <c r="J157" s="36" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="K157" s="30"/>
       <c r="L157" s="25"/>
@@ -14134,12 +14137,12 @@
       <c r="O157" s="34"/>
       <c r="P157" s="2"/>
     </row>
-    <row r="158" spans="1:16" s="7" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A158" s="6"/>
       <c r="B158" s="5"/>
       <c r="C158" s="5"/>
       <c r="D158" s="23" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="E158" s="5" t="s">
         <v>32</v>
@@ -14155,11 +14158,11 @@
       </c>
       <c r="I158" s="24"/>
       <c r="J158" s="36" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="K158" s="30"/>
       <c r="L158" s="25" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="M158" s="25" t="s">
         <v>318</v>
@@ -14168,12 +14171,12 @@
       <c r="O158" s="34"/>
       <c r="P158" s="2"/>
     </row>
-    <row r="159" spans="1:16" s="7" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A159" s="6"/>
       <c r="B159" s="5"/>
       <c r="C159" s="5"/>
       <c r="D159" s="23" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="E159" s="5" t="s">
         <v>31</v>
@@ -14182,34 +14185,34 @@
         <v>3</v>
       </c>
       <c r="G159" s="13" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="H159" s="24" t="s">
         <v>298</v>
       </c>
       <c r="I159" s="24"/>
       <c r="J159" s="36" t="s">
+        <v>790</v>
+      </c>
+      <c r="K159" s="30" t="s">
+        <v>795</v>
+      </c>
+      <c r="L159" s="25" t="s">
         <v>794</v>
       </c>
-      <c r="K159" s="30" t="s">
-        <v>799</v>
-      </c>
-      <c r="L159" s="25" t="s">
-        <v>798</v>
-      </c>
       <c r="M159" s="25" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="N159" s="24"/>
       <c r="O159" s="34"/>
       <c r="P159" s="2"/>
     </row>
-    <row r="160" spans="1:16" s="7" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A160" s="6"/>
       <c r="B160" s="5"/>
       <c r="C160" s="5"/>
       <c r="D160" s="23" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="E160" s="5" t="s">
         <v>30</v>
@@ -14225,29 +14228,29 @@
       </c>
       <c r="I160" s="24"/>
       <c r="J160" s="36" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="K160" s="30" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="L160" s="25" t="s">
+        <v>361</v>
+      </c>
+      <c r="M160" s="25" t="s">
         <v>362</v>
-      </c>
-      <c r="M160" s="25" t="s">
-        <v>363</v>
       </c>
       <c r="N160" s="24"/>
       <c r="O160" s="34"/>
       <c r="P160" s="2"/>
     </row>
-    <row r="161" spans="1:16" s="7" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A161" s="6"/>
       <c r="B161" s="5"/>
       <c r="C161" s="17" t="s">
         <v>28</v>
       </c>
       <c r="D161" s="23" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="E161" s="5" t="s">
         <v>27</v>
@@ -14263,14 +14266,14 @@
       </c>
       <c r="I161" s="24"/>
       <c r="J161" s="36" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="K161" s="30"/>
       <c r="L161" s="25" t="s">
         <v>326</v>
       </c>
       <c r="M161" s="27" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="N161" s="24"/>
       <c r="O161" s="34"/>
@@ -14278,12 +14281,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="162" spans="1:16" s="7" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A162" s="6"/>
       <c r="B162" s="5"/>
       <c r="C162" s="5"/>
       <c r="D162" s="23" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="E162" s="5" t="s">
         <v>24</v>
@@ -14299,7 +14302,7 @@
       </c>
       <c r="I162" s="24"/>
       <c r="J162" s="36" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="K162" s="32"/>
       <c r="L162" s="27" t="s">
@@ -14312,12 +14315,12 @@
       <c r="O162" s="34"/>
       <c r="P162" s="2"/>
     </row>
-    <row r="163" spans="1:16" s="7" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A163" s="6"/>
       <c r="B163" s="5"/>
       <c r="C163" s="5"/>
       <c r="D163" s="23" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="E163" s="5" t="s">
         <v>23</v>
@@ -14333,7 +14336,7 @@
       </c>
       <c r="I163" s="24"/>
       <c r="J163" s="36" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="K163" s="32"/>
       <c r="L163" s="27" t="s">
@@ -14346,12 +14349,12 @@
       <c r="O163" s="34"/>
       <c r="P163" s="2"/>
     </row>
-    <row r="164" spans="1:16" s="7" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A164" s="6"/>
       <c r="B164" s="5"/>
       <c r="C164" s="5"/>
       <c r="D164" s="23" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="E164" s="5" t="s">
         <v>22</v>
@@ -14367,7 +14370,7 @@
       </c>
       <c r="I164" s="24"/>
       <c r="J164" s="36" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="K164" s="32"/>
       <c r="L164" s="27" t="s">
@@ -14380,14 +14383,14 @@
       <c r="O164" s="34"/>
       <c r="P164" s="2"/>
     </row>
-    <row r="165" spans="1:16" s="7" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A165" s="6"/>
       <c r="B165" s="5"/>
       <c r="C165" s="17" t="s">
         <v>20</v>
       </c>
       <c r="D165" s="23" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="E165" s="5" t="s">
         <v>19</v>
@@ -14396,36 +14399,36 @@
         <v>7</v>
       </c>
       <c r="G165" s="12" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="H165" s="24" t="s">
         <v>298</v>
       </c>
       <c r="I165" s="24"/>
       <c r="J165" s="36" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="K165" s="30" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="L165" s="28" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="M165" s="27" t="s">
         <v>314</v>
       </c>
       <c r="N165" s="24" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="O165" s="34"/>
       <c r="P165" s="2"/>
     </row>
-    <row r="166" spans="1:16" s="7" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A166" s="6"/>
       <c r="B166" s="5"/>
       <c r="C166" s="5"/>
       <c r="D166" s="23" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="E166" s="5" t="s">
         <v>18</v>
@@ -14434,32 +14437,32 @@
         <v>5</v>
       </c>
       <c r="G166" s="14" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H166" s="24" t="s">
         <v>298</v>
       </c>
       <c r="I166" s="24"/>
       <c r="J166" s="36" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="K166" s="34"/>
       <c r="L166" s="24" t="s">
+        <v>453</v>
+      </c>
+      <c r="M166" s="24" t="s">
         <v>454</v>
-      </c>
-      <c r="M166" s="24" t="s">
-        <v>455</v>
       </c>
       <c r="N166" s="24"/>
       <c r="O166" s="34"/>
       <c r="P166" s="2"/>
     </row>
-    <row r="167" spans="1:16" s="7" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A167" s="6"/>
       <c r="B167" s="5"/>
       <c r="C167" s="5"/>
       <c r="D167" s="23" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="E167" s="5" t="s">
         <v>17</v>
@@ -14475,25 +14478,25 @@
       </c>
       <c r="I167" s="24"/>
       <c r="J167" s="36" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="K167" s="31"/>
       <c r="L167" s="26" t="s">
+        <v>457</v>
+      </c>
+      <c r="M167" s="27" t="s">
         <v>458</v>
-      </c>
-      <c r="M167" s="27" t="s">
-        <v>459</v>
       </c>
       <c r="N167" s="24"/>
       <c r="O167" s="34"/>
       <c r="P167" s="2"/>
     </row>
-    <row r="168" spans="1:16" s="7" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A168" s="6"/>
       <c r="B168" s="5"/>
       <c r="C168" s="5"/>
       <c r="D168" s="23" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="E168" s="5" t="s">
         <v>16</v>
@@ -14509,27 +14512,27 @@
       </c>
       <c r="I168" s="24"/>
       <c r="J168" s="36" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="K168" s="31" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="L168" s="26" t="s">
+        <v>455</v>
+      </c>
+      <c r="M168" s="27" t="s">
         <v>456</v>
-      </c>
-      <c r="M168" s="27" t="s">
-        <v>457</v>
       </c>
       <c r="N168" s="24"/>
       <c r="O168" s="34"/>
       <c r="P168" s="2"/>
     </row>
-    <row r="169" spans="1:16" s="7" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A169" s="6"/>
       <c r="B169" s="5"/>
       <c r="C169" s="5"/>
       <c r="D169" s="23" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="E169" s="5" t="s">
         <v>14</v>
@@ -14538,7 +14541,7 @@
         <v>7</v>
       </c>
       <c r="G169" s="21" t="s">
-        <v>845</v>
+        <v>840</v>
       </c>
       <c r="H169" s="24" t="s">
         <v>298</v>
@@ -14547,16 +14550,16 @@
         <v>307</v>
       </c>
       <c r="J169" s="36" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="K169" s="30" t="s">
-        <v>846</v>
+        <v>841</v>
       </c>
       <c r="L169" s="25" t="s">
         <v>340</v>
       </c>
       <c r="M169" s="27" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="N169" s="24" t="s">
         <v>333</v>
@@ -14571,10 +14574,10 @@
       <c r="B170" s="5"/>
       <c r="C170" s="5"/>
       <c r="D170" s="23" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="E170" s="5" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="F170" s="4"/>
       <c r="G170" s="21"/>
@@ -14583,10 +14586,10 @@
       </c>
       <c r="I170" s="24"/>
       <c r="J170" s="36" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="K170" s="30" t="s">
-        <v>920</v>
+        <v>915</v>
       </c>
       <c r="L170" s="25"/>
       <c r="M170" s="27"/>
@@ -14609,7 +14612,7 @@
       <c r="H171" s="24"/>
       <c r="I171" s="24"/>
       <c r="J171" s="36" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="K171" s="30"/>
       <c r="L171" s="25"/>
@@ -14629,7 +14632,7 @@
         <v>9</v>
       </c>
       <c r="D172" s="23" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="E172" s="16" t="s">
         <v>8</v>
@@ -14638,7 +14641,7 @@
         <v>7</v>
       </c>
       <c r="G172" s="22" t="s">
-        <v>921</v>
+        <v>916</v>
       </c>
       <c r="H172" s="24" t="s">
         <v>300</v>
@@ -14647,7 +14650,7 @@
         <v>302</v>
       </c>
       <c r="J172" s="36" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="K172" s="33"/>
       <c r="L172" s="28"/>
@@ -14660,7 +14663,7 @@
     </row>
     <row r="173" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D173" s="23" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="E173" s="16" t="s">
         <v>6</v>
@@ -14669,7 +14672,7 @@
         <v>5</v>
       </c>
       <c r="G173" s="4" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H173" s="24" t="s">
         <v>300</v>
@@ -14678,7 +14681,7 @@
         <v>302</v>
       </c>
       <c r="J173" s="36" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="K173" s="35"/>
       <c r="L173" s="29"/>
@@ -14689,7 +14692,7 @@
     </row>
     <row r="174" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D174" s="23" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="E174" s="16" t="s">
         <v>4</v>
@@ -14707,7 +14710,7 @@
         <v>302</v>
       </c>
       <c r="J174" s="36" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="K174" s="32"/>
       <c r="L174" s="27"/>
@@ -14718,7 +14721,7 @@
     </row>
     <row r="175" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D175" s="23" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="E175" s="16" t="s">
         <v>2</v>
@@ -14736,7 +14739,7 @@
         <v>302</v>
       </c>
       <c r="J175" s="36" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="K175" s="32"/>
       <c r="L175" s="27"/>
@@ -14746,15 +14749,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AL175">
-    <filterColumn colId="9">
-      <filters>
-        <filter val="待测试"/>
-        <filter val="需要处理"/>
-        <filter val="暂缺"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:AL175"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="J1:J169 J171:J1048576">
     <cfRule type="cellIs" dxfId="20" priority="13" operator="equal">

--- a/trunk/biz/MC-MSC-Web/qxy接口定义文档2016-8-8/【千校云】bug列表.xlsx
+++ b/trunk/biz/MC-MSC-Web/qxy接口定义文档2016-8-8/【千校云】bug列表.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\svn\trunk\biz\MC-MSC-Web\qxy接口定义文档2016-8-8\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mkq\svn\trunk\biz\MC-MSC-Web\qxy接口定义文档2016-8-8\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -111,7 +111,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1619" uniqueCount="923">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1630" uniqueCount="927">
   <si>
     <t>/qxy/trip</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1770,10 +1770,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>需要处理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{
  "token":"910820738640559462371283192",
  "rfid":"012525236",
@@ -1794,10 +1790,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>需要处理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://139.196.101.78:8668/teacher/list?label=0&amp;type=1&amp;page=1&amp;size=1&amp;token=910820738640559462371283192</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1807,10 +1799,6 @@
   </si>
   <si>
     <t>提示成功，数据未修改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要处理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1909,10 +1897,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/qxy/class/course</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">info": "新增失败，\r\n### Error updating database. Cause: java.sql.BatchUpdateException: Column 'term' cannot be null\r\n### The error may involve com.mcookies.qxy.common.ClassCourse.ClassCourseDao.doInsert-Inline\r\n### The error occurred while setting parameters\r\n### SQL: INSERT INTO class_course ( id,sid,cid,term,class_time,week_day,use_day,course_id,course_name,tid,teacher_name,is_use,create_time,creator,update_time,updator ) VALUES ( ?,?,?,?,?,?,?,?,?,?,?,?,?,?,?,? )\r\n### Cause: java.sql.BatchUpdateException: Column 'term' cannot be null\n; SQL []; Column 'term' cannot be null; nested exception is java.sql.BatchUpdateException: Column 'term' cannot be null",
 "status": 1,
 "token": ""
@@ -2058,34 +2042,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{
- "token":"910820738640559462371283192",
-    "cid": "2",
-    "alarmruleIds":"1" 
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>访问失败</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>需要处理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/qxy/class/alarmrule/copy</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{
- "token":"910820738640559462371283192",
-    "cids":[3,4,5,6],                        
-    "alarmruleIds":[1,2,3,3]              
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/qxy/trip</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2118,14 +2082,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>139.196.101.78:8668/homenews/list?token=910820738640559462371283192</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要处理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>无法测试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2135,10 +2091,6 @@
   </si>
   <si>
     <t>正常返回</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>139.196.101.78:8668/schedule/day?term=1&amp;date=2016/8/9&amp;token=910820738640559462371283192</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2422,23 +2374,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>139.196.101.78:8668/studentrfidlist?token=910820738640559462371283192</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>班级报警列表搜索接口</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>需要处理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>班级列表搜索接口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/qxy/newlist?columnId=[colId]&amp;page=[page]&amp;size=[size]&amp;token=[token]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3140,22 +3080,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>139.196.101.78:8668/stundent/list?cid=2&amp;token=910820738640559462371283192</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>139.196.101.78:8668/stundent/search?studentId=2&amp;token=910820738640559462371283192</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>404错误</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/qxy/class/student/parent</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>正常返回</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3177,10 +3105,6 @@
   </si>
   <si>
     <t>待测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要处理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3490,10 +3414,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/qxy/classlist/search?cid=[cid]&amp;token=[token]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/qxy/term?type=[type]&amp;token=[token]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3511,21 +3431,6 @@
   </si>
   <si>
     <t>无法修改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改已经没有问题，设置缺省学期会有问题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "termId": "3",
-    "termName": "2017-2018-1",
-    "startTime": "2016-8-9",
-    "endTime": "2016-12-9",
-    "isUse": "1",
-    "isDefaule":"1"
-}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3600,18 +3505,6 @@
   </si>
   <si>
     <t>已处理完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>列表格式需要调整</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/qxy/studentrfidlist/search?studentId=[studetId]&amp;token=[token]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>404错误</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3643,10 +3536,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/qxy/teacher/info</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/qxy/teacher/list?labelId=[labelId]&amp;type=[type]&amp;page=[page]&amp;size=[size]&amp;token=[token]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3660,23 +3549,6 @@
   </si>
   <si>
     <t>修改提示成功，数据库数据未变更</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-      "tid":"15",
-      "teacherName":"namelist",                     
-      "gender":"1",                    
-      "dateOfBirth":"2011/7/8 00:00:00",       
-      "startWorkT":"2011/7/8 00:00:00",     
-      "jobNumber":"0189302",            
-      "cardType":"1",                   
-      "cardNumber":"425222522223252112", 
-      "homeAddress":"斯里兰卡",             
-      "phone":"155232545544",
-      "email":"ee@ww.com",
-      "isUse":"1"   
-}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3811,14 +3683,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{
-    "cid":"2",
-    "tid": "1",
-    "isLeader": "1" 
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/qxy/uppassword</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3835,10 +3699,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/qxy/rfidstudent/search?rfid=[rfid]&amp;token=[token]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/qxy/stundent/namelist?cid=[cid]&amp;token=[token]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3851,61 +3711,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/qxy/class/alarmlist/search?cid=[cid]&amp;token=[token]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>404错误</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/qxy/class/alarmrule</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/qxy/class/alarmrule</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "alarmruleId":"3",
-    "alarmruleName":"晚自习",
-    "deviceId":"1",         
-    "startTime":"07:00",      
-    "endTime":"08:00",        
-    "flag":"0",      
-    "timeType":"0",  
-    "timeRepeat":"1111100",   
-    "timeDate":"2016-8-9 00:00:00"  
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>访问失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需调整数据表后处理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>测试通过</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>需要处理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/qxy/term</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>139.196.101.78:8668/classlist?page=1&amp;size=12&amp;token=910820738640559462371283192</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询失败</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3941,10 +3755,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/qxy/class/student/list?cid=[cid]&amp;page=[page]&amp;size=[size]&amp;token=[token]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/qxy/class/student/search?studentId=[studentId]&amp;number=[number]&amp;token=[token]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3954,30 +3764,6 @@
   </si>
   <si>
     <t>`parent_name` bigint(20) NOT NULL COMMENT '家长姓名',需要调整为varchar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>目前有报错误信息，需要核对需求文档</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/qxy/stundent/list?termId=[termId]&amp;cid=[cid]&amp;page=[page]&amp;size=[size]&amp;token=[token]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/qxy/stundent/search?studentId=[studentId]&amp;number=[number]&amp;token=[token]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "cid":"2",
-    "studentId": "2"         
-    "target":"3",
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>报500错误</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -4058,6 +3844,324 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>暂无数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂无数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/qxy/class/parent?termId=[term]&amp;cid=[cid]&amp;studentId=[studentId]&amp;page=[page]&amp;size=[size]&amp;token=[token]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/qxy/parent/class?termId=[term]&amp;parentId=[parentId]&amp;studentId=[studentId]&amp;token=[token]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>139.196.101.78:8668/class?termId=5&amp;parentId=1&amp;studentId=2&amp;token=910820738640559462371283192</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/qxy/schedule/mobile/week?termId=[term_id]&amp;week=[week]&amp;tid=[tid]&amp;token=[token]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>139.196.101.78:8668/schedule/mobile/week?termId=5&amp;week=1&amp;token=910820738640559462371283192</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前暂不能获取其他教师的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>139.196.101.78:8668/schedule/mobile/day?termId=5&amp;date=2016-8-8 00:00:00&amp;token=910820738640559462371283192</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/qxy/syllabus?cid=[cid]&amp;startTime=[startTime]&amp;endTime=[endTime]&amp;token=[token]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>访问失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示成功，数据未删除成功，同时传cid和报警规则id，删除它们的关联关系
+班级报警表class_alarm中新增主键，不能以cid为主键，因为一个规则可以应用到多个班级，一个班级也可以有多个规则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前还缺三个接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/qxy/trip?tid=[tid]&amp;date=[date]&amp;page=[page]&amp;size=[size]&amp;token=[token]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/qxy/class?termId=[termId]&amp;page=[page]&amp;size=[size]&amp;token=[token]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://139.196.101.78:8668/class?page=1&amp;size=1&amp;token=910820738640559462371283192</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/qxy/myapplication?tid=[tid]&amp;token=[token]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学校学期年级班级查询接口（通用）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "token":"910820738640559462371283192",
+    "cid":"1",
+    "gradeId":"1",   
+    "className": "三班",   
+    "year": "2016"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/qxy/student/list?termId=[termId]&amp;cid=[cid]&amp;page=[page]&amp;size=[size]&amp;token=[token]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/qxy/student/search?studentId=[studentId]&amp;number=[number]&amp;token=[token]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>139.196.101.78:8668/student/search?studentId=2&amp;token=910820738640559462371283192</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>139.196.101.78:8668/student/list?cid=2&amp;token=910820738640559462371283192</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常返回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已测试通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已测试通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "cid":"2",
+    "studentId": "2"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/qxy/teacher/info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+     "teacherinfo":[
+       { "tid":"15",
+      "teacherName":"namelist",                     
+      "gender":"1",                    
+      "dateOfBirth":"2011/7/8 00:00:00",       
+      "startWorkT":"2011/7/8 00:00:00",     
+      "jobNumber":"0189302",            
+      "cardType":"1",                   
+      "cardNumber":"425222522223252112", 
+      "homeAddress":"斯里兰卡",
+        "isUse":"1"   }
+     ]
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常返回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "cid":"2",
+    "tid": "1",
+    "isLeader": "1" 
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/qxy/class/alarmlist/search?cid=[cid]&amp;token=[token]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/qxy/studentrfidlist?termId=[termId]&amp;cid=[cid]&amp;page=[page]&amp;size=[size]&amp;token=[token]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>139.196.101.78:8668/studentrfidlist?token=910820738640559462371283192</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/qxy/studentrfidlist/search?studentId=[studetId]&amp;token=[token]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>139.196.101.78:8668/studentrfidlist/search?studentId=2&amp;token=910820738640559462371283192</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已测试正常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>139.196.101.78:8668/rfidstudent?page=1&amp;size=12&amp;token=910820738640559462371283192</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>139.196.101.78:8668/class/alarmlist/search?cid=12&amp;token=910820738640559462371283192</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/qxy/rfidstudent/search?rfid=[rfid]&amp;token=[token]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>139.196.101.78:8668/rfidstudent/search?rfid=12525236&amp;token=910820738640559462371283192</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列表格式需要调整，提示访问失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "alarmruleId":"3",
+    "alarmruleName":"晚自习",
+    "deviceId":"1",         
+    "startTime":"07:00",      
+    "endTime":"08:00",        
+    "flag":"0",      
+    "timeType":"0",  
+    "timeRepeat":"1111100",   
+    "timeDate":"2016-8-9 00:00:00"  
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/qxy/class/alarmrule</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "token":"910820738640559462371283192",
+    "cid": "2",
+    "alarmruleId":"1" 
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "token":"910820738640559462371283192",
+    "cids":[3,4,5,6],                        
+    "alarmruleIds":[1,2,3,3]              
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示访问失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "termId": "9",
+    "termName": "2017-2019-1",
+    "startTime": "2016-8-9",
+    "endTime": "2016-12-9",
+    "isUse": "1",
+    "isDefault":"1"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "calendarId":"2",
+    "startTime": "2016-8-9",  
+    "endTime": "2016-8-9",
+    "content": "uu学校安全检查",  
+    "department":"校办公室",   
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>139.196.101.78:8668/syllabus?cid=5&amp;startTime=2016-8-8 00:00:00&amp;endTime=2016-8-20 00:00:00&amp;token=910820738640559462371283192</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/qxy/class/student/parent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{    "studentId":"2",
+    "parentName":"张强",               
+    "phone":"15235256565",            
+    "workUnit":"咚咚咚某某公司",        
+    "position":"工程师",               
+    "role":"1",                       
+    "isDefault":"1" 
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/qxy/class/student/list?cid=[cid]&amp;page=[page]&amp;size=[size]&amp;token=[token]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>139.196.101.78:8668/class/student/list?cid=2&amp;token=910820738640559462371283192</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>139.196.101.78:8668/classlist?page=1&amp;size=12&amp;token=910820738640559462371283192</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/qxy/classlist/search?cid=[cid]&amp;token=[token]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>139.196.101.78:8668/classlist/search?cid=2&amp;token=910820738640559462371283192</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/qxy/class/course</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>139.196.101.78:8668/schedule/day?term=5&amp;date=2016/8/9&amp;token=910820738640559462371283192</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>{
        "newsId":"1",
       "title":"爆咋",  
@@ -4076,7 +4180,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>提示：修改失败，columnId所对应的栏目不存在，但实际栏目是有的</t>
+    <t>确认新闻栏目是否可以修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>139.196.101.78:8668/class/parent?termId=5&amp;cid=2&amp;studentId=2&amp;page=1&amp;size=12&amp;token=910820738640559462371283192</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>139.196.101.78:8668/homenews/list?token=910820738640559462371283192</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常返回，无数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/qxy/newlist?columnId=[colId]&amp;page=[page]&amp;size=[size]&amp;token=[token]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -4084,106 +4212,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"查询失败，\r\n### Error querying database. Cause: java.sql.SQLSyntaxErrorException: Error preparing query: You have an error in your SQL syntax; check the manual that corresponds to your MariaDB server version for the right syntax to use near 'WHERE 1 = 1\n AND a.column_id = ? AND b.is_use = 1\n AND a.is_audit ' at line 5\r\n### Cause: java.sql.SQLSyntaxErrorException: Error preparing query: You have an error in your SQL syntax; check the manual that corresponds to your MariaDB server version for the right syntax to use near 'WHERE 1 = 1\n AND a.column_id = ? AND b.is_use = 1\n AND a.is_audit ' at line 5\n; bad SQL grammar []; nested exception is java.sql.SQLSyntaxErrorException: Error preparing query: You have an error in your SQL syntax; check the manual that corresponds to your MariaDB server version for the right syntax to use near 'WHERE 1 = 1\n AND a.column_id = ? AND b.is_use = 1\n AND a.is_audit ' at line 5"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>404错误</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暂无数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暂无数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/qxy/class/parent?termId=[term]&amp;cid=[cid]&amp;studentId=[studentId]&amp;page=[page]&amp;size=[size]&amp;token=[token]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>139.196.101.78:8668/class/parent?termId=5&amp;cid=2&amp;studentId=2&amp;page=1&amp;size=12&amp;token=910820738640559462371283192</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/qxy/parent/class?termId=[term]&amp;parentId=[parentId]&amp;studentId=[studentId]&amp;token=[token]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>139.196.101.78:8668/class?termId=5&amp;parentId=1&amp;studentId=2&amp;token=910820738640559462371283192</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/qxy/schedule/mobile/week?termId=[term_id]&amp;week=[week]&amp;tid=[tid]&amp;token=[token]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>139.196.101.78:8668/schedule/mobile/week?termId=5&amp;week=1&amp;token=910820738640559462371283192</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>目前暂不能获取其他教师的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>139.196.101.78:8668/schedule/mobile/day?termId=5&amp;date=2016-8-8 00:00:00&amp;token=910820738640559462371283192</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/qxy/syllabus?cid=[cid]&amp;startTime=[startTime]&amp;endTime=[endTime]&amp;token=[token]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>139.196.101.78:8668/syllabus?cid=5&amp;startTime=2016-8-8 00:00:00&amp;endTime=2016-8-20 00:00:00&amp;token=910820738640559462371283192</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>访问失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提示成功，数据未删除成功，同时传cid和报警规则id，删除它们的关联关系
-班级报警表class_alarm中新增主键，不能以cid为主键，因为一个规则可以应用到多个班级，一个班级也可以有多个规则</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>目前还缺三个接口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/qxy/trip?tid=[tid]&amp;date=[date]&amp;page=[page]&amp;size=[size]&amp;token=[token]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/qxy/class?termId=[termId]&amp;page=[page]&amp;size=[size]&amp;token=[token]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://139.196.101.78:8668/class?page=1&amp;size=1&amp;token=910820738640559462371283192</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/qxy/myapplication?tid=[tid]&amp;token=[token]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/qxy/studentrfidlist?termId=[termId]&amp;cid=[cid]&amp;page=[page]&amp;size=[size]&amp;token=[token]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学校学期年级班级查询接口（通用）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "token":"910820738640559462371283192",
-    "cid":"1",
-    "gradeId":"1",   
-    "className": "三班",   
-    "year": "2016"
-}</t>
+    <t>返回正常，无数据，实际有数据关联</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4279,7 +4308,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4331,6 +4360,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4413,7 +4448,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4541,13 +4576,1339 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
     <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="165">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color auto="1"/>
@@ -4794,11 +6155,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-772910560"/>
-        <c:axId val="-772902944"/>
+        <c:axId val="956748016"/>
+        <c:axId val="822496496"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-772910560"/>
+        <c:axId val="956748016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4840,7 +6201,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-772902944"/>
+        <c:crossAx val="822496496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4848,7 +6209,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-772902944"/>
+        <c:axId val="822496496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4898,7 +6259,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-772910560"/>
+        <c:crossAx val="956748016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8436,452 +9797,452 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="37" t="s">
-        <v>719</v>
+        <v>702</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="38" t="s">
-        <v>766</v>
+        <v>749</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" s="39" t="s">
-        <v>726</v>
+        <v>709</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" s="39" t="s">
-        <v>727</v>
+        <v>710</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" s="39" t="s">
-        <v>728</v>
+        <v>711</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" s="39" t="s">
-        <v>547</v>
+        <v>534</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" s="39" t="s">
-        <v>730</v>
+        <v>713</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" s="39" t="s">
-        <v>573</v>
+        <v>560</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9" s="39" t="s">
-        <v>741</v>
+        <v>724</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" s="39" t="s">
-        <v>745</v>
+        <v>728</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A11" s="39" t="s">
-        <v>748</v>
+        <v>731</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A12" s="39" t="s">
-        <v>624</v>
+        <v>611</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A13" s="39" t="s">
-        <v>762</v>
+        <v>745</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A14" s="38" t="s">
-        <v>767</v>
+        <v>750</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A15" s="39" t="s">
-        <v>536</v>
+        <v>523</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A16" s="39" t="s">
-        <v>548</v>
+        <v>535</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="39" t="s">
-        <v>740</v>
+        <v>723</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="39" t="s">
-        <v>604</v>
+        <v>591</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" s="39" t="s">
-        <v>605</v>
+        <v>592</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="39" t="s">
-        <v>755</v>
+        <v>738</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" s="38" t="s">
-        <v>718</v>
+        <v>701</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" s="39" t="s">
-        <v>720</v>
+        <v>703</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" s="39" t="s">
-        <v>510</v>
+        <v>497</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" s="39" t="s">
-        <v>721</v>
+        <v>704</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25" s="39" t="s">
-        <v>722</v>
+        <v>705</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A26" s="39" t="s">
-        <v>513</v>
+        <v>500</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A27" s="39" t="s">
-        <v>514</v>
+        <v>501</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A28" s="39" t="s">
-        <v>723</v>
+        <v>706</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A29" s="39" t="s">
-        <v>517</v>
+        <v>504</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A30" s="39" t="s">
-        <v>724</v>
+        <v>707</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A31" s="39" t="s">
-        <v>725</v>
+        <v>708</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A32" s="39" t="s">
-        <v>521</v>
+        <v>508</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A33" s="39" t="s">
-        <v>530</v>
+        <v>517</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A34" s="39" t="s">
-        <v>533</v>
+        <v>520</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A35" s="39" t="s">
-        <v>534</v>
+        <v>521</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A36" s="39" t="s">
-        <v>535</v>
+        <v>522</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A37" s="39" t="s">
-        <v>729</v>
+        <v>712</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A38" s="39" t="s">
-        <v>731</v>
+        <v>714</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A39" s="39" t="s">
-        <v>732</v>
+        <v>715</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A40" s="39" t="s">
-        <v>733</v>
+        <v>716</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A41" s="39" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A42" s="39" t="s">
-        <v>566</v>
+        <v>553</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A43" s="39" t="s">
-        <v>567</v>
+        <v>554</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A44" s="39" t="s">
-        <v>568</v>
+        <v>555</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A45" s="39" t="s">
-        <v>734</v>
+        <v>717</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A46" s="39" t="s">
-        <v>580</v>
+        <v>567</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A47" s="39" t="s">
-        <v>735</v>
+        <v>718</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A48" s="39" t="s">
-        <v>577</v>
+        <v>564</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A49" s="39" t="s">
-        <v>578</v>
+        <v>565</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A50" s="39" t="s">
-        <v>579</v>
+        <v>566</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A51" s="39" t="s">
-        <v>736</v>
+        <v>719</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A52" s="39" t="s">
-        <v>583</v>
+        <v>570</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A53" s="39" t="s">
-        <v>588</v>
+        <v>575</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A54" s="39" t="s">
-        <v>737</v>
+        <v>720</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A55" s="39" t="s">
-        <v>738</v>
+        <v>721</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A56" s="39" t="s">
-        <v>739</v>
+        <v>722</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A57" s="39" t="s">
-        <v>598</v>
+        <v>585</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A58" s="39" t="s">
-        <v>603</v>
+        <v>590</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A59" s="39" t="s">
-        <v>742</v>
+        <v>725</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A60" s="39" t="s">
-        <v>743</v>
+        <v>726</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A61" s="39" t="s">
-        <v>744</v>
+        <v>727</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A62" s="39" t="s">
-        <v>746</v>
+        <v>729</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A63" s="39" t="s">
-        <v>747</v>
+        <v>730</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A64" s="39" t="s">
-        <v>617</v>
+        <v>604</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A65" s="39" t="s">
-        <v>749</v>
+        <v>732</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A66" s="39" t="s">
-        <v>750</v>
+        <v>733</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A67" s="39" t="s">
-        <v>630</v>
+        <v>617</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A68" s="39" t="s">
-        <v>631</v>
+        <v>618</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A69" s="39" t="s">
-        <v>632</v>
+        <v>619</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A70" s="39" t="s">
-        <v>751</v>
+        <v>734</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A71" s="39" t="s">
-        <v>752</v>
+        <v>735</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A72" s="39" t="s">
-        <v>753</v>
+        <v>736</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A73" s="39" t="s">
-        <v>754</v>
+        <v>737</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A74" s="39" t="s">
-        <v>756</v>
+        <v>739</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A75" s="39" t="s">
-        <v>757</v>
+        <v>740</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A76" s="39" t="s">
-        <v>652</v>
+        <v>639</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A77" s="39" t="s">
-        <v>663</v>
+        <v>650</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A78" s="39" t="s">
-        <v>664</v>
+        <v>651</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A79" s="39" t="s">
-        <v>758</v>
+        <v>741</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A80" s="39" t="s">
-        <v>759</v>
+        <v>742</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A81" s="39" t="s">
-        <v>657</v>
+        <v>644</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A82" s="39" t="s">
-        <v>668</v>
+        <v>655</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A83" s="39" t="s">
-        <v>760</v>
+        <v>743</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A84" s="39" t="s">
-        <v>761</v>
+        <v>744</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A85" s="39" t="s">
-        <v>715</v>
+        <v>698</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A86" s="39" t="s">
-        <v>763</v>
+        <v>746</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A87" s="39" t="s">
-        <v>764</v>
+        <v>747</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A88" s="39" t="s">
-        <v>676</v>
+        <v>663</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A89" s="39" t="s">
-        <v>677</v>
+        <v>664</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A90" s="38" t="s">
-        <v>765</v>
+        <v>748</v>
       </c>
     </row>
   </sheetData>
@@ -8896,10 +10257,10 @@
   <dimension ref="A1:AL175"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H134" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H164" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J145" sqref="J145"/>
+      <selection pane="bottomRight" activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -8910,11 +10271,11 @@
     <col min="4" max="4" width="8.125" style="23" customWidth="1"/>
     <col min="5" max="5" width="24.75" style="5" customWidth="1"/>
     <col min="6" max="6" width="6.875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="56.875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="36.875" style="3" customWidth="1"/>
     <col min="8" max="8" width="8.625" style="24" customWidth="1"/>
     <col min="9" max="9" width="5" style="24" customWidth="1"/>
     <col min="10" max="10" width="17.125" style="36" customWidth="1"/>
-    <col min="11" max="11" width="29.75" style="30" customWidth="1"/>
+    <col min="11" max="11" width="14.375" style="30" customWidth="1"/>
     <col min="12" max="12" width="20.75" style="25" customWidth="1"/>
     <col min="13" max="13" width="11.75" style="25" customWidth="1"/>
     <col min="14" max="14" width="20.375" style="24" customWidth="1"/>
@@ -8934,7 +10295,7 @@
         <v>293</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>505</v>
+        <v>492</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>292</v>
@@ -8952,10 +10313,10 @@
         <v>344</v>
       </c>
       <c r="J1" s="36" t="s">
-        <v>690</v>
+        <v>674</v>
       </c>
       <c r="K1" s="30" t="s">
-        <v>691</v>
+        <v>675</v>
       </c>
       <c r="L1" s="25" t="s">
         <v>315</v>
@@ -8984,7 +10345,7 @@
         <v>287</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>506</v>
+        <v>493</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>286</v>
@@ -8999,7 +10360,7 @@
         <v>300</v>
       </c>
       <c r="J2" s="36" t="s">
-        <v>705</v>
+        <v>688</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>284</v>
@@ -9007,7 +10368,7 @@
     </row>
     <row r="3" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D3" s="23" t="s">
-        <v>508</v>
+        <v>495</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>283</v>
@@ -9016,7 +10377,7 @@
         <v>173</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>497</v>
+        <v>924</v>
       </c>
       <c r="H3" s="24" t="s">
         <v>300</v>
@@ -9025,13 +10386,13 @@
         <v>307</v>
       </c>
       <c r="J3" s="36" t="s">
-        <v>432</v>
+        <v>923</v>
       </c>
       <c r="K3" s="30" t="s">
-        <v>899</v>
+        <v>926</v>
       </c>
       <c r="L3" s="25" t="s">
-        <v>898</v>
+        <v>925</v>
       </c>
       <c r="M3" s="25">
         <v>404</v>
@@ -9042,7 +10403,7 @@
     </row>
     <row r="4" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D4" s="23" t="s">
-        <v>509</v>
+        <v>496</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>281</v>
@@ -9057,12 +10418,12 @@
         <v>300</v>
       </c>
       <c r="J4" s="36" t="s">
-        <v>704</v>
+        <v>687</v>
       </c>
     </row>
     <row r="5" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D5" s="23" t="s">
-        <v>510</v>
+        <v>497</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>279</v>
@@ -9077,13 +10438,13 @@
         <v>300</v>
       </c>
       <c r="J5" s="36" t="s">
-        <v>432</v>
+        <v>923</v>
       </c>
       <c r="K5" s="30" t="s">
-        <v>900</v>
+        <v>922</v>
       </c>
       <c r="L5" s="25" t="s">
-        <v>431</v>
+        <v>921</v>
       </c>
       <c r="M5" s="25">
         <v>404</v>
@@ -9103,7 +10464,7 @@
         <v>277</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>511</v>
+        <v>498</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>276</v>
@@ -9112,7 +10473,7 @@
         <v>173</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>498</v>
+        <v>485</v>
       </c>
       <c r="H6" s="24" t="s">
         <v>300</v>
@@ -9124,10 +10485,10 @@
         <v>318</v>
       </c>
       <c r="K6" s="30" t="s">
-        <v>901</v>
+        <v>854</v>
       </c>
       <c r="M6" s="25" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="AJ6" s="1" t="s">
         <v>301</v>
@@ -9141,7 +10502,7 @@
     </row>
     <row r="7" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D7" s="23" t="s">
-        <v>512</v>
+        <v>499</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>275</v>
@@ -9150,7 +10511,7 @@
         <v>173</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>499</v>
+        <v>486</v>
       </c>
       <c r="H7" s="24" t="s">
         <v>300</v>
@@ -9159,13 +10520,13 @@
         <v>307</v>
       </c>
       <c r="J7" s="36" t="s">
-        <v>798</v>
+        <v>778</v>
       </c>
       <c r="K7" s="30" t="s">
-        <v>902</v>
+        <v>855</v>
       </c>
       <c r="M7" s="25" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="AK7" s="1" t="s">
         <v>304</v>
@@ -9173,7 +10534,7 @@
     </row>
     <row r="8" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D8" s="23" t="s">
-        <v>513</v>
+        <v>500</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>274</v>
@@ -9182,7 +10543,7 @@
         <v>173</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>903</v>
+        <v>856</v>
       </c>
       <c r="H8" s="24" t="s">
         <v>300</v>
@@ -9191,21 +10552,21 @@
         <v>307</v>
       </c>
       <c r="J8" s="36" t="s">
-        <v>432</v>
+        <v>318</v>
       </c>
       <c r="K8" s="30" t="s">
-        <v>804</v>
+        <v>920</v>
       </c>
       <c r="L8" s="25" t="s">
-        <v>904</v>
+        <v>919</v>
       </c>
       <c r="M8" s="25" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
     </row>
     <row r="9" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D9" s="23" t="s">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>273</v>
@@ -9214,7 +10575,7 @@
         <v>173</v>
       </c>
       <c r="G9" s="19" t="s">
-        <v>905</v>
+        <v>857</v>
       </c>
       <c r="H9" s="24" t="s">
         <v>300</v>
@@ -9223,18 +10584,18 @@
         <v>307</v>
       </c>
       <c r="J9" s="36" t="s">
-        <v>790</v>
+        <v>770</v>
       </c>
       <c r="L9" s="25" t="s">
-        <v>906</v>
+        <v>858</v>
       </c>
       <c r="M9" s="25" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
     </row>
     <row r="10" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D10" s="23" t="s">
-        <v>515</v>
+        <v>502</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>250</v>
@@ -9249,7 +10610,7 @@
         <v>300</v>
       </c>
       <c r="J10" s="36" t="s">
-        <v>705</v>
+        <v>688</v>
       </c>
       <c r="P10" s="2" t="s">
         <v>272</v>
@@ -9257,7 +10618,7 @@
     </row>
     <row r="11" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D11" s="23" t="s">
-        <v>516</v>
+        <v>503</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>271</v>
@@ -9266,7 +10627,7 @@
         <v>173</v>
       </c>
       <c r="G11" s="19" t="s">
-        <v>907</v>
+        <v>859</v>
       </c>
       <c r="H11" s="24" t="s">
         <v>300</v>
@@ -9278,10 +10639,10 @@
         <v>318</v>
       </c>
       <c r="K11" s="30" t="s">
-        <v>909</v>
+        <v>861</v>
       </c>
       <c r="L11" s="25" t="s">
-        <v>908</v>
+        <v>860</v>
       </c>
       <c r="N11" s="24" t="s">
         <v>331</v>
@@ -9292,7 +10653,7 @@
     </row>
     <row r="12" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D12" s="23" t="s">
-        <v>517</v>
+        <v>504</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>270</v>
@@ -9301,7 +10662,7 @@
         <v>173</v>
       </c>
       <c r="G12" s="19" t="s">
-        <v>500</v>
+        <v>487</v>
       </c>
       <c r="H12" s="24" t="s">
         <v>300</v>
@@ -9310,13 +10671,13 @@
         <v>302</v>
       </c>
       <c r="J12" s="36" t="s">
-        <v>790</v>
+        <v>770</v>
       </c>
       <c r="K12" s="30" t="s">
-        <v>841</v>
+        <v>816</v>
       </c>
       <c r="L12" s="25" t="s">
-        <v>910</v>
+        <v>862</v>
       </c>
       <c r="N12" s="24" t="s">
         <v>332</v>
@@ -9336,7 +10697,7 @@
         <v>268</v>
       </c>
       <c r="D13" s="41" t="s">
-        <v>518</v>
+        <v>505</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>267</v>
@@ -9345,7 +10706,7 @@
         <v>173</v>
       </c>
       <c r="G13" s="19" t="s">
-        <v>836</v>
+        <v>811</v>
       </c>
       <c r="H13" s="24" t="s">
         <v>300</v>
@@ -9357,10 +10718,10 @@
         <v>318</v>
       </c>
       <c r="L13" s="25" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="M13" s="25" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="P13" s="2" t="s">
         <v>266</v>
@@ -9368,39 +10729,39 @@
     </row>
     <row r="14" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D14" s="23" t="s">
-        <v>519</v>
+        <v>506</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>837</v>
+        <v>812</v>
       </c>
       <c r="H14" s="24" t="s">
         <v>298</v>
       </c>
       <c r="J14" s="36" t="s">
-        <v>838</v>
+        <v>813</v>
       </c>
       <c r="K14" s="30" t="s">
-        <v>839</v>
+        <v>814</v>
       </c>
       <c r="L14" s="25" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="M14" s="25" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="N14" s="26" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
     </row>
     <row r="15" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D15" s="23" t="s">
-        <v>520</v>
+        <v>507</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>265</v>
@@ -9415,15 +10776,15 @@
         <v>298</v>
       </c>
       <c r="J15" s="36" t="s">
-        <v>711</v>
+        <v>694</v>
       </c>
       <c r="M15" s="25" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="16" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D16" s="23" t="s">
-        <v>521</v>
+        <v>508</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>264</v>
@@ -9438,24 +10799,24 @@
         <v>298</v>
       </c>
       <c r="J16" s="36" t="s">
-        <v>363</v>
+        <v>440</v>
       </c>
       <c r="K16" s="30" t="s">
-        <v>897</v>
+        <v>918</v>
       </c>
       <c r="L16" s="25" t="s">
-        <v>896</v>
+        <v>917</v>
       </c>
       <c r="M16" s="25" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="N16" s="24" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D17" s="23" t="s">
-        <v>522</v>
+        <v>509</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>263</v>
@@ -9470,7 +10831,7 @@
         <v>298</v>
       </c>
       <c r="J17" s="36" t="s">
-        <v>711</v>
+        <v>694</v>
       </c>
       <c r="M17" s="25" t="s">
         <v>318</v>
@@ -9478,7 +10839,7 @@
     </row>
     <row r="18" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D18" s="23" t="s">
-        <v>523</v>
+        <v>510</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>261</v>
@@ -9493,7 +10854,7 @@
         <v>300</v>
       </c>
       <c r="J18" s="36" t="s">
-        <v>712</v>
+        <v>695</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.15">
@@ -9501,7 +10862,7 @@
         <v>259</v>
       </c>
       <c r="D19" s="23" t="s">
-        <v>524</v>
+        <v>511</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>258</v>
@@ -9516,10 +10877,10 @@
         <v>298</v>
       </c>
       <c r="J19" s="36" t="s">
-        <v>711</v>
+        <v>694</v>
       </c>
       <c r="L19" s="25" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="M19" s="27" t="s">
         <v>309</v>
@@ -9527,7 +10888,7 @@
     </row>
     <row r="20" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D20" s="23" t="s">
-        <v>525</v>
+        <v>512</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>256</v>
@@ -9542,7 +10903,7 @@
         <v>298</v>
       </c>
       <c r="J20" s="36" t="s">
-        <v>711</v>
+        <v>694</v>
       </c>
       <c r="L20" s="25" t="s">
         <v>345</v>
@@ -9551,12 +10912,12 @@
         <v>318</v>
       </c>
       <c r="N20" s="24" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D21" s="23" t="s">
-        <v>526</v>
+        <v>513</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>255</v>
@@ -9571,7 +10932,7 @@
         <v>298</v>
       </c>
       <c r="J21" s="36" t="s">
-        <v>711</v>
+        <v>694</v>
       </c>
       <c r="L21" s="25" t="s">
         <v>346</v>
@@ -9582,7 +10943,7 @@
     </row>
     <row r="22" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D22" s="23" t="s">
-        <v>527</v>
+        <v>514</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>254</v>
@@ -9591,25 +10952,25 @@
         <v>167</v>
       </c>
       <c r="G22" s="13" t="s">
-        <v>834</v>
+        <v>809</v>
       </c>
       <c r="H22" s="24" t="s">
         <v>298</v>
       </c>
       <c r="J22" s="36" t="s">
-        <v>798</v>
+        <v>778</v>
       </c>
       <c r="K22" s="30" t="s">
-        <v>835</v>
+        <v>810</v>
       </c>
       <c r="L22" s="25" t="s">
-        <v>833</v>
+        <v>808</v>
       </c>
       <c r="M22" s="25" t="s">
-        <v>768</v>
+        <v>751</v>
       </c>
       <c r="N22" s="24" t="s">
-        <v>770</v>
+        <v>753</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -9623,7 +10984,7 @@
         <v>251</v>
       </c>
       <c r="D23" s="23" t="s">
-        <v>528</v>
+        <v>515</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>250</v>
@@ -9632,27 +10993,27 @@
         <v>173</v>
       </c>
       <c r="G23" s="19" t="s">
-        <v>885</v>
+        <v>843</v>
       </c>
       <c r="I23" s="24" t="s">
         <v>307</v>
       </c>
       <c r="J23" s="36" t="s">
-        <v>790</v>
+        <v>770</v>
       </c>
       <c r="L23" s="25" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="M23" s="25" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="N23" s="24" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D24" s="23" t="s">
-        <v>529</v>
+        <v>516</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>249</v>
@@ -9661,30 +11022,30 @@
         <v>173</v>
       </c>
       <c r="G24" s="19" t="s">
-        <v>886</v>
+        <v>844</v>
       </c>
       <c r="I24" s="24" t="s">
         <v>307</v>
       </c>
       <c r="J24" s="36" t="s">
-        <v>781</v>
+        <v>763</v>
       </c>
       <c r="K24" s="30" t="s">
-        <v>841</v>
+        <v>816</v>
       </c>
       <c r="L24" s="25" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="M24" s="25" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="N24" s="24" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D25" s="23" t="s">
-        <v>530</v>
+        <v>517</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>248</v>
@@ -9693,7 +11054,7 @@
         <v>173</v>
       </c>
       <c r="G25" s="19" t="s">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="H25" s="24" t="s">
         <v>298</v>
@@ -9702,24 +11063,24 @@
         <v>307</v>
       </c>
       <c r="J25" s="36" t="s">
-        <v>363</v>
+        <v>318</v>
       </c>
       <c r="K25" s="30" t="s">
-        <v>887</v>
+        <v>845</v>
       </c>
       <c r="L25" s="25" t="s">
-        <v>436</v>
+        <v>916</v>
       </c>
       <c r="M25" s="25" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="N25" s="24" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D26" s="23" t="s">
-        <v>531</v>
+        <v>518</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>247</v>
@@ -9728,19 +11089,19 @@
         <v>7</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>504</v>
+        <v>491</v>
       </c>
       <c r="H26" s="24" t="s">
         <v>298</v>
       </c>
       <c r="J26" s="36" t="s">
-        <v>711</v>
+        <v>694</v>
       </c>
       <c r="L26" s="25" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="M26" s="25" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="P26" s="2" t="s">
         <v>246</v>
@@ -9748,7 +11109,7 @@
     </row>
     <row r="27" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D27" s="23" t="s">
-        <v>532</v>
+        <v>519</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>245</v>
@@ -9757,27 +11118,27 @@
         <v>173</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="H27" s="24" t="s">
         <v>298</v>
       </c>
       <c r="J27" s="36" t="s">
-        <v>711</v>
+        <v>694</v>
       </c>
       <c r="L27" s="25" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="M27" s="25" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
       <c r="N27" s="24" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D28" s="23" t="s">
-        <v>533</v>
+        <v>520</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>244</v>
@@ -9786,27 +11147,27 @@
         <v>171</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>888</v>
+        <v>846</v>
       </c>
       <c r="H28" s="24" t="s">
         <v>298</v>
       </c>
       <c r="J28" s="36" t="s">
-        <v>781</v>
+        <v>763</v>
       </c>
       <c r="L28" s="25" t="s">
-        <v>889</v>
+        <v>847</v>
       </c>
       <c r="M28" s="25">
         <v>404</v>
       </c>
       <c r="N28" s="24" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
     </row>
     <row r="29" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D29" s="23" t="s">
-        <v>534</v>
+        <v>521</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>243</v>
@@ -9821,18 +11182,18 @@
         <v>298</v>
       </c>
       <c r="J29" s="36" t="s">
-        <v>790</v>
+        <v>770</v>
       </c>
       <c r="L29" s="25" t="s">
-        <v>890</v>
+        <v>848</v>
       </c>
       <c r="M29" s="25" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
     </row>
     <row r="30" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D30" s="23" t="s">
-        <v>535</v>
+        <v>522</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>242</v>
@@ -9847,21 +11208,21 @@
         <v>298</v>
       </c>
       <c r="J30" s="36" t="s">
-        <v>798</v>
+        <v>778</v>
       </c>
       <c r="K30" s="30" t="s">
-        <v>892</v>
+        <v>850</v>
       </c>
       <c r="L30" s="25" t="s">
-        <v>891</v>
+        <v>849</v>
       </c>
       <c r="M30" s="25" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
     </row>
     <row r="31" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D31" s="23" t="s">
-        <v>536</v>
+        <v>523</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>240</v>
@@ -9876,21 +11237,21 @@
         <v>298</v>
       </c>
       <c r="J31" s="36" t="s">
-        <v>692</v>
+        <v>676</v>
       </c>
       <c r="K31" s="30" t="s">
-        <v>893</v>
+        <v>851</v>
       </c>
       <c r="L31" s="25" t="s">
-        <v>894</v>
+        <v>852</v>
       </c>
       <c r="M31" s="25" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
     </row>
     <row r="32" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D32" s="23" t="s">
-        <v>537</v>
+        <v>524</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>190</v>
@@ -9902,12 +11263,12 @@
         <v>189</v>
       </c>
       <c r="J32" s="36" t="s">
-        <v>704</v>
+        <v>687</v>
       </c>
     </row>
     <row r="33" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D33" s="23" t="s">
-        <v>538</v>
+        <v>525</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>188</v>
@@ -9919,7 +11280,7 @@
         <v>187</v>
       </c>
       <c r="J33" s="36" t="s">
-        <v>705</v>
+        <v>688</v>
       </c>
     </row>
     <row r="34" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -9927,7 +11288,7 @@
         <v>238</v>
       </c>
       <c r="D34" s="23" t="s">
-        <v>539</v>
+        <v>526</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>237</v>
@@ -9942,10 +11303,10 @@
         <v>298</v>
       </c>
       <c r="J34" s="36" t="s">
-        <v>711</v>
+        <v>694</v>
       </c>
       <c r="L34" s="25" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="M34" s="25" t="s">
         <v>318</v>
@@ -9953,7 +11314,7 @@
     </row>
     <row r="35" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D35" s="23" t="s">
-        <v>540</v>
+        <v>527</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>236</v>
@@ -9968,21 +11329,21 @@
         <v>298</v>
       </c>
       <c r="J35" s="36" t="s">
-        <v>711</v>
+        <v>694</v>
       </c>
       <c r="L35" s="25" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="M35" s="25" t="s">
-        <v>678</v>
+        <v>665</v>
       </c>
       <c r="N35" s="24" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
     </row>
     <row r="36" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D36" s="23" t="s">
-        <v>541</v>
+        <v>528</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>235</v>
@@ -9997,16 +11358,16 @@
         <v>298</v>
       </c>
       <c r="J36" s="36" t="s">
-        <v>711</v>
+        <v>694</v>
       </c>
       <c r="L36" s="25" t="s">
-        <v>474</v>
+        <v>464</v>
       </c>
       <c r="M36" s="25" t="s">
-        <v>689</v>
+        <v>673</v>
       </c>
       <c r="N36" s="24" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
     </row>
     <row r="37" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10014,7 +11375,7 @@
         <v>233</v>
       </c>
       <c r="D37" s="23" t="s">
-        <v>543</v>
+        <v>530</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>232</v>
@@ -10023,21 +11384,21 @@
         <v>171</v>
       </c>
       <c r="G37" s="13" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="H37" s="24" t="s">
         <v>298</v>
       </c>
       <c r="J37" s="36" t="s">
-        <v>711</v>
+        <v>694</v>
       </c>
       <c r="M37" s="25" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
     </row>
     <row r="38" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D38" s="23" t="s">
-        <v>542</v>
+        <v>529</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>231</v>
@@ -10052,18 +11413,18 @@
         <v>298</v>
       </c>
       <c r="J38" s="36" t="s">
-        <v>711</v>
+        <v>694</v>
       </c>
       <c r="L38" s="25" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="M38" s="25" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
     </row>
     <row r="39" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D39" s="23" t="s">
-        <v>507</v>
+        <v>494</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>230</v>
@@ -10072,22 +11433,22 @@
         <v>167</v>
       </c>
       <c r="G39" s="13" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="H39" s="24" t="s">
         <v>298</v>
       </c>
       <c r="J39" s="36" t="s">
-        <v>711</v>
+        <v>694</v>
       </c>
       <c r="L39" s="25" t="s">
-        <v>481</v>
+        <v>471</v>
       </c>
       <c r="M39" s="25" t="s">
-        <v>678</v>
+        <v>665</v>
       </c>
       <c r="N39" s="24" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="P39" s="2" t="s">
         <v>228</v>
@@ -10098,7 +11459,7 @@
         <v>227</v>
       </c>
       <c r="D40" s="23" t="s">
-        <v>544</v>
+        <v>531</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>226</v>
@@ -10107,7 +11468,7 @@
         <v>173</v>
       </c>
       <c r="G40" s="19" t="s">
-        <v>919</v>
+        <v>870</v>
       </c>
       <c r="H40" s="24" t="s">
         <v>298</v>
@@ -10116,15 +11477,15 @@
         <v>307</v>
       </c>
       <c r="J40" s="36" t="s">
-        <v>790</v>
+        <v>770</v>
       </c>
       <c r="M40" s="25" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
     </row>
     <row r="41" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D41" s="23" t="s">
-        <v>545</v>
+        <v>532</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>225</v>
@@ -10133,7 +11494,7 @@
         <v>171</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="H41" s="24" t="s">
         <v>298</v>
@@ -10142,21 +11503,21 @@
         <v>363</v>
       </c>
       <c r="K41" s="30" t="s">
-        <v>830</v>
+        <v>805</v>
       </c>
       <c r="L41" s="25" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="M41" s="25" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="N41" s="24" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
     </row>
     <row r="42" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D42" s="23" t="s">
-        <v>546</v>
+        <v>533</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>224</v>
@@ -10171,15 +11532,15 @@
         <v>298</v>
       </c>
       <c r="J42" s="36" t="s">
-        <v>711</v>
+        <v>694</v>
       </c>
       <c r="M42" s="25" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
     </row>
     <row r="43" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D43" s="23" t="s">
-        <v>547</v>
+        <v>534</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>222</v>
@@ -10188,7 +11549,7 @@
         <v>173</v>
       </c>
       <c r="G43" s="19" t="s">
-        <v>831</v>
+        <v>806</v>
       </c>
       <c r="H43" s="24" t="s">
         <v>298</v>
@@ -10197,13 +11558,13 @@
         <v>307</v>
       </c>
       <c r="J43" s="36" t="s">
-        <v>798</v>
+        <v>778</v>
       </c>
       <c r="K43" s="30" t="s">
-        <v>832</v>
+        <v>807</v>
       </c>
       <c r="L43" s="25" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="M43" s="25" t="s">
         <v>318</v>
@@ -10211,7 +11572,7 @@
     </row>
     <row r="44" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D44" s="23" t="s">
-        <v>548</v>
+        <v>535</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>221</v>
@@ -10226,16 +11587,16 @@
         <v>298</v>
       </c>
       <c r="J44" s="36" t="s">
-        <v>692</v>
+        <v>676</v>
       </c>
       <c r="K44" s="30" t="s">
-        <v>895</v>
+        <v>853</v>
       </c>
       <c r="M44" s="25" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="N44" s="24" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
     </row>
     <row r="45" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10243,7 +11604,7 @@
         <v>219</v>
       </c>
       <c r="D45" s="23" t="s">
-        <v>549</v>
+        <v>536</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>218</v>
@@ -10255,10 +11616,10 @@
         <v>217</v>
       </c>
       <c r="J45" s="36" t="s">
-        <v>711</v>
+        <v>694</v>
       </c>
       <c r="L45" s="25" t="s">
-        <v>827</v>
+        <v>802</v>
       </c>
       <c r="M45" s="25" t="s">
         <v>321</v>
@@ -10266,7 +11627,7 @@
     </row>
     <row r="46" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D46" s="23" t="s">
-        <v>550</v>
+        <v>537</v>
       </c>
       <c r="E46" s="5" t="s">
         <v>216</v>
@@ -10281,15 +11642,15 @@
         <v>298</v>
       </c>
       <c r="J46" s="36" t="s">
-        <v>711</v>
+        <v>694</v>
       </c>
       <c r="M46" s="25" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="47" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D47" s="23" t="s">
-        <v>551</v>
+        <v>538</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>215</v>
@@ -10304,18 +11665,18 @@
         <v>298</v>
       </c>
       <c r="J47" s="36" t="s">
-        <v>711</v>
+        <v>694</v>
       </c>
       <c r="L47" s="25" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="M47" s="25" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="48" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D48" s="23" t="s">
-        <v>552</v>
+        <v>539</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>214</v>
@@ -10330,16 +11691,16 @@
         <v>298</v>
       </c>
       <c r="J48" s="36" t="s">
-        <v>711</v>
+        <v>694</v>
       </c>
       <c r="L48" s="25" t="s">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="M48" s="25" t="s">
-        <v>678</v>
+        <v>665</v>
       </c>
       <c r="N48" s="24" t="s">
-        <v>688</v>
+        <v>672</v>
       </c>
     </row>
     <row r="49" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10347,7 +11708,7 @@
         <v>212</v>
       </c>
       <c r="D49" s="23" t="s">
-        <v>553</v>
+        <v>540</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>211</v>
@@ -10356,22 +11717,22 @@
         <v>173</v>
       </c>
       <c r="G49" s="20" t="s">
-        <v>828</v>
+        <v>803</v>
       </c>
       <c r="I49" s="24" t="s">
         <v>307</v>
       </c>
       <c r="J49" s="36" t="s">
-        <v>798</v>
+        <v>778</v>
       </c>
       <c r="K49" s="30" t="s">
-        <v>829</v>
+        <v>804</v>
       </c>
       <c r="L49" s="25" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="M49" s="25" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="N49" s="24" t="s">
         <v>333</v>
@@ -10382,7 +11743,7 @@
     </row>
     <row r="50" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D50" s="23" t="s">
-        <v>554</v>
+        <v>541</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>210</v>
@@ -10397,10 +11758,10 @@
         <v>298</v>
       </c>
       <c r="J50" s="36" t="s">
-        <v>711</v>
+        <v>694</v>
       </c>
       <c r="L50" s="25" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="M50" s="25" t="s">
         <v>318</v>
@@ -10408,7 +11769,7 @@
     </row>
     <row r="51" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D51" s="23" t="s">
-        <v>555</v>
+        <v>542</v>
       </c>
       <c r="E51" s="5" t="s">
         <v>209</v>
@@ -10423,10 +11784,10 @@
         <v>298</v>
       </c>
       <c r="J51" s="36" t="s">
-        <v>711</v>
+        <v>694</v>
       </c>
       <c r="L51" s="25" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="M51" s="25" t="s">
         <v>318</v>
@@ -10434,7 +11795,7 @@
     </row>
     <row r="52" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D52" s="23" t="s">
-        <v>556</v>
+        <v>543</v>
       </c>
       <c r="E52" s="5" t="s">
         <v>208</v>
@@ -10443,27 +11804,27 @@
         <v>167</v>
       </c>
       <c r="G52" s="13" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
       <c r="H52" s="24" t="s">
         <v>298</v>
       </c>
       <c r="J52" s="36" t="s">
-        <v>711</v>
+        <v>694</v>
       </c>
       <c r="L52" s="25" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="M52" s="25" t="s">
         <v>318</v>
       </c>
       <c r="N52" s="24" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
     </row>
     <row r="53" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D53" s="23" t="s">
-        <v>557</v>
+        <v>544</v>
       </c>
       <c r="E53" s="5" t="s">
         <v>190</v>
@@ -10475,12 +11836,12 @@
         <v>189</v>
       </c>
       <c r="J53" s="36" t="s">
-        <v>706</v>
+        <v>689</v>
       </c>
     </row>
     <row r="54" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D54" s="23" t="s">
-        <v>558</v>
+        <v>545</v>
       </c>
       <c r="E54" s="5" t="s">
         <v>188</v>
@@ -10492,7 +11853,7 @@
         <v>187</v>
       </c>
       <c r="J54" s="36" t="s">
-        <v>704</v>
+        <v>687</v>
       </c>
     </row>
     <row r="55" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10506,7 +11867,7 @@
         <v>206</v>
       </c>
       <c r="D55" s="23" t="s">
-        <v>559</v>
+        <v>546</v>
       </c>
       <c r="E55" s="5" t="s">
         <v>205</v>
@@ -10520,7 +11881,7 @@
       <c r="H55" s="24"/>
       <c r="I55" s="24"/>
       <c r="J55" s="36" t="s">
-        <v>704</v>
+        <v>687</v>
       </c>
       <c r="K55" s="30"/>
       <c r="L55" s="25"/>
@@ -10532,7 +11893,7 @@
     <row r="56" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="6"/>
       <c r="D56" s="23" t="s">
-        <v>560</v>
+        <v>547</v>
       </c>
       <c r="E56" s="18" t="s">
         <v>203</v>
@@ -10541,7 +11902,7 @@
         <v>173</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>826</v>
+        <v>801</v>
       </c>
       <c r="H56" s="24" t="s">
         <v>298</v>
@@ -10550,16 +11911,16 @@
         <v>307</v>
       </c>
       <c r="J56" s="36" t="s">
-        <v>367</v>
+        <v>318</v>
       </c>
       <c r="K56" s="30" t="s">
-        <v>867</v>
+        <v>912</v>
       </c>
       <c r="L56" s="25" t="s">
-        <v>866</v>
+        <v>911</v>
       </c>
       <c r="M56" s="25" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="N56" s="24" t="s">
         <v>334</v>
@@ -10572,16 +11933,16 @@
     <row r="57" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="6"/>
       <c r="D57" s="23" t="s">
-        <v>561</v>
+        <v>548</v>
       </c>
       <c r="E57" s="18" t="s">
-        <v>496</v>
+        <v>484</v>
       </c>
       <c r="F57" s="4" t="s">
         <v>7</v>
       </c>
       <c r="G57" s="19" t="s">
-        <v>779</v>
+        <v>913</v>
       </c>
       <c r="H57" s="24" t="s">
         <v>298</v>
@@ -10590,14 +11951,16 @@
         <v>302</v>
       </c>
       <c r="J57" s="36" t="s">
-        <v>363</v>
+        <v>318</v>
       </c>
       <c r="K57" s="30" t="s">
-        <v>868</v>
-      </c>
-      <c r="L57" s="25"/>
+        <v>832</v>
+      </c>
+      <c r="L57" s="25" t="s">
+        <v>914</v>
+      </c>
       <c r="M57" s="25" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="N57" s="24" t="s">
         <v>333</v>
@@ -10610,7 +11973,7 @@
     <row r="58" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="6"/>
       <c r="D58" s="23" t="s">
-        <v>562</v>
+        <v>549</v>
       </c>
       <c r="E58" s="5" t="s">
         <v>202</v>
@@ -10624,7 +11987,7 @@
       <c r="H58" s="24"/>
       <c r="I58" s="24"/>
       <c r="J58" s="36" t="s">
-        <v>704</v>
+        <v>687</v>
       </c>
       <c r="K58" s="30"/>
       <c r="L58" s="25"/>
@@ -10640,7 +12003,7 @@
         <v>200</v>
       </c>
       <c r="D59" s="23" t="s">
-        <v>563</v>
+        <v>550</v>
       </c>
       <c r="E59" s="5" t="s">
         <v>199</v>
@@ -10649,7 +12012,7 @@
         <v>173</v>
       </c>
       <c r="G59" s="19" t="s">
-        <v>869</v>
+        <v>833</v>
       </c>
       <c r="H59" s="24" t="s">
         <v>298</v>
@@ -10662,10 +12025,10 @@
       </c>
       <c r="K59" s="30"/>
       <c r="L59" s="25" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="M59" s="25" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="N59" s="24" t="s">
         <v>333</v>
@@ -10680,7 +12043,7 @@
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
       <c r="D60" s="23" t="s">
-        <v>564</v>
+        <v>551</v>
       </c>
       <c r="E60" s="5" t="s">
         <v>198</v>
@@ -10694,7 +12057,7 @@
       <c r="H60" s="24"/>
       <c r="I60" s="24"/>
       <c r="J60" s="36" t="s">
-        <v>704</v>
+        <v>687</v>
       </c>
       <c r="K60" s="30"/>
       <c r="L60" s="25"/>
@@ -10708,7 +12071,7 @@
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
       <c r="D61" s="23" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
       <c r="E61" s="5" t="s">
         <v>196</v>
@@ -10717,7 +12080,7 @@
         <v>171</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>394</v>
+        <v>915</v>
       </c>
       <c r="H61" s="24" t="s">
         <v>298</v>
@@ -10727,13 +12090,13 @@
         <v>363</v>
       </c>
       <c r="K61" s="30" t="s">
-        <v>871</v>
+        <v>835</v>
       </c>
       <c r="L61" s="25" t="s">
-        <v>870</v>
+        <v>834</v>
       </c>
       <c r="M61" s="25" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="N61" s="24"/>
       <c r="O61" s="34"/>
@@ -10744,7 +12107,7 @@
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
       <c r="D62" s="23" t="s">
-        <v>566</v>
+        <v>553</v>
       </c>
       <c r="E62" s="5" t="s">
         <v>195</v>
@@ -10765,11 +12128,11 @@
         <v>363</v>
       </c>
       <c r="K62" s="30" t="s">
-        <v>872</v>
+        <v>836</v>
       </c>
       <c r="L62" s="25"/>
       <c r="M62" s="25" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="N62" s="24" t="s">
         <v>335</v>
@@ -10784,7 +12147,7 @@
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
       <c r="D63" s="23" t="s">
-        <v>567</v>
+        <v>554</v>
       </c>
       <c r="E63" s="5" t="s">
         <v>194</v>
@@ -10805,11 +12168,11 @@
         <v>363</v>
       </c>
       <c r="K63" s="30" t="s">
-        <v>873</v>
+        <v>837</v>
       </c>
       <c r="L63" s="25"/>
       <c r="M63" s="25" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="N63" s="24" t="s">
         <v>336</v>
@@ -10824,7 +12187,7 @@
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
       <c r="D64" s="23" t="s">
-        <v>568</v>
+        <v>555</v>
       </c>
       <c r="E64" s="5" t="s">
         <v>192</v>
@@ -10845,11 +12208,11 @@
         <v>367</v>
       </c>
       <c r="K64" s="30" t="s">
-        <v>874</v>
+        <v>838</v>
       </c>
       <c r="L64" s="25"/>
       <c r="M64" s="25" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="N64" s="24" t="s">
         <v>335</v>
@@ -10864,7 +12227,7 @@
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
       <c r="D65" s="23" t="s">
-        <v>569</v>
+        <v>556</v>
       </c>
       <c r="E65" s="5" t="s">
         <v>190</v>
@@ -10878,7 +12241,7 @@
       <c r="H65" s="24"/>
       <c r="I65" s="24"/>
       <c r="J65" s="36" t="s">
-        <v>705</v>
+        <v>688</v>
       </c>
       <c r="K65" s="30"/>
       <c r="L65" s="25"/>
@@ -10892,7 +12255,7 @@
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
       <c r="D66" s="23" t="s">
-        <v>570</v>
+        <v>557</v>
       </c>
       <c r="E66" s="5" t="s">
         <v>188</v>
@@ -10906,7 +12269,7 @@
       <c r="H66" s="24"/>
       <c r="I66" s="24"/>
       <c r="J66" s="36" t="s">
-        <v>704</v>
+        <v>687</v>
       </c>
       <c r="K66" s="30"/>
       <c r="L66" s="25"/>
@@ -10922,7 +12285,7 @@
         <v>186</v>
       </c>
       <c r="D67" s="23" t="s">
-        <v>571</v>
+        <v>558</v>
       </c>
       <c r="E67" s="5" t="s">
         <v>185</v>
@@ -10931,7 +12294,7 @@
         <v>173</v>
       </c>
       <c r="G67" s="21" t="s">
-        <v>875</v>
+        <v>909</v>
       </c>
       <c r="H67" s="24" t="s">
         <v>300</v>
@@ -10940,12 +12303,14 @@
         <v>307</v>
       </c>
       <c r="J67" s="36" t="s">
-        <v>693</v>
+        <v>318</v>
       </c>
       <c r="K67" s="30" t="s">
-        <v>399</v>
-      </c>
-      <c r="L67" s="25"/>
+        <v>395</v>
+      </c>
+      <c r="L67" s="25" t="s">
+        <v>910</v>
+      </c>
       <c r="M67" s="25">
         <v>404</v>
       </c>
@@ -10960,7 +12325,7 @@
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
       <c r="D68" s="23" t="s">
-        <v>572</v>
+        <v>559</v>
       </c>
       <c r="E68" s="5" t="s">
         <v>183</v>
@@ -10969,7 +12334,7 @@
         <v>173</v>
       </c>
       <c r="G68" s="19" t="s">
-        <v>876</v>
+        <v>839</v>
       </c>
       <c r="H68" s="24"/>
       <c r="I68" s="24" t="s">
@@ -10994,7 +12359,7 @@
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
       <c r="D69" s="23" t="s">
-        <v>573</v>
+        <v>560</v>
       </c>
       <c r="E69" s="5" t="s">
         <v>181</v>
@@ -11003,7 +12368,7 @@
         <v>173</v>
       </c>
       <c r="G69" s="20" t="s">
-        <v>502</v>
+        <v>489</v>
       </c>
       <c r="H69" s="24" t="s">
         <v>298</v>
@@ -11012,12 +12377,12 @@
         <v>307</v>
       </c>
       <c r="J69" s="36" t="s">
-        <v>798</v>
+        <v>778</v>
       </c>
       <c r="K69" s="30"/>
       <c r="L69" s="25"/>
       <c r="M69" s="25" t="s">
-        <v>678</v>
+        <v>665</v>
       </c>
       <c r="N69" s="24" t="s">
         <v>333</v>
@@ -11032,7 +12397,7 @@
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
       <c r="D70" s="23" t="s">
-        <v>574</v>
+        <v>561</v>
       </c>
       <c r="E70" s="5" t="s">
         <v>180</v>
@@ -11041,7 +12406,7 @@
         <v>171</v>
       </c>
       <c r="G70" s="13" t="s">
-        <v>824</v>
+        <v>799</v>
       </c>
       <c r="H70" s="24" t="s">
         <v>298</v>
@@ -11054,10 +12419,10 @@
       </c>
       <c r="K70" s="30"/>
       <c r="L70" s="25" t="s">
-        <v>679</v>
+        <v>666</v>
       </c>
       <c r="M70" s="25" t="s">
-        <v>680</v>
+        <v>667</v>
       </c>
       <c r="N70" s="24" t="s">
         <v>333</v>
@@ -11072,7 +12437,7 @@
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
       <c r="D71" s="23" t="s">
-        <v>575</v>
+        <v>562</v>
       </c>
       <c r="E71" s="5" t="s">
         <v>179</v>
@@ -11081,18 +12446,18 @@
         <v>169</v>
       </c>
       <c r="G71" s="13" t="s">
-        <v>825</v>
+        <v>800</v>
       </c>
       <c r="H71" s="24" t="s">
         <v>298</v>
       </c>
       <c r="I71" s="24"/>
       <c r="J71" s="36" t="s">
-        <v>823</v>
+        <v>798</v>
       </c>
       <c r="K71" s="30"/>
       <c r="L71" s="25" t="s">
-        <v>681</v>
+        <v>668</v>
       </c>
       <c r="M71" s="25" t="s">
         <v>318</v>
@@ -11108,7 +12473,7 @@
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
       <c r="D72" s="23" t="s">
-        <v>576</v>
+        <v>563</v>
       </c>
       <c r="E72" s="5" t="s">
         <v>177</v>
@@ -11126,14 +12491,14 @@
         <v>307</v>
       </c>
       <c r="J72" s="36" t="s">
-        <v>822</v>
+        <v>797</v>
       </c>
       <c r="K72" s="30"/>
       <c r="L72" s="25" t="s">
-        <v>682</v>
+        <v>669</v>
       </c>
       <c r="M72" s="25" t="s">
-        <v>687</v>
+        <v>671</v>
       </c>
       <c r="N72" s="24" t="s">
         <v>337</v>
@@ -11148,7 +12513,7 @@
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
       <c r="D73" s="23" t="s">
-        <v>577</v>
+        <v>564</v>
       </c>
       <c r="E73" s="5" t="s">
         <v>174</v>
@@ -11157,17 +12522,17 @@
         <v>173</v>
       </c>
       <c r="G73" s="21" t="s">
-        <v>771</v>
+        <v>754</v>
       </c>
       <c r="H73" s="24"/>
       <c r="I73" s="24" t="s">
         <v>302</v>
       </c>
       <c r="J73" s="36" t="s">
-        <v>790</v>
+        <v>770</v>
       </c>
       <c r="K73" s="30" t="s">
-        <v>877</v>
+        <v>840</v>
       </c>
       <c r="L73" s="25"/>
       <c r="M73" s="25">
@@ -11186,7 +12551,7 @@
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
       <c r="D74" s="23" t="s">
-        <v>578</v>
+        <v>565</v>
       </c>
       <c r="E74" s="5" t="s">
         <v>172</v>
@@ -11195,19 +12560,21 @@
         <v>171</v>
       </c>
       <c r="G74" s="11" t="s">
-        <v>686</v>
+        <v>906</v>
       </c>
       <c r="H74" s="24"/>
       <c r="I74" s="24" t="s">
         <v>302</v>
       </c>
       <c r="J74" s="36" t="s">
-        <v>367</v>
+        <v>318</v>
       </c>
       <c r="K74" s="30" t="s">
-        <v>878</v>
-      </c>
-      <c r="L74" s="25"/>
+        <v>841</v>
+      </c>
+      <c r="L74" s="25" t="s">
+        <v>907</v>
+      </c>
       <c r="M74" s="25">
         <v>404</v>
       </c>
@@ -11224,7 +12591,7 @@
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
       <c r="D75" s="23" t="s">
-        <v>579</v>
+        <v>566</v>
       </c>
       <c r="E75" s="5" t="s">
         <v>170</v>
@@ -11243,7 +12610,7 @@
         <v>367</v>
       </c>
       <c r="K75" s="30" t="s">
-        <v>879</v>
+        <v>908</v>
       </c>
       <c r="L75" s="25"/>
       <c r="M75" s="25">
@@ -11262,7 +12629,7 @@
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
       <c r="D76" s="23" t="s">
-        <v>580</v>
+        <v>567</v>
       </c>
       <c r="E76" s="5" t="s">
         <v>168</v>
@@ -11278,10 +12645,10 @@
         <v>302</v>
       </c>
       <c r="J76" s="36" t="s">
-        <v>790</v>
+        <v>770</v>
       </c>
       <c r="K76" s="30" t="s">
-        <v>877</v>
+        <v>840</v>
       </c>
       <c r="L76" s="25"/>
       <c r="M76" s="25">
@@ -11302,7 +12669,7 @@
         <v>164</v>
       </c>
       <c r="D77" s="23" t="s">
-        <v>581</v>
+        <v>568</v>
       </c>
       <c r="E77" s="5" t="s">
         <v>54</v>
@@ -11316,7 +12683,7 @@
       <c r="H77" s="24"/>
       <c r="I77" s="24"/>
       <c r="J77" s="36" t="s">
-        <v>705</v>
+        <v>688</v>
       </c>
       <c r="K77" s="30"/>
       <c r="L77" s="25"/>
@@ -11330,7 +12697,7 @@
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
       <c r="D78" s="40" t="s">
-        <v>582</v>
+        <v>569</v>
       </c>
       <c r="E78" s="5" t="s">
         <v>163</v>
@@ -11339,7 +12706,7 @@
         <v>7</v>
       </c>
       <c r="G78" s="20" t="s">
-        <v>880</v>
+        <v>873</v>
       </c>
       <c r="H78" s="24" t="s">
         <v>300</v>
@@ -11348,19 +12715,19 @@
         <v>307</v>
       </c>
       <c r="J78" s="36" t="s">
-        <v>368</v>
+        <v>318</v>
       </c>
       <c r="K78" s="30" t="s">
-        <v>804</v>
+        <v>879</v>
       </c>
       <c r="L78" s="25" t="s">
-        <v>683</v>
+        <v>876</v>
       </c>
       <c r="M78" s="25" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="N78" s="24" t="s">
-        <v>772</v>
+        <v>755</v>
       </c>
       <c r="O78" s="34"/>
       <c r="P78" s="2" t="s">
@@ -11372,7 +12739,7 @@
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
       <c r="D79" s="23" t="s">
-        <v>583</v>
+        <v>570</v>
       </c>
       <c r="E79" s="5" t="s">
         <v>162</v>
@@ -11381,23 +12748,23 @@
         <v>7</v>
       </c>
       <c r="G79" s="20" t="s">
-        <v>881</v>
+        <v>874</v>
       </c>
       <c r="H79" s="24"/>
       <c r="I79" s="24" t="s">
         <v>307</v>
       </c>
       <c r="J79" s="36" t="s">
-        <v>368</v>
+        <v>877</v>
       </c>
       <c r="K79" s="30" t="s">
-        <v>804</v>
+        <v>878</v>
       </c>
       <c r="L79" s="25" t="s">
-        <v>684</v>
+        <v>875</v>
       </c>
       <c r="M79" s="25" t="s">
-        <v>685</v>
+        <v>670</v>
       </c>
       <c r="N79" s="24" t="s">
         <v>333</v>
@@ -11412,7 +12779,7 @@
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
       <c r="D80" s="23" t="s">
-        <v>584</v>
+        <v>571</v>
       </c>
       <c r="E80" s="5" t="s">
         <v>161</v>
@@ -11426,7 +12793,7 @@
       <c r="H80" s="24"/>
       <c r="I80" s="24"/>
       <c r="J80" s="36" t="s">
-        <v>704</v>
+        <v>687</v>
       </c>
       <c r="K80" s="30"/>
       <c r="L80" s="25"/>
@@ -11440,7 +12807,7 @@
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
       <c r="D81" s="23" t="s">
-        <v>585</v>
+        <v>572</v>
       </c>
       <c r="E81" s="5" t="s">
         <v>159</v>
@@ -11454,7 +12821,7 @@
       <c r="H81" s="24"/>
       <c r="I81" s="24"/>
       <c r="J81" s="36" t="s">
-        <v>705</v>
+        <v>688</v>
       </c>
       <c r="K81" s="30"/>
       <c r="L81" s="25"/>
@@ -11468,7 +12835,7 @@
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
       <c r="D82" s="23" t="s">
-        <v>586</v>
+        <v>573</v>
       </c>
       <c r="E82" s="5" t="s">
         <v>157</v>
@@ -11482,7 +12849,7 @@
       <c r="H82" s="24"/>
       <c r="I82" s="24"/>
       <c r="J82" s="36" t="s">
-        <v>704</v>
+        <v>687</v>
       </c>
       <c r="K82" s="30"/>
       <c r="L82" s="25"/>
@@ -11498,7 +12865,7 @@
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
       <c r="D83" s="23" t="s">
-        <v>587</v>
+        <v>574</v>
       </c>
       <c r="E83" s="5" t="s">
         <v>154</v>
@@ -11512,7 +12879,7 @@
       <c r="H83" s="24"/>
       <c r="I83" s="24"/>
       <c r="J83" s="36" t="s">
-        <v>707</v>
+        <v>690</v>
       </c>
       <c r="K83" s="30"/>
       <c r="L83" s="25"/>
@@ -11526,7 +12893,7 @@
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
       <c r="D84" s="23" t="s">
-        <v>588</v>
+        <v>575</v>
       </c>
       <c r="E84" s="5" t="s">
         <v>152</v>
@@ -11540,19 +12907,19 @@
       <c r="H84" s="24"/>
       <c r="I84" s="24"/>
       <c r="J84" s="36" t="s">
-        <v>383</v>
+        <v>877</v>
       </c>
       <c r="K84" s="30" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
       <c r="L84" s="25" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="M84" s="25" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="N84" s="24" t="s">
-        <v>884</v>
+        <v>842</v>
       </c>
       <c r="O84" s="34"/>
       <c r="P84" s="2"/>
@@ -11568,7 +12935,7 @@
         <v>149</v>
       </c>
       <c r="D85" s="23" t="s">
-        <v>589</v>
+        <v>576</v>
       </c>
       <c r="E85" s="5" t="s">
         <v>54</v>
@@ -11582,7 +12949,7 @@
       <c r="H85" s="24"/>
       <c r="I85" s="24"/>
       <c r="J85" s="36" t="s">
-        <v>703</v>
+        <v>686</v>
       </c>
       <c r="K85" s="30"/>
       <c r="L85" s="25"/>
@@ -11596,7 +12963,7 @@
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
       <c r="D86" s="41" t="s">
-        <v>590</v>
+        <v>577</v>
       </c>
       <c r="E86" s="16" t="s">
         <v>148</v>
@@ -11605,7 +12972,7 @@
         <v>83</v>
       </c>
       <c r="G86" s="19" t="s">
-        <v>911</v>
+        <v>863</v>
       </c>
       <c r="H86" s="24" t="s">
         <v>300</v>
@@ -11617,13 +12984,13 @@
         <v>367</v>
       </c>
       <c r="K86" s="30" t="s">
-        <v>913</v>
+        <v>864</v>
       </c>
       <c r="L86" s="25" t="s">
-        <v>912</v>
+        <v>905</v>
       </c>
       <c r="M86" s="25" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="N86" s="24" t="s">
         <v>333</v>
@@ -11638,7 +13005,7 @@
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
       <c r="D87" s="23" t="s">
-        <v>591</v>
+        <v>578</v>
       </c>
       <c r="E87" s="5" t="s">
         <v>146</v>
@@ -11654,7 +13021,7 @@
       </c>
       <c r="I87" s="24"/>
       <c r="J87" s="36" t="s">
-        <v>704</v>
+        <v>687</v>
       </c>
       <c r="K87" s="30"/>
       <c r="L87" s="25"/>
@@ -11670,7 +13037,7 @@
         <v>144</v>
       </c>
       <c r="D88" s="23" t="s">
-        <v>592</v>
+        <v>579</v>
       </c>
       <c r="E88" s="5" t="s">
         <v>108</v>
@@ -11686,7 +13053,7 @@
       </c>
       <c r="I88" s="24"/>
       <c r="J88" s="36" t="s">
-        <v>705</v>
+        <v>688</v>
       </c>
       <c r="K88" s="30"/>
       <c r="L88" s="25"/>
@@ -11700,7 +13067,7 @@
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
       <c r="D89" s="23" t="s">
-        <v>593</v>
+        <v>580</v>
       </c>
       <c r="E89" s="5" t="s">
         <v>106</v>
@@ -11716,7 +13083,7 @@
       </c>
       <c r="I89" s="24"/>
       <c r="J89" s="36" t="s">
-        <v>704</v>
+        <v>687</v>
       </c>
       <c r="K89" s="30"/>
       <c r="L89" s="25"/>
@@ -11730,7 +13097,7 @@
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
       <c r="D90" s="23" t="s">
-        <v>594</v>
+        <v>581</v>
       </c>
       <c r="E90" s="5" t="s">
         <v>141</v>
@@ -11746,7 +13113,7 @@
       </c>
       <c r="I90" s="24"/>
       <c r="J90" s="36" t="s">
-        <v>704</v>
+        <v>687</v>
       </c>
       <c r="K90" s="30"/>
       <c r="L90" s="25"/>
@@ -11760,7 +13127,7 @@
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
       <c r="D91" s="23" t="s">
-        <v>595</v>
+        <v>582</v>
       </c>
       <c r="E91" s="5" t="s">
         <v>139</v>
@@ -11776,7 +13143,7 @@
       </c>
       <c r="I91" s="24"/>
       <c r="J91" s="36" t="s">
-        <v>705</v>
+        <v>688</v>
       </c>
       <c r="K91" s="30"/>
       <c r="L91" s="25"/>
@@ -11792,7 +13159,7 @@
         <v>137</v>
       </c>
       <c r="D92" s="23" t="s">
-        <v>596</v>
+        <v>583</v>
       </c>
       <c r="E92" s="16" t="s">
         <v>136</v>
@@ -11812,10 +13179,12 @@
       <c r="J92" s="36" t="s">
         <v>367</v>
       </c>
-      <c r="K92" s="30"/>
+      <c r="K92" s="30" t="s">
+        <v>440</v>
+      </c>
       <c r="L92" s="25"/>
       <c r="M92" s="25" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="N92" s="24" t="s">
         <v>338</v>
@@ -11830,7 +13199,7 @@
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
       <c r="D93" s="23" t="s">
-        <v>597</v>
+        <v>584</v>
       </c>
       <c r="E93" s="16" t="s">
         <v>135</v>
@@ -11848,12 +13217,14 @@
         <v>307</v>
       </c>
       <c r="J93" s="36" t="s">
-        <v>821</v>
-      </c>
-      <c r="K93" s="30"/>
+        <v>796</v>
+      </c>
+      <c r="K93" s="30" t="s">
+        <v>440</v>
+      </c>
       <c r="L93" s="25"/>
       <c r="M93" s="25" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="N93" s="24" t="s">
         <v>333</v>
@@ -11866,7 +13237,7 @@
     <row r="94" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="6"/>
       <c r="D94" s="23" t="s">
-        <v>598</v>
+        <v>585</v>
       </c>
       <c r="E94" s="16" t="s">
         <v>133</v>
@@ -11884,12 +13255,14 @@
         <v>307</v>
       </c>
       <c r="J94" s="36" t="s">
-        <v>820</v>
-      </c>
-      <c r="K94" s="30"/>
+        <v>795</v>
+      </c>
+      <c r="K94" s="30" t="s">
+        <v>440</v>
+      </c>
       <c r="L94" s="25"/>
       <c r="M94" s="25" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="N94" s="24" t="s">
         <v>333</v>
@@ -11905,7 +13278,7 @@
         <v>131</v>
       </c>
       <c r="D95" s="23" t="s">
-        <v>599</v>
+        <v>586</v>
       </c>
       <c r="E95" s="5" t="s">
         <v>130</v>
@@ -11921,7 +13294,7 @@
       </c>
       <c r="I95" s="24"/>
       <c r="J95" s="36" t="s">
-        <v>704</v>
+        <v>687</v>
       </c>
       <c r="K95" s="30"/>
       <c r="L95" s="25"/>
@@ -11933,7 +13306,7 @@
     <row r="96" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="6"/>
       <c r="D96" s="23" t="s">
-        <v>600</v>
+        <v>587</v>
       </c>
       <c r="E96" s="5" t="s">
         <v>129</v>
@@ -11949,7 +13322,7 @@
       </c>
       <c r="I96" s="24"/>
       <c r="J96" s="36" t="s">
-        <v>703</v>
+        <v>686</v>
       </c>
       <c r="K96" s="30"/>
       <c r="L96" s="25"/>
@@ -11969,7 +13342,7 @@
         <v>126</v>
       </c>
       <c r="D97" s="23" t="s">
-        <v>601</v>
+        <v>588</v>
       </c>
       <c r="E97" s="5" t="s">
         <v>125</v>
@@ -11978,23 +13351,23 @@
         <v>7</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>819</v>
+        <v>794</v>
       </c>
       <c r="H97" s="24" t="s">
         <v>298</v>
       </c>
       <c r="I97" s="24"/>
       <c r="J97" s="36" t="s">
-        <v>816</v>
+        <v>791</v>
       </c>
       <c r="K97" s="30" t="s">
-        <v>863</v>
+        <v>830</v>
       </c>
       <c r="L97" s="25" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="M97" s="25" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="N97" s="24"/>
       <c r="O97" s="34"/>
@@ -12003,7 +13376,7 @@
     <row r="98" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="6"/>
       <c r="D98" s="41" t="s">
-        <v>602</v>
+        <v>589</v>
       </c>
       <c r="E98" s="5" t="s">
         <v>124</v>
@@ -12012,7 +13385,7 @@
         <v>83</v>
       </c>
       <c r="G98" s="19" t="s">
-        <v>817</v>
+        <v>792</v>
       </c>
       <c r="H98" s="24" t="s">
         <v>298</v>
@@ -12021,14 +13394,14 @@
         <v>307</v>
       </c>
       <c r="J98" s="36" t="s">
-        <v>798</v>
+        <v>778</v>
       </c>
       <c r="K98" s="30"/>
       <c r="L98" s="25" t="s">
-        <v>818</v>
+        <v>793</v>
       </c>
       <c r="M98" s="25" t="s">
-        <v>695</v>
+        <v>678</v>
       </c>
       <c r="N98" s="24"/>
       <c r="O98" s="34"/>
@@ -12037,7 +13410,7 @@
     <row r="99" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="6"/>
       <c r="D99" s="23" t="s">
-        <v>603</v>
+        <v>590</v>
       </c>
       <c r="E99" s="5" t="s">
         <v>123</v>
@@ -12056,13 +13429,13 @@
         <v>318</v>
       </c>
       <c r="K99" s="30" t="s">
-        <v>812</v>
+        <v>788</v>
       </c>
       <c r="L99" s="25" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="M99" s="25" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="N99" s="24"/>
       <c r="O99" s="34"/>
@@ -12071,7 +13444,7 @@
     <row r="100" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="6"/>
       <c r="D100" s="23" t="s">
-        <v>604</v>
+        <v>591</v>
       </c>
       <c r="E100" s="5" t="s">
         <v>122</v>
@@ -12087,14 +13460,16 @@
       </c>
       <c r="I100" s="24"/>
       <c r="J100" s="36" t="s">
-        <v>864</v>
+        <v>318</v>
       </c>
       <c r="K100" s="30" t="s">
-        <v>815</v>
-      </c>
-      <c r="L100" s="25"/>
+        <v>790</v>
+      </c>
+      <c r="L100" s="25" t="s">
+        <v>904</v>
+      </c>
       <c r="M100" s="25" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="N100" s="24"/>
       <c r="O100" s="34"/>
@@ -12103,7 +13478,7 @@
     <row r="101" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="6"/>
       <c r="D101" s="23" t="s">
-        <v>605</v>
+        <v>592</v>
       </c>
       <c r="E101" s="5" t="s">
         <v>121</v>
@@ -12119,14 +13494,14 @@
       </c>
       <c r="I101" s="24"/>
       <c r="J101" s="36" t="s">
-        <v>816</v>
+        <v>791</v>
       </c>
       <c r="K101" s="30" t="s">
-        <v>807</v>
+        <v>784</v>
       </c>
       <c r="L101" s="25"/>
       <c r="M101" s="25" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="N101" s="24"/>
       <c r="O101" s="34"/>
@@ -12138,7 +13513,7 @@
         <v>119</v>
       </c>
       <c r="D102" s="23" t="s">
-        <v>606</v>
+        <v>593</v>
       </c>
       <c r="E102" s="5" t="s">
         <v>118</v>
@@ -12147,7 +13522,7 @@
         <v>7</v>
       </c>
       <c r="G102" s="13" t="s">
-        <v>780</v>
+        <v>762</v>
       </c>
       <c r="H102" s="24" t="s">
         <v>298</v>
@@ -12158,13 +13533,13 @@
       </c>
       <c r="K102" s="30"/>
       <c r="L102" s="28" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="M102" s="27" t="s">
-        <v>696</v>
+        <v>679</v>
       </c>
       <c r="N102" s="24" t="s">
-        <v>783</v>
+        <v>765</v>
       </c>
       <c r="O102" s="34"/>
       <c r="P102" s="2"/>
@@ -12172,7 +13547,7 @@
     <row r="103" spans="1:16" s="5" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="6"/>
       <c r="D103" s="23" t="s">
-        <v>607</v>
+        <v>594</v>
       </c>
       <c r="E103" s="5" t="s">
         <v>117</v>
@@ -12188,17 +13563,17 @@
       </c>
       <c r="I103" s="24"/>
       <c r="J103" s="36" t="s">
-        <v>781</v>
+        <v>763</v>
       </c>
       <c r="K103" s="31"/>
       <c r="L103" s="26" t="s">
         <v>350</v>
       </c>
       <c r="M103" s="26" t="s">
-        <v>781</v>
+        <v>763</v>
       </c>
       <c r="N103" s="24" t="s">
-        <v>782</v>
+        <v>764</v>
       </c>
       <c r="O103" s="34"/>
       <c r="P103" s="2"/>
@@ -12206,7 +13581,7 @@
     <row r="104" spans="1:16" s="5" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="6"/>
       <c r="D104" s="23" t="s">
-        <v>608</v>
+        <v>595</v>
       </c>
       <c r="E104" s="5" t="s">
         <v>115</v>
@@ -12215,26 +13590,26 @@
         <v>114</v>
       </c>
       <c r="G104" s="13" t="s">
-        <v>865</v>
+        <v>831</v>
       </c>
       <c r="H104" s="24" t="s">
         <v>298</v>
       </c>
       <c r="I104" s="24"/>
       <c r="J104" s="36" t="s">
-        <v>364</v>
+        <v>318</v>
       </c>
       <c r="K104" s="30" t="s">
-        <v>785</v>
+        <v>903</v>
       </c>
       <c r="L104" s="25" t="s">
-        <v>786</v>
+        <v>902</v>
       </c>
       <c r="M104" s="25" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="N104" s="24" t="s">
-        <v>784</v>
+        <v>766</v>
       </c>
       <c r="O104" s="34"/>
       <c r="P104" s="2"/>
@@ -12242,7 +13617,7 @@
     <row r="105" spans="1:16" s="5" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="6"/>
       <c r="D105" s="23" t="s">
-        <v>609</v>
+        <v>596</v>
       </c>
       <c r="E105" s="5" t="s">
         <v>113</v>
@@ -12258,7 +13633,7 @@
       </c>
       <c r="I105" s="24"/>
       <c r="J105" s="36" t="s">
-        <v>711</v>
+        <v>694</v>
       </c>
       <c r="K105" s="30"/>
       <c r="L105" s="25" t="s">
@@ -12282,7 +13657,7 @@
         <v>109</v>
       </c>
       <c r="D106" s="23" t="s">
-        <v>610</v>
+        <v>597</v>
       </c>
       <c r="E106" s="5" t="s">
         <v>108</v>
@@ -12298,11 +13673,11 @@
       </c>
       <c r="I106" s="24"/>
       <c r="J106" s="36" t="s">
-        <v>711</v>
+        <v>694</v>
       </c>
       <c r="K106" s="30"/>
       <c r="L106" s="25" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="M106" s="27" t="s">
         <v>309</v>
@@ -12314,7 +13689,7 @@
     <row r="107" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="6"/>
       <c r="D107" s="23" t="s">
-        <v>611</v>
+        <v>598</v>
       </c>
       <c r="E107" s="5" t="s">
         <v>106</v>
@@ -12323,7 +13698,7 @@
         <v>83</v>
       </c>
       <c r="G107" s="22" t="s">
-        <v>810</v>
+        <v>786</v>
       </c>
       <c r="H107" s="24" t="s">
         <v>298</v>
@@ -12335,10 +13710,10 @@
         <v>318</v>
       </c>
       <c r="K107" s="30" t="s">
-        <v>807</v>
+        <v>784</v>
       </c>
       <c r="L107" s="25" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="M107" s="27" t="s">
         <v>310</v>
@@ -12352,7 +13727,7 @@
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
       <c r="D108" s="23" t="s">
-        <v>612</v>
+        <v>599</v>
       </c>
       <c r="E108" s="5" t="s">
         <v>105</v>
@@ -12361,7 +13736,7 @@
         <v>7</v>
       </c>
       <c r="G108" s="19" t="s">
-        <v>811</v>
+        <v>787</v>
       </c>
       <c r="H108" s="24" t="s">
         <v>298</v>
@@ -12370,16 +13745,16 @@
         <v>307</v>
       </c>
       <c r="J108" s="36" t="s">
-        <v>792</v>
+        <v>772</v>
       </c>
       <c r="K108" s="30" t="s">
-        <v>812</v>
+        <v>788</v>
       </c>
       <c r="L108" s="25" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="M108" s="25" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="N108" s="24"/>
       <c r="O108" s="34"/>
@@ -12390,7 +13765,7 @@
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
       <c r="D109" s="23" t="s">
-        <v>613</v>
+        <v>600</v>
       </c>
       <c r="E109" s="5" t="s">
         <v>104</v>
@@ -12406,14 +13781,14 @@
       </c>
       <c r="I109" s="24"/>
       <c r="J109" s="36" t="s">
-        <v>711</v>
+        <v>694</v>
       </c>
       <c r="K109" s="30"/>
       <c r="L109" s="25" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="M109" s="25" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="N109" s="24"/>
       <c r="O109" s="34"/>
@@ -12424,7 +13799,7 @@
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
       <c r="D110" s="23" t="s">
-        <v>614</v>
+        <v>601</v>
       </c>
       <c r="E110" s="5" t="s">
         <v>102</v>
@@ -12440,11 +13815,11 @@
       </c>
       <c r="I110" s="24"/>
       <c r="J110" s="36" t="s">
-        <v>711</v>
+        <v>694</v>
       </c>
       <c r="K110" s="30"/>
       <c r="L110" s="25" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="M110" s="25" t="s">
         <v>321</v>
@@ -12460,7 +13835,7 @@
         <v>100</v>
       </c>
       <c r="D111" s="23" t="s">
-        <v>615</v>
+        <v>602</v>
       </c>
       <c r="E111" s="5" t="s">
         <v>99</v>
@@ -12469,21 +13844,21 @@
         <v>7</v>
       </c>
       <c r="G111" s="13" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="H111" s="24" t="s">
         <v>298</v>
       </c>
       <c r="I111" s="24"/>
       <c r="J111" s="36" t="s">
-        <v>711</v>
+        <v>694</v>
       </c>
       <c r="K111" s="30"/>
       <c r="L111" s="25" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="M111" s="25" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="N111" s="24"/>
       <c r="O111" s="34"/>
@@ -12494,7 +13869,7 @@
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
       <c r="D112" s="23" t="s">
-        <v>616</v>
+        <v>603</v>
       </c>
       <c r="E112" s="5" t="s">
         <v>98</v>
@@ -12503,21 +13878,21 @@
         <v>5</v>
       </c>
       <c r="G112" s="13" t="s">
-        <v>805</v>
+        <v>782</v>
       </c>
       <c r="H112" s="24" t="s">
         <v>298</v>
       </c>
       <c r="I112" s="24"/>
       <c r="J112" s="36" t="s">
-        <v>790</v>
+        <v>770</v>
       </c>
       <c r="K112" s="30"/>
       <c r="L112" s="25" t="s">
-        <v>806</v>
+        <v>783</v>
       </c>
       <c r="M112" s="25" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="N112" s="24"/>
       <c r="O112" s="34"/>
@@ -12530,32 +13905,32 @@
       <c r="B113" s="5"/>
       <c r="C113" s="5"/>
       <c r="D113" s="23" t="s">
-        <v>617</v>
+        <v>604</v>
       </c>
       <c r="E113" s="5" t="s">
-        <v>808</v>
+        <v>785</v>
       </c>
       <c r="F113" s="4" t="s">
         <v>3</v>
       </c>
       <c r="G113" s="13" t="s">
-        <v>809</v>
+        <v>881</v>
       </c>
       <c r="H113" s="24" t="s">
         <v>298</v>
       </c>
       <c r="I113" s="24"/>
       <c r="J113" s="36" t="s">
-        <v>377</v>
+        <v>883</v>
       </c>
       <c r="K113" s="30" t="s">
-        <v>813</v>
+        <v>789</v>
       </c>
       <c r="L113" s="25" t="s">
-        <v>814</v>
+        <v>882</v>
       </c>
       <c r="M113" s="25" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N113" s="24"/>
       <c r="O113" s="34"/>
@@ -12568,7 +13943,7 @@
       <c r="B114" s="5"/>
       <c r="C114" s="5"/>
       <c r="D114" s="23" t="s">
-        <v>618</v>
+        <v>605</v>
       </c>
       <c r="E114" s="5" t="s">
         <v>96</v>
@@ -12584,12 +13959,12 @@
       </c>
       <c r="I114" s="24"/>
       <c r="J114" s="36" t="s">
-        <v>711</v>
+        <v>694</v>
       </c>
       <c r="K114" s="30"/>
       <c r="L114" s="25"/>
       <c r="M114" s="25" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="N114" s="24"/>
       <c r="O114" s="34"/>
@@ -12602,7 +13977,7 @@
         <v>94</v>
       </c>
       <c r="D115" s="23" t="s">
-        <v>619</v>
+        <v>606</v>
       </c>
       <c r="E115" s="5" t="s">
         <v>93</v>
@@ -12618,12 +13993,12 @@
       </c>
       <c r="I115" s="24"/>
       <c r="J115" s="36" t="s">
-        <v>711</v>
+        <v>694</v>
       </c>
       <c r="K115" s="30"/>
       <c r="L115" s="25"/>
       <c r="M115" s="25" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="N115" s="24"/>
       <c r="O115" s="34"/>
@@ -12634,7 +14009,7 @@
       <c r="B116" s="5"/>
       <c r="C116" s="5"/>
       <c r="D116" s="23" t="s">
-        <v>620</v>
+        <v>607</v>
       </c>
       <c r="E116" s="5" t="s">
         <v>92</v>
@@ -12650,14 +14025,14 @@
       </c>
       <c r="I116" s="24"/>
       <c r="J116" s="36" t="s">
-        <v>711</v>
+        <v>694</v>
       </c>
       <c r="K116" s="30"/>
       <c r="L116" s="25" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="M116" s="25" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="N116" s="24"/>
       <c r="O116" s="34"/>
@@ -12668,7 +14043,7 @@
       <c r="B117" s="5"/>
       <c r="C117" s="5"/>
       <c r="D117" s="23" t="s">
-        <v>621</v>
+        <v>608</v>
       </c>
       <c r="E117" s="5" t="s">
         <v>90</v>
@@ -12684,7 +14059,7 @@
       </c>
       <c r="I117" s="24"/>
       <c r="J117" s="36" t="s">
-        <v>711</v>
+        <v>694</v>
       </c>
       <c r="K117" s="30"/>
       <c r="L117" s="25"/>
@@ -12706,7 +14081,7 @@
         <v>87</v>
       </c>
       <c r="D118" s="23" t="s">
-        <v>622</v>
+        <v>609</v>
       </c>
       <c r="E118" s="5" t="s">
         <v>54</v>
@@ -12722,7 +14097,7 @@
       </c>
       <c r="I118" s="24"/>
       <c r="J118" s="36" t="s">
-        <v>708</v>
+        <v>691</v>
       </c>
       <c r="K118" s="30"/>
       <c r="L118" s="25"/>
@@ -12736,7 +14111,7 @@
       <c r="B119" s="5"/>
       <c r="C119" s="5"/>
       <c r="D119" s="23" t="s">
-        <v>623</v>
+        <v>610</v>
       </c>
       <c r="E119" s="5" t="s">
         <v>86</v>
@@ -12745,7 +14120,7 @@
         <v>83</v>
       </c>
       <c r="G119" s="19" t="s">
-        <v>853</v>
+        <v>826</v>
       </c>
       <c r="H119" s="24" t="s">
         <v>298</v>
@@ -12754,14 +14129,14 @@
         <v>307</v>
       </c>
       <c r="J119" s="36" t="s">
-        <v>790</v>
+        <v>770</v>
       </c>
       <c r="K119" s="30"/>
       <c r="L119" s="25" t="s">
-        <v>697</v>
+        <v>680</v>
       </c>
       <c r="M119" s="25" t="s">
-        <v>709</v>
+        <v>692</v>
       </c>
       <c r="N119" s="24"/>
       <c r="O119" s="34"/>
@@ -12774,7 +14149,7 @@
       <c r="B120" s="5"/>
       <c r="C120" s="41"/>
       <c r="D120" s="40" t="s">
-        <v>624</v>
+        <v>611</v>
       </c>
       <c r="E120" s="5" t="s">
         <v>84</v>
@@ -12783,7 +14158,7 @@
         <v>83</v>
       </c>
       <c r="G120" s="19" t="s">
-        <v>854</v>
+        <v>827</v>
       </c>
       <c r="H120" s="24" t="s">
         <v>298</v>
@@ -12792,19 +14167,19 @@
         <v>307</v>
       </c>
       <c r="J120" s="36" t="s">
-        <v>790</v>
+        <v>770</v>
       </c>
       <c r="K120" s="30" t="s">
-        <v>841</v>
+        <v>816</v>
       </c>
       <c r="L120" s="25" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="M120" s="25" t="s">
-        <v>710</v>
+        <v>693</v>
       </c>
       <c r="N120" s="24" t="s">
-        <v>773</v>
+        <v>756</v>
       </c>
       <c r="O120" s="34"/>
       <c r="P120" s="2" t="s">
@@ -12818,7 +14193,7 @@
         <v>82</v>
       </c>
       <c r="D121" s="23" t="s">
-        <v>625</v>
+        <v>612</v>
       </c>
       <c r="E121" s="5" t="s">
         <v>54</v>
@@ -12834,7 +14209,7 @@
       </c>
       <c r="I121" s="24"/>
       <c r="J121" s="36" t="s">
-        <v>704</v>
+        <v>687</v>
       </c>
       <c r="K121" s="30"/>
       <c r="L121" s="25"/>
@@ -12848,7 +14223,7 @@
       <c r="B122" s="5"/>
       <c r="C122" s="5"/>
       <c r="D122" s="40" t="s">
-        <v>626</v>
+        <v>613</v>
       </c>
       <c r="E122" s="18" t="s">
         <v>81</v>
@@ -12857,7 +14232,7 @@
         <v>7</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>855</v>
+        <v>828</v>
       </c>
       <c r="H122" s="24" t="s">
         <v>298</v>
@@ -12866,13 +14241,13 @@
         <v>307</v>
       </c>
       <c r="J122" s="36" t="s">
-        <v>790</v>
+        <v>770</v>
       </c>
       <c r="K122" s="30"/>
       <c r="L122" s="25"/>
       <c r="M122" s="25"/>
       <c r="N122" s="24" t="s">
-        <v>774</v>
+        <v>757</v>
       </c>
       <c r="O122" s="34"/>
       <c r="P122" s="2" t="s">
@@ -12884,16 +14259,16 @@
       <c r="B123" s="5"/>
       <c r="C123" s="5"/>
       <c r="D123" s="23" t="s">
-        <v>627</v>
+        <v>614</v>
       </c>
       <c r="E123" s="18" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
       <c r="F123" s="4" t="s">
         <v>7</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>856</v>
+        <v>885</v>
       </c>
       <c r="H123" s="24" t="s">
         <v>298</v>
@@ -12902,12 +14277,14 @@
         <v>302</v>
       </c>
       <c r="J123" s="36" t="s">
-        <v>363</v>
+        <v>318</v>
       </c>
       <c r="K123" s="30" t="s">
-        <v>857</v>
-      </c>
-      <c r="L123" s="25"/>
+        <v>877</v>
+      </c>
+      <c r="L123" s="25" t="s">
+        <v>892</v>
+      </c>
       <c r="M123" s="25"/>
       <c r="N123" s="24" t="s">
         <v>333</v>
@@ -12922,7 +14299,7 @@
       <c r="B124" s="5"/>
       <c r="C124" s="5"/>
       <c r="D124" s="23" t="s">
-        <v>628</v>
+        <v>615</v>
       </c>
       <c r="E124" s="5" t="s">
         <v>79</v>
@@ -12931,21 +14308,21 @@
         <v>7</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>698</v>
+        <v>681</v>
       </c>
       <c r="H124" s="24" t="s">
         <v>298</v>
       </c>
       <c r="I124" s="24"/>
       <c r="J124" s="36" t="s">
-        <v>711</v>
+        <v>694</v>
       </c>
       <c r="K124" s="30"/>
       <c r="L124" s="25" t="s">
-        <v>699</v>
+        <v>682</v>
       </c>
       <c r="M124" s="25" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="N124" s="24"/>
       <c r="O124" s="34"/>
@@ -12956,7 +14333,7 @@
       <c r="B125" s="5"/>
       <c r="C125" s="5"/>
       <c r="D125" s="23" t="s">
-        <v>629</v>
+        <v>616</v>
       </c>
       <c r="E125" s="5" t="s">
         <v>78</v>
@@ -12965,21 +14342,21 @@
         <v>5</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>858</v>
+        <v>829</v>
       </c>
       <c r="H125" s="24" t="s">
         <v>298</v>
       </c>
       <c r="I125" s="24"/>
       <c r="J125" s="36" t="s">
-        <v>711</v>
+        <v>694</v>
       </c>
       <c r="K125" s="30"/>
       <c r="L125" s="25" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="M125" s="25" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="N125" s="24"/>
       <c r="O125" s="34"/>
@@ -12990,7 +14367,7 @@
       <c r="B126" s="5"/>
       <c r="C126" s="5"/>
       <c r="D126" s="23" t="s">
-        <v>630</v>
+        <v>617</v>
       </c>
       <c r="E126" s="5" t="s">
         <v>77</v>
@@ -12999,23 +14376,23 @@
         <v>3</v>
       </c>
       <c r="G126" s="3" t="s">
-        <v>859</v>
+        <v>898</v>
       </c>
       <c r="H126" s="24" t="s">
         <v>298</v>
       </c>
       <c r="I126" s="24"/>
       <c r="J126" s="36" t="s">
-        <v>383</v>
+        <v>318</v>
       </c>
       <c r="K126" s="30" t="s">
-        <v>861</v>
+        <v>830</v>
       </c>
       <c r="L126" s="25" t="s">
-        <v>860</v>
+        <v>897</v>
       </c>
       <c r="M126" s="25" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="N126" s="24"/>
       <c r="O126" s="34"/>
@@ -13026,7 +14403,7 @@
       <c r="B127" s="5"/>
       <c r="C127" s="5"/>
       <c r="D127" s="23" t="s">
-        <v>631</v>
+        <v>618</v>
       </c>
       <c r="E127" s="5" t="s">
         <v>76</v>
@@ -13042,16 +14419,16 @@
       </c>
       <c r="I127" s="24"/>
       <c r="J127" s="36" t="s">
-        <v>420</v>
+        <v>318</v>
       </c>
       <c r="K127" s="30" t="s">
-        <v>914</v>
+        <v>865</v>
       </c>
       <c r="L127" s="25" t="s">
-        <v>418</v>
+        <v>899</v>
       </c>
       <c r="M127" s="25" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="N127" s="24"/>
       <c r="O127" s="34"/>
@@ -13062,7 +14439,7 @@
       <c r="B128" s="5"/>
       <c r="C128" s="5"/>
       <c r="D128" s="23" t="s">
-        <v>632</v>
+        <v>619</v>
       </c>
       <c r="E128" s="5" t="s">
         <v>74</v>
@@ -13071,23 +14448,23 @@
         <v>3</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="H128" s="24" t="s">
         <v>298</v>
       </c>
       <c r="I128" s="24"/>
       <c r="J128" s="36" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="K128" s="30" t="s">
-        <v>862</v>
+        <v>901</v>
       </c>
       <c r="L128" s="25" t="s">
-        <v>422</v>
+        <v>900</v>
       </c>
       <c r="M128" s="25" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="N128" s="24"/>
       <c r="O128" s="34"/>
@@ -13100,7 +14477,7 @@
         <v>73</v>
       </c>
       <c r="D129" s="23" t="s">
-        <v>633</v>
+        <v>620</v>
       </c>
       <c r="E129" s="5" t="s">
         <v>54</v>
@@ -13116,7 +14493,7 @@
       </c>
       <c r="I129" s="24"/>
       <c r="J129" s="36" t="s">
-        <v>704</v>
+        <v>687</v>
       </c>
       <c r="K129" s="30"/>
       <c r="L129" s="25"/>
@@ -13130,7 +14507,7 @@
       <c r="B130" s="5"/>
       <c r="C130" s="5"/>
       <c r="D130" s="40" t="s">
-        <v>634</v>
+        <v>621</v>
       </c>
       <c r="E130" s="18" t="s">
         <v>71</v>
@@ -13139,7 +14516,7 @@
         <v>7</v>
       </c>
       <c r="G130" s="13" t="s">
-        <v>920</v>
+        <v>886</v>
       </c>
       <c r="H130" s="24" t="s">
         <v>298</v>
@@ -13148,19 +14525,19 @@
         <v>307</v>
       </c>
       <c r="J130" s="36" t="s">
-        <v>694</v>
+        <v>677</v>
       </c>
       <c r="K130" s="30" t="s">
-        <v>802</v>
+        <v>896</v>
       </c>
       <c r="L130" s="25" t="s">
-        <v>493</v>
+        <v>887</v>
       </c>
       <c r="M130" s="25" t="s">
-        <v>714</v>
+        <v>697</v>
       </c>
       <c r="N130" s="24" t="s">
-        <v>775</v>
+        <v>758</v>
       </c>
       <c r="O130" s="34"/>
       <c r="P130" s="2" t="s">
@@ -13172,16 +14549,16 @@
       <c r="B131" s="5"/>
       <c r="C131" s="5"/>
       <c r="D131" s="23" t="s">
-        <v>635</v>
+        <v>622</v>
       </c>
       <c r="E131" s="18" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
       <c r="F131" s="4" t="s">
         <v>7</v>
       </c>
       <c r="G131" s="13" t="s">
-        <v>803</v>
+        <v>888</v>
       </c>
       <c r="H131" s="24" t="s">
         <v>298</v>
@@ -13190,12 +14567,14 @@
         <v>302</v>
       </c>
       <c r="J131" s="36" t="s">
-        <v>363</v>
+        <v>877</v>
       </c>
       <c r="K131" s="30" t="s">
-        <v>804</v>
-      </c>
-      <c r="L131" s="25"/>
+        <v>890</v>
+      </c>
+      <c r="L131" s="25" t="s">
+        <v>889</v>
+      </c>
       <c r="M131" s="25" t="s">
         <v>321</v>
       </c>
@@ -13212,7 +14591,7 @@
       <c r="B132" s="5"/>
       <c r="C132" s="5"/>
       <c r="D132" s="23" t="s">
-        <v>636</v>
+        <v>623</v>
       </c>
       <c r="E132" s="5" t="s">
         <v>70</v>
@@ -13228,14 +14607,14 @@
       </c>
       <c r="I132" s="24"/>
       <c r="J132" s="36" t="s">
-        <v>711</v>
+        <v>694</v>
       </c>
       <c r="K132" s="30"/>
       <c r="L132" s="25" t="s">
+        <v>368</v>
+      </c>
+      <c r="M132" s="25" t="s">
         <v>369</v>
-      </c>
-      <c r="M132" s="25" t="s">
-        <v>370</v>
       </c>
       <c r="N132" s="24"/>
       <c r="O132" s="34"/>
@@ -13246,7 +14625,7 @@
       <c r="B133" s="5"/>
       <c r="C133" s="5"/>
       <c r="D133" s="23" t="s">
-        <v>637</v>
+        <v>624</v>
       </c>
       <c r="E133" s="5" t="s">
         <v>69</v>
@@ -13262,12 +14641,12 @@
       </c>
       <c r="I133" s="24"/>
       <c r="J133" s="36" t="s">
-        <v>711</v>
+        <v>694</v>
       </c>
       <c r="K133" s="30"/>
       <c r="L133" s="25"/>
       <c r="M133" s="25" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="N133" s="24"/>
       <c r="O133" s="34"/>
@@ -13278,7 +14657,7 @@
       <c r="B134" s="5"/>
       <c r="C134" s="5"/>
       <c r="D134" s="23" t="s">
-        <v>638</v>
+        <v>625</v>
       </c>
       <c r="E134" s="5" t="s">
         <v>68</v>
@@ -13294,12 +14673,12 @@
       </c>
       <c r="I134" s="24"/>
       <c r="J134" s="36" t="s">
-        <v>711</v>
+        <v>694</v>
       </c>
       <c r="K134" s="30"/>
       <c r="L134" s="25"/>
       <c r="M134" s="25" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="N134" s="24"/>
       <c r="O134" s="34"/>
@@ -13310,28 +14689,30 @@
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
       <c r="D135" s="23" t="s">
-        <v>639</v>
+        <v>626</v>
       </c>
       <c r="E135" s="18" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="F135" s="4" t="s">
         <v>7</v>
       </c>
       <c r="G135" s="3" t="s">
-        <v>850</v>
+        <v>824</v>
       </c>
       <c r="H135" s="24" t="s">
         <v>298</v>
       </c>
       <c r="I135" s="24"/>
       <c r="J135" s="36" t="s">
-        <v>495</v>
+        <v>877</v>
       </c>
       <c r="K135" s="30" t="s">
-        <v>851</v>
-      </c>
-      <c r="L135" s="25"/>
+        <v>825</v>
+      </c>
+      <c r="L135" s="25" t="s">
+        <v>891</v>
+      </c>
       <c r="M135" s="25"/>
       <c r="N135" s="24"/>
       <c r="O135" s="34"/>
@@ -13342,16 +14723,16 @@
       <c r="B136" s="5"/>
       <c r="C136" s="5"/>
       <c r="D136" s="23" t="s">
-        <v>640</v>
+        <v>627</v>
       </c>
       <c r="E136" s="18" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="F136" s="4" t="s">
         <v>7</v>
       </c>
       <c r="G136" s="3" t="s">
-        <v>852</v>
+        <v>893</v>
       </c>
       <c r="H136" s="24" t="s">
         <v>298</v>
@@ -13360,12 +14741,14 @@
         <v>302</v>
       </c>
       <c r="J136" s="36" t="s">
-        <v>363</v>
+        <v>877</v>
       </c>
       <c r="K136" s="30" t="s">
-        <v>804</v>
-      </c>
-      <c r="L136" s="25"/>
+        <v>895</v>
+      </c>
+      <c r="L136" s="25" t="s">
+        <v>894</v>
+      </c>
       <c r="M136" s="25"/>
       <c r="N136" s="24"/>
       <c r="O136" s="34"/>
@@ -13382,7 +14765,7 @@
         <v>65</v>
       </c>
       <c r="D137" s="23" t="s">
-        <v>641</v>
+        <v>628</v>
       </c>
       <c r="E137" s="5" t="s">
         <v>64</v>
@@ -13391,17 +14774,17 @@
         <v>3</v>
       </c>
       <c r="G137" s="3" t="s">
-        <v>848</v>
+        <v>822</v>
       </c>
       <c r="H137" s="24" t="s">
         <v>298</v>
       </c>
       <c r="I137" s="24"/>
       <c r="J137" s="36" t="s">
-        <v>790</v>
+        <v>770</v>
       </c>
       <c r="K137" s="30" t="s">
-        <v>849</v>
+        <v>823</v>
       </c>
       <c r="L137" s="25"/>
       <c r="M137" s="25"/>
@@ -13416,7 +14799,7 @@
         <v>63</v>
       </c>
       <c r="D138" s="23" t="s">
-        <v>642</v>
+        <v>629</v>
       </c>
       <c r="E138" s="5" t="s">
         <v>62</v>
@@ -13432,14 +14815,14 @@
       </c>
       <c r="I138" s="24"/>
       <c r="J138" s="36" t="s">
-        <v>711</v>
+        <v>694</v>
       </c>
       <c r="K138" s="30"/>
       <c r="L138" s="25" t="s">
         <v>319</v>
       </c>
       <c r="M138" s="27" t="s">
-        <v>700</v>
+        <v>683</v>
       </c>
       <c r="N138" s="24"/>
       <c r="O138" s="34"/>
@@ -13452,7 +14835,7 @@
       <c r="B139" s="5"/>
       <c r="C139" s="5"/>
       <c r="D139" s="23" t="s">
-        <v>643</v>
+        <v>630</v>
       </c>
       <c r="E139" s="5" t="s">
         <v>59</v>
@@ -13468,7 +14851,7 @@
       </c>
       <c r="I139" s="24"/>
       <c r="J139" s="36" t="s">
-        <v>711</v>
+        <v>694</v>
       </c>
       <c r="K139" s="32"/>
       <c r="L139" s="27" t="s">
@@ -13486,7 +14869,7 @@
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
       <c r="D140" s="23" t="s">
-        <v>644</v>
+        <v>631</v>
       </c>
       <c r="E140" s="5" t="s">
         <v>58</v>
@@ -13502,10 +14885,10 @@
       </c>
       <c r="I140" s="24"/>
       <c r="J140" s="36" t="s">
-        <v>790</v>
+        <v>770</v>
       </c>
       <c r="K140" s="30" t="s">
-        <v>801</v>
+        <v>781</v>
       </c>
       <c r="L140" s="25" t="s">
         <v>348</v>
@@ -13514,7 +14897,7 @@
         <v>309</v>
       </c>
       <c r="N140" s="24" t="s">
-        <v>769</v>
+        <v>752</v>
       </c>
       <c r="O140" s="34"/>
       <c r="P140" s="2"/>
@@ -13524,7 +14907,7 @@
       <c r="B141" s="5"/>
       <c r="C141" s="5"/>
       <c r="D141" s="23" t="s">
-        <v>645</v>
+        <v>632</v>
       </c>
       <c r="E141" s="5" t="s">
         <v>57</v>
@@ -13540,7 +14923,7 @@
       </c>
       <c r="I141" s="24"/>
       <c r="J141" s="36" t="s">
-        <v>711</v>
+        <v>694</v>
       </c>
       <c r="K141" s="30"/>
       <c r="L141" s="25" t="s">
@@ -13560,23 +14943,23 @@
         <v>55</v>
       </c>
       <c r="D142" s="23" t="s">
-        <v>646</v>
+        <v>633</v>
       </c>
       <c r="E142" s="5" t="s">
-        <v>921</v>
+        <v>871</v>
       </c>
       <c r="F142" s="4" t="s">
         <v>7</v>
       </c>
       <c r="G142" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H142" s="24" t="s">
         <v>298</v>
       </c>
       <c r="I142" s="24"/>
       <c r="J142" s="36" t="s">
-        <v>711</v>
+        <v>694</v>
       </c>
       <c r="K142" s="33"/>
       <c r="L142" s="28"/>
@@ -13592,7 +14975,7 @@
       <c r="B143" s="5"/>
       <c r="C143" s="5"/>
       <c r="D143" s="40" t="s">
-        <v>647</v>
+        <v>634</v>
       </c>
       <c r="E143" s="5" t="s">
         <v>53</v>
@@ -13601,7 +14984,7 @@
         <v>7</v>
       </c>
       <c r="G143" s="15" t="s">
-        <v>917</v>
+        <v>868</v>
       </c>
       <c r="H143" s="24" t="s">
         <v>298</v>
@@ -13610,19 +14993,19 @@
         <v>307</v>
       </c>
       <c r="J143" s="36" t="s">
-        <v>798</v>
+        <v>778</v>
       </c>
       <c r="K143" s="33" t="s">
-        <v>800</v>
+        <v>780</v>
       </c>
       <c r="L143" s="28" t="s">
-        <v>918</v>
+        <v>869</v>
       </c>
       <c r="M143" s="24" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
       <c r="N143" s="24" t="s">
-        <v>776</v>
+        <v>759</v>
       </c>
       <c r="O143" s="34"/>
       <c r="P143" s="2" t="s">
@@ -13634,16 +15017,16 @@
       <c r="B144" s="5"/>
       <c r="C144" s="5"/>
       <c r="D144" s="23" t="s">
-        <v>648</v>
+        <v>635</v>
       </c>
       <c r="E144" s="5" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
       <c r="F144" s="4" t="s">
         <v>7</v>
       </c>
       <c r="G144" s="15" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
       <c r="H144" s="24" t="s">
         <v>298</v>
@@ -13652,19 +15035,19 @@
         <v>302</v>
       </c>
       <c r="J144" s="36" t="s">
-        <v>798</v>
+        <v>778</v>
       </c>
       <c r="K144" s="33" t="s">
-        <v>799</v>
+        <v>779</v>
       </c>
       <c r="L144" s="28" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
       <c r="M144" s="24" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="N144" s="24" t="s">
-        <v>777</v>
+        <v>760</v>
       </c>
       <c r="O144" s="34"/>
       <c r="P144" s="2" t="s">
@@ -13676,7 +15059,7 @@
       <c r="B145" s="5"/>
       <c r="C145" s="5"/>
       <c r="D145" s="23" t="s">
-        <v>649</v>
+        <v>636</v>
       </c>
       <c r="E145" s="5" t="s">
         <v>52</v>
@@ -13692,7 +15075,7 @@
       </c>
       <c r="I145" s="24"/>
       <c r="J145" s="36" t="s">
-        <v>711</v>
+        <v>694</v>
       </c>
       <c r="K145" s="34"/>
       <c r="L145" s="24" t="s">
@@ -13710,7 +15093,7 @@
       <c r="B146" s="5"/>
       <c r="C146" s="5"/>
       <c r="D146" s="23" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
       <c r="E146" s="5" t="s">
         <v>51</v>
@@ -13726,11 +15109,11 @@
       </c>
       <c r="I146" s="24"/>
       <c r="J146" s="36" t="s">
-        <v>711</v>
+        <v>694</v>
       </c>
       <c r="K146" s="30"/>
       <c r="L146" s="25" t="s">
-        <v>922</v>
+        <v>872</v>
       </c>
       <c r="M146" s="25" t="s">
         <v>321</v>
@@ -13744,7 +15127,7 @@
       <c r="B147" s="5"/>
       <c r="C147" s="5"/>
       <c r="D147" s="23" t="s">
-        <v>651</v>
+        <v>638</v>
       </c>
       <c r="E147" s="5" t="s">
         <v>50</v>
@@ -13760,7 +15143,7 @@
       </c>
       <c r="I147" s="24"/>
       <c r="J147" s="36" t="s">
-        <v>711</v>
+        <v>318</v>
       </c>
       <c r="K147" s="30"/>
       <c r="L147" s="25" t="s">
@@ -13778,7 +15161,7 @@
       <c r="B148" s="5"/>
       <c r="C148" s="5"/>
       <c r="D148" s="23" t="s">
-        <v>652</v>
+        <v>639</v>
       </c>
       <c r="E148" s="5" t="s">
         <v>48</v>
@@ -13787,26 +15170,26 @@
         <v>3</v>
       </c>
       <c r="G148" s="3" t="s">
-        <v>845</v>
+        <v>820</v>
       </c>
       <c r="H148" s="24" t="s">
         <v>298</v>
       </c>
       <c r="I148" s="24"/>
       <c r="J148" s="36" t="s">
-        <v>373</v>
+        <v>877</v>
       </c>
       <c r="K148" s="30" t="s">
-        <v>846</v>
+        <v>821</v>
       </c>
       <c r="L148" s="25" t="s">
-        <v>847</v>
+        <v>884</v>
       </c>
       <c r="M148" s="25" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="N148" s="24" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="O148" s="34"/>
       <c r="P148" s="2" t="s">
@@ -13820,7 +15203,7 @@
         <v>46</v>
       </c>
       <c r="D149" s="40" t="s">
-        <v>653</v>
+        <v>640</v>
       </c>
       <c r="E149" s="5" t="s">
         <v>45</v>
@@ -13829,7 +15212,7 @@
         <v>7</v>
       </c>
       <c r="G149" s="9" t="s">
-        <v>842</v>
+        <v>817</v>
       </c>
       <c r="H149" s="24" t="s">
         <v>298</v>
@@ -13838,19 +15221,19 @@
         <v>307</v>
       </c>
       <c r="J149" s="36" t="s">
-        <v>843</v>
+        <v>818</v>
       </c>
       <c r="K149" s="33" t="s">
-        <v>844</v>
+        <v>819</v>
       </c>
       <c r="L149" s="28" t="s">
-        <v>488</v>
+        <v>478</v>
       </c>
       <c r="M149" s="27" t="s">
         <v>312</v>
       </c>
       <c r="N149" s="24" t="s">
-        <v>778</v>
+        <v>761</v>
       </c>
       <c r="O149" s="34"/>
       <c r="P149" s="2" t="s">
@@ -13862,16 +15245,16 @@
       <c r="B150" s="5"/>
       <c r="C150" s="5"/>
       <c r="D150" s="23" t="s">
-        <v>654</v>
+        <v>641</v>
       </c>
       <c r="E150" s="5" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
       <c r="F150" s="4" t="s">
         <v>7</v>
       </c>
       <c r="G150" s="9" t="s">
-        <v>503</v>
+        <v>490</v>
       </c>
       <c r="H150" s="24" t="s">
         <v>298</v>
@@ -13884,7 +15267,7 @@
       </c>
       <c r="K150" s="33"/>
       <c r="L150" s="28" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
       <c r="M150" s="27" t="s">
         <v>312</v>
@@ -13902,7 +15285,7 @@
       <c r="B151" s="5"/>
       <c r="C151" s="5"/>
       <c r="D151" s="23" t="s">
-        <v>655</v>
+        <v>642</v>
       </c>
       <c r="E151" s="5" t="s">
         <v>44</v>
@@ -13918,7 +15301,7 @@
       </c>
       <c r="I151" s="24"/>
       <c r="J151" s="36" t="s">
-        <v>711</v>
+        <v>694</v>
       </c>
       <c r="K151" s="34"/>
       <c r="L151" s="24" t="s">
@@ -13936,7 +15319,7 @@
       <c r="B152" s="5"/>
       <c r="C152" s="5"/>
       <c r="D152" s="23" t="s">
-        <v>656</v>
+        <v>643</v>
       </c>
       <c r="E152" s="5" t="s">
         <v>43</v>
@@ -13952,7 +15335,7 @@
       </c>
       <c r="I152" s="24"/>
       <c r="J152" s="36" t="s">
-        <v>711</v>
+        <v>694</v>
       </c>
       <c r="K152" s="30"/>
       <c r="L152" s="25" t="s">
@@ -13970,7 +15353,7 @@
       <c r="B153" s="5"/>
       <c r="C153" s="5"/>
       <c r="D153" s="23" t="s">
-        <v>657</v>
+        <v>644</v>
       </c>
       <c r="E153" s="5" t="s">
         <v>41</v>
@@ -13986,7 +15369,7 @@
       </c>
       <c r="I153" s="24"/>
       <c r="J153" s="36" t="s">
-        <v>822</v>
+        <v>797</v>
       </c>
       <c r="K153" s="30"/>
       <c r="L153" s="25" t="s">
@@ -14006,7 +15389,7 @@
       <c r="B154" s="5"/>
       <c r="C154" s="5"/>
       <c r="D154" s="23" t="s">
-        <v>658</v>
+        <v>645</v>
       </c>
       <c r="E154" s="5" t="s">
         <v>39</v>
@@ -14022,7 +15405,7 @@
       </c>
       <c r="I154" s="24"/>
       <c r="J154" s="36" t="s">
-        <v>711</v>
+        <v>694</v>
       </c>
       <c r="K154" s="30"/>
       <c r="L154" s="25" t="s">
@@ -14042,7 +15425,7 @@
       <c r="B155" s="5"/>
       <c r="C155" s="5"/>
       <c r="D155" s="23" t="s">
-        <v>659</v>
+        <v>646</v>
       </c>
       <c r="E155" s="5" t="s">
         <v>36</v>
@@ -14058,7 +15441,7 @@
       </c>
       <c r="I155" s="24"/>
       <c r="J155" s="36" t="s">
-        <v>711</v>
+        <v>694</v>
       </c>
       <c r="K155" s="31"/>
       <c r="L155" s="26" t="s">
@@ -14076,7 +15459,7 @@
       <c r="B156" s="5"/>
       <c r="C156" s="5"/>
       <c r="D156" s="23" t="s">
-        <v>660</v>
+        <v>647</v>
       </c>
       <c r="E156" s="5" t="s">
         <v>35</v>
@@ -14092,7 +15475,7 @@
       </c>
       <c r="I156" s="24"/>
       <c r="J156" s="36" t="s">
-        <v>711</v>
+        <v>694</v>
       </c>
       <c r="K156" s="30"/>
       <c r="L156" s="25" t="s">
@@ -14110,7 +15493,7 @@
       <c r="B157" s="5"/>
       <c r="C157" s="5"/>
       <c r="D157" s="23" t="s">
-        <v>661</v>
+        <v>648</v>
       </c>
       <c r="E157" s="5" t="s">
         <v>34</v>
@@ -14126,7 +15509,7 @@
       </c>
       <c r="I157" s="24"/>
       <c r="J157" s="36" t="s">
-        <v>711</v>
+        <v>694</v>
       </c>
       <c r="K157" s="30"/>
       <c r="L157" s="25"/>
@@ -14142,7 +15525,7 @@
       <c r="B158" s="5"/>
       <c r="C158" s="5"/>
       <c r="D158" s="23" t="s">
-        <v>662</v>
+        <v>649</v>
       </c>
       <c r="E158" s="5" t="s">
         <v>32</v>
@@ -14158,11 +15541,11 @@
       </c>
       <c r="I158" s="24"/>
       <c r="J158" s="36" t="s">
-        <v>711</v>
+        <v>694</v>
       </c>
       <c r="K158" s="30"/>
       <c r="L158" s="25" t="s">
-        <v>796</v>
+        <v>776</v>
       </c>
       <c r="M158" s="25" t="s">
         <v>318</v>
@@ -14176,7 +15559,7 @@
       <c r="B159" s="5"/>
       <c r="C159" s="5"/>
       <c r="D159" s="23" t="s">
-        <v>663</v>
+        <v>650</v>
       </c>
       <c r="E159" s="5" t="s">
         <v>31</v>
@@ -14185,20 +15568,20 @@
         <v>3</v>
       </c>
       <c r="G159" s="13" t="s">
-        <v>793</v>
+        <v>773</v>
       </c>
       <c r="H159" s="24" t="s">
         <v>298</v>
       </c>
       <c r="I159" s="24"/>
       <c r="J159" s="36" t="s">
-        <v>790</v>
+        <v>770</v>
       </c>
       <c r="K159" s="30" t="s">
-        <v>795</v>
+        <v>775</v>
       </c>
       <c r="L159" s="25" t="s">
-        <v>794</v>
+        <v>774</v>
       </c>
       <c r="M159" s="25" t="s">
         <v>360</v>
@@ -14212,7 +15595,7 @@
       <c r="B160" s="5"/>
       <c r="C160" s="5"/>
       <c r="D160" s="23" t="s">
-        <v>664</v>
+        <v>651</v>
       </c>
       <c r="E160" s="5" t="s">
         <v>30</v>
@@ -14228,10 +15611,10 @@
       </c>
       <c r="I160" s="24"/>
       <c r="J160" s="36" t="s">
-        <v>797</v>
+        <v>777</v>
       </c>
       <c r="K160" s="30" t="s">
-        <v>791</v>
+        <v>771</v>
       </c>
       <c r="L160" s="25" t="s">
         <v>361</v>
@@ -14250,7 +15633,7 @@
         <v>28</v>
       </c>
       <c r="D161" s="23" t="s">
-        <v>665</v>
+        <v>652</v>
       </c>
       <c r="E161" s="5" t="s">
         <v>27</v>
@@ -14266,14 +15649,14 @@
       </c>
       <c r="I161" s="24"/>
       <c r="J161" s="36" t="s">
-        <v>711</v>
+        <v>694</v>
       </c>
       <c r="K161" s="30"/>
       <c r="L161" s="25" t="s">
         <v>326</v>
       </c>
       <c r="M161" s="27" t="s">
-        <v>701</v>
+        <v>684</v>
       </c>
       <c r="N161" s="24"/>
       <c r="O161" s="34"/>
@@ -14286,7 +15669,7 @@
       <c r="B162" s="5"/>
       <c r="C162" s="5"/>
       <c r="D162" s="23" t="s">
-        <v>666</v>
+        <v>653</v>
       </c>
       <c r="E162" s="5" t="s">
         <v>24</v>
@@ -14302,7 +15685,7 @@
       </c>
       <c r="I162" s="24"/>
       <c r="J162" s="36" t="s">
-        <v>711</v>
+        <v>694</v>
       </c>
       <c r="K162" s="32"/>
       <c r="L162" s="27" t="s">
@@ -14320,7 +15703,7 @@
       <c r="B163" s="5"/>
       <c r="C163" s="5"/>
       <c r="D163" s="23" t="s">
-        <v>667</v>
+        <v>654</v>
       </c>
       <c r="E163" s="5" t="s">
         <v>23</v>
@@ -14336,7 +15719,7 @@
       </c>
       <c r="I163" s="24"/>
       <c r="J163" s="36" t="s">
-        <v>711</v>
+        <v>694</v>
       </c>
       <c r="K163" s="32"/>
       <c r="L163" s="27" t="s">
@@ -14354,7 +15737,7 @@
       <c r="B164" s="5"/>
       <c r="C164" s="5"/>
       <c r="D164" s="23" t="s">
-        <v>668</v>
+        <v>655</v>
       </c>
       <c r="E164" s="5" t="s">
         <v>22</v>
@@ -14370,7 +15753,7 @@
       </c>
       <c r="I164" s="24"/>
       <c r="J164" s="36" t="s">
-        <v>790</v>
+        <v>770</v>
       </c>
       <c r="K164" s="32"/>
       <c r="L164" s="27" t="s">
@@ -14390,7 +15773,7 @@
         <v>20</v>
       </c>
       <c r="D165" s="23" t="s">
-        <v>669</v>
+        <v>656</v>
       </c>
       <c r="E165" s="5" t="s">
         <v>19</v>
@@ -14399,26 +15782,26 @@
         <v>7</v>
       </c>
       <c r="G165" s="12" t="s">
-        <v>787</v>
+        <v>767</v>
       </c>
       <c r="H165" s="24" t="s">
         <v>298</v>
       </c>
       <c r="I165" s="24"/>
       <c r="J165" s="36" t="s">
-        <v>790</v>
+        <v>770</v>
       </c>
       <c r="K165" s="30" t="s">
-        <v>789</v>
+        <v>769</v>
       </c>
       <c r="L165" s="28" t="s">
-        <v>788</v>
+        <v>768</v>
       </c>
       <c r="M165" s="27" t="s">
         <v>314</v>
       </c>
       <c r="N165" s="24" t="s">
-        <v>702</v>
+        <v>685</v>
       </c>
       <c r="O165" s="34"/>
       <c r="P165" s="2"/>
@@ -14428,7 +15811,7 @@
       <c r="B166" s="5"/>
       <c r="C166" s="5"/>
       <c r="D166" s="23" t="s">
-        <v>670</v>
+        <v>657</v>
       </c>
       <c r="E166" s="5" t="s">
         <v>18</v>
@@ -14437,21 +15820,21 @@
         <v>5</v>
       </c>
       <c r="G166" s="14" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="H166" s="24" t="s">
         <v>298</v>
       </c>
       <c r="I166" s="24"/>
       <c r="J166" s="36" t="s">
-        <v>711</v>
+        <v>694</v>
       </c>
       <c r="K166" s="34"/>
       <c r="L166" s="24" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="M166" s="24" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="N166" s="24"/>
       <c r="O166" s="34"/>
@@ -14462,7 +15845,7 @@
       <c r="B167" s="5"/>
       <c r="C167" s="5"/>
       <c r="D167" s="23" t="s">
-        <v>671</v>
+        <v>658</v>
       </c>
       <c r="E167" s="5" t="s">
         <v>17</v>
@@ -14478,14 +15861,14 @@
       </c>
       <c r="I167" s="24"/>
       <c r="J167" s="36" t="s">
-        <v>711</v>
+        <v>694</v>
       </c>
       <c r="K167" s="31"/>
       <c r="L167" s="26" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="M167" s="27" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="N167" s="24"/>
       <c r="O167" s="34"/>
@@ -14496,7 +15879,7 @@
       <c r="B168" s="5"/>
       <c r="C168" s="5"/>
       <c r="D168" s="23" t="s">
-        <v>672</v>
+        <v>659</v>
       </c>
       <c r="E168" s="5" t="s">
         <v>16</v>
@@ -14512,16 +15895,16 @@
       </c>
       <c r="I168" s="24"/>
       <c r="J168" s="36" t="s">
-        <v>792</v>
+        <v>772</v>
       </c>
       <c r="K168" s="31" t="s">
-        <v>791</v>
+        <v>771</v>
       </c>
       <c r="L168" s="26" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="M168" s="27" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="N168" s="24"/>
       <c r="O168" s="34"/>
@@ -14532,7 +15915,7 @@
       <c r="B169" s="5"/>
       <c r="C169" s="5"/>
       <c r="D169" s="23" t="s">
-        <v>673</v>
+        <v>660</v>
       </c>
       <c r="E169" s="5" t="s">
         <v>14</v>
@@ -14541,7 +15924,7 @@
         <v>7</v>
       </c>
       <c r="G169" s="21" t="s">
-        <v>840</v>
+        <v>815</v>
       </c>
       <c r="H169" s="24" t="s">
         <v>298</v>
@@ -14550,10 +15933,10 @@
         <v>307</v>
       </c>
       <c r="J169" s="36" t="s">
-        <v>797</v>
+        <v>777</v>
       </c>
       <c r="K169" s="30" t="s">
-        <v>841</v>
+        <v>816</v>
       </c>
       <c r="L169" s="25" t="s">
         <v>340</v>
@@ -14574,22 +15957,22 @@
       <c r="B170" s="5"/>
       <c r="C170" s="5"/>
       <c r="D170" s="23" t="s">
-        <v>716</v>
+        <v>699</v>
       </c>
       <c r="E170" s="5" t="s">
-        <v>717</v>
+        <v>700</v>
       </c>
       <c r="F170" s="4"/>
       <c r="G170" s="21"/>
       <c r="H170" s="24" t="s">
         <v>300</v>
       </c>
-      <c r="I170" s="24"/>
+      <c r="I170" s="42"/>
       <c r="J170" s="36" t="s">
         <v>363</v>
       </c>
       <c r="K170" s="30" t="s">
-        <v>915</v>
+        <v>866</v>
       </c>
       <c r="L170" s="25"/>
       <c r="M170" s="27"/>
@@ -14612,7 +15995,7 @@
       <c r="H171" s="24"/>
       <c r="I171" s="24"/>
       <c r="J171" s="36" t="s">
-        <v>713</v>
+        <v>696</v>
       </c>
       <c r="K171" s="30"/>
       <c r="L171" s="25"/>
@@ -14632,7 +16015,7 @@
         <v>9</v>
       </c>
       <c r="D172" s="23" t="s">
-        <v>674</v>
+        <v>661</v>
       </c>
       <c r="E172" s="16" t="s">
         <v>8</v>
@@ -14641,7 +16024,7 @@
         <v>7</v>
       </c>
       <c r="G172" s="22" t="s">
-        <v>916</v>
+        <v>867</v>
       </c>
       <c r="H172" s="24" t="s">
         <v>300</v>
@@ -14663,7 +16046,7 @@
     </row>
     <row r="173" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D173" s="23" t="s">
-        <v>675</v>
+        <v>662</v>
       </c>
       <c r="E173" s="16" t="s">
         <v>6</v>
@@ -14672,7 +16055,7 @@
         <v>5</v>
       </c>
       <c r="G173" s="4" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="H173" s="24" t="s">
         <v>300</v>
@@ -14692,7 +16075,7 @@
     </row>
     <row r="174" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D174" s="23" t="s">
-        <v>676</v>
+        <v>663</v>
       </c>
       <c r="E174" s="16" t="s">
         <v>4</v>
@@ -14721,7 +16104,7 @@
     </row>
     <row r="175" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D175" s="23" t="s">
-        <v>677</v>
+        <v>664</v>
       </c>
       <c r="E175" s="16" t="s">
         <v>2</v>
@@ -14751,74 +16134,74 @@
   </sheetData>
   <autoFilter ref="A1:AL175"/>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="J1:J169 J171:J1048576">
-    <cfRule type="cellIs" dxfId="20" priority="13" operator="equal">
+  <conditionalFormatting sqref="J171:J1048576 J1:J169">
+    <cfRule type="cellIs" dxfId="164" priority="13" operator="equal">
       <formula>$J$31</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="163" priority="14" operator="equal">
       <formula>$J$23</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="15" operator="equal">
       <formula>$J$20</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="16" operator="equal">
       <formula>$J$15</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="17" operator="equal">
       <formula>$J$15</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="18" operator="equal">
       <formula>$J$23</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="19" operator="equal">
       <formula>$J$23</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="20" operator="equal">
       <formula>$J$23</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="21" operator="equal">
       <formula>$J$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J170">
-    <cfRule type="cellIs" dxfId="11" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="4" operator="equal">
       <formula>$J$31</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="5" operator="equal">
       <formula>$J$23</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="6" operator="equal">
       <formula>$J$20</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="7" operator="equal">
       <formula>$J$15</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="8" operator="equal">
       <formula>$J$15</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="9" operator="equal">
       <formula>$J$23</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="10" operator="equal">
       <formula>$J$23</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="11" operator="equal">
       <formula>$J$23</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="12" operator="equal">
       <formula>$J$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:J1048576">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="3" operator="equal">
       <formula>"正常返回"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="1" operator="equal">
       <formula>"需要处理"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J24">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+  <conditionalFormatting sqref="J24:J25">
+    <cfRule type="cellIs" dxfId="144" priority="2" operator="equal">
       <formula>"url参数变更，待处理测试"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/trunk/biz/MC-MSC-Web/qxy接口定义文档2016-8-8/【千校云】bug列表.xlsx
+++ b/trunk/biz/MC-MSC-Web/qxy接口定义文档2016-8-8/【千校云】bug列表.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mkq\svn\trunk\biz\MC-MSC-Web\qxy接口定义文档2016-8-8\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\svn\trunk\biz\MC-MSC-Web\qxy接口定义文档2016-8-8\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -111,7 +111,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1630" uniqueCount="927">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1629" uniqueCount="928">
   <si>
     <t>/qxy/trip</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1066,10 +1066,6 @@
   </si>
   <si>
     <t>值日值周岗位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/qxy/schedule/copy</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1826,10 +1822,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>需要处理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{
  "token":"910820738640559462371283192",
     "teacher":[
@@ -3438,14 +3430,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://139.196.101.78:8668/deviceinfo?sid=1&amp;token=910820738640559462371283192</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>处理完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>正常返回</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3731,18 +3715,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{
- "token":"910820738640559462371283192",
-    "cid":"2",
-    "courseId":"3"
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询失败，提示term不能为空，需要修改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>暂无数据</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3817,29 +3789,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>应用失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-      "id":[1],
-      "weeks":[
-       {
-        "week":"1",
-        "startTime":"2016-8-9",
-        "endTime":"2016-8-9"
-       },
-       {
-        "week":"1",
-        "startTime":"2016-8-9",
-        "endTime":"2016-8-9"
-       }
-      ],
-      "days":["2016-8-9","2016-8-9"]                       
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>暂无数据</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3890,10 +3839,6 @@
   <si>
     <t>提示成功，数据未删除成功，同时传cid和报警规则id，删除它们的关联关系
 班级报警表class_alarm中新增主键，不能以cid为主键，因为一个规则可以应用到多个班级，一个班级也可以有多个规则</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>目前还缺三个接口</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -4004,10 +3949,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>139.196.101.78:8668/studentrfidlist?token=910820738640559462371283192</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/qxy/studentrfidlist/search?studentId=[studetId]&amp;token=[token]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4037,10 +3978,6 @@
   </si>
   <si>
     <t>验证通过</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>列表格式需要调整，提示访问失败</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -4070,14 +4007,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{
- "token":"910820738640559462371283192",
-    "cids":[3,4,5,6],                        
-    "alarmruleIds":[1,2,3,3]              
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>提示访问失败</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4107,10 +4036,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>139.196.101.78:8668/syllabus?cid=5&amp;startTime=2016-8-8 00:00:00&amp;endTime=2016-8-20 00:00:00&amp;token=910820738640559462371283192</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/qxy/class/student/parent</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4126,31 +4051,63 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>/qxy/class/student/list?cid=[cid]&amp;page=[page]&amp;size=[size]&amp;token=[token]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>139.196.101.78:8668/class/student/list?cid=2&amp;token=910820738640559462371283192</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>139.196.101.78:8668/classlist?page=1&amp;size=12&amp;token=910820738640559462371283192</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/qxy/classlist/search?cid=[cid]&amp;token=[token]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>139.196.101.78:8668/classlist/search?cid=2&amp;token=910820738640559462371283192</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>139.196.101.78:8668/schedule/day?term=5&amp;date=2016/8/9&amp;token=910820738640559462371283192</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>139.196.101.78:8668/class/parent?termId=5&amp;cid=2&amp;studentId=2&amp;page=1&amp;size=12&amp;token=910820738640559462371283192</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>139.196.101.78:8668/homenews/list?token=910820738640559462371283192</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>待测试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/qxy/class/student/list?cid=[cid]&amp;page=[page]&amp;size=[size]&amp;token=[token]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>139.196.101.78:8668/class/student/list?cid=2&amp;token=910820738640559462371283192</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>139.196.101.78:8668/classlist?page=1&amp;size=12&amp;token=910820738640559462371283192</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试通过</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/qxy/classlist/search?cid=[cid]&amp;token=[token]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>139.196.101.78:8668/classlist/search?cid=2&amp;token=910820738640559462371283192</t>
+    <t>/qxy/newlist?columnId=[colId]&amp;page=[page]&amp;size=[size]&amp;token=[token]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回正常，无数据，实际有数据关联</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>139.196.101.78:8668/newlist?columnId=7&amp;token=910820738640559462371283192</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待测试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -4158,7 +4115,66 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>139.196.101.78:8668/schedule/day?term=5&amp;date=2016/8/9&amp;token=910820738640559462371283192</t>
+    <t>http://139.196.101.78:8668/deviceinfo?sid=1&amp;token=910820738640559462371283192</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已提交待部署测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示访问失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>139.196.101.78:8668/studentrfidlist?termId=5&amp;cid=2&amp;page=1&amp;size=12&amp;token=910820738640559462371283192</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已提交，待部署测试，需要返回设备表自增id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成部署</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "token":"910820738640559462371283192",
+    "cids":[3,4,5,6],                        
+    "alarmruleIds":[1,2,3,3]              
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>139.196.101.78:8668/syllabus?cid=5&amp;startTime=2016-8-8 00:00:00&amp;endTime=2016-8-20 00:00:00&amp;token=910820738640559462371283192</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/qxy/schedule/copy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+      "id":[2],
+      "weeks":[
+       {
+        "week":"1",
+        "startTime":"2016-8-9",
+        "endTime":"2016-8-15"
+       },
+       {
+        "week":"2",
+        "startTime":"2016-8-16",
+        "endTime":"2016-8-22"
+       }
+      ],
+      "days":["2016-8-9","2016-8-10"]                       
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用失败，null</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -4166,7 +4182,7 @@
        "newsId":"1",
       "title":"爆咋",  
       "content":"6L+Z5piv5LiA5p2h5paw6Ze75YaF5a65",
-      "columnId":"3",
+      "columnId":"7",
       "newsType":"2",
       "newsReader":"222;211;233;",       
       "newsClasser":"222;211;233;",      
@@ -4180,39 +4196,26 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>确认新闻栏目是否可以修改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>139.196.101.78:8668/class/parent?termId=5&amp;cid=2&amp;studentId=2&amp;page=1&amp;size=12&amp;token=910820738640559462371283192</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试通过</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>139.196.101.78:8668/homenews/list?token=910820738640559462371283192</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>正常返回，无数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>待测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/qxy/newlist?columnId=[colId]&amp;page=[page]&amp;size=[size]&amp;token=[token]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>139.196.101.78:8668/newlist?columnId=7&amp;token=910820738640559462371283192</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回正常，无数据，实际有数据关联</t>
+    <t>新闻的修改、置顶（取消）、审核（驳回）、加入轮播（取消）参数标准核对</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "cid":"2",
+    "courseId":"3"           
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示新增失败</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4308,7 +4311,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4360,12 +4363,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4448,7 +4445,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4576,23 +4573,13 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
     <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
-  <dxfs count="165">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="90">
     <dxf>
       <fill>
         <patternFill>
@@ -4608,163 +4595,9 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4792,6 +4625,23 @@
       <font>
         <color auto="1"/>
       </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFF00"/>
@@ -4907,9 +4757,92 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4997,6 +4930,110 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5098,727 +5135,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
         </patternFill>
       </fill>
     </dxf>
@@ -6155,11 +5471,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="956748016"/>
-        <c:axId val="822496496"/>
+        <c:axId val="-2128096736"/>
+        <c:axId val="-2128085856"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="956748016"/>
+        <c:axId val="-2128096736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6201,7 +5517,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="822496496"/>
+        <c:crossAx val="-2128085856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6209,7 +5525,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="822496496"/>
+        <c:axId val="-2128085856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6259,7 +5575,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="956748016"/>
+        <c:crossAx val="-2128096736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9797,452 +9113,452 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="37" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="38" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" s="39" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" s="39" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" s="39" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" s="39" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" s="39" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" s="39" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9" s="39" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" s="39" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A11" s="39" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A12" s="39" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A13" s="39" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A14" s="38" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A15" s="39" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A16" s="39" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="39" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="39" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" s="39" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="39" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" s="38" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" s="39" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" s="39" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" s="39" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25" s="39" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A26" s="39" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A27" s="39" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A28" s="39" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A29" s="39" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A30" s="39" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A31" s="39" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A32" s="39" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A33" s="39" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A34" s="39" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A35" s="39" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A36" s="39" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A37" s="39" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A38" s="39" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A39" s="39" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A40" s="39" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A41" s="39" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A42" s="39" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A43" s="39" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A44" s="39" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A45" s="39" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A46" s="39" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A47" s="39" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A48" s="39" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A49" s="39" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A50" s="39" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A51" s="39" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A52" s="39" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A53" s="39" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A54" s="39" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A55" s="39" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A56" s="39" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A57" s="39" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A58" s="39" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A59" s="39" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A60" s="39" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A61" s="39" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A62" s="39" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A63" s="39" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A64" s="39" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A65" s="39" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A66" s="39" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A67" s="39" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A68" s="39" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A69" s="39" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A70" s="39" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A71" s="39" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A72" s="39" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A73" s="39" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A74" s="39" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A75" s="39" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A76" s="39" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A77" s="39" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A78" s="39" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A79" s="39" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A80" s="39" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A81" s="39" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A82" s="39" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A83" s="39" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A84" s="39" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A85" s="39" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A86" s="39" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A87" s="39" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A88" s="39" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A89" s="39" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A90" s="38" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
     </row>
   </sheetData>
@@ -10254,13 +9570,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:AL175"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H164" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J6" sqref="J6"/>
+      <selection pane="bottomRight" activeCell="K174" sqref="K174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -10286,972 +9603,972 @@
   <sheetData>
     <row r="1" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>490</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="H1" s="24" t="s">
         <v>295</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="D1" s="23" t="s">
-        <v>492</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="H1" s="24" t="s">
+      <c r="I1" s="24" t="s">
+        <v>343</v>
+      </c>
+      <c r="J1" s="36" t="s">
+        <v>672</v>
+      </c>
+      <c r="K1" s="30" t="s">
+        <v>673</v>
+      </c>
+      <c r="L1" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="M1" s="25" t="s">
+        <v>340</v>
+      </c>
+      <c r="N1" s="24" t="s">
+        <v>341</v>
+      </c>
+      <c r="O1" s="34" t="s">
         <v>296</v>
       </c>
-      <c r="I1" s="24" t="s">
-        <v>344</v>
-      </c>
-      <c r="J1" s="36" t="s">
-        <v>674</v>
-      </c>
-      <c r="K1" s="30" t="s">
-        <v>675</v>
-      </c>
-      <c r="L1" s="25" t="s">
-        <v>315</v>
-      </c>
-      <c r="M1" s="25" t="s">
-        <v>341</v>
-      </c>
-      <c r="N1" s="24" t="s">
-        <v>342</v>
-      </c>
-      <c r="O1" s="34" t="s">
-        <v>297</v>
-      </c>
       <c r="P1" s="2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="6">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>173</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H2" s="24" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="J2" s="36" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="3" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D3" s="23" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>173</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>924</v>
+        <v>906</v>
       </c>
       <c r="H3" s="24" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I3" s="24" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="J3" s="36" t="s">
-        <v>923</v>
+        <v>905</v>
       </c>
       <c r="K3" s="30" t="s">
-        <v>926</v>
+        <v>907</v>
       </c>
       <c r="L3" s="25" t="s">
-        <v>925</v>
+        <v>908</v>
       </c>
       <c r="M3" s="25">
         <v>404</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="4" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="4" spans="1:38" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D4" s="23" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>173</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H4" s="24" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="J4" s="36" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="5" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D5" s="23" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>173</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H5" s="24" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="J5" s="36" t="s">
-        <v>923</v>
+        <v>905</v>
       </c>
       <c r="K5" s="30" t="s">
-        <v>922</v>
+        <v>912</v>
       </c>
       <c r="L5" s="25" t="s">
-        <v>921</v>
+        <v>904</v>
       </c>
       <c r="M5" s="25">
         <v>404</v>
       </c>
       <c r="AJ5" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AK5" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AL5" s="1" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="6" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="6" spans="1:38" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C6" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>173</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="H6" s="24" t="s">
+        <v>299</v>
+      </c>
+      <c r="I6" s="24" t="s">
+        <v>306</v>
+      </c>
+      <c r="J6" s="36" t="s">
+        <v>317</v>
+      </c>
+      <c r="K6" s="30" t="s">
+        <v>846</v>
+      </c>
+      <c r="M6" s="25" t="s">
+        <v>421</v>
+      </c>
+      <c r="AJ6" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="I6" s="24" t="s">
+      <c r="AK6" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="J6" s="36" t="s">
-        <v>318</v>
-      </c>
-      <c r="K6" s="30" t="s">
-        <v>854</v>
-      </c>
-      <c r="M6" s="25" t="s">
-        <v>423</v>
-      </c>
-      <c r="AJ6" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="AK6" s="1" t="s">
-        <v>308</v>
-      </c>
       <c r="AL6" s="1" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="7" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="7" spans="1:38" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D7" s="23" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>173</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="H7" s="24" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I7" s="24" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="J7" s="36" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="K7" s="30" t="s">
-        <v>855</v>
+        <v>847</v>
       </c>
       <c r="M7" s="25" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AK7" s="1" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="8" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="8" spans="1:38" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D8" s="23" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>173</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>856</v>
+        <v>848</v>
       </c>
       <c r="H8" s="24" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I8" s="24" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="J8" s="36" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K8" s="30" t="s">
-        <v>920</v>
+        <v>903</v>
       </c>
       <c r="L8" s="25" t="s">
-        <v>919</v>
+        <v>902</v>
       </c>
       <c r="M8" s="25" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="9" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D9" s="23" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>173</v>
       </c>
       <c r="G9" s="19" t="s">
-        <v>857</v>
+        <v>849</v>
       </c>
       <c r="H9" s="24" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I9" s="24" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="J9" s="36" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="L9" s="25" t="s">
-        <v>858</v>
+        <v>850</v>
       </c>
       <c r="M9" s="25" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="10" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D10" s="23" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>173</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H10" s="24" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="J10" s="36" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="11" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="11" spans="1:38" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D11" s="23" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>173</v>
       </c>
       <c r="G11" s="19" t="s">
-        <v>859</v>
+        <v>851</v>
       </c>
       <c r="H11" s="24" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I11" s="24" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="J11" s="36" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K11" s="30" t="s">
-        <v>861</v>
+        <v>853</v>
       </c>
       <c r="L11" s="25" t="s">
-        <v>860</v>
+        <v>852</v>
       </c>
       <c r="N11" s="24" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="P11" s="2" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="12" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:38" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D12" s="23" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>173</v>
       </c>
       <c r="G12" s="19" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H12" s="24" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I12" s="24" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="J12" s="36" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="K12" s="30" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="L12" s="25" t="s">
-        <v>862</v>
+        <v>854</v>
       </c>
       <c r="N12" s="24" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="P12" s="2" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="13" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:38" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="6">
         <v>2</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D13" s="41" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>173</v>
       </c>
       <c r="G13" s="19" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="H13" s="24" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I13" s="24" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="J13" s="36" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="L13" s="25" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="M13" s="25" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="14" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="14" spans="1:38" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D14" s="23" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="E14" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>808</v>
+      </c>
+      <c r="H14" s="24" t="s">
+        <v>297</v>
+      </c>
+      <c r="J14" s="36" t="s">
+        <v>809</v>
+      </c>
+      <c r="K14" s="30" t="s">
+        <v>810</v>
+      </c>
+      <c r="L14" s="25" t="s">
         <v>453</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="M14" s="25" t="s">
         <v>454</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>812</v>
-      </c>
-      <c r="H14" s="24" t="s">
-        <v>298</v>
-      </c>
-      <c r="J14" s="36" t="s">
-        <v>813</v>
-      </c>
-      <c r="K14" s="30" t="s">
-        <v>814</v>
-      </c>
-      <c r="L14" s="25" t="s">
+      <c r="N14" s="26" t="s">
         <v>455</v>
       </c>
-      <c r="M14" s="25" t="s">
-        <v>456</v>
-      </c>
-      <c r="N14" s="26" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="15" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="15" spans="1:38" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D15" s="23" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>171</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H15" s="24" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="J15" s="36" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="M15" s="25" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="16" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D16" s="23" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>169</v>
       </c>
       <c r="G16" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="H16" s="24" t="s">
+        <v>297</v>
+      </c>
+      <c r="J16" s="36" t="s">
+        <v>924</v>
+      </c>
+      <c r="K16" s="30" t="s">
+        <v>923</v>
+      </c>
+      <c r="L16" s="25" t="s">
+        <v>922</v>
+      </c>
+      <c r="M16" s="25" t="s">
+        <v>417</v>
+      </c>
+      <c r="N16" s="24" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D17" s="23" t="s">
+        <v>507</v>
+      </c>
+      <c r="E17" s="5" t="s">
         <v>262</v>
-      </c>
-      <c r="H16" s="24" t="s">
-        <v>298</v>
-      </c>
-      <c r="J16" s="36" t="s">
-        <v>440</v>
-      </c>
-      <c r="K16" s="30" t="s">
-        <v>918</v>
-      </c>
-      <c r="L16" s="25" t="s">
-        <v>917</v>
-      </c>
-      <c r="M16" s="25" t="s">
-        <v>419</v>
-      </c>
-      <c r="N16" s="24" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D17" s="23" t="s">
-        <v>509</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>263</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>167</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H17" s="24" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="J17" s="36" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="M17" s="25" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D18" s="23" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>169</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H18" s="24" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="J18" s="36" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C19" s="17" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D19" s="23" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>173</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H19" s="24" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="J19" s="36" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="L19" s="25" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="M19" s="27" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D20" s="23" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>171</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H20" s="24" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="J20" s="36" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="L20" s="25" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M20" s="25" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="N20" s="24" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D21" s="23" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>169</v>
       </c>
       <c r="G21" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="H21" s="24" t="s">
+        <v>297</v>
+      </c>
+      <c r="J21" s="36" t="s">
+        <v>692</v>
+      </c>
+      <c r="L21" s="25" t="s">
+        <v>345</v>
+      </c>
+      <c r="M21" s="25" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D22" s="23" t="s">
+        <v>512</v>
+      </c>
+      <c r="E22" s="5" t="s">
         <v>253</v>
-      </c>
-      <c r="H21" s="24" t="s">
-        <v>298</v>
-      </c>
-      <c r="J21" s="36" t="s">
-        <v>694</v>
-      </c>
-      <c r="L21" s="25" t="s">
-        <v>346</v>
-      </c>
-      <c r="M21" s="25" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D22" s="23" t="s">
-        <v>514</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>254</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>167</v>
       </c>
       <c r="G22" s="13" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="H22" s="24" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="J22" s="36" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="K22" s="30" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="L22" s="25" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="M22" s="25" t="s">
+        <v>749</v>
+      </c>
+      <c r="N22" s="24" t="s">
         <v>751</v>
       </c>
-      <c r="N22" s="24" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="23" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="6">
         <v>3</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D23" s="23" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>173</v>
       </c>
       <c r="G23" s="19" t="s">
-        <v>843</v>
+        <v>837</v>
       </c>
       <c r="I23" s="24" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="J23" s="36" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="L23" s="25" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="M23" s="25" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="N23" s="24" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D24" s="23" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>173</v>
       </c>
       <c r="G24" s="19" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="I24" s="24" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="J24" s="36" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="K24" s="30" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="L24" s="25" t="s">
+        <v>426</v>
+      </c>
+      <c r="M24" s="25" t="s">
         <v>428</v>
       </c>
-      <c r="M24" s="25" t="s">
-        <v>430</v>
-      </c>
       <c r="N24" s="24" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D25" s="23" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>173</v>
       </c>
       <c r="G25" s="19" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H25" s="24" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I25" s="24" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="J25" s="36" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K25" s="30" t="s">
-        <v>845</v>
+        <v>839</v>
       </c>
       <c r="L25" s="25" t="s">
-        <v>916</v>
+        <v>901</v>
       </c>
       <c r="M25" s="25" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="N25" s="24" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D26" s="23" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>7</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="H26" s="24" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="J26" s="36" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="L26" s="25" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="M26" s="25" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D27" s="23" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>173</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="H27" s="24" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="J27" s="36" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="L27" s="25" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="M27" s="25" t="s">
+        <v>457</v>
+      </c>
+      <c r="N27" s="24" t="s">
         <v>459</v>
       </c>
-      <c r="N27" s="24" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="28" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D28" s="23" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F28" s="4" t="s">
         <v>171</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>846</v>
+        <v>840</v>
       </c>
       <c r="H28" s="24" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="J28" s="36" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="L28" s="25" t="s">
-        <v>847</v>
+        <v>841</v>
       </c>
       <c r="M28" s="25">
         <v>404</v>
       </c>
       <c r="N28" s="24" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D29" s="23" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>169</v>
       </c>
       <c r="G29" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="H29" s="24" t="s">
+        <v>297</v>
+      </c>
+      <c r="J29" s="36" t="s">
+        <v>766</v>
+      </c>
+      <c r="L29" s="25" t="s">
+        <v>842</v>
+      </c>
+      <c r="M29" s="25" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D30" s="23" t="s">
+        <v>520</v>
+      </c>
+      <c r="E30" s="5" t="s">
         <v>241</v>
-      </c>
-      <c r="H29" s="24" t="s">
-        <v>298</v>
-      </c>
-      <c r="J29" s="36" t="s">
-        <v>770</v>
-      </c>
-      <c r="L29" s="25" t="s">
-        <v>848</v>
-      </c>
-      <c r="M29" s="25" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D30" s="23" t="s">
-        <v>522</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>242</v>
       </c>
       <c r="F30" s="4" t="s">
         <v>167</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H30" s="24" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="J30" s="36" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="K30" s="30" t="s">
-        <v>850</v>
+        <v>844</v>
       </c>
       <c r="L30" s="25" t="s">
-        <v>849</v>
+        <v>843</v>
       </c>
       <c r="M30" s="25" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="31" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D31" s="23" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>169</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>239</v>
+        <v>919</v>
       </c>
       <c r="H31" s="24" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="J31" s="36" t="s">
-        <v>676</v>
+        <v>925</v>
       </c>
       <c r="K31" s="30" t="s">
-        <v>851</v>
+        <v>921</v>
       </c>
       <c r="L31" s="25" t="s">
-        <v>852</v>
+        <v>920</v>
       </c>
       <c r="M31" s="25" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D32" s="23" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>190</v>
@@ -11263,12 +10580,12 @@
         <v>189</v>
       </c>
       <c r="J32" s="36" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="33" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="33" spans="3:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D33" s="23" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>188</v>
@@ -11280,15 +10597,15 @@
         <v>187</v>
       </c>
       <c r="J33" s="36" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="34" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="34" spans="3:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C34" s="17" t="s">
         <v>238</v>
       </c>
       <c r="D34" s="23" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>237</v>
@@ -11300,21 +10617,21 @@
         <v>234</v>
       </c>
       <c r="H34" s="24" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="J34" s="36" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="L34" s="25" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="M34" s="25" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="35" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="35" spans="3:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D35" s="23" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>236</v>
@@ -11326,24 +10643,24 @@
         <v>234</v>
       </c>
       <c r="H35" s="24" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="J35" s="36" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="L35" s="25" t="s">
+        <v>461</v>
+      </c>
+      <c r="M35" s="25" t="s">
+        <v>663</v>
+      </c>
+      <c r="N35" s="24" t="s">
         <v>463</v>
       </c>
-      <c r="M35" s="25" t="s">
-        <v>665</v>
-      </c>
-      <c r="N35" s="24" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="36" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="36" spans="3:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D36" s="23" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>235</v>
@@ -11355,27 +10672,27 @@
         <v>234</v>
       </c>
       <c r="H36" s="24" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="J36" s="36" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="L36" s="25" t="s">
+        <v>462</v>
+      </c>
+      <c r="M36" s="25" t="s">
+        <v>671</v>
+      </c>
+      <c r="N36" s="24" t="s">
         <v>464</v>
       </c>
-      <c r="M36" s="25" t="s">
-        <v>673</v>
-      </c>
-      <c r="N36" s="24" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="37" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="37" spans="3:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C37" s="17" t="s">
         <v>233</v>
       </c>
       <c r="D37" s="23" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>232</v>
@@ -11384,21 +10701,21 @@
         <v>171</v>
       </c>
       <c r="G37" s="13" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="H37" s="24" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="J37" s="36" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="M37" s="25" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="38" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="38" spans="3:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D38" s="23" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>231</v>
@@ -11410,21 +10727,21 @@
         <v>229</v>
       </c>
       <c r="H38" s="24" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="J38" s="36" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="L38" s="25" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="M38" s="25" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="39" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="39" spans="3:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D39" s="23" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>230</v>
@@ -11433,33 +10750,33 @@
         <v>167</v>
       </c>
       <c r="G39" s="13" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="H39" s="24" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="J39" s="36" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="L39" s="25" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="M39" s="25" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="N39" s="24" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="P39" s="2" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="40" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="3:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C40" s="5" t="s">
         <v>227</v>
       </c>
       <c r="D40" s="23" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>226</v>
@@ -11468,24 +10785,24 @@
         <v>173</v>
       </c>
       <c r="G40" s="19" t="s">
-        <v>870</v>
+        <v>861</v>
       </c>
       <c r="H40" s="24" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I40" s="24" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="J40" s="36" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="M40" s="25" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="41" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D41" s="23" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>225</v>
@@ -11494,30 +10811,30 @@
         <v>171</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="H41" s="24" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="J41" s="36" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="K41" s="30" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="L41" s="25" t="s">
+        <v>435</v>
+      </c>
+      <c r="M41" s="25" t="s">
+        <v>436</v>
+      </c>
+      <c r="N41" s="24" t="s">
         <v>437</v>
       </c>
-      <c r="M41" s="25" t="s">
-        <v>438</v>
-      </c>
-      <c r="N41" s="24" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="42" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="42" spans="3:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D42" s="23" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>224</v>
@@ -11529,18 +10846,18 @@
         <v>223</v>
       </c>
       <c r="H42" s="24" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="J42" s="36" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="M42" s="25" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="43" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="43" spans="3:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D43" s="23" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>222</v>
@@ -11549,30 +10866,30 @@
         <v>173</v>
       </c>
       <c r="G43" s="19" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="H43" s="24" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I43" s="24" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="J43" s="36" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="K43" s="30" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="L43" s="25" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="M43" s="25" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="44" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D44" s="23" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>221</v>
@@ -11584,27 +10901,27 @@
         <v>220</v>
       </c>
       <c r="H44" s="24" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="J44" s="36" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="K44" s="30" t="s">
-        <v>853</v>
+        <v>845</v>
       </c>
       <c r="M44" s="25" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="N44" s="24" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="45" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="45" spans="3:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C45" s="17" t="s">
         <v>219</v>
       </c>
       <c r="D45" s="23" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>218</v>
@@ -11616,18 +10933,18 @@
         <v>217</v>
       </c>
       <c r="J45" s="36" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="L45" s="25" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="M45" s="25" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="46" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="46" spans="3:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D46" s="23" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="E46" s="5" t="s">
         <v>216</v>
@@ -11639,18 +10956,18 @@
         <v>213</v>
       </c>
       <c r="H46" s="24" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="J46" s="36" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="M46" s="25" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="47" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="47" spans="3:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D47" s="23" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>215</v>
@@ -11662,21 +10979,21 @@
         <v>213</v>
       </c>
       <c r="H47" s="24" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="J47" s="36" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="L47" s="25" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="M47" s="25" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="48" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="48" spans="3:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D48" s="23" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>214</v>
@@ -11688,27 +11005,27 @@
         <v>213</v>
       </c>
       <c r="H48" s="24" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="J48" s="36" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="L48" s="25" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="M48" s="25" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="N48" s="24" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C49" s="17" t="s">
         <v>212</v>
       </c>
       <c r="D49" s="23" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>211</v>
@@ -11717,33 +11034,33 @@
         <v>173</v>
       </c>
       <c r="G49" s="20" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="I49" s="24" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="J49" s="36" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="K49" s="30" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="L49" s="25" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="M49" s="25" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="N49" s="24" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="P49" s="2" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="50" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D50" s="23" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>210</v>
@@ -11755,21 +11072,21 @@
         <v>207</v>
       </c>
       <c r="H50" s="24" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="J50" s="36" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="L50" s="25" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="M50" s="25" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D51" s="23" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="E51" s="5" t="s">
         <v>209</v>
@@ -11781,21 +11098,21 @@
         <v>207</v>
       </c>
       <c r="H51" s="24" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="J51" s="36" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="L51" s="25" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="M51" s="25" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D52" s="23" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="E52" s="5" t="s">
         <v>208</v>
@@ -11804,27 +11121,27 @@
         <v>167</v>
       </c>
       <c r="G52" s="13" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="H52" s="24" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="J52" s="36" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="L52" s="25" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="M52" s="25" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="N52" s="24" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D53" s="23" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="E53" s="5" t="s">
         <v>190</v>
@@ -11836,12 +11153,12 @@
         <v>189</v>
       </c>
       <c r="J53" s="36" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D54" s="23" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="E54" s="5" t="s">
         <v>188</v>
@@ -11853,10 +11170,10 @@
         <v>187</v>
       </c>
       <c r="J54" s="36" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" s="5" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="6">
         <v>4</v>
       </c>
@@ -11867,7 +11184,7 @@
         <v>206</v>
       </c>
       <c r="D55" s="23" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="E55" s="5" t="s">
         <v>205</v>
@@ -11881,7 +11198,7 @@
       <c r="H55" s="24"/>
       <c r="I55" s="24"/>
       <c r="J55" s="36" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="K55" s="30"/>
       <c r="L55" s="25"/>
@@ -11890,10 +11207,10 @@
       <c r="O55" s="34"/>
       <c r="P55" s="2"/>
     </row>
-    <row r="56" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:16" s="5" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="6"/>
       <c r="D56" s="23" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E56" s="18" t="s">
         <v>203</v>
@@ -11902,78 +11219,78 @@
         <v>173</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="H56" s="24" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I56" s="24" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="J56" s="36" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K56" s="30" t="s">
-        <v>912</v>
+        <v>898</v>
       </c>
       <c r="L56" s="25" t="s">
-        <v>911</v>
+        <v>897</v>
       </c>
       <c r="M56" s="25" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="N56" s="24" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="O56" s="34"/>
       <c r="P56" s="2" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="57" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:16" s="5" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="6"/>
       <c r="D57" s="23" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="E57" s="18" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="F57" s="4" t="s">
         <v>7</v>
       </c>
       <c r="G57" s="19" t="s">
-        <v>913</v>
+        <v>899</v>
       </c>
       <c r="H57" s="24" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I57" s="24" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="J57" s="36" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K57" s="30" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
       <c r="L57" s="25" t="s">
-        <v>914</v>
+        <v>900</v>
       </c>
       <c r="M57" s="25" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="N57" s="24" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="O57" s="34"/>
       <c r="P57" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="58" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:16" s="5" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="6"/>
       <c r="D58" s="23" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="E58" s="5" t="s">
         <v>202</v>
@@ -11987,7 +11304,7 @@
       <c r="H58" s="24"/>
       <c r="I58" s="24"/>
       <c r="J58" s="36" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="K58" s="30"/>
       <c r="L58" s="25"/>
@@ -11996,14 +11313,14 @@
       <c r="O58" s="34"/>
       <c r="P58" s="2"/>
     </row>
-    <row r="59" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:16" s="7" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="6"/>
       <c r="B59" s="5"/>
       <c r="C59" s="5" t="s">
         <v>200</v>
       </c>
       <c r="D59" s="23" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="E59" s="5" t="s">
         <v>199</v>
@@ -12012,38 +11329,38 @@
         <v>173</v>
       </c>
       <c r="G59" s="19" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="H59" s="24" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I59" s="24" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="J59" s="36" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K59" s="30"/>
       <c r="L59" s="25" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="M59" s="25" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="N59" s="24" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="O59" s="34"/>
       <c r="P59" s="2" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="60" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:16" s="7" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="6"/>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
       <c r="D60" s="23" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="E60" s="5" t="s">
         <v>198</v>
@@ -12057,7 +11374,7 @@
       <c r="H60" s="24"/>
       <c r="I60" s="24"/>
       <c r="J60" s="36" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="K60" s="30"/>
       <c r="L60" s="25"/>
@@ -12071,7 +11388,7 @@
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
       <c r="D61" s="23" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E61" s="5" t="s">
         <v>196</v>
@@ -12080,23 +11397,23 @@
         <v>171</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>915</v>
+        <v>910</v>
       </c>
       <c r="H61" s="24" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I61" s="24"/>
       <c r="J61" s="36" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="K61" s="30" t="s">
-        <v>835</v>
+        <v>927</v>
       </c>
       <c r="L61" s="25" t="s">
-        <v>834</v>
+        <v>926</v>
       </c>
       <c r="M61" s="25" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="N61" s="24"/>
       <c r="O61" s="34"/>
@@ -12107,7 +11424,7 @@
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
       <c r="D62" s="23" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="E62" s="5" t="s">
         <v>195</v>
@@ -12119,23 +11436,23 @@
         <v>191</v>
       </c>
       <c r="H62" s="24" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I62" s="24" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="J62" s="36" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="K62" s="30" t="s">
-        <v>836</v>
+        <v>830</v>
       </c>
       <c r="L62" s="25"/>
       <c r="M62" s="25" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="N62" s="24" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="O62" s="34"/>
       <c r="P62" s="2" t="s">
@@ -12147,7 +11464,7 @@
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
       <c r="D63" s="23" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="E63" s="5" t="s">
         <v>194</v>
@@ -12159,23 +11476,23 @@
         <v>193</v>
       </c>
       <c r="H63" s="24" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I63" s="24" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="J63" s="36" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="K63" s="30" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="L63" s="25"/>
       <c r="M63" s="25" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="N63" s="24" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="O63" s="34"/>
       <c r="P63" s="2" t="s">
@@ -12187,7 +11504,7 @@
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
       <c r="D64" s="23" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="E64" s="5" t="s">
         <v>192</v>
@@ -12199,35 +11516,35 @@
         <v>191</v>
       </c>
       <c r="H64" s="24" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I64" s="24" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="J64" s="36" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="K64" s="30" t="s">
-        <v>838</v>
+        <v>832</v>
       </c>
       <c r="L64" s="25"/>
       <c r="M64" s="25" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="N64" s="24" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="O64" s="34"/>
       <c r="P64" s="2" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="65" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:16" s="7" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="6"/>
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
       <c r="D65" s="23" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="E65" s="5" t="s">
         <v>190</v>
@@ -12241,7 +11558,7 @@
       <c r="H65" s="24"/>
       <c r="I65" s="24"/>
       <c r="J65" s="36" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="K65" s="30"/>
       <c r="L65" s="25"/>
@@ -12250,12 +11567,12 @@
       <c r="O65" s="34"/>
       <c r="P65" s="2"/>
     </row>
-    <row r="66" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:16" s="7" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="6"/>
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
       <c r="D66" s="23" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="E66" s="5" t="s">
         <v>188</v>
@@ -12269,7 +11586,7 @@
       <c r="H66" s="24"/>
       <c r="I66" s="24"/>
       <c r="J66" s="36" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="K66" s="30"/>
       <c r="L66" s="25"/>
@@ -12278,14 +11595,14 @@
       <c r="O66" s="34"/>
       <c r="P66" s="2"/>
     </row>
-    <row r="67" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:16" s="7" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="6"/>
       <c r="B67" s="5"/>
       <c r="C67" s="5" t="s">
         <v>186</v>
       </c>
       <c r="D67" s="23" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="E67" s="5" t="s">
         <v>185</v>
@@ -12294,22 +11611,22 @@
         <v>173</v>
       </c>
       <c r="G67" s="21" t="s">
-        <v>909</v>
+        <v>895</v>
       </c>
       <c r="H67" s="24" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I67" s="24" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="J67" s="36" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K67" s="30" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="L67" s="25" t="s">
-        <v>910</v>
+        <v>896</v>
       </c>
       <c r="M67" s="25">
         <v>404</v>
@@ -12320,12 +11637,12 @@
         <v>184</v>
       </c>
     </row>
-    <row r="68" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:16" s="7" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="6"/>
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
       <c r="D68" s="23" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="E68" s="5" t="s">
         <v>183</v>
@@ -12334,14 +11651,14 @@
         <v>173</v>
       </c>
       <c r="G68" s="19" t="s">
-        <v>839</v>
+        <v>833</v>
       </c>
       <c r="H68" s="24"/>
       <c r="I68" s="24" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="J68" s="36" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K68" s="30"/>
       <c r="L68" s="25"/>
@@ -12354,12 +11671,12 @@
         <v>182</v>
       </c>
     </row>
-    <row r="69" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:16" s="7" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="6"/>
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
       <c r="D69" s="23" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="E69" s="5" t="s">
         <v>181</v>
@@ -12368,36 +11685,36 @@
         <v>173</v>
       </c>
       <c r="G69" s="20" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H69" s="24" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I69" s="24" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="J69" s="36" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="K69" s="30"/>
       <c r="L69" s="25"/>
       <c r="M69" s="25" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="N69" s="24" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="O69" s="34"/>
       <c r="P69" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="70" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:16" s="7" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="6"/>
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
       <c r="D70" s="23" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="E70" s="5" t="s">
         <v>180</v>
@@ -12406,38 +11723,38 @@
         <v>171</v>
       </c>
       <c r="G70" s="13" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="H70" s="24" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I70" s="24" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="J70" s="36" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K70" s="30"/>
       <c r="L70" s="25" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="M70" s="25" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="N70" s="24" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="O70" s="34"/>
       <c r="P70" s="2" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="71" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:16" s="7" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="6"/>
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
       <c r="D71" s="23" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="E71" s="5" t="s">
         <v>179</v>
@@ -12446,21 +11763,21 @@
         <v>169</v>
       </c>
       <c r="G71" s="13" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="H71" s="24" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I71" s="24"/>
       <c r="J71" s="36" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="K71" s="30"/>
       <c r="L71" s="25" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="M71" s="25" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="N71" s="24"/>
       <c r="O71" s="34"/>
@@ -12468,12 +11785,12 @@
         <v>178</v>
       </c>
     </row>
-    <row r="72" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:16" s="7" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="6"/>
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
       <c r="D72" s="23" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="E72" s="5" t="s">
         <v>177</v>
@@ -12485,35 +11802,35 @@
         <v>176</v>
       </c>
       <c r="H72" s="24" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I72" s="24" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="J72" s="36" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="K72" s="30"/>
       <c r="L72" s="25" t="s">
+        <v>667</v>
+      </c>
+      <c r="M72" s="25" t="s">
         <v>669</v>
       </c>
-      <c r="M72" s="25" t="s">
-        <v>671</v>
-      </c>
       <c r="N72" s="24" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="O72" s="34"/>
       <c r="P72" s="2" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="73" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:16" s="7" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="6"/>
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
       <c r="D73" s="23" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E73" s="5" t="s">
         <v>174</v>
@@ -12522,36 +11839,36 @@
         <v>173</v>
       </c>
       <c r="G73" s="21" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="H73" s="24"/>
       <c r="I73" s="24" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="J73" s="36" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="K73" s="30" t="s">
-        <v>840</v>
+        <v>834</v>
       </c>
       <c r="L73" s="25"/>
       <c r="M73" s="25">
         <v>404</v>
       </c>
       <c r="N73" s="24" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="O73" s="34"/>
       <c r="P73" s="2" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="74" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:16" s="7" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="6"/>
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
       <c r="D74" s="23" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="E74" s="5" t="s">
         <v>172</v>
@@ -12560,26 +11877,26 @@
         <v>171</v>
       </c>
       <c r="G74" s="11" t="s">
-        <v>906</v>
+        <v>893</v>
       </c>
       <c r="H74" s="24"/>
       <c r="I74" s="24" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="J74" s="36" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K74" s="30" t="s">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="L74" s="25" t="s">
-        <v>907</v>
+        <v>894</v>
       </c>
       <c r="M74" s="25">
         <v>404</v>
       </c>
       <c r="N74" s="24" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="O74" s="34"/>
       <c r="P74" s="2" t="s">
@@ -12591,7 +11908,7 @@
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
       <c r="D75" s="23" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="E75" s="5" t="s">
         <v>170</v>
@@ -12604,32 +11921,30 @@
       </c>
       <c r="H75" s="24"/>
       <c r="I75" s="24" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="J75" s="36" t="s">
-        <v>367</v>
-      </c>
-      <c r="K75" s="30" t="s">
-        <v>908</v>
-      </c>
+        <v>366</v>
+      </c>
+      <c r="K75" s="30"/>
       <c r="L75" s="25"/>
       <c r="M75" s="25">
         <v>404</v>
       </c>
       <c r="N75" s="24" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="O75" s="34"/>
       <c r="P75" s="2" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="76" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:16" s="7" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="6"/>
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
       <c r="D76" s="23" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="E76" s="5" t="s">
         <v>168</v>
@@ -12642,34 +11957,34 @@
       </c>
       <c r="H76" s="24"/>
       <c r="I76" s="24" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="J76" s="36" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="K76" s="30" t="s">
-        <v>840</v>
+        <v>834</v>
       </c>
       <c r="L76" s="25"/>
       <c r="M76" s="25">
         <v>404</v>
       </c>
       <c r="N76" s="24" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="O76" s="34"/>
       <c r="P76" s="2" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="77" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:16" s="7" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="6"/>
       <c r="B77" s="5"/>
       <c r="C77" s="5" t="s">
         <v>164</v>
       </c>
       <c r="D77" s="23" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="E77" s="5" t="s">
         <v>54</v>
@@ -12683,7 +11998,7 @@
       <c r="H77" s="24"/>
       <c r="I77" s="24"/>
       <c r="J77" s="36" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="K77" s="30"/>
       <c r="L77" s="25"/>
@@ -12692,12 +12007,12 @@
       <c r="O77" s="34"/>
       <c r="P77" s="2"/>
     </row>
-    <row r="78" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:16" s="7" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="6"/>
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
       <c r="D78" s="40" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="E78" s="5" t="s">
         <v>163</v>
@@ -12706,40 +12021,40 @@
         <v>7</v>
       </c>
       <c r="G78" s="20" t="s">
-        <v>873</v>
+        <v>864</v>
       </c>
       <c r="H78" s="24" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I78" s="24" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="J78" s="36" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K78" s="30" t="s">
-        <v>879</v>
+        <v>870</v>
       </c>
       <c r="L78" s="25" t="s">
-        <v>876</v>
+        <v>867</v>
       </c>
       <c r="M78" s="25" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="N78" s="24" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="O78" s="34"/>
       <c r="P78" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="79" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:16" s="7" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="6"/>
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
       <c r="D79" s="23" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="E79" s="5" t="s">
         <v>162</v>
@@ -12748,38 +12063,38 @@
         <v>7</v>
       </c>
       <c r="G79" s="20" t="s">
-        <v>874</v>
+        <v>865</v>
       </c>
       <c r="H79" s="24"/>
       <c r="I79" s="24" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="J79" s="36" t="s">
-        <v>877</v>
+        <v>868</v>
       </c>
       <c r="K79" s="30" t="s">
-        <v>878</v>
+        <v>869</v>
       </c>
       <c r="L79" s="25" t="s">
-        <v>875</v>
+        <v>866</v>
       </c>
       <c r="M79" s="25" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="N79" s="24" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="O79" s="34"/>
       <c r="P79" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="80" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:16" s="7" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="6"/>
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
       <c r="D80" s="23" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="E80" s="5" t="s">
         <v>161</v>
@@ -12793,7 +12108,7 @@
       <c r="H80" s="24"/>
       <c r="I80" s="24"/>
       <c r="J80" s="36" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="K80" s="30"/>
       <c r="L80" s="25"/>
@@ -12802,12 +12117,12 @@
       <c r="O80" s="34"/>
       <c r="P80" s="2"/>
     </row>
-    <row r="81" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:16" s="7" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="6"/>
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
       <c r="D81" s="23" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="E81" s="5" t="s">
         <v>159</v>
@@ -12821,7 +12136,7 @@
       <c r="H81" s="24"/>
       <c r="I81" s="24"/>
       <c r="J81" s="36" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="K81" s="30"/>
       <c r="L81" s="25"/>
@@ -12830,12 +12145,12 @@
       <c r="O81" s="34"/>
       <c r="P81" s="2"/>
     </row>
-    <row r="82" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:16" s="7" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="6"/>
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
       <c r="D82" s="23" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="E82" s="5" t="s">
         <v>157</v>
@@ -12849,7 +12164,7 @@
       <c r="H82" s="24"/>
       <c r="I82" s="24"/>
       <c r="J82" s="36" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="K82" s="30"/>
       <c r="L82" s="25"/>
@@ -12860,12 +12175,12 @@
         <v>155</v>
       </c>
     </row>
-    <row r="83" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:16" s="7" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="6"/>
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
       <c r="D83" s="23" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="E83" s="5" t="s">
         <v>154</v>
@@ -12879,7 +12194,7 @@
       <c r="H83" s="24"/>
       <c r="I83" s="24"/>
       <c r="J83" s="36" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="K83" s="30"/>
       <c r="L83" s="25"/>
@@ -12888,12 +12203,12 @@
       <c r="O83" s="34"/>
       <c r="P83" s="2"/>
     </row>
-    <row r="84" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:16" s="7" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="6"/>
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
       <c r="D84" s="23" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="E84" s="5" t="s">
         <v>152</v>
@@ -12907,24 +12222,24 @@
       <c r="H84" s="24"/>
       <c r="I84" s="24"/>
       <c r="J84" s="36" t="s">
-        <v>877</v>
+        <v>868</v>
       </c>
       <c r="K84" s="30" t="s">
-        <v>879</v>
+        <v>870</v>
       </c>
       <c r="L84" s="25" t="s">
-        <v>880</v>
+        <v>871</v>
       </c>
       <c r="M84" s="25" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="N84" s="24" t="s">
-        <v>842</v>
+        <v>836</v>
       </c>
       <c r="O84" s="34"/>
       <c r="P84" s="2"/>
     </row>
-    <row r="85" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:16" s="7" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="6">
         <v>5</v>
       </c>
@@ -12935,7 +12250,7 @@
         <v>149</v>
       </c>
       <c r="D85" s="23" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="E85" s="5" t="s">
         <v>54</v>
@@ -12949,7 +12264,7 @@
       <c r="H85" s="24"/>
       <c r="I85" s="24"/>
       <c r="J85" s="36" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="K85" s="30"/>
       <c r="L85" s="25"/>
@@ -12963,7 +12278,7 @@
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
       <c r="D86" s="41" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="E86" s="16" t="s">
         <v>148</v>
@@ -12972,40 +12287,40 @@
         <v>83</v>
       </c>
       <c r="G86" s="19" t="s">
-        <v>863</v>
+        <v>855</v>
       </c>
       <c r="H86" s="24" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I86" s="24" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="J86" s="36" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="K86" s="30" t="s">
-        <v>864</v>
+        <v>856</v>
       </c>
       <c r="L86" s="25" t="s">
-        <v>905</v>
+        <v>918</v>
       </c>
       <c r="M86" s="25" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="N86" s="24" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="O86" s="34"/>
       <c r="P86" s="2" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="87" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:16" s="7" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="6"/>
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
       <c r="D87" s="23" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="E87" s="5" t="s">
         <v>146</v>
@@ -13017,11 +12332,11 @@
         <v>145</v>
       </c>
       <c r="H87" s="24" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I87" s="24"/>
       <c r="J87" s="36" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="K87" s="30"/>
       <c r="L87" s="25"/>
@@ -13030,14 +12345,14 @@
       <c r="O87" s="34"/>
       <c r="P87" s="2"/>
     </row>
-    <row r="88" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:16" s="7" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="6"/>
       <c r="B88" s="5"/>
       <c r="C88" s="5" t="s">
         <v>144</v>
       </c>
       <c r="D88" s="23" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="E88" s="5" t="s">
         <v>108</v>
@@ -13049,11 +12364,11 @@
         <v>143</v>
       </c>
       <c r="H88" s="24" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I88" s="24"/>
       <c r="J88" s="36" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="K88" s="30"/>
       <c r="L88" s="25"/>
@@ -13062,12 +12377,12 @@
       <c r="O88" s="34"/>
       <c r="P88" s="2"/>
     </row>
-    <row r="89" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:16" s="7" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="6"/>
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
       <c r="D89" s="23" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="E89" s="5" t="s">
         <v>106</v>
@@ -13079,11 +12394,11 @@
         <v>142</v>
       </c>
       <c r="H89" s="24" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I89" s="24"/>
       <c r="J89" s="36" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="K89" s="30"/>
       <c r="L89" s="25"/>
@@ -13092,12 +12407,12 @@
       <c r="O89" s="34"/>
       <c r="P89" s="2"/>
     </row>
-    <row r="90" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:16" s="7" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="6"/>
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
       <c r="D90" s="23" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="E90" s="5" t="s">
         <v>141</v>
@@ -13109,11 +12424,11 @@
         <v>140</v>
       </c>
       <c r="H90" s="24" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I90" s="24"/>
       <c r="J90" s="36" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="K90" s="30"/>
       <c r="L90" s="25"/>
@@ -13122,12 +12437,12 @@
       <c r="O90" s="34"/>
       <c r="P90" s="2"/>
     </row>
-    <row r="91" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:16" s="7" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="6"/>
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
       <c r="D91" s="23" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="E91" s="5" t="s">
         <v>139</v>
@@ -13139,11 +12454,11 @@
         <v>138</v>
       </c>
       <c r="H91" s="24" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I91" s="24"/>
       <c r="J91" s="36" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="K91" s="30"/>
       <c r="L91" s="25"/>
@@ -13159,7 +12474,7 @@
         <v>137</v>
       </c>
       <c r="D92" s="23" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="E92" s="16" t="s">
         <v>136</v>
@@ -13171,23 +12486,23 @@
         <v>134</v>
       </c>
       <c r="H92" s="24" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I92" s="24" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="J92" s="36" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="K92" s="30" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="L92" s="25"/>
       <c r="M92" s="25" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="N92" s="24" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="O92" s="34"/>
       <c r="P92" s="2" t="s">
@@ -13199,7 +12514,7 @@
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
       <c r="D93" s="23" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="E93" s="16" t="s">
         <v>135</v>
@@ -13211,23 +12526,23 @@
         <v>134</v>
       </c>
       <c r="H93" s="24" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I93" s="24" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="J93" s="36" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="K93" s="30" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="L93" s="25"/>
       <c r="M93" s="25" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="N93" s="24" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="O93" s="34"/>
       <c r="P93" s="2" t="s">
@@ -13237,7 +12552,7 @@
     <row r="94" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="6"/>
       <c r="D94" s="23" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="E94" s="16" t="s">
         <v>133</v>
@@ -13249,36 +12564,36 @@
         <v>132</v>
       </c>
       <c r="H94" s="24" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I94" s="24" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="J94" s="36" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="K94" s="30" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="L94" s="25"/>
       <c r="M94" s="25" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="N94" s="24" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="O94" s="34"/>
       <c r="P94" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="95" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:16" s="5" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="6"/>
       <c r="C95" s="5" t="s">
         <v>131</v>
       </c>
       <c r="D95" s="23" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="E95" s="5" t="s">
         <v>130</v>
@@ -13290,11 +12605,11 @@
         <v>72</v>
       </c>
       <c r="H95" s="24" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I95" s="24"/>
       <c r="J95" s="36" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="K95" s="30"/>
       <c r="L95" s="25"/>
@@ -13303,10 +12618,10 @@
       <c r="O95" s="34"/>
       <c r="P95" s="2"/>
     </row>
-    <row r="96" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:16" s="5" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="6"/>
       <c r="D96" s="23" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="E96" s="5" t="s">
         <v>129</v>
@@ -13318,11 +12633,11 @@
         <v>128</v>
       </c>
       <c r="H96" s="24" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I96" s="24"/>
       <c r="J96" s="36" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="K96" s="30"/>
       <c r="L96" s="25"/>
@@ -13331,7 +12646,7 @@
       <c r="O96" s="34"/>
       <c r="P96" s="2"/>
     </row>
-    <row r="97" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:16" s="5" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="6">
         <v>6</v>
       </c>
@@ -13342,7 +12657,7 @@
         <v>126</v>
       </c>
       <c r="D97" s="23" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="E97" s="5" t="s">
         <v>125</v>
@@ -13351,32 +12666,32 @@
         <v>7</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="H97" s="24" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I97" s="24"/>
       <c r="J97" s="36" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="K97" s="30" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
       <c r="L97" s="25" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="M97" s="25" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="N97" s="24"/>
       <c r="O97" s="34"/>
       <c r="P97" s="2"/>
     </row>
-    <row r="98" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:16" s="5" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="6"/>
       <c r="D98" s="41" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="E98" s="5" t="s">
         <v>124</v>
@@ -13385,32 +12700,32 @@
         <v>83</v>
       </c>
       <c r="G98" s="19" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="H98" s="24" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I98" s="24" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="J98" s="36" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="K98" s="30"/>
       <c r="L98" s="25" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="M98" s="25" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="N98" s="24"/>
       <c r="O98" s="34"/>
       <c r="P98" s="2"/>
     </row>
-    <row r="99" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:16" s="5" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="6"/>
       <c r="D99" s="23" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="E99" s="5" t="s">
         <v>123</v>
@@ -13422,29 +12737,29 @@
         <v>120</v>
       </c>
       <c r="H99" s="24" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I99" s="24"/>
       <c r="J99" s="36" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K99" s="30" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="L99" s="25" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="M99" s="25" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="N99" s="24"/>
       <c r="O99" s="34"/>
       <c r="P99" s="2"/>
     </row>
-    <row r="100" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:16" s="5" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="6"/>
       <c r="D100" s="23" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="E100" s="5" t="s">
         <v>122</v>
@@ -13456,29 +12771,29 @@
         <v>120</v>
       </c>
       <c r="H100" s="24" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I100" s="24"/>
       <c r="J100" s="36" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K100" s="30" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="L100" s="25" t="s">
-        <v>904</v>
+        <v>892</v>
       </c>
       <c r="M100" s="25" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="N100" s="24"/>
       <c r="O100" s="34"/>
       <c r="P100" s="2"/>
     </row>
-    <row r="101" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:16" s="5" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="6"/>
       <c r="D101" s="23" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="E101" s="5" t="s">
         <v>121</v>
@@ -13490,30 +12805,30 @@
         <v>120</v>
       </c>
       <c r="H101" s="24" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I101" s="24"/>
       <c r="J101" s="36" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="K101" s="30" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="L101" s="25"/>
       <c r="M101" s="25" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="N101" s="24"/>
       <c r="O101" s="34"/>
       <c r="P101" s="2"/>
     </row>
-    <row r="102" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:16" s="5" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="6"/>
       <c r="C102" s="5" t="s">
         <v>119</v>
       </c>
       <c r="D102" s="23" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="E102" s="5" t="s">
         <v>118</v>
@@ -13522,32 +12837,32 @@
         <v>7</v>
       </c>
       <c r="G102" s="13" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="H102" s="24" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I102" s="24"/>
       <c r="J102" s="36" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K102" s="30"/>
       <c r="L102" s="28" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="M102" s="27" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="N102" s="24" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="O102" s="34"/>
       <c r="P102" s="2"/>
     </row>
-    <row r="103" spans="1:16" s="5" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:16" s="5" customFormat="1" ht="46.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="6"/>
       <c r="D103" s="23" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="E103" s="5" t="s">
         <v>117</v>
@@ -13559,29 +12874,29 @@
         <v>111</v>
       </c>
       <c r="H103" s="24" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I103" s="24"/>
       <c r="J103" s="36" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="K103" s="31"/>
       <c r="L103" s="26" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="M103" s="26" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="N103" s="24" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="O103" s="34"/>
       <c r="P103" s="2"/>
     </row>
-    <row r="104" spans="1:16" s="5" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:16" s="5" customFormat="1" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="6"/>
       <c r="D104" s="23" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="E104" s="5" t="s">
         <v>115</v>
@@ -13590,34 +12905,34 @@
         <v>114</v>
       </c>
       <c r="G104" s="13" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
       <c r="H104" s="24" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I104" s="24"/>
       <c r="J104" s="36" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K104" s="30" t="s">
-        <v>903</v>
+        <v>891</v>
       </c>
       <c r="L104" s="25" t="s">
-        <v>902</v>
+        <v>890</v>
       </c>
       <c r="M104" s="25" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="N104" s="24" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="O104" s="34"/>
       <c r="P104" s="2"/>
     </row>
-    <row r="105" spans="1:16" s="5" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:16" s="5" customFormat="1" ht="35.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="6"/>
       <c r="D105" s="23" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="E105" s="5" t="s">
         <v>113</v>
@@ -13629,24 +12944,24 @@
         <v>111</v>
       </c>
       <c r="H105" s="24" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I105" s="24"/>
       <c r="J105" s="36" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="K105" s="30"/>
       <c r="L105" s="25" t="s">
+        <v>316</v>
+      </c>
+      <c r="M105" s="25" t="s">
         <v>317</v>
-      </c>
-      <c r="M105" s="25" t="s">
-        <v>318</v>
       </c>
       <c r="N105" s="24"/>
       <c r="O105" s="34"/>
       <c r="P105" s="2"/>
     </row>
-    <row r="106" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:16" s="5" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="6">
         <v>7</v>
       </c>
@@ -13657,7 +12972,7 @@
         <v>109</v>
       </c>
       <c r="D106" s="23" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="E106" s="5" t="s">
         <v>108</v>
@@ -13669,27 +12984,27 @@
         <v>107</v>
       </c>
       <c r="H106" s="24" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I106" s="24"/>
       <c r="J106" s="36" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="K106" s="30"/>
       <c r="L106" s="25" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="M106" s="27" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="N106" s="24"/>
       <c r="O106" s="34"/>
       <c r="P106" s="2"/>
     </row>
-    <row r="107" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:16" s="5" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="6"/>
       <c r="D107" s="23" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="E107" s="5" t="s">
         <v>106</v>
@@ -13698,36 +13013,36 @@
         <v>83</v>
       </c>
       <c r="G107" s="22" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="H107" s="24" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I107" s="24" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="J107" s="36" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K107" s="30" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="L107" s="25" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="M107" s="27" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="N107" s="24"/>
       <c r="O107" s="34"/>
       <c r="P107" s="2"/>
     </row>
-    <row r="108" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:16" s="7" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="6"/>
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
       <c r="D108" s="23" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="E108" s="5" t="s">
         <v>105</v>
@@ -13736,36 +13051,36 @@
         <v>7</v>
       </c>
       <c r="G108" s="19" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="H108" s="24" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I108" s="24" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="J108" s="36" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="K108" s="30" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="L108" s="25" t="s">
+        <v>377</v>
+      </c>
+      <c r="M108" s="25" t="s">
         <v>378</v>
-      </c>
-      <c r="M108" s="25" t="s">
-        <v>379</v>
       </c>
       <c r="N108" s="24"/>
       <c r="O108" s="34"/>
       <c r="P108" s="2"/>
     </row>
-    <row r="109" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:16" s="7" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="6"/>
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
       <c r="D109" s="23" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="E109" s="5" t="s">
         <v>104</v>
@@ -13777,29 +13092,29 @@
         <v>103</v>
       </c>
       <c r="H109" s="24" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I109" s="24"/>
       <c r="J109" s="36" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="K109" s="30"/>
       <c r="L109" s="25" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="M109" s="25" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="N109" s="24"/>
       <c r="O109" s="34"/>
       <c r="P109" s="2"/>
     </row>
-    <row r="110" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:16" s="7" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="6"/>
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
       <c r="D110" s="23" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="E110" s="5" t="s">
         <v>102</v>
@@ -13811,31 +13126,31 @@
         <v>101</v>
       </c>
       <c r="H110" s="24" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I110" s="24"/>
       <c r="J110" s="36" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="K110" s="30"/>
       <c r="L110" s="25" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="M110" s="25" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="N110" s="24"/>
       <c r="O110" s="34"/>
       <c r="P110" s="2"/>
     </row>
-    <row r="111" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:16" s="7" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="6"/>
       <c r="B111" s="5"/>
       <c r="C111" s="5" t="s">
         <v>100</v>
       </c>
       <c r="D111" s="23" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="E111" s="5" t="s">
         <v>99</v>
@@ -13844,32 +13159,32 @@
         <v>7</v>
       </c>
       <c r="G111" s="13" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="H111" s="24" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I111" s="24"/>
       <c r="J111" s="36" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="K111" s="30"/>
       <c r="L111" s="25" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="M111" s="25" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="N111" s="24"/>
       <c r="O111" s="34"/>
       <c r="P111" s="2"/>
     </row>
-    <row r="112" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:16" s="7" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="6"/>
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
       <c r="D112" s="23" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="E112" s="5" t="s">
         <v>98</v>
@@ -13878,21 +13193,21 @@
         <v>5</v>
       </c>
       <c r="G112" s="13" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="H112" s="24" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I112" s="24"/>
       <c r="J112" s="36" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="K112" s="30"/>
       <c r="L112" s="25" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="M112" s="25" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N112" s="24"/>
       <c r="O112" s="34"/>
@@ -13900,37 +13215,37 @@
         <v>97</v>
       </c>
     </row>
-    <row r="113" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:16" s="7" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="6"/>
       <c r="B113" s="5"/>
       <c r="C113" s="5"/>
       <c r="D113" s="23" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="E113" s="5" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="F113" s="4" t="s">
         <v>3</v>
       </c>
       <c r="G113" s="13" t="s">
-        <v>881</v>
+        <v>872</v>
       </c>
       <c r="H113" s="24" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I113" s="24"/>
       <c r="J113" s="36" t="s">
-        <v>883</v>
+        <v>874</v>
       </c>
       <c r="K113" s="30" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="L113" s="25" t="s">
-        <v>882</v>
+        <v>873</v>
       </c>
       <c r="M113" s="25" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="N113" s="24"/>
       <c r="O113" s="34"/>
@@ -13938,12 +13253,12 @@
         <v>97</v>
       </c>
     </row>
-    <row r="114" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:16" s="7" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="6"/>
       <c r="B114" s="5"/>
       <c r="C114" s="5"/>
       <c r="D114" s="23" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="E114" s="5" t="s">
         <v>96</v>
@@ -13955,29 +13270,29 @@
         <v>95</v>
       </c>
       <c r="H114" s="24" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I114" s="24"/>
       <c r="J114" s="36" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="K114" s="30"/>
       <c r="L114" s="25"/>
       <c r="M114" s="25" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="N114" s="24"/>
       <c r="O114" s="34"/>
       <c r="P114" s="2"/>
     </row>
-    <row r="115" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:16" s="7" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="6"/>
       <c r="B115" s="5"/>
       <c r="C115" s="17" t="s">
         <v>94</v>
       </c>
       <c r="D115" s="23" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="E115" s="5" t="s">
         <v>93</v>
@@ -13989,27 +13304,27 @@
         <v>91</v>
       </c>
       <c r="H115" s="24" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I115" s="24"/>
       <c r="J115" s="36" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="K115" s="30"/>
       <c r="L115" s="25"/>
       <c r="M115" s="25" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="N115" s="24"/>
       <c r="O115" s="34"/>
       <c r="P115" s="2"/>
     </row>
-    <row r="116" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:16" s="7" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="6"/>
       <c r="B116" s="5"/>
       <c r="C116" s="5"/>
       <c r="D116" s="23" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="E116" s="5" t="s">
         <v>92</v>
@@ -14021,29 +13336,29 @@
         <v>91</v>
       </c>
       <c r="H116" s="24" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I116" s="24"/>
       <c r="J116" s="36" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="K116" s="30"/>
       <c r="L116" s="25" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="M116" s="25" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="N116" s="24"/>
       <c r="O116" s="34"/>
       <c r="P116" s="2"/>
     </row>
-    <row r="117" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:16" s="7" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="6"/>
       <c r="B117" s="5"/>
       <c r="C117" s="5"/>
       <c r="D117" s="23" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="E117" s="5" t="s">
         <v>90</v>
@@ -14055,22 +13370,22 @@
         <v>89</v>
       </c>
       <c r="H117" s="24" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I117" s="24"/>
       <c r="J117" s="36" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="K117" s="30"/>
       <c r="L117" s="25"/>
       <c r="M117" s="25" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="N117" s="24"/>
       <c r="O117" s="34"/>
       <c r="P117" s="2"/>
     </row>
-    <row r="118" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:16" s="7" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="6">
         <v>8</v>
       </c>
@@ -14081,7 +13396,7 @@
         <v>87</v>
       </c>
       <c r="D118" s="23" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="E118" s="5" t="s">
         <v>54</v>
@@ -14093,11 +13408,11 @@
         <v>72</v>
       </c>
       <c r="H118" s="24" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I118" s="24"/>
       <c r="J118" s="36" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="K118" s="30"/>
       <c r="L118" s="25"/>
@@ -14106,12 +13421,12 @@
       <c r="O118" s="34"/>
       <c r="P118" s="2"/>
     </row>
-    <row r="119" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:16" s="7" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="6"/>
       <c r="B119" s="5"/>
       <c r="C119" s="5"/>
       <c r="D119" s="23" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="E119" s="5" t="s">
         <v>86</v>
@@ -14120,23 +13435,23 @@
         <v>83</v>
       </c>
       <c r="G119" s="19" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="H119" s="24" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I119" s="24" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="J119" s="36" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="K119" s="30"/>
       <c r="L119" s="25" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="M119" s="25" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="N119" s="24"/>
       <c r="O119" s="34"/>
@@ -14144,12 +13459,12 @@
         <v>85</v>
       </c>
     </row>
-    <row r="120" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:16" s="7" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" s="6"/>
       <c r="B120" s="5"/>
       <c r="C120" s="41"/>
       <c r="D120" s="40" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="E120" s="5" t="s">
         <v>84</v>
@@ -14158,42 +13473,42 @@
         <v>83</v>
       </c>
       <c r="G120" s="19" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="H120" s="24" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I120" s="24" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="J120" s="36" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="K120" s="30" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="L120" s="25" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="M120" s="25" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="N120" s="24" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="O120" s="34"/>
       <c r="P120" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="121" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:16" s="7" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="6"/>
       <c r="B121" s="5"/>
       <c r="C121" s="5" t="s">
         <v>82</v>
       </c>
       <c r="D121" s="23" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="E121" s="5" t="s">
         <v>54</v>
@@ -14205,11 +13520,11 @@
         <v>72</v>
       </c>
       <c r="H121" s="24" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I121" s="24"/>
       <c r="J121" s="36" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="K121" s="30"/>
       <c r="L121" s="25"/>
@@ -14218,12 +13533,12 @@
       <c r="O121" s="34"/>
       <c r="P121" s="2"/>
     </row>
-    <row r="122" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:16" s="7" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="6"/>
       <c r="B122" s="5"/>
       <c r="C122" s="5"/>
       <c r="D122" s="40" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="E122" s="18" t="s">
         <v>81</v>
@@ -14232,74 +13547,74 @@
         <v>7</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="H122" s="24" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I122" s="24" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="J122" s="36" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="K122" s="30"/>
       <c r="L122" s="25"/>
       <c r="M122" s="25"/>
       <c r="N122" s="24" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="O122" s="34"/>
       <c r="P122" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="123" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:16" s="7" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="6"/>
       <c r="B123" s="5"/>
       <c r="C123" s="5"/>
       <c r="D123" s="23" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="E123" s="18" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="F123" s="4" t="s">
         <v>7</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>885</v>
+        <v>876</v>
       </c>
       <c r="H123" s="24" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I123" s="24" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="J123" s="36" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K123" s="30" t="s">
-        <v>877</v>
+        <v>868</v>
       </c>
       <c r="L123" s="25" t="s">
-        <v>892</v>
+        <v>882</v>
       </c>
       <c r="M123" s="25"/>
       <c r="N123" s="24" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="O123" s="34"/>
       <c r="P123" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="124" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:16" s="7" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" s="6"/>
       <c r="B124" s="5"/>
       <c r="C124" s="5"/>
       <c r="D124" s="23" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="E124" s="5" t="s">
         <v>79</v>
@@ -14308,32 +13623,32 @@
         <v>7</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="H124" s="24" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I124" s="24"/>
       <c r="J124" s="36" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="K124" s="30"/>
       <c r="L124" s="25" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="M124" s="25" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="N124" s="24"/>
       <c r="O124" s="34"/>
       <c r="P124" s="2"/>
     </row>
-    <row r="125" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:16" s="7" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A125" s="6"/>
       <c r="B125" s="5"/>
       <c r="C125" s="5"/>
       <c r="D125" s="23" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="E125" s="5" t="s">
         <v>78</v>
@@ -14342,32 +13657,32 @@
         <v>5</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
       <c r="H125" s="24" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I125" s="24"/>
       <c r="J125" s="36" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="K125" s="30"/>
       <c r="L125" s="25" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="M125" s="25" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="N125" s="24"/>
       <c r="O125" s="34"/>
       <c r="P125" s="2"/>
     </row>
-    <row r="126" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:16" s="7" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" s="6"/>
       <c r="B126" s="5"/>
       <c r="C126" s="5"/>
       <c r="D126" s="23" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="E126" s="5" t="s">
         <v>77</v>
@@ -14376,34 +13691,34 @@
         <v>3</v>
       </c>
       <c r="G126" s="3" t="s">
-        <v>898</v>
+        <v>887</v>
       </c>
       <c r="H126" s="24" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I126" s="24"/>
       <c r="J126" s="36" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K126" s="30" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
       <c r="L126" s="25" t="s">
-        <v>897</v>
+        <v>886</v>
       </c>
       <c r="M126" s="25" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="N126" s="24"/>
       <c r="O126" s="34"/>
       <c r="P126" s="2"/>
     </row>
-    <row r="127" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:16" s="7" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" s="6"/>
       <c r="B127" s="5"/>
       <c r="C127" s="5"/>
       <c r="D127" s="23" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="E127" s="5" t="s">
         <v>76</v>
@@ -14415,20 +13730,20 @@
         <v>75</v>
       </c>
       <c r="H127" s="24" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I127" s="24"/>
       <c r="J127" s="36" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K127" s="30" t="s">
-        <v>865</v>
+        <v>857</v>
       </c>
       <c r="L127" s="25" t="s">
-        <v>899</v>
+        <v>888</v>
       </c>
       <c r="M127" s="25" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="N127" s="24"/>
       <c r="O127" s="34"/>
@@ -14439,7 +13754,7 @@
       <c r="B128" s="5"/>
       <c r="C128" s="5"/>
       <c r="D128" s="23" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E128" s="5" t="s">
         <v>74</v>
@@ -14448,36 +13763,36 @@
         <v>3</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="H128" s="24" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I128" s="24"/>
       <c r="J128" s="36" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="K128" s="30" t="s">
-        <v>901</v>
+        <v>889</v>
       </c>
       <c r="L128" s="25" t="s">
-        <v>900</v>
+        <v>917</v>
       </c>
       <c r="M128" s="25" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="N128" s="24"/>
       <c r="O128" s="34"/>
       <c r="P128" s="2"/>
     </row>
-    <row r="129" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:16" s="7" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" s="6"/>
       <c r="B129" s="5"/>
       <c r="C129" s="17" t="s">
         <v>73</v>
       </c>
       <c r="D129" s="23" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="E129" s="5" t="s">
         <v>54</v>
@@ -14489,11 +13804,11 @@
         <v>72</v>
       </c>
       <c r="H129" s="24" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I129" s="24"/>
       <c r="J129" s="36" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="K129" s="30"/>
       <c r="L129" s="25"/>
@@ -14507,7 +13822,7 @@
       <c r="B130" s="5"/>
       <c r="C130" s="5"/>
       <c r="D130" s="40" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="E130" s="18" t="s">
         <v>71</v>
@@ -14516,82 +13831,82 @@
         <v>7</v>
       </c>
       <c r="G130" s="13" t="s">
-        <v>886</v>
+        <v>877</v>
       </c>
       <c r="H130" s="24" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I130" s="24" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="J130" s="36" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="K130" s="30" t="s">
-        <v>896</v>
+        <v>913</v>
       </c>
       <c r="L130" s="25" t="s">
-        <v>887</v>
+        <v>914</v>
       </c>
       <c r="M130" s="25" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="N130" s="24" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="O130" s="34"/>
       <c r="P130" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="131" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:16" s="7" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="6"/>
       <c r="B131" s="5"/>
       <c r="C131" s="5"/>
       <c r="D131" s="23" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="E131" s="18" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="F131" s="4" t="s">
         <v>7</v>
       </c>
       <c r="G131" s="13" t="s">
-        <v>888</v>
+        <v>878</v>
       </c>
       <c r="H131" s="24" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I131" s="24" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="J131" s="36" t="s">
-        <v>877</v>
+        <v>868</v>
       </c>
       <c r="K131" s="30" t="s">
-        <v>890</v>
+        <v>880</v>
       </c>
       <c r="L131" s="25" t="s">
-        <v>889</v>
+        <v>879</v>
       </c>
       <c r="M131" s="25" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="N131" s="24" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="O131" s="34"/>
       <c r="P131" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="132" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:16" s="7" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="6"/>
       <c r="B132" s="5"/>
       <c r="C132" s="5"/>
       <c r="D132" s="23" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="E132" s="5" t="s">
         <v>70</v>
@@ -14603,29 +13918,29 @@
         <v>67</v>
       </c>
       <c r="H132" s="24" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I132" s="24"/>
       <c r="J132" s="36" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="K132" s="30"/>
       <c r="L132" s="25" t="s">
+        <v>367</v>
+      </c>
+      <c r="M132" s="25" t="s">
         <v>368</v>
-      </c>
-      <c r="M132" s="25" t="s">
-        <v>369</v>
       </c>
       <c r="N132" s="24"/>
       <c r="O132" s="34"/>
       <c r="P132" s="2"/>
     </row>
-    <row r="133" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:16" s="7" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A133" s="6"/>
       <c r="B133" s="5"/>
       <c r="C133" s="5"/>
       <c r="D133" s="23" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="E133" s="5" t="s">
         <v>69</v>
@@ -14637,27 +13952,27 @@
         <v>67</v>
       </c>
       <c r="H133" s="24" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I133" s="24"/>
       <c r="J133" s="36" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="K133" s="30"/>
       <c r="L133" s="25"/>
       <c r="M133" s="25" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="N133" s="24"/>
       <c r="O133" s="34"/>
       <c r="P133" s="2"/>
     </row>
-    <row r="134" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:16" s="7" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A134" s="6"/>
       <c r="B134" s="5"/>
       <c r="C134" s="5"/>
       <c r="D134" s="23" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="E134" s="5" t="s">
         <v>68</v>
@@ -14669,92 +13984,92 @@
         <v>67</v>
       </c>
       <c r="H134" s="24" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I134" s="24"/>
       <c r="J134" s="36" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="K134" s="30"/>
       <c r="L134" s="25"/>
       <c r="M134" s="25" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="N134" s="24"/>
       <c r="O134" s="34"/>
       <c r="P134" s="2"/>
     </row>
-    <row r="135" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:16" s="7" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A135" s="6"/>
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
       <c r="D135" s="23" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="E135" s="18" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="F135" s="4" t="s">
         <v>7</v>
       </c>
       <c r="G135" s="3" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="H135" s="24" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I135" s="24"/>
       <c r="J135" s="36" t="s">
-        <v>877</v>
+        <v>868</v>
       </c>
       <c r="K135" s="30" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
       <c r="L135" s="25" t="s">
-        <v>891</v>
+        <v>881</v>
       </c>
       <c r="M135" s="25"/>
       <c r="N135" s="24"/>
       <c r="O135" s="34"/>
       <c r="P135" s="2"/>
     </row>
-    <row r="136" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:16" s="7" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A136" s="6"/>
       <c r="B136" s="5"/>
       <c r="C136" s="5"/>
       <c r="D136" s="23" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="E136" s="18" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="F136" s="4" t="s">
         <v>7</v>
       </c>
       <c r="G136" s="3" t="s">
-        <v>893</v>
+        <v>883</v>
       </c>
       <c r="H136" s="24" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I136" s="24" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="J136" s="36" t="s">
-        <v>877</v>
+        <v>868</v>
       </c>
       <c r="K136" s="30" t="s">
-        <v>895</v>
+        <v>885</v>
       </c>
       <c r="L136" s="25" t="s">
-        <v>894</v>
+        <v>884</v>
       </c>
       <c r="M136" s="25"/>
       <c r="N136" s="24"/>
       <c r="O136" s="34"/>
       <c r="P136" s="2"/>
     </row>
-    <row r="137" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:16" s="7" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A137" s="6">
         <v>9</v>
       </c>
@@ -14765,7 +14080,7 @@
         <v>65</v>
       </c>
       <c r="D137" s="23" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="E137" s="5" t="s">
         <v>64</v>
@@ -14774,17 +14089,17 @@
         <v>3</v>
       </c>
       <c r="G137" s="3" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="H137" s="24" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I137" s="24"/>
       <c r="J137" s="36" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="K137" s="30" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="L137" s="25"/>
       <c r="M137" s="25"/>
@@ -14792,14 +14107,14 @@
       <c r="O137" s="34"/>
       <c r="P137" s="2"/>
     </row>
-    <row r="138" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:16" s="7" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A138" s="6"/>
       <c r="B138" s="5"/>
       <c r="C138" s="17" t="s">
         <v>63</v>
       </c>
       <c r="D138" s="23" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="E138" s="5" t="s">
         <v>62</v>
@@ -14811,18 +14126,18 @@
         <v>61</v>
       </c>
       <c r="H138" s="24" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I138" s="24"/>
       <c r="J138" s="36" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="K138" s="30"/>
       <c r="L138" s="25" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="M138" s="27" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="N138" s="24"/>
       <c r="O138" s="34"/>
@@ -14830,12 +14145,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="139" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:16" s="7" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A139" s="6"/>
       <c r="B139" s="5"/>
       <c r="C139" s="5"/>
       <c r="D139" s="23" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="E139" s="5" t="s">
         <v>59</v>
@@ -14847,29 +14162,29 @@
         <v>56</v>
       </c>
       <c r="H139" s="24" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I139" s="24"/>
       <c r="J139" s="36" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="K139" s="32"/>
       <c r="L139" s="27" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="M139" s="27" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="N139" s="24"/>
       <c r="O139" s="34"/>
       <c r="P139" s="2"/>
     </row>
-    <row r="140" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:16" s="7" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A140" s="6"/>
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
       <c r="D140" s="23" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="E140" s="5" t="s">
         <v>58</v>
@@ -14881,33 +14196,33 @@
         <v>56</v>
       </c>
       <c r="H140" s="24" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I140" s="24"/>
       <c r="J140" s="36" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="K140" s="30" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="L140" s="25" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="M140" s="27" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="N140" s="24" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="O140" s="34"/>
       <c r="P140" s="2"/>
     </row>
-    <row r="141" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:16" s="7" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A141" s="6"/>
       <c r="B141" s="5"/>
       <c r="C141" s="5"/>
       <c r="D141" s="23" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="E141" s="5" t="s">
         <v>57</v>
@@ -14919,63 +14234,63 @@
         <v>56</v>
       </c>
       <c r="H141" s="24" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I141" s="24"/>
       <c r="J141" s="36" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="K141" s="30"/>
       <c r="L141" s="25" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="M141" s="27" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="N141" s="24"/>
       <c r="O141" s="34"/>
       <c r="P141" s="2"/>
     </row>
-    <row r="142" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:16" s="7" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A142" s="6"/>
       <c r="B142" s="5"/>
       <c r="C142" s="5" t="s">
         <v>55</v>
       </c>
       <c r="D142" s="23" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="E142" s="5" t="s">
-        <v>871</v>
+        <v>862</v>
       </c>
       <c r="F142" s="4" t="s">
         <v>7</v>
       </c>
       <c r="G142" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H142" s="24" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I142" s="24"/>
       <c r="J142" s="36" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="K142" s="33"/>
       <c r="L142" s="28"/>
       <c r="M142" s="27" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="N142" s="24"/>
       <c r="O142" s="34"/>
       <c r="P142" s="2"/>
     </row>
-    <row r="143" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:16" s="7" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A143" s="6"/>
       <c r="B143" s="5"/>
       <c r="C143" s="5"/>
       <c r="D143" s="40" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="E143" s="5" t="s">
         <v>53</v>
@@ -14984,82 +14299,82 @@
         <v>7</v>
       </c>
       <c r="G143" s="15" t="s">
-        <v>868</v>
+        <v>859</v>
       </c>
       <c r="H143" s="24" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I143" s="24" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="J143" s="36" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="K143" s="33" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="L143" s="28" t="s">
-        <v>869</v>
+        <v>860</v>
       </c>
       <c r="M143" s="24" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="N143" s="24" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="O143" s="34"/>
       <c r="P143" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="144" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:16" s="7" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A144" s="6"/>
       <c r="B144" s="5"/>
       <c r="C144" s="5"/>
       <c r="D144" s="23" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="E144" s="5" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="F144" s="4" t="s">
         <v>7</v>
       </c>
       <c r="G144" s="15" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="H144" s="24" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I144" s="24" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="J144" s="36" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="K144" s="33" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="L144" s="28" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="M144" s="24" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="N144" s="24" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="O144" s="34"/>
       <c r="P144" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="145" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:16" s="7" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A145" s="6"/>
       <c r="B145" s="5"/>
       <c r="C145" s="5"/>
       <c r="D145" s="23" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E145" s="5" t="s">
         <v>52</v>
@@ -15071,29 +14386,29 @@
         <v>49</v>
       </c>
       <c r="H145" s="24" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I145" s="24"/>
       <c r="J145" s="36" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="K145" s="34"/>
       <c r="L145" s="24" t="s">
+        <v>350</v>
+      </c>
+      <c r="M145" s="24" t="s">
         <v>351</v>
-      </c>
-      <c r="M145" s="24" t="s">
-        <v>352</v>
       </c>
       <c r="N145" s="24"/>
       <c r="O145" s="34"/>
       <c r="P145" s="2"/>
     </row>
-    <row r="146" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:16" s="7" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A146" s="6"/>
       <c r="B146" s="5"/>
       <c r="C146" s="5"/>
       <c r="D146" s="23" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="E146" s="5" t="s">
         <v>51</v>
@@ -15105,29 +14420,29 @@
         <v>49</v>
       </c>
       <c r="H146" s="24" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I146" s="24"/>
       <c r="J146" s="36" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="K146" s="30"/>
       <c r="L146" s="25" t="s">
-        <v>872</v>
+        <v>863</v>
       </c>
       <c r="M146" s="25" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="N146" s="24"/>
       <c r="O146" s="34"/>
       <c r="P146" s="2"/>
     </row>
-    <row r="147" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:16" s="7" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A147" s="6"/>
       <c r="B147" s="5"/>
       <c r="C147" s="5"/>
       <c r="D147" s="23" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="E147" s="5" t="s">
         <v>50</v>
@@ -15139,29 +14454,29 @@
         <v>49</v>
       </c>
       <c r="H147" s="24" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I147" s="24"/>
       <c r="J147" s="36" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K147" s="30"/>
       <c r="L147" s="25" t="s">
+        <v>352</v>
+      </c>
+      <c r="M147" s="25" t="s">
         <v>353</v>
-      </c>
-      <c r="M147" s="25" t="s">
-        <v>354</v>
       </c>
       <c r="N147" s="24"/>
       <c r="O147" s="34"/>
       <c r="P147" s="2"/>
     </row>
-    <row r="148" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:16" s="7" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A148" s="6"/>
       <c r="B148" s="5"/>
       <c r="C148" s="5"/>
       <c r="D148" s="23" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="E148" s="5" t="s">
         <v>48</v>
@@ -15170,40 +14485,40 @@
         <v>3</v>
       </c>
       <c r="G148" s="3" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="H148" s